--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$188</f>
+              <f>'data'!$B$2:$B$148</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$188</f>
+              <f>'data'!$C$2:$C$148</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$188</f>
+              <f>'data'!$D$2:$D$148</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$188</f>
+              <f>'data'!$E$2:$E$148</f>
             </numRef>
           </val>
         </ser>
@@ -302,7 +302,142 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$F$2:$F$188</f>
+              <f>'data'!$F$2:$F$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'data'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$G$2:$G$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'data'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$H$2:$H$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'data'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$I$2:$I$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'data'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$J$2:$J$148</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>'data'!K1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$K$2:$K$148</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,27 +823,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kynan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jonathan</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Cedric</t>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Jacob</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
         </is>
       </c>
     </row>
@@ -731,25 +891,31 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -760,16 +926,19 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>-0.08</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.17</v>
+      <c r="G4" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -777,19 +946,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.15</v>
+        <v>-0.08</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.74</v>
+        <v>-0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F5" t="n">
-        <v>1.79</v>
+        <v>-0.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -797,19 +969,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46</v>
+        <v>-0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.46</v>
+        <v>-0.11</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04</v>
+        <v>-0.18</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>-0.06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -817,19 +992,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.51</v>
+        <v>0.32</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.61</v>
+        <v>-0.12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33</v>
+        <v>-0.47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>3.74</v>
+        <v>-0.09</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
@@ -837,19 +1015,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.23</v>
+        <v>-0.2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="F8" t="n">
-        <v>4.21</v>
+        <v>-0.11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
@@ -857,19 +1038,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.44</v>
+        <v>0.73</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.69</v>
+        <v>-0.29</v>
       </c>
       <c r="D9" t="n">
-        <v>0.78</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
       <c r="F9" t="n">
-        <v>4.52</v>
+        <v>-0.13</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="10">
@@ -877,19 +1061,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.08</v>
+        <v>0.85</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.7</v>
+        <v>-0.41</v>
       </c>
       <c r="D10" t="n">
-        <v>0.91</v>
+        <v>-0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>4.76</v>
+        <v>-0.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="11">
@@ -897,19 +1084,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.59</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.53</v>
+        <v>-0.51</v>
       </c>
       <c r="D11" t="n">
-        <v>1.04</v>
+        <v>-0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="F11" t="n">
-        <v>4.95</v>
+        <v>-0.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
@@ -917,19 +1107,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.59</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.53</v>
+        <v>-0.51</v>
       </c>
       <c r="D12" t="n">
-        <v>1.04</v>
+        <v>-0.24</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="F12" t="n">
-        <v>4.95</v>
+        <v>-0.34</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
@@ -937,19 +1130,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.2</v>
+        <v>1.31</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.02</v>
+        <v>-0.65</v>
       </c>
       <c r="D13" t="n">
-        <v>1.19</v>
+        <v>-0.15</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="F13" t="n">
-        <v>5.69</v>
+        <v>-0.51</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
@@ -957,19 +1153,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.82</v>
+        <v>1.68</v>
       </c>
       <c r="C14" t="n">
-        <v>-10.51</v>
+        <v>-0.78</v>
       </c>
       <c r="D14" t="n">
-        <v>1.4</v>
+        <v>-0.14</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.11</v>
+        <v>-0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>6.41</v>
+        <v>-0.57</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="15">
@@ -977,19 +1176,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.39</v>
+        <v>3.07</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.04</v>
+        <v>-0.91</v>
       </c>
       <c r="D15" t="n">
-        <v>1.69</v>
+        <v>-1.06</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.16</v>
+        <v>-0.14</v>
       </c>
       <c r="F15" t="n">
-        <v>7.12</v>
+        <v>-0.63</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="16">
@@ -997,19 +1199,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.98</v>
+        <v>4.38</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.8</v>
+        <v>-1.04</v>
       </c>
       <c r="D16" t="n">
-        <v>1.97</v>
+        <v>-2.01</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.19</v>
+        <v>-0.28</v>
       </c>
       <c r="F16" t="n">
-        <v>7.04</v>
+        <v>-0.41</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1222,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.18</v>
+        <v>5.61</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.17</v>
+        <v>-0.62</v>
       </c>
       <c r="D17" t="n">
-        <v>2.25</v>
+        <v>-2.96</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.22</v>
+        <v>-0.5</v>
       </c>
       <c r="F17" t="n">
-        <v>6.96</v>
+        <v>-0.26</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.27</v>
       </c>
     </row>
     <row r="18">
@@ -1037,19 +1245,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.7</v>
+        <v>6.65</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.62</v>
+        <v>-0.19</v>
       </c>
       <c r="D18" t="n">
-        <v>2.29</v>
+        <v>-3.73</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.25</v>
+        <v>-0.72</v>
       </c>
       <c r="F18" t="n">
-        <v>6.88</v>
+        <v>-0.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="19">
@@ -1057,19 +1268,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.24</v>
+        <v>7.67</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.92</v>
+        <v>0.28</v>
       </c>
       <c r="D19" t="n">
-        <v>2.33</v>
+        <v>-4.5</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.23</v>
+        <v>-0.9</v>
       </c>
       <c r="F19" t="n">
-        <v>6.57</v>
+        <v>0.01</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2.56</v>
       </c>
     </row>
     <row r="20">
@@ -1077,19 +1291,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.86</v>
+        <v>8.32</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.93</v>
+        <v>0.79</v>
       </c>
       <c r="D20" t="n">
-        <v>2.37</v>
+        <v>-5.39</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.37</v>
+        <v>-1.1</v>
       </c>
       <c r="F20" t="n">
-        <v>6.07</v>
+        <v>0.12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2.74</v>
       </c>
     </row>
     <row r="21">
@@ -1097,19 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.84</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>-15.29</v>
+        <v>1.33</v>
       </c>
       <c r="D21" t="n">
-        <v>2.43</v>
+        <v>-6.52</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.55</v>
+        <v>-1.23</v>
       </c>
       <c r="F21" t="n">
-        <v>5.57</v>
+        <v>0.28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-2.82</v>
       </c>
     </row>
     <row r="22">
@@ -1117,19 +1337,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-15.59</v>
+        <v>1.78</v>
       </c>
       <c r="D22" t="n">
-        <v>2.45</v>
+        <v>-7.65</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.73</v>
+        <v>-1.46</v>
       </c>
       <c r="F22" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.8</v>
       </c>
     </row>
     <row r="23">
@@ -1137,19 +1360,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.77</v>
+        <v>10.09</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.89</v>
+        <v>2.22</v>
       </c>
       <c r="D23" t="n">
-        <v>2.52</v>
+        <v>-8.75</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.01</v>
+        <v>-1.57</v>
       </c>
       <c r="F23" t="n">
-        <v>4.48</v>
+        <v>0.76</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2.72</v>
       </c>
     </row>
     <row r="24">
@@ -1157,19 +1383,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.73</v>
+        <v>10.55</v>
       </c>
       <c r="C24" t="n">
-        <v>-16.19</v>
+        <v>2.67</v>
       </c>
       <c r="D24" t="n">
-        <v>2.53</v>
+        <v>-9.82</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.3</v>
+        <v>-1.62</v>
       </c>
       <c r="F24" t="n">
-        <v>3.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2.63</v>
       </c>
     </row>
     <row r="25">
@@ -1177,19 +1406,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.75</v>
+        <v>10.01</v>
       </c>
       <c r="C25" t="n">
-        <v>-16.51</v>
+        <v>3.07</v>
       </c>
       <c r="D25" t="n">
-        <v>2.47</v>
+        <v>-9.94</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.58</v>
+        <v>-1.55</v>
       </c>
       <c r="F25" t="n">
-        <v>3.49</v>
+        <v>1.02</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2.56</v>
       </c>
     </row>
     <row r="26">
@@ -1197,19 +1429,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.91</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-16.82</v>
+        <v>3.49</v>
       </c>
       <c r="D26" t="n">
-        <v>2.39</v>
+        <v>-10.01</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.87</v>
+        <v>-1.44</v>
       </c>
       <c r="F26" t="n">
-        <v>3.01</v>
+        <v>0.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.4</v>
       </c>
     </row>
     <row r="27">
@@ -1217,19 +1452,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.04</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>-17.49</v>
+        <v>3.38</v>
       </c>
       <c r="D27" t="n">
-        <v>2.32</v>
+        <v>-10.08</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.78</v>
+        <v>-1.27</v>
       </c>
       <c r="F27" t="n">
-        <v>2.53</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="28">
@@ -1237,19 +1475,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.05</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>-18.16</v>
+        <v>3.26</v>
       </c>
       <c r="D28" t="n">
-        <v>2.43</v>
+        <v>-10.1</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.68</v>
+        <v>-1.06</v>
       </c>
       <c r="F28" t="n">
-        <v>1.97</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.41</v>
       </c>
     </row>
     <row r="29">
@@ -1257,19 +1498,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16.05</v>
+        <v>8.31</v>
       </c>
       <c r="C29" t="n">
-        <v>-19.09</v>
+        <v>3.12</v>
       </c>
       <c r="D29" t="n">
-        <v>2.54</v>
+        <v>-10.14</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.57</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>1.68</v>
+        <v>0.61</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.87</v>
       </c>
     </row>
     <row r="30">
@@ -1277,19 +1521,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16.03</v>
+        <v>8.31</v>
       </c>
       <c r="C30" t="n">
-        <v>-19.24</v>
+        <v>2.98</v>
       </c>
       <c r="D30" t="n">
-        <v>2.65</v>
+        <v>-10.44</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.45</v>
+        <v>-0.77</v>
       </c>
       <c r="F30" t="n">
-        <v>1.63</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="31">
@@ -1297,19 +1544,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>8.31</v>
       </c>
       <c r="C31" t="n">
-        <v>-19.48</v>
+        <v>2.87</v>
       </c>
       <c r="D31" t="n">
-        <v>2.8</v>
+        <v>-10.73</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.28</v>
+        <v>-0.66</v>
       </c>
       <c r="F31" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="32">
@@ -1317,19 +1567,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.99</v>
+        <v>8.31</v>
       </c>
       <c r="C32" t="n">
-        <v>-19.71</v>
+        <v>3.55</v>
       </c>
       <c r="D32" t="n">
-        <v>2.96</v>
+        <v>-11.02</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.13</v>
+        <v>-0.84</v>
       </c>
       <c r="F32" t="n">
-        <v>1.51</v>
+        <v>1.14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.04</v>
       </c>
     </row>
     <row r="33">
@@ -1337,19 +1590,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.01</v>
+        <v>8.31</v>
       </c>
       <c r="C33" t="n">
-        <v>-19.94</v>
+        <v>4.23</v>
       </c>
       <c r="D33" t="n">
-        <v>3.13</v>
+        <v>-11.32</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.88</v>
+        <v>-1.11</v>
       </c>
       <c r="F33" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1.38</v>
       </c>
     </row>
     <row r="34">
@@ -1357,19 +1613,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.96</v>
+        <v>8.31</v>
       </c>
       <c r="C34" t="n">
-        <v>-20.08</v>
+        <v>4.91</v>
       </c>
       <c r="D34" t="n">
-        <v>3.3</v>
+        <v>-11.65</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.61</v>
+        <v>-1.49</v>
       </c>
       <c r="F34" t="n">
-        <v>1.3</v>
+        <v>1.96</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1377,19 +1642,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.85</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>-19.77</v>
+        <v>6.23</v>
       </c>
       <c r="D35" t="n">
-        <v>3.09</v>
+        <v>-12.28</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.34</v>
+        <v>-2.24</v>
       </c>
       <c r="F35" t="n">
-        <v>1.16</v>
+        <v>2.55</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="36">
@@ -1397,19 +1671,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.54</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>-19.49</v>
+        <v>7.55</v>
       </c>
       <c r="D36" t="n">
-        <v>3.03</v>
+        <v>-12.95</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.09</v>
+        <v>-2.56</v>
       </c>
       <c r="F36" t="n">
-        <v>1.02</v>
+        <v>3.09</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-3.04</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.1333333333333333</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.4666666666666666</v>
       </c>
     </row>
     <row r="37">
@@ -1417,19 +1700,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.25</v>
+        <v>7.74</v>
       </c>
       <c r="C37" t="n">
-        <v>-18.79</v>
+        <v>8.83</v>
       </c>
       <c r="D37" t="n">
-        <v>2.96</v>
+        <v>-13.23</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.24</v>
+        <v>-2.9</v>
       </c>
       <c r="F37" t="n">
-        <v>0.82</v>
+        <v>3.58</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.275</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.825</v>
       </c>
     </row>
     <row r="38">
@@ -1437,19 +1729,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.89</v>
+        <v>7.88</v>
       </c>
       <c r="C38" t="n">
-        <v>-18</v>
+        <v>10.13</v>
       </c>
       <c r="D38" t="n">
-        <v>2.94</v>
+        <v>-13.6</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.45</v>
+        <v>-3.24</v>
       </c>
       <c r="F38" t="n">
-        <v>0.63</v>
+        <v>4.04</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="39">
@@ -1457,19 +1758,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.6</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>-17.25</v>
+        <v>11.45</v>
       </c>
       <c r="D39" t="n">
-        <v>2.92</v>
+        <v>-14.01</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.7</v>
+        <v>-3.6</v>
       </c>
       <c r="F39" t="n">
-        <v>0.44</v>
+        <v>4.49</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-5.64</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.6333333333333334</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-2.275</v>
       </c>
     </row>
     <row r="40">
@@ -1477,19 +1787,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.24</v>
+        <v>9.26</v>
       </c>
       <c r="C40" t="n">
-        <v>-17.55</v>
+        <v>12.76</v>
       </c>
       <c r="D40" t="n">
-        <v>2.82</v>
+        <v>-14.15</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.9</v>
+        <v>-4.03</v>
       </c>
       <c r="F40" t="n">
-        <v>1.38</v>
+        <v>4.65</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.8142857142857143</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-3.142857142857142</v>
       </c>
     </row>
     <row r="41">
@@ -1497,19 +1816,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.9</v>
+        <v>9.93</v>
       </c>
       <c r="C41" t="n">
-        <v>-17.71</v>
+        <v>14.04</v>
       </c>
       <c r="D41" t="n">
-        <v>2.58</v>
+        <v>-14.35</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.11</v>
+        <v>-4.51</v>
       </c>
       <c r="F41" t="n">
-        <v>2.33</v>
+        <v>4.81</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.08750000000000001</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-3.793749999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1517,19 +1845,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.67</v>
+        <v>10.17</v>
       </c>
       <c r="C42" t="n">
-        <v>-18.01</v>
+        <v>14.57</v>
       </c>
       <c r="D42" t="n">
-        <v>2.35</v>
+        <v>-14.72</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.32</v>
+        <v>-4.73</v>
       </c>
       <c r="F42" t="n">
-        <v>3.3</v>
+        <v>5.04</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-7.21</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-4.205555555555555</v>
       </c>
     </row>
     <row r="43">
@@ -1537,19 +1874,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.4</v>
+        <v>10.5</v>
       </c>
       <c r="C43" t="n">
-        <v>-18.38</v>
+        <v>15.05</v>
       </c>
       <c r="D43" t="n">
-        <v>2.12</v>
+        <v>-15.05</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.59</v>
+        <v>-4.94</v>
       </c>
       <c r="F43" t="n">
-        <v>4.47</v>
+        <v>5.12</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.122000000000001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-4.605</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1557,19 +1906,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.22</v>
+        <v>10.83</v>
       </c>
       <c r="C44" t="n">
-        <v>-18.87</v>
+        <v>15.52</v>
       </c>
       <c r="D44" t="n">
-        <v>1.89</v>
+        <v>-15.66</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.86</v>
+        <v>-5.08</v>
       </c>
       <c r="F44" t="n">
-        <v>5.67</v>
+        <v>4.41</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-7.39</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.122000000000001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-4.605</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="45">
@@ -1577,19 +1938,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.06</v>
+        <v>11.46</v>
       </c>
       <c r="C45" t="n">
-        <v>-19.77</v>
+        <v>15.4</v>
       </c>
       <c r="D45" t="n">
-        <v>2.02</v>
+        <v>-15.98</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.14</v>
+        <v>-4.93</v>
       </c>
       <c r="F45" t="n">
-        <v>6.86</v>
+        <v>3.71</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-7.39</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.315</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-5.425</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.08333333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1597,19 +1970,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.96</v>
+        <v>12.33</v>
       </c>
       <c r="C46" t="n">
-        <v>-20.65</v>
+        <v>15.26</v>
       </c>
       <c r="D46" t="n">
-        <v>2.01</v>
+        <v>-16.26</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.35</v>
+        <v>-5.13</v>
       </c>
       <c r="F46" t="n">
-        <v>8.06</v>
+        <v>3.06</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-7.39</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.497999999999999</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-6.205</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="47">
@@ -1617,19 +2002,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.86</v>
+        <v>13.25</v>
       </c>
       <c r="C47" t="n">
-        <v>-21.54</v>
+        <v>15.12</v>
       </c>
       <c r="D47" t="n">
-        <v>2.02</v>
+        <v>-16.99</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.6</v>
+        <v>-5.38</v>
       </c>
       <c r="F47" t="n">
-        <v>9.32</v>
+        <v>2.45</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-7.29</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.715999999999999</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-6.620000000000002</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="48">
@@ -1637,19 +2034,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.81</v>
+        <v>13.73</v>
       </c>
       <c r="C48" t="n">
-        <v>-22.41</v>
+        <v>14.99</v>
       </c>
       <c r="D48" t="n">
-        <v>1.81</v>
+        <v>-17.77</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.78</v>
+        <v>-5.62</v>
       </c>
       <c r="F48" t="n">
-        <v>10.65</v>
+        <v>1.94</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.964</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-6.984999999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="49">
@@ -1657,19 +2066,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.7</v>
+        <v>13.85</v>
       </c>
       <c r="C49" t="n">
-        <v>-23.04</v>
+        <v>14.86</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6</v>
+        <v>-18.22</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.15</v>
+        <v>-5.86</v>
       </c>
       <c r="F49" t="n">
-        <v>11.99</v>
+        <v>1.43</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-6.73</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8.271999999999998</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-7.359999999999999</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.1071428571428571</v>
       </c>
     </row>
     <row r="50">
@@ -1677,19 +2098,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.67</v>
+        <v>13.2</v>
       </c>
       <c r="C50" t="n">
-        <v>-22.67</v>
+        <v>14.71</v>
       </c>
       <c r="D50" t="n">
-        <v>1.45</v>
+        <v>-18.67</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.52</v>
+        <v>-6.04</v>
       </c>
       <c r="F50" t="n">
-        <v>12.17</v>
+        <v>0.93</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-6.39</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.075</v>
       </c>
     </row>
     <row r="51">
@@ -1697,19 +2130,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.54</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
-        <v>-22.68</v>
+        <v>14.46</v>
       </c>
       <c r="D51" t="n">
-        <v>1.38</v>
+        <v>-19.08</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.89</v>
+        <v>-6.17</v>
       </c>
       <c r="F51" t="n">
-        <v>12.75</v>
+        <v>0.44</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-6.61</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10.918</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-6.904999999999999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="52">
@@ -1717,19 +2162,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.3</v>
+        <v>13.83</v>
       </c>
       <c r="C52" t="n">
-        <v>-22.61</v>
+        <v>14.29</v>
       </c>
       <c r="D52" t="n">
-        <v>1.4</v>
+        <v>-19.32</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.3</v>
+        <v>-6.59</v>
       </c>
       <c r="F52" t="n">
-        <v>13.31</v>
+        <v>-0.05</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="H52" t="n">
+        <v>11.426</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-6.640000000000001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.03999999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1737,19 +2194,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.04</v>
+        <v>14.56</v>
       </c>
       <c r="C53" t="n">
-        <v>-22.37</v>
+        <v>14.17</v>
       </c>
       <c r="D53" t="n">
-        <v>1.35</v>
+        <v>-19.56</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.62</v>
+        <v>-6.99</v>
       </c>
       <c r="F53" t="n">
-        <v>13.68</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-7.47</v>
+      </c>
+      <c r="H53" t="n">
+        <v>11.934</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-6.110000000000001</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.03999999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1757,19 +2226,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.77</v>
+        <v>14.94</v>
       </c>
       <c r="C54" t="n">
-        <v>-21.98</v>
+        <v>14.05</v>
       </c>
       <c r="D54" t="n">
-        <v>1.19</v>
+        <v>-18.08</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.95</v>
+        <v>-7.39</v>
       </c>
       <c r="F54" t="n">
-        <v>14.03</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-8.02</v>
+      </c>
+      <c r="H54" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-1.04</v>
       </c>
     </row>
     <row r="55">
@@ -1777,19 +2258,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.52</v>
+        <v>15.03</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.54</v>
+        <v>13.85</v>
       </c>
       <c r="D55" t="n">
-        <v>0.98</v>
+        <v>-16.68</v>
       </c>
       <c r="E55" t="n">
-        <v>-5.28</v>
+        <v>-6.79</v>
       </c>
       <c r="F55" t="n">
-        <v>14.38</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-2.03</v>
       </c>
     </row>
     <row r="56">
@@ -1797,19 +2290,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.28</v>
+        <v>14.8</v>
       </c>
       <c r="C56" t="n">
-        <v>-21.04</v>
+        <v>13.67</v>
       </c>
       <c r="D56" t="n">
-        <v>0.76</v>
+        <v>-13.94</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.67</v>
+        <v>-6.25</v>
       </c>
       <c r="F56" t="n">
-        <v>14.73</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-10.77</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10.385</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-4.33</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-3.070000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1817,19 +2322,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.08</v>
+        <v>14.56</v>
       </c>
       <c r="C57" t="n">
-        <v>-20.69</v>
+        <v>13.48</v>
       </c>
       <c r="D57" t="n">
-        <v>0.52</v>
+        <v>-11.14</v>
       </c>
       <c r="E57" t="n">
-        <v>-6</v>
+        <v>-5.63</v>
       </c>
       <c r="F57" t="n">
-        <v>15.13</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-12.07</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9.355</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-4.075</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-3.995000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1837,19 +2354,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.88</v>
+        <v>14.27</v>
       </c>
       <c r="C58" t="n">
-        <v>-20.26</v>
+        <v>13.26</v>
       </c>
       <c r="D58" t="n">
-        <v>0.28</v>
+        <v>-8.32</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.4</v>
+        <v>-5.13</v>
       </c>
       <c r="F58" t="n">
-        <v>15.52</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-13.38</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-2.835</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-5.19</v>
       </c>
     </row>
     <row r="59">
@@ -1857,19 +2386,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.61</v>
+        <v>14.21</v>
       </c>
       <c r="C59" t="n">
-        <v>-19.9</v>
+        <v>13.03</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05</v>
+        <v>-5.76</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.59</v>
+        <v>-4.63</v>
       </c>
       <c r="F59" t="n">
-        <v>15.83</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-14.69</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6.245000000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-1.575</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-6.335</v>
       </c>
     </row>
     <row r="60">
@@ -1877,19 +2418,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10.26</v>
+        <v>13.8</v>
       </c>
       <c r="C60" t="n">
-        <v>-19.38</v>
+        <v>12.71</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.19</v>
+        <v>-3.77</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.77</v>
+        <v>-4.68</v>
       </c>
       <c r="F60" t="n">
-        <v>16.08</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-14.49</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.2959999999999999</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-7.48</v>
       </c>
     </row>
     <row r="61">
@@ -1897,19 +2450,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.11</v>
+        <v>13.4</v>
       </c>
       <c r="C61" t="n">
-        <v>-18.58</v>
+        <v>12.49</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.48</v>
+        <v>-1.7</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.96</v>
+        <v>-4.73</v>
       </c>
       <c r="F61" t="n">
-        <v>15.91</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9080000000000006</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-8.645</v>
       </c>
     </row>
     <row r="62">
@@ -1917,19 +2482,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.960000000000001</v>
+        <v>12.24</v>
       </c>
       <c r="C62" t="n">
-        <v>-17.71</v>
+        <v>12.27</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.85</v>
+        <v>0.31</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.1</v>
+        <v>-4.45</v>
       </c>
       <c r="F62" t="n">
-        <v>15.7</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-14.06</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.392</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1937,19 +2514,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.81</v>
+        <v>10.11</v>
       </c>
       <c r="C63" t="n">
-        <v>-16.94</v>
+        <v>12.05</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.15</v>
+        <v>3.51</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.24</v>
+        <v>-4.15</v>
       </c>
       <c r="F63" t="n">
-        <v>15.52</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-11.065</v>
       </c>
     </row>
     <row r="64">
@@ -1957,19 +2546,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.66</v>
+        <v>8.76</v>
       </c>
       <c r="C64" t="n">
-        <v>-16.29</v>
+        <v>11.82</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.33</v>
+        <v>5.34</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.38</v>
+        <v>-4.12</v>
       </c>
       <c r="F64" t="n">
-        <v>15.34</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-13.03</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.320000000000001</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-11.265</v>
       </c>
     </row>
     <row r="65">
@@ -1977,19 +2578,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.43</v>
+        <v>7.41</v>
       </c>
       <c r="C65" t="n">
-        <v>-15.52</v>
+        <v>11.67</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.53</v>
+        <v>7.24</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.54</v>
+        <v>-5.07</v>
       </c>
       <c r="F65" t="n">
-        <v>15.16</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-11.71</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.294</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-11.465</v>
       </c>
     </row>
     <row r="66">
@@ -1997,19 +2610,31 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.52</v>
+        <v>5.95</v>
       </c>
       <c r="C66" t="n">
-        <v>-15.08</v>
+        <v>11.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.72</v>
+        <v>7.75</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.7</v>
+        <v>-6.03</v>
       </c>
       <c r="F66" t="n">
-        <v>14.98</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-9.83</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-3.245</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.198</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-11.66</v>
       </c>
     </row>
     <row r="67">
@@ -2017,19 +2642,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.57</v>
+        <v>4.54</v>
       </c>
       <c r="C67" t="n">
-        <v>-14.59</v>
+        <v>11.35</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.84</v>
+        <v>8.19</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.86</v>
+        <v>-6.92</v>
       </c>
       <c r="F67" t="n">
-        <v>14.73</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-7.89</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-3.833000000000001</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.106999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-11.9</v>
       </c>
     </row>
     <row r="68">
@@ -2037,19 +2674,31 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.640000000000001</v>
+        <v>3.14</v>
       </c>
       <c r="C68" t="n">
-        <v>-14.2</v>
+        <v>11.23</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.97</v>
+        <v>8.67</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.91</v>
+        <v>-7.7</v>
       </c>
       <c r="F68" t="n">
-        <v>14.48</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-6.01</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-3.896</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7.895999999999999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-12.675</v>
       </c>
     </row>
     <row r="69">
@@ -2057,19 +2706,31 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.789999999999999</v>
+        <v>1.69</v>
       </c>
       <c r="C69" t="n">
-        <v>-13.88</v>
+        <v>11.11</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.15</v>
+        <v>9.15</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.94</v>
+        <v>-8.48</v>
       </c>
       <c r="F69" t="n">
-        <v>14.26</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-4.004</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-13.355</v>
       </c>
     </row>
     <row r="70">
@@ -2077,19 +2738,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.98</v>
+        <v>0.43</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.95</v>
+        <v>11.03</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.6</v>
+        <v>10.44</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.97</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>13.62</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-4.172000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9.434999999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-14.035</v>
       </c>
     </row>
     <row r="71">
@@ -2097,19 +2770,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.06</v>
+        <v>-0.84</v>
       </c>
       <c r="C71" t="n">
-        <v>-13.97</v>
+        <v>10.86</v>
       </c>
       <c r="D71" t="n">
-        <v>-1</v>
+        <v>11.66</v>
       </c>
       <c r="E71" t="n">
-        <v>-8</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-4.350000000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-14.383</v>
       </c>
     </row>
     <row r="72">
@@ -2117,19 +2802,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.07</v>
+        <v>-1.27</v>
       </c>
       <c r="C72" t="n">
-        <v>-13.97</v>
+        <v>10.65</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.41</v>
+        <v>12.9</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.029999999999999</v>
+        <v>-9.57</v>
       </c>
       <c r="F72" t="n">
-        <v>12.42</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-4.973000000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-14.681</v>
       </c>
     </row>
     <row r="73">
@@ -2137,19 +2834,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.08</v>
+        <v>-0.74</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.94</v>
+        <v>10.65</v>
       </c>
       <c r="D73" t="n">
-        <v>0.18</v>
+        <v>12.85</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.06</v>
+        <v>-10.12</v>
       </c>
       <c r="F73" t="n">
-        <v>11.81</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-5.596000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-14.979</v>
       </c>
     </row>
     <row r="74">
@@ -2157,19 +2866,31 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.04</v>
+        <v>-0.64</v>
       </c>
       <c r="C74" t="n">
-        <v>-14.17</v>
+        <v>10.65</v>
       </c>
       <c r="D74" t="n">
-        <v>1.15</v>
+        <v>12.82</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.15</v>
+        <v>-10.42</v>
       </c>
       <c r="F74" t="n">
-        <v>11.2</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-6.499</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-15.277</v>
       </c>
     </row>
     <row r="75">
@@ -2177,19 +2898,31 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.09</v>
+        <v>-0.54</v>
       </c>
       <c r="C75" t="n">
-        <v>-14.56</v>
+        <v>10.66</v>
       </c>
       <c r="D75" t="n">
-        <v>2.18</v>
+        <v>13.1</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.210000000000001</v>
+        <v>-10.73</v>
       </c>
       <c r="F75" t="n">
-        <v>10.59</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-7.482000000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-15.585</v>
       </c>
     </row>
     <row r="76">
@@ -2197,19 +2930,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.12</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>-14.89</v>
+        <v>10.66</v>
       </c>
       <c r="D76" t="n">
-        <v>3.2</v>
+        <v>13.43</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.34</v>
+        <v>-11.08</v>
       </c>
       <c r="F76" t="n">
-        <v>9.98</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-8.510000000000002</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-16.173</v>
       </c>
     </row>
     <row r="77">
@@ -2217,19 +2962,31 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.11</v>
+        <v>0.49</v>
       </c>
       <c r="C77" t="n">
-        <v>-15.37</v>
+        <v>10.67</v>
       </c>
       <c r="D77" t="n">
-        <v>4.18</v>
+        <v>13.85</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.470000000000001</v>
+        <v>-11.48</v>
       </c>
       <c r="F77" t="n">
-        <v>9.630000000000001</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-9.485000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>14.935</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-17.181</v>
       </c>
     </row>
     <row r="78">
@@ -2237,19 +2994,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.07</v>
+        <v>1.03</v>
       </c>
       <c r="C78" t="n">
-        <v>-15.8</v>
+        <v>10.62</v>
       </c>
       <c r="D78" t="n">
-        <v>5.17</v>
+        <v>14.25</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.67</v>
+        <v>-11.57</v>
       </c>
       <c r="F78" t="n">
-        <v>9.27</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-10.465</v>
+      </c>
+      <c r="I78" t="n">
+        <v>15.418</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-17.494</v>
       </c>
     </row>
     <row r="79">
@@ -2257,19 +3026,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.01</v>
+        <v>1.61</v>
       </c>
       <c r="C79" t="n">
-        <v>-16.25</v>
+        <v>10.58</v>
       </c>
       <c r="D79" t="n">
-        <v>6.2</v>
+        <v>14.65</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.92</v>
+        <v>-11.65</v>
       </c>
       <c r="F79" t="n">
-        <v>8.960000000000001</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-11.445</v>
+      </c>
+      <c r="I79" t="n">
+        <v>15.901</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-17.837</v>
       </c>
     </row>
     <row r="80">
@@ -2277,19 +3058,31 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.98</v>
+        <v>2.23</v>
       </c>
       <c r="C80" t="n">
-        <v>-16.43</v>
+        <v>10.47</v>
       </c>
       <c r="D80" t="n">
-        <v>6.59</v>
+        <v>14.79</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.18</v>
+        <v>-11.86</v>
       </c>
       <c r="F80" t="n">
-        <v>9.039999999999999</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-11.935</v>
+      </c>
+      <c r="I80" t="n">
+        <v>16.364</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-18.18</v>
       </c>
     </row>
     <row r="81">
@@ -2297,19 +3090,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.890000000000001</v>
+        <v>2.78</v>
       </c>
       <c r="C81" t="n">
-        <v>-16.71</v>
+        <v>10.44</v>
       </c>
       <c r="D81" t="n">
-        <v>7.14</v>
+        <v>14.93</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.44</v>
+        <v>-11.88</v>
       </c>
       <c r="F81" t="n">
-        <v>9.119999999999999</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-12.495</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16.757</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-19.145</v>
       </c>
     </row>
     <row r="82">
@@ -2317,19 +3122,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.83</v>
+        <v>2.66</v>
       </c>
       <c r="C82" t="n">
-        <v>-17.09</v>
+        <v>10.52</v>
       </c>
       <c r="D82" t="n">
-        <v>7.68</v>
+        <v>15.12</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.69</v>
+        <v>-11.87</v>
       </c>
       <c r="F82" t="n">
-        <v>9.27</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-12.61</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17.195</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-20.155</v>
       </c>
     </row>
     <row r="83">
@@ -2337,19 +3154,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.710000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="C83" t="n">
-        <v>-18.01</v>
+        <v>10.38</v>
       </c>
       <c r="D83" t="n">
-        <v>8.23</v>
+        <v>15.39</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.03</v>
+        <v>-11.82</v>
       </c>
       <c r="F83" t="n">
-        <v>10.09</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-12.725</v>
+      </c>
+      <c r="I83" t="n">
+        <v>17.653</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-20.665</v>
       </c>
     </row>
     <row r="84">
@@ -2357,19 +3186,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.640000000000001</v>
+        <v>1.64</v>
       </c>
       <c r="C84" t="n">
-        <v>-18.65</v>
+        <v>10.25</v>
       </c>
       <c r="D84" t="n">
-        <v>8.41</v>
+        <v>15.83</v>
       </c>
       <c r="E84" t="n">
-        <v>-10.31</v>
+        <v>-11.81</v>
       </c>
       <c r="F84" t="n">
-        <v>10.91</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-12.56</v>
+      </c>
+      <c r="I84" t="n">
+        <v>18.121</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-21.23</v>
       </c>
     </row>
     <row r="85">
@@ -2377,19 +3218,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.51</v>
+        <v>1.08</v>
       </c>
       <c r="C85" t="n">
-        <v>-19.23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>8.58</v>
+        <v>15.96</v>
       </c>
       <c r="E85" t="n">
-        <v>-10.59</v>
+        <v>-11.84</v>
       </c>
       <c r="F85" t="n">
-        <v>11.73</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-12.325</v>
+      </c>
+      <c r="I85" t="n">
+        <v>18.639</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-21.31</v>
       </c>
     </row>
     <row r="86">
@@ -2397,19 +3250,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.09</v>
+        <v>0.52</v>
       </c>
       <c r="C86" t="n">
-        <v>-19.61</v>
+        <v>9.69</v>
       </c>
       <c r="D86" t="n">
-        <v>8.69</v>
+        <v>16.01</v>
       </c>
       <c r="E86" t="n">
-        <v>-10.63</v>
+        <v>-11.9</v>
       </c>
       <c r="F86" t="n">
-        <v>12.47</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-12.05</v>
+      </c>
+      <c r="I86" t="n">
+        <v>18.647</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-21.06</v>
       </c>
     </row>
     <row r="87">
@@ -2417,19 +3282,31 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.890000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="C87" t="n">
-        <v>-19.96</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>8.789999999999999</v>
+        <v>16.01</v>
       </c>
       <c r="E87" t="n">
-        <v>-10.67</v>
+        <v>-11.97</v>
       </c>
       <c r="F87" t="n">
-        <v>12.95</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-11.765</v>
+      </c>
+      <c r="I87" t="n">
+        <v>18.085</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-20.43</v>
       </c>
     </row>
     <row r="88">
@@ -2437,19 +3314,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.779999999999999</v>
+        <v>-0.63</v>
       </c>
       <c r="C88" t="n">
-        <v>-20.37</v>
+        <v>9.41</v>
       </c>
       <c r="D88" t="n">
-        <v>8.84</v>
+        <v>15.97</v>
       </c>
       <c r="E88" t="n">
-        <v>-10.69</v>
+        <v>-12.36</v>
       </c>
       <c r="F88" t="n">
-        <v>13.44</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-11.475</v>
+      </c>
+      <c r="I88" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-19.8</v>
       </c>
     </row>
     <row r="89">
@@ -2457,19 +3346,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.460000000000001</v>
+        <v>-1.16</v>
       </c>
       <c r="C89" t="n">
-        <v>-20.55</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>8.890000000000001</v>
+        <v>15.94</v>
       </c>
       <c r="E89" t="n">
-        <v>-10.69</v>
+        <v>-12.74</v>
       </c>
       <c r="F89" t="n">
-        <v>13.89</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-11.14</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-19.35</v>
       </c>
     </row>
     <row r="90">
@@ -2477,19 +3378,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.15</v>
+        <v>-1.71</v>
       </c>
       <c r="C90" t="n">
-        <v>-20.54</v>
+        <v>9.25</v>
       </c>
       <c r="D90" t="n">
-        <v>8.69</v>
+        <v>15.9</v>
       </c>
       <c r="E90" t="n">
-        <v>-10.69</v>
+        <v>-13</v>
       </c>
       <c r="F90" t="n">
-        <v>14.39</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-11.28</v>
+      </c>
+      <c r="I90" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-18.755</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2497,19 +3413,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.84</v>
+        <v>-1.35</v>
       </c>
       <c r="C91" t="n">
-        <v>-20.38</v>
+        <v>8.51</v>
       </c>
       <c r="D91" t="n">
-        <v>8.34</v>
+        <v>15.88</v>
       </c>
       <c r="E91" t="n">
-        <v>-10.69</v>
+        <v>-13.32</v>
       </c>
       <c r="F91" t="n">
-        <v>14.89</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="I91" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-17.91</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.435</v>
       </c>
     </row>
     <row r="92">
@@ -2517,19 +3448,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.54</v>
+        <v>-0.99</v>
       </c>
       <c r="C92" t="n">
-        <v>-20.22</v>
+        <v>7.71</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>15.84</v>
       </c>
       <c r="E92" t="n">
-        <v>-10.7</v>
+        <v>-13.63</v>
       </c>
       <c r="F92" t="n">
-        <v>15.38</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-11.485</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17.108</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-17.02999999999999</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.913333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -2537,19 +3483,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.85</v>
+        <v>-0.15</v>
       </c>
       <c r="C93" t="n">
-        <v>-19.07</v>
+        <v>6.9</v>
       </c>
       <c r="D93" t="n">
-        <v>7.65</v>
+        <v>15.8</v>
       </c>
       <c r="E93" t="n">
-        <v>-10.63</v>
+        <v>-13.9</v>
       </c>
       <c r="F93" t="n">
-        <v>15.2</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-11.68</v>
+      </c>
+      <c r="I93" t="n">
+        <v>16.856</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-16.655</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.1525</v>
       </c>
     </row>
     <row r="94">
@@ -2557,19 +3518,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="C94" t="n">
-        <v>-17.83</v>
+        <v>5.93</v>
       </c>
       <c r="D94" t="n">
-        <v>7.3</v>
+        <v>16.84</v>
       </c>
       <c r="E94" t="n">
-        <v>-10.58</v>
+        <v>-14.17</v>
       </c>
       <c r="F94" t="n">
-        <v>15.02</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-11.88</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16.604</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-16.225</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2.276000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -2577,19 +3553,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.37</v>
+        <v>1.42</v>
       </c>
       <c r="C95" t="n">
-        <v>-16.77</v>
+        <v>5.28</v>
       </c>
       <c r="D95" t="n">
-        <v>7.99</v>
+        <v>17.82</v>
       </c>
       <c r="E95" t="n">
-        <v>-11.43</v>
+        <v>-14.39</v>
       </c>
       <c r="F95" t="n">
-        <v>14.84</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-12.07</v>
+      </c>
+      <c r="I95" t="n">
+        <v>16.307</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-16.055</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.291666666666667</v>
       </c>
     </row>
     <row r="96">
@@ -2597,19 +3588,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.33</v>
+        <v>2.22</v>
       </c>
       <c r="C96" t="n">
-        <v>-16.37</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="n">
-        <v>8.75</v>
+        <v>18.88</v>
       </c>
       <c r="E96" t="n">
-        <v>-12.43</v>
+        <v>-14.4</v>
       </c>
       <c r="F96" t="n">
-        <v>14.72</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-12.255</v>
+      </c>
+      <c r="I96" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-15.885</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.224285714285715</v>
       </c>
     </row>
     <row r="97">
@@ -2617,19 +3623,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.17</v>
+        <v>3.29</v>
       </c>
       <c r="C97" t="n">
-        <v>-14.98</v>
+        <v>3.36</v>
       </c>
       <c r="D97" t="n">
-        <v>8.630000000000001</v>
+        <v>19.99</v>
       </c>
       <c r="E97" t="n">
-        <v>-13.43</v>
+        <v>-14.41</v>
       </c>
       <c r="F97" t="n">
-        <v>14.61</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-12.44</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15.788</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-15.72</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.16125</v>
       </c>
     </row>
     <row r="98">
@@ -2637,19 +3658,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.9</v>
+        <v>3.39</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.55</v>
+        <v>2.42</v>
       </c>
       <c r="D98" t="n">
-        <v>8.56</v>
+        <v>21.14</v>
       </c>
       <c r="E98" t="n">
-        <v>-14.42</v>
+        <v>-14.46</v>
       </c>
       <c r="F98" t="n">
-        <v>14.51</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-12.625</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15.536</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-14.518</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.067777777777778</v>
       </c>
     </row>
     <row r="99">
@@ -2657,19 +3693,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.85</v>
+        <v>3.94</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.39</v>
+        <v>1.49</v>
       </c>
       <c r="D99" t="n">
-        <v>8.470000000000001</v>
+        <v>22.29</v>
       </c>
       <c r="E99" t="n">
-        <v>-15.38</v>
+        <v>-14.55</v>
       </c>
       <c r="F99" t="n">
-        <v>14.45</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-3.26</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-12.85</v>
+      </c>
+      <c r="I99" t="n">
+        <v>14.824</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-13.251</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.993</v>
       </c>
     </row>
     <row r="100">
@@ -2677,19 +3728,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.85</v>
+        <v>4.54</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.5</v>
+        <v>0.6</v>
       </c>
       <c r="D100" t="n">
-        <v>8.56</v>
+        <v>25.72</v>
       </c>
       <c r="E100" t="n">
-        <v>-16.34</v>
+        <v>-14.63</v>
       </c>
       <c r="F100" t="n">
-        <v>14.43</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-4.42</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-11.725</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14.112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-15.693</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.993</v>
       </c>
     </row>
     <row r="101">
@@ -2697,19 +3763,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.89</v>
+        <v>4.31</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.7</v>
+        <v>0.41</v>
       </c>
       <c r="D101" t="n">
-        <v>8.65</v>
+        <v>29.12</v>
       </c>
       <c r="E101" t="n">
-        <v>-17.27</v>
+        <v>-14.68</v>
       </c>
       <c r="F101" t="n">
-        <v>14.43</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-5.68</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-18.075</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2.105</v>
       </c>
     </row>
     <row r="102">
@@ -2717,19 +3798,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.89</v>
+        <v>4.07</v>
       </c>
       <c r="C102" t="n">
-        <v>-9.779999999999999</v>
+        <v>-0.39</v>
       </c>
       <c r="D102" t="n">
-        <v>8.75</v>
+        <v>32.49</v>
       </c>
       <c r="E102" t="n">
-        <v>-18.19</v>
+        <v>-14.75</v>
       </c>
       <c r="F102" t="n">
-        <v>14.33</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-9.415000000000001</v>
+      </c>
+      <c r="I102" t="n">
+        <v>13.089</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-20.447</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.894</v>
       </c>
     </row>
     <row r="103">
@@ -2737,19 +3833,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.37</v>
+        <v>3.76</v>
       </c>
       <c r="C103" t="n">
-        <v>-9.27</v>
+        <v>-1.21</v>
       </c>
       <c r="D103" t="n">
-        <v>8.82</v>
+        <v>36.05</v>
       </c>
       <c r="E103" t="n">
-        <v>-19.1</v>
+        <v>-14.85</v>
       </c>
       <c r="F103" t="n">
-        <v>14.18</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-8.180000000000001</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12.568</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-22.814</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.653</v>
       </c>
     </row>
     <row r="104">
@@ -2757,19 +3868,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.87</v>
+        <v>3.52</v>
       </c>
       <c r="C104" t="n">
-        <v>-8.76</v>
+        <v>-1.88</v>
       </c>
       <c r="D104" t="n">
-        <v>8.880000000000001</v>
+        <v>38.34</v>
       </c>
       <c r="E104" t="n">
-        <v>-20</v>
+        <v>-14.89</v>
       </c>
       <c r="F104" t="n">
-        <v>14.01</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-5.98</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-6.95</v>
+      </c>
+      <c r="I104" t="n">
+        <v>12.137</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-25.181</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.392</v>
       </c>
     </row>
     <row r="105">
@@ -2777,19 +3903,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.37</v>
+        <v>3.23</v>
       </c>
       <c r="C105" t="n">
-        <v>-8.16</v>
+        <v>-2.55</v>
       </c>
       <c r="D105" t="n">
-        <v>7.96</v>
+        <v>40.63</v>
       </c>
       <c r="E105" t="n">
-        <v>-20</v>
+        <v>-14.94</v>
       </c>
       <c r="F105" t="n">
-        <v>13.83</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="I105" t="n">
+        <v>11.801</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-28.033</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.131</v>
       </c>
     </row>
     <row r="106">
@@ -2797,19 +3938,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.12</v>
+        <v>2.95</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.84</v>
+        <v>-3.23</v>
       </c>
       <c r="D106" t="n">
-        <v>7.05</v>
+        <v>42.93</v>
       </c>
       <c r="E106" t="n">
-        <v>-20</v>
+        <v>-15.13</v>
       </c>
       <c r="F106" t="n">
-        <v>13.67</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-4.49</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-30.87</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.905</v>
       </c>
     </row>
     <row r="107">
@@ -2817,19 +3973,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.89</v>
+        <v>2.44</v>
       </c>
       <c r="C107" t="n">
-        <v>-6.55</v>
+        <v>-3.89</v>
       </c>
       <c r="D107" t="n">
-        <v>7.14</v>
+        <v>45.11</v>
       </c>
       <c r="E107" t="n">
-        <v>-20</v>
+        <v>-14.66</v>
       </c>
       <c r="F107" t="n">
-        <v>13.52</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="I107" t="n">
+        <v>11.154</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-34.067</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.724</v>
       </c>
     </row>
     <row r="108">
@@ -2837,19 +4008,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.64</v>
+        <v>3.3</v>
       </c>
       <c r="C108" t="n">
-        <v>-6.3</v>
+        <v>-4.55</v>
       </c>
       <c r="D108" t="n">
-        <v>7.22</v>
+        <v>47.31</v>
       </c>
       <c r="E108" t="n">
-        <v>-20</v>
+        <v>-14.14</v>
       </c>
       <c r="F108" t="n">
-        <v>13.44</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.803</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-38.311</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.553</v>
       </c>
     </row>
     <row r="109">
@@ -2857,19 +4043,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.34</v>
+        <v>3.69</v>
       </c>
       <c r="C109" t="n">
-        <v>-6.17</v>
+        <v>-5.21</v>
       </c>
       <c r="D109" t="n">
-        <v>7.26</v>
+        <v>49.5</v>
       </c>
       <c r="E109" t="n">
-        <v>-20</v>
+        <v>-13.57</v>
       </c>
       <c r="F109" t="n">
-        <v>13.57</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10.792</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-42.565</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.4720000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2877,19 +4078,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.99</v>
+        <v>4.09</v>
       </c>
       <c r="C110" t="n">
-        <v>-6.03</v>
+        <v>-5.87</v>
       </c>
       <c r="D110" t="n">
-        <v>7.31</v>
+        <v>49.41</v>
       </c>
       <c r="E110" t="n">
-        <v>-20</v>
+        <v>-14.08</v>
       </c>
       <c r="F110" t="n">
-        <v>13.73</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.716</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-44.565</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.381</v>
       </c>
     </row>
     <row r="111">
@@ -2897,19 +4113,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.66</v>
+        <v>4.48</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.07</v>
+        <v>-6.53</v>
       </c>
       <c r="D111" t="n">
-        <v>7.54</v>
+        <v>49.32</v>
       </c>
       <c r="E111" t="n">
-        <v>-20</v>
+        <v>-14.58</v>
       </c>
       <c r="F111" t="n">
-        <v>13.87</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-46.565</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="112">
@@ -2917,19 +4148,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.32</v>
+        <v>4.84</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.23</v>
+        <v>-6.02</v>
       </c>
       <c r="D112" t="n">
-        <v>7.85</v>
+        <v>49.16</v>
       </c>
       <c r="E112" t="n">
-        <v>-20</v>
+        <v>-15.05</v>
       </c>
       <c r="F112" t="n">
-        <v>14.07</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-1.445</v>
+      </c>
+      <c r="I112" t="n">
+        <v>10.225</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-48.565</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.215</v>
       </c>
     </row>
     <row r="113">
@@ -2937,19 +4183,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.99</v>
+        <v>5.21</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.49</v>
+        <v>-5.51</v>
       </c>
       <c r="D113" t="n">
-        <v>8.18</v>
+        <v>48.66</v>
       </c>
       <c r="E113" t="n">
-        <v>-20</v>
+        <v>-15.58</v>
       </c>
       <c r="F113" t="n">
-        <v>14.32</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G113" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10.015</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-50.565</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.445</v>
       </c>
     </row>
     <row r="114">
@@ -2957,19 +4218,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.48</v>
+        <v>5.51</v>
       </c>
       <c r="C114" t="n">
-        <v>-6.54</v>
+        <v>-4.97</v>
       </c>
       <c r="D114" t="n">
-        <v>8.460000000000001</v>
+        <v>48.18</v>
       </c>
       <c r="E114" t="n">
-        <v>-20</v>
+        <v>-16.13</v>
       </c>
       <c r="F114" t="n">
-        <v>14.6</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-2.155</v>
+      </c>
+      <c r="I114" t="n">
+        <v>9.714999999999998</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-52.455</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.6849999999999999</v>
       </c>
     </row>
     <row r="115">
@@ -2977,19 +4253,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.92</v>
+        <v>5.87</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.59</v>
+        <v>-4.44</v>
       </c>
       <c r="D115" t="n">
-        <v>8.81</v>
+        <v>47.74</v>
       </c>
       <c r="E115" t="n">
-        <v>-20</v>
+        <v>-16.67</v>
       </c>
       <c r="F115" t="n">
-        <v>14.86</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G115" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="I115" t="n">
+        <v>9.404999999999998</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-53.98499999999999</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.925</v>
       </c>
     </row>
     <row r="116">
@@ -2997,19 +4288,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.43</v>
+        <v>5.83</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.7</v>
+        <v>-3.92</v>
       </c>
       <c r="D116" t="n">
-        <v>9.16</v>
+        <v>50.8</v>
       </c>
       <c r="E116" t="n">
-        <v>-20</v>
+        <v>-17.21</v>
       </c>
       <c r="F116" t="n">
-        <v>15.1</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G116" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-2.875</v>
+      </c>
+      <c r="I116" t="n">
+        <v>9.024999999999999</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-58.52999999999999</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1.165</v>
       </c>
     </row>
     <row r="117">
@@ -3017,19 +4323,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.93</v>
+        <v>5.75</v>
       </c>
       <c r="C117" t="n">
-        <v>-6.68</v>
+        <v>-3.39</v>
       </c>
       <c r="D117" t="n">
-        <v>9.4</v>
+        <v>53.97</v>
       </c>
       <c r="E117" t="n">
-        <v>-20</v>
+        <v>-18.42</v>
       </c>
       <c r="F117" t="n">
-        <v>15.35</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G117" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8.754999999999999</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-62.59499999999999</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.415</v>
       </c>
     </row>
     <row r="118">
@@ -3037,19 +4358,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.57</v>
+        <v>5.22</v>
       </c>
       <c r="C118" t="n">
-        <v>-6.68</v>
+        <v>-2.88</v>
       </c>
       <c r="D118" t="n">
-        <v>9.619999999999999</v>
+        <v>57.14</v>
       </c>
       <c r="E118" t="n">
-        <v>-20</v>
+        <v>-19.64</v>
       </c>
       <c r="F118" t="n">
-        <v>15.49</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G118" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-3.614999999999999</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8.464999999999998</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-66.66</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1.755</v>
       </c>
     </row>
     <row r="119">
@@ -3057,19 +4393,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.21</v>
+        <v>4.64</v>
       </c>
       <c r="C119" t="n">
-        <v>-6.64</v>
+        <v>-2.69</v>
       </c>
       <c r="D119" t="n">
-        <v>9.890000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="E119" t="n">
-        <v>-20</v>
+        <v>-20.86</v>
       </c>
       <c r="F119" t="n">
-        <v>15.54</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G119" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-3.984999999999999</v>
+      </c>
+      <c r="I119" t="n">
+        <v>8.175000000000001</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-71.97</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1.995</v>
       </c>
     </row>
     <row r="120">
@@ -3077,19 +4428,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.92</v>
+        <v>4.05</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.61</v>
+        <v>-2.53</v>
       </c>
       <c r="D120" t="n">
-        <v>10.16</v>
+        <v>63.79</v>
       </c>
       <c r="E120" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="F120" t="n">
-        <v>15.53</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G120" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-4.299999999999999</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.929999999999998</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-75.97</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="121">
@@ -3097,19 +4463,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.62</v>
+        <v>3.33</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.31</v>
+        <v>-2.35</v>
       </c>
       <c r="D121" t="n">
-        <v>10.25</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>-20</v>
+        <v>-21.15</v>
       </c>
       <c r="F121" t="n">
-        <v>15.44</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G121" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-4.264999999999999</v>
+      </c>
+      <c r="I121" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-79.97</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2.255</v>
       </c>
     </row>
     <row r="122">
@@ -3117,19 +4498,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.39</v>
+        <v>2.6</v>
       </c>
       <c r="C122" t="n">
-        <v>-6.07</v>
+        <v>-2.54</v>
       </c>
       <c r="D122" t="n">
-        <v>10.33</v>
+        <v>70.81</v>
       </c>
       <c r="E122" t="n">
-        <v>-20</v>
+        <v>-21.3</v>
       </c>
       <c r="F122" t="n">
-        <v>15.35</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G122" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-3.999999999999999</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7.279999999999998</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-83.97</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="123">
@@ -3137,19 +4533,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.15</v>
+        <v>1.87</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.78</v>
+        <v>-2.73</v>
       </c>
       <c r="D123" t="n">
-        <v>10.39</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>-20</v>
+        <v>-21.35</v>
       </c>
       <c r="F123" t="n">
-        <v>15.24</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G123" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-3.883999999999999</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6.991</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-85.619</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.246</v>
       </c>
     </row>
     <row r="124">
@@ -3157,19 +4568,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.13</v>
+        <v>1.18</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.81</v>
+        <v>-2.92</v>
       </c>
       <c r="D124" t="n">
-        <v>10.51</v>
+        <v>74.27</v>
       </c>
       <c r="E124" t="n">
-        <v>-20</v>
+        <v>-21.4</v>
       </c>
       <c r="F124" t="n">
-        <v>15.17</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G124" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-4.669</v>
+      </c>
+      <c r="I124" t="n">
+        <v>6.702000000000001</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-87.38800000000001</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1.591</v>
       </c>
     </row>
     <row r="125">
@@ -3177,19 +4603,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.83</v>
+        <v>-3.4</v>
       </c>
       <c r="D125" t="n">
-        <v>10.53</v>
+        <v>75.95</v>
       </c>
       <c r="E125" t="n">
-        <v>-20</v>
+        <v>-21.44</v>
       </c>
       <c r="F125" t="n">
-        <v>15.13</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G125" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-5.519</v>
+      </c>
+      <c r="I125" t="n">
+        <v>7.869999999999999</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-90.13200000000001</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.881</v>
       </c>
     </row>
     <row r="126">
@@ -3197,19 +4638,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.4</v>
+        <v>0.21</v>
       </c>
       <c r="C126" t="n">
-        <v>-5.87</v>
+        <v>-3.88</v>
       </c>
       <c r="D126" t="n">
-        <v>11.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>-20</v>
+        <v>-21.49</v>
       </c>
       <c r="F126" t="n">
-        <v>15.08</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G126" t="n">
+        <v>38.28</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-6.369</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9.758000000000001</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-90.086</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.1760000000000002</v>
       </c>
     </row>
     <row r="127">
@@ -3217,19 +4673,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.03</v>
+        <v>-0.38</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.78</v>
+        <v>-4.36</v>
       </c>
       <c r="D127" t="n">
-        <v>11.8</v>
+        <v>71.86</v>
       </c>
       <c r="E127" t="n">
-        <v>-20</v>
+        <v>-21.54</v>
       </c>
       <c r="F127" t="n">
-        <v>15.01</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G127" t="n">
+        <v>40.43</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-6.816</v>
+      </c>
+      <c r="I127" t="n">
+        <v>11.546</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-89.711</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-0.5290000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -3237,19 +4708,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.76</v>
+        <v>-0.97</v>
       </c>
       <c r="C128" t="n">
-        <v>-5.64</v>
+        <v>-4.81</v>
       </c>
       <c r="D128" t="n">
-        <v>12.43</v>
+        <v>69.77</v>
       </c>
       <c r="E128" t="n">
-        <v>-20</v>
+        <v>-21.57</v>
       </c>
       <c r="F128" t="n">
-        <v>14.97</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-7.747999999999999</v>
+      </c>
+      <c r="I128" t="n">
+        <v>13.344</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-88.539</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-1.506</v>
       </c>
     </row>
     <row r="129">
@@ -3257,19 +4743,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-2.66</v>
+        <v>-1.62</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.2</v>
+        <v>-4.96</v>
       </c>
       <c r="D129" t="n">
-        <v>13.06</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>-20</v>
+        <v>-21.71</v>
       </c>
       <c r="F129" t="n">
-        <v>14.8</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G129" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-8.779</v>
+      </c>
+      <c r="I129" t="n">
+        <v>14.168</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-84.69</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-2.46</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +4778,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-3.62</v>
+        <v>-1.8</v>
       </c>
       <c r="C130" t="n">
-        <v>-4.6</v>
+        <v>-5.08</v>
       </c>
       <c r="D130" t="n">
-        <v>13.54</v>
+        <v>65.28</v>
       </c>
       <c r="E130" t="n">
-        <v>-20</v>
+        <v>-21.85</v>
       </c>
       <c r="F130" t="n">
-        <v>14.69</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G130" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="I130" t="n">
+        <v>15.002</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-81.158</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-3.289</v>
       </c>
     </row>
     <row r="131">
@@ -3297,19 +4813,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-4.58</v>
+        <v>-2.29</v>
       </c>
       <c r="C131" t="n">
-        <v>-3.61</v>
+        <v>-5.21</v>
       </c>
       <c r="D131" t="n">
-        <v>13.55</v>
+        <v>62.49</v>
       </c>
       <c r="E131" t="n">
-        <v>-20</v>
+        <v>-21.98</v>
       </c>
       <c r="F131" t="n">
-        <v>14.64</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G131" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-11.196</v>
+      </c>
+      <c r="I131" t="n">
+        <v>15.871</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-76.235</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-4.444999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -3317,19 +4848,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-5.63</v>
+        <v>-2.73</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.46</v>
+        <v>-5.06</v>
       </c>
       <c r="D132" t="n">
-        <v>13.51</v>
+        <v>59.7</v>
       </c>
       <c r="E132" t="n">
-        <v>-20</v>
+        <v>-22.12</v>
       </c>
       <c r="F132" t="n">
-        <v>14.58</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G132" t="n">
+        <v>43.87</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-12.592</v>
+      </c>
+      <c r="I132" t="n">
+        <v>16.338</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-71.322</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-5.590999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -3337,19 +4883,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-6.68</v>
+        <v>-3.18</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.4</v>
+        <v>-4.91</v>
       </c>
       <c r="D133" t="n">
-        <v>13.54</v>
+        <v>58.89</v>
       </c>
       <c r="E133" t="n">
-        <v>-20</v>
+        <v>-22.27</v>
       </c>
       <c r="F133" t="n">
-        <v>14.54</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G133" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-13.849</v>
+      </c>
+      <c r="I133" t="n">
+        <v>16.809</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-68.77</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-6.712999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -3357,19 +4918,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-7.81</v>
+        <v>-3.61</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.32</v>
+        <v>-4.76</v>
       </c>
       <c r="D134" t="n">
-        <v>13.67</v>
+        <v>58.08</v>
       </c>
       <c r="E134" t="n">
-        <v>-20</v>
+        <v>-22.43</v>
       </c>
       <c r="F134" t="n">
-        <v>14.46</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G134" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-14.624</v>
+      </c>
+      <c r="I134" t="n">
+        <v>17.734</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-66.208</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-7.324000000000003</v>
       </c>
     </row>
     <row r="135">
@@ -3377,19 +4953,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-8.93</v>
+        <v>-3.8</v>
       </c>
       <c r="C135" t="n">
-        <v>0.77</v>
+        <v>-4.48</v>
       </c>
       <c r="D135" t="n">
-        <v>13.8</v>
+        <v>57.26</v>
       </c>
       <c r="E135" t="n">
-        <v>-20</v>
+        <v>-22.6</v>
       </c>
       <c r="F135" t="n">
-        <v>14.36</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G135" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-15.334</v>
+      </c>
+      <c r="I135" t="n">
+        <v>17.212</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-62.761</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-7.870000000000002</v>
       </c>
     </row>
     <row r="136">
@@ -3397,19 +4988,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-9.460000000000001</v>
+        <v>-4.2</v>
       </c>
       <c r="C136" t="n">
-        <v>2.36</v>
+        <v>-4.42</v>
       </c>
       <c r="D136" t="n">
-        <v>13.28</v>
+        <v>54.2</v>
       </c>
       <c r="E136" t="n">
-        <v>-20</v>
+        <v>-23.43</v>
       </c>
       <c r="F136" t="n">
-        <v>13.82</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G136" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-16.034</v>
+      </c>
+      <c r="I136" t="n">
+        <v>20.031</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-59.309</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-8.416</v>
       </c>
     </row>
     <row r="137">
@@ -3417,19 +5023,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-9.92</v>
+        <v>-4.55</v>
       </c>
       <c r="C137" t="n">
-        <v>3.8</v>
+        <v>-4.35</v>
       </c>
       <c r="D137" t="n">
-        <v>12.82</v>
+        <v>51.14</v>
       </c>
       <c r="E137" t="n">
-        <v>-20</v>
+        <v>-24.25</v>
       </c>
       <c r="F137" t="n">
-        <v>13.3</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G137" t="n">
+        <v>41.54</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-17.127</v>
+      </c>
+      <c r="I137" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-56.251</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-8.962</v>
       </c>
     </row>
     <row r="138">
@@ -3437,19 +5058,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-10.36</v>
+        <v>-6.13</v>
       </c>
       <c r="C138" t="n">
-        <v>5.3</v>
+        <v>-4.3</v>
       </c>
       <c r="D138" t="n">
-        <v>12.17</v>
+        <v>46.88</v>
       </c>
       <c r="E138" t="n">
-        <v>-20</v>
+        <v>-25.08</v>
       </c>
       <c r="F138" t="n">
-        <v>12.89</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G138" t="n">
+        <v>49.71</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-17.715</v>
+      </c>
+      <c r="I138" t="n">
+        <v>20.419</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-53.98</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-9.325999999999999</v>
       </c>
     </row>
     <row r="139">
@@ -3457,19 +5093,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-10.55</v>
+        <v>-7.61</v>
       </c>
       <c r="C139" t="n">
-        <v>6.28</v>
+        <v>-4.26</v>
       </c>
       <c r="D139" t="n">
-        <v>11.5</v>
+        <v>42.64</v>
       </c>
       <c r="E139" t="n">
-        <v>-20</v>
+        <v>-25.8</v>
       </c>
       <c r="F139" t="n">
-        <v>12.78</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G139" t="n">
+        <v>57.99</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-18.199</v>
+      </c>
+      <c r="I139" t="n">
+        <v>18.572</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-53.181</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-9.663</v>
       </c>
     </row>
     <row r="140">
@@ -3477,19 +5128,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-10.94</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>7.29</v>
+        <v>-4.23</v>
       </c>
       <c r="D140" t="n">
-        <v>10.99</v>
+        <v>38.29</v>
       </c>
       <c r="E140" t="n">
-        <v>-20</v>
+        <v>-26.52</v>
       </c>
       <c r="F140" t="n">
-        <v>12.65</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G140" t="n">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-18.683</v>
+      </c>
+      <c r="I140" t="n">
+        <v>16.735</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-52.39000000000001</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="141">
@@ -3497,19 +5163,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-11.34</v>
+        <v>-8.41</v>
       </c>
       <c r="C141" t="n">
-        <v>7.75</v>
+        <v>-4.18</v>
       </c>
       <c r="D141" t="n">
-        <v>10.94</v>
+        <v>34.37</v>
       </c>
       <c r="E141" t="n">
-        <v>-20</v>
+        <v>-27.24</v>
       </c>
       <c r="F141" t="n">
-        <v>12.65</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G141" t="n">
+        <v>73.88</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-19.132</v>
+      </c>
+      <c r="I141" t="n">
+        <v>14.292</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-53.09000000000001</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="142">
@@ -3517,19 +5198,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-11.75</v>
+        <v>-8.08</v>
       </c>
       <c r="C142" t="n">
-        <v>8.1</v>
+        <v>-4.65</v>
       </c>
       <c r="D142" t="n">
-        <v>10.67</v>
+        <v>30.4</v>
       </c>
       <c r="E142" t="n">
-        <v>-20</v>
+        <v>-27.95</v>
       </c>
       <c r="F142" t="n">
-        <v>12.98</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G142" t="n">
+        <v>81.65000000000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-19.571</v>
+      </c>
+      <c r="I142" t="n">
+        <v>12.261</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-53.57000000000001</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="143">
@@ -3537,19 +5233,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-11.9</v>
+        <v>-7.53</v>
       </c>
       <c r="C143" t="n">
-        <v>8.289999999999999</v>
+        <v>-5.13</v>
       </c>
       <c r="D143" t="n">
-        <v>10.31</v>
+        <v>26.35</v>
       </c>
       <c r="E143" t="n">
-        <v>-20.02</v>
+        <v>-28.64</v>
       </c>
       <c r="F143" t="n">
-        <v>13.32</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G143" t="n">
+        <v>89.23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I143" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-54.04</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="144">
@@ -3557,19 +5268,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-12</v>
+        <v>-6.33</v>
       </c>
       <c r="C144" t="n">
-        <v>8.5</v>
+        <v>-5.61</v>
       </c>
       <c r="D144" t="n">
-        <v>9.85</v>
+        <v>22.3</v>
       </c>
       <c r="E144" t="n">
-        <v>-20.08</v>
+        <v>-29.32</v>
       </c>
       <c r="F144" t="n">
-        <v>13.73</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G144" t="n">
+        <v>96.19</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I144" t="n">
+        <v>7.785000000000001</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-54.52</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="145">
@@ -3577,19 +5303,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-11.73</v>
+        <v>-5.37</v>
       </c>
       <c r="C145" t="n">
-        <v>8.5</v>
+        <v>-5.92</v>
       </c>
       <c r="D145" t="n">
-        <v>9.220000000000001</v>
+        <v>18.32</v>
       </c>
       <c r="E145" t="n">
-        <v>-20.14</v>
+        <v>-30</v>
       </c>
       <c r="F145" t="n">
-        <v>14.16</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G145" t="n">
+        <v>103.25</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-55.09999999999999</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="146">
@@ -3597,19 +5338,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-11.54</v>
+        <v>-4.23</v>
       </c>
       <c r="C146" t="n">
-        <v>8.23</v>
+        <v>-6.05</v>
       </c>
       <c r="D146" t="n">
-        <v>8.59</v>
+        <v>16.8</v>
       </c>
       <c r="E146" t="n">
-        <v>-20.22</v>
+        <v>-30</v>
       </c>
       <c r="F146" t="n">
-        <v>14.94</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G146" t="n">
+        <v>110.48</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-1.136</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-55.374</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="147">
@@ -3617,19 +5373,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-11.47</v>
+        <v>-2.81</v>
       </c>
       <c r="C147" t="n">
-        <v>7.88</v>
+        <v>-6.27</v>
       </c>
       <c r="D147" t="n">
-        <v>7.86</v>
+        <v>15.21</v>
       </c>
       <c r="E147" t="n">
-        <v>-20.3</v>
+        <v>-30</v>
       </c>
       <c r="F147" t="n">
-        <v>16.02</v>
+        <v>-0.49</v>
+      </c>
+      <c r="G147" t="n">
+        <v>117.97</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-20</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-7.952</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-55.658</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="148">
@@ -3637,819 +5408,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-11.4</v>
+        <v>-0.15</v>
       </c>
       <c r="C148" t="n">
-        <v>7.44</v>
+        <v>-6.48</v>
       </c>
       <c r="D148" t="n">
-        <v>7.27</v>
+        <v>19.2</v>
       </c>
       <c r="E148" t="n">
-        <v>-20.32</v>
+        <v>-30</v>
       </c>
       <c r="F148" t="n">
-        <v>17.01</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>-11.24</v>
-      </c>
-      <c r="C149" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-20.41</v>
-      </c>
-      <c r="F149" t="n">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-10.79</v>
-      </c>
-      <c r="C150" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-20.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-10.16</v>
-      </c>
-      <c r="C151" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="D151" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-20.59</v>
-      </c>
-      <c r="F151" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-9.390000000000001</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D152" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="E152" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-8.92</v>
-      </c>
-      <c r="C153" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D153" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-20.81</v>
-      </c>
-      <c r="F153" t="n">
-        <v>19.49</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-8.630000000000001</v>
-      </c>
-      <c r="C154" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="D154" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-20.89</v>
-      </c>
-      <c r="F154" t="n">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-8.789999999999999</v>
-      </c>
-      <c r="C155" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="D155" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-20.97</v>
-      </c>
-      <c r="F155" t="n">
-        <v>20.71</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="C156" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="D156" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-21.03</v>
-      </c>
-      <c r="F156" t="n">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-9.25</v>
-      </c>
-      <c r="C157" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="D157" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-21.17</v>
-      </c>
-      <c r="F157" t="n">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-9.470000000000001</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D158" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-21.43</v>
-      </c>
-      <c r="F158" t="n">
-        <v>23.21</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>-9.85</v>
-      </c>
-      <c r="C159" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="D159" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-21.4</v>
-      </c>
-      <c r="F159" t="n">
-        <v>24.04</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>-10.39</v>
-      </c>
-      <c r="C160" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D160" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-21.44</v>
-      </c>
-      <c r="F160" t="n">
-        <v>24.87</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-10.98</v>
-      </c>
-      <c r="C161" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D161" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-21.47</v>
-      </c>
-      <c r="F161" t="n">
-        <v>25.69</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>-11.67</v>
-      </c>
-      <c r="C162" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="D162" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-21.49</v>
-      </c>
-      <c r="F162" t="n">
-        <v>26.53</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>-12</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-21.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>27.39</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-12.17</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="D164" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-21.51</v>
-      </c>
-      <c r="F164" t="n">
-        <v>27.77</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-12.28</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-2.46</v>
-      </c>
-      <c r="D165" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-21.53</v>
-      </c>
-      <c r="F165" t="n">
-        <v>28.04</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-12.18</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-4.26</v>
-      </c>
-      <c r="D166" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-21.56</v>
-      </c>
-      <c r="F166" t="n">
-        <v>28.33</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-12.43</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-5.23</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-21.52</v>
-      </c>
-      <c r="F167" t="n">
-        <v>28.11</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-12.75</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-6.27</v>
-      </c>
-      <c r="D168" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-21.33</v>
-      </c>
-      <c r="F168" t="n">
-        <v>27.89</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-13</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-7.28</v>
-      </c>
-      <c r="D169" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-21.37</v>
-      </c>
-      <c r="F169" t="n">
-        <v>27.72</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-13.21</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-8.390000000000001</v>
-      </c>
-      <c r="D170" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-21.35</v>
-      </c>
-      <c r="F170" t="n">
-        <v>27.55</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-13.52</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="D171" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-21.33</v>
-      </c>
-      <c r="F171" t="n">
-        <v>27.38</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-13.77</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="D172" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-23.21</v>
-      </c>
-      <c r="F172" t="n">
-        <v>27.15</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-14.19</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-3.74</v>
-      </c>
-      <c r="D173" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-25.06</v>
-      </c>
-      <c r="F173" t="n">
-        <v>26.86</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-14.61</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="D174" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-26.91</v>
-      </c>
-      <c r="F174" t="n">
-        <v>26.69</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-14.93</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>-28.75</v>
-      </c>
-      <c r="F175" t="n">
-        <v>26.58</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-15.86</v>
-      </c>
-      <c r="C176" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D176" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="E176" t="n">
-        <v>-30.58</v>
-      </c>
-      <c r="F176" t="n">
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-16.35</v>
-      </c>
-      <c r="C177" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="D177" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="E177" t="n">
-        <v>-32.41</v>
-      </c>
-      <c r="F177" t="n">
-        <v>27.31</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-16.76</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="D178" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>-34.31</v>
-      </c>
-      <c r="F178" t="n">
-        <v>27.51</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-17.18</v>
-      </c>
-      <c r="C179" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="D179" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="E179" t="n">
-        <v>-36.21</v>
-      </c>
-      <c r="F179" t="n">
-        <v>27.98</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-17.57</v>
-      </c>
-      <c r="C180" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="D180" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="E180" t="n">
-        <v>-38.1</v>
-      </c>
-      <c r="F180" t="n">
-        <v>28.43</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-17.99</v>
-      </c>
-      <c r="C181" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D181" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="E181" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F181" t="n">
-        <v>28.94</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-18.41</v>
-      </c>
-      <c r="C182" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D182" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E182" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F182" t="n">
-        <v>29.49</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-18.95</v>
-      </c>
-      <c r="C183" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D183" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F183" t="n">
-        <v>30.09</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-19.44</v>
-      </c>
-      <c r="C184" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D184" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="E184" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F184" t="n">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="G148" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H148" t="n">
         <v>-20</v>
       </c>
-      <c r="C185" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D185" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F185" t="n">
-        <v>31.57</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C186" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D186" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F186" t="n">
-        <v>31.86</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C187" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F187" t="n">
-        <v>32.43</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C188" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F188" t="n">
-        <v>32.95</v>
+      <c r="I148" t="n">
+        <v>-8.587999999999999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-60.287</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$148</f>
+              <f>'data'!$B$2:$B$188</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$148</f>
+              <f>'data'!$C$2:$C$188</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$148</f>
+              <f>'data'!$D$2:$D$188</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$148</f>
+              <f>'data'!$E$2:$E$188</f>
             </numRef>
           </val>
         </ser>
@@ -302,142 +302,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$F$2:$F$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'data'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$G$2:$G$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'data'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$H$2:$H$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="7"/>
-          <order val="7"/>
-          <tx>
-            <strRef>
-              <f>'data'!I1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$I$2:$I$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="8"/>
-          <order val="8"/>
-          <tx>
-            <strRef>
-              <f>'data'!J1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$J$2:$J$148</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="9"/>
-          <order val="9"/>
-          <tx>
-            <strRef>
-              <f>'data'!K1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$K$2:$K$148</f>
+              <f>'data'!$F$2:$F$188</f>
             </numRef>
           </val>
         </ser>
@@ -807,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,54 +688,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Kynan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jonathan</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Marshall</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cheyenne</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -891,31 +731,25 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.15</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4">
@@ -926,19 +760,16 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.17</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="5">
@@ -946,22 +777,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1</v>
+        <v>-1.74</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="6">
@@ -969,22 +797,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.05</v>
+        <v>0.46</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.11</v>
+        <v>-3.46</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.18</v>
+        <v>-0.04</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.38</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="7">
@@ -992,22 +817,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.12</v>
+        <v>-4.61</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.47</v>
+        <v>0.33</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.42</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="8">
@@ -1015,22 +837,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2</v>
+        <v>-5.23</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02</v>
+        <v>-0.09</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.44</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="9">
@@ -1038,22 +857,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.73</v>
+        <v>0.44</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.29</v>
+        <v>-5.69</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.41</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="10">
@@ -1061,22 +877,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.85</v>
+        <v>1.08</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.41</v>
+        <v>-6.7</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.44</v>
+        <v>0.91</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.27</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="11">
@@ -1084,22 +897,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.51</v>
+        <v>-7.53</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.24</v>
+        <v>1.04</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.16</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="12">
@@ -1107,22 +917,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.51</v>
+        <v>-7.53</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.24</v>
+        <v>1.04</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.16</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="13">
@@ -1130,22 +937,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.65</v>
+        <v>-9.02</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.15</v>
+        <v>1.19</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.02</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="14">
@@ -1153,22 +957,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.68</v>
+        <v>2.82</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.78</v>
+        <v>-10.51</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.14</v>
+        <v>1.4</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.16</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="15">
@@ -1176,22 +977,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.07</v>
+        <v>3.39</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.91</v>
+        <v>-12.04</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.06</v>
+        <v>1.69</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.34</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="16">
@@ -1199,22 +997,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.38</v>
+        <v>3.98</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.04</v>
+        <v>-12.8</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.01</v>
+        <v>1.97</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.28</v>
+        <v>-0.19</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.64</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="17">
@@ -1222,22 +1017,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.61</v>
+        <v>4.18</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.62</v>
+        <v>-13.17</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.96</v>
+        <v>2.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5</v>
+        <v>-0.22</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1.27</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="18">
@@ -1245,22 +1037,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.65</v>
+        <v>4.7</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.19</v>
+        <v>-13.62</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.73</v>
+        <v>2.29</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.72</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-1.9</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="19">
@@ -1268,22 +1057,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.67</v>
+        <v>5.24</v>
       </c>
       <c r="C19" t="n">
-        <v>0.28</v>
+        <v>-13.92</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.5</v>
+        <v>2.33</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.9</v>
+        <v>-0.23</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-2.56</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="20">
@@ -1291,22 +1077,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.32</v>
+        <v>6.86</v>
       </c>
       <c r="C20" t="n">
-        <v>0.79</v>
+        <v>-14.93</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.39</v>
+        <v>2.37</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.1</v>
+        <v>-0.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-2.74</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="21">
@@ -1314,22 +1097,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.970000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="C21" t="n">
-        <v>1.33</v>
+        <v>-15.29</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.52</v>
+        <v>2.43</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.23</v>
+        <v>-0.55</v>
       </c>
       <c r="F21" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-2.82</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="22">
@@ -1337,22 +1117,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.619999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.78</v>
+        <v>-15.59</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.65</v>
+        <v>2.45</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.46</v>
+        <v>-0.73</v>
       </c>
       <c r="F22" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-2.8</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="23">
@@ -1360,22 +1137,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.09</v>
+        <v>9.77</v>
       </c>
       <c r="C23" t="n">
-        <v>2.22</v>
+        <v>-15.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.75</v>
+        <v>2.52</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.57</v>
+        <v>-1.01</v>
       </c>
       <c r="F23" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-2.72</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="24">
@@ -1383,22 +1157,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.55</v>
+        <v>10.73</v>
       </c>
       <c r="C24" t="n">
-        <v>2.67</v>
+        <v>-16.19</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.82</v>
+        <v>2.53</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.62</v>
+        <v>-1.3</v>
       </c>
       <c r="F24" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-2.63</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="25">
@@ -1406,22 +1177,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10.01</v>
+        <v>11.75</v>
       </c>
       <c r="C25" t="n">
-        <v>3.07</v>
+        <v>-16.51</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.94</v>
+        <v>2.47</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.55</v>
+        <v>-1.58</v>
       </c>
       <c r="F25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-2.56</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="26">
@@ -1429,22 +1197,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.539999999999999</v>
+        <v>12.91</v>
       </c>
       <c r="C26" t="n">
-        <v>3.49</v>
+        <v>-16.82</v>
       </c>
       <c r="D26" t="n">
-        <v>-10.01</v>
+        <v>2.39</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.44</v>
+        <v>-1.87</v>
       </c>
       <c r="F26" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-2.4</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="27">
@@ -1452,22 +1217,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.130000000000001</v>
+        <v>14.04</v>
       </c>
       <c r="C27" t="n">
-        <v>3.38</v>
+        <v>-17.49</v>
       </c>
       <c r="D27" t="n">
-        <v>-10.08</v>
+        <v>2.32</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.27</v>
+        <v>-1.78</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-1.9</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="28">
@@ -1475,22 +1237,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.699999999999999</v>
+        <v>15.05</v>
       </c>
       <c r="C28" t="n">
-        <v>3.26</v>
+        <v>-18.16</v>
       </c>
       <c r="D28" t="n">
-        <v>-10.1</v>
+        <v>2.43</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.06</v>
+        <v>-1.68</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-1.41</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="29">
@@ -1498,22 +1257,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.31</v>
+        <v>16.05</v>
       </c>
       <c r="C29" t="n">
-        <v>3.12</v>
+        <v>-19.09</v>
       </c>
       <c r="D29" t="n">
-        <v>-10.14</v>
+        <v>2.54</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.57</v>
       </c>
       <c r="F29" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0.87</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="30">
@@ -1521,22 +1277,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.31</v>
+        <v>16.03</v>
       </c>
       <c r="C30" t="n">
-        <v>2.98</v>
+        <v>-19.24</v>
       </c>
       <c r="D30" t="n">
-        <v>-10.44</v>
+        <v>2.65</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.77</v>
+        <v>-1.45</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-0.79</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="31">
@@ -1544,22 +1297,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.31</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>2.87</v>
+        <v>-19.48</v>
       </c>
       <c r="D31" t="n">
-        <v>-10.73</v>
+        <v>2.8</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.66</v>
+        <v>-1.28</v>
       </c>
       <c r="F31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0.7</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="32">
@@ -1567,22 +1317,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.31</v>
+        <v>15.99</v>
       </c>
       <c r="C32" t="n">
-        <v>3.55</v>
+        <v>-19.71</v>
       </c>
       <c r="D32" t="n">
-        <v>-11.02</v>
+        <v>2.96</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.84</v>
+        <v>-1.13</v>
       </c>
       <c r="F32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-1.04</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="33">
@@ -1590,22 +1337,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.31</v>
+        <v>16.01</v>
       </c>
       <c r="C33" t="n">
-        <v>4.23</v>
+        <v>-19.94</v>
       </c>
       <c r="D33" t="n">
-        <v>-11.32</v>
+        <v>3.13</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.11</v>
+        <v>-0.88</v>
       </c>
       <c r="F33" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="34">
@@ -1613,28 +1357,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.31</v>
+        <v>15.96</v>
       </c>
       <c r="C34" t="n">
-        <v>4.91</v>
+        <v>-20.08</v>
       </c>
       <c r="D34" t="n">
-        <v>-11.65</v>
+        <v>3.3</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.49</v>
+        <v>-0.61</v>
       </c>
       <c r="F34" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-1.93</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="35">
@@ -1642,28 +1377,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.300000000000001</v>
+        <v>15.85</v>
       </c>
       <c r="C35" t="n">
-        <v>6.23</v>
+        <v>-19.77</v>
       </c>
       <c r="D35" t="n">
-        <v>-12.28</v>
+        <v>3.09</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.24</v>
+        <v>-0.34</v>
       </c>
       <c r="F35" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-2.48</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>-0.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="36">
@@ -1671,28 +1397,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8.039999999999999</v>
+        <v>15.54</v>
       </c>
       <c r="C36" t="n">
-        <v>7.55</v>
+        <v>-19.49</v>
       </c>
       <c r="D36" t="n">
-        <v>-12.95</v>
+        <v>3.03</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.56</v>
+        <v>-0.09</v>
       </c>
       <c r="F36" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-3.04</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0.1333333333333333</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-0.4666666666666666</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="37">
@@ -1700,28 +1417,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.74</v>
+        <v>15.25</v>
       </c>
       <c r="C37" t="n">
-        <v>8.83</v>
+        <v>-18.79</v>
       </c>
       <c r="D37" t="n">
-        <v>-13.23</v>
+        <v>2.96</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.9</v>
+        <v>-0.24</v>
       </c>
       <c r="F37" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-3.78</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0.275</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0.825</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="38">
@@ -1729,28 +1437,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.88</v>
+        <v>14.89</v>
       </c>
       <c r="C38" t="n">
-        <v>10.13</v>
+        <v>-18</v>
       </c>
       <c r="D38" t="n">
-        <v>-13.6</v>
+        <v>2.94</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.24</v>
+        <v>-0.45</v>
       </c>
       <c r="F38" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-1.06</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="39">
@@ -1758,28 +1457,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.140000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="C39" t="n">
-        <v>11.45</v>
+        <v>-17.25</v>
       </c>
       <c r="D39" t="n">
-        <v>-14.01</v>
+        <v>2.92</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.6</v>
+        <v>-0.7</v>
       </c>
       <c r="F39" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-5.64</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-0.6333333333333334</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-2.275</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="40">
@@ -1787,28 +1477,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.26</v>
+        <v>14.24</v>
       </c>
       <c r="C40" t="n">
-        <v>12.76</v>
+        <v>-17.55</v>
       </c>
       <c r="D40" t="n">
-        <v>-14.15</v>
+        <v>2.82</v>
       </c>
       <c r="E40" t="n">
-        <v>-4.03</v>
+        <v>-0.9</v>
       </c>
       <c r="F40" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-6.64</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-0.8142857142857143</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-3.142857142857142</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1497,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.93</v>
+        <v>13.9</v>
       </c>
       <c r="C41" t="n">
-        <v>14.04</v>
+        <v>-17.71</v>
       </c>
       <c r="D41" t="n">
-        <v>-14.35</v>
+        <v>2.58</v>
       </c>
       <c r="E41" t="n">
-        <v>-4.51</v>
+        <v>-1.11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-6.99</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.08750000000000001</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-3.793749999999999</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="42">
@@ -1845,28 +1517,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.17</v>
+        <v>13.67</v>
       </c>
       <c r="C42" t="n">
-        <v>14.57</v>
+        <v>-18.01</v>
       </c>
       <c r="D42" t="n">
-        <v>-14.72</v>
+        <v>2.35</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.73</v>
+        <v>-1.32</v>
       </c>
       <c r="F42" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-7.21</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.722222222222222</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-4.205555555555555</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="43">
@@ -1874,31 +1537,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.5</v>
+        <v>13.4</v>
       </c>
       <c r="C43" t="n">
-        <v>15.05</v>
+        <v>-18.38</v>
       </c>
       <c r="D43" t="n">
-        <v>-15.05</v>
+        <v>2.12</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.94</v>
+        <v>-1.59</v>
       </c>
       <c r="F43" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.122000000000001</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-4.605</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="44">
@@ -1906,31 +1557,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.83</v>
+        <v>13.22</v>
       </c>
       <c r="C44" t="n">
-        <v>15.52</v>
+        <v>-18.87</v>
       </c>
       <c r="D44" t="n">
-        <v>-15.66</v>
+        <v>1.89</v>
       </c>
       <c r="E44" t="n">
-        <v>-5.08</v>
+        <v>-1.86</v>
       </c>
       <c r="F44" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-7.39</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.122000000000001</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-4.605</v>
-      </c>
-      <c r="J44" t="n">
-        <v>-0.05</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="45">
@@ -1938,31 +1577,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.46</v>
+        <v>13.06</v>
       </c>
       <c r="C45" t="n">
-        <v>15.4</v>
+        <v>-19.77</v>
       </c>
       <c r="D45" t="n">
-        <v>-15.98</v>
+        <v>2.02</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.93</v>
+        <v>-2.14</v>
       </c>
       <c r="F45" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-7.39</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.315</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-5.425</v>
-      </c>
-      <c r="J45" t="n">
-        <v>-0.08333333333333333</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="46">
@@ -1970,31 +1597,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.33</v>
+        <v>12.96</v>
       </c>
       <c r="C46" t="n">
-        <v>15.26</v>
+        <v>-20.65</v>
       </c>
       <c r="D46" t="n">
-        <v>-16.26</v>
+        <v>2.01</v>
       </c>
       <c r="E46" t="n">
-        <v>-5.13</v>
+        <v>-2.35</v>
       </c>
       <c r="F46" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-7.39</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4.497999999999999</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-6.205</v>
-      </c>
-      <c r="J46" t="n">
-        <v>-0.3</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="47">
@@ -2002,31 +1617,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.25</v>
+        <v>12.86</v>
       </c>
       <c r="C47" t="n">
-        <v>15.12</v>
+        <v>-21.54</v>
       </c>
       <c r="D47" t="n">
-        <v>-16.99</v>
+        <v>2.02</v>
       </c>
       <c r="E47" t="n">
-        <v>-5.38</v>
+        <v>-2.6</v>
       </c>
       <c r="F47" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-7.29</v>
-      </c>
-      <c r="H47" t="n">
-        <v>5.715999999999999</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-6.620000000000002</v>
-      </c>
-      <c r="J47" t="n">
-        <v>-0.21</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="48">
@@ -2034,31 +1637,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.73</v>
+        <v>12.81</v>
       </c>
       <c r="C48" t="n">
-        <v>14.99</v>
+        <v>-22.41</v>
       </c>
       <c r="D48" t="n">
-        <v>-17.77</v>
+        <v>1.81</v>
       </c>
       <c r="E48" t="n">
-        <v>-5.62</v>
+        <v>-2.78</v>
       </c>
       <c r="F48" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-7</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6.964</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-6.984999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-0.15</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="49">
@@ -2066,31 +1657,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.85</v>
+        <v>12.7</v>
       </c>
       <c r="C49" t="n">
-        <v>14.86</v>
+        <v>-23.04</v>
       </c>
       <c r="D49" t="n">
-        <v>-18.22</v>
+        <v>1.6</v>
       </c>
       <c r="E49" t="n">
-        <v>-5.86</v>
+        <v>-3.15</v>
       </c>
       <c r="F49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-6.73</v>
-      </c>
-      <c r="H49" t="n">
-        <v>8.271999999999998</v>
-      </c>
-      <c r="I49" t="n">
-        <v>-7.359999999999999</v>
-      </c>
-      <c r="J49" t="n">
-        <v>-0.1071428571428571</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="50">
@@ -2098,31 +1677,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.2</v>
+        <v>12.67</v>
       </c>
       <c r="C50" t="n">
-        <v>14.71</v>
+        <v>-22.67</v>
       </c>
       <c r="D50" t="n">
-        <v>-18.67</v>
+        <v>1.45</v>
       </c>
       <c r="E50" t="n">
-        <v>-6.04</v>
+        <v>-3.52</v>
       </c>
       <c r="F50" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-6.39</v>
-      </c>
-      <c r="H50" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="I50" t="n">
-        <v>-7.17</v>
-      </c>
-      <c r="J50" t="n">
-        <v>-0.075</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="51">
@@ -2130,31 +1697,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>12.54</v>
       </c>
       <c r="C51" t="n">
-        <v>14.46</v>
+        <v>-22.68</v>
       </c>
       <c r="D51" t="n">
-        <v>-19.08</v>
+        <v>1.38</v>
       </c>
       <c r="E51" t="n">
-        <v>-6.17</v>
+        <v>-3.89</v>
       </c>
       <c r="F51" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-6.61</v>
-      </c>
-      <c r="H51" t="n">
-        <v>10.918</v>
-      </c>
-      <c r="I51" t="n">
-        <v>-6.904999999999999</v>
-      </c>
-      <c r="J51" t="n">
-        <v>-0.05</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="52">
@@ -2162,31 +1717,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.83</v>
+        <v>12.3</v>
       </c>
       <c r="C52" t="n">
-        <v>14.29</v>
+        <v>-22.61</v>
       </c>
       <c r="D52" t="n">
-        <v>-19.32</v>
+        <v>1.4</v>
       </c>
       <c r="E52" t="n">
-        <v>-6.59</v>
+        <v>-4.3</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-6.9</v>
-      </c>
-      <c r="H52" t="n">
-        <v>11.426</v>
-      </c>
-      <c r="I52" t="n">
-        <v>-6.640000000000001</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-0.03999999999999999</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="53">
@@ -2194,31 +1737,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.56</v>
+        <v>12.04</v>
       </c>
       <c r="C53" t="n">
-        <v>14.17</v>
+        <v>-22.37</v>
       </c>
       <c r="D53" t="n">
-        <v>-19.56</v>
+        <v>1.35</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.99</v>
+        <v>-4.62</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-7.47</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11.934</v>
-      </c>
-      <c r="I53" t="n">
-        <v>-6.110000000000001</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-0.03999999999999999</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="54">
@@ -2226,31 +1757,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.94</v>
+        <v>11.77</v>
       </c>
       <c r="C54" t="n">
-        <v>14.05</v>
+        <v>-21.98</v>
       </c>
       <c r="D54" t="n">
-        <v>-18.08</v>
+        <v>1.19</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.39</v>
+        <v>-4.95</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-8.02</v>
-      </c>
-      <c r="H54" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="I54" t="n">
-        <v>-5.51</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-1.04</v>
+        <v>14.03</v>
       </c>
     </row>
     <row r="55">
@@ -2258,31 +1777,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.03</v>
+        <v>11.52</v>
       </c>
       <c r="C55" t="n">
-        <v>13.85</v>
+        <v>-21.54</v>
       </c>
       <c r="D55" t="n">
-        <v>-16.68</v>
+        <v>0.98</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.79</v>
+        <v>-5.28</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="H55" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="I55" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="J55" t="n">
-        <v>-2.03</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="56">
@@ -2290,31 +1797,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.8</v>
+        <v>11.28</v>
       </c>
       <c r="C56" t="n">
-        <v>13.67</v>
+        <v>-21.04</v>
       </c>
       <c r="D56" t="n">
-        <v>-13.94</v>
+        <v>0.76</v>
       </c>
       <c r="E56" t="n">
-        <v>-6.25</v>
+        <v>-5.67</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-10.77</v>
-      </c>
-      <c r="H56" t="n">
-        <v>10.385</v>
-      </c>
-      <c r="I56" t="n">
-        <v>-4.33</v>
-      </c>
-      <c r="J56" t="n">
-        <v>-3.070000000000001</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="57">
@@ -2322,31 +1817,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.56</v>
+        <v>11.08</v>
       </c>
       <c r="C57" t="n">
-        <v>13.48</v>
+        <v>-20.69</v>
       </c>
       <c r="D57" t="n">
-        <v>-11.14</v>
+        <v>0.52</v>
       </c>
       <c r="E57" t="n">
-        <v>-5.63</v>
+        <v>-6</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-12.07</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9.355</v>
-      </c>
-      <c r="I57" t="n">
-        <v>-4.075</v>
-      </c>
-      <c r="J57" t="n">
-        <v>-3.995000000000001</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="58">
@@ -2354,31 +1837,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.27</v>
+        <v>10.88</v>
       </c>
       <c r="C58" t="n">
-        <v>13.26</v>
+        <v>-20.26</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.32</v>
+        <v>0.28</v>
       </c>
       <c r="E58" t="n">
-        <v>-5.13</v>
+        <v>-6.4</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-13.38</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-2.835</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-5.19</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="59">
@@ -2386,31 +1857,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.21</v>
+        <v>10.61</v>
       </c>
       <c r="C59" t="n">
-        <v>13.03</v>
+        <v>-19.9</v>
       </c>
       <c r="D59" t="n">
-        <v>-5.76</v>
+        <v>0.05</v>
       </c>
       <c r="E59" t="n">
-        <v>-4.63</v>
+        <v>-6.59</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-14.69</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6.245000000000001</v>
-      </c>
-      <c r="I59" t="n">
-        <v>-1.575</v>
-      </c>
-      <c r="J59" t="n">
-        <v>-6.335</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="60">
@@ -2418,31 +1877,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.8</v>
+        <v>10.26</v>
       </c>
       <c r="C60" t="n">
-        <v>12.71</v>
+        <v>-19.38</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.77</v>
+        <v>-0.19</v>
       </c>
       <c r="E60" t="n">
-        <v>-4.68</v>
+        <v>-6.77</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-14.49</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I60" t="n">
-        <v>-0.2959999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>-7.48</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="61">
@@ -2450,31 +1897,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.4</v>
+        <v>10.11</v>
       </c>
       <c r="C61" t="n">
-        <v>12.49</v>
+        <v>-18.58</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.7</v>
+        <v>-0.48</v>
       </c>
       <c r="E61" t="n">
-        <v>-4.73</v>
+        <v>-6.96</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-14.4</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3.175</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.9080000000000006</v>
-      </c>
-      <c r="J61" t="n">
-        <v>-8.645</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="62">
@@ -2482,31 +1917,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.24</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>12.27</v>
+        <v>-17.71</v>
       </c>
       <c r="D62" t="n">
-        <v>0.31</v>
+        <v>-0.85</v>
       </c>
       <c r="E62" t="n">
-        <v>-4.45</v>
+        <v>-7.1</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-14.06</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.392</v>
-      </c>
-      <c r="J62" t="n">
-        <v>-9.859999999999999</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="63">
@@ -2514,31 +1937,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10.11</v>
+        <v>9.81</v>
       </c>
       <c r="C63" t="n">
-        <v>12.05</v>
+        <v>-16.94</v>
       </c>
       <c r="D63" t="n">
-        <v>3.51</v>
+        <v>-1.15</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.15</v>
+        <v>-7.24</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-13.5</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.356</v>
-      </c>
-      <c r="J63" t="n">
-        <v>-11.065</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="64">
@@ -2546,31 +1957,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.76</v>
+        <v>9.66</v>
       </c>
       <c r="C64" t="n">
-        <v>11.82</v>
+        <v>-16.29</v>
       </c>
       <c r="D64" t="n">
-        <v>5.34</v>
+        <v>-1.33</v>
       </c>
       <c r="E64" t="n">
-        <v>-4.12</v>
+        <v>-7.38</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-13.03</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-1.27</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.320000000000001</v>
-      </c>
-      <c r="J64" t="n">
-        <v>-11.265</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="65">
@@ -2578,31 +1977,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.41</v>
+        <v>9.43</v>
       </c>
       <c r="C65" t="n">
-        <v>11.67</v>
+        <v>-15.52</v>
       </c>
       <c r="D65" t="n">
-        <v>7.24</v>
+        <v>-1.53</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.07</v>
+        <v>-7.54</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-11.71</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-2.72</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.294</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-11.465</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="66">
@@ -2610,31 +1997,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.95</v>
+        <v>9.52</v>
       </c>
       <c r="C66" t="n">
-        <v>11.51</v>
+        <v>-15.08</v>
       </c>
       <c r="D66" t="n">
-        <v>7.75</v>
+        <v>-1.72</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.03</v>
+        <v>-7.7</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-9.83</v>
-      </c>
-      <c r="H66" t="n">
-        <v>-3.245</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6.198</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-11.66</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="67">
@@ -2642,31 +2017,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.54</v>
+        <v>9.57</v>
       </c>
       <c r="C67" t="n">
-        <v>11.35</v>
+        <v>-14.59</v>
       </c>
       <c r="D67" t="n">
-        <v>8.19</v>
+        <v>-1.84</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.92</v>
+        <v>-7.86</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-7.89</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-3.833000000000001</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7.106999999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-11.9</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="68">
@@ -2674,31 +2037,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.14</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>11.23</v>
+        <v>-14.2</v>
       </c>
       <c r="D68" t="n">
-        <v>8.67</v>
+        <v>-1.97</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.7</v>
+        <v>-7.91</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-6.01</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-3.896</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7.895999999999999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-12.675</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="69">
@@ -2706,31 +2057,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.69</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>11.11</v>
+        <v>-13.88</v>
       </c>
       <c r="D69" t="n">
-        <v>9.15</v>
+        <v>-2.15</v>
       </c>
       <c r="E69" t="n">
-        <v>-8.48</v>
+        <v>-7.94</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-4.09</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-4.004</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-13.355</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="70">
@@ -2738,31 +2077,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.43</v>
+        <v>9.98</v>
       </c>
       <c r="C70" t="n">
-        <v>11.03</v>
+        <v>-13.95</v>
       </c>
       <c r="D70" t="n">
-        <v>10.44</v>
+        <v>-1.6</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.710000000000001</v>
+        <v>-7.97</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-3.76</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-4.172000000000001</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9.434999999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-14.035</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="71">
@@ -2770,31 +2097,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.84</v>
+        <v>10.06</v>
       </c>
       <c r="C71" t="n">
-        <v>10.86</v>
+        <v>-13.97</v>
       </c>
       <c r="D71" t="n">
-        <v>11.66</v>
+        <v>-1</v>
       </c>
       <c r="E71" t="n">
-        <v>-9.119999999999999</v>
+        <v>-8</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-3.39</v>
-      </c>
-      <c r="H71" t="n">
-        <v>-4.350000000000001</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="J71" t="n">
-        <v>-14.383</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -2802,31 +2117,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.27</v>
+        <v>10.07</v>
       </c>
       <c r="C72" t="n">
-        <v>10.65</v>
+        <v>-13.97</v>
       </c>
       <c r="D72" t="n">
-        <v>12.9</v>
+        <v>-0.41</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.57</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-3.08</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-4.973000000000001</v>
-      </c>
-      <c r="I72" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-14.681</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="73">
@@ -2834,31 +2137,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.74</v>
+        <v>10.08</v>
       </c>
       <c r="C73" t="n">
-        <v>10.65</v>
+        <v>-13.94</v>
       </c>
       <c r="D73" t="n">
-        <v>12.85</v>
+        <v>0.18</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.12</v>
+        <v>-8.06</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-2.72</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-5.596000000000001</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-14.979</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="74">
@@ -2866,31 +2157,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.64</v>
+        <v>10.04</v>
       </c>
       <c r="C74" t="n">
-        <v>10.65</v>
+        <v>-14.17</v>
       </c>
       <c r="D74" t="n">
-        <v>12.82</v>
+        <v>1.15</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.42</v>
+        <v>-8.15</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="H74" t="n">
-        <v>-6.499</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J74" t="n">
-        <v>-15.277</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="75">
@@ -2898,31 +2177,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.54</v>
+        <v>10.09</v>
       </c>
       <c r="C75" t="n">
-        <v>10.66</v>
+        <v>-14.56</v>
       </c>
       <c r="D75" t="n">
-        <v>13.1</v>
+        <v>2.18</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.73</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-7.482000000000001</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="J75" t="n">
-        <v>-15.585</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="76">
@@ -2930,31 +2197,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>10.12</v>
       </c>
       <c r="C76" t="n">
-        <v>10.66</v>
+        <v>-14.89</v>
       </c>
       <c r="D76" t="n">
-        <v>13.43</v>
+        <v>3.2</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.08</v>
+        <v>-8.34</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-8.510000000000002</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>-16.173</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="77">
@@ -2962,31 +2217,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.49</v>
+        <v>10.11</v>
       </c>
       <c r="C77" t="n">
-        <v>10.67</v>
+        <v>-15.37</v>
       </c>
       <c r="D77" t="n">
-        <v>13.85</v>
+        <v>4.18</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.48</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1.29</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-9.485000000000001</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14.935</v>
-      </c>
-      <c r="J77" t="n">
-        <v>-17.181</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -2994,31 +2237,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.03</v>
+        <v>10.07</v>
       </c>
       <c r="C78" t="n">
-        <v>10.62</v>
+        <v>-15.8</v>
       </c>
       <c r="D78" t="n">
-        <v>14.25</v>
+        <v>5.17</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.57</v>
+        <v>-8.67</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-1.29</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-10.465</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15.418</v>
-      </c>
-      <c r="J78" t="n">
-        <v>-17.494</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="79">
@@ -3026,31 +2257,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.61</v>
+        <v>10.01</v>
       </c>
       <c r="C79" t="n">
-        <v>10.58</v>
+        <v>-16.25</v>
       </c>
       <c r="D79" t="n">
-        <v>14.65</v>
+        <v>6.2</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.65</v>
+        <v>-8.92</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-11.445</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15.901</v>
-      </c>
-      <c r="J79" t="n">
-        <v>-17.837</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -3058,31 +2277,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.23</v>
+        <v>9.98</v>
       </c>
       <c r="C80" t="n">
-        <v>10.47</v>
+        <v>-16.43</v>
       </c>
       <c r="D80" t="n">
-        <v>14.79</v>
+        <v>6.59</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.86</v>
+        <v>-9.18</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-1.39</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-11.935</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16.364</v>
-      </c>
-      <c r="J80" t="n">
-        <v>-18.18</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -3090,31 +2297,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.78</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>10.44</v>
+        <v>-16.71</v>
       </c>
       <c r="D81" t="n">
-        <v>14.93</v>
+        <v>7.14</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.88</v>
+        <v>-9.44</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-12.495</v>
-      </c>
-      <c r="I81" t="n">
-        <v>16.757</v>
-      </c>
-      <c r="J81" t="n">
-        <v>-19.145</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -3122,31 +2317,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.66</v>
+        <v>9.83</v>
       </c>
       <c r="C82" t="n">
-        <v>10.52</v>
+        <v>-17.09</v>
       </c>
       <c r="D82" t="n">
-        <v>15.12</v>
+        <v>7.68</v>
       </c>
       <c r="E82" t="n">
-        <v>-11.87</v>
+        <v>-9.69</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-12.61</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17.195</v>
-      </c>
-      <c r="J82" t="n">
-        <v>-20.155</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="83">
@@ -3154,31 +2337,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.15</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>10.38</v>
+        <v>-18.01</v>
       </c>
       <c r="D83" t="n">
-        <v>15.39</v>
+        <v>8.23</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.82</v>
+        <v>-10.03</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-12.725</v>
-      </c>
-      <c r="I83" t="n">
-        <v>17.653</v>
-      </c>
-      <c r="J83" t="n">
-        <v>-20.665</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="84">
@@ -3186,31 +2357,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.64</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>10.25</v>
+        <v>-18.65</v>
       </c>
       <c r="D84" t="n">
-        <v>15.83</v>
+        <v>8.41</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.81</v>
+        <v>-10.31</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-12.56</v>
-      </c>
-      <c r="I84" t="n">
-        <v>18.121</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-21.23</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="85">
@@ -3218,31 +2377,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.08</v>
+        <v>9.51</v>
       </c>
       <c r="C85" t="n">
-        <v>9.800000000000001</v>
+        <v>-19.23</v>
       </c>
       <c r="D85" t="n">
-        <v>15.96</v>
+        <v>8.58</v>
       </c>
       <c r="E85" t="n">
-        <v>-11.84</v>
+        <v>-10.59</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-12.325</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18.639</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-21.31</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="86">
@@ -3250,31 +2397,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.52</v>
+        <v>9.09</v>
       </c>
       <c r="C86" t="n">
-        <v>9.69</v>
+        <v>-19.61</v>
       </c>
       <c r="D86" t="n">
-        <v>16.01</v>
+        <v>8.69</v>
       </c>
       <c r="E86" t="n">
-        <v>-11.9</v>
+        <v>-10.63</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-12.05</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18.647</v>
-      </c>
-      <c r="J86" t="n">
-        <v>-21.06</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="87">
@@ -3282,31 +2417,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.09</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>9.529999999999999</v>
+        <v>-19.96</v>
       </c>
       <c r="D87" t="n">
-        <v>16.01</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>-11.97</v>
+        <v>-10.67</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-11.765</v>
-      </c>
-      <c r="I87" t="n">
-        <v>18.085</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-20.43</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="88">
@@ -3314,31 +2437,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.63</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>9.41</v>
+        <v>-20.37</v>
       </c>
       <c r="D88" t="n">
-        <v>15.97</v>
+        <v>8.84</v>
       </c>
       <c r="E88" t="n">
-        <v>-12.36</v>
+        <v>-10.69</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-11.475</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-19.8</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="89">
@@ -3346,31 +2457,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.16</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>9.289999999999999</v>
+        <v>-20.55</v>
       </c>
       <c r="D89" t="n">
-        <v>15.94</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>-12.74</v>
+        <v>-10.69</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-11.14</v>
-      </c>
-      <c r="I89" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-19.35</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="90">
@@ -3378,34 +2477,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.71</v>
+        <v>8.15</v>
       </c>
       <c r="C90" t="n">
-        <v>9.25</v>
+        <v>-20.54</v>
       </c>
       <c r="D90" t="n">
-        <v>15.9</v>
+        <v>8.69</v>
       </c>
       <c r="E90" t="n">
-        <v>-13</v>
+        <v>-10.69</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-11.28</v>
-      </c>
-      <c r="I90" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-18.755</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="91">
@@ -3413,34 +2497,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.35</v>
+        <v>7.84</v>
       </c>
       <c r="C91" t="n">
-        <v>8.51</v>
+        <v>-20.38</v>
       </c>
       <c r="D91" t="n">
-        <v>15.88</v>
+        <v>8.34</v>
       </c>
       <c r="E91" t="n">
-        <v>-13.32</v>
+        <v>-10.69</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-11.35</v>
-      </c>
-      <c r="I91" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-17.91</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1.435</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="92">
@@ -3448,34 +2517,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.99</v>
+        <v>7.54</v>
       </c>
       <c r="C92" t="n">
-        <v>7.71</v>
+        <v>-20.22</v>
       </c>
       <c r="D92" t="n">
-        <v>15.84</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>-13.63</v>
+        <v>-10.7</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-11.485</v>
-      </c>
-      <c r="I92" t="n">
-        <v>17.108</v>
-      </c>
-      <c r="J92" t="n">
-        <v>-17.02999999999999</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.913333333333333</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="93">
@@ -3483,34 +2537,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.15</v>
+        <v>6.85</v>
       </c>
       <c r="C93" t="n">
-        <v>6.9</v>
+        <v>-19.07</v>
       </c>
       <c r="D93" t="n">
-        <v>15.8</v>
+        <v>7.65</v>
       </c>
       <c r="E93" t="n">
-        <v>-13.9</v>
+        <v>-10.63</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-11.68</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16.856</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-16.655</v>
-      </c>
-      <c r="K93" t="n">
-        <v>2.1525</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="94">
@@ -3518,34 +2557,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="C94" t="n">
-        <v>5.93</v>
+        <v>-17.83</v>
       </c>
       <c r="D94" t="n">
-        <v>16.84</v>
+        <v>7.3</v>
       </c>
       <c r="E94" t="n">
-        <v>-14.17</v>
+        <v>-10.58</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-11.88</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16.604</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-16.225</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2.276000000000001</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="95">
@@ -3553,34 +2577,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.42</v>
+        <v>5.37</v>
       </c>
       <c r="C95" t="n">
-        <v>5.28</v>
+        <v>-16.77</v>
       </c>
       <c r="D95" t="n">
-        <v>17.82</v>
+        <v>7.99</v>
       </c>
       <c r="E95" t="n">
-        <v>-14.39</v>
+        <v>-11.43</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-12.07</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16.307</v>
-      </c>
-      <c r="J95" t="n">
-        <v>-16.055</v>
-      </c>
-      <c r="K95" t="n">
-        <v>2.291666666666667</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="96">
@@ -3588,34 +2597,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.22</v>
+        <v>5.33</v>
       </c>
       <c r="C96" t="n">
-        <v>4.3</v>
+        <v>-16.37</v>
       </c>
       <c r="D96" t="n">
-        <v>18.88</v>
+        <v>8.75</v>
       </c>
       <c r="E96" t="n">
-        <v>-14.4</v>
+        <v>-12.43</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-12.255</v>
-      </c>
-      <c r="I96" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="J96" t="n">
-        <v>-15.885</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.224285714285715</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="97">
@@ -3623,34 +2617,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.29</v>
+        <v>5.17</v>
       </c>
       <c r="C97" t="n">
-        <v>3.36</v>
+        <v>-14.98</v>
       </c>
       <c r="D97" t="n">
-        <v>19.99</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>-14.41</v>
+        <v>-13.43</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-12.44</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15.788</v>
-      </c>
-      <c r="J97" t="n">
-        <v>-15.72</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2.16125</v>
+        <v>14.61</v>
       </c>
     </row>
     <row r="98">
@@ -3658,34 +2637,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.39</v>
+        <v>4.9</v>
       </c>
       <c r="C98" t="n">
-        <v>2.42</v>
+        <v>-13.55</v>
       </c>
       <c r="D98" t="n">
-        <v>21.14</v>
+        <v>8.56</v>
       </c>
       <c r="E98" t="n">
-        <v>-14.46</v>
+        <v>-14.42</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-2.12</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-12.625</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15.536</v>
-      </c>
-      <c r="J98" t="n">
-        <v>-14.518</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2.067777777777778</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="99">
@@ -3693,34 +2657,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="C99" t="n">
-        <v>1.49</v>
+        <v>-12.39</v>
       </c>
       <c r="D99" t="n">
-        <v>22.29</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>-14.55</v>
+        <v>-15.38</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-3.26</v>
-      </c>
-      <c r="H99" t="n">
-        <v>-12.85</v>
-      </c>
-      <c r="I99" t="n">
-        <v>14.824</v>
-      </c>
-      <c r="J99" t="n">
-        <v>-13.251</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.993</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="100">
@@ -3728,34 +2677,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.54</v>
+        <v>4.85</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6</v>
+        <v>-11.5</v>
       </c>
       <c r="D100" t="n">
-        <v>25.72</v>
+        <v>8.56</v>
       </c>
       <c r="E100" t="n">
-        <v>-14.63</v>
+        <v>-16.34</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-4.42</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-11.725</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14.112</v>
-      </c>
-      <c r="J100" t="n">
-        <v>-15.693</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.993</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="101">
@@ -3763,34 +2697,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.31</v>
+        <v>4.89</v>
       </c>
       <c r="C101" t="n">
-        <v>0.41</v>
+        <v>-10.7</v>
       </c>
       <c r="D101" t="n">
-        <v>29.12</v>
+        <v>8.65</v>
       </c>
       <c r="E101" t="n">
-        <v>-14.68</v>
+        <v>-17.27</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-5.68</v>
-      </c>
-      <c r="H101" t="n">
-        <v>-10.6</v>
-      </c>
-      <c r="I101" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="J101" t="n">
-        <v>-18.075</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2.105</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="102">
@@ -3798,34 +2717,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.07</v>
+        <v>4.89</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.39</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>32.49</v>
+        <v>8.75</v>
       </c>
       <c r="E102" t="n">
-        <v>-14.75</v>
+        <v>-18.19</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-6.05</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-9.415000000000001</v>
-      </c>
-      <c r="I102" t="n">
-        <v>13.089</v>
-      </c>
-      <c r="J102" t="n">
-        <v>-20.447</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.894</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="103">
@@ -3833,34 +2737,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.76</v>
+        <v>5.37</v>
       </c>
       <c r="C103" t="n">
-        <v>-1.21</v>
+        <v>-9.27</v>
       </c>
       <c r="D103" t="n">
-        <v>36.05</v>
+        <v>8.82</v>
       </c>
       <c r="E103" t="n">
-        <v>-14.85</v>
+        <v>-19.1</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-6.48</v>
-      </c>
-      <c r="H103" t="n">
-        <v>-8.180000000000001</v>
-      </c>
-      <c r="I103" t="n">
-        <v>12.568</v>
-      </c>
-      <c r="J103" t="n">
-        <v>-22.814</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1.653</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="104">
@@ -3868,34 +2757,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.52</v>
+        <v>5.87</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.88</v>
+        <v>-8.76</v>
       </c>
       <c r="D104" t="n">
-        <v>38.34</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>-14.89</v>
+        <v>-20</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-5.98</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-6.95</v>
-      </c>
-      <c r="I104" t="n">
-        <v>12.137</v>
-      </c>
-      <c r="J104" t="n">
-        <v>-25.181</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1.392</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="105">
@@ -3903,34 +2777,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.23</v>
+        <v>6.37</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.55</v>
+        <v>-8.16</v>
       </c>
       <c r="D105" t="n">
-        <v>40.63</v>
+        <v>7.96</v>
       </c>
       <c r="E105" t="n">
-        <v>-14.94</v>
+        <v>-20</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-5.04</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="I105" t="n">
-        <v>11.801</v>
-      </c>
-      <c r="J105" t="n">
-        <v>-28.033</v>
-      </c>
-      <c r="K105" t="n">
-        <v>1.131</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="106">
@@ -3938,34 +2797,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.95</v>
+        <v>6.12</v>
       </c>
       <c r="C106" t="n">
-        <v>-3.23</v>
+        <v>-6.84</v>
       </c>
       <c r="D106" t="n">
-        <v>42.93</v>
+        <v>7.05</v>
       </c>
       <c r="E106" t="n">
-        <v>-15.13</v>
+        <v>-20</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-4.07</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-4.49</v>
-      </c>
-      <c r="I106" t="n">
-        <v>11.505</v>
-      </c>
-      <c r="J106" t="n">
-        <v>-30.87</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.905</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="107">
@@ -3973,34 +2817,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.44</v>
+        <v>5.89</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.89</v>
+        <v>-6.55</v>
       </c>
       <c r="D107" t="n">
-        <v>45.11</v>
+        <v>7.14</v>
       </c>
       <c r="E107" t="n">
-        <v>-14.66</v>
+        <v>-20</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-3.05</v>
-      </c>
-      <c r="H107" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="I107" t="n">
-        <v>11.154</v>
-      </c>
-      <c r="J107" t="n">
-        <v>-34.067</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.724</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="108">
@@ -4008,34 +2837,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3</v>
+        <v>5.64</v>
       </c>
       <c r="C108" t="n">
-        <v>-4.55</v>
+        <v>-6.3</v>
       </c>
       <c r="D108" t="n">
-        <v>47.31</v>
+        <v>7.22</v>
       </c>
       <c r="E108" t="n">
-        <v>-14.14</v>
+        <v>-20</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="H108" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10.803</v>
-      </c>
-      <c r="J108" t="n">
-        <v>-38.311</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.553</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="109">
@@ -4043,34 +2857,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.69</v>
+        <v>5.34</v>
       </c>
       <c r="C109" t="n">
-        <v>-5.21</v>
+        <v>-6.17</v>
       </c>
       <c r="D109" t="n">
-        <v>49.5</v>
+        <v>7.26</v>
       </c>
       <c r="E109" t="n">
-        <v>-13.57</v>
+        <v>-20</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="H109" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="I109" t="n">
-        <v>10.792</v>
-      </c>
-      <c r="J109" t="n">
-        <v>-42.565</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.4720000000000001</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="110">
@@ -4078,34 +2877,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.09</v>
+        <v>4.99</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.87</v>
+        <v>-6.03</v>
       </c>
       <c r="D110" t="n">
-        <v>49.41</v>
+        <v>7.31</v>
       </c>
       <c r="E110" t="n">
-        <v>-14.08</v>
+        <v>-20</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H110" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="I110" t="n">
-        <v>10.716</v>
-      </c>
-      <c r="J110" t="n">
-        <v>-44.565</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.381</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="111">
@@ -4113,34 +2897,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.48</v>
+        <v>4.66</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.53</v>
+        <v>-6.07</v>
       </c>
       <c r="D111" t="n">
-        <v>49.32</v>
+        <v>7.54</v>
       </c>
       <c r="E111" t="n">
-        <v>-14.58</v>
+        <v>-20</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G111" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="I111" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="J111" t="n">
-        <v>-46.565</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.29</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="112">
@@ -4148,34 +2917,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.84</v>
+        <v>4.32</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.02</v>
+        <v>-6.23</v>
       </c>
       <c r="D112" t="n">
-        <v>49.16</v>
+        <v>7.85</v>
       </c>
       <c r="E112" t="n">
-        <v>-15.05</v>
+        <v>-20</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G112" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="H112" t="n">
-        <v>-1.445</v>
-      </c>
-      <c r="I112" t="n">
-        <v>10.225</v>
-      </c>
-      <c r="J112" t="n">
-        <v>-48.565</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.215</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="113">
@@ -4183,34 +2937,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.21</v>
+        <v>3.99</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.51</v>
+        <v>-6.49</v>
       </c>
       <c r="D113" t="n">
-        <v>48.66</v>
+        <v>8.18</v>
       </c>
       <c r="E113" t="n">
-        <v>-15.58</v>
+        <v>-20</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G113" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="I113" t="n">
-        <v>10.015</v>
-      </c>
-      <c r="J113" t="n">
-        <v>-50.565</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.445</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="114">
@@ -4218,34 +2957,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.51</v>
+        <v>3.48</v>
       </c>
       <c r="C114" t="n">
-        <v>-4.97</v>
+        <v>-6.54</v>
       </c>
       <c r="D114" t="n">
-        <v>48.18</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>-16.13</v>
+        <v>-20</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="H114" t="n">
-        <v>-2.155</v>
-      </c>
-      <c r="I114" t="n">
-        <v>9.714999999999998</v>
-      </c>
-      <c r="J114" t="n">
-        <v>-52.455</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.6849999999999999</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="115">
@@ -4253,34 +2977,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.87</v>
+        <v>2.92</v>
       </c>
       <c r="C115" t="n">
-        <v>-4.44</v>
+        <v>-6.59</v>
       </c>
       <c r="D115" t="n">
-        <v>47.74</v>
+        <v>8.81</v>
       </c>
       <c r="E115" t="n">
-        <v>-16.67</v>
+        <v>-20</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G115" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="H115" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="I115" t="n">
-        <v>9.404999999999998</v>
-      </c>
-      <c r="J115" t="n">
-        <v>-53.98499999999999</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.925</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="116">
@@ -4288,34 +2997,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.83</v>
+        <v>2.43</v>
       </c>
       <c r="C116" t="n">
-        <v>-3.92</v>
+        <v>-6.7</v>
       </c>
       <c r="D116" t="n">
-        <v>50.8</v>
+        <v>9.16</v>
       </c>
       <c r="E116" t="n">
-        <v>-17.21</v>
+        <v>-20</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G116" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="H116" t="n">
-        <v>-2.875</v>
-      </c>
-      <c r="I116" t="n">
-        <v>9.024999999999999</v>
-      </c>
-      <c r="J116" t="n">
-        <v>-58.52999999999999</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1.165</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="117">
@@ -4323,34 +3017,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.75</v>
+        <v>1.93</v>
       </c>
       <c r="C117" t="n">
-        <v>-3.39</v>
+        <v>-6.68</v>
       </c>
       <c r="D117" t="n">
-        <v>53.97</v>
+        <v>9.4</v>
       </c>
       <c r="E117" t="n">
-        <v>-18.42</v>
+        <v>-20</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G117" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="H117" t="n">
-        <v>-3.24</v>
-      </c>
-      <c r="I117" t="n">
-        <v>8.754999999999999</v>
-      </c>
-      <c r="J117" t="n">
-        <v>-62.59499999999999</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1.415</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="118">
@@ -4358,34 +3037,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.22</v>
+        <v>1.57</v>
       </c>
       <c r="C118" t="n">
-        <v>-2.88</v>
+        <v>-6.68</v>
       </c>
       <c r="D118" t="n">
-        <v>57.14</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>-19.64</v>
+        <v>-20</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G118" t="n">
-        <v>20.73</v>
-      </c>
-      <c r="H118" t="n">
-        <v>-3.614999999999999</v>
-      </c>
-      <c r="I118" t="n">
-        <v>8.464999999999998</v>
-      </c>
-      <c r="J118" t="n">
-        <v>-66.66</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1.755</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="119">
@@ -4393,34 +3057,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.64</v>
+        <v>1.21</v>
       </c>
       <c r="C119" t="n">
-        <v>-2.69</v>
+        <v>-6.64</v>
       </c>
       <c r="D119" t="n">
-        <v>60.3</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>-20.86</v>
+        <v>-20</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G119" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="H119" t="n">
-        <v>-3.984999999999999</v>
-      </c>
-      <c r="I119" t="n">
-        <v>8.175000000000001</v>
-      </c>
-      <c r="J119" t="n">
-        <v>-71.97</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1.995</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="120">
@@ -4428,34 +3077,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.05</v>
+        <v>0.92</v>
       </c>
       <c r="C120" t="n">
-        <v>-2.53</v>
+        <v>-6.61</v>
       </c>
       <c r="D120" t="n">
-        <v>63.79</v>
+        <v>10.16</v>
       </c>
       <c r="E120" t="n">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G120" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="H120" t="n">
-        <v>-4.299999999999999</v>
-      </c>
-      <c r="I120" t="n">
-        <v>7.929999999999998</v>
-      </c>
-      <c r="J120" t="n">
-        <v>-75.97</v>
-      </c>
-      <c r="K120" t="n">
-        <v>2.12</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="121">
@@ -4463,34 +3097,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.33</v>
+        <v>0.62</v>
       </c>
       <c r="C121" t="n">
-        <v>-2.35</v>
+        <v>-6.31</v>
       </c>
       <c r="D121" t="n">
-        <v>67.23999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="E121" t="n">
-        <v>-21.15</v>
+        <v>-20</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G121" t="n">
-        <v>27.88</v>
-      </c>
-      <c r="H121" t="n">
-        <v>-4.264999999999999</v>
-      </c>
-      <c r="I121" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="J121" t="n">
-        <v>-79.97</v>
-      </c>
-      <c r="K121" t="n">
-        <v>2.255</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="122">
@@ -4498,34 +3117,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.6</v>
+        <v>0.39</v>
       </c>
       <c r="C122" t="n">
-        <v>-2.54</v>
+        <v>-6.07</v>
       </c>
       <c r="D122" t="n">
-        <v>70.81</v>
+        <v>10.33</v>
       </c>
       <c r="E122" t="n">
-        <v>-21.3</v>
+        <v>-20</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G122" t="n">
-        <v>29.24</v>
-      </c>
-      <c r="H122" t="n">
-        <v>-3.999999999999999</v>
-      </c>
-      <c r="I122" t="n">
-        <v>7.279999999999998</v>
-      </c>
-      <c r="J122" t="n">
-        <v>-83.97</v>
-      </c>
-      <c r="K122" t="n">
-        <v>2.4</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="123">
@@ -4533,34 +3137,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.87</v>
+        <v>0.15</v>
       </c>
       <c r="C123" t="n">
-        <v>-2.73</v>
+        <v>-5.78</v>
       </c>
       <c r="D123" t="n">
-        <v>72.54000000000001</v>
+        <v>10.39</v>
       </c>
       <c r="E123" t="n">
-        <v>-21.35</v>
+        <v>-20</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G123" t="n">
-        <v>30.45</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-3.883999999999999</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.991</v>
-      </c>
-      <c r="J123" t="n">
-        <v>-85.619</v>
-      </c>
-      <c r="K123" t="n">
-        <v>2.246</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="124">
@@ -4568,34 +3157,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.18</v>
+        <v>0.13</v>
       </c>
       <c r="C124" t="n">
-        <v>-2.92</v>
+        <v>-5.81</v>
       </c>
       <c r="D124" t="n">
-        <v>74.27</v>
+        <v>10.51</v>
       </c>
       <c r="E124" t="n">
-        <v>-21.4</v>
+        <v>-20</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G124" t="n">
-        <v>33.13</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-4.669</v>
-      </c>
-      <c r="I124" t="n">
-        <v>6.702000000000001</v>
-      </c>
-      <c r="J124" t="n">
-        <v>-87.38800000000001</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1.591</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="125">
@@ -4603,34 +3177,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="C125" t="n">
-        <v>-3.4</v>
+        <v>-5.83</v>
       </c>
       <c r="D125" t="n">
-        <v>75.95</v>
+        <v>10.53</v>
       </c>
       <c r="E125" t="n">
-        <v>-21.44</v>
+        <v>-20</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G125" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-5.519</v>
-      </c>
-      <c r="I125" t="n">
-        <v>7.869999999999999</v>
-      </c>
-      <c r="J125" t="n">
-        <v>-90.13200000000001</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.881</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="126">
@@ -4638,34 +3197,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.21</v>
+        <v>-0.4</v>
       </c>
       <c r="C126" t="n">
-        <v>-3.88</v>
+        <v>-5.87</v>
       </c>
       <c r="D126" t="n">
-        <v>73.90000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="E126" t="n">
-        <v>-21.49</v>
+        <v>-20</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G126" t="n">
-        <v>38.28</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-6.369</v>
-      </c>
-      <c r="I126" t="n">
-        <v>9.758000000000001</v>
-      </c>
-      <c r="J126" t="n">
-        <v>-90.086</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.1760000000000002</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="127">
@@ -4673,34 +3217,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.38</v>
+        <v>-1.03</v>
       </c>
       <c r="C127" t="n">
-        <v>-4.36</v>
+        <v>-5.78</v>
       </c>
       <c r="D127" t="n">
-        <v>71.86</v>
+        <v>11.8</v>
       </c>
       <c r="E127" t="n">
-        <v>-21.54</v>
+        <v>-20</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G127" t="n">
-        <v>40.43</v>
-      </c>
-      <c r="H127" t="n">
-        <v>-6.816</v>
-      </c>
-      <c r="I127" t="n">
-        <v>11.546</v>
-      </c>
-      <c r="J127" t="n">
-        <v>-89.711</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-0.5290000000000001</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="128">
@@ -4708,34 +3237,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.97</v>
+        <v>-1.76</v>
       </c>
       <c r="C128" t="n">
-        <v>-4.81</v>
+        <v>-5.64</v>
       </c>
       <c r="D128" t="n">
-        <v>69.77</v>
+        <v>12.43</v>
       </c>
       <c r="E128" t="n">
-        <v>-21.57</v>
+        <v>-20</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G128" t="n">
-        <v>42.54</v>
-      </c>
-      <c r="H128" t="n">
-        <v>-7.747999999999999</v>
-      </c>
-      <c r="I128" t="n">
-        <v>13.344</v>
-      </c>
-      <c r="J128" t="n">
-        <v>-88.539</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-1.506</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="129">
@@ -4743,34 +3257,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.62</v>
+        <v>-2.66</v>
       </c>
       <c r="C129" t="n">
-        <v>-4.96</v>
+        <v>-5.2</v>
       </c>
       <c r="D129" t="n">
-        <v>67.68000000000001</v>
+        <v>13.06</v>
       </c>
       <c r="E129" t="n">
-        <v>-21.71</v>
+        <v>-20</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G129" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="H129" t="n">
-        <v>-8.779</v>
-      </c>
-      <c r="I129" t="n">
-        <v>14.168</v>
-      </c>
-      <c r="J129" t="n">
-        <v>-84.69</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-2.46</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="130">
@@ -4778,34 +3277,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.8</v>
+        <v>-3.62</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.08</v>
+        <v>-4.6</v>
       </c>
       <c r="D130" t="n">
-        <v>65.28</v>
+        <v>13.54</v>
       </c>
       <c r="E130" t="n">
-        <v>-21.85</v>
+        <v>-20</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G130" t="n">
-        <v>43.19</v>
-      </c>
-      <c r="H130" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="I130" t="n">
-        <v>15.002</v>
-      </c>
-      <c r="J130" t="n">
-        <v>-81.158</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-3.289</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="131">
@@ -4813,34 +3297,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-2.29</v>
+        <v>-4.58</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.21</v>
+        <v>-3.61</v>
       </c>
       <c r="D131" t="n">
-        <v>62.49</v>
+        <v>13.55</v>
       </c>
       <c r="E131" t="n">
-        <v>-21.98</v>
+        <v>-20</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G131" t="n">
-        <v>43.47</v>
-      </c>
-      <c r="H131" t="n">
-        <v>-11.196</v>
-      </c>
-      <c r="I131" t="n">
-        <v>15.871</v>
-      </c>
-      <c r="J131" t="n">
-        <v>-76.235</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-4.444999999999999</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="132">
@@ -4848,34 +3317,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-2.73</v>
+        <v>-5.63</v>
       </c>
       <c r="C132" t="n">
-        <v>-5.06</v>
+        <v>-2.46</v>
       </c>
       <c r="D132" t="n">
-        <v>59.7</v>
+        <v>13.51</v>
       </c>
       <c r="E132" t="n">
-        <v>-22.12</v>
+        <v>-20</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G132" t="n">
-        <v>43.87</v>
-      </c>
-      <c r="H132" t="n">
-        <v>-12.592</v>
-      </c>
-      <c r="I132" t="n">
-        <v>16.338</v>
-      </c>
-      <c r="J132" t="n">
-        <v>-71.322</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-5.590999999999999</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="133">
@@ -4883,34 +3337,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-3.18</v>
+        <v>-6.68</v>
       </c>
       <c r="C133" t="n">
-        <v>-4.91</v>
+        <v>-1.4</v>
       </c>
       <c r="D133" t="n">
-        <v>58.89</v>
+        <v>13.54</v>
       </c>
       <c r="E133" t="n">
-        <v>-22.27</v>
+        <v>-20</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G133" t="n">
-        <v>44.49</v>
-      </c>
-      <c r="H133" t="n">
-        <v>-13.849</v>
-      </c>
-      <c r="I133" t="n">
-        <v>16.809</v>
-      </c>
-      <c r="J133" t="n">
-        <v>-68.77</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-6.712999999999999</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="134">
@@ -4918,34 +3357,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-3.61</v>
+        <v>-7.81</v>
       </c>
       <c r="C134" t="n">
-        <v>-4.76</v>
+        <v>-0.32</v>
       </c>
       <c r="D134" t="n">
-        <v>58.08</v>
+        <v>13.67</v>
       </c>
       <c r="E134" t="n">
-        <v>-22.43</v>
+        <v>-20</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G134" t="n">
-        <v>43.64</v>
-      </c>
-      <c r="H134" t="n">
-        <v>-14.624</v>
-      </c>
-      <c r="I134" t="n">
-        <v>17.734</v>
-      </c>
-      <c r="J134" t="n">
-        <v>-66.208</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-7.324000000000003</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="135">
@@ -4953,34 +3377,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-3.8</v>
+        <v>-8.93</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.48</v>
+        <v>0.77</v>
       </c>
       <c r="D135" t="n">
-        <v>57.26</v>
+        <v>13.8</v>
       </c>
       <c r="E135" t="n">
-        <v>-22.6</v>
+        <v>-20</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G135" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="H135" t="n">
-        <v>-15.334</v>
-      </c>
-      <c r="I135" t="n">
-        <v>17.212</v>
-      </c>
-      <c r="J135" t="n">
-        <v>-62.761</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-7.870000000000002</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="136">
@@ -4988,34 +3397,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-4.2</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>-4.42</v>
+        <v>2.36</v>
       </c>
       <c r="D136" t="n">
-        <v>54.2</v>
+        <v>13.28</v>
       </c>
       <c r="E136" t="n">
-        <v>-23.43</v>
+        <v>-20</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G136" t="n">
-        <v>42.07</v>
-      </c>
-      <c r="H136" t="n">
-        <v>-16.034</v>
-      </c>
-      <c r="I136" t="n">
-        <v>20.031</v>
-      </c>
-      <c r="J136" t="n">
-        <v>-59.309</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-8.416</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="137">
@@ -5023,34 +3417,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-4.55</v>
+        <v>-9.92</v>
       </c>
       <c r="C137" t="n">
-        <v>-4.35</v>
+        <v>3.8</v>
       </c>
       <c r="D137" t="n">
-        <v>51.14</v>
+        <v>12.82</v>
       </c>
       <c r="E137" t="n">
-        <v>-24.25</v>
+        <v>-20</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G137" t="n">
-        <v>41.54</v>
-      </c>
-      <c r="H137" t="n">
-        <v>-17.127</v>
-      </c>
-      <c r="I137" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="J137" t="n">
-        <v>-56.251</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-8.962</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="138">
@@ -5058,34 +3437,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-6.13</v>
+        <v>-10.36</v>
       </c>
       <c r="C138" t="n">
-        <v>-4.3</v>
+        <v>5.3</v>
       </c>
       <c r="D138" t="n">
-        <v>46.88</v>
+        <v>12.17</v>
       </c>
       <c r="E138" t="n">
-        <v>-25.08</v>
+        <v>-20</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G138" t="n">
-        <v>49.71</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-17.715</v>
-      </c>
-      <c r="I138" t="n">
-        <v>20.419</v>
-      </c>
-      <c r="J138" t="n">
-        <v>-53.98</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-9.325999999999999</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="139">
@@ -5093,34 +3457,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-7.61</v>
+        <v>-10.55</v>
       </c>
       <c r="C139" t="n">
-        <v>-4.26</v>
+        <v>6.28</v>
       </c>
       <c r="D139" t="n">
-        <v>42.64</v>
+        <v>11.5</v>
       </c>
       <c r="E139" t="n">
-        <v>-25.8</v>
+        <v>-20</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G139" t="n">
-        <v>57.99</v>
-      </c>
-      <c r="H139" t="n">
-        <v>-18.199</v>
-      </c>
-      <c r="I139" t="n">
-        <v>18.572</v>
-      </c>
-      <c r="J139" t="n">
-        <v>-53.181</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-9.663</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="140">
@@ -5128,34 +3477,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-8.789999999999999</v>
+        <v>-10.94</v>
       </c>
       <c r="C140" t="n">
-        <v>-4.23</v>
+        <v>7.29</v>
       </c>
       <c r="D140" t="n">
-        <v>38.29</v>
+        <v>10.99</v>
       </c>
       <c r="E140" t="n">
-        <v>-26.52</v>
+        <v>-20</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G140" t="n">
-        <v>66.06999999999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>-18.683</v>
-      </c>
-      <c r="I140" t="n">
-        <v>16.735</v>
-      </c>
-      <c r="J140" t="n">
-        <v>-52.39000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-10</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="141">
@@ -5163,34 +3497,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-8.41</v>
+        <v>-11.34</v>
       </c>
       <c r="C141" t="n">
-        <v>-4.18</v>
+        <v>7.75</v>
       </c>
       <c r="D141" t="n">
-        <v>34.37</v>
+        <v>10.94</v>
       </c>
       <c r="E141" t="n">
-        <v>-27.24</v>
+        <v>-20</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G141" t="n">
-        <v>73.88</v>
-      </c>
-      <c r="H141" t="n">
-        <v>-19.132</v>
-      </c>
-      <c r="I141" t="n">
-        <v>14.292</v>
-      </c>
-      <c r="J141" t="n">
-        <v>-53.09000000000001</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-10</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="142">
@@ -5198,34 +3517,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-8.08</v>
+        <v>-11.75</v>
       </c>
       <c r="C142" t="n">
-        <v>-4.65</v>
+        <v>8.1</v>
       </c>
       <c r="D142" t="n">
-        <v>30.4</v>
+        <v>10.67</v>
       </c>
       <c r="E142" t="n">
-        <v>-27.95</v>
+        <v>-20</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G142" t="n">
-        <v>81.65000000000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>-19.571</v>
-      </c>
-      <c r="I142" t="n">
-        <v>12.261</v>
-      </c>
-      <c r="J142" t="n">
-        <v>-53.57000000000001</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-10</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="143">
@@ -5233,34 +3537,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-7.53</v>
+        <v>-11.9</v>
       </c>
       <c r="C143" t="n">
-        <v>-5.13</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>26.35</v>
+        <v>10.31</v>
       </c>
       <c r="E143" t="n">
-        <v>-28.64</v>
+        <v>-20.02</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G143" t="n">
-        <v>89.23</v>
-      </c>
-      <c r="H143" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I143" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="J143" t="n">
-        <v>-54.04</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-10</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="144">
@@ -5268,34 +3557,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-6.33</v>
+        <v>-12</v>
       </c>
       <c r="C144" t="n">
-        <v>-5.61</v>
+        <v>8.5</v>
       </c>
       <c r="D144" t="n">
-        <v>22.3</v>
+        <v>9.85</v>
       </c>
       <c r="E144" t="n">
-        <v>-29.32</v>
+        <v>-20.08</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G144" t="n">
-        <v>96.19</v>
-      </c>
-      <c r="H144" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7.785000000000001</v>
-      </c>
-      <c r="J144" t="n">
-        <v>-54.52</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-10</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="145">
@@ -5303,34 +3577,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-5.37</v>
+        <v>-11.73</v>
       </c>
       <c r="C145" t="n">
-        <v>-5.92</v>
+        <v>8.5</v>
       </c>
       <c r="D145" t="n">
-        <v>18.32</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>-30</v>
+        <v>-20.14</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G145" t="n">
-        <v>103.25</v>
-      </c>
-      <c r="H145" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I145" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J145" t="n">
-        <v>-55.09999999999999</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-10</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="146">
@@ -5338,34 +3597,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-4.23</v>
+        <v>-11.54</v>
       </c>
       <c r="C146" t="n">
-        <v>-6.05</v>
+        <v>8.23</v>
       </c>
       <c r="D146" t="n">
-        <v>16.8</v>
+        <v>8.59</v>
       </c>
       <c r="E146" t="n">
-        <v>-30</v>
+        <v>-20.22</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G146" t="n">
-        <v>110.48</v>
-      </c>
-      <c r="H146" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I146" t="n">
-        <v>-1.136</v>
-      </c>
-      <c r="J146" t="n">
-        <v>-55.374</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-10</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="147">
@@ -5373,34 +3617,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-2.81</v>
+        <v>-11.47</v>
       </c>
       <c r="C147" t="n">
-        <v>-6.27</v>
+        <v>7.88</v>
       </c>
       <c r="D147" t="n">
-        <v>15.21</v>
+        <v>7.86</v>
       </c>
       <c r="E147" t="n">
-        <v>-30</v>
+        <v>-20.3</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G147" t="n">
-        <v>117.97</v>
-      </c>
-      <c r="H147" t="n">
-        <v>-20</v>
-      </c>
-      <c r="I147" t="n">
-        <v>-7.952</v>
-      </c>
-      <c r="J147" t="n">
-        <v>-55.658</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-10</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="148">
@@ -5408,34 +3637,819 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.15</v>
+        <v>-11.4</v>
       </c>
       <c r="C148" t="n">
-        <v>-6.48</v>
+        <v>7.44</v>
       </c>
       <c r="D148" t="n">
-        <v>19.2</v>
+        <v>7.27</v>
       </c>
       <c r="E148" t="n">
-        <v>-30</v>
+        <v>-20.32</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="G148" t="n">
-        <v>116.8</v>
-      </c>
-      <c r="H148" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-11.24</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-20.41</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-10.16</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-20.59</v>
+      </c>
+      <c r="F151" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-9.390000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-8.92</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-20.81</v>
+      </c>
+      <c r="F153" t="n">
+        <v>19.49</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-8.630000000000001</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-20.89</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-8.789999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D155" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-20.97</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-21.03</v>
+      </c>
+      <c r="F156" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-21.17</v>
+      </c>
+      <c r="F157" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-9.470000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-21.43</v>
+      </c>
+      <c r="F158" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-9.85</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-21.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-10.39</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-21.44</v>
+      </c>
+      <c r="F160" t="n">
+        <v>24.87</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-10.98</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-21.47</v>
+      </c>
+      <c r="F161" t="n">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-11.67</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-21.49</v>
+      </c>
+      <c r="F162" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-12</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-12.17</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-21.51</v>
+      </c>
+      <c r="F164" t="n">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-12.28</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="D165" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-21.53</v>
+      </c>
+      <c r="F165" t="n">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-12.18</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="D166" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-21.56</v>
+      </c>
+      <c r="F166" t="n">
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-12.43</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-5.23</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-21.52</v>
+      </c>
+      <c r="F167" t="n">
+        <v>28.11</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-12.75</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-6.27</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-21.33</v>
+      </c>
+      <c r="F168" t="n">
+        <v>27.89</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-13</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-7.28</v>
+      </c>
+      <c r="D169" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-21.37</v>
+      </c>
+      <c r="F169" t="n">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-13.21</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-8.390000000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-21.35</v>
+      </c>
+      <c r="F170" t="n">
+        <v>27.55</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-13.52</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-21.33</v>
+      </c>
+      <c r="F171" t="n">
+        <v>27.38</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-13.77</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="D172" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-23.21</v>
+      </c>
+      <c r="F172" t="n">
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-14.19</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="D173" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-25.06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-14.61</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="D174" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-26.91</v>
+      </c>
+      <c r="F174" t="n">
+        <v>26.69</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-14.93</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-28.75</v>
+      </c>
+      <c r="F175" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-15.86</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D176" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-30.58</v>
+      </c>
+      <c r="F176" t="n">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-16.35</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="D177" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-32.41</v>
+      </c>
+      <c r="F177" t="n">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-16.76</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D178" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-34.31</v>
+      </c>
+      <c r="F178" t="n">
+        <v>27.51</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-17.18</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="D179" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-36.21</v>
+      </c>
+      <c r="F179" t="n">
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-17.57</v>
+      </c>
+      <c r="C180" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="D180" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-38.1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>28.43</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-17.99</v>
+      </c>
+      <c r="C181" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D181" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F181" t="n">
+        <v>28.94</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-18.41</v>
+      </c>
+      <c r="C182" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D182" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F182" t="n">
+        <v>29.49</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-18.95</v>
+      </c>
+      <c r="C183" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D183" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F183" t="n">
+        <v>30.09</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-19.44</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D184" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F184" t="n">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
         <v>-20</v>
       </c>
-      <c r="I148" t="n">
-        <v>-8.587999999999999</v>
-      </c>
-      <c r="J148" t="n">
-        <v>-60.287</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-10</v>
+      <c r="C185" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D185" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F185" t="n">
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D186" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F186" t="n">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C187" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$188</f>
+              <f>'data'!$B$2:$B$185</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$188</f>
+              <f>'data'!$C$2:$C$185</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$188</f>
+              <f>'data'!$D$2:$D$185</f>
             </numRef>
           </val>
         </ser>
@@ -275,34 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$188</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$188</f>
+              <f>'data'!$E$2:$E$185</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,29 +661,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Fish</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Raymond</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jonathan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -725,31 +693,19 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="4">
@@ -757,19 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.47</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="5">
@@ -777,19 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.15</v>
+        <v>-0.73</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.74</v>
+        <v>1.19</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.79</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="6">
@@ -797,19 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46</v>
+        <v>-0.97</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.46</v>
+        <v>1.44</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.96</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="7">
@@ -817,19 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.51</v>
+        <v>-1.4</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.61</v>
+        <v>2.15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.74</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="8">
@@ -837,19 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.51</v>
+        <v>-1.71</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.23</v>
+        <v>2.65</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.21</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -857,19 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.44</v>
+        <v>-1.96</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.69</v>
+        <v>3.02</v>
       </c>
       <c r="D9" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.52</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="10">
@@ -877,19 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.08</v>
+        <v>-2.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.7</v>
+        <v>3.24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.76</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="11">
@@ -897,19 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.59</v>
+        <v>-2.31</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.53</v>
+        <v>3.41</v>
       </c>
       <c r="D11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.95</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="12">
@@ -917,19 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.59</v>
+        <v>-2.31</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.53</v>
+        <v>3.41</v>
       </c>
       <c r="D12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.95</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="13">
@@ -937,19 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.2</v>
+        <v>-1.96</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.02</v>
+        <v>3.76</v>
       </c>
       <c r="D13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.69</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="14">
@@ -957,19 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.82</v>
+        <v>-1.63</v>
       </c>
       <c r="C14" t="n">
-        <v>-10.51</v>
+        <v>4.12</v>
       </c>
       <c r="D14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.41</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="15">
@@ -977,19 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.39</v>
+        <v>-1.07</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.04</v>
+        <v>4.24</v>
       </c>
       <c r="D15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7.12</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="16">
@@ -997,19 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.98</v>
+        <v>-0.52</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.8</v>
+        <v>4.38</v>
       </c>
       <c r="D16" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7.04</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.18</v>
+        <v>0.06</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.17</v>
+        <v>4.71</v>
       </c>
       <c r="D17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.96</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="18">
@@ -1037,19 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.62</v>
+        <v>5.17</v>
       </c>
       <c r="D18" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6.88</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="19">
@@ -1057,19 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.24</v>
+        <v>0.77</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.92</v>
+        <v>5.62</v>
       </c>
       <c r="D19" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6.57</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="20">
@@ -1077,19 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.86</v>
+        <v>1.1</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.93</v>
+        <v>5.9</v>
       </c>
       <c r="D20" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6.07</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="21">
@@ -1097,19 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.84</v>
+        <v>1.22</v>
       </c>
       <c r="C21" t="n">
-        <v>-15.29</v>
+        <v>6.24</v>
       </c>
       <c r="D21" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5.57</v>
+        <v>-7.46</v>
       </c>
     </row>
     <row r="22">
@@ -1117,19 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.800000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="C22" t="n">
-        <v>-15.59</v>
+        <v>6.59</v>
       </c>
       <c r="D22" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5.07</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="23">
@@ -1137,19 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.77</v>
+        <v>0.86</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.89</v>
+        <v>7.01</v>
       </c>
       <c r="D23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4.48</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="24">
@@ -1157,19 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.73</v>
+        <v>0.23</v>
       </c>
       <c r="C24" t="n">
-        <v>-16.19</v>
+        <v>6.99</v>
       </c>
       <c r="D24" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.97</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="25">
@@ -1177,19 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.75</v>
+        <v>-0.53</v>
       </c>
       <c r="C25" t="n">
-        <v>-16.51</v>
+        <v>6.97</v>
       </c>
       <c r="D25" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3.49</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="26">
@@ -1197,19 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.91</v>
+        <v>-1.28</v>
       </c>
       <c r="C26" t="n">
-        <v>-16.82</v>
+        <v>6.91</v>
       </c>
       <c r="D26" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.01</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="27">
@@ -1217,19 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.04</v>
+        <v>-2.02</v>
       </c>
       <c r="C27" t="n">
-        <v>-17.49</v>
+        <v>6.71</v>
       </c>
       <c r="D27" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.53</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="28">
@@ -1237,19 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.05</v>
+        <v>-2.36</v>
       </c>
       <c r="C28" t="n">
-        <v>-18.16</v>
+        <v>6.07</v>
       </c>
       <c r="D28" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.97</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="29">
@@ -1257,19 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16.05</v>
+        <v>-2.63</v>
       </c>
       <c r="C29" t="n">
-        <v>-19.09</v>
+        <v>5.42</v>
       </c>
       <c r="D29" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.68</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="30">
@@ -1277,19 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16.03</v>
+        <v>-2.92</v>
       </c>
       <c r="C30" t="n">
-        <v>-19.24</v>
+        <v>4.87</v>
       </c>
       <c r="D30" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.63</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="31">
@@ -1297,19 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>-2.98</v>
       </c>
       <c r="C31" t="n">
-        <v>-19.48</v>
+        <v>4.32</v>
       </c>
       <c r="D31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.58</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="32">
@@ -1317,19 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.99</v>
+        <v>-3.24</v>
       </c>
       <c r="C32" t="n">
-        <v>-19.71</v>
+        <v>3.96</v>
       </c>
       <c r="D32" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.51</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="33">
@@ -1337,19 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.01</v>
+        <v>-3.63</v>
       </c>
       <c r="C33" t="n">
-        <v>-19.94</v>
+        <v>3.74</v>
       </c>
       <c r="D33" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.42</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="34">
@@ -1357,19 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.96</v>
+        <v>-3.77</v>
       </c>
       <c r="C34" t="n">
-        <v>-20.08</v>
+        <v>3.95</v>
       </c>
       <c r="D34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.3</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="35">
@@ -1377,19 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.85</v>
+        <v>-4.4</v>
       </c>
       <c r="C35" t="n">
-        <v>-19.77</v>
+        <v>4.73</v>
       </c>
       <c r="D35" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.16</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="36">
@@ -1397,19 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.54</v>
+        <v>-4.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-19.49</v>
+        <v>5.51</v>
       </c>
       <c r="D36" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.02</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="37">
@@ -1417,19 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.25</v>
+        <v>-5.28</v>
       </c>
       <c r="C37" t="n">
-        <v>-18.79</v>
+        <v>6.22</v>
       </c>
       <c r="D37" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.82</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="38">
@@ -1437,19 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.89</v>
+        <v>-5.49</v>
       </c>
       <c r="C38" t="n">
-        <v>-18</v>
+        <v>6.76</v>
       </c>
       <c r="D38" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.63</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="39">
@@ -1457,19 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.6</v>
+        <v>-5.83</v>
       </c>
       <c r="C39" t="n">
-        <v>-17.25</v>
+        <v>7.42</v>
       </c>
       <c r="D39" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.44</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="40">
@@ -1477,19 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.24</v>
+        <v>-6.12</v>
       </c>
       <c r="C40" t="n">
-        <v>-17.55</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.38</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="41">
@@ -1497,19 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.9</v>
+        <v>-6.4</v>
       </c>
       <c r="C41" t="n">
-        <v>-17.71</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2.33</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="42">
@@ -1517,19 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.67</v>
+        <v>-6.39</v>
       </c>
       <c r="C42" t="n">
-        <v>-18.01</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.3</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="43">
@@ -1537,19 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.4</v>
+        <v>-6.37</v>
       </c>
       <c r="C43" t="n">
-        <v>-18.38</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4.47</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="44">
@@ -1557,19 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.22</v>
+        <v>-6.42</v>
       </c>
       <c r="C44" t="n">
-        <v>-18.87</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-1.86</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.67</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="45">
@@ -1577,19 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.06</v>
+        <v>-5.81</v>
       </c>
       <c r="C45" t="n">
-        <v>-19.77</v>
+        <v>9.69</v>
       </c>
       <c r="D45" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-2.14</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6.86</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="46">
@@ -1597,19 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.96</v>
+        <v>-5.4</v>
       </c>
       <c r="C46" t="n">
-        <v>-20.65</v>
+        <v>9.48</v>
       </c>
       <c r="D46" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-2.35</v>
-      </c>
-      <c r="F46" t="n">
-        <v>8.06</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="47">
@@ -1617,19 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.86</v>
+        <v>-4.98</v>
       </c>
       <c r="C47" t="n">
-        <v>-21.54</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="F47" t="n">
-        <v>9.32</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="48">
@@ -1637,19 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.81</v>
+        <v>-4.87</v>
       </c>
       <c r="C48" t="n">
-        <v>-22.41</v>
+        <v>9.34</v>
       </c>
       <c r="D48" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-2.78</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10.65</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="49">
@@ -1657,19 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.7</v>
+        <v>-4.73</v>
       </c>
       <c r="C49" t="n">
-        <v>-23.04</v>
+        <v>9.32</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-3.15</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11.99</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="50">
@@ -1677,19 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.67</v>
+        <v>-5</v>
       </c>
       <c r="C50" t="n">
-        <v>-22.67</v>
+        <v>9.31</v>
       </c>
       <c r="D50" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-3.52</v>
-      </c>
-      <c r="F50" t="n">
-        <v>12.17</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="51">
@@ -1697,19 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.54</v>
+        <v>-5.3</v>
       </c>
       <c r="C51" t="n">
-        <v>-22.68</v>
+        <v>9.26</v>
       </c>
       <c r="D51" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-3.89</v>
-      </c>
-      <c r="F51" t="n">
-        <v>12.75</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="52">
@@ -1717,19 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.3</v>
+        <v>-5.72</v>
       </c>
       <c r="C52" t="n">
-        <v>-22.61</v>
+        <v>9.32</v>
       </c>
       <c r="D52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>13.31</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="53">
@@ -1737,19 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.04</v>
+        <v>-6.13</v>
       </c>
       <c r="C53" t="n">
-        <v>-22.37</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-4.62</v>
-      </c>
-      <c r="F53" t="n">
-        <v>13.68</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="54">
@@ -1757,19 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.77</v>
+        <v>-6.56</v>
       </c>
       <c r="C54" t="n">
-        <v>-21.98</v>
+        <v>9.08</v>
       </c>
       <c r="D54" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-4.95</v>
-      </c>
-      <c r="F54" t="n">
-        <v>14.03</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="55">
@@ -1777,19 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.52</v>
+        <v>-7.01</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.54</v>
+        <v>8.73</v>
       </c>
       <c r="D55" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-5.28</v>
-      </c>
-      <c r="F55" t="n">
-        <v>14.38</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="56">
@@ -1797,19 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.28</v>
+        <v>-7.49</v>
       </c>
       <c r="C56" t="n">
-        <v>-21.04</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-5.67</v>
-      </c>
-      <c r="F56" t="n">
-        <v>14.73</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="57">
@@ -1817,19 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.08</v>
+        <v>-7.95</v>
       </c>
       <c r="C57" t="n">
-        <v>-20.69</v>
+        <v>7.97</v>
       </c>
       <c r="D57" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>15.13</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="58">
@@ -1837,19 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.88</v>
+        <v>-8.33</v>
       </c>
       <c r="C58" t="n">
-        <v>-20.26</v>
+        <v>7.5</v>
       </c>
       <c r="D58" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>15.52</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="59">
@@ -1857,19 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.61</v>
+        <v>-9.08</v>
       </c>
       <c r="C59" t="n">
-        <v>-19.9</v>
+        <v>7.48</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-6.59</v>
-      </c>
-      <c r="F59" t="n">
-        <v>15.83</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="60">
@@ -1877,19 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10.26</v>
+        <v>-9.41</v>
       </c>
       <c r="C60" t="n">
-        <v>-19.38</v>
+        <v>7.44</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-6.77</v>
-      </c>
-      <c r="F60" t="n">
-        <v>16.08</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="61">
@@ -1897,19 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.11</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>-18.58</v>
+        <v>7.43</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-6.96</v>
-      </c>
-      <c r="F61" t="n">
-        <v>15.91</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="62">
@@ -1917,19 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.960000000000001</v>
+        <v>-10.05</v>
       </c>
       <c r="C62" t="n">
-        <v>-17.71</v>
+        <v>7.44</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>15.7</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="63">
@@ -1937,19 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.81</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>-16.94</v>
+        <v>7.42</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-7.24</v>
-      </c>
-      <c r="F63" t="n">
-        <v>15.52</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="64">
@@ -1957,19 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.66</v>
+        <v>-9.51</v>
       </c>
       <c r="C64" t="n">
-        <v>-16.29</v>
+        <v>7.8</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.33</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-7.38</v>
-      </c>
-      <c r="F64" t="n">
-        <v>15.34</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="65">
@@ -1977,19 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.43</v>
+        <v>-9.33</v>
       </c>
       <c r="C65" t="n">
-        <v>-15.52</v>
+        <v>8.42</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.53</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-7.54</v>
-      </c>
-      <c r="F65" t="n">
-        <v>15.16</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="66">
@@ -1997,19 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.52</v>
+        <v>-9.09</v>
       </c>
       <c r="C66" t="n">
-        <v>-15.08</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-7.7</v>
-      </c>
-      <c r="F66" t="n">
-        <v>14.98</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -2017,19 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.57</v>
+        <v>-8.85</v>
       </c>
       <c r="C67" t="n">
-        <v>-14.59</v>
+        <v>9.68</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-7.86</v>
-      </c>
-      <c r="F67" t="n">
-        <v>14.73</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="68">
@@ -2037,19 +1609,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.640000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="C68" t="n">
-        <v>-14.2</v>
+        <v>10.3</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.97</v>
+        <v>-1.64</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.91</v>
-      </c>
-      <c r="F68" t="n">
-        <v>14.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2057,19 +1626,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.789999999999999</v>
+        <v>-7.96</v>
       </c>
       <c r="C69" t="n">
-        <v>-13.88</v>
+        <v>10.45</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.15</v>
+        <v>-2.41</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.94</v>
-      </c>
-      <c r="F69" t="n">
-        <v>14.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="70">
@@ -2077,19 +1643,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.98</v>
+        <v>-7.38</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.95</v>
+        <v>10.62</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.6</v>
+        <v>-3.48</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.97</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13.62</v>
+        <v>2.076666666666667</v>
       </c>
     </row>
     <row r="71">
@@ -2097,19 +1660,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.06</v>
+        <v>-6.86</v>
       </c>
       <c r="C71" t="n">
-        <v>-13.97</v>
+        <v>10.8</v>
       </c>
       <c r="D71" t="n">
-        <v>-1</v>
+        <v>-4.45</v>
       </c>
       <c r="E71" t="n">
-        <v>-8</v>
-      </c>
-      <c r="F71" t="n">
-        <v>13</v>
+        <v>2.965</v>
       </c>
     </row>
     <row r="72">
@@ -2117,19 +1677,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.07</v>
+        <v>-6.33</v>
       </c>
       <c r="C72" t="n">
-        <v>-13.97</v>
+        <v>10.96</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.41</v>
+        <v>-5.69</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.029999999999999</v>
-      </c>
-      <c r="F72" t="n">
-        <v>12.42</v>
+        <v>3.458</v>
       </c>
     </row>
     <row r="73">
@@ -2137,19 +1694,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.08</v>
+        <v>-7.25</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.94</v>
+        <v>11.98</v>
       </c>
       <c r="D73" t="n">
-        <v>0.18</v>
+        <v>-6.35</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.06</v>
-      </c>
-      <c r="F73" t="n">
-        <v>11.81</v>
+        <v>3.919999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -2157,19 +1711,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.04</v>
+        <v>-8.16</v>
       </c>
       <c r="C74" t="n">
-        <v>-14.17</v>
+        <v>12.91</v>
       </c>
       <c r="D74" t="n">
-        <v>1.15</v>
+        <v>-6.98</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="F74" t="n">
-        <v>11.2</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="75">
@@ -2177,19 +1728,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.09</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>-14.56</v>
+        <v>13.64</v>
       </c>
       <c r="D75" t="n">
-        <v>2.18</v>
+        <v>-7.52</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.210000000000001</v>
-      </c>
-      <c r="F75" t="n">
-        <v>10.59</v>
+        <v>4.672499999999999</v>
       </c>
     </row>
     <row r="76">
@@ -2197,19 +1745,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.12</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>-14.89</v>
+        <v>14.38</v>
       </c>
       <c r="D76" t="n">
-        <v>3.2</v>
+        <v>-8.06</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.34</v>
-      </c>
-      <c r="F76" t="n">
-        <v>9.98</v>
+        <v>4.989999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -2217,19 +1762,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.11</v>
+        <v>-10.91</v>
       </c>
       <c r="C77" t="n">
-        <v>-15.37</v>
+        <v>15.09</v>
       </c>
       <c r="D77" t="n">
-        <v>4.18</v>
+        <v>-8.59</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9.630000000000001</v>
+        <v>5.234</v>
       </c>
     </row>
     <row r="78">
@@ -2237,19 +1779,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.07</v>
+        <v>-11.85</v>
       </c>
       <c r="C78" t="n">
-        <v>-15.8</v>
+        <v>15.79</v>
       </c>
       <c r="D78" t="n">
-        <v>5.17</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.67</v>
-      </c>
-      <c r="F78" t="n">
-        <v>9.27</v>
+        <v>5.234</v>
       </c>
     </row>
     <row r="79">
@@ -2257,19 +1796,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.01</v>
+        <v>-12.8</v>
       </c>
       <c r="C79" t="n">
-        <v>-16.25</v>
+        <v>16.41</v>
       </c>
       <c r="D79" t="n">
-        <v>6.2</v>
+        <v>-9.539999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.92</v>
-      </c>
-      <c r="F79" t="n">
-        <v>8.960000000000001</v>
+        <v>5.977</v>
       </c>
     </row>
     <row r="80">
@@ -2277,19 +1813,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.98</v>
+        <v>-13.73</v>
       </c>
       <c r="C80" t="n">
-        <v>-16.43</v>
+        <v>17.02</v>
       </c>
       <c r="D80" t="n">
-        <v>6.59</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.18</v>
-      </c>
-      <c r="F80" t="n">
-        <v>9.039999999999999</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="81">
@@ -2297,19 +1830,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.890000000000001</v>
+        <v>-14.68</v>
       </c>
       <c r="C81" t="n">
-        <v>-16.71</v>
+        <v>17.56</v>
       </c>
       <c r="D81" t="n">
-        <v>7.14</v>
+        <v>-10.09</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.44</v>
-      </c>
-      <c r="F81" t="n">
-        <v>9.119999999999999</v>
+        <v>7.219999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -2317,19 +1847,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.83</v>
+        <v>-15.64</v>
       </c>
       <c r="C82" t="n">
-        <v>-17.09</v>
+        <v>18.09</v>
       </c>
       <c r="D82" t="n">
-        <v>7.68</v>
+        <v>-10.14</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.69</v>
-      </c>
-      <c r="F82" t="n">
-        <v>9.27</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="83">
@@ -2337,19 +1864,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.710000000000001</v>
+        <v>-15.77</v>
       </c>
       <c r="C83" t="n">
-        <v>-18.01</v>
+        <v>17.91</v>
       </c>
       <c r="D83" t="n">
-        <v>8.23</v>
+        <v>-10.32</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.03</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10.09</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="84">
@@ -2357,19 +1881,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.640000000000001</v>
+        <v>-15.87</v>
       </c>
       <c r="C84" t="n">
-        <v>-18.65</v>
+        <v>17.78</v>
       </c>
       <c r="D84" t="n">
-        <v>8.41</v>
+        <v>-10.5</v>
       </c>
       <c r="E84" t="n">
-        <v>-10.31</v>
-      </c>
-      <c r="F84" t="n">
-        <v>10.91</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="85">
@@ -2377,19 +1898,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.51</v>
+        <v>-15.67</v>
       </c>
       <c r="C85" t="n">
-        <v>-19.23</v>
+        <v>17.66</v>
       </c>
       <c r="D85" t="n">
-        <v>8.58</v>
+        <v>-10.63</v>
       </c>
       <c r="E85" t="n">
-        <v>-10.59</v>
-      </c>
-      <c r="F85" t="n">
-        <v>11.73</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -2397,19 +1915,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.09</v>
+        <v>-15.36</v>
       </c>
       <c r="C86" t="n">
-        <v>-19.61</v>
+        <v>17.53</v>
       </c>
       <c r="D86" t="n">
-        <v>8.69</v>
+        <v>-10.75</v>
       </c>
       <c r="E86" t="n">
-        <v>-10.63</v>
-      </c>
-      <c r="F86" t="n">
-        <v>12.47</v>
+        <v>8.580000000000002</v>
       </c>
     </row>
     <row r="87">
@@ -2417,19 +1932,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.890000000000001</v>
+        <v>-15.03</v>
       </c>
       <c r="C87" t="n">
-        <v>-19.96</v>
+        <v>17.84</v>
       </c>
       <c r="D87" t="n">
-        <v>8.789999999999999</v>
+        <v>-11.19</v>
       </c>
       <c r="E87" t="n">
-        <v>-10.67</v>
-      </c>
-      <c r="F87" t="n">
-        <v>12.95</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -2437,19 +1949,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.779999999999999</v>
+        <v>-14.72</v>
       </c>
       <c r="C88" t="n">
-        <v>-20.37</v>
+        <v>18.16</v>
       </c>
       <c r="D88" t="n">
-        <v>8.84</v>
+        <v>-11.65</v>
       </c>
       <c r="E88" t="n">
-        <v>-10.69</v>
-      </c>
-      <c r="F88" t="n">
-        <v>13.44</v>
+        <v>8.209999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2457,19 +1966,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.460000000000001</v>
+        <v>-14.43</v>
       </c>
       <c r="C89" t="n">
-        <v>-20.55</v>
+        <v>18.48</v>
       </c>
       <c r="D89" t="n">
-        <v>8.890000000000001</v>
+        <v>-12.27</v>
       </c>
       <c r="E89" t="n">
-        <v>-10.69</v>
-      </c>
-      <c r="F89" t="n">
-        <v>13.89</v>
+        <v>8.209999999999997</v>
       </c>
     </row>
     <row r="90">
@@ -2477,19 +1983,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.15</v>
+        <v>-14.08</v>
       </c>
       <c r="C90" t="n">
-        <v>-20.54</v>
+        <v>18.74</v>
       </c>
       <c r="D90" t="n">
-        <v>8.69</v>
+        <v>-12.79</v>
       </c>
       <c r="E90" t="n">
-        <v>-10.69</v>
-      </c>
-      <c r="F90" t="n">
-        <v>14.39</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2497,19 +2000,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.84</v>
+        <v>-13.65</v>
       </c>
       <c r="C91" t="n">
-        <v>-20.38</v>
+        <v>19.06</v>
       </c>
       <c r="D91" t="n">
-        <v>8.34</v>
+        <v>-13.25</v>
       </c>
       <c r="E91" t="n">
-        <v>-10.69</v>
-      </c>
-      <c r="F91" t="n">
-        <v>14.89</v>
+        <v>7.839999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2517,19 +2017,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.54</v>
+        <v>-13.4</v>
       </c>
       <c r="C92" t="n">
-        <v>-20.22</v>
+        <v>19.68</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>-13.79</v>
       </c>
       <c r="E92" t="n">
-        <v>-10.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>15.38</v>
+        <v>7.510000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2537,19 +2034,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.85</v>
+        <v>-13.05</v>
       </c>
       <c r="C93" t="n">
-        <v>-19.07</v>
+        <v>20.17</v>
       </c>
       <c r="D93" t="n">
-        <v>7.65</v>
+        <v>-14.22</v>
       </c>
       <c r="E93" t="n">
-        <v>-10.63</v>
-      </c>
-      <c r="F93" t="n">
-        <v>15.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="94">
@@ -2557,19 +2051,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.09</v>
+        <v>-12.74</v>
       </c>
       <c r="C94" t="n">
-        <v>-17.83</v>
+        <v>20.67</v>
       </c>
       <c r="D94" t="n">
-        <v>7.3</v>
+        <v>-14.18</v>
       </c>
       <c r="E94" t="n">
-        <v>-10.58</v>
-      </c>
-      <c r="F94" t="n">
-        <v>15.02</v>
+        <v>6.254</v>
       </c>
     </row>
     <row r="95">
@@ -2577,19 +2068,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.37</v>
+        <v>-12.72</v>
       </c>
       <c r="C95" t="n">
-        <v>-16.77</v>
+        <v>21.15</v>
       </c>
       <c r="D95" t="n">
-        <v>7.99</v>
+        <v>-14.17</v>
       </c>
       <c r="E95" t="n">
-        <v>-11.43</v>
-      </c>
-      <c r="F95" t="n">
-        <v>14.84</v>
+        <v>5.738</v>
       </c>
     </row>
     <row r="96">
@@ -2597,19 +2085,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.33</v>
+        <v>-12.19</v>
       </c>
       <c r="C96" t="n">
-        <v>-16.37</v>
+        <v>21.65</v>
       </c>
       <c r="D96" t="n">
-        <v>8.75</v>
+        <v>-14.14</v>
       </c>
       <c r="E96" t="n">
-        <v>-12.43</v>
-      </c>
-      <c r="F96" t="n">
-        <v>14.72</v>
+        <v>4.680000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2617,19 +2102,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.17</v>
+        <v>-11.76</v>
       </c>
       <c r="C97" t="n">
-        <v>-14.98</v>
+        <v>21.63</v>
       </c>
       <c r="D97" t="n">
-        <v>8.630000000000001</v>
+        <v>-13.48</v>
       </c>
       <c r="E97" t="n">
-        <v>-13.43</v>
-      </c>
-      <c r="F97" t="n">
-        <v>14.61</v>
+        <v>3.602</v>
       </c>
     </row>
     <row r="98">
@@ -2637,19 +2119,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.9</v>
+        <v>-11.36</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.55</v>
+        <v>21.54</v>
       </c>
       <c r="D98" t="n">
-        <v>8.56</v>
+        <v>-12.7</v>
       </c>
       <c r="E98" t="n">
-        <v>-14.42</v>
-      </c>
-      <c r="F98" t="n">
-        <v>14.51</v>
+        <v>2.514</v>
       </c>
     </row>
     <row r="99">
@@ -2657,19 +2136,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.85</v>
+        <v>-12.41</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.39</v>
+        <v>21.52</v>
       </c>
       <c r="D99" t="n">
-        <v>8.470000000000001</v>
+        <v>-11.91</v>
       </c>
       <c r="E99" t="n">
-        <v>-15.38</v>
-      </c>
-      <c r="F99" t="n">
-        <v>14.45</v>
+        <v>2.801</v>
       </c>
     </row>
     <row r="100">
@@ -2677,19 +2153,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.85</v>
+        <v>-14.19</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.5</v>
+        <v>21.47</v>
       </c>
       <c r="D100" t="n">
-        <v>8.56</v>
+        <v>-10.36</v>
       </c>
       <c r="E100" t="n">
-        <v>-16.34</v>
-      </c>
-      <c r="F100" t="n">
-        <v>14.43</v>
+        <v>3.078</v>
       </c>
     </row>
     <row r="101">
@@ -2697,19 +2170,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.89</v>
+        <v>-15.96</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.7</v>
+        <v>21.41</v>
       </c>
       <c r="D101" t="n">
-        <v>8.65</v>
+        <v>-9.01</v>
       </c>
       <c r="E101" t="n">
-        <v>-17.27</v>
-      </c>
-      <c r="F101" t="n">
-        <v>14.43</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="102">
@@ -2717,19 +2187,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.89</v>
+        <v>-17.73</v>
       </c>
       <c r="C102" t="n">
-        <v>-9.779999999999999</v>
+        <v>21.06</v>
       </c>
       <c r="D102" t="n">
-        <v>8.75</v>
+        <v>-7.65</v>
       </c>
       <c r="E102" t="n">
-        <v>-18.19</v>
-      </c>
-      <c r="F102" t="n">
-        <v>14.33</v>
+        <v>4.312</v>
       </c>
     </row>
     <row r="103">
@@ -2737,19 +2204,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.37</v>
+        <v>-19.51</v>
       </c>
       <c r="C103" t="n">
-        <v>-9.27</v>
+        <v>20.7</v>
       </c>
       <c r="D103" t="n">
-        <v>8.82</v>
+        <v>-6.33</v>
       </c>
       <c r="E103" t="n">
-        <v>-19.1</v>
-      </c>
-      <c r="F103" t="n">
-        <v>14.18</v>
+        <v>5.144</v>
       </c>
     </row>
     <row r="104">
@@ -2757,19 +2221,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.87</v>
+        <v>-21.37</v>
       </c>
       <c r="C104" t="n">
-        <v>-8.76</v>
+        <v>20.28</v>
       </c>
       <c r="D104" t="n">
-        <v>8.880000000000001</v>
+        <v>-5.32</v>
       </c>
       <c r="E104" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F104" t="n">
-        <v>14.01</v>
+        <v>6.411999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -2777,19 +2238,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.37</v>
+        <v>-23.45</v>
       </c>
       <c r="C105" t="n">
-        <v>-8.16</v>
+        <v>19.79</v>
       </c>
       <c r="D105" t="n">
-        <v>7.96</v>
+        <v>-3.92</v>
       </c>
       <c r="E105" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F105" t="n">
-        <v>13.83</v>
+        <v>7.577999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -2797,19 +2255,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.12</v>
+        <v>-26.17</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.84</v>
+        <v>19.55</v>
       </c>
       <c r="D106" t="n">
-        <v>7.05</v>
+        <v>-2.51</v>
       </c>
       <c r="E106" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F106" t="n">
-        <v>13.67</v>
+        <v>9.135999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -2817,19 +2272,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.89</v>
+        <v>-28.86</v>
       </c>
       <c r="C107" t="n">
-        <v>-6.55</v>
+        <v>19.63</v>
       </c>
       <c r="D107" t="n">
-        <v>7.14</v>
+        <v>-1.57</v>
       </c>
       <c r="E107" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F107" t="n">
-        <v>13.52</v>
+        <v>10.794</v>
       </c>
     </row>
     <row r="108">
@@ -2837,19 +2289,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.64</v>
+        <v>-31.53</v>
       </c>
       <c r="C108" t="n">
-        <v>-6.3</v>
+        <v>19.54</v>
       </c>
       <c r="D108" t="n">
-        <v>7.22</v>
+        <v>-0.4</v>
       </c>
       <c r="E108" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F108" t="n">
-        <v>13.44</v>
+        <v>12.402</v>
       </c>
     </row>
     <row r="109">
@@ -2857,19 +2306,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.34</v>
+        <v>-32.01</v>
       </c>
       <c r="C109" t="n">
-        <v>-6.17</v>
+        <v>19.01</v>
       </c>
       <c r="D109" t="n">
-        <v>7.26</v>
+        <v>0.76</v>
       </c>
       <c r="E109" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F109" t="n">
-        <v>13.57</v>
+        <v>12.243</v>
       </c>
     </row>
     <row r="110">
@@ -2877,19 +2323,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.99</v>
+        <v>-29.3</v>
       </c>
       <c r="C110" t="n">
-        <v>-6.03</v>
+        <v>16.33</v>
       </c>
       <c r="D110" t="n">
-        <v>7.31</v>
+        <v>1.02</v>
       </c>
       <c r="E110" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F110" t="n">
-        <v>13.73</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="111">
@@ -2897,19 +2340,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.66</v>
+        <v>-25.92</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.07</v>
+        <v>13.59</v>
       </c>
       <c r="D111" t="n">
-        <v>7.54</v>
+        <v>1.2</v>
       </c>
       <c r="E111" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F111" t="n">
-        <v>13.87</v>
+        <v>11.127</v>
       </c>
     </row>
     <row r="112">
@@ -2917,19 +2357,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.32</v>
+        <v>-22.37</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.23</v>
+        <v>11.1</v>
       </c>
       <c r="D112" t="n">
-        <v>7.85</v>
+        <v>1.17</v>
       </c>
       <c r="E112" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F112" t="n">
-        <v>14.07</v>
+        <v>10.094</v>
       </c>
     </row>
     <row r="113">
@@ -2937,19 +2374,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.99</v>
+        <v>-18.89</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.49</v>
+        <v>8.56</v>
       </c>
       <c r="D113" t="n">
-        <v>8.18</v>
+        <v>1.14</v>
       </c>
       <c r="E113" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F113" t="n">
-        <v>14.32</v>
+        <v>9.190999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -2957,19 +2391,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.48</v>
+        <v>-15.52</v>
       </c>
       <c r="C114" t="n">
-        <v>-6.54</v>
+        <v>6.1</v>
       </c>
       <c r="D114" t="n">
-        <v>8.460000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="E114" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F114" t="n">
-        <v>14.6</v>
+        <v>7.816</v>
       </c>
     </row>
     <row r="115">
@@ -2977,19 +2408,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.92</v>
+        <v>-11.95</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.59</v>
+        <v>3.71</v>
       </c>
       <c r="D115" t="n">
-        <v>8.81</v>
+        <v>1.75</v>
       </c>
       <c r="E115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F115" t="n">
-        <v>14.86</v>
+        <v>6.532999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -2997,19 +2425,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.43</v>
+        <v>-8.16</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.7</v>
+        <v>1.05</v>
       </c>
       <c r="D116" t="n">
-        <v>9.16</v>
+        <v>1.86</v>
       </c>
       <c r="E116" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F116" t="n">
-        <v>15.1</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="117">
@@ -3017,19 +2442,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.93</v>
+        <v>-4.6</v>
       </c>
       <c r="C117" t="n">
-        <v>-6.68</v>
+        <v>-1.44</v>
       </c>
       <c r="D117" t="n">
-        <v>9.4</v>
+        <v>2.11</v>
       </c>
       <c r="E117" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F117" t="n">
-        <v>15.35</v>
+        <v>3.967</v>
       </c>
     </row>
     <row r="118">
@@ -3037,19 +2459,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.57</v>
+        <v>-1.33</v>
       </c>
       <c r="C118" t="n">
-        <v>-6.68</v>
+        <v>-3.71</v>
       </c>
       <c r="D118" t="n">
-        <v>9.619999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="E118" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F118" t="n">
-        <v>15.49</v>
+        <v>4.279</v>
       </c>
     </row>
     <row r="119">
@@ -3057,19 +2476,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="C119" t="n">
-        <v>-6.64</v>
+        <v>-5.6</v>
       </c>
       <c r="D119" t="n">
-        <v>9.890000000000001</v>
+        <v>-0.66</v>
       </c>
       <c r="E119" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F119" t="n">
-        <v>15.54</v>
+        <v>4.743</v>
       </c>
     </row>
     <row r="120">
@@ -3077,19 +2493,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.92</v>
+        <v>1.97</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.61</v>
+        <v>-5.23</v>
       </c>
       <c r="D120" t="n">
-        <v>10.16</v>
+        <v>-2.96</v>
       </c>
       <c r="E120" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F120" t="n">
-        <v>15.53</v>
+        <v>6.258</v>
       </c>
     </row>
     <row r="121">
@@ -3097,19 +2510,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.62</v>
+        <v>1.72</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.31</v>
+        <v>-4.78</v>
       </c>
       <c r="D121" t="n">
-        <v>10.25</v>
+        <v>-4.96</v>
       </c>
       <c r="E121" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F121" t="n">
-        <v>15.44</v>
+        <v>8.068</v>
       </c>
     </row>
     <row r="122">
@@ -3117,19 +2527,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.39</v>
+        <v>1.42</v>
       </c>
       <c r="C122" t="n">
-        <v>-6.07</v>
+        <v>-4.59</v>
       </c>
       <c r="D122" t="n">
-        <v>10.33</v>
+        <v>-6.75</v>
       </c>
       <c r="E122" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F122" t="n">
-        <v>15.35</v>
+        <v>9.954999999999998</v>
       </c>
     </row>
     <row r="123">
@@ -3137,19 +2544,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.15</v>
+        <v>1.04</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.78</v>
+        <v>-4.34</v>
       </c>
       <c r="D123" t="n">
-        <v>10.39</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F123" t="n">
-        <v>15.24</v>
+        <v>11.882</v>
       </c>
     </row>
     <row r="124">
@@ -3157,19 +2561,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.13</v>
+        <v>0.87</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.81</v>
+        <v>-4.09</v>
       </c>
       <c r="D124" t="n">
-        <v>10.51</v>
+        <v>-11.04</v>
       </c>
       <c r="E124" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F124" t="n">
-        <v>15.17</v>
+        <v>14.281</v>
       </c>
     </row>
     <row r="125">
@@ -3177,19 +2578,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.17</v>
+        <v>0.72</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.83</v>
+        <v>-3.84</v>
       </c>
       <c r="D125" t="n">
-        <v>10.53</v>
+        <v>-13.55</v>
       </c>
       <c r="E125" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F125" t="n">
-        <v>15.13</v>
+        <v>16.66999999999999</v>
       </c>
     </row>
     <row r="126">
@@ -3197,19 +2595,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.4</v>
+        <v>0.34</v>
       </c>
       <c r="C126" t="n">
-        <v>-5.87</v>
+        <v>-3.59</v>
       </c>
       <c r="D126" t="n">
-        <v>11.2</v>
+        <v>-16.03</v>
       </c>
       <c r="E126" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F126" t="n">
-        <v>15.08</v>
+        <v>19.279</v>
       </c>
     </row>
     <row r="127">
@@ -3217,19 +2612,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.03</v>
+        <v>0.27</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.78</v>
+        <v>-3.73</v>
       </c>
       <c r="D127" t="n">
-        <v>11.8</v>
+        <v>-18.51</v>
       </c>
       <c r="E127" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F127" t="n">
-        <v>15.01</v>
+        <v>21.968</v>
       </c>
     </row>
     <row r="128">
@@ -3237,19 +2629,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.76</v>
+        <v>0.49</v>
       </c>
       <c r="C128" t="n">
-        <v>-5.64</v>
+        <v>-3.85</v>
       </c>
       <c r="D128" t="n">
-        <v>12.43</v>
+        <v>-19.75</v>
       </c>
       <c r="E128" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F128" t="n">
-        <v>14.97</v>
+        <v>23.112</v>
       </c>
     </row>
     <row r="129">
@@ -3257,19 +2646,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-2.66</v>
+        <v>0.08</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.2</v>
+        <v>-3.91</v>
       </c>
       <c r="D129" t="n">
-        <v>13.06</v>
+        <v>-20.78</v>
       </c>
       <c r="E129" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F129" t="n">
-        <v>14.8</v>
+        <v>24.611</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +2663,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-3.62</v>
+        <v>-0.39</v>
       </c>
       <c r="C130" t="n">
-        <v>-4.6</v>
+        <v>-3.99</v>
       </c>
       <c r="D130" t="n">
-        <v>13.54</v>
+        <v>-20.82</v>
       </c>
       <c r="E130" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F130" t="n">
-        <v>14.69</v>
+        <v>25.203</v>
       </c>
     </row>
     <row r="131">
@@ -3297,19 +2680,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-4.58</v>
+        <v>-0.89</v>
       </c>
       <c r="C131" t="n">
-        <v>-3.61</v>
+        <v>-4.08</v>
       </c>
       <c r="D131" t="n">
-        <v>13.55</v>
+        <v>-20.83</v>
       </c>
       <c r="E131" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F131" t="n">
-        <v>14.64</v>
+        <v>25.79499999999999</v>
       </c>
     </row>
     <row r="132">
@@ -3317,19 +2697,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-5.63</v>
+        <v>-1.33</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.46</v>
+        <v>-4.15</v>
       </c>
       <c r="D132" t="n">
-        <v>13.51</v>
+        <v>-20.92</v>
       </c>
       <c r="E132" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F132" t="n">
-        <v>14.58</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="133">
@@ -3337,19 +2714,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-6.68</v>
+        <v>-1.7</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.4</v>
+        <v>-4.49</v>
       </c>
       <c r="D133" t="n">
-        <v>13.54</v>
+        <v>-20.94</v>
       </c>
       <c r="E133" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F133" t="n">
-        <v>14.54</v>
+        <v>27.13</v>
       </c>
     </row>
     <row r="134">
@@ -3357,19 +2731,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-7.81</v>
+        <v>-2.28</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.32</v>
+        <v>-4.86</v>
       </c>
       <c r="D134" t="n">
-        <v>13.67</v>
+        <v>-20.71</v>
       </c>
       <c r="E134" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F134" t="n">
-        <v>14.46</v>
+        <v>27.85</v>
       </c>
     </row>
     <row r="135">
@@ -3377,19 +2748,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-8.93</v>
+        <v>-2.89</v>
       </c>
       <c r="C135" t="n">
-        <v>0.77</v>
+        <v>-5.17</v>
       </c>
       <c r="D135" t="n">
-        <v>13.8</v>
+        <v>-20.49</v>
       </c>
       <c r="E135" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F135" t="n">
-        <v>14.36</v>
+        <v>28.54</v>
       </c>
     </row>
     <row r="136">
@@ -3397,19 +2765,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-9.460000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="C136" t="n">
-        <v>2.36</v>
+        <v>-5.45</v>
       </c>
       <c r="D136" t="n">
-        <v>13.28</v>
+        <v>-19.5</v>
       </c>
       <c r="E136" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F136" t="n">
-        <v>13.82</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="137">
@@ -3417,19 +2782,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-9.92</v>
+        <v>-4.13</v>
       </c>
       <c r="C137" t="n">
-        <v>3.8</v>
+        <v>-5.74</v>
       </c>
       <c r="D137" t="n">
-        <v>12.82</v>
+        <v>-18.53</v>
       </c>
       <c r="E137" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F137" t="n">
-        <v>13.3</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="138">
@@ -3437,19 +2799,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-10.36</v>
+        <v>-4.75</v>
       </c>
       <c r="C138" t="n">
-        <v>5.3</v>
+        <v>-6.06</v>
       </c>
       <c r="D138" t="n">
-        <v>12.17</v>
+        <v>-17.55</v>
       </c>
       <c r="E138" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F138" t="n">
-        <v>12.89</v>
+        <v>28.36</v>
       </c>
     </row>
     <row r="139">
@@ -3457,19 +2816,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-10.55</v>
+        <v>-5.1</v>
       </c>
       <c r="C139" t="n">
-        <v>6.28</v>
+        <v>-6.38</v>
       </c>
       <c r="D139" t="n">
-        <v>11.5</v>
+        <v>-16.57</v>
       </c>
       <c r="E139" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F139" t="n">
-        <v>12.78</v>
+        <v>28.055</v>
       </c>
     </row>
     <row r="140">
@@ -3477,19 +2833,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-10.94</v>
+        <v>-5.25</v>
       </c>
       <c r="C140" t="n">
-        <v>7.29</v>
+        <v>-6.76</v>
       </c>
       <c r="D140" t="n">
-        <v>10.99</v>
+        <v>-15.76</v>
       </c>
       <c r="E140" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F140" t="n">
-        <v>12.65</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="141">
@@ -3497,19 +2850,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-11.34</v>
+        <v>-5.38</v>
       </c>
       <c r="C141" t="n">
-        <v>7.75</v>
+        <v>-7.13</v>
       </c>
       <c r="D141" t="n">
-        <v>10.94</v>
+        <v>-14.93</v>
       </c>
       <c r="E141" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F141" t="n">
-        <v>12.65</v>
+        <v>27.445</v>
       </c>
     </row>
     <row r="142">
@@ -3517,19 +2867,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-11.75</v>
+        <v>-5.5</v>
       </c>
       <c r="C142" t="n">
-        <v>8.1</v>
+        <v>-7.53</v>
       </c>
       <c r="D142" t="n">
-        <v>10.67</v>
+        <v>-14.29</v>
       </c>
       <c r="E142" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F142" t="n">
-        <v>12.98</v>
+        <v>27.32</v>
       </c>
     </row>
     <row r="143">
@@ -3537,19 +2884,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-11.9</v>
+        <v>-5.14</v>
       </c>
       <c r="C143" t="n">
-        <v>8.289999999999999</v>
+        <v>-8.07</v>
       </c>
       <c r="D143" t="n">
-        <v>10.31</v>
+        <v>-13.63</v>
       </c>
       <c r="E143" t="n">
-        <v>-20.02</v>
-      </c>
-      <c r="F143" t="n">
-        <v>13.32</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="144">
@@ -3557,19 +2901,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-12</v>
+        <v>-4.62</v>
       </c>
       <c r="C144" t="n">
-        <v>8.5</v>
+        <v>-8.59</v>
       </c>
       <c r="D144" t="n">
-        <v>9.85</v>
+        <v>-13.16</v>
       </c>
       <c r="E144" t="n">
-        <v>-20.08</v>
-      </c>
-      <c r="F144" t="n">
-        <v>13.73</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="145">
@@ -3577,19 +2918,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-11.73</v>
+        <v>-4.08</v>
       </c>
       <c r="C145" t="n">
-        <v>8.5</v>
+        <v>-8.9</v>
       </c>
       <c r="D145" t="n">
-        <v>9.220000000000001</v>
+        <v>-12.69</v>
       </c>
       <c r="E145" t="n">
-        <v>-20.14</v>
-      </c>
-      <c r="F145" t="n">
-        <v>14.16</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="146">
@@ -3597,19 +2935,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-11.54</v>
+        <v>-3.53</v>
       </c>
       <c r="C146" t="n">
-        <v>8.23</v>
+        <v>-9.24</v>
       </c>
       <c r="D146" t="n">
-        <v>8.59</v>
+        <v>-12.91</v>
       </c>
       <c r="E146" t="n">
-        <v>-20.22</v>
-      </c>
-      <c r="F146" t="n">
-        <v>14.94</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="147">
@@ -3617,19 +2952,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-11.47</v>
+        <v>-3.43</v>
       </c>
       <c r="C147" t="n">
-        <v>7.88</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>7.86</v>
+        <v>-12.58</v>
       </c>
       <c r="E147" t="n">
-        <v>-20.3</v>
-      </c>
-      <c r="F147" t="n">
-        <v>16.02</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="148">
@@ -3637,19 +2969,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-11.4</v>
+        <v>-3.42</v>
       </c>
       <c r="C148" t="n">
-        <v>7.44</v>
+        <v>-9.81</v>
       </c>
       <c r="D148" t="n">
-        <v>7.27</v>
+        <v>-12.32</v>
       </c>
       <c r="E148" t="n">
-        <v>-20.32</v>
-      </c>
-      <c r="F148" t="n">
-        <v>17.01</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="149">
@@ -3657,19 +2986,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-11.24</v>
+        <v>-3.06</v>
       </c>
       <c r="C149" t="n">
-        <v>7.28</v>
+        <v>-10.03</v>
       </c>
       <c r="D149" t="n">
-        <v>6.69</v>
+        <v>-12.34</v>
       </c>
       <c r="E149" t="n">
-        <v>-20.41</v>
-      </c>
-      <c r="F149" t="n">
-        <v>17.7</v>
+        <v>25.42</v>
       </c>
     </row>
     <row r="150">
@@ -3677,19 +3003,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-10.79</v>
+        <v>-2.83</v>
       </c>
       <c r="C150" t="n">
-        <v>6.92</v>
+        <v>-10.35</v>
       </c>
       <c r="D150" t="n">
-        <v>6.01</v>
+        <v>-12.29</v>
       </c>
       <c r="E150" t="n">
-        <v>-20.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>18.4</v>
+        <v>25.47</v>
       </c>
     </row>
     <row r="151">
@@ -3697,19 +3020,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-10.16</v>
+        <v>-2.68</v>
       </c>
       <c r="C151" t="n">
-        <v>6.48</v>
+        <v>-10.38</v>
       </c>
       <c r="D151" t="n">
-        <v>5.33</v>
+        <v>-12.48</v>
       </c>
       <c r="E151" t="n">
-        <v>-20.59</v>
-      </c>
-      <c r="F151" t="n">
-        <v>19</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="152">
@@ -3717,19 +3037,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-9.390000000000001</v>
+        <v>-3.18</v>
       </c>
       <c r="C152" t="n">
-        <v>6.04</v>
+        <v>-10.38</v>
       </c>
       <c r="D152" t="n">
-        <v>4.86</v>
+        <v>-13.05</v>
       </c>
       <c r="E152" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>19.25</v>
+        <v>26.61</v>
       </c>
     </row>
     <row r="153">
@@ -3737,19 +3054,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-8.92</v>
+        <v>-4.15</v>
       </c>
       <c r="C153" t="n">
-        <v>5.91</v>
+        <v>-10.33</v>
       </c>
       <c r="D153" t="n">
-        <v>4.39</v>
+        <v>-13.63</v>
       </c>
       <c r="E153" t="n">
-        <v>-20.81</v>
-      </c>
-      <c r="F153" t="n">
-        <v>19.49</v>
+        <v>28.119</v>
       </c>
     </row>
     <row r="154">
@@ -3757,19 +3071,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-8.630000000000001</v>
+        <v>-5.08</v>
       </c>
       <c r="C154" t="n">
-        <v>5.56</v>
+        <v>-10.28</v>
       </c>
       <c r="D154" t="n">
-        <v>3.92</v>
+        <v>-14.25</v>
       </c>
       <c r="E154" t="n">
-        <v>-20.89</v>
-      </c>
-      <c r="F154" t="n">
-        <v>20.1</v>
+        <v>29.608</v>
       </c>
     </row>
     <row r="155">
@@ -3777,19 +3088,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-8.789999999999999</v>
+        <v>-6.09</v>
       </c>
       <c r="C155" t="n">
-        <v>5.48</v>
+        <v>-10.49</v>
       </c>
       <c r="D155" t="n">
-        <v>3.63</v>
+        <v>-14.76</v>
       </c>
       <c r="E155" t="n">
-        <v>-20.97</v>
-      </c>
-      <c r="F155" t="n">
-        <v>20.71</v>
+        <v>31.347</v>
       </c>
     </row>
     <row r="156">
@@ -3797,19 +3105,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-9.029999999999999</v>
+        <v>-7.08</v>
       </c>
       <c r="C156" t="n">
-        <v>5.38</v>
+        <v>-10.69</v>
       </c>
       <c r="D156" t="n">
-        <v>3.34</v>
+        <v>-15.38</v>
       </c>
       <c r="E156" t="n">
-        <v>-21.03</v>
-      </c>
-      <c r="F156" t="n">
-        <v>21.4</v>
+        <v>33.146</v>
       </c>
     </row>
     <row r="157">
@@ -3817,19 +3122,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-9.25</v>
+        <v>-7.62</v>
       </c>
       <c r="C157" t="n">
-        <v>5.04</v>
+        <v>-10.73</v>
       </c>
       <c r="D157" t="n">
-        <v>3.13</v>
+        <v>-16.53</v>
       </c>
       <c r="E157" t="n">
-        <v>-21.17</v>
-      </c>
-      <c r="F157" t="n">
-        <v>22.3</v>
+        <v>34.88500000000001</v>
       </c>
     </row>
     <row r="158">
@@ -3837,19 +3139,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-9.470000000000001</v>
+        <v>-7.51</v>
       </c>
       <c r="C158" t="n">
-        <v>4.78</v>
+        <v>-11.02</v>
       </c>
       <c r="D158" t="n">
-        <v>2.97</v>
+        <v>-18.08</v>
       </c>
       <c r="E158" t="n">
-        <v>-21.43</v>
-      </c>
-      <c r="F158" t="n">
-        <v>23.21</v>
+        <v>36.61400000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3857,19 +3156,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-9.85</v>
+        <v>-7.21</v>
       </c>
       <c r="C159" t="n">
-        <v>4.52</v>
+        <v>-11.3</v>
       </c>
       <c r="D159" t="n">
-        <v>2.74</v>
+        <v>-19.41</v>
       </c>
       <c r="E159" t="n">
-        <v>-21.4</v>
-      </c>
-      <c r="F159" t="n">
-        <v>24.04</v>
+        <v>37.924</v>
       </c>
     </row>
     <row r="160">
@@ -3877,19 +3173,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-10.39</v>
+        <v>-7</v>
       </c>
       <c r="C160" t="n">
-        <v>4.38</v>
+        <v>-11.39</v>
       </c>
       <c r="D160" t="n">
-        <v>2.61</v>
+        <v>-20.64</v>
       </c>
       <c r="E160" t="n">
-        <v>-21.44</v>
-      </c>
-      <c r="F160" t="n">
-        <v>24.87</v>
+        <v>39.03400000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3897,19 +3190,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-10.98</v>
+        <v>-7.56</v>
       </c>
       <c r="C161" t="n">
-        <v>4.29</v>
+        <v>-11.84</v>
       </c>
       <c r="D161" t="n">
-        <v>2.47</v>
+        <v>-20.67</v>
       </c>
       <c r="E161" t="n">
-        <v>-21.47</v>
-      </c>
-      <c r="F161" t="n">
-        <v>25.69</v>
+        <v>40.072</v>
       </c>
     </row>
     <row r="162">
@@ -3917,19 +3207,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-11.67</v>
+        <v>-7.47</v>
       </c>
       <c r="C162" t="n">
-        <v>2.71</v>
+        <v>-12.95</v>
       </c>
       <c r="D162" t="n">
-        <v>3.91</v>
+        <v>-20.09</v>
       </c>
       <c r="E162" t="n">
-        <v>-21.49</v>
-      </c>
-      <c r="F162" t="n">
-        <v>26.53</v>
+        <v>40.515</v>
       </c>
     </row>
     <row r="163">
@@ -3937,19 +3224,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-12</v>
+        <v>-7.29</v>
       </c>
       <c r="C163" t="n">
-        <v>0.76</v>
+        <v>-13.73</v>
       </c>
       <c r="D163" t="n">
-        <v>5.35</v>
+        <v>-19.52</v>
       </c>
       <c r="E163" t="n">
-        <v>-21.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>27.39</v>
+        <v>40.544</v>
       </c>
     </row>
     <row r="164">
@@ -3957,19 +3241,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-12.17</v>
+        <v>-6.74</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.87</v>
+        <v>-14.52</v>
       </c>
       <c r="D164" t="n">
-        <v>6.79</v>
+        <v>-19.33</v>
       </c>
       <c r="E164" t="n">
-        <v>-21.51</v>
-      </c>
-      <c r="F164" t="n">
-        <v>27.77</v>
+        <v>40.593</v>
       </c>
     </row>
     <row r="165">
@@ -3977,19 +3258,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-12.28</v>
+        <v>-6.03</v>
       </c>
       <c r="C165" t="n">
-        <v>-2.46</v>
+        <v>-15.32</v>
       </c>
       <c r="D165" t="n">
-        <v>8.23</v>
+        <v>-19.24</v>
       </c>
       <c r="E165" t="n">
-        <v>-21.53</v>
-      </c>
-      <c r="F165" t="n">
-        <v>28.04</v>
+        <v>40.58200000000001</v>
       </c>
     </row>
     <row r="166">
@@ -3997,19 +3275,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-12.18</v>
+        <v>-5.33</v>
       </c>
       <c r="C166" t="n">
-        <v>-4.26</v>
+        <v>-15.88</v>
       </c>
       <c r="D166" t="n">
-        <v>9.66</v>
+        <v>-19.33</v>
       </c>
       <c r="E166" t="n">
-        <v>-21.56</v>
-      </c>
-      <c r="F166" t="n">
-        <v>28.33</v>
+        <v>40.551</v>
       </c>
     </row>
     <row r="167">
@@ -4017,19 +3292,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-12.43</v>
+        <v>-4.66</v>
       </c>
       <c r="C167" t="n">
-        <v>-5.23</v>
+        <v>-17.65</v>
       </c>
       <c r="D167" t="n">
-        <v>11.06</v>
+        <v>-18.19</v>
       </c>
       <c r="E167" t="n">
-        <v>-21.52</v>
-      </c>
-      <c r="F167" t="n">
-        <v>28.11</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="168">
@@ -4037,19 +3309,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-12.75</v>
+        <v>-7.72</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.27</v>
+        <v>-21.43</v>
       </c>
       <c r="D168" t="n">
-        <v>12.46</v>
+        <v>-11.25</v>
       </c>
       <c r="E168" t="n">
-        <v>-21.33</v>
-      </c>
-      <c r="F168" t="n">
-        <v>27.89</v>
+        <v>40.399</v>
       </c>
     </row>
     <row r="169">
@@ -4057,19 +3326,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-13</v>
+        <v>-11.3</v>
       </c>
       <c r="C169" t="n">
-        <v>-7.28</v>
+        <v>-25.2</v>
       </c>
       <c r="D169" t="n">
-        <v>13.93</v>
+        <v>-4.25</v>
       </c>
       <c r="E169" t="n">
-        <v>-21.37</v>
-      </c>
-      <c r="F169" t="n">
-        <v>27.72</v>
+        <v>40.747</v>
       </c>
     </row>
     <row r="170">
@@ -4077,19 +3343,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-13.21</v>
+        <v>-15.14</v>
       </c>
       <c r="C170" t="n">
-        <v>-8.390000000000001</v>
+        <v>-28.98</v>
       </c>
       <c r="D170" t="n">
-        <v>15.4</v>
+        <v>3.02</v>
       </c>
       <c r="E170" t="n">
-        <v>-21.35</v>
-      </c>
-      <c r="F170" t="n">
-        <v>27.55</v>
+        <v>41.095</v>
       </c>
     </row>
     <row r="171">
@@ -4097,19 +3360,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-13.52</v>
+        <v>-18.13</v>
       </c>
       <c r="C171" t="n">
-        <v>-9.4</v>
+        <v>-32.67</v>
       </c>
       <c r="D171" t="n">
-        <v>16.87</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E171" t="n">
-        <v>-21.33</v>
-      </c>
-      <c r="F171" t="n">
-        <v>27.38</v>
+        <v>41.585</v>
       </c>
     </row>
     <row r="172">
@@ -4117,19 +3377,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-13.77</v>
+        <v>-21.13</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.7</v>
+        <v>-35.71</v>
       </c>
       <c r="D172" t="n">
-        <v>16.53</v>
+        <v>15.3</v>
       </c>
       <c r="E172" t="n">
-        <v>-23.21</v>
-      </c>
-      <c r="F172" t="n">
-        <v>27.15</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="173">
@@ -4137,19 +3394,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-14.19</v>
+        <v>-24.15</v>
       </c>
       <c r="C173" t="n">
-        <v>-3.74</v>
+        <v>-38.71</v>
       </c>
       <c r="D173" t="n">
-        <v>16.13</v>
+        <v>21.34</v>
       </c>
       <c r="E173" t="n">
-        <v>-25.06</v>
-      </c>
-      <c r="F173" t="n">
-        <v>26.86</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="174">
@@ -4157,19 +3411,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-14.61</v>
+        <v>-27.61</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.86</v>
+        <v>-41.71</v>
       </c>
       <c r="D174" t="n">
-        <v>15.68</v>
+        <v>27.9</v>
       </c>
       <c r="E174" t="n">
-        <v>-26.91</v>
-      </c>
-      <c r="F174" t="n">
-        <v>26.69</v>
+        <v>41.42</v>
       </c>
     </row>
     <row r="175">
@@ -4177,19 +3428,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-14.93</v>
+        <v>-31.24</v>
       </c>
       <c r="C175" t="n">
-        <v>1.87</v>
+        <v>-44.69</v>
       </c>
       <c r="D175" t="n">
-        <v>15.3</v>
+        <v>34.41</v>
       </c>
       <c r="E175" t="n">
-        <v>-28.75</v>
-      </c>
-      <c r="F175" t="n">
-        <v>26.58</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="176">
@@ -4197,19 +3445,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-15.86</v>
+        <v>-34.94</v>
       </c>
       <c r="C176" t="n">
-        <v>4.63</v>
+        <v>-47.91</v>
       </c>
       <c r="D176" t="n">
-        <v>14.85</v>
+        <v>40.76</v>
       </c>
       <c r="E176" t="n">
-        <v>-30.58</v>
-      </c>
-      <c r="F176" t="n">
-        <v>27.1</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="177">
@@ -4217,19 +3462,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-16.35</v>
+        <v>-38.68</v>
       </c>
       <c r="C177" t="n">
-        <v>6.89</v>
+        <v>-50</v>
       </c>
       <c r="D177" t="n">
-        <v>14.77</v>
+        <v>45.7</v>
       </c>
       <c r="E177" t="n">
-        <v>-32.41</v>
-      </c>
-      <c r="F177" t="n">
-        <v>27.31</v>
+        <v>42.975</v>
       </c>
     </row>
     <row r="178">
@@ -4237,19 +3479,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-16.76</v>
+        <v>-39.31</v>
       </c>
       <c r="C178" t="n">
-        <v>9.140000000000001</v>
+        <v>-50</v>
       </c>
       <c r="D178" t="n">
-        <v>14.7</v>
+        <v>45.31</v>
       </c>
       <c r="E178" t="n">
-        <v>-34.31</v>
-      </c>
-      <c r="F178" t="n">
-        <v>27.51</v>
+        <v>43.997</v>
       </c>
     </row>
     <row r="179">
@@ -4257,19 +3496,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-17.18</v>
+        <v>-41.76</v>
       </c>
       <c r="C179" t="n">
-        <v>11.37</v>
+        <v>-50</v>
       </c>
       <c r="D179" t="n">
-        <v>14.39</v>
+        <v>44.92</v>
       </c>
       <c r="E179" t="n">
-        <v>-36.21</v>
-      </c>
-      <c r="F179" t="n">
-        <v>27.98</v>
+        <v>46.836</v>
       </c>
     </row>
     <row r="180">
@@ -4277,19 +3513,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-17.57</v>
+        <v>-43.86</v>
       </c>
       <c r="C180" t="n">
-        <v>13.56</v>
+        <v>-50</v>
       </c>
       <c r="D180" t="n">
-        <v>14.11</v>
+        <v>44.71</v>
       </c>
       <c r="E180" t="n">
-        <v>-38.1</v>
-      </c>
-      <c r="F180" t="n">
-        <v>28.43</v>
+        <v>49.15499999999999</v>
       </c>
     </row>
     <row r="181">
@@ -4297,19 +3530,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-17.99</v>
+        <v>-45.96</v>
       </c>
       <c r="C181" t="n">
-        <v>15.78</v>
+        <v>-50</v>
       </c>
       <c r="D181" t="n">
-        <v>13.76</v>
+        <v>44.5</v>
       </c>
       <c r="E181" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F181" t="n">
-        <v>28.94</v>
+        <v>51.46400000000001</v>
       </c>
     </row>
     <row r="182">
@@ -4317,19 +3547,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-18.41</v>
+        <v>-48.05</v>
       </c>
       <c r="C182" t="n">
-        <v>15.78</v>
+        <v>-50</v>
       </c>
       <c r="D182" t="n">
-        <v>13.69</v>
+        <v>43.95</v>
       </c>
       <c r="E182" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F182" t="n">
-        <v>29.49</v>
+        <v>54.10299999999999</v>
       </c>
     </row>
     <row r="183">
@@ -4337,19 +3564,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-18.95</v>
+        <v>-50.23</v>
       </c>
       <c r="C183" t="n">
-        <v>15.78</v>
+        <v>-50</v>
       </c>
       <c r="D183" t="n">
-        <v>13.71</v>
+        <v>43.49</v>
       </c>
       <c r="E183" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F183" t="n">
-        <v>30.09</v>
+        <v>56.73199999999999</v>
       </c>
     </row>
     <row r="184">
@@ -4357,19 +3581,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-19.44</v>
+        <v>-52.32</v>
       </c>
       <c r="C184" t="n">
-        <v>15.78</v>
+        <v>-50</v>
       </c>
       <c r="D184" t="n">
-        <v>13.77</v>
+        <v>42.82</v>
       </c>
       <c r="E184" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F184" t="n">
-        <v>30.6</v>
+        <v>59.501</v>
       </c>
     </row>
     <row r="185">
@@ -4377,79 +3598,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-20</v>
+        <v>-54.35</v>
       </c>
       <c r="C185" t="n">
-        <v>15.78</v>
+        <v>-50</v>
       </c>
       <c r="D185" t="n">
-        <v>13.35</v>
+        <v>42.4</v>
       </c>
       <c r="E185" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F185" t="n">
-        <v>31.57</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C186" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D186" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F186" t="n">
-        <v>31.86</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C187" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D187" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F187" t="n">
-        <v>32.43</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C188" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F188" t="n">
-        <v>32.95</v>
+        <v>61.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$185</f>
+              <f>'data'!$B$2:$B$205</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$185</f>
+              <f>'data'!$C$2:$C$205</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$185</f>
+              <f>'data'!$D$2:$D$205</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,34 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$185</f>
+              <f>'data'!$E$2:$E$205</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$205</f>
             </numRef>
           </val>
         </ser>
@@ -645,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +706,11 @@
           <t>Scott</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Regan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -699,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.05</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.05</v>
       </c>
     </row>
     <row r="4">
@@ -713,13 +745,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.47</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.76</v>
+        <v>0.13</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.28</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -727,13 +759,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.73</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.45</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="6">
@@ -741,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.97</v>
+        <v>1.52</v>
       </c>
       <c r="C6" t="n">
-        <v>1.44</v>
+        <v>0.08</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.47</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +787,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2.15</v>
+        <v>0.08</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.75</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="8">
@@ -769,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.71</v>
+        <v>2.31</v>
       </c>
       <c r="C8" t="n">
-        <v>2.65</v>
+        <v>0.14</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="9">
@@ -783,13 +815,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.96</v>
+        <v>2.54</v>
       </c>
       <c r="C9" t="n">
-        <v>3.02</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.06</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="10">
@@ -797,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.17</v>
+        <v>2.71</v>
       </c>
       <c r="C10" t="n">
-        <v>3.24</v>
+        <v>0.09</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.07</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="11">
@@ -811,13 +843,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.31</v>
+        <v>2.95</v>
       </c>
       <c r="C11" t="n">
-        <v>3.41</v>
+        <v>0.06</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.1</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="12">
@@ -825,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.31</v>
+        <v>2.95</v>
       </c>
       <c r="C12" t="n">
-        <v>3.41</v>
+        <v>0.06</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.1</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="13">
@@ -839,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.96</v>
+        <v>3.48</v>
       </c>
       <c r="C13" t="n">
-        <v>3.76</v>
+        <v>0.02</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.8</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="14">
@@ -853,13 +885,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.63</v>
+        <v>4.02</v>
       </c>
       <c r="C14" t="n">
-        <v>4.12</v>
+        <v>-0.04</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.48</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="15">
@@ -867,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.07</v>
+        <v>4.52</v>
       </c>
       <c r="C15" t="n">
-        <v>4.24</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.18</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="16">
@@ -881,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.52</v>
+        <v>4.66</v>
       </c>
       <c r="C16" t="n">
-        <v>4.38</v>
+        <v>-0.1</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.86</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="17">
@@ -895,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06</v>
+        <v>6.35</v>
       </c>
       <c r="C17" t="n">
-        <v>4.71</v>
+        <v>-0.22</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.76</v>
+        <v>-6.13</v>
       </c>
     </row>
     <row r="18">
@@ -909,13 +941,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4</v>
+        <v>8.16</v>
       </c>
       <c r="C18" t="n">
-        <v>5.17</v>
+        <v>-0.48</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.57</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +955,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.77</v>
+        <v>10.01</v>
       </c>
       <c r="C19" t="n">
-        <v>5.62</v>
+        <v>-0.8</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.39</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -937,13 +969,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.1</v>
+        <v>11.82</v>
       </c>
       <c r="C20" t="n">
-        <v>5.9</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="n">
-        <v>-7</v>
+        <v>-10.82</v>
       </c>
     </row>
     <row r="21">
@@ -951,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.22</v>
+        <v>13.33</v>
       </c>
       <c r="C21" t="n">
-        <v>6.24</v>
+        <v>-0.92</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.46</v>
+        <v>-12.41</v>
       </c>
     </row>
     <row r="22">
@@ -965,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.32</v>
+        <v>14.72</v>
       </c>
       <c r="C22" t="n">
-        <v>6.59</v>
+        <v>-0.8</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.91</v>
+        <v>-13.92</v>
       </c>
     </row>
     <row r="23">
@@ -979,13 +1011,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.86</v>
+        <v>16.09</v>
       </c>
       <c r="C23" t="n">
-        <v>7.01</v>
+        <v>-0.64</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.87</v>
+        <v>-15.45</v>
       </c>
     </row>
     <row r="24">
@@ -993,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23</v>
+        <v>17.48</v>
       </c>
       <c r="C24" t="n">
-        <v>6.99</v>
+        <v>-0.47</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.22</v>
+        <v>-17.01</v>
       </c>
     </row>
     <row r="25">
@@ -1007,13 +1039,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.53</v>
+        <v>18.9</v>
       </c>
       <c r="C25" t="n">
-        <v>6.97</v>
+        <v>-0.3</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.44</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="26">
@@ -1021,13 +1053,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.28</v>
+        <v>20.33</v>
       </c>
       <c r="C26" t="n">
-        <v>6.91</v>
+        <v>-0.09</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.73</v>
+        <v>-20.24</v>
       </c>
     </row>
     <row r="27">
@@ -1035,13 +1067,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-2.02</v>
+        <v>20.3</v>
       </c>
       <c r="C27" t="n">
-        <v>6.71</v>
+        <v>0.04</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.89</v>
+        <v>-20.35</v>
       </c>
     </row>
     <row r="28">
@@ -1049,13 +1081,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.36</v>
+        <v>20.26</v>
       </c>
       <c r="C28" t="n">
-        <v>6.07</v>
+        <v>0.25</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.01</v>
+        <v>-20.51</v>
       </c>
     </row>
     <row r="29">
@@ -1063,13 +1095,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.63</v>
+        <v>20.2</v>
       </c>
       <c r="C29" t="n">
-        <v>5.42</v>
+        <v>0.49</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.09</v>
+        <v>-20.69</v>
       </c>
     </row>
     <row r="30">
@@ -1077,13 +1109,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.92</v>
+        <v>20.06</v>
       </c>
       <c r="C30" t="n">
-        <v>4.87</v>
+        <v>0.89</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.26</v>
+        <v>-20.95</v>
       </c>
     </row>
     <row r="31">
@@ -1091,13 +1123,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.98</v>
+        <v>20.21</v>
       </c>
       <c r="C31" t="n">
-        <v>4.32</v>
+        <v>0.99</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.64</v>
+        <v>-21.21</v>
       </c>
     </row>
     <row r="32">
@@ -1105,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-3.24</v>
+        <v>20.34</v>
       </c>
       <c r="C32" t="n">
-        <v>3.96</v>
+        <v>1.14</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.02</v>
+        <v>-21.49</v>
       </c>
     </row>
     <row r="33">
@@ -1119,13 +1151,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-3.63</v>
+        <v>20.49</v>
       </c>
       <c r="C33" t="n">
-        <v>3.74</v>
+        <v>1.27</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.41</v>
+        <v>-21.77</v>
       </c>
     </row>
     <row r="34">
@@ -1133,13 +1165,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-3.77</v>
+        <v>20.73</v>
       </c>
       <c r="C34" t="n">
-        <v>3.95</v>
+        <v>1.39</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.48</v>
+        <v>-22.11</v>
       </c>
     </row>
     <row r="35">
@@ -1147,13 +1179,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.4</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
-        <v>4.73</v>
+        <v>1.44</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.63</v>
+        <v>-22.43</v>
       </c>
     </row>
     <row r="36">
@@ -1161,13 +1193,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-4.84</v>
+        <v>21.08</v>
       </c>
       <c r="C36" t="n">
-        <v>5.51</v>
+        <v>1.66</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.87</v>
+        <v>-22.74</v>
       </c>
     </row>
     <row r="37">
@@ -1175,13 +1207,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.28</v>
+        <v>20.61</v>
       </c>
       <c r="C37" t="n">
-        <v>6.22</v>
+        <v>1.69</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.04</v>
+        <v>-22.3</v>
       </c>
     </row>
     <row r="38">
@@ -1189,13 +1221,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-5.49</v>
+        <v>20.1</v>
       </c>
       <c r="C38" t="n">
-        <v>6.76</v>
+        <v>1.77</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.27</v>
+        <v>-21.87</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1203,13 +1238,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.83</v>
+        <v>19.41</v>
       </c>
       <c r="C39" t="n">
-        <v>7.42</v>
+        <v>1.83</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.59</v>
+        <v>-21.23</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1255,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-6.12</v>
+        <v>18.83</v>
       </c>
       <c r="C40" t="n">
-        <v>8.130000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.01</v>
+        <v>-20.52</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1231,13 +1272,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-6.4</v>
+        <v>18.26</v>
       </c>
       <c r="C41" t="n">
-        <v>8.859999999999999</v>
+        <v>1.51</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.46</v>
+        <v>-19.81</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.175</v>
       </c>
     </row>
     <row r="42">
@@ -1245,13 +1289,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-6.39</v>
+        <v>17.74</v>
       </c>
       <c r="C42" t="n">
-        <v>9.279999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.89</v>
+        <v>-19.08</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.32</v>
       </c>
     </row>
     <row r="43">
@@ -1259,13 +1306,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-6.37</v>
+        <v>17.2</v>
       </c>
       <c r="C43" t="n">
-        <v>9.609999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="D43" t="n">
-        <v>-3.24</v>
+        <v>-18.32</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-2.333333333333333</v>
       </c>
     </row>
     <row r="44">
@@ -1273,13 +1323,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-6.42</v>
+        <v>16.58</v>
       </c>
       <c r="C44" t="n">
-        <v>9.949999999999999</v>
+        <v>2.31</v>
       </c>
       <c r="D44" t="n">
-        <v>-3.53</v>
+        <v>-17.49</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-3.171428571428571</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1340,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-5.81</v>
+        <v>16.42</v>
       </c>
       <c r="C45" t="n">
-        <v>9.69</v>
+        <v>2.44</v>
       </c>
       <c r="D45" t="n">
-        <v>-3.88</v>
+        <v>-16.64</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-3.881249999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1357,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-5.4</v>
+        <v>16.22</v>
       </c>
       <c r="C46" t="n">
-        <v>9.48</v>
+        <v>2.66</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.08</v>
+        <v>-15.77</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-4.444444444444445</v>
       </c>
     </row>
     <row r="47">
@@ -1315,13 +1374,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-4.98</v>
+        <v>16.25</v>
       </c>
       <c r="C47" t="n">
-        <v>9.279999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.3</v>
+        <v>-15.65</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-4.895</v>
       </c>
     </row>
     <row r="48">
@@ -1329,13 +1391,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-4.87</v>
+        <v>16.22</v>
       </c>
       <c r="C48" t="n">
-        <v>9.34</v>
+        <v>4.15</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.47</v>
+        <v>-15.47</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-4.895</v>
       </c>
     </row>
     <row r="49">
@@ -1343,13 +1408,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.73</v>
+        <v>16.35</v>
       </c>
       <c r="C49" t="n">
-        <v>9.32</v>
+        <v>4.89</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.59</v>
+        <v>-15.47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-5.77</v>
       </c>
     </row>
     <row r="50">
@@ -1357,13 +1425,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-5</v>
+        <v>15.36</v>
       </c>
       <c r="C50" t="n">
-        <v>9.31</v>
+        <v>5.58</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.31</v>
+        <v>-15.47</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-5.473</v>
       </c>
     </row>
     <row r="51">
@@ -1371,13 +1442,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.3</v>
+        <v>14.37</v>
       </c>
       <c r="C51" t="n">
-        <v>9.26</v>
+        <v>6.28</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.96</v>
+        <v>-15.46</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-5.196</v>
       </c>
     </row>
     <row r="52">
@@ -1385,13 +1459,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-5.72</v>
+        <v>13.36</v>
       </c>
       <c r="C52" t="n">
-        <v>9.32</v>
+        <v>6.97</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.6</v>
+        <v>-15.41</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-4.918999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1399,13 +1476,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-6.13</v>
+        <v>12.34</v>
       </c>
       <c r="C53" t="n">
-        <v>9.390000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="D53" t="n">
-        <v>-3.26</v>
+        <v>-15.33</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-3.902</v>
       </c>
     </row>
     <row r="54">
@@ -1413,13 +1493,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-6.56</v>
+        <v>11.11</v>
       </c>
       <c r="C54" t="n">
-        <v>9.08</v>
+        <v>7.2</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.52</v>
+        <v>-15.25</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-3.06</v>
       </c>
     </row>
     <row r="55">
@@ -1427,13 +1510,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-7.01</v>
+        <v>9.43</v>
       </c>
       <c r="C55" t="n">
-        <v>8.73</v>
+        <v>7.9</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.72</v>
+        <v>-15.19</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2.137999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1441,13 +1527,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-7.49</v>
+        <v>7.9</v>
       </c>
       <c r="C56" t="n">
-        <v>8.359999999999999</v>
+        <v>7.44</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.87</v>
+        <v>-15.19</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.1509999999999998</v>
       </c>
     </row>
     <row r="57">
@@ -1455,13 +1544,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-7.95</v>
+        <v>5.79</v>
       </c>
       <c r="C57" t="n">
-        <v>7.97</v>
+        <v>6.8</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02</v>
+        <v>-15.21</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2.616</v>
       </c>
     </row>
     <row r="58">
@@ -1469,13 +1561,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-8.33</v>
+        <v>3.67</v>
       </c>
       <c r="C58" t="n">
-        <v>7.5</v>
+        <v>6.19</v>
       </c>
       <c r="D58" t="n">
-        <v>0.83</v>
+        <v>-15.23</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.373</v>
       </c>
     </row>
     <row r="59">
@@ -1483,13 +1578,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-9.08</v>
+        <v>1.57</v>
       </c>
       <c r="C59" t="n">
-        <v>7.48</v>
+        <v>5.56</v>
       </c>
       <c r="D59" t="n">
-        <v>1.6</v>
+        <v>-13.65</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.523000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1497,13 +1595,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-9.41</v>
+        <v>0.58</v>
       </c>
       <c r="C60" t="n">
-        <v>7.44</v>
+        <v>5.12</v>
       </c>
       <c r="D60" t="n">
-        <v>1.96</v>
+        <v>-12.09</v>
+      </c>
+      <c r="E60" t="n">
+        <v>6.391</v>
       </c>
     </row>
     <row r="61">
@@ -1511,13 +1612,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-9.720000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="C61" t="n">
-        <v>7.43</v>
+        <v>4.69</v>
       </c>
       <c r="D61" t="n">
-        <v>2.29</v>
+        <v>-10.55</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6.289</v>
       </c>
     </row>
     <row r="62">
@@ -1525,13 +1629,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-10.05</v>
+        <v>-1.59</v>
       </c>
       <c r="C62" t="n">
-        <v>7.44</v>
+        <v>4.26</v>
       </c>
       <c r="D62" t="n">
-        <v>2.62</v>
+        <v>-9.07</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.407000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1539,13 +1646,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-9.789999999999999</v>
+        <v>-2.86</v>
       </c>
       <c r="C63" t="n">
-        <v>7.42</v>
+        <v>4.16</v>
       </c>
       <c r="D63" t="n">
-        <v>2.37</v>
+        <v>-7.73</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.435</v>
       </c>
     </row>
     <row r="64">
@@ -1553,13 +1663,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-9.51</v>
+        <v>-4.02</v>
       </c>
       <c r="C64" t="n">
-        <v>7.8</v>
+        <v>3.61</v>
       </c>
       <c r="D64" t="n">
-        <v>1.71</v>
+        <v>-6.24</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.647999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1567,13 +1680,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-9.33</v>
+        <v>-5.23</v>
       </c>
       <c r="C65" t="n">
-        <v>8.42</v>
+        <v>3.07</v>
       </c>
       <c r="D65" t="n">
-        <v>0.91</v>
+        <v>-4.74</v>
+      </c>
+      <c r="E65" t="n">
+        <v>6.900999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -1581,13 +1697,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-9.09</v>
+        <v>-6.38</v>
       </c>
       <c r="C66" t="n">
-        <v>9.039999999999999</v>
+        <v>3.39</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07000000000000001</v>
+        <v>-3.28</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6.274</v>
       </c>
     </row>
     <row r="67">
@@ -1595,13 +1714,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-8.85</v>
+        <v>-6.8</v>
       </c>
       <c r="C67" t="n">
-        <v>9.68</v>
+        <v>3.65</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.79</v>
+        <v>-1.65</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.797</v>
       </c>
     </row>
     <row r="68">
@@ -1609,16 +1731,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-8.6</v>
+        <v>-7.2</v>
       </c>
       <c r="C68" t="n">
-        <v>10.3</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.64</v>
+        <v>-0.03</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="69">
@@ -1626,16 +1748,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-7.96</v>
+        <v>-7.61</v>
       </c>
       <c r="C69" t="n">
-        <v>10.45</v>
+        <v>4.96</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.41</v>
+        <v>-0.01</v>
       </c>
       <c r="E69" t="n">
-        <v>1.7</v>
+        <v>2.661</v>
       </c>
     </row>
     <row r="70">
@@ -1643,16 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.38</v>
+        <v>-8</v>
       </c>
       <c r="C70" t="n">
-        <v>10.62</v>
+        <v>5.92</v>
       </c>
       <c r="D70" t="n">
-        <v>-3.48</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2.076666666666667</v>
+        <v>2.082</v>
       </c>
     </row>
     <row r="71">
@@ -1660,16 +1782,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.86</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>10.8</v>
+        <v>7.18</v>
       </c>
       <c r="D71" t="n">
-        <v>-4.45</v>
+        <v>0.01</v>
       </c>
       <c r="E71" t="n">
-        <v>2.965</v>
+        <v>1.193</v>
       </c>
     </row>
     <row r="72">
@@ -1677,16 +1799,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-6.33</v>
+        <v>-8.57</v>
       </c>
       <c r="C72" t="n">
-        <v>10.96</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>-5.69</v>
+        <v>0.03</v>
       </c>
       <c r="E72" t="n">
-        <v>3.458</v>
+        <v>0.08399999999999981</v>
       </c>
     </row>
     <row r="73">
@@ -1694,16 +1816,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-7.25</v>
+        <v>-8.73</v>
       </c>
       <c r="C73" t="n">
-        <v>11.98</v>
+        <v>9.4</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.35</v>
+        <v>0.14</v>
       </c>
       <c r="E73" t="n">
-        <v>3.919999999999999</v>
+        <v>-0.8150000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1711,16 +1833,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-8.16</v>
+        <v>-8.76</v>
       </c>
       <c r="C74" t="n">
-        <v>12.91</v>
+        <v>10.41</v>
       </c>
       <c r="D74" t="n">
-        <v>-6.98</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>4.35</v>
+        <v>-1.724</v>
       </c>
     </row>
     <row r="75">
@@ -1728,16 +1850,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-9.050000000000001</v>
+        <v>-8.74</v>
       </c>
       <c r="C75" t="n">
-        <v>13.64</v>
+        <v>11.41</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.52</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>4.672499999999999</v>
+        <v>-2.672999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1745,16 +1867,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-9.960000000000001</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>14.38</v>
+        <v>12.67</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.06</v>
+        <v>-0.05</v>
       </c>
       <c r="E76" t="n">
-        <v>4.989999999999999</v>
+        <v>-3.821999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1762,16 +1884,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-10.91</v>
+        <v>-10.19</v>
       </c>
       <c r="C77" t="n">
-        <v>15.09</v>
+        <v>14.01</v>
       </c>
       <c r="D77" t="n">
-        <v>-8.59</v>
+        <v>-0.34</v>
       </c>
       <c r="E77" t="n">
-        <v>5.234</v>
+        <v>-3.484999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -1779,16 +1901,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-11.85</v>
+        <v>-11.59</v>
       </c>
       <c r="C78" t="n">
-        <v>15.79</v>
+        <v>15.29</v>
       </c>
       <c r="D78" t="n">
-        <v>-9.119999999999999</v>
+        <v>-0.61</v>
       </c>
       <c r="E78" t="n">
-        <v>5.234</v>
+        <v>-3.088</v>
       </c>
     </row>
     <row r="79">
@@ -1796,16 +1918,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-12.8</v>
+        <v>-12.61</v>
       </c>
       <c r="C79" t="n">
-        <v>16.41</v>
+        <v>15.76</v>
       </c>
       <c r="D79" t="n">
-        <v>-9.539999999999999</v>
+        <v>-1.25</v>
       </c>
       <c r="E79" t="n">
-        <v>5.977</v>
+        <v>-1.902</v>
       </c>
     </row>
     <row r="80">
@@ -1813,16 +1935,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-13.73</v>
+        <v>-13.65</v>
       </c>
       <c r="C80" t="n">
-        <v>17.02</v>
+        <v>15.62</v>
       </c>
       <c r="D80" t="n">
-        <v>-9.720000000000001</v>
+        <v>-1.87</v>
       </c>
       <c r="E80" t="n">
-        <v>6.45</v>
+        <v>-0.09900000000000056</v>
       </c>
     </row>
     <row r="81">
@@ -1830,16 +1952,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-14.68</v>
+        <v>-14.63</v>
       </c>
       <c r="C81" t="n">
-        <v>17.56</v>
+        <v>15.17</v>
       </c>
       <c r="D81" t="n">
-        <v>-10.09</v>
+        <v>-2.5</v>
       </c>
       <c r="E81" t="n">
-        <v>7.219999999999999</v>
+        <v>1.984</v>
       </c>
     </row>
     <row r="82">
@@ -1847,16 +1969,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-15.64</v>
+        <v>-15.57</v>
       </c>
       <c r="C82" t="n">
-        <v>18.09</v>
+        <v>14.66</v>
       </c>
       <c r="D82" t="n">
-        <v>-10.14</v>
+        <v>-3.12</v>
       </c>
       <c r="E82" t="n">
-        <v>7.69</v>
+        <v>4.067</v>
       </c>
     </row>
     <row r="83">
@@ -1864,16 +1986,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-15.77</v>
+        <v>-16.4</v>
       </c>
       <c r="C83" t="n">
-        <v>17.91</v>
+        <v>14.14</v>
       </c>
       <c r="D83" t="n">
-        <v>-10.32</v>
+        <v>-3.74</v>
       </c>
       <c r="E83" t="n">
-        <v>8.18</v>
+        <v>6.050000000000002</v>
       </c>
     </row>
     <row r="84">
@@ -1881,16 +2003,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-15.87</v>
+        <v>-17.27</v>
       </c>
       <c r="C84" t="n">
-        <v>17.78</v>
+        <v>13.64</v>
       </c>
       <c r="D84" t="n">
-        <v>-10.5</v>
+        <v>-4.34</v>
       </c>
       <c r="E84" t="n">
-        <v>8.59</v>
+        <v>8.043000000000003</v>
       </c>
     </row>
     <row r="85">
@@ -1898,16 +2020,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-15.67</v>
+        <v>-18.18</v>
       </c>
       <c r="C85" t="n">
-        <v>17.66</v>
+        <v>13.03</v>
       </c>
       <c r="D85" t="n">
-        <v>-10.63</v>
+        <v>-4.79</v>
       </c>
       <c r="E85" t="n">
-        <v>8.630000000000001</v>
+        <v>10.036</v>
       </c>
     </row>
     <row r="86">
@@ -1915,16 +2037,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-15.36</v>
+        <v>-19</v>
       </c>
       <c r="C86" t="n">
-        <v>17.53</v>
+        <v>12.15</v>
       </c>
       <c r="D86" t="n">
-        <v>-10.75</v>
+        <v>-5.14</v>
       </c>
       <c r="E86" t="n">
-        <v>8.580000000000002</v>
+        <v>12.109</v>
       </c>
     </row>
     <row r="87">
@@ -1932,16 +2054,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-15.03</v>
+        <v>-18.47</v>
       </c>
       <c r="C87" t="n">
-        <v>17.84</v>
+        <v>11.25</v>
       </c>
       <c r="D87" t="n">
-        <v>-11.19</v>
+        <v>-5.42</v>
       </c>
       <c r="E87" t="n">
-        <v>8.390000000000001</v>
+        <v>12.776</v>
       </c>
     </row>
     <row r="88">
@@ -1949,16 +2071,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-14.72</v>
+        <v>-17.95</v>
       </c>
       <c r="C88" t="n">
-        <v>18.16</v>
+        <v>10.46</v>
       </c>
       <c r="D88" t="n">
-        <v>-11.65</v>
+        <v>-5.73</v>
       </c>
       <c r="E88" t="n">
-        <v>8.209999999999999</v>
+        <v>13.383</v>
       </c>
     </row>
     <row r="89">
@@ -1966,16 +2088,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-14.43</v>
+        <v>-17.81</v>
       </c>
       <c r="C89" t="n">
-        <v>18.48</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>-12.27</v>
+        <v>-5.54</v>
       </c>
       <c r="E89" t="n">
-        <v>8.209999999999997</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="90">
@@ -1983,16 +2105,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-14.08</v>
+        <v>-17.67</v>
       </c>
       <c r="C90" t="n">
-        <v>18.74</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>-12.79</v>
+        <v>-5.42</v>
       </c>
       <c r="E90" t="n">
-        <v>8.129999999999999</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="91">
@@ -2000,16 +2122,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-13.65</v>
+        <v>-17.6</v>
       </c>
       <c r="C91" t="n">
-        <v>19.06</v>
+        <v>9.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-13.25</v>
+        <v>-5.25</v>
       </c>
       <c r="E91" t="n">
-        <v>7.839999999999999</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="92">
@@ -2017,16 +2139,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-13.4</v>
+        <v>-17.58</v>
       </c>
       <c r="C92" t="n">
-        <v>19.68</v>
+        <v>8.83</v>
       </c>
       <c r="D92" t="n">
-        <v>-13.79</v>
+        <v>-5.04</v>
       </c>
       <c r="E92" t="n">
-        <v>7.510000000000001</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="93">
@@ -2034,16 +2156,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-13.05</v>
+        <v>-17.61</v>
       </c>
       <c r="C93" t="n">
-        <v>20.17</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>-14.22</v>
+        <v>-4.82</v>
       </c>
       <c r="E93" t="n">
-        <v>7.1</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="94">
@@ -2051,16 +2173,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-12.74</v>
+        <v>-17.63</v>
       </c>
       <c r="C94" t="n">
-        <v>20.67</v>
+        <v>8.43</v>
       </c>
       <c r="D94" t="n">
-        <v>-14.18</v>
+        <v>-4.59</v>
       </c>
       <c r="E94" t="n">
-        <v>6.254</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="95">
@@ -2068,16 +2190,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-12.72</v>
+        <v>-17.7</v>
       </c>
       <c r="C95" t="n">
-        <v>21.15</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>-14.17</v>
+        <v>-4.56</v>
       </c>
       <c r="E95" t="n">
-        <v>5.738</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="96">
@@ -2085,16 +2207,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-12.19</v>
+        <v>-17.71</v>
       </c>
       <c r="C96" t="n">
-        <v>21.65</v>
+        <v>8.48</v>
       </c>
       <c r="D96" t="n">
-        <v>-14.14</v>
+        <v>-4.55</v>
       </c>
       <c r="E96" t="n">
-        <v>4.680000000000001</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="97">
@@ -2102,16 +2224,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-11.76</v>
+        <v>-17.94</v>
       </c>
       <c r="C97" t="n">
-        <v>21.63</v>
+        <v>8.49</v>
       </c>
       <c r="D97" t="n">
-        <v>-13.48</v>
+        <v>-4.34</v>
       </c>
       <c r="E97" t="n">
-        <v>3.602</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="98">
@@ -2119,16 +2241,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-11.36</v>
+        <v>-18.15</v>
       </c>
       <c r="C98" t="n">
-        <v>21.54</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>-12.7</v>
+        <v>-4.1</v>
       </c>
       <c r="E98" t="n">
-        <v>2.514</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="99">
@@ -2136,16 +2258,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-12.41</v>
+        <v>-18.54</v>
       </c>
       <c r="C99" t="n">
-        <v>21.52</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>-11.91</v>
+        <v>-3.8</v>
       </c>
       <c r="E99" t="n">
-        <v>2.801</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="100">
@@ -2153,16 +2275,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-14.19</v>
+        <v>-18.92</v>
       </c>
       <c r="C100" t="n">
-        <v>21.47</v>
+        <v>8.52</v>
       </c>
       <c r="D100" t="n">
-        <v>-10.36</v>
+        <v>-3.43</v>
       </c>
       <c r="E100" t="n">
-        <v>3.078</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="101">
@@ -2170,16 +2292,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-15.96</v>
+        <v>-19.3</v>
       </c>
       <c r="C101" t="n">
-        <v>21.41</v>
+        <v>8.4</v>
       </c>
       <c r="D101" t="n">
-        <v>-9.01</v>
+        <v>-3.09</v>
       </c>
       <c r="E101" t="n">
-        <v>3.56</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="102">
@@ -2187,16 +2309,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-17.73</v>
+        <v>-19.24</v>
       </c>
       <c r="C102" t="n">
-        <v>21.06</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.65</v>
+        <v>-2.79</v>
       </c>
       <c r="E102" t="n">
-        <v>4.312</v>
+        <v>13.843</v>
       </c>
     </row>
     <row r="103">
@@ -2204,16 +2326,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-19.51</v>
+        <v>-19.17</v>
       </c>
       <c r="C103" t="n">
-        <v>20.7</v>
+        <v>8.25</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.33</v>
+        <v>-2.47</v>
       </c>
       <c r="E103" t="n">
-        <v>5.144</v>
+        <v>13.496</v>
       </c>
     </row>
     <row r="104">
@@ -2221,16 +2343,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-21.37</v>
+        <v>-19.12</v>
       </c>
       <c r="C104" t="n">
-        <v>20.28</v>
+        <v>8.19</v>
       </c>
       <c r="D104" t="n">
-        <v>-5.32</v>
+        <v>-2.16</v>
       </c>
       <c r="E104" t="n">
-        <v>6.411999999999999</v>
+        <v>13.169</v>
       </c>
     </row>
     <row r="105">
@@ -2238,16 +2360,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-23.45</v>
+        <v>-18.99</v>
       </c>
       <c r="C105" t="n">
-        <v>19.79</v>
+        <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>-3.92</v>
+        <v>-1.79</v>
       </c>
       <c r="E105" t="n">
-        <v>7.577999999999999</v>
+        <v>12.842</v>
       </c>
     </row>
     <row r="106">
@@ -2255,16 +2377,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-26.17</v>
+        <v>-18.93</v>
       </c>
       <c r="C106" t="n">
-        <v>19.55</v>
+        <v>8.76</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.51</v>
+        <v>-1.41</v>
       </c>
       <c r="E106" t="n">
-        <v>9.135999999999999</v>
+        <v>11.615</v>
       </c>
     </row>
     <row r="107">
@@ -2272,16 +2394,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-28.86</v>
+        <v>-18.69</v>
       </c>
       <c r="C107" t="n">
-        <v>19.63</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.57</v>
+        <v>-1.22</v>
       </c>
       <c r="E107" t="n">
-        <v>10.794</v>
+        <v>10.378</v>
       </c>
     </row>
     <row r="108">
@@ -2289,16 +2411,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-31.53</v>
+        <v>-18.43</v>
       </c>
       <c r="C108" t="n">
-        <v>19.54</v>
+        <v>10.33</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.4</v>
+        <v>-1.04</v>
       </c>
       <c r="E108" t="n">
-        <v>12.402</v>
+        <v>9.141</v>
       </c>
     </row>
     <row r="109">
@@ -2306,16 +2428,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-32.01</v>
+        <v>-18</v>
       </c>
       <c r="C109" t="n">
-        <v>19.01</v>
+        <v>11.11</v>
       </c>
       <c r="D109" t="n">
-        <v>0.76</v>
+        <v>-1.04</v>
       </c>
       <c r="E109" t="n">
-        <v>12.243</v>
+        <v>7.934</v>
       </c>
     </row>
     <row r="110">
@@ -2323,16 +2445,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-29.3</v>
+        <v>-17.57</v>
       </c>
       <c r="C110" t="n">
-        <v>16.33</v>
+        <v>11.91</v>
       </c>
       <c r="D110" t="n">
-        <v>1.02</v>
+        <v>-1.04</v>
       </c>
       <c r="E110" t="n">
-        <v>11.95</v>
+        <v>6.697</v>
       </c>
     </row>
     <row r="111">
@@ -2340,16 +2462,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-25.92</v>
+        <v>-17.15</v>
       </c>
       <c r="C111" t="n">
-        <v>13.59</v>
+        <v>12.83</v>
       </c>
       <c r="D111" t="n">
-        <v>1.2</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>11.127</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="112">
@@ -2357,16 +2479,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-22.37</v>
+        <v>-17.25</v>
       </c>
       <c r="C112" t="n">
-        <v>11.1</v>
+        <v>13.76</v>
       </c>
       <c r="D112" t="n">
-        <v>1.17</v>
+        <v>-0.92</v>
       </c>
       <c r="E112" t="n">
-        <v>10.094</v>
+        <v>4.410000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -2374,16 +2496,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-18.89</v>
+        <v>-17.41</v>
       </c>
       <c r="C113" t="n">
-        <v>8.56</v>
+        <v>14.62</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14</v>
+        <v>-0.82</v>
       </c>
       <c r="E113" t="n">
-        <v>9.190999999999999</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="114">
@@ -2391,16 +2513,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-15.52</v>
+        <v>-17.59</v>
       </c>
       <c r="C114" t="n">
-        <v>6.1</v>
+        <v>15.5</v>
       </c>
       <c r="D114" t="n">
-        <v>1.62</v>
+        <v>-0.6</v>
       </c>
       <c r="E114" t="n">
-        <v>7.816</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="115">
@@ -2408,16 +2530,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-11.95</v>
+        <v>-17.8</v>
       </c>
       <c r="C115" t="n">
-        <v>3.71</v>
+        <v>16.16</v>
       </c>
       <c r="D115" t="n">
-        <v>1.75</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>6.532999999999999</v>
+        <v>1.705</v>
       </c>
     </row>
     <row r="116">
@@ -2425,16 +2547,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-8.16</v>
+        <v>-18.02</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05</v>
+        <v>15.9</v>
       </c>
       <c r="D116" t="n">
-        <v>1.86</v>
+        <v>0.78</v>
       </c>
       <c r="E116" t="n">
-        <v>5.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="117">
@@ -2442,16 +2564,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-4.6</v>
+        <v>-18.01</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.44</v>
+        <v>15.57</v>
       </c>
       <c r="D117" t="n">
-        <v>2.11</v>
+        <v>1.61</v>
       </c>
       <c r="E117" t="n">
-        <v>3.967</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="118">
@@ -2459,16 +2581,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.33</v>
+        <v>-18.04</v>
       </c>
       <c r="C118" t="n">
-        <v>-3.71</v>
+        <v>15.25</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8</v>
+        <v>2.43</v>
       </c>
       <c r="E118" t="n">
-        <v>4.279</v>
+        <v>0.3560000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -2476,16 +2598,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.56</v>
+        <v>-18.12</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.6</v>
+        <v>14.94</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.66</v>
+        <v>3.37</v>
       </c>
       <c r="E119" t="n">
-        <v>4.743</v>
+        <v>-0.1910000000000003</v>
       </c>
     </row>
     <row r="120">
@@ -2493,16 +2615,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.97</v>
+        <v>-18.19</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.23</v>
+        <v>14.61</v>
       </c>
       <c r="D120" t="n">
-        <v>-2.96</v>
+        <v>4.35</v>
       </c>
       <c r="E120" t="n">
-        <v>6.258</v>
+        <v>-0.7580000000000002</v>
       </c>
     </row>
     <row r="121">
@@ -2510,16 +2632,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.72</v>
+        <v>-18.25</v>
       </c>
       <c r="C121" t="n">
-        <v>-4.78</v>
+        <v>13.95</v>
       </c>
       <c r="D121" t="n">
-        <v>-4.96</v>
+        <v>5.64</v>
       </c>
       <c r="E121" t="n">
-        <v>8.068</v>
+        <v>-1.345</v>
       </c>
     </row>
     <row r="122">
@@ -2527,16 +2649,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.42</v>
+        <v>-18.42</v>
       </c>
       <c r="C122" t="n">
-        <v>-4.59</v>
+        <v>13.29</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.75</v>
+        <v>7.78</v>
       </c>
       <c r="E122" t="n">
-        <v>9.954999999999998</v>
+        <v>-2.652</v>
       </c>
     </row>
     <row r="123">
@@ -2544,16 +2666,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.04</v>
+        <v>-18.53</v>
       </c>
       <c r="C123" t="n">
-        <v>-4.34</v>
+        <v>12.57</v>
       </c>
       <c r="D123" t="n">
-        <v>-8.550000000000001</v>
+        <v>10.15</v>
       </c>
       <c r="E123" t="n">
-        <v>11.882</v>
+        <v>-4.199</v>
       </c>
     </row>
     <row r="124">
@@ -2561,16 +2683,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.87</v>
+        <v>-18.62</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.09</v>
+        <v>11.83</v>
       </c>
       <c r="D124" t="n">
-        <v>-11.04</v>
+        <v>12.45</v>
       </c>
       <c r="E124" t="n">
-        <v>14.281</v>
+        <v>-5.666</v>
       </c>
     </row>
     <row r="125">
@@ -2578,16 +2700,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.72</v>
+        <v>-18.7</v>
       </c>
       <c r="C125" t="n">
-        <v>-3.84</v>
+        <v>11.32</v>
       </c>
       <c r="D125" t="n">
-        <v>-13.55</v>
+        <v>14.36</v>
       </c>
       <c r="E125" t="n">
-        <v>16.66999999999999</v>
+        <v>-6.978000000000002</v>
       </c>
     </row>
     <row r="126">
@@ -2595,16 +2717,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.34</v>
+        <v>-18.78</v>
       </c>
       <c r="C126" t="n">
-        <v>-3.59</v>
+        <v>10.83</v>
       </c>
       <c r="D126" t="n">
-        <v>-16.03</v>
+        <v>15.94</v>
       </c>
       <c r="E126" t="n">
-        <v>19.279</v>
+        <v>-7.909999999999999</v>
       </c>
     </row>
     <row r="127">
@@ -2612,16 +2734,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.27</v>
+        <v>-19.97</v>
       </c>
       <c r="C127" t="n">
-        <v>-3.73</v>
+        <v>10.31</v>
       </c>
       <c r="D127" t="n">
-        <v>-18.51</v>
+        <v>17.46</v>
       </c>
       <c r="E127" t="n">
-        <v>21.968</v>
+        <v>-7.734999999999999</v>
       </c>
     </row>
     <row r="128">
@@ -2629,16 +2751,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.49</v>
+        <v>-21.02</v>
       </c>
       <c r="C128" t="n">
-        <v>-3.85</v>
+        <v>9.74</v>
       </c>
       <c r="D128" t="n">
-        <v>-19.75</v>
+        <v>19</v>
       </c>
       <c r="E128" t="n">
-        <v>23.112</v>
+        <v>-7.646999999999998</v>
       </c>
     </row>
     <row r="129">
@@ -2646,16 +2768,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.08</v>
+        <v>-22.03</v>
       </c>
       <c r="C129" t="n">
-        <v>-3.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>-20.78</v>
+        <v>20.41</v>
       </c>
       <c r="E129" t="n">
-        <v>24.611</v>
+        <v>-7.419</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2663,16 +2788,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.39</v>
+        <v>-23.05</v>
       </c>
       <c r="C130" t="n">
-        <v>-3.99</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>-20.82</v>
+        <v>21.8</v>
       </c>
       <c r="E130" t="n">
-        <v>25.203</v>
+        <v>-7.200999999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2680,16 +2808,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.89</v>
+        <v>-24.07</v>
       </c>
       <c r="C131" t="n">
-        <v>-4.08</v>
+        <v>10.13</v>
       </c>
       <c r="D131" t="n">
-        <v>-20.83</v>
+        <v>22.73</v>
       </c>
       <c r="E131" t="n">
-        <v>25.79499999999999</v>
+        <v>-8.715999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.2333333333333333</v>
       </c>
     </row>
     <row r="132">
@@ -2697,16 +2828,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.33</v>
+        <v>-24.89</v>
       </c>
       <c r="C132" t="n">
-        <v>-4.15</v>
+        <v>11.73</v>
       </c>
       <c r="D132" t="n">
-        <v>-20.92</v>
+        <v>22.98</v>
       </c>
       <c r="E132" t="n">
-        <v>26.4</v>
+        <v>-9.671000000000003</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.375</v>
       </c>
     </row>
     <row r="133">
@@ -2714,16 +2848,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.7</v>
+        <v>-25.7</v>
       </c>
       <c r="C133" t="n">
-        <v>-4.49</v>
+        <v>13.32</v>
       </c>
       <c r="D133" t="n">
-        <v>-20.94</v>
+        <v>22.99</v>
       </c>
       <c r="E133" t="n">
-        <v>27.13</v>
+        <v>-10.376</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="134">
@@ -2731,16 +2868,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-2.28</v>
+        <v>-26.63</v>
       </c>
       <c r="C134" t="n">
-        <v>-4.86</v>
+        <v>14.92</v>
       </c>
       <c r="D134" t="n">
-        <v>-20.71</v>
+        <v>23.08</v>
       </c>
       <c r="E134" t="n">
-        <v>27.85</v>
+        <v>-11.061</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.5166666666666667</v>
       </c>
     </row>
     <row r="135">
@@ -2748,16 +2888,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-2.89</v>
+        <v>-27.58</v>
       </c>
       <c r="C135" t="n">
-        <v>-5.17</v>
+        <v>16.52</v>
       </c>
       <c r="D135" t="n">
-        <v>-20.49</v>
+        <v>23.29</v>
       </c>
       <c r="E135" t="n">
-        <v>28.54</v>
+        <v>-11.836</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="136">
@@ -2765,16 +2908,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-3.5</v>
+        <v>-28.51</v>
       </c>
       <c r="C136" t="n">
-        <v>-5.45</v>
+        <v>17.88</v>
       </c>
       <c r="D136" t="n">
-        <v>-19.5</v>
+        <v>23.98</v>
       </c>
       <c r="E136" t="n">
-        <v>28.45</v>
+        <v>-12.711</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-1.25875</v>
       </c>
     </row>
     <row r="137">
@@ -2782,16 +2928,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-4.13</v>
+        <v>-28</v>
       </c>
       <c r="C137" t="n">
-        <v>-5.74</v>
+        <v>18.85</v>
       </c>
       <c r="D137" t="n">
-        <v>-18.53</v>
+        <v>24.69</v>
       </c>
       <c r="E137" t="n">
-        <v>28.4</v>
+        <v>-14.541</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-1.337777777777778</v>
       </c>
     </row>
     <row r="138">
@@ -2799,16 +2948,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-4.75</v>
+        <v>-27.65</v>
       </c>
       <c r="C138" t="n">
-        <v>-6.06</v>
+        <v>19.83</v>
       </c>
       <c r="D138" t="n">
-        <v>-17.55</v>
+        <v>25.35</v>
       </c>
       <c r="E138" t="n">
-        <v>28.36</v>
+        <v>-16.314</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-1.401</v>
       </c>
     </row>
     <row r="139">
@@ -2816,16 +2968,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-5.1</v>
+        <v>-27.3</v>
       </c>
       <c r="C139" t="n">
-        <v>-6.38</v>
+        <v>20.64</v>
       </c>
       <c r="D139" t="n">
-        <v>-16.57</v>
+        <v>26.23</v>
       </c>
       <c r="E139" t="n">
-        <v>28.055</v>
+        <v>-18.167</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-1.401</v>
       </c>
     </row>
     <row r="140">
@@ -2833,16 +2988,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.25</v>
+        <v>-27.02</v>
       </c>
       <c r="C140" t="n">
-        <v>-6.76</v>
+        <v>21.52</v>
       </c>
       <c r="D140" t="n">
-        <v>-15.76</v>
+        <v>27.11</v>
       </c>
       <c r="E140" t="n">
-        <v>27.76</v>
+        <v>-20</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-1.618</v>
       </c>
     </row>
     <row r="141">
@@ -2850,16 +3008,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-5.38</v>
+        <v>-26.19</v>
       </c>
       <c r="C141" t="n">
-        <v>-7.13</v>
+        <v>20.48</v>
       </c>
       <c r="D141" t="n">
-        <v>-14.93</v>
+        <v>28.01</v>
       </c>
       <c r="E141" t="n">
-        <v>27.445</v>
+        <v>-20</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-2.29</v>
       </c>
     </row>
     <row r="142">
@@ -2867,16 +3028,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-5.5</v>
+        <v>-25.42</v>
       </c>
       <c r="C142" t="n">
-        <v>-7.53</v>
+        <v>19.42</v>
       </c>
       <c r="D142" t="n">
-        <v>-14.29</v>
+        <v>28.76</v>
       </c>
       <c r="E142" t="n">
-        <v>27.32</v>
+        <v>-20</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-2.752</v>
       </c>
     </row>
     <row r="143">
@@ -2884,16 +3048,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-5.14</v>
+        <v>-24.49</v>
       </c>
       <c r="C143" t="n">
-        <v>-8.07</v>
+        <v>18.35</v>
       </c>
       <c r="D143" t="n">
-        <v>-13.63</v>
+        <v>29.35</v>
       </c>
       <c r="E143" t="n">
-        <v>26.84</v>
+        <v>-20</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-3.204</v>
       </c>
     </row>
     <row r="144">
@@ -2901,16 +3068,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-4.62</v>
+        <v>-23.45</v>
       </c>
       <c r="C144" t="n">
-        <v>-8.59</v>
+        <v>17.32</v>
       </c>
       <c r="D144" t="n">
-        <v>-13.16</v>
+        <v>29.8</v>
       </c>
       <c r="E144" t="n">
-        <v>26.37</v>
+        <v>-20</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-3.676</v>
       </c>
     </row>
     <row r="145">
@@ -2918,16 +3088,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-4.08</v>
+        <v>-22.25</v>
       </c>
       <c r="C145" t="n">
-        <v>-8.9</v>
+        <v>16.25</v>
       </c>
       <c r="D145" t="n">
-        <v>-12.69</v>
+        <v>30.16</v>
       </c>
       <c r="E145" t="n">
-        <v>25.67</v>
+        <v>-20</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-4.158</v>
       </c>
     </row>
     <row r="146">
@@ -2935,16 +3108,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-3.53</v>
+        <v>-21.03</v>
       </c>
       <c r="C146" t="n">
-        <v>-9.24</v>
+        <v>15.43</v>
       </c>
       <c r="D146" t="n">
-        <v>-12.91</v>
+        <v>30.03</v>
       </c>
       <c r="E146" t="n">
-        <v>25.67</v>
+        <v>-20</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-4.42</v>
       </c>
     </row>
     <row r="147">
@@ -2952,16 +3128,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-3.43</v>
+        <v>-20.34</v>
       </c>
       <c r="C147" t="n">
-        <v>-9.619999999999999</v>
+        <v>15.04</v>
       </c>
       <c r="D147" t="n">
-        <v>-12.58</v>
+        <v>29.95</v>
       </c>
       <c r="E147" t="n">
-        <v>25.63</v>
+        <v>-20</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-4.645</v>
       </c>
     </row>
     <row r="148">
@@ -2969,16 +3148,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-3.42</v>
+        <v>-19.59</v>
       </c>
       <c r="C148" t="n">
-        <v>-9.81</v>
+        <v>14.8</v>
       </c>
       <c r="D148" t="n">
-        <v>-12.32</v>
+        <v>29.87</v>
       </c>
       <c r="E148" t="n">
-        <v>25.55</v>
+        <v>-20</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-5.069999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -2986,16 +3168,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-3.06</v>
+        <v>-18.84</v>
       </c>
       <c r="C149" t="n">
-        <v>-10.03</v>
+        <v>14.71</v>
       </c>
       <c r="D149" t="n">
-        <v>-12.34</v>
+        <v>29.64</v>
       </c>
       <c r="E149" t="n">
-        <v>25.42</v>
+        <v>-20</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-5.505</v>
       </c>
     </row>
     <row r="150">
@@ -3003,16 +3188,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.83</v>
+        <v>-18.13</v>
       </c>
       <c r="C150" t="n">
-        <v>-10.35</v>
+        <v>14.38</v>
       </c>
       <c r="D150" t="n">
-        <v>-12.29</v>
+        <v>29.39</v>
       </c>
       <c r="E150" t="n">
-        <v>25.47</v>
+        <v>-20</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-5.65</v>
       </c>
     </row>
     <row r="151">
@@ -3020,16 +3208,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-2.68</v>
+        <v>-17.97</v>
       </c>
       <c r="C151" t="n">
-        <v>-10.38</v>
+        <v>14.07</v>
       </c>
       <c r="D151" t="n">
-        <v>-12.48</v>
+        <v>29.11</v>
       </c>
       <c r="E151" t="n">
-        <v>25.54</v>
+        <v>-20</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-5.2</v>
       </c>
     </row>
     <row r="152">
@@ -3037,16 +3228,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-3.18</v>
+        <v>-17.83</v>
       </c>
       <c r="C152" t="n">
-        <v>-10.38</v>
+        <v>13.93</v>
       </c>
       <c r="D152" t="n">
-        <v>-13.05</v>
+        <v>28.81</v>
       </c>
       <c r="E152" t="n">
-        <v>26.61</v>
+        <v>-20</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-4.91</v>
       </c>
     </row>
     <row r="153">
@@ -3054,16 +3248,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-4.15</v>
+        <v>-18.05</v>
       </c>
       <c r="C153" t="n">
-        <v>-10.33</v>
+        <v>14.15</v>
       </c>
       <c r="D153" t="n">
-        <v>-13.63</v>
+        <v>28.53</v>
       </c>
       <c r="E153" t="n">
-        <v>28.119</v>
+        <v>-20</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-4.63</v>
       </c>
     </row>
     <row r="154">
@@ -3071,16 +3268,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-5.08</v>
+        <v>-18.36</v>
       </c>
       <c r="C154" t="n">
-        <v>-10.28</v>
+        <v>14.33</v>
       </c>
       <c r="D154" t="n">
-        <v>-14.25</v>
+        <v>28.2</v>
       </c>
       <c r="E154" t="n">
-        <v>29.608</v>
+        <v>-20</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-4.17</v>
       </c>
     </row>
     <row r="155">
@@ -3088,16 +3288,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-6.09</v>
+        <v>-18.8</v>
       </c>
       <c r="C155" t="n">
-        <v>-10.49</v>
+        <v>14.6</v>
       </c>
       <c r="D155" t="n">
-        <v>-14.76</v>
+        <v>27.9</v>
       </c>
       <c r="E155" t="n">
-        <v>31.347</v>
+        <v>-20</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-3.7</v>
       </c>
     </row>
     <row r="156">
@@ -3105,16 +3308,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-7.08</v>
+        <v>-19.27</v>
       </c>
       <c r="C156" t="n">
-        <v>-10.69</v>
+        <v>14.86</v>
       </c>
       <c r="D156" t="n">
-        <v>-15.38</v>
+        <v>27.66</v>
       </c>
       <c r="E156" t="n">
-        <v>33.146</v>
+        <v>-20</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-3.25</v>
       </c>
     </row>
     <row r="157">
@@ -3122,16 +3328,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-7.62</v>
+        <v>-19.78</v>
       </c>
       <c r="C157" t="n">
-        <v>-10.73</v>
+        <v>15.14</v>
       </c>
       <c r="D157" t="n">
-        <v>-16.53</v>
+        <v>27.66</v>
       </c>
       <c r="E157" t="n">
-        <v>34.88500000000001</v>
+        <v>-20</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-3.02</v>
       </c>
     </row>
     <row r="158">
@@ -3139,16 +3348,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-7.51</v>
+        <v>-20.31</v>
       </c>
       <c r="C158" t="n">
-        <v>-11.02</v>
+        <v>15.39</v>
       </c>
       <c r="D158" t="n">
-        <v>-18.08</v>
+        <v>27.7</v>
       </c>
       <c r="E158" t="n">
-        <v>36.61400000000001</v>
+        <v>-20</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-2.79</v>
       </c>
     </row>
     <row r="159">
@@ -3156,16 +3368,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-7.21</v>
+        <v>-20.91</v>
       </c>
       <c r="C159" t="n">
-        <v>-11.3</v>
+        <v>15.7</v>
       </c>
       <c r="D159" t="n">
-        <v>-19.41</v>
+        <v>27.77</v>
       </c>
       <c r="E159" t="n">
-        <v>37.924</v>
+        <v>-20</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-2.55</v>
       </c>
     </row>
     <row r="160">
@@ -3173,16 +3388,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-7</v>
+        <v>-21.17</v>
       </c>
       <c r="C160" t="n">
-        <v>-11.39</v>
+        <v>16.12</v>
       </c>
       <c r="D160" t="n">
-        <v>-20.64</v>
+        <v>27.65</v>
       </c>
       <c r="E160" t="n">
-        <v>39.03400000000001</v>
+        <v>-20</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="161">
@@ -3190,16 +3408,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-7.56</v>
+        <v>-21.41</v>
       </c>
       <c r="C161" t="n">
-        <v>-11.84</v>
+        <v>16.61</v>
       </c>
       <c r="D161" t="n">
-        <v>-20.67</v>
+        <v>27.61</v>
       </c>
       <c r="E161" t="n">
-        <v>40.072</v>
+        <v>-20</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-2.8</v>
       </c>
     </row>
     <row r="162">
@@ -3207,16 +3428,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-7.47</v>
+        <v>-21.64</v>
       </c>
       <c r="C162" t="n">
-        <v>-12.95</v>
+        <v>16.93</v>
       </c>
       <c r="D162" t="n">
-        <v>-20.09</v>
+        <v>27.7</v>
       </c>
       <c r="E162" t="n">
-        <v>40.515</v>
+        <v>-20</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-2.98</v>
       </c>
     </row>
     <row r="163">
@@ -3224,16 +3448,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-7.29</v>
+        <v>-21.9</v>
       </c>
       <c r="C163" t="n">
-        <v>-13.73</v>
+        <v>16.96</v>
       </c>
       <c r="D163" t="n">
-        <v>-19.52</v>
+        <v>27.84</v>
       </c>
       <c r="E163" t="n">
-        <v>40.544</v>
+        <v>-20</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-2.900000000000001</v>
       </c>
     </row>
     <row r="164">
@@ -3241,16 +3468,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-6.74</v>
+        <v>-22.07</v>
       </c>
       <c r="C164" t="n">
-        <v>-14.52</v>
+        <v>17.01</v>
       </c>
       <c r="D164" t="n">
-        <v>-19.33</v>
+        <v>28.07</v>
       </c>
       <c r="E164" t="n">
-        <v>40.593</v>
+        <v>-20</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="165">
@@ -3258,16 +3488,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-6.03</v>
+        <v>-22.26</v>
       </c>
       <c r="C165" t="n">
-        <v>-15.32</v>
+        <v>16.93</v>
       </c>
       <c r="D165" t="n">
-        <v>-19.24</v>
+        <v>28.31</v>
       </c>
       <c r="E165" t="n">
-        <v>40.58200000000001</v>
+        <v>-20</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-2.98</v>
       </c>
     </row>
     <row r="166">
@@ -3275,16 +3508,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-5.33</v>
+        <v>-22.46</v>
       </c>
       <c r="C166" t="n">
-        <v>-15.88</v>
+        <v>17.02</v>
       </c>
       <c r="D166" t="n">
-        <v>-19.33</v>
+        <v>28.51</v>
       </c>
       <c r="E166" t="n">
-        <v>40.551</v>
+        <v>-20</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-3.07</v>
       </c>
     </row>
     <row r="167">
@@ -3292,16 +3528,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-4.66</v>
+        <v>-22.65</v>
       </c>
       <c r="C167" t="n">
-        <v>-17.65</v>
+        <v>17.21</v>
       </c>
       <c r="D167" t="n">
-        <v>-18.19</v>
+        <v>28.38</v>
       </c>
       <c r="E167" t="n">
-        <v>40.5</v>
+        <v>-20</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-2.94</v>
       </c>
     </row>
     <row r="168">
@@ -3309,16 +3548,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-7.72</v>
+        <v>-22.82</v>
       </c>
       <c r="C168" t="n">
-        <v>-21.43</v>
+        <v>17.38</v>
       </c>
       <c r="D168" t="n">
-        <v>-11.25</v>
+        <v>28.25</v>
       </c>
       <c r="E168" t="n">
-        <v>40.399</v>
+        <v>-20</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-2.81</v>
       </c>
     </row>
     <row r="169">
@@ -3326,16 +3568,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-11.3</v>
+        <v>-22.98</v>
       </c>
       <c r="C169" t="n">
-        <v>-25.2</v>
+        <v>17.58</v>
       </c>
       <c r="D169" t="n">
-        <v>-4.25</v>
+        <v>28.01</v>
       </c>
       <c r="E169" t="n">
-        <v>40.747</v>
+        <v>-20</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-2.615</v>
       </c>
     </row>
     <row r="170">
@@ -3343,16 +3588,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-15.14</v>
+        <v>-23.37</v>
       </c>
       <c r="C170" t="n">
-        <v>-28.98</v>
+        <v>17.98</v>
       </c>
       <c r="D170" t="n">
-        <v>3.02</v>
+        <v>27.79</v>
       </c>
       <c r="E170" t="n">
-        <v>41.095</v>
+        <v>-20</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-2.4</v>
       </c>
     </row>
     <row r="171">
@@ -3360,16 +3608,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-18.13</v>
+        <v>-23.76</v>
       </c>
       <c r="C171" t="n">
-        <v>-32.67</v>
+        <v>18.4</v>
       </c>
       <c r="D171" t="n">
-        <v>9.220000000000001</v>
+        <v>27.56</v>
       </c>
       <c r="E171" t="n">
-        <v>41.585</v>
+        <v>-20</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-2.195</v>
       </c>
     </row>
     <row r="172">
@@ -3377,16 +3628,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-21.13</v>
+        <v>-24.1</v>
       </c>
       <c r="C172" t="n">
-        <v>-35.71</v>
+        <v>18.8</v>
       </c>
       <c r="D172" t="n">
-        <v>15.3</v>
+        <v>27.25</v>
       </c>
       <c r="E172" t="n">
-        <v>41.54</v>
+        <v>-20</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1.95</v>
       </c>
     </row>
     <row r="173">
@@ -3394,16 +3648,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-24.15</v>
+        <v>-24.25</v>
       </c>
       <c r="C173" t="n">
-        <v>-38.71</v>
+        <v>19.06</v>
       </c>
       <c r="D173" t="n">
-        <v>21.34</v>
+        <v>27.15</v>
       </c>
       <c r="E173" t="n">
-        <v>41.52</v>
+        <v>-20</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-1.955</v>
       </c>
     </row>
     <row r="174">
@@ -3411,16 +3668,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-27.61</v>
+        <v>-24.04</v>
       </c>
       <c r="C174" t="n">
-        <v>-41.71</v>
+        <v>19.28</v>
       </c>
       <c r="D174" t="n">
-        <v>27.9</v>
+        <v>26.7</v>
       </c>
       <c r="E174" t="n">
-        <v>41.42</v>
+        <v>-20</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-1.94</v>
       </c>
     </row>
     <row r="175">
@@ -3428,16 +3688,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-31.24</v>
+        <v>-23.75</v>
       </c>
       <c r="C175" t="n">
-        <v>-44.69</v>
+        <v>19.59</v>
       </c>
       <c r="D175" t="n">
-        <v>34.41</v>
+        <v>26.23</v>
       </c>
       <c r="E175" t="n">
-        <v>41.52</v>
+        <v>-20</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-2.065</v>
       </c>
     </row>
     <row r="176">
@@ -3445,16 +3708,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-34.94</v>
+        <v>-23.46</v>
       </c>
       <c r="C176" t="n">
-        <v>-47.91</v>
+        <v>19.74</v>
       </c>
       <c r="D176" t="n">
-        <v>40.76</v>
+        <v>25.76</v>
       </c>
       <c r="E176" t="n">
-        <v>42.08</v>
+        <v>-20</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-2.04</v>
       </c>
     </row>
     <row r="177">
@@ -3462,16 +3728,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-38.68</v>
+        <v>-23.21</v>
       </c>
       <c r="C177" t="n">
-        <v>-50</v>
+        <v>19.79</v>
       </c>
       <c r="D177" t="n">
-        <v>45.7</v>
+        <v>25.36</v>
       </c>
       <c r="E177" t="n">
-        <v>42.975</v>
+        <v>-20</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-1.94</v>
       </c>
     </row>
     <row r="178">
@@ -3479,16 +3748,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-39.31</v>
+        <v>-22.97</v>
       </c>
       <c r="C178" t="n">
-        <v>-50</v>
+        <v>19.87</v>
       </c>
       <c r="D178" t="n">
-        <v>45.31</v>
+        <v>24.93</v>
       </c>
       <c r="E178" t="n">
-        <v>43.997</v>
+        <v>-20</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="179">
@@ -3496,16 +3768,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-41.76</v>
+        <v>-22.67</v>
       </c>
       <c r="C179" t="n">
-        <v>-50</v>
+        <v>19.92</v>
       </c>
       <c r="D179" t="n">
-        <v>44.92</v>
+        <v>24.68</v>
       </c>
       <c r="E179" t="n">
-        <v>46.836</v>
+        <v>-20</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-1.928</v>
       </c>
     </row>
     <row r="180">
@@ -3513,16 +3788,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-43.86</v>
+        <v>-22.36</v>
       </c>
       <c r="C180" t="n">
-        <v>-50</v>
+        <v>19.88</v>
       </c>
       <c r="D180" t="n">
-        <v>44.71</v>
+        <v>24.57</v>
       </c>
       <c r="E180" t="n">
-        <v>49.15499999999999</v>
+        <v>-20</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-2.086</v>
       </c>
     </row>
     <row r="181">
@@ -3530,16 +3808,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-45.96</v>
+        <v>-21.95</v>
       </c>
       <c r="C181" t="n">
-        <v>-50</v>
+        <v>19.81</v>
       </c>
       <c r="D181" t="n">
-        <v>44.5</v>
+        <v>24.38</v>
       </c>
       <c r="E181" t="n">
-        <v>51.46400000000001</v>
+        <v>-20</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-2.244</v>
       </c>
     </row>
     <row r="182">
@@ -3547,16 +3828,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-48.05</v>
+        <v>-21.54</v>
       </c>
       <c r="C182" t="n">
-        <v>-50</v>
+        <v>19.82</v>
       </c>
       <c r="D182" t="n">
-        <v>43.95</v>
+        <v>24.17</v>
       </c>
       <c r="E182" t="n">
-        <v>54.10299999999999</v>
+        <v>-20</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-2.442</v>
       </c>
     </row>
     <row r="183">
@@ -3564,16 +3848,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-50.23</v>
+        <v>-21.08</v>
       </c>
       <c r="C183" t="n">
-        <v>-50</v>
+        <v>19.92</v>
       </c>
       <c r="D183" t="n">
-        <v>43.49</v>
+        <v>23.59</v>
       </c>
       <c r="E183" t="n">
-        <v>56.73199999999999</v>
+        <v>-20</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-2.425</v>
       </c>
     </row>
     <row r="184">
@@ -3581,16 +3868,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-52.32</v>
+        <v>-20.68</v>
       </c>
       <c r="C184" t="n">
-        <v>-50</v>
+        <v>19.74</v>
       </c>
       <c r="D184" t="n">
-        <v>42.82</v>
+        <v>23.35</v>
       </c>
       <c r="E184" t="n">
-        <v>59.501</v>
+        <v>-20</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-2.418</v>
       </c>
     </row>
     <row r="185">
@@ -3598,16 +3888,419 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-54.35</v>
+        <v>-20.34</v>
       </c>
       <c r="C185" t="n">
-        <v>-50</v>
+        <v>19.56</v>
       </c>
       <c r="D185" t="n">
-        <v>42.4</v>
+        <v>23.12</v>
       </c>
       <c r="E185" t="n">
-        <v>61.95</v>
+        <v>-20</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-2.341</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-20.01</v>
+      </c>
+      <c r="C186" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="D186" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-2.264</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-18.76</v>
+      </c>
+      <c r="C187" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="D187" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-3.087</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="D188" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-3.919999999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-16.26</v>
+      </c>
+      <c r="C189" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="D189" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-5.615</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-15.03</v>
+      </c>
+      <c r="C190" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="D190" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-7.260000000000001</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-14.17</v>
+      </c>
+      <c r="C191" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="D191" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-8.885000000000002</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-13.32</v>
+      </c>
+      <c r="C192" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="D192" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-10.45</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-12.47</v>
+      </c>
+      <c r="C193" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="D193" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-12.25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-14</v>
+      </c>
+      <c r="C194" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="D194" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-11.86</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-15.51</v>
+      </c>
+      <c r="C195" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="D195" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-11.54</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-16.76</v>
+      </c>
+      <c r="C196" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="D196" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-11.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="D197" t="n">
+        <v>31.64</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-10.41</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-22.39</v>
+      </c>
+      <c r="C198" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="D198" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-9.52</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-25.86</v>
+      </c>
+      <c r="C199" t="n">
+        <v>19</v>
+      </c>
+      <c r="D199" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-7.605</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-29.4</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-6.14</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-32.68</v>
+      </c>
+      <c r="C201" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="D201" t="n">
+        <v>38.39</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-4.695</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-35.94</v>
+      </c>
+      <c r="C202" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="D202" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-39.19</v>
+      </c>
+      <c r="C203" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="D203" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-1.945</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-40.49</v>
+      </c>
+      <c r="C204" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="D204" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-6.164999999999999</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-41.79</v>
+      </c>
+      <c r="C205" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="D205" t="n">
+        <v>53.18</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-10.365</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$205</f>
+              <f>'data'!$B$2:$B$185</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$205</f>
+              <f>'data'!$C$2:$C$185</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$205</f>
+              <f>'data'!$D$2:$D$185</f>
             </numRef>
           </val>
         </ser>
@@ -275,34 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$205</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$205</f>
+              <f>'data'!$E$2:$E$185</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,11 +679,6 @@
           <t>Scott</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Regan</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -731,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>-0.05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -745,13 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.47</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="5">
@@ -759,13 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>-0.73</v>
       </c>
       <c r="C5" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.93</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="6">
@@ -773,13 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.52</v>
+        <v>-0.97</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08</v>
+        <v>1.44</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.6</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="7">
@@ -787,13 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>-1.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08</v>
+        <v>2.15</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.08</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="8">
@@ -801,13 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.31</v>
+        <v>-1.71</v>
       </c>
       <c r="C8" t="n">
-        <v>0.14</v>
+        <v>2.65</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.46</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -815,13 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.54</v>
+        <v>-1.96</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>3.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.64</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="10">
@@ -829,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.71</v>
+        <v>-2.17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09</v>
+        <v>3.24</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.8</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="11">
@@ -843,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.95</v>
+        <v>-2.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06</v>
+        <v>3.41</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.01</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="12">
@@ -857,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.95</v>
+        <v>-2.31</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06</v>
+        <v>3.41</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.01</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="13">
@@ -871,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.48</v>
+        <v>-1.96</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02</v>
+        <v>3.76</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.5</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="14">
@@ -885,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.02</v>
+        <v>-1.63</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04</v>
+        <v>4.12</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.98</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="15">
@@ -899,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.52</v>
+        <v>-1.07</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.07000000000000001</v>
+        <v>4.24</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.45</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="16">
@@ -913,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.66</v>
+        <v>-0.52</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1</v>
+        <v>4.38</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.56</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="17">
@@ -927,13 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.35</v>
+        <v>0.06</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.22</v>
+        <v>4.71</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.13</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="18">
@@ -941,13 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.16</v>
+        <v>0.4</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.48</v>
+        <v>5.17</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.68</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="19">
@@ -955,13 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.01</v>
+        <v>0.77</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.8</v>
+        <v>5.62</v>
       </c>
       <c r="D19" t="n">
-        <v>-9.210000000000001</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="20">
@@ -969,13 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.82</v>
+        <v>1.1</v>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>5.9</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.82</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="21">
@@ -983,13 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13.33</v>
+        <v>1.22</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.92</v>
+        <v>6.24</v>
       </c>
       <c r="D21" t="n">
-        <v>-12.41</v>
+        <v>-7.46</v>
       </c>
     </row>
     <row r="22">
@@ -997,13 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.72</v>
+        <v>1.32</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8</v>
+        <v>6.59</v>
       </c>
       <c r="D22" t="n">
-        <v>-13.92</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="23">
@@ -1011,13 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16.09</v>
+        <v>0.86</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.64</v>
+        <v>7.01</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.45</v>
+        <v>-7.87</v>
       </c>
     </row>
     <row r="24">
@@ -1025,13 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17.48</v>
+        <v>0.23</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.47</v>
+        <v>6.99</v>
       </c>
       <c r="D24" t="n">
-        <v>-17.01</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="25">
@@ -1039,13 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18.9</v>
+        <v>-0.53</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3</v>
+        <v>6.97</v>
       </c>
       <c r="D25" t="n">
-        <v>-18.6</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="26">
@@ -1053,13 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.33</v>
+        <v>-1.28</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.09</v>
+        <v>6.91</v>
       </c>
       <c r="D26" t="n">
-        <v>-20.24</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="27">
@@ -1067,13 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.3</v>
+        <v>-2.02</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04</v>
+        <v>6.71</v>
       </c>
       <c r="D27" t="n">
-        <v>-20.35</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="28">
@@ -1081,13 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20.26</v>
+        <v>-2.36</v>
       </c>
       <c r="C28" t="n">
-        <v>0.25</v>
+        <v>6.07</v>
       </c>
       <c r="D28" t="n">
-        <v>-20.51</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="29">
@@ -1095,13 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20.2</v>
+        <v>-2.63</v>
       </c>
       <c r="C29" t="n">
-        <v>0.49</v>
+        <v>5.42</v>
       </c>
       <c r="D29" t="n">
-        <v>-20.69</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="30">
@@ -1109,13 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20.06</v>
+        <v>-2.92</v>
       </c>
       <c r="C30" t="n">
-        <v>0.89</v>
+        <v>4.87</v>
       </c>
       <c r="D30" t="n">
-        <v>-20.95</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="31">
@@ -1123,13 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.21</v>
+        <v>-2.98</v>
       </c>
       <c r="C31" t="n">
-        <v>0.99</v>
+        <v>4.32</v>
       </c>
       <c r="D31" t="n">
-        <v>-21.21</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="32">
@@ -1137,13 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20.34</v>
+        <v>-3.24</v>
       </c>
       <c r="C32" t="n">
-        <v>1.14</v>
+        <v>3.96</v>
       </c>
       <c r="D32" t="n">
-        <v>-21.49</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="33">
@@ -1151,13 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20.49</v>
+        <v>-3.63</v>
       </c>
       <c r="C33" t="n">
-        <v>1.27</v>
+        <v>3.74</v>
       </c>
       <c r="D33" t="n">
-        <v>-21.77</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="34">
@@ -1165,13 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20.73</v>
+        <v>-3.77</v>
       </c>
       <c r="C34" t="n">
-        <v>1.39</v>
+        <v>3.95</v>
       </c>
       <c r="D34" t="n">
-        <v>-22.11</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="35">
@@ -1179,13 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>-4.4</v>
       </c>
       <c r="C35" t="n">
-        <v>1.44</v>
+        <v>4.73</v>
       </c>
       <c r="D35" t="n">
-        <v>-22.43</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="36">
@@ -1193,13 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21.08</v>
+        <v>-4.84</v>
       </c>
       <c r="C36" t="n">
-        <v>1.66</v>
+        <v>5.51</v>
       </c>
       <c r="D36" t="n">
-        <v>-22.74</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.61</v>
+        <v>-5.28</v>
       </c>
       <c r="C37" t="n">
-        <v>1.69</v>
+        <v>6.22</v>
       </c>
       <c r="D37" t="n">
-        <v>-22.3</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="38">
@@ -1221,16 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.1</v>
+        <v>-5.49</v>
       </c>
       <c r="C38" t="n">
-        <v>1.77</v>
+        <v>6.76</v>
       </c>
       <c r="D38" t="n">
-        <v>-21.87</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="39">
@@ -1238,16 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19.41</v>
+        <v>-5.83</v>
       </c>
       <c r="C39" t="n">
-        <v>1.83</v>
+        <v>7.42</v>
       </c>
       <c r="D39" t="n">
-        <v>-21.23</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.05</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="40">
@@ -1255,16 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18.83</v>
+        <v>-6.12</v>
       </c>
       <c r="C40" t="n">
-        <v>1.69</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>-20.52</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.1333333333333333</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="41">
@@ -1272,16 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18.26</v>
+        <v>-6.4</v>
       </c>
       <c r="C41" t="n">
-        <v>1.51</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>-19.81</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.175</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="42">
@@ -1289,16 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17.74</v>
+        <v>-6.39</v>
       </c>
       <c r="C42" t="n">
-        <v>1.26</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>-19.08</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-1.32</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="43">
@@ -1306,16 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17.2</v>
+        <v>-6.37</v>
       </c>
       <c r="C43" t="n">
-        <v>1.79</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>-18.32</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-2.333333333333333</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="44">
@@ -1323,16 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16.58</v>
+        <v>-6.42</v>
       </c>
       <c r="C44" t="n">
-        <v>2.31</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>-17.49</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-3.171428571428571</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="45">
@@ -1340,16 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16.42</v>
+        <v>-5.81</v>
       </c>
       <c r="C45" t="n">
-        <v>2.44</v>
+        <v>9.69</v>
       </c>
       <c r="D45" t="n">
-        <v>-16.64</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-3.881249999999999</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="46">
@@ -1357,16 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16.22</v>
+        <v>-5.4</v>
       </c>
       <c r="C46" t="n">
-        <v>2.66</v>
+        <v>9.48</v>
       </c>
       <c r="D46" t="n">
-        <v>-15.77</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-4.444444444444445</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="47">
@@ -1374,16 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16.25</v>
+        <v>-4.98</v>
       </c>
       <c r="C47" t="n">
-        <v>3.4</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>-15.65</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-4.895</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="48">
@@ -1391,16 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16.22</v>
+        <v>-4.87</v>
       </c>
       <c r="C48" t="n">
-        <v>4.15</v>
+        <v>9.34</v>
       </c>
       <c r="D48" t="n">
-        <v>-15.47</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-4.895</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="49">
@@ -1408,16 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16.35</v>
+        <v>-4.73</v>
       </c>
       <c r="C49" t="n">
-        <v>4.89</v>
+        <v>9.32</v>
       </c>
       <c r="D49" t="n">
-        <v>-15.47</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-5.77</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="50">
@@ -1425,16 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.36</v>
+        <v>-5</v>
       </c>
       <c r="C50" t="n">
-        <v>5.58</v>
+        <v>9.31</v>
       </c>
       <c r="D50" t="n">
-        <v>-15.47</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-5.473</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="51">
@@ -1442,16 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.37</v>
+        <v>-5.3</v>
       </c>
       <c r="C51" t="n">
-        <v>6.28</v>
+        <v>9.26</v>
       </c>
       <c r="D51" t="n">
-        <v>-15.46</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-5.196</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="52">
@@ -1459,16 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.36</v>
+        <v>-5.72</v>
       </c>
       <c r="C52" t="n">
-        <v>6.97</v>
+        <v>9.32</v>
       </c>
       <c r="D52" t="n">
-        <v>-15.41</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-4.918999999999999</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="53">
@@ -1476,16 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.34</v>
+        <v>-6.13</v>
       </c>
       <c r="C53" t="n">
-        <v>6.89</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>-15.33</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-3.902</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="54">
@@ -1493,16 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.11</v>
+        <v>-6.56</v>
       </c>
       <c r="C54" t="n">
-        <v>7.2</v>
+        <v>9.08</v>
       </c>
       <c r="D54" t="n">
-        <v>-15.25</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-3.06</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="55">
@@ -1510,16 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.43</v>
+        <v>-7.01</v>
       </c>
       <c r="C55" t="n">
-        <v>7.9</v>
+        <v>8.73</v>
       </c>
       <c r="D55" t="n">
-        <v>-15.19</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-2.137999999999999</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="56">
@@ -1527,16 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.9</v>
+        <v>-7.49</v>
       </c>
       <c r="C56" t="n">
-        <v>7.44</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>-15.19</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-0.1509999999999998</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="57">
@@ -1544,16 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.79</v>
+        <v>-7.95</v>
       </c>
       <c r="C57" t="n">
-        <v>6.8</v>
+        <v>7.97</v>
       </c>
       <c r="D57" t="n">
-        <v>-15.21</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2.616</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="58">
@@ -1561,16 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.67</v>
+        <v>-8.33</v>
       </c>
       <c r="C58" t="n">
-        <v>6.19</v>
+        <v>7.5</v>
       </c>
       <c r="D58" t="n">
-        <v>-15.23</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5.373</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="59">
@@ -1578,16 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.57</v>
+        <v>-9.08</v>
       </c>
       <c r="C59" t="n">
-        <v>5.56</v>
+        <v>7.48</v>
       </c>
       <c r="D59" t="n">
-        <v>-13.65</v>
-      </c>
-      <c r="E59" t="n">
-        <v>6.523000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="60">
@@ -1595,16 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.58</v>
+        <v>-9.41</v>
       </c>
       <c r="C60" t="n">
-        <v>5.12</v>
+        <v>7.44</v>
       </c>
       <c r="D60" t="n">
-        <v>-12.09</v>
-      </c>
-      <c r="E60" t="n">
-        <v>6.391</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="61">
@@ -1612,16 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.43</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>4.69</v>
+        <v>7.43</v>
       </c>
       <c r="D61" t="n">
-        <v>-10.55</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6.289</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="62">
@@ -1629,16 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.59</v>
+        <v>-10.05</v>
       </c>
       <c r="C62" t="n">
-        <v>4.26</v>
+        <v>7.44</v>
       </c>
       <c r="D62" t="n">
-        <v>-9.07</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6.407000000000001</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="63">
@@ -1646,16 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2.86</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>4.16</v>
+        <v>7.42</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.73</v>
-      </c>
-      <c r="E63" t="n">
-        <v>6.435</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="64">
@@ -1663,16 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-4.02</v>
+        <v>-9.51</v>
       </c>
       <c r="C64" t="n">
-        <v>3.61</v>
+        <v>7.8</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.24</v>
-      </c>
-      <c r="E64" t="n">
-        <v>6.647999999999999</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="65">
@@ -1680,16 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.23</v>
+        <v>-9.33</v>
       </c>
       <c r="C65" t="n">
-        <v>3.07</v>
+        <v>8.42</v>
       </c>
       <c r="D65" t="n">
-        <v>-4.74</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6.900999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="66">
@@ -1697,16 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-6.38</v>
+        <v>-9.09</v>
       </c>
       <c r="C66" t="n">
-        <v>3.39</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>-3.28</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6.274</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1714,16 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-6.8</v>
+        <v>-8.85</v>
       </c>
       <c r="C67" t="n">
-        <v>3.65</v>
+        <v>9.68</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4.797</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="68">
@@ -1731,16 +1609,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-7.2</v>
+        <v>-8.6</v>
       </c>
       <c r="C68" t="n">
-        <v>3.9</v>
+        <v>10.3</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.03</v>
+        <v>-1.64</v>
       </c>
       <c r="E68" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1748,16 +1626,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-7.61</v>
+        <v>-7.96</v>
       </c>
       <c r="C69" t="n">
-        <v>4.96</v>
+        <v>10.45</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01</v>
+        <v>-2.41</v>
       </c>
       <c r="E69" t="n">
-        <v>2.661</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="70">
@@ -1765,16 +1643,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-8</v>
+        <v>-7.38</v>
       </c>
       <c r="C70" t="n">
-        <v>5.92</v>
+        <v>10.62</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>-3.48</v>
       </c>
       <c r="E70" t="n">
-        <v>2.082</v>
+        <v>2.076666666666667</v>
       </c>
     </row>
     <row r="71">
@@ -1782,16 +1660,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-8.380000000000001</v>
+        <v>-6.86</v>
       </c>
       <c r="C71" t="n">
-        <v>7.18</v>
+        <v>10.8</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01</v>
+        <v>-4.45</v>
       </c>
       <c r="E71" t="n">
-        <v>1.193</v>
+        <v>2.965</v>
       </c>
     </row>
     <row r="72">
@@ -1799,16 +1677,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-8.57</v>
+        <v>-6.33</v>
       </c>
       <c r="C72" t="n">
-        <v>8.460000000000001</v>
+        <v>10.96</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03</v>
+        <v>-5.69</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08399999999999981</v>
+        <v>3.458</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1694,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-8.73</v>
+        <v>-7.25</v>
       </c>
       <c r="C73" t="n">
-        <v>9.4</v>
+        <v>11.98</v>
       </c>
       <c r="D73" t="n">
-        <v>0.14</v>
+        <v>-6.35</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8150000000000001</v>
+        <v>3.919999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1833,16 +1711,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-8.76</v>
+        <v>-8.16</v>
       </c>
       <c r="C74" t="n">
-        <v>10.41</v>
+        <v>12.91</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07000000000000001</v>
+        <v>-6.98</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.724</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="75">
@@ -1850,16 +1728,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-8.74</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>11.41</v>
+        <v>13.64</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-7.52</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.672999999999999</v>
+        <v>4.672499999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1867,16 +1745,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>12.67</v>
+        <v>14.38</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.05</v>
+        <v>-8.06</v>
       </c>
       <c r="E76" t="n">
-        <v>-3.821999999999999</v>
+        <v>4.989999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1884,16 +1762,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-10.19</v>
+        <v>-10.91</v>
       </c>
       <c r="C77" t="n">
-        <v>14.01</v>
+        <v>15.09</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.34</v>
+        <v>-8.59</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.484999999999999</v>
+        <v>5.234</v>
       </c>
     </row>
     <row r="78">
@@ -1901,16 +1779,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-11.59</v>
+        <v>-11.85</v>
       </c>
       <c r="C78" t="n">
-        <v>15.29</v>
+        <v>15.79</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.61</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>-3.088</v>
+        <v>5.234</v>
       </c>
     </row>
     <row r="79">
@@ -1918,16 +1796,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-12.61</v>
+        <v>-12.8</v>
       </c>
       <c r="C79" t="n">
-        <v>15.76</v>
+        <v>16.41</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.25</v>
+        <v>-9.539999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.902</v>
+        <v>5.977</v>
       </c>
     </row>
     <row r="80">
@@ -1935,16 +1813,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-13.65</v>
+        <v>-13.73</v>
       </c>
       <c r="C80" t="n">
-        <v>15.62</v>
+        <v>17.02</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.87</v>
+        <v>-9.720000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.09900000000000056</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="81">
@@ -1952,16 +1830,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-14.63</v>
+        <v>-14.68</v>
       </c>
       <c r="C81" t="n">
-        <v>15.17</v>
+        <v>17.56</v>
       </c>
       <c r="D81" t="n">
-        <v>-2.5</v>
+        <v>-10.09</v>
       </c>
       <c r="E81" t="n">
-        <v>1.984</v>
+        <v>7.219999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1969,16 +1847,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-15.57</v>
+        <v>-15.64</v>
       </c>
       <c r="C82" t="n">
-        <v>14.66</v>
+        <v>18.09</v>
       </c>
       <c r="D82" t="n">
-        <v>-3.12</v>
+        <v>-10.14</v>
       </c>
       <c r="E82" t="n">
-        <v>4.067</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="83">
@@ -1986,16 +1864,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-16.4</v>
+        <v>-15.77</v>
       </c>
       <c r="C83" t="n">
-        <v>14.14</v>
+        <v>17.91</v>
       </c>
       <c r="D83" t="n">
-        <v>-3.74</v>
+        <v>-10.32</v>
       </c>
       <c r="E83" t="n">
-        <v>6.050000000000002</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="84">
@@ -2003,16 +1881,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-17.27</v>
+        <v>-15.87</v>
       </c>
       <c r="C84" t="n">
-        <v>13.64</v>
+        <v>17.78</v>
       </c>
       <c r="D84" t="n">
-        <v>-4.34</v>
+        <v>-10.5</v>
       </c>
       <c r="E84" t="n">
-        <v>8.043000000000003</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="85">
@@ -2020,16 +1898,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-18.18</v>
+        <v>-15.67</v>
       </c>
       <c r="C85" t="n">
-        <v>13.03</v>
+        <v>17.66</v>
       </c>
       <c r="D85" t="n">
-        <v>-4.79</v>
+        <v>-10.63</v>
       </c>
       <c r="E85" t="n">
-        <v>10.036</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -2037,16 +1915,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-19</v>
+        <v>-15.36</v>
       </c>
       <c r="C86" t="n">
-        <v>12.15</v>
+        <v>17.53</v>
       </c>
       <c r="D86" t="n">
-        <v>-5.14</v>
+        <v>-10.75</v>
       </c>
       <c r="E86" t="n">
-        <v>12.109</v>
+        <v>8.580000000000002</v>
       </c>
     </row>
     <row r="87">
@@ -2054,16 +1932,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-18.47</v>
+        <v>-15.03</v>
       </c>
       <c r="C87" t="n">
-        <v>11.25</v>
+        <v>17.84</v>
       </c>
       <c r="D87" t="n">
-        <v>-5.42</v>
+        <v>-11.19</v>
       </c>
       <c r="E87" t="n">
-        <v>12.776</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -2071,16 +1949,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-17.95</v>
+        <v>-14.72</v>
       </c>
       <c r="C88" t="n">
-        <v>10.46</v>
+        <v>18.16</v>
       </c>
       <c r="D88" t="n">
-        <v>-5.73</v>
+        <v>-11.65</v>
       </c>
       <c r="E88" t="n">
-        <v>13.383</v>
+        <v>8.209999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2088,16 +1966,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-17.81</v>
+        <v>-14.43</v>
       </c>
       <c r="C89" t="n">
-        <v>9.539999999999999</v>
+        <v>18.48</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.54</v>
+        <v>-12.27</v>
       </c>
       <c r="E89" t="n">
-        <v>13.99</v>
+        <v>8.209999999999997</v>
       </c>
     </row>
     <row r="90">
@@ -2105,16 +1983,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-17.67</v>
+        <v>-14.08</v>
       </c>
       <c r="C90" t="n">
-        <v>9.300000000000001</v>
+        <v>18.74</v>
       </c>
       <c r="D90" t="n">
-        <v>-5.42</v>
+        <v>-12.79</v>
       </c>
       <c r="E90" t="n">
-        <v>13.99</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -2122,16 +2000,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-17.6</v>
+        <v>-13.65</v>
       </c>
       <c r="C91" t="n">
-        <v>9.06</v>
+        <v>19.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.25</v>
+        <v>-13.25</v>
       </c>
       <c r="E91" t="n">
-        <v>13.99</v>
+        <v>7.839999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -2139,16 +2017,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-17.58</v>
+        <v>-13.4</v>
       </c>
       <c r="C92" t="n">
-        <v>8.83</v>
+        <v>19.68</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.04</v>
+        <v>-13.79</v>
       </c>
       <c r="E92" t="n">
-        <v>13.99</v>
+        <v>7.510000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2156,16 +2034,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-17.61</v>
+        <v>-13.05</v>
       </c>
       <c r="C93" t="n">
-        <v>8.640000000000001</v>
+        <v>20.17</v>
       </c>
       <c r="D93" t="n">
-        <v>-4.82</v>
+        <v>-14.22</v>
       </c>
       <c r="E93" t="n">
-        <v>13.99</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="94">
@@ -2173,16 +2051,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-17.63</v>
+        <v>-12.74</v>
       </c>
       <c r="C94" t="n">
-        <v>8.43</v>
+        <v>20.67</v>
       </c>
       <c r="D94" t="n">
-        <v>-4.59</v>
+        <v>-14.18</v>
       </c>
       <c r="E94" t="n">
-        <v>13.99</v>
+        <v>6.254</v>
       </c>
     </row>
     <row r="95">
@@ -2190,16 +2068,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-17.7</v>
+        <v>-12.72</v>
       </c>
       <c r="C95" t="n">
-        <v>8.460000000000001</v>
+        <v>21.15</v>
       </c>
       <c r="D95" t="n">
-        <v>-4.56</v>
+        <v>-14.17</v>
       </c>
       <c r="E95" t="n">
-        <v>13.99</v>
+        <v>5.738</v>
       </c>
     </row>
     <row r="96">
@@ -2207,16 +2085,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-17.71</v>
+        <v>-12.19</v>
       </c>
       <c r="C96" t="n">
-        <v>8.48</v>
+        <v>21.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.55</v>
+        <v>-14.14</v>
       </c>
       <c r="E96" t="n">
-        <v>13.99</v>
+        <v>4.680000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2224,16 +2102,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-17.94</v>
+        <v>-11.76</v>
       </c>
       <c r="C97" t="n">
-        <v>8.49</v>
+        <v>21.63</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.34</v>
+        <v>-13.48</v>
       </c>
       <c r="E97" t="n">
-        <v>13.99</v>
+        <v>3.602</v>
       </c>
     </row>
     <row r="98">
@@ -2241,16 +2119,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-18.15</v>
+        <v>-11.36</v>
       </c>
       <c r="C98" t="n">
-        <v>8.460000000000001</v>
+        <v>21.54</v>
       </c>
       <c r="D98" t="n">
-        <v>-4.1</v>
+        <v>-12.7</v>
       </c>
       <c r="E98" t="n">
-        <v>13.99</v>
+        <v>2.514</v>
       </c>
     </row>
     <row r="99">
@@ -2258,16 +2136,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-18.54</v>
+        <v>-12.41</v>
       </c>
       <c r="C99" t="n">
-        <v>8.550000000000001</v>
+        <v>21.52</v>
       </c>
       <c r="D99" t="n">
-        <v>-3.8</v>
+        <v>-11.91</v>
       </c>
       <c r="E99" t="n">
-        <v>13.97</v>
+        <v>2.801</v>
       </c>
     </row>
     <row r="100">
@@ -2275,16 +2153,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-18.92</v>
+        <v>-14.19</v>
       </c>
       <c r="C100" t="n">
-        <v>8.52</v>
+        <v>21.47</v>
       </c>
       <c r="D100" t="n">
-        <v>-3.43</v>
+        <v>-10.36</v>
       </c>
       <c r="E100" t="n">
-        <v>13.99</v>
+        <v>3.078</v>
       </c>
     </row>
     <row r="101">
@@ -2292,16 +2170,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-19.3</v>
+        <v>-15.96</v>
       </c>
       <c r="C101" t="n">
-        <v>8.4</v>
+        <v>21.41</v>
       </c>
       <c r="D101" t="n">
-        <v>-3.09</v>
+        <v>-9.01</v>
       </c>
       <c r="E101" t="n">
-        <v>14.13</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="102">
@@ -2309,16 +2187,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-19.24</v>
+        <v>-17.73</v>
       </c>
       <c r="C102" t="n">
-        <v>8.300000000000001</v>
+        <v>21.06</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.79</v>
+        <v>-7.65</v>
       </c>
       <c r="E102" t="n">
-        <v>13.843</v>
+        <v>4.312</v>
       </c>
     </row>
     <row r="103">
@@ -2326,16 +2204,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-19.17</v>
+        <v>-19.51</v>
       </c>
       <c r="C103" t="n">
-        <v>8.25</v>
+        <v>20.7</v>
       </c>
       <c r="D103" t="n">
-        <v>-2.47</v>
+        <v>-6.33</v>
       </c>
       <c r="E103" t="n">
-        <v>13.496</v>
+        <v>5.144</v>
       </c>
     </row>
     <row r="104">
@@ -2343,16 +2221,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-19.12</v>
+        <v>-21.37</v>
       </c>
       <c r="C104" t="n">
-        <v>8.19</v>
+        <v>20.28</v>
       </c>
       <c r="D104" t="n">
-        <v>-2.16</v>
+        <v>-5.32</v>
       </c>
       <c r="E104" t="n">
-        <v>13.169</v>
+        <v>6.411999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -2360,16 +2238,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-18.99</v>
+        <v>-23.45</v>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>19.79</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.79</v>
+        <v>-3.92</v>
       </c>
       <c r="E105" t="n">
-        <v>12.842</v>
+        <v>7.577999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -2377,16 +2255,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-18.93</v>
+        <v>-26.17</v>
       </c>
       <c r="C106" t="n">
-        <v>8.76</v>
+        <v>19.55</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.41</v>
+        <v>-2.51</v>
       </c>
       <c r="E106" t="n">
-        <v>11.615</v>
+        <v>9.135999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -2394,16 +2272,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-18.69</v>
+        <v>-28.86</v>
       </c>
       <c r="C107" t="n">
-        <v>9.550000000000001</v>
+        <v>19.63</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.22</v>
+        <v>-1.57</v>
       </c>
       <c r="E107" t="n">
-        <v>10.378</v>
+        <v>10.794</v>
       </c>
     </row>
     <row r="108">
@@ -2411,16 +2289,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-18.43</v>
+        <v>-31.53</v>
       </c>
       <c r="C108" t="n">
-        <v>10.33</v>
+        <v>19.54</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.04</v>
+        <v>-0.4</v>
       </c>
       <c r="E108" t="n">
-        <v>9.141</v>
+        <v>12.402</v>
       </c>
     </row>
     <row r="109">
@@ -2428,16 +2306,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-18</v>
+        <v>-32.01</v>
       </c>
       <c r="C109" t="n">
-        <v>11.11</v>
+        <v>19.01</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.04</v>
+        <v>0.76</v>
       </c>
       <c r="E109" t="n">
-        <v>7.934</v>
+        <v>12.243</v>
       </c>
     </row>
     <row r="110">
@@ -2445,16 +2323,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-17.57</v>
+        <v>-29.3</v>
       </c>
       <c r="C110" t="n">
-        <v>11.91</v>
+        <v>16.33</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E110" t="n">
-        <v>6.697</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="111">
@@ -2462,16 +2340,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-17.15</v>
+        <v>-25.92</v>
       </c>
       <c r="C111" t="n">
-        <v>12.83</v>
+        <v>13.59</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.9399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="E111" t="n">
-        <v>5.26</v>
+        <v>11.127</v>
       </c>
     </row>
     <row r="112">
@@ -2479,16 +2357,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-17.25</v>
+        <v>-22.37</v>
       </c>
       <c r="C112" t="n">
-        <v>13.76</v>
+        <v>11.1</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.92</v>
+        <v>1.17</v>
       </c>
       <c r="E112" t="n">
-        <v>4.410000000000001</v>
+        <v>10.094</v>
       </c>
     </row>
     <row r="113">
@@ -2496,16 +2374,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-17.41</v>
+        <v>-18.89</v>
       </c>
       <c r="C113" t="n">
-        <v>14.62</v>
+        <v>8.56</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.82</v>
+        <v>1.14</v>
       </c>
       <c r="E113" t="n">
-        <v>3.61</v>
+        <v>9.190999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -2513,16 +2391,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-17.59</v>
+        <v>-15.52</v>
       </c>
       <c r="C114" t="n">
-        <v>15.5</v>
+        <v>6.1</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.6</v>
+        <v>1.62</v>
       </c>
       <c r="E114" t="n">
-        <v>2.69</v>
+        <v>7.816</v>
       </c>
     </row>
     <row r="115">
@@ -2530,16 +2408,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-17.8</v>
+        <v>-11.95</v>
       </c>
       <c r="C115" t="n">
-        <v>16.16</v>
+        <v>3.71</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="E115" t="n">
-        <v>1.705</v>
+        <v>6.532999999999999</v>
       </c>
     </row>
     <row r="116">
@@ -2547,16 +2425,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-18.02</v>
+        <v>-8.16</v>
       </c>
       <c r="C116" t="n">
-        <v>15.9</v>
+        <v>1.05</v>
       </c>
       <c r="D116" t="n">
-        <v>0.78</v>
+        <v>1.86</v>
       </c>
       <c r="E116" t="n">
-        <v>1.34</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="117">
@@ -2564,16 +2442,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-18.01</v>
+        <v>-4.6</v>
       </c>
       <c r="C117" t="n">
-        <v>15.57</v>
+        <v>-1.44</v>
       </c>
       <c r="D117" t="n">
-        <v>1.61</v>
+        <v>2.11</v>
       </c>
       <c r="E117" t="n">
-        <v>0.833</v>
+        <v>3.967</v>
       </c>
     </row>
     <row r="118">
@@ -2581,16 +2459,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-18.04</v>
+        <v>-1.33</v>
       </c>
       <c r="C118" t="n">
-        <v>15.25</v>
+        <v>-3.71</v>
       </c>
       <c r="D118" t="n">
-        <v>2.43</v>
+        <v>0.8</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3560000000000001</v>
+        <v>4.279</v>
       </c>
     </row>
     <row r="119">
@@ -2598,16 +2476,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-18.12</v>
+        <v>1.56</v>
       </c>
       <c r="C119" t="n">
-        <v>14.94</v>
+        <v>-5.6</v>
       </c>
       <c r="D119" t="n">
-        <v>3.37</v>
+        <v>-0.66</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.1910000000000003</v>
+        <v>4.743</v>
       </c>
     </row>
     <row r="120">
@@ -2615,16 +2493,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-18.19</v>
+        <v>1.97</v>
       </c>
       <c r="C120" t="n">
-        <v>14.61</v>
+        <v>-5.23</v>
       </c>
       <c r="D120" t="n">
-        <v>4.35</v>
+        <v>-2.96</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.7580000000000002</v>
+        <v>6.258</v>
       </c>
     </row>
     <row r="121">
@@ -2632,16 +2510,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-18.25</v>
+        <v>1.72</v>
       </c>
       <c r="C121" t="n">
-        <v>13.95</v>
+        <v>-4.78</v>
       </c>
       <c r="D121" t="n">
-        <v>5.64</v>
+        <v>-4.96</v>
       </c>
       <c r="E121" t="n">
-        <v>-1.345</v>
+        <v>8.068</v>
       </c>
     </row>
     <row r="122">
@@ -2649,16 +2527,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-18.42</v>
+        <v>1.42</v>
       </c>
       <c r="C122" t="n">
-        <v>13.29</v>
+        <v>-4.59</v>
       </c>
       <c r="D122" t="n">
-        <v>7.78</v>
+        <v>-6.75</v>
       </c>
       <c r="E122" t="n">
-        <v>-2.652</v>
+        <v>9.954999999999998</v>
       </c>
     </row>
     <row r="123">
@@ -2666,16 +2544,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-18.53</v>
+        <v>1.04</v>
       </c>
       <c r="C123" t="n">
-        <v>12.57</v>
+        <v>-4.34</v>
       </c>
       <c r="D123" t="n">
-        <v>10.15</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>-4.199</v>
+        <v>11.882</v>
       </c>
     </row>
     <row r="124">
@@ -2683,16 +2561,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-18.62</v>
+        <v>0.87</v>
       </c>
       <c r="C124" t="n">
-        <v>11.83</v>
+        <v>-4.09</v>
       </c>
       <c r="D124" t="n">
-        <v>12.45</v>
+        <v>-11.04</v>
       </c>
       <c r="E124" t="n">
-        <v>-5.666</v>
+        <v>14.281</v>
       </c>
     </row>
     <row r="125">
@@ -2700,16 +2578,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-18.7</v>
+        <v>0.72</v>
       </c>
       <c r="C125" t="n">
-        <v>11.32</v>
+        <v>-3.84</v>
       </c>
       <c r="D125" t="n">
-        <v>14.36</v>
+        <v>-13.55</v>
       </c>
       <c r="E125" t="n">
-        <v>-6.978000000000002</v>
+        <v>16.66999999999999</v>
       </c>
     </row>
     <row r="126">
@@ -2717,16 +2595,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-18.78</v>
+        <v>0.34</v>
       </c>
       <c r="C126" t="n">
-        <v>10.83</v>
+        <v>-3.59</v>
       </c>
       <c r="D126" t="n">
-        <v>15.94</v>
+        <v>-16.03</v>
       </c>
       <c r="E126" t="n">
-        <v>-7.909999999999999</v>
+        <v>19.279</v>
       </c>
     </row>
     <row r="127">
@@ -2734,16 +2612,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-19.97</v>
+        <v>0.27</v>
       </c>
       <c r="C127" t="n">
-        <v>10.31</v>
+        <v>-3.73</v>
       </c>
       <c r="D127" t="n">
-        <v>17.46</v>
+        <v>-18.51</v>
       </c>
       <c r="E127" t="n">
-        <v>-7.734999999999999</v>
+        <v>21.968</v>
       </c>
     </row>
     <row r="128">
@@ -2751,16 +2629,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-21.02</v>
+        <v>0.49</v>
       </c>
       <c r="C128" t="n">
-        <v>9.74</v>
+        <v>-3.85</v>
       </c>
       <c r="D128" t="n">
-        <v>19</v>
+        <v>-19.75</v>
       </c>
       <c r="E128" t="n">
-        <v>-7.646999999999998</v>
+        <v>23.112</v>
       </c>
     </row>
     <row r="129">
@@ -2768,19 +2646,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-22.03</v>
+        <v>0.08</v>
       </c>
       <c r="C129" t="n">
-        <v>9.109999999999999</v>
+        <v>-3.91</v>
       </c>
       <c r="D129" t="n">
-        <v>20.41</v>
+        <v>-20.78</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.419</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0</v>
+        <v>24.611</v>
       </c>
     </row>
     <row r="130">
@@ -2788,19 +2663,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-23.05</v>
+        <v>-0.39</v>
       </c>
       <c r="C130" t="n">
-        <v>8.529999999999999</v>
+        <v>-3.99</v>
       </c>
       <c r="D130" t="n">
-        <v>21.8</v>
+        <v>-20.82</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.200999999999999</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0</v>
+        <v>25.203</v>
       </c>
     </row>
     <row r="131">
@@ -2808,19 +2680,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-24.07</v>
+        <v>-0.89</v>
       </c>
       <c r="C131" t="n">
-        <v>10.13</v>
+        <v>-4.08</v>
       </c>
       <c r="D131" t="n">
-        <v>22.73</v>
+        <v>-20.83</v>
       </c>
       <c r="E131" t="n">
-        <v>-8.715999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-0.2333333333333333</v>
+        <v>25.79499999999999</v>
       </c>
     </row>
     <row r="132">
@@ -2828,19 +2697,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-24.89</v>
+        <v>-1.33</v>
       </c>
       <c r="C132" t="n">
-        <v>11.73</v>
+        <v>-4.15</v>
       </c>
       <c r="D132" t="n">
-        <v>22.98</v>
+        <v>-20.92</v>
       </c>
       <c r="E132" t="n">
-        <v>-9.671000000000003</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-0.375</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="133">
@@ -2848,19 +2714,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-25.7</v>
+        <v>-1.7</v>
       </c>
       <c r="C133" t="n">
-        <v>13.32</v>
+        <v>-4.49</v>
       </c>
       <c r="D133" t="n">
-        <v>22.99</v>
+        <v>-20.94</v>
       </c>
       <c r="E133" t="n">
-        <v>-10.376</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-0.46</v>
+        <v>27.13</v>
       </c>
     </row>
     <row r="134">
@@ -2868,19 +2731,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-26.63</v>
+        <v>-2.28</v>
       </c>
       <c r="C134" t="n">
-        <v>14.92</v>
+        <v>-4.86</v>
       </c>
       <c r="D134" t="n">
-        <v>23.08</v>
+        <v>-20.71</v>
       </c>
       <c r="E134" t="n">
-        <v>-11.061</v>
-      </c>
-      <c r="F134" t="n">
-        <v>-0.5166666666666667</v>
+        <v>27.85</v>
       </c>
     </row>
     <row r="135">
@@ -2888,19 +2748,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-27.58</v>
+        <v>-2.89</v>
       </c>
       <c r="C135" t="n">
-        <v>16.52</v>
+        <v>-5.17</v>
       </c>
       <c r="D135" t="n">
-        <v>23.29</v>
+        <v>-20.49</v>
       </c>
       <c r="E135" t="n">
-        <v>-11.836</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-0.9</v>
+        <v>28.54</v>
       </c>
     </row>
     <row r="136">
@@ -2908,19 +2765,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-28.51</v>
+        <v>-3.5</v>
       </c>
       <c r="C136" t="n">
-        <v>17.88</v>
+        <v>-5.45</v>
       </c>
       <c r="D136" t="n">
-        <v>23.98</v>
+        <v>-19.5</v>
       </c>
       <c r="E136" t="n">
-        <v>-12.711</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-1.25875</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="137">
@@ -2928,19 +2782,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-28</v>
+        <v>-4.13</v>
       </c>
       <c r="C137" t="n">
-        <v>18.85</v>
+        <v>-5.74</v>
       </c>
       <c r="D137" t="n">
-        <v>24.69</v>
+        <v>-18.53</v>
       </c>
       <c r="E137" t="n">
-        <v>-14.541</v>
-      </c>
-      <c r="F137" t="n">
-        <v>-1.337777777777778</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="138">
@@ -2948,19 +2799,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-27.65</v>
+        <v>-4.75</v>
       </c>
       <c r="C138" t="n">
-        <v>19.83</v>
+        <v>-6.06</v>
       </c>
       <c r="D138" t="n">
-        <v>25.35</v>
+        <v>-17.55</v>
       </c>
       <c r="E138" t="n">
-        <v>-16.314</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-1.401</v>
+        <v>28.36</v>
       </c>
     </row>
     <row r="139">
@@ -2968,19 +2816,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-27.3</v>
+        <v>-5.1</v>
       </c>
       <c r="C139" t="n">
-        <v>20.64</v>
+        <v>-6.38</v>
       </c>
       <c r="D139" t="n">
-        <v>26.23</v>
+        <v>-16.57</v>
       </c>
       <c r="E139" t="n">
-        <v>-18.167</v>
-      </c>
-      <c r="F139" t="n">
-        <v>-1.401</v>
+        <v>28.055</v>
       </c>
     </row>
     <row r="140">
@@ -2988,19 +2833,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-27.02</v>
+        <v>-5.25</v>
       </c>
       <c r="C140" t="n">
-        <v>21.52</v>
+        <v>-6.76</v>
       </c>
       <c r="D140" t="n">
-        <v>27.11</v>
+        <v>-15.76</v>
       </c>
       <c r="E140" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F140" t="n">
-        <v>-1.618</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="141">
@@ -3008,19 +2850,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-26.19</v>
+        <v>-5.38</v>
       </c>
       <c r="C141" t="n">
-        <v>20.48</v>
+        <v>-7.13</v>
       </c>
       <c r="D141" t="n">
-        <v>28.01</v>
+        <v>-14.93</v>
       </c>
       <c r="E141" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-2.29</v>
+        <v>27.445</v>
       </c>
     </row>
     <row r="142">
@@ -3028,19 +2867,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-25.42</v>
+        <v>-5.5</v>
       </c>
       <c r="C142" t="n">
-        <v>19.42</v>
+        <v>-7.53</v>
       </c>
       <c r="D142" t="n">
-        <v>28.76</v>
+        <v>-14.29</v>
       </c>
       <c r="E142" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F142" t="n">
-        <v>-2.752</v>
+        <v>27.32</v>
       </c>
     </row>
     <row r="143">
@@ -3048,19 +2884,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-24.49</v>
+        <v>-5.14</v>
       </c>
       <c r="C143" t="n">
-        <v>18.35</v>
+        <v>-8.07</v>
       </c>
       <c r="D143" t="n">
-        <v>29.35</v>
+        <v>-13.63</v>
       </c>
       <c r="E143" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F143" t="n">
-        <v>-3.204</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="144">
@@ -3068,19 +2901,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-23.45</v>
+        <v>-4.62</v>
       </c>
       <c r="C144" t="n">
-        <v>17.32</v>
+        <v>-8.59</v>
       </c>
       <c r="D144" t="n">
-        <v>29.8</v>
+        <v>-13.16</v>
       </c>
       <c r="E144" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F144" t="n">
-        <v>-3.676</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="145">
@@ -3088,19 +2918,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-22.25</v>
+        <v>-4.08</v>
       </c>
       <c r="C145" t="n">
-        <v>16.25</v>
+        <v>-8.9</v>
       </c>
       <c r="D145" t="n">
-        <v>30.16</v>
+        <v>-12.69</v>
       </c>
       <c r="E145" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F145" t="n">
-        <v>-4.158</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="146">
@@ -3108,19 +2935,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-21.03</v>
+        <v>-3.53</v>
       </c>
       <c r="C146" t="n">
-        <v>15.43</v>
+        <v>-9.24</v>
       </c>
       <c r="D146" t="n">
-        <v>30.03</v>
+        <v>-12.91</v>
       </c>
       <c r="E146" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F146" t="n">
-        <v>-4.42</v>
+        <v>25.67</v>
       </c>
     </row>
     <row r="147">
@@ -3128,19 +2952,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-20.34</v>
+        <v>-3.43</v>
       </c>
       <c r="C147" t="n">
-        <v>15.04</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>29.95</v>
+        <v>-12.58</v>
       </c>
       <c r="E147" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-4.645</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="148">
@@ -3148,19 +2969,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-19.59</v>
+        <v>-3.42</v>
       </c>
       <c r="C148" t="n">
-        <v>14.8</v>
+        <v>-9.81</v>
       </c>
       <c r="D148" t="n">
-        <v>29.87</v>
+        <v>-12.32</v>
       </c>
       <c r="E148" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F148" t="n">
-        <v>-5.069999999999999</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="149">
@@ -3168,19 +2986,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-18.84</v>
+        <v>-3.06</v>
       </c>
       <c r="C149" t="n">
-        <v>14.71</v>
+        <v>-10.03</v>
       </c>
       <c r="D149" t="n">
-        <v>29.64</v>
+        <v>-12.34</v>
       </c>
       <c r="E149" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F149" t="n">
-        <v>-5.505</v>
+        <v>25.42</v>
       </c>
     </row>
     <row r="150">
@@ -3188,19 +3003,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-18.13</v>
+        <v>-2.83</v>
       </c>
       <c r="C150" t="n">
-        <v>14.38</v>
+        <v>-10.35</v>
       </c>
       <c r="D150" t="n">
-        <v>29.39</v>
+        <v>-12.29</v>
       </c>
       <c r="E150" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F150" t="n">
-        <v>-5.65</v>
+        <v>25.47</v>
       </c>
     </row>
     <row r="151">
@@ -3208,19 +3020,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-17.97</v>
+        <v>-2.68</v>
       </c>
       <c r="C151" t="n">
-        <v>14.07</v>
+        <v>-10.38</v>
       </c>
       <c r="D151" t="n">
-        <v>29.11</v>
+        <v>-12.48</v>
       </c>
       <c r="E151" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F151" t="n">
-        <v>-5.2</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="152">
@@ -3228,19 +3037,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-17.83</v>
+        <v>-3.18</v>
       </c>
       <c r="C152" t="n">
-        <v>13.93</v>
+        <v>-10.38</v>
       </c>
       <c r="D152" t="n">
-        <v>28.81</v>
+        <v>-13.05</v>
       </c>
       <c r="E152" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F152" t="n">
-        <v>-4.91</v>
+        <v>26.61</v>
       </c>
     </row>
     <row r="153">
@@ -3248,19 +3054,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-18.05</v>
+        <v>-4.15</v>
       </c>
       <c r="C153" t="n">
-        <v>14.15</v>
+        <v>-10.33</v>
       </c>
       <c r="D153" t="n">
-        <v>28.53</v>
+        <v>-13.63</v>
       </c>
       <c r="E153" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F153" t="n">
-        <v>-4.63</v>
+        <v>28.119</v>
       </c>
     </row>
     <row r="154">
@@ -3268,19 +3071,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-18.36</v>
+        <v>-5.08</v>
       </c>
       <c r="C154" t="n">
-        <v>14.33</v>
+        <v>-10.28</v>
       </c>
       <c r="D154" t="n">
-        <v>28.2</v>
+        <v>-14.25</v>
       </c>
       <c r="E154" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F154" t="n">
-        <v>-4.17</v>
+        <v>29.608</v>
       </c>
     </row>
     <row r="155">
@@ -3288,19 +3088,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-18.8</v>
+        <v>-6.09</v>
       </c>
       <c r="C155" t="n">
-        <v>14.6</v>
+        <v>-10.49</v>
       </c>
       <c r="D155" t="n">
-        <v>27.9</v>
+        <v>-14.76</v>
       </c>
       <c r="E155" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F155" t="n">
-        <v>-3.7</v>
+        <v>31.347</v>
       </c>
     </row>
     <row r="156">
@@ -3308,19 +3105,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-19.27</v>
+        <v>-7.08</v>
       </c>
       <c r="C156" t="n">
-        <v>14.86</v>
+        <v>-10.69</v>
       </c>
       <c r="D156" t="n">
-        <v>27.66</v>
+        <v>-15.38</v>
       </c>
       <c r="E156" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F156" t="n">
-        <v>-3.25</v>
+        <v>33.146</v>
       </c>
     </row>
     <row r="157">
@@ -3328,19 +3122,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-19.78</v>
+        <v>-7.62</v>
       </c>
       <c r="C157" t="n">
-        <v>15.14</v>
+        <v>-10.73</v>
       </c>
       <c r="D157" t="n">
-        <v>27.66</v>
+        <v>-16.53</v>
       </c>
       <c r="E157" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F157" t="n">
-        <v>-3.02</v>
+        <v>34.88500000000001</v>
       </c>
     </row>
     <row r="158">
@@ -3348,19 +3139,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-20.31</v>
+        <v>-7.51</v>
       </c>
       <c r="C158" t="n">
-        <v>15.39</v>
+        <v>-11.02</v>
       </c>
       <c r="D158" t="n">
-        <v>27.7</v>
+        <v>-18.08</v>
       </c>
       <c r="E158" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F158" t="n">
-        <v>-2.79</v>
+        <v>36.61400000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3368,19 +3156,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-20.91</v>
+        <v>-7.21</v>
       </c>
       <c r="C159" t="n">
-        <v>15.7</v>
+        <v>-11.3</v>
       </c>
       <c r="D159" t="n">
-        <v>27.77</v>
+        <v>-19.41</v>
       </c>
       <c r="E159" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-2.55</v>
+        <v>37.924</v>
       </c>
     </row>
     <row r="160">
@@ -3388,19 +3173,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-21.17</v>
+        <v>-7</v>
       </c>
       <c r="C160" t="n">
-        <v>16.12</v>
+        <v>-11.39</v>
       </c>
       <c r="D160" t="n">
-        <v>27.65</v>
+        <v>-20.64</v>
       </c>
       <c r="E160" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F160" t="n">
-        <v>-2.6</v>
+        <v>39.03400000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3408,19 +3190,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-21.41</v>
+        <v>-7.56</v>
       </c>
       <c r="C161" t="n">
-        <v>16.61</v>
+        <v>-11.84</v>
       </c>
       <c r="D161" t="n">
-        <v>27.61</v>
+        <v>-20.67</v>
       </c>
       <c r="E161" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F161" t="n">
-        <v>-2.8</v>
+        <v>40.072</v>
       </c>
     </row>
     <row r="162">
@@ -3428,19 +3207,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-21.64</v>
+        <v>-7.47</v>
       </c>
       <c r="C162" t="n">
-        <v>16.93</v>
+        <v>-12.95</v>
       </c>
       <c r="D162" t="n">
-        <v>27.7</v>
+        <v>-20.09</v>
       </c>
       <c r="E162" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F162" t="n">
-        <v>-2.98</v>
+        <v>40.515</v>
       </c>
     </row>
     <row r="163">
@@ -3448,19 +3224,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-21.9</v>
+        <v>-7.29</v>
       </c>
       <c r="C163" t="n">
-        <v>16.96</v>
+        <v>-13.73</v>
       </c>
       <c r="D163" t="n">
-        <v>27.84</v>
+        <v>-19.52</v>
       </c>
       <c r="E163" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-2.900000000000001</v>
+        <v>40.544</v>
       </c>
     </row>
     <row r="164">
@@ -3468,19 +3241,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-22.07</v>
+        <v>-6.74</v>
       </c>
       <c r="C164" t="n">
-        <v>17.01</v>
+        <v>-14.52</v>
       </c>
       <c r="D164" t="n">
-        <v>28.07</v>
+        <v>-19.33</v>
       </c>
       <c r="E164" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-3</v>
+        <v>40.593</v>
       </c>
     </row>
     <row r="165">
@@ -3488,19 +3258,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-22.26</v>
+        <v>-6.03</v>
       </c>
       <c r="C165" t="n">
-        <v>16.93</v>
+        <v>-15.32</v>
       </c>
       <c r="D165" t="n">
-        <v>28.31</v>
+        <v>-19.24</v>
       </c>
       <c r="E165" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F165" t="n">
-        <v>-2.98</v>
+        <v>40.58200000000001</v>
       </c>
     </row>
     <row r="166">
@@ -3508,19 +3275,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-22.46</v>
+        <v>-5.33</v>
       </c>
       <c r="C166" t="n">
-        <v>17.02</v>
+        <v>-15.88</v>
       </c>
       <c r="D166" t="n">
-        <v>28.51</v>
+        <v>-19.33</v>
       </c>
       <c r="E166" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F166" t="n">
-        <v>-3.07</v>
+        <v>40.551</v>
       </c>
     </row>
     <row r="167">
@@ -3528,19 +3292,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-22.65</v>
+        <v>-4.66</v>
       </c>
       <c r="C167" t="n">
-        <v>17.21</v>
+        <v>-17.65</v>
       </c>
       <c r="D167" t="n">
-        <v>28.38</v>
+        <v>-18.19</v>
       </c>
       <c r="E167" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-2.94</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="168">
@@ -3548,19 +3309,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-22.82</v>
+        <v>-7.72</v>
       </c>
       <c r="C168" t="n">
-        <v>17.38</v>
+        <v>-21.43</v>
       </c>
       <c r="D168" t="n">
-        <v>28.25</v>
+        <v>-11.25</v>
       </c>
       <c r="E168" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-2.81</v>
+        <v>40.399</v>
       </c>
     </row>
     <row r="169">
@@ -3568,19 +3326,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-22.98</v>
+        <v>-11.3</v>
       </c>
       <c r="C169" t="n">
-        <v>17.58</v>
+        <v>-25.2</v>
       </c>
       <c r="D169" t="n">
-        <v>28.01</v>
+        <v>-4.25</v>
       </c>
       <c r="E169" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F169" t="n">
-        <v>-2.615</v>
+        <v>40.747</v>
       </c>
     </row>
     <row r="170">
@@ -3588,19 +3343,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-23.37</v>
+        <v>-15.14</v>
       </c>
       <c r="C170" t="n">
-        <v>17.98</v>
+        <v>-28.98</v>
       </c>
       <c r="D170" t="n">
-        <v>27.79</v>
+        <v>3.02</v>
       </c>
       <c r="E170" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F170" t="n">
-        <v>-2.4</v>
+        <v>41.095</v>
       </c>
     </row>
     <row r="171">
@@ -3608,19 +3360,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-23.76</v>
+        <v>-18.13</v>
       </c>
       <c r="C171" t="n">
-        <v>18.4</v>
+        <v>-32.67</v>
       </c>
       <c r="D171" t="n">
-        <v>27.56</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E171" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F171" t="n">
-        <v>-2.195</v>
+        <v>41.585</v>
       </c>
     </row>
     <row r="172">
@@ -3628,19 +3377,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-24.1</v>
+        <v>-21.13</v>
       </c>
       <c r="C172" t="n">
-        <v>18.8</v>
+        <v>-35.71</v>
       </c>
       <c r="D172" t="n">
-        <v>27.25</v>
+        <v>15.3</v>
       </c>
       <c r="E172" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F172" t="n">
-        <v>-1.95</v>
+        <v>41.54</v>
       </c>
     </row>
     <row r="173">
@@ -3648,19 +3394,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-24.25</v>
+        <v>-24.15</v>
       </c>
       <c r="C173" t="n">
-        <v>19.06</v>
+        <v>-38.71</v>
       </c>
       <c r="D173" t="n">
-        <v>27.15</v>
+        <v>21.34</v>
       </c>
       <c r="E173" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F173" t="n">
-        <v>-1.955</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="174">
@@ -3668,19 +3411,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-24.04</v>
+        <v>-27.61</v>
       </c>
       <c r="C174" t="n">
-        <v>19.28</v>
+        <v>-41.71</v>
       </c>
       <c r="D174" t="n">
-        <v>26.7</v>
+        <v>27.9</v>
       </c>
       <c r="E174" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F174" t="n">
-        <v>-1.94</v>
+        <v>41.42</v>
       </c>
     </row>
     <row r="175">
@@ -3688,19 +3428,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-23.75</v>
+        <v>-31.24</v>
       </c>
       <c r="C175" t="n">
-        <v>19.59</v>
+        <v>-44.69</v>
       </c>
       <c r="D175" t="n">
-        <v>26.23</v>
+        <v>34.41</v>
       </c>
       <c r="E175" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F175" t="n">
-        <v>-2.065</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="176">
@@ -3708,19 +3445,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-23.46</v>
+        <v>-34.94</v>
       </c>
       <c r="C176" t="n">
-        <v>19.74</v>
+        <v>-47.91</v>
       </c>
       <c r="D176" t="n">
-        <v>25.76</v>
+        <v>40.76</v>
       </c>
       <c r="E176" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F176" t="n">
-        <v>-2.04</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="177">
@@ -3728,19 +3462,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-23.21</v>
+        <v>-38.68</v>
       </c>
       <c r="C177" t="n">
-        <v>19.79</v>
+        <v>-50</v>
       </c>
       <c r="D177" t="n">
-        <v>25.36</v>
+        <v>45.7</v>
       </c>
       <c r="E177" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F177" t="n">
-        <v>-1.94</v>
+        <v>42.975</v>
       </c>
     </row>
     <row r="178">
@@ -3748,19 +3479,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-22.97</v>
+        <v>-39.31</v>
       </c>
       <c r="C178" t="n">
-        <v>19.87</v>
+        <v>-50</v>
       </c>
       <c r="D178" t="n">
-        <v>24.93</v>
+        <v>45.31</v>
       </c>
       <c r="E178" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F178" t="n">
-        <v>-1.82</v>
+        <v>43.997</v>
       </c>
     </row>
     <row r="179">
@@ -3768,19 +3496,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-22.67</v>
+        <v>-41.76</v>
       </c>
       <c r="C179" t="n">
-        <v>19.92</v>
+        <v>-50</v>
       </c>
       <c r="D179" t="n">
-        <v>24.68</v>
+        <v>44.92</v>
       </c>
       <c r="E179" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F179" t="n">
-        <v>-1.928</v>
+        <v>46.836</v>
       </c>
     </row>
     <row r="180">
@@ -3788,19 +3513,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-22.36</v>
+        <v>-43.86</v>
       </c>
       <c r="C180" t="n">
-        <v>19.88</v>
+        <v>-50</v>
       </c>
       <c r="D180" t="n">
-        <v>24.57</v>
+        <v>44.71</v>
       </c>
       <c r="E180" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F180" t="n">
-        <v>-2.086</v>
+        <v>49.15499999999999</v>
       </c>
     </row>
     <row r="181">
@@ -3808,19 +3530,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-21.95</v>
+        <v>-45.96</v>
       </c>
       <c r="C181" t="n">
-        <v>19.81</v>
+        <v>-50</v>
       </c>
       <c r="D181" t="n">
-        <v>24.38</v>
+        <v>44.5</v>
       </c>
       <c r="E181" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F181" t="n">
-        <v>-2.244</v>
+        <v>51.46400000000001</v>
       </c>
     </row>
     <row r="182">
@@ -3828,19 +3547,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-21.54</v>
+        <v>-48.05</v>
       </c>
       <c r="C182" t="n">
-        <v>19.82</v>
+        <v>-50</v>
       </c>
       <c r="D182" t="n">
-        <v>24.17</v>
+        <v>43.95</v>
       </c>
       <c r="E182" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F182" t="n">
-        <v>-2.442</v>
+        <v>54.10299999999999</v>
       </c>
     </row>
     <row r="183">
@@ -3848,19 +3564,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-21.08</v>
+        <v>-50.23</v>
       </c>
       <c r="C183" t="n">
-        <v>19.92</v>
+        <v>-50</v>
       </c>
       <c r="D183" t="n">
-        <v>23.59</v>
+        <v>43.49</v>
       </c>
       <c r="E183" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F183" t="n">
-        <v>-2.425</v>
+        <v>56.73199999999999</v>
       </c>
     </row>
     <row r="184">
@@ -3868,19 +3581,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-20.68</v>
+        <v>-52.32</v>
       </c>
       <c r="C184" t="n">
-        <v>19.74</v>
+        <v>-50</v>
       </c>
       <c r="D184" t="n">
-        <v>23.35</v>
+        <v>42.82</v>
       </c>
       <c r="E184" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F184" t="n">
-        <v>-2.418</v>
+        <v>59.501</v>
       </c>
     </row>
     <row r="185">
@@ -3888,419 +3598,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-20.34</v>
+        <v>-54.35</v>
       </c>
       <c r="C185" t="n">
-        <v>19.56</v>
+        <v>-50</v>
       </c>
       <c r="D185" t="n">
-        <v>23.12</v>
+        <v>42.4</v>
       </c>
       <c r="E185" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F185" t="n">
-        <v>-2.341</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-20.01</v>
-      </c>
-      <c r="C186" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="D186" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F186" t="n">
-        <v>-2.264</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-18.76</v>
-      </c>
-      <c r="C187" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="D187" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F187" t="n">
-        <v>-3.087</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="C188" t="n">
-        <v>18.99</v>
-      </c>
-      <c r="D188" t="n">
-        <v>22.42</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F188" t="n">
-        <v>-3.919999999999999</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-16.26</v>
-      </c>
-      <c r="C189" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="D189" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E189" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F189" t="n">
-        <v>-5.615</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-15.03</v>
-      </c>
-      <c r="C190" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="D190" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="E190" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F190" t="n">
-        <v>-7.260000000000001</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-14.17</v>
-      </c>
-      <c r="C191" t="n">
-        <v>18.34</v>
-      </c>
-      <c r="D191" t="n">
-        <v>24.68</v>
-      </c>
-      <c r="E191" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F191" t="n">
-        <v>-8.885000000000002</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-13.32</v>
-      </c>
-      <c r="C192" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="D192" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="E192" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F192" t="n">
-        <v>-10.45</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-12.47</v>
-      </c>
-      <c r="C193" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="D193" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="E193" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F193" t="n">
-        <v>-12.25</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>-14</v>
-      </c>
-      <c r="C194" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="D194" t="n">
-        <v>27.56</v>
-      </c>
-      <c r="E194" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F194" t="n">
-        <v>-11.86</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-15.51</v>
-      </c>
-      <c r="C195" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="D195" t="n">
-        <v>28.68</v>
-      </c>
-      <c r="E195" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F195" t="n">
-        <v>-11.54</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-16.76</v>
-      </c>
-      <c r="C196" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="D196" t="n">
-        <v>29.75</v>
-      </c>
-      <c r="E196" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F196" t="n">
-        <v>-11.3</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="C197" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="D197" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="E197" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F197" t="n">
-        <v>-10.41</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-22.39</v>
-      </c>
-      <c r="C198" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="D198" t="n">
-        <v>33.41</v>
-      </c>
-      <c r="E198" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F198" t="n">
-        <v>-9.52</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-25.86</v>
-      </c>
-      <c r="C199" t="n">
-        <v>19</v>
-      </c>
-      <c r="D199" t="n">
-        <v>34.44</v>
-      </c>
-      <c r="E199" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F199" t="n">
-        <v>-7.605</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-29.4</v>
-      </c>
-      <c r="C200" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>36.44</v>
-      </c>
-      <c r="E200" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F200" t="n">
-        <v>-6.14</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-32.68</v>
-      </c>
-      <c r="C201" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="D201" t="n">
-        <v>38.39</v>
-      </c>
-      <c r="E201" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F201" t="n">
-        <v>-4.695</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-35.94</v>
-      </c>
-      <c r="C202" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="D202" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="E202" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F202" t="n">
-        <v>-3.32</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-39.19</v>
-      </c>
-      <c r="C203" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="D203" t="n">
-        <v>42.34</v>
-      </c>
-      <c r="E203" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F203" t="n">
-        <v>-1.945</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-40.49</v>
-      </c>
-      <c r="C204" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="D204" t="n">
-        <v>47.82</v>
-      </c>
-      <c r="E204" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F204" t="n">
-        <v>-6.164999999999999</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-41.79</v>
-      </c>
-      <c r="C205" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="D205" t="n">
-        <v>53.18</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F205" t="n">
-        <v>-10.365</v>
+        <v>61.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -580,7 +593,7 @@
   </sheetPr>
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1662,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session: 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/15/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -162,7 +149,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/15/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/17/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$96</f>
+              <f>'data'!$B$2:$B$168</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +208,88 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$96</f>
+              <f>'data'!$C$2:$C$168</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'data'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$D$2:$D$168</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$168</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$168</f>
             </numRef>
           </val>
         </ser>
@@ -591,9 +659,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -612,7 +680,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Fish</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ben</t>
         </is>
       </c>
     </row>
@@ -626,16 +709,28 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15</v>
+        <v>-1.75</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.15</v>
+        <v>-0.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +738,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05</v>
+        <v>-2.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +755,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-2.29</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +772,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.15</v>
+        <v>-2.3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +789,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.25</v>
+        <v>-2.15</v>
       </c>
       <c r="C7" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +806,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.43</v>
+        <v>-2.03</v>
       </c>
       <c r="C8" t="n">
-        <v>0.43</v>
+        <v>-0.58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +823,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.57</v>
+        <v>-1.95</v>
       </c>
       <c r="C9" t="n">
-        <v>0.57</v>
+        <v>-1.06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +840,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.67</v>
+        <v>-1.91</v>
       </c>
       <c r="C10" t="n">
-        <v>0.67</v>
+        <v>-1.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +857,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.79</v>
+        <v>-1.77</v>
       </c>
       <c r="C11" t="n">
-        <v>0.79</v>
+        <v>-2.24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +874,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.79</v>
+        <v>-1.77</v>
       </c>
       <c r="C12" t="n">
-        <v>0.79</v>
+        <v>-2.24</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +891,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.93</v>
+        <v>-1.66</v>
       </c>
       <c r="C13" t="n">
-        <v>0.93</v>
+        <v>-3.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.66</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +908,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.52</v>
+        <v>-1.21</v>
       </c>
       <c r="C14" t="n">
-        <v>1.52</v>
+        <v>-3.84</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.73</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +925,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.01</v>
+        <v>-0.77</v>
       </c>
       <c r="C15" t="n">
-        <v>2.01</v>
+        <v>-4.74</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.69</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +942,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.4</v>
+        <v>-0.41</v>
       </c>
       <c r="C16" t="n">
-        <v>2.4</v>
+        <v>-5.63</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.68</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +959,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.74</v>
+        <v>-0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>2.74</v>
+        <v>-6.44</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +976,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.06</v>
+        <v>0.06</v>
       </c>
       <c r="C18" t="n">
-        <v>3.06</v>
+        <v>-7.01</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +993,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.33</v>
+        <v>0.2</v>
       </c>
       <c r="C19" t="n">
-        <v>3.33</v>
+        <v>-7.23</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.65</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +1010,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.51</v>
+        <v>0.33</v>
       </c>
       <c r="C20" t="n">
-        <v>3.51</v>
+        <v>-7.66</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +1027,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.82</v>
+        <v>0.48</v>
       </c>
       <c r="C21" t="n">
-        <v>3.82</v>
+        <v>-7.93</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9.01</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +1044,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.04</v>
+        <v>0.53</v>
       </c>
       <c r="C22" t="n">
-        <v>4.04</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.51</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +1061,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-4.13</v>
+        <v>0.45</v>
       </c>
       <c r="C23" t="n">
-        <v>4.13</v>
+        <v>-8.390000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.07</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +1078,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-3.8</v>
+        <v>0.35</v>
       </c>
       <c r="C24" t="n">
-        <v>3.8</v>
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.56</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +1095,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-3.5</v>
+        <v>0.28</v>
       </c>
       <c r="C25" t="n">
-        <v>3.5</v>
+        <v>-8.48</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.94</v>
       </c>
     </row>
     <row r="26">
@@ -885,10 +1112,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-3.53</v>
+        <v>0.16</v>
       </c>
       <c r="C26" t="n">
-        <v>3.53</v>
+        <v>-8.08</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +1129,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-3.6</v>
+        <v>0.09</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>-6.64</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.62</v>
       </c>
     </row>
     <row r="28">
@@ -907,10 +1146,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-3.7</v>
+        <v>0.08</v>
       </c>
       <c r="C28" t="n">
-        <v>3.7</v>
+        <v>-5.47</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="29">
@@ -918,10 +1163,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.71</v>
+        <v>0.09</v>
       </c>
       <c r="C29" t="n">
-        <v>3.71</v>
+        <v>-3.93</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +1180,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.74</v>
+        <v>0.11</v>
       </c>
       <c r="C30" t="n">
-        <v>3.74</v>
+        <v>-2.21</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="31">
@@ -940,10 +1197,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.63</v>
+        <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>3.63</v>
+        <v>-0.59</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -951,10 +1217,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-3.73</v>
+        <v>0.15</v>
       </c>
       <c r="C32" t="n">
-        <v>3.73</v>
+        <v>0.95</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +1237,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.1</v>
+        <v>0.14</v>
       </c>
       <c r="C33" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="34">
@@ -973,10 +1257,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-4.55</v>
+        <v>0.14</v>
       </c>
       <c r="C34" t="n">
-        <v>4.55</v>
+        <v>4.43</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-4.82</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +1277,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.04</v>
+        <v>0.14</v>
       </c>
       <c r="C35" t="n">
-        <v>5.04</v>
+        <v>5.35</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-6.06</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="36">
@@ -995,10 +1297,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.64</v>
+        <v>0.14</v>
       </c>
       <c r="C36" t="n">
-        <v>5.64</v>
+        <v>6.17</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-7.31</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.4333333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1006,10 +1317,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-6.21</v>
+        <v>0.14</v>
       </c>
       <c r="C37" t="n">
-        <v>6.21</v>
+        <v>5.87</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-7.48</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.7142857142857144</v>
       </c>
     </row>
     <row r="38">
@@ -1017,10 +1337,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-6.71</v>
+        <v>0.14</v>
       </c>
       <c r="C38" t="n">
-        <v>6.71</v>
+        <v>5.46</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-7.64</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.9249999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1028,10 +1357,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-7.35</v>
+        <v>0.14</v>
       </c>
       <c r="C39" t="n">
-        <v>7.35</v>
+        <v>4.85</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-7.87</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="40">
@@ -1039,10 +1377,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-8.130000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C40" t="n">
-        <v>8.130000000000001</v>
+        <v>4.52</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-8.210000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-1.44</v>
       </c>
     </row>
     <row r="41">
@@ -1050,10 +1397,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-8.869999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="C41" t="n">
-        <v>8.869999999999999</v>
+        <v>4.56</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.44</v>
       </c>
     </row>
     <row r="42">
@@ -1061,10 +1417,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-8.550000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C42" t="n">
-        <v>8.550000000000001</v>
+        <v>4.68</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-9.23</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="43">
@@ -1072,10 +1437,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-8.17</v>
+        <v>0.14</v>
       </c>
       <c r="C43" t="n">
-        <v>8.17</v>
+        <v>4.95</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-2.2</v>
       </c>
     </row>
     <row r="44">
@@ -1083,10 +1457,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-7.71</v>
+        <v>0.14</v>
       </c>
       <c r="C44" t="n">
-        <v>7.71</v>
+        <v>5.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-10.67</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="45">
@@ -1094,10 +1477,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-7.37</v>
+        <v>0.14</v>
       </c>
       <c r="C45" t="n">
-        <v>7.37</v>
+        <v>5.85</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-11.03</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="46">
@@ -1105,10 +1497,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-6.73</v>
+        <v>0.14</v>
       </c>
       <c r="C46" t="n">
-        <v>6.73</v>
+        <v>5.72</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-10.53</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-3.419999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1116,10 +1517,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-6.09</v>
+        <v>0.14</v>
       </c>
       <c r="C47" t="n">
-        <v>6.09</v>
+        <v>5.27</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-3.82</v>
       </c>
     </row>
     <row r="48">
@@ -1127,10 +1537,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-5.49</v>
+        <v>0.14</v>
       </c>
       <c r="C48" t="n">
-        <v>5.49</v>
+        <v>5.05</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-4.119999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1138,10 +1557,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.81</v>
+        <v>0.14</v>
       </c>
       <c r="C49" t="n">
-        <v>4.81</v>
+        <v>5.22</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-8.17</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-4.5</v>
       </c>
     </row>
     <row r="50">
@@ -1149,10 +1577,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-4.04</v>
+        <v>0.14</v>
       </c>
       <c r="C50" t="n">
-        <v>4.04</v>
+        <v>4.19</v>
+      </c>
+      <c r="D50" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-7.28</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-4.882</v>
       </c>
     </row>
     <row r="51">
@@ -1160,10 +1597,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.64</v>
+        <v>0.14</v>
       </c>
       <c r="C51" t="n">
-        <v>3.64</v>
+        <v>3.24</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-6.33</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-4.668</v>
       </c>
     </row>
     <row r="52">
@@ -1171,10 +1617,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.18</v>
+        <v>0.14</v>
       </c>
       <c r="C52" t="n">
-        <v>4.18</v>
+        <v>2.61</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-4.554</v>
       </c>
     </row>
     <row r="53">
@@ -1182,10 +1637,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.58</v>
+        <v>0.14</v>
       </c>
       <c r="C53" t="n">
-        <v>4.58</v>
+        <v>1.83</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-4.53</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-4.44</v>
       </c>
     </row>
     <row r="54">
@@ -1193,10 +1657,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.83</v>
+        <v>0.14</v>
       </c>
       <c r="C54" t="n">
-        <v>4.83</v>
+        <v>1.14</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-3.64</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-4.366</v>
       </c>
     </row>
     <row r="55">
@@ -1204,10 +1677,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.91</v>
+        <v>0.14</v>
       </c>
       <c r="C55" t="n">
-        <v>4.91</v>
+        <v>0.37</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2.79</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-4.271999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1215,10 +1697,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-4.98</v>
+        <v>0.14</v>
       </c>
       <c r="C56" t="n">
-        <v>4.98</v>
+        <v>0.61</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-4.218</v>
       </c>
     </row>
     <row r="57">
@@ -1226,10 +1717,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-4.99</v>
+        <v>0.14</v>
       </c>
       <c r="C57" t="n">
-        <v>4.99</v>
+        <v>1.17</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-4.174</v>
       </c>
     </row>
     <row r="58">
@@ -1237,10 +1737,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-4.97</v>
+        <v>0.14</v>
       </c>
       <c r="C58" t="n">
-        <v>4.97</v>
+        <v>0.99</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-4.130000000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1248,10 +1757,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-4.97</v>
+        <v>0.14</v>
       </c>
       <c r="C59" t="n">
-        <v>4.97</v>
+        <v>0.26</v>
+      </c>
+      <c r="D59" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-3.686</v>
       </c>
     </row>
     <row r="60">
@@ -1259,10 +1777,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-5.04</v>
+        <v>0.14</v>
       </c>
       <c r="C60" t="n">
-        <v>5.04</v>
+        <v>1.23</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-5.13</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-3.15</v>
       </c>
     </row>
     <row r="61">
@@ -1270,10 +1797,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-4.91</v>
+        <v>0.14</v>
       </c>
       <c r="C61" t="n">
-        <v>4.91</v>
+        <v>2.01</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-5.98</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-3.19</v>
       </c>
     </row>
     <row r="62">
@@ -1281,10 +1817,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-4.77</v>
+        <v>0.14</v>
       </c>
       <c r="C62" t="n">
-        <v>4.77</v>
+        <v>2.47</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-6.79</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-3.05</v>
       </c>
     </row>
     <row r="63">
@@ -1292,10 +1837,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-4.71</v>
+        <v>0.14</v>
       </c>
       <c r="C63" t="n">
-        <v>4.71</v>
+        <v>2.61</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-2.91</v>
       </c>
     </row>
     <row r="64">
@@ -1303,10 +1857,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-4.85</v>
+        <v>0.14</v>
       </c>
       <c r="C64" t="n">
-        <v>4.85</v>
+        <v>2.62</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-2.65</v>
       </c>
     </row>
     <row r="65">
@@ -1314,10 +1877,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.01</v>
+        <v>0.14</v>
       </c>
       <c r="C65" t="n">
-        <v>5.01</v>
+        <v>2.19</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-8.380000000000001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.39</v>
       </c>
     </row>
     <row r="66">
@@ -1325,10 +1897,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.13</v>
+        <v>0.14</v>
       </c>
       <c r="C66" t="n">
-        <v>5.13</v>
+        <v>1.47</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-7.96</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-2.07</v>
       </c>
     </row>
     <row r="67">
@@ -1336,10 +1917,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.34</v>
+        <v>0.14</v>
       </c>
       <c r="C67" t="n">
-        <v>5.34</v>
+        <v>0.74</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-7.56</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-1.78</v>
       </c>
     </row>
     <row r="68">
@@ -1347,10 +1937,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.54</v>
+        <v>0.14</v>
       </c>
       <c r="C68" t="n">
-        <v>5.54</v>
+        <v>1.07</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-1.45</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1957,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.73</v>
+        <v>0.14</v>
       </c>
       <c r="C69" t="n">
-        <v>5.73</v>
+        <v>1.54</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-8.68</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="70">
@@ -1369,10 +1977,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.84</v>
+        <v>0.14</v>
       </c>
       <c r="C70" t="n">
-        <v>5.84</v>
+        <v>1.19</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-7.95</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-1.842</v>
       </c>
     </row>
     <row r="71">
@@ -1380,10 +1997,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.83</v>
+        <v>0.14</v>
       </c>
       <c r="C71" t="n">
-        <v>5.83</v>
+        <v>0.76</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-7.23</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-2.154</v>
       </c>
     </row>
     <row r="72">
@@ -1391,10 +2017,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.82</v>
+        <v>0.14</v>
       </c>
       <c r="C72" t="n">
-        <v>5.82</v>
+        <v>0.43</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-6.56</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-2.536</v>
       </c>
     </row>
     <row r="73">
@@ -1402,10 +2037,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.81</v>
+        <v>0.14</v>
       </c>
       <c r="C73" t="n">
-        <v>5.81</v>
+        <v>0.14</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-5.88</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-2.898</v>
       </c>
     </row>
     <row r="74">
@@ -1413,10 +2057,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.74</v>
+        <v>0.14</v>
       </c>
       <c r="C74" t="n">
-        <v>5.74</v>
+        <v>-0.19</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.3</v>
       </c>
     </row>
     <row r="75">
@@ -1424,10 +2077,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.65</v>
+        <v>0.14</v>
       </c>
       <c r="C75" t="n">
-        <v>5.65</v>
+        <v>0.03</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-4.91</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-3.697</v>
       </c>
     </row>
     <row r="76">
@@ -1435,10 +2097,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.68</v>
+        <v>0.14</v>
       </c>
       <c r="C76" t="n">
-        <v>5.68</v>
+        <v>0.3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-4.82</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-4.113999999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1446,10 +2117,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.66</v>
+        <v>0.14</v>
       </c>
       <c r="C77" t="n">
-        <v>5.66</v>
+        <v>0.66</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-4.490999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -1457,10 +2137,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.7</v>
+        <v>0.14</v>
       </c>
       <c r="C78" t="n">
-        <v>5.7</v>
+        <v>1.26</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-4.848</v>
       </c>
     </row>
     <row r="79">
@@ -1468,10 +2157,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.74</v>
+        <v>0.14</v>
       </c>
       <c r="C79" t="n">
-        <v>5.74</v>
+        <v>2.02</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-5.165000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1479,10 +2177,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.87</v>
+        <v>0.14</v>
       </c>
       <c r="C80" t="n">
-        <v>5.87</v>
+        <v>2.85</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-3.84</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-5.140000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1490,10 +2197,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-6.02</v>
+        <v>0.14</v>
       </c>
       <c r="C81" t="n">
-        <v>6.02</v>
+        <v>3.71</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-5.165</v>
       </c>
     </row>
     <row r="82">
@@ -1501,10 +2217,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-6.2</v>
+        <v>0.14</v>
       </c>
       <c r="C82" t="n">
-        <v>6.2</v>
+        <v>4.62</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-3.81</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-5.18</v>
       </c>
     </row>
     <row r="83">
@@ -1512,10 +2237,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.37</v>
+        <v>0.14</v>
       </c>
       <c r="C83" t="n">
-        <v>6.37</v>
+        <v>5.78</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-5.255</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +2257,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.75</v>
+        <v>0.14</v>
       </c>
       <c r="C84" t="n">
-        <v>6.75</v>
+        <v>7.06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-5.340000000000002</v>
       </c>
     </row>
     <row r="85">
@@ -1534,10 +2277,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-6.91</v>
+        <v>0.14</v>
       </c>
       <c r="C85" t="n">
-        <v>6.91</v>
+        <v>7.93</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-5.003000000000002</v>
       </c>
     </row>
     <row r="86">
@@ -1545,10 +2297,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.62</v>
+        <v>0.14</v>
       </c>
       <c r="C86" t="n">
-        <v>6.62</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-3.97</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-4.666000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1556,10 +2317,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-6.57</v>
+        <v>0.14</v>
       </c>
       <c r="C87" t="n">
-        <v>6.57</v>
+        <v>9.56</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-4.289</v>
       </c>
     </row>
     <row r="88">
@@ -1567,10 +2337,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-6.5</v>
+        <v>0.14</v>
       </c>
       <c r="C88" t="n">
-        <v>6.5</v>
+        <v>9.42</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-3.972</v>
       </c>
     </row>
     <row r="89">
@@ -1578,10 +2357,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-6.43</v>
+        <v>0.14</v>
       </c>
       <c r="C89" t="n">
-        <v>6.43</v>
+        <v>9.16</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-3.635</v>
       </c>
     </row>
     <row r="90">
@@ -1589,10 +2377,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-6.69</v>
+        <v>0.14</v>
       </c>
       <c r="C90" t="n">
-        <v>6.69</v>
+        <v>8.4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-3.358</v>
       </c>
     </row>
     <row r="91">
@@ -1600,10 +2397,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-6.97</v>
+        <v>0.14</v>
       </c>
       <c r="C91" t="n">
-        <v>6.97</v>
+        <v>6.93</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-3.071</v>
       </c>
     </row>
     <row r="92">
@@ -1611,10 +2417,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-7.39</v>
+        <v>0.14</v>
       </c>
       <c r="C92" t="n">
-        <v>7.39</v>
+        <v>5.52</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-2.784</v>
       </c>
     </row>
     <row r="93">
@@ -1622,10 +2437,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-7.81</v>
+        <v>0.14</v>
       </c>
       <c r="C93" t="n">
-        <v>7.81</v>
+        <v>4.97</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-2.437</v>
       </c>
     </row>
     <row r="94">
@@ -1633,10 +2457,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-8.050000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C94" t="n">
-        <v>8.050000000000001</v>
+        <v>4.52</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-3.29</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="95">
@@ -1644,10 +2477,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-8.41</v>
+        <v>0.14</v>
       </c>
       <c r="C95" t="n">
-        <v>8.41</v>
+        <v>4.26</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-3.61</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-2.08</v>
       </c>
     </row>
     <row r="96">
@@ -1655,14 +2497,1463 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-8.970000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="C96" t="n">
-        <v>8.970000000000001</v>
+        <v>4.03</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-3.93</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-4.57</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-5.28</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-2.06</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-2.09</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-7.19</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-8.460000000000001</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-2.12</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-10.14</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-10.46</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-2.18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-10.91</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-2.330000000000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-11.37</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-11.51</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-2.71</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-11.65</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-2.86</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-11.81</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-3.36</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-11.55</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-3.096</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D112" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-11.39</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-2.812</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-11.23</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-2.478</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.83</v>
+      </c>
+      <c r="D114" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-11.09</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-2.084000000000001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-6.76</v>
+      </c>
+      <c r="D115" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-10.93</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-1.68</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-9.69</v>
+      </c>
+      <c r="D116" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-10.76</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-1.276</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-12.57</v>
+      </c>
+      <c r="D117" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-10.61</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.8320000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-14.56</v>
+      </c>
+      <c r="D118" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-10.39</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.238</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-16.82</v>
+      </c>
+      <c r="D119" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-10.07</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.4459999999999998</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-18.75</v>
+      </c>
+      <c r="D120" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-20.13</v>
+      </c>
+      <c r="D121" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-10.09</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-20.92</v>
+      </c>
+      <c r="D122" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-9.24</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-21.73</v>
+      </c>
+      <c r="D123" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-8.31</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-22.56</v>
+      </c>
+      <c r="D124" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-7.32</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-23.29</v>
+      </c>
+      <c r="D125" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-6.35</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-24.26</v>
+      </c>
+      <c r="D126" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-25.13</v>
+      </c>
+      <c r="D127" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-25.96</v>
+      </c>
+      <c r="D128" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-3.46</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-26.74</v>
+      </c>
+      <c r="D129" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-27.53</v>
+      </c>
+      <c r="D130" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-28.35</v>
+      </c>
+      <c r="D131" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-28.35</v>
+      </c>
+      <c r="D132" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-27.97</v>
+      </c>
+      <c r="D133" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-27.44</v>
+      </c>
+      <c r="D134" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-27.46</v>
+      </c>
+      <c r="D135" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-27.33</v>
+      </c>
+      <c r="D136" t="n">
+        <v>29.91</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.6199999999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-27.62</v>
+      </c>
+      <c r="D137" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-27.83</v>
+      </c>
+      <c r="D138" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-27.86</v>
+      </c>
+      <c r="D139" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-4.41</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-27.88</v>
+      </c>
+      <c r="D140" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-1.53</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-27.93</v>
+      </c>
+      <c r="D141" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-5.91</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-27.77</v>
+      </c>
+      <c r="D142" t="n">
+        <v>36.57</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-6.65</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-27.88</v>
+      </c>
+      <c r="D143" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-7.07</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-2.76</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-27.63</v>
+      </c>
+      <c r="D144" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-7.71</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-3.149999999999999</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-27.47</v>
+      </c>
+      <c r="D145" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-3.62</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-27.37</v>
+      </c>
+      <c r="D146" t="n">
+        <v>40.91</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-9.57</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-4.110000000000001</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-26.95</v>
+      </c>
+      <c r="D147" t="n">
+        <v>41.56</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-10.21</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-4.540000000000001</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-27</v>
+      </c>
+      <c r="D148" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-10.87</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-4.462000000000001</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-27.21</v>
+      </c>
+      <c r="D149" t="n">
+        <v>42.89</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-11.52</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-4.304</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-27.29</v>
+      </c>
+      <c r="D150" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-12.15</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-4.296</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-27.39</v>
+      </c>
+      <c r="D151" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-12.83</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-4.268</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-27.79</v>
+      </c>
+      <c r="D152" t="n">
+        <v>45.26</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-13.59</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-4.02</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-28.29</v>
+      </c>
+      <c r="D153" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-14.31</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-3.792</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-29.36</v>
+      </c>
+      <c r="D154" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-14.81</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-3.574</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-29.52</v>
+      </c>
+      <c r="D155" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-15.04</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-3.276000000000001</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-29.75</v>
+      </c>
+      <c r="D156" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-15.11</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-3.038</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-29.72</v>
+      </c>
+      <c r="D157" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-15.19</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-28.77</v>
+      </c>
+      <c r="D158" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-15.76</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-3.070000000000001</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-28.67</v>
+      </c>
+      <c r="D159" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-16.32</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-28.68</v>
+      </c>
+      <c r="D160" t="n">
+        <v>48.82</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-16.88</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-3.400000000000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-29.14</v>
+      </c>
+      <c r="D161" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-17.37</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-3.580000000000001</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-29.36</v>
+      </c>
+      <c r="D162" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-17.78</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-3.840000000000001</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-29.58</v>
+      </c>
+      <c r="D163" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-18.21</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.100000000000001</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-29.67</v>
+      </c>
+      <c r="D164" t="n">
+        <v>52.52</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-18.62</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-4.37</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-30.56</v>
+      </c>
+      <c r="D165" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-18.97</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-4.64</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-31.33</v>
+      </c>
+      <c r="D166" t="n">
+        <v>55.53</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-19.49</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-4.850000000000001</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-32.39</v>
+      </c>
+      <c r="D167" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-5.050000000000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-33.98</v>
+      </c>
+      <c r="D168" t="n">
+        <v>59.08</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-5.24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -661,7 +674,7 @@
   </sheetPr>
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3953,7 +3966,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/17/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (05/31/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$168</f>
+              <f>'data'!$B$2:$B$227</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$168</f>
+              <f>'data'!$C$2:$C$227</f>
             </numRef>
           </val>
         </ser>
@@ -248,61 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$168</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'data'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$E$2:$E$168</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$168</f>
+              <f>'data'!$D$2:$D$227</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +639,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -701,16 +647,6 @@
           <t>Fish</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ben</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -725,25 +661,19 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.75</v>
+        <v>0.39</v>
       </c>
       <c r="C3" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="D3" t="n">
         <v>-0.1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -751,16 +681,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.33</v>
+        <v>0.21</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13</v>
+        <v>-0.45</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -768,16 +695,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.29</v>
+        <v>0.18</v>
       </c>
       <c r="C5" t="n">
-        <v>0.11</v>
+        <v>-0.58</v>
       </c>
       <c r="D5" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -785,16 +709,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.3</v>
+        <v>0.16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09</v>
+        <v>-0.68</v>
       </c>
       <c r="D6" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -802,16 +723,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.15</v>
+        <v>0.19</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>-0.78</v>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8">
@@ -819,16 +737,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.03</v>
+        <v>0.12</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.58</v>
+        <v>-0.66</v>
       </c>
       <c r="D8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.03</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9">
@@ -836,16 +751,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.95</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.06</v>
+        <v>-0.65</v>
       </c>
       <c r="D9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.9</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="10">
@@ -853,16 +765,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.91</v>
+        <v>-0.01</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.7</v>
+        <v>-0.64</v>
       </c>
       <c r="D10" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.88</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
@@ -870,16 +779,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.77</v>
+        <v>-0.1</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.24</v>
+        <v>-0.59</v>
       </c>
       <c r="D11" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -887,16 +793,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.77</v>
+        <v>-0.1</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.24</v>
+        <v>-0.59</v>
       </c>
       <c r="D12" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -904,16 +807,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.66</v>
+        <v>-0.18</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.02</v>
+        <v>-0.59</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.66</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14">
@@ -921,16 +821,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.21</v>
+        <v>-0.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.84</v>
+        <v>-0.53</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.73</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="15">
@@ -938,16 +835,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.77</v>
+        <v>-0.4</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.74</v>
+        <v>-0.17</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.19</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.69</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16">
@@ -955,16 +849,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.41</v>
+        <v>-0.43</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.63</v>
+        <v>0.2</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.68</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="17">
@@ -972,16 +863,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1</v>
+        <v>-0.44</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.44</v>
+        <v>0.58</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.09</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.630000000000001</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="18">
@@ -989,16 +877,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06</v>
+        <v>-0.63</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.01</v>
+        <v>1.13</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.69</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.640000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19">
@@ -1006,16 +891,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2</v>
+        <v>-0.75</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.23</v>
+        <v>1.5</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.62</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.65</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="20">
@@ -1023,16 +905,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.33</v>
+        <v>-0.86</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.66</v>
+        <v>1.93</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.23</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.550000000000001</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="21">
@@ -1040,16 +919,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.48</v>
+        <v>-0.89</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.93</v>
+        <v>2.31</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.01</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="22">
@@ -1057,16 +933,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.53</v>
+        <v>-0.82</v>
       </c>
       <c r="C22" t="n">
-        <v>-8.199999999999999</v>
+        <v>2.64</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="E22" t="n">
-        <v>8.51</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="23">
@@ -1074,16 +947,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.45</v>
+        <v>-0.78</v>
       </c>
       <c r="C23" t="n">
-        <v>-8.390000000000001</v>
+        <v>2.99</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8.07</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="24">
@@ -1091,16 +961,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.35</v>
+        <v>-0.72</v>
       </c>
       <c r="C24" t="n">
-        <v>-8.800000000000001</v>
+        <v>3.32</v>
       </c>
       <c r="D24" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7.56</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="25">
@@ -1108,16 +975,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.28</v>
+        <v>-0.63</v>
       </c>
       <c r="C25" t="n">
-        <v>-8.48</v>
+        <v>3.39</v>
       </c>
       <c r="D25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6.94</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="26">
@@ -1125,16 +989,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.16</v>
+        <v>-0.57</v>
       </c>
       <c r="C26" t="n">
-        <v>-8.08</v>
+        <v>3.45</v>
       </c>
       <c r="D26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.3</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="27">
@@ -1142,16 +1003,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09</v>
+        <v>-0.55</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.64</v>
+        <v>3.54</v>
       </c>
       <c r="D27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.62</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="28">
@@ -1159,16 +1017,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08</v>
+        <v>-0.37</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.47</v>
+        <v>3.47</v>
       </c>
       <c r="D28" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.94</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="29">
@@ -1176,16 +1031,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.09</v>
+        <v>-0.25</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.93</v>
+        <v>3.45</v>
       </c>
       <c r="D29" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.4</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="30">
@@ -1193,16 +1045,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11</v>
+        <v>-0.23</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.21</v>
+        <v>3.22</v>
       </c>
       <c r="D30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.08</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="31">
@@ -1210,19 +1059,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13</v>
+        <v>-0.23</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.59</v>
+        <v>3.03</v>
       </c>
       <c r="D31" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="32">
@@ -1230,19 +1073,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.15</v>
+        <v>-0.25</v>
       </c>
       <c r="C32" t="n">
-        <v>0.95</v>
+        <v>2.84</v>
       </c>
       <c r="D32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.1</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="33">
@@ -1250,19 +1087,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14</v>
+        <v>-0.26</v>
       </c>
       <c r="C33" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-3.62</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.2</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="34">
@@ -1270,19 +1101,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.14</v>
+        <v>-0.32</v>
       </c>
       <c r="C34" t="n">
-        <v>4.43</v>
+        <v>2.61</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-4.82</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-0.3</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="35">
@@ -1290,19 +1115,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14</v>
+        <v>-0.41</v>
       </c>
       <c r="C35" t="n">
-        <v>5.35</v>
+        <v>2.56</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-6.06</v>
-      </c>
-      <c r="F35" t="n">
-        <v>-0.36</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="36">
@@ -1310,19 +1129,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.14</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>6.17</v>
+        <v>2.56</v>
       </c>
       <c r="D36" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-7.31</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-0.4333333333333333</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37">
@@ -1330,19 +1143,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.14</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>5.87</v>
+        <v>2.54</v>
       </c>
       <c r="D37" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-7.48</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-0.7142857142857144</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="38">
@@ -1350,19 +1157,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14</v>
+        <v>-1.43</v>
       </c>
       <c r="C38" t="n">
-        <v>5.46</v>
+        <v>2.54</v>
       </c>
       <c r="D38" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-7.64</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-0.9249999999999999</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="39">
@@ -1370,19 +1171,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14</v>
+        <v>-2.06</v>
       </c>
       <c r="C39" t="n">
-        <v>4.85</v>
+        <v>2.52</v>
       </c>
       <c r="D39" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-7.87</v>
-      </c>
-      <c r="F39" t="n">
-        <v>-1.2</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="40">
@@ -1390,19 +1185,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14</v>
+        <v>-2.61</v>
       </c>
       <c r="C40" t="n">
-        <v>4.52</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-8.210000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-1.44</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="41">
@@ -1410,19 +1199,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14</v>
+        <v>-3.21</v>
       </c>
       <c r="C41" t="n">
-        <v>4.56</v>
+        <v>2.89</v>
       </c>
       <c r="D41" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-8.640000000000001</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-1.44</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="42">
@@ -1430,19 +1213,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14</v>
+        <v>-3.88</v>
       </c>
       <c r="C42" t="n">
-        <v>4.68</v>
+        <v>3.06</v>
       </c>
       <c r="D42" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-9.23</v>
-      </c>
-      <c r="F42" t="n">
-        <v>-1.82</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="43">
@@ -1450,19 +1227,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14</v>
+        <v>-4.53</v>
       </c>
       <c r="C43" t="n">
-        <v>4.95</v>
+        <v>3.15</v>
       </c>
       <c r="D43" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-10.03</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-2.2</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="44">
@@ -1470,19 +1241,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.14</v>
+        <v>-5.25</v>
       </c>
       <c r="C44" t="n">
-        <v>5.3</v>
+        <v>3.23</v>
       </c>
       <c r="D44" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-10.67</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-2.6</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="45">
@@ -1490,19 +1255,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.14</v>
+        <v>-5.9</v>
       </c>
       <c r="C45" t="n">
-        <v>5.85</v>
+        <v>3.21</v>
       </c>
       <c r="D45" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-11.03</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-3</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="46">
@@ -1510,19 +1269,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.14</v>
+        <v>-6.71</v>
       </c>
       <c r="C46" t="n">
-        <v>5.72</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-10.53</v>
-      </c>
-      <c r="F46" t="n">
-        <v>-3.419999999999999</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="47">
@@ -1530,19 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.14</v>
+        <v>-7.53</v>
       </c>
       <c r="C47" t="n">
-        <v>5.27</v>
+        <v>2.98</v>
       </c>
       <c r="D47" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-9.75</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-3.82</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="48">
@@ -1550,19 +1297,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.14</v>
+        <v>-7.77</v>
       </c>
       <c r="C48" t="n">
-        <v>5.05</v>
+        <v>2.86</v>
       </c>
       <c r="D48" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-8.960000000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-4.119999999999999</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="49">
@@ -1570,19 +1311,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.14</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>5.22</v>
+        <v>2.88</v>
       </c>
       <c r="D49" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-8.17</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-4.5</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="50">
@@ -1590,19 +1325,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.14</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>4.19</v>
+        <v>2.94</v>
       </c>
       <c r="D50" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-7.28</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-4.882</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="51">
@@ -1610,19 +1339,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.14</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>3.24</v>
+        <v>3.02</v>
       </c>
       <c r="D51" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-6.33</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-4.668</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="52">
@@ -1630,19 +1353,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.14</v>
+        <v>-9.1</v>
       </c>
       <c r="C52" t="n">
-        <v>2.61</v>
+        <v>3.11</v>
       </c>
       <c r="D52" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>-4.554</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="53">
@@ -1650,19 +1367,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.14</v>
+        <v>-9.82</v>
       </c>
       <c r="C53" t="n">
-        <v>1.83</v>
+        <v>3.62</v>
       </c>
       <c r="D53" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-4.53</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-4.44</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="54">
@@ -1670,19 +1381,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.14</v>
+        <v>-10.57</v>
       </c>
       <c r="C54" t="n">
-        <v>1.14</v>
+        <v>4.31</v>
       </c>
       <c r="D54" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-3.64</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-4.366</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="55">
@@ -1690,19 +1395,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.14</v>
+        <v>-11.33</v>
       </c>
       <c r="C55" t="n">
-        <v>0.37</v>
+        <v>5.04</v>
       </c>
       <c r="D55" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-2.79</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-4.271999999999999</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="56">
@@ -1710,19 +1409,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.14</v>
+        <v>-11.95</v>
       </c>
       <c r="C56" t="n">
-        <v>0.61</v>
+        <v>5.86</v>
       </c>
       <c r="D56" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-3.24</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-4.218</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="57">
@@ -1730,19 +1423,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.14</v>
+        <v>-12.45</v>
       </c>
       <c r="C57" t="n">
-        <v>1.17</v>
+        <v>6.67</v>
       </c>
       <c r="D57" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-4.01</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-4.174</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="58">
@@ -1750,19 +1437,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.14</v>
+        <v>-12.94</v>
       </c>
       <c r="C58" t="n">
-        <v>0.99</v>
+        <v>7.36</v>
       </c>
       <c r="D58" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-4.05</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-4.130000000000001</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="59">
@@ -1770,19 +1451,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.14</v>
+        <v>-13.55</v>
       </c>
       <c r="C59" t="n">
-        <v>0.26</v>
+        <v>7.94</v>
       </c>
       <c r="D59" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-4.26</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-3.686</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="60">
@@ -1790,19 +1465,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.14</v>
+        <v>-14.16</v>
       </c>
       <c r="C60" t="n">
-        <v>1.23</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-5.13</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-3.15</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="61">
@@ -1810,19 +1479,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.14</v>
+        <v>-14.75</v>
       </c>
       <c r="C61" t="n">
-        <v>2.01</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-5.98</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-3.19</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="62">
@@ -1830,19 +1493,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.14</v>
+        <v>-15.42</v>
       </c>
       <c r="C62" t="n">
-        <v>2.47</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-6.79</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-3.05</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="63">
@@ -1850,19 +1507,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.14</v>
+        <v>-15.67</v>
       </c>
       <c r="C63" t="n">
-        <v>2.61</v>
+        <v>9.48</v>
       </c>
       <c r="D63" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-7.54</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-2.91</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="64">
@@ -1870,19 +1521,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.14</v>
+        <v>-15.83</v>
       </c>
       <c r="C64" t="n">
-        <v>2.62</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-2.65</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="65">
@@ -1890,19 +1535,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.14</v>
+        <v>-16.06</v>
       </c>
       <c r="C65" t="n">
-        <v>2.19</v>
+        <v>9.49</v>
       </c>
       <c r="D65" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-8.380000000000001</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-2.39</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="66">
@@ -1910,19 +1549,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.14</v>
+        <v>-16.29</v>
       </c>
       <c r="C66" t="n">
-        <v>1.47</v>
+        <v>9.73</v>
       </c>
       <c r="D66" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-7.96</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-2.07</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="67">
@@ -1930,19 +1563,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.14</v>
+        <v>-16.62</v>
       </c>
       <c r="C67" t="n">
-        <v>0.74</v>
+        <v>9.99</v>
       </c>
       <c r="D67" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-7.56</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-1.78</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="68">
@@ -1950,19 +1577,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.14</v>
+        <v>-16.97</v>
       </c>
       <c r="C68" t="n">
-        <v>1.07</v>
+        <v>10.39</v>
       </c>
       <c r="D68" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-8.25</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-1.45</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="69">
@@ -1970,19 +1591,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.14</v>
+        <v>-17.15</v>
       </c>
       <c r="C69" t="n">
-        <v>1.54</v>
+        <v>10.81</v>
       </c>
       <c r="D69" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-8.68</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-1.5</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="70">
@@ -1990,19 +1605,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.14</v>
+        <v>-17.33</v>
       </c>
       <c r="C70" t="n">
-        <v>1.19</v>
+        <v>11.28</v>
       </c>
       <c r="D70" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-7.95</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-1.842</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="71">
@@ -2010,19 +1619,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14</v>
+        <v>-17.46</v>
       </c>
       <c r="C71" t="n">
-        <v>0.76</v>
+        <v>11.75</v>
       </c>
       <c r="D71" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-7.23</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-2.154</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="72">
@@ -2030,19 +1633,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.14</v>
+        <v>-17.46</v>
       </c>
       <c r="C72" t="n">
-        <v>0.43</v>
+        <v>12.2</v>
       </c>
       <c r="D72" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-2.536</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="73">
@@ -2050,19 +1647,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.14</v>
+        <v>-17.46</v>
       </c>
       <c r="C73" t="n">
-        <v>0.14</v>
+        <v>12.65</v>
       </c>
       <c r="D73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-5.88</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-2.898</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="74">
@@ -2070,19 +1661,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.14</v>
+        <v>-17.12</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.19</v>
+        <v>12.93</v>
       </c>
       <c r="D74" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-5.08</v>
-      </c>
-      <c r="F74" t="n">
-        <v>-3.3</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="75">
@@ -2090,19 +1675,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14</v>
+        <v>-16.73</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03</v>
+        <v>12.89</v>
       </c>
       <c r="D75" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-4.91</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-3.697</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="76">
@@ -2110,19 +1689,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.14</v>
+        <v>-16.32</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3</v>
+        <v>12.65</v>
       </c>
       <c r="D76" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-4.82</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-4.113999999999999</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="77">
@@ -2130,19 +1703,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.14</v>
+        <v>-16.06</v>
       </c>
       <c r="C77" t="n">
-        <v>0.66</v>
+        <v>12.43</v>
       </c>
       <c r="D77" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-4.71</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-4.490999999999999</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="78">
@@ -2150,19 +1717,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.14</v>
+        <v>-15.8</v>
       </c>
       <c r="C78" t="n">
-        <v>1.26</v>
+        <v>12.45</v>
       </c>
       <c r="D78" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-4.26</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-4.848</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="79">
@@ -2170,19 +1731,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.14</v>
+        <v>-15.34</v>
       </c>
       <c r="C79" t="n">
-        <v>2.02</v>
+        <v>12.43</v>
       </c>
       <c r="D79" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-3.82</v>
-      </c>
-      <c r="F79" t="n">
-        <v>-5.165000000000001</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="80">
@@ -2190,19 +1745,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.14</v>
+        <v>-14.89</v>
       </c>
       <c r="C80" t="n">
-        <v>2.85</v>
+        <v>12.39</v>
       </c>
       <c r="D80" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-5.140000000000001</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="81">
@@ -2210,19 +1759,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.14</v>
+        <v>-14.49</v>
       </c>
       <c r="C81" t="n">
-        <v>3.71</v>
+        <v>12.39</v>
       </c>
       <c r="D81" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-5.165</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="82">
@@ -2230,19 +1773,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.14</v>
+        <v>-14.23</v>
       </c>
       <c r="C82" t="n">
-        <v>4.62</v>
+        <v>12.54</v>
       </c>
       <c r="D82" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-5.18</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="83">
@@ -2250,19 +1787,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.14</v>
+        <v>-13.99</v>
       </c>
       <c r="C83" t="n">
-        <v>5.78</v>
+        <v>12.65</v>
       </c>
       <c r="D83" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-3.77</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-5.255</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="84">
@@ -2270,19 +1801,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14</v>
+        <v>-14.16</v>
       </c>
       <c r="C84" t="n">
-        <v>7.06</v>
+        <v>13.02</v>
       </c>
       <c r="D84" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-5.340000000000002</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="85">
@@ -2290,19 +1815,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.14</v>
+        <v>-14.32</v>
       </c>
       <c r="C85" t="n">
-        <v>7.93</v>
+        <v>13.69</v>
       </c>
       <c r="D85" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-5.003000000000002</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="86">
@@ -2310,19 +1829,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>-14.49</v>
+      </c>
+      <c r="C86" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="D86" t="n">
         <v>0.14</v>
-      </c>
-      <c r="C86" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-3.97</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-4.666000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -2330,19 +1843,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.14</v>
+        <v>-14.53</v>
       </c>
       <c r="C87" t="n">
-        <v>9.56</v>
+        <v>15.06</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-4.02</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-4.289</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="88">
@@ -2350,19 +1857,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.14</v>
+        <v>-14.55</v>
       </c>
       <c r="C88" t="n">
-        <v>9.42</v>
+        <v>15.47</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-3.972</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="89">
@@ -2370,19 +1871,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.14</v>
+        <v>-14.76</v>
       </c>
       <c r="C89" t="n">
-        <v>9.16</v>
+        <v>15.88</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.49</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-3.635</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="90">
@@ -2390,19 +1885,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.14</v>
+        <v>-14.92</v>
       </c>
       <c r="C90" t="n">
-        <v>8.4</v>
+        <v>16.28</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-3.59</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-3.358</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="91">
@@ -2410,19 +1899,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.14</v>
+        <v>-15.08</v>
       </c>
       <c r="C91" t="n">
-        <v>6.93</v>
+        <v>16.63</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-3.06</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-3.071</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="92">
@@ -2430,19 +1913,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.14</v>
+        <v>-15.2</v>
       </c>
       <c r="C92" t="n">
-        <v>5.52</v>
+        <v>16.91</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-2.784</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="93">
@@ -2450,19 +1927,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.14</v>
+        <v>-15.28</v>
       </c>
       <c r="C93" t="n">
-        <v>4.97</v>
+        <v>17.21</v>
       </c>
       <c r="D93" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-2.86</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-2.437</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="94">
@@ -2470,19 +1941,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.14</v>
+        <v>-15.28</v>
       </c>
       <c r="C94" t="n">
-        <v>4.52</v>
+        <v>17.45</v>
       </c>
       <c r="D94" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-3.29</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-2.1</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="95">
@@ -2490,19 +1955,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.14</v>
+        <v>-15.04</v>
       </c>
       <c r="C95" t="n">
-        <v>4.26</v>
+        <v>17.49</v>
       </c>
       <c r="D95" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-3.61</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-2.08</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="96">
@@ -2510,19 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.14</v>
+        <v>-14.79</v>
       </c>
       <c r="C96" t="n">
-        <v>4.03</v>
+        <v>17.46</v>
       </c>
       <c r="D96" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-3.93</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-2.04</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="97">
@@ -2530,19 +1983,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.14</v>
+        <v>-14.53</v>
       </c>
       <c r="C97" t="n">
-        <v>3.74</v>
+        <v>17.5</v>
       </c>
       <c r="D97" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-4.57</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-2.04</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="98">
@@ -2550,19 +1997,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14</v>
+        <v>-14.23</v>
       </c>
       <c r="C98" t="n">
-        <v>3.95</v>
+        <v>17.54</v>
       </c>
       <c r="D98" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-5.28</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-2.06</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="99">
@@ -2570,19 +2011,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14</v>
+        <v>-13.95</v>
       </c>
       <c r="C99" t="n">
-        <v>4.14</v>
+        <v>17.56</v>
       </c>
       <c r="D99" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-2.09</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="100">
@@ -2590,19 +2025,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.14</v>
+        <v>-13.69</v>
       </c>
       <c r="C100" t="n">
-        <v>4.82</v>
+        <v>17.6</v>
       </c>
       <c r="D100" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-7.19</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-2.1</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="101">
@@ -2610,19 +2039,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.14</v>
+        <v>-13.57</v>
       </c>
       <c r="C101" t="n">
-        <v>5.65</v>
+        <v>17.65</v>
       </c>
       <c r="D101" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-8.460000000000001</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-2.1</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="102">
@@ -2630,19 +2053,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.14</v>
+        <v>-13.44</v>
       </c>
       <c r="C102" t="n">
-        <v>6.41</v>
+        <v>17.66</v>
       </c>
       <c r="D102" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-9.74</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-2.12</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="103">
@@ -2650,19 +2067,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.14</v>
+        <v>-13.37</v>
       </c>
       <c r="C103" t="n">
-        <v>6.39</v>
+        <v>17.69</v>
       </c>
       <c r="D103" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-10.14</v>
-      </c>
-      <c r="F103" t="n">
-        <v>-2.16</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="104">
@@ -2670,19 +2081,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.14</v>
+        <v>-13.25</v>
       </c>
       <c r="C104" t="n">
-        <v>6.34</v>
+        <v>17.68</v>
       </c>
       <c r="D104" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-10.46</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-2.18</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="105">
@@ -2690,19 +2095,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.14</v>
+        <v>-13.49</v>
       </c>
       <c r="C105" t="n">
-        <v>6.63</v>
+        <v>17.66</v>
       </c>
       <c r="D105" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-10.91</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-2.330000000000001</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="106">
@@ -2710,19 +2109,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.14</v>
+        <v>-13.72</v>
       </c>
       <c r="C106" t="n">
-        <v>6.95</v>
+        <v>17.68</v>
       </c>
       <c r="D106" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-11.37</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-2.5</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="107">
@@ -2730,19 +2123,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.14</v>
+        <v>-13.87</v>
       </c>
       <c r="C107" t="n">
-        <v>7.33</v>
+        <v>17.54</v>
       </c>
       <c r="D107" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-11.51</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-2.71</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="108">
@@ -2750,19 +2137,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.14</v>
+        <v>-14.07</v>
       </c>
       <c r="C108" t="n">
-        <v>6.53</v>
+        <v>17.51</v>
       </c>
       <c r="D108" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-11.65</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-2.86</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="109">
@@ -2770,19 +2151,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.14</v>
+        <v>-14.27</v>
       </c>
       <c r="C109" t="n">
-        <v>5.84</v>
+        <v>17.5</v>
       </c>
       <c r="D109" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-11.81</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-3.1</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="110">
@@ -2790,19 +2165,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.14</v>
+        <v>-14.48</v>
       </c>
       <c r="C110" t="n">
-        <v>4.87</v>
+        <v>17.48</v>
       </c>
       <c r="D110" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-3.36</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="111">
@@ -2810,19 +2179,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.14</v>
+        <v>-14.52</v>
       </c>
       <c r="C111" t="n">
-        <v>3.93</v>
+        <v>17.45</v>
       </c>
       <c r="D111" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-11.55</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-3.096</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="112">
@@ -2830,19 +2193,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.14</v>
+        <v>-14.54</v>
       </c>
       <c r="C112" t="n">
-        <v>1.48</v>
+        <v>17.4</v>
       </c>
       <c r="D112" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-11.39</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-2.812</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="113">
@@ -2850,19 +2207,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14</v>
+        <v>-14.55</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.1</v>
+        <v>17.31</v>
       </c>
       <c r="D113" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-11.23</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-2.478</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="114">
@@ -2870,19 +2221,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14</v>
+        <v>-14.67</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.83</v>
+        <v>17.21</v>
       </c>
       <c r="D114" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-11.09</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-2.084000000000001</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="115">
@@ -2890,19 +2235,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.14</v>
+        <v>-14.72</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.76</v>
+        <v>17.11</v>
       </c>
       <c r="D115" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-10.93</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-1.68</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="116">
@@ -2910,19 +2249,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.14</v>
+        <v>-14.8</v>
       </c>
       <c r="C116" t="n">
-        <v>-9.69</v>
+        <v>17.01</v>
       </c>
       <c r="D116" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-10.76</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-1.276</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="117">
@@ -2930,19 +2263,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.14</v>
+        <v>-14.86</v>
       </c>
       <c r="C117" t="n">
-        <v>-12.57</v>
+        <v>16.96</v>
       </c>
       <c r="D117" t="n">
-        <v>23.87</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-10.61</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-0.8320000000000001</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="118">
@@ -2950,19 +2277,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.14</v>
+        <v>-14.89</v>
       </c>
       <c r="C118" t="n">
-        <v>-14.56</v>
+        <v>16.83</v>
       </c>
       <c r="D118" t="n">
-        <v>25.05</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-10.39</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-0.238</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="119">
@@ -2970,19 +2291,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.14</v>
+        <v>-14.97</v>
       </c>
       <c r="C119" t="n">
-        <v>-16.82</v>
+        <v>16.67</v>
       </c>
       <c r="D119" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-10.07</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.4459999999999998</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="120">
@@ -2990,19 +2305,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14</v>
+        <v>-15.01</v>
       </c>
       <c r="C120" t="n">
-        <v>-18.75</v>
+        <v>16.49</v>
       </c>
       <c r="D120" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-10.06</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1.13</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="121">
@@ -3010,19 +2319,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.14</v>
+        <v>-15.08</v>
       </c>
       <c r="C121" t="n">
-        <v>-20.13</v>
+        <v>16.31</v>
       </c>
       <c r="D121" t="n">
-        <v>28.79</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-10.09</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1.29</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="122">
@@ -3030,19 +2333,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.14</v>
+        <v>-15.06</v>
       </c>
       <c r="C122" t="n">
-        <v>-20.92</v>
+        <v>16.14</v>
       </c>
       <c r="D122" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-9.24</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1.37</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="123">
@@ -3050,19 +2347,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.14</v>
+        <v>-14.74</v>
       </c>
       <c r="C123" t="n">
-        <v>-21.73</v>
+        <v>15.8</v>
       </c>
       <c r="D123" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-8.31</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1.4</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="124">
@@ -3070,19 +2361,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.14</v>
+        <v>-14.36</v>
       </c>
       <c r="C124" t="n">
-        <v>-22.56</v>
+        <v>15.46</v>
       </c>
       <c r="D124" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-7.32</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1.37</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="125">
@@ -3090,19 +2375,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.14</v>
+        <v>-13.94</v>
       </c>
       <c r="C125" t="n">
-        <v>-23.29</v>
+        <v>15.17</v>
       </c>
       <c r="D125" t="n">
-        <v>28.15</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-6.35</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1.35</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="126">
@@ -3110,19 +2389,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.14</v>
+        <v>-13.51</v>
       </c>
       <c r="C126" t="n">
-        <v>-24.26</v>
+        <v>14.88</v>
       </c>
       <c r="D126" t="n">
-        <v>28.18</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-5.39</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1.33</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="127">
@@ -3130,19 +2403,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.14</v>
+        <v>-13.18</v>
       </c>
       <c r="C127" t="n">
-        <v>-25.13</v>
+        <v>14.59</v>
       </c>
       <c r="D127" t="n">
-        <v>28.17</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-4.43</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1.25</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="128">
@@ -3150,19 +2417,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.14</v>
+        <v>-12.81</v>
       </c>
       <c r="C128" t="n">
-        <v>-25.96</v>
+        <v>14.27</v>
       </c>
       <c r="D128" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-3.46</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.02</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="129">
@@ -3170,19 +2431,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14</v>
+        <v>-12.45</v>
       </c>
       <c r="C129" t="n">
-        <v>-26.74</v>
+        <v>14.01</v>
       </c>
       <c r="D129" t="n">
-        <v>28.27</v>
-      </c>
-      <c r="E129" t="n">
-        <v>-2.55</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.8</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="130">
@@ -3190,19 +2445,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.14</v>
+        <v>-12.04</v>
       </c>
       <c r="C130" t="n">
-        <v>-27.53</v>
+        <v>13.76</v>
       </c>
       <c r="D130" t="n">
-        <v>28.34</v>
-      </c>
-      <c r="E130" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.58</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="131">
@@ -3210,19 +2459,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.14</v>
+        <v>-11.9</v>
       </c>
       <c r="C131" t="n">
-        <v>-28.35</v>
+        <v>13.53</v>
       </c>
       <c r="D131" t="n">
-        <v>28.42</v>
-      </c>
-      <c r="E131" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.34</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="132">
@@ -3230,19 +2473,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.14</v>
+        <v>-11.91</v>
       </c>
       <c r="C132" t="n">
-        <v>-28.35</v>
+        <v>13.38</v>
       </c>
       <c r="D132" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.18</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="133">
@@ -3250,19 +2487,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14</v>
+        <v>-12.19</v>
       </c>
       <c r="C133" t="n">
-        <v>-27.97</v>
+        <v>13.43</v>
       </c>
       <c r="D133" t="n">
-        <v>28.64</v>
-      </c>
-      <c r="E133" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.02</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="134">
@@ -3270,19 +2501,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.14</v>
+        <v>-12.41</v>
       </c>
       <c r="C134" t="n">
-        <v>-27.44</v>
+        <v>13.48</v>
       </c>
       <c r="D134" t="n">
-        <v>28.77</v>
-      </c>
-      <c r="E134" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="F134" t="n">
-        <v>-0.22</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="135">
@@ -3290,19 +2515,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.14</v>
+        <v>-12.62</v>
       </c>
       <c r="C135" t="n">
-        <v>-27.46</v>
+        <v>13.13</v>
       </c>
       <c r="D135" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-0.46</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="136">
@@ -3310,19 +2529,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.14</v>
+        <v>-12.82</v>
       </c>
       <c r="C136" t="n">
-        <v>-27.33</v>
+        <v>12.78</v>
       </c>
       <c r="D136" t="n">
-        <v>29.91</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-0.6199999999999999</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="137">
@@ -3330,19 +2543,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.14</v>
+        <v>-13.04</v>
       </c>
       <c r="C137" t="n">
-        <v>-27.62</v>
+        <v>12.45</v>
       </c>
       <c r="D137" t="n">
-        <v>31.07</v>
-      </c>
-      <c r="E137" t="n">
-        <v>-2.99</v>
-      </c>
-      <c r="F137" t="n">
-        <v>-0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="138">
@@ -3350,19 +2557,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.14</v>
+        <v>-13.45</v>
       </c>
       <c r="C138" t="n">
-        <v>-27.83</v>
+        <v>12.11</v>
       </c>
       <c r="D138" t="n">
-        <v>32.18</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-3.68</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-0.97</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="139">
@@ -3370,19 +2571,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.14</v>
+        <v>-13.81</v>
       </c>
       <c r="C139" t="n">
-        <v>-27.86</v>
+        <v>11.78</v>
       </c>
       <c r="D139" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="E139" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="F139" t="n">
-        <v>-1.26</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="140">
@@ -3390,19 +2585,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.14</v>
+        <v>-14.28</v>
       </c>
       <c r="C140" t="n">
-        <v>-27.88</v>
+        <v>11.45</v>
       </c>
       <c r="D140" t="n">
-        <v>34.34</v>
-      </c>
-      <c r="E140" t="n">
-        <v>-5.15</v>
-      </c>
-      <c r="F140" t="n">
-        <v>-1.53</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="141">
@@ -3410,19 +2599,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.14</v>
+        <v>-14.48</v>
       </c>
       <c r="C141" t="n">
-        <v>-27.93</v>
+        <v>11.11</v>
       </c>
       <c r="D141" t="n">
-        <v>35.45</v>
-      </c>
-      <c r="E141" t="n">
-        <v>-5.91</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-1.8</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="142">
@@ -3430,19 +2613,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.14</v>
+        <v>-14.64</v>
       </c>
       <c r="C142" t="n">
-        <v>-27.77</v>
+        <v>10.66</v>
       </c>
       <c r="D142" t="n">
-        <v>36.57</v>
-      </c>
-      <c r="E142" t="n">
-        <v>-6.65</v>
-      </c>
-      <c r="F142" t="n">
-        <v>-2.29</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="143">
@@ -3450,19 +2627,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.14</v>
+        <v>-14.75</v>
       </c>
       <c r="C143" t="n">
-        <v>-27.88</v>
+        <v>10.23</v>
       </c>
       <c r="D143" t="n">
-        <v>37.57</v>
-      </c>
-      <c r="E143" t="n">
-        <v>-7.07</v>
-      </c>
-      <c r="F143" t="n">
-        <v>-2.76</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="144">
@@ -3470,19 +2641,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.14</v>
+        <v>-15</v>
       </c>
       <c r="C144" t="n">
-        <v>-27.63</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>38.35</v>
-      </c>
-      <c r="E144" t="n">
-        <v>-7.71</v>
-      </c>
-      <c r="F144" t="n">
-        <v>-3.149999999999999</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="145">
@@ -3490,19 +2655,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.14</v>
+        <v>-15.23</v>
       </c>
       <c r="C145" t="n">
-        <v>-27.47</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>-8.65</v>
-      </c>
-      <c r="F145" t="n">
-        <v>-3.62</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="146">
@@ -3510,19 +2669,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.14</v>
+        <v>-15.53</v>
       </c>
       <c r="C146" t="n">
-        <v>-27.37</v>
+        <v>10.05</v>
       </c>
       <c r="D146" t="n">
-        <v>40.91</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-9.57</v>
-      </c>
-      <c r="F146" t="n">
-        <v>-4.110000000000001</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="147">
@@ -3530,19 +2683,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.14</v>
+        <v>-15.79</v>
       </c>
       <c r="C147" t="n">
-        <v>-26.95</v>
+        <v>10.19</v>
       </c>
       <c r="D147" t="n">
-        <v>41.56</v>
-      </c>
-      <c r="E147" t="n">
-        <v>-10.21</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-4.540000000000001</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="148">
@@ -3550,19 +2697,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.14</v>
+        <v>-15.84</v>
       </c>
       <c r="C148" t="n">
-        <v>-27</v>
+        <v>10.34</v>
       </c>
       <c r="D148" t="n">
-        <v>42.19</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-10.87</v>
-      </c>
-      <c r="F148" t="n">
-        <v>-4.462000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="149">
@@ -3570,19 +2711,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.14</v>
+        <v>-15.88</v>
       </c>
       <c r="C149" t="n">
-        <v>-27.21</v>
+        <v>10.47</v>
       </c>
       <c r="D149" t="n">
-        <v>42.89</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-11.52</v>
-      </c>
-      <c r="F149" t="n">
-        <v>-4.304</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="150">
@@ -3590,19 +2725,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.14</v>
+        <v>-15.89</v>
       </c>
       <c r="C150" t="n">
-        <v>-27.29</v>
+        <v>10.62</v>
       </c>
       <c r="D150" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-12.15</v>
-      </c>
-      <c r="F150" t="n">
-        <v>-4.296</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="151">
@@ -3610,19 +2739,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.14</v>
+        <v>-14.77</v>
       </c>
       <c r="C151" t="n">
-        <v>-27.39</v>
+        <v>9.67</v>
       </c>
       <c r="D151" t="n">
-        <v>44.35</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-12.83</v>
-      </c>
-      <c r="F151" t="n">
-        <v>-4.268</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="152">
@@ -3630,19 +2753,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.14</v>
+        <v>-13.65</v>
       </c>
       <c r="C152" t="n">
-        <v>-27.79</v>
+        <v>8.75</v>
       </c>
       <c r="D152" t="n">
-        <v>45.26</v>
-      </c>
-      <c r="E152" t="n">
-        <v>-13.59</v>
-      </c>
-      <c r="F152" t="n">
-        <v>-4.02</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="153">
@@ -3650,19 +2767,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.14</v>
+        <v>-12.59</v>
       </c>
       <c r="C153" t="n">
-        <v>-28.29</v>
+        <v>7.88</v>
       </c>
       <c r="D153" t="n">
-        <v>46.25</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-14.31</v>
-      </c>
-      <c r="F153" t="n">
-        <v>-3.792</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="154">
@@ -3670,19 +2781,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.14</v>
+        <v>-11.45</v>
       </c>
       <c r="C154" t="n">
-        <v>-29.36</v>
+        <v>6.91</v>
       </c>
       <c r="D154" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-14.81</v>
-      </c>
-      <c r="F154" t="n">
-        <v>-3.574</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="155">
@@ -3690,19 +2795,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.14</v>
+        <v>-10.37</v>
       </c>
       <c r="C155" t="n">
-        <v>-29.52</v>
+        <v>5.95</v>
       </c>
       <c r="D155" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-15.04</v>
-      </c>
-      <c r="F155" t="n">
-        <v>-3.276000000000001</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="156">
@@ -3710,19 +2809,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.14</v>
+        <v>-9.18</v>
       </c>
       <c r="C156" t="n">
-        <v>-29.75</v>
+        <v>4.82</v>
       </c>
       <c r="D156" t="n">
-        <v>47.76</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-15.11</v>
-      </c>
-      <c r="F156" t="n">
-        <v>-3.038</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="157">
@@ -3730,19 +2823,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.14</v>
+        <v>-7.96</v>
       </c>
       <c r="C157" t="n">
-        <v>-29.72</v>
+        <v>3.67</v>
       </c>
       <c r="D157" t="n">
-        <v>47.57</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-15.19</v>
-      </c>
-      <c r="F157" t="n">
-        <v>-2.8</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="158">
@@ -3750,19 +2837,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.14</v>
+        <v>-6.8</v>
       </c>
       <c r="C158" t="n">
-        <v>-28.77</v>
+        <v>2.51</v>
       </c>
       <c r="D158" t="n">
-        <v>47.46</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-15.76</v>
-      </c>
-      <c r="F158" t="n">
-        <v>-3.070000000000001</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="159">
@@ -3770,19 +2851,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.14</v>
+        <v>-5.69</v>
       </c>
       <c r="C159" t="n">
-        <v>-28.67</v>
+        <v>1.4</v>
       </c>
       <c r="D159" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-16.32</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-3.3</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="160">
@@ -3790,19 +2865,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.14</v>
+        <v>-4.42</v>
       </c>
       <c r="C160" t="n">
-        <v>-28.68</v>
+        <v>0.2</v>
       </c>
       <c r="D160" t="n">
-        <v>48.82</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-16.88</v>
-      </c>
-      <c r="F160" t="n">
-        <v>-3.400000000000001</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="161">
@@ -3810,19 +2879,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="C161" t="n">
         <v>0.14</v>
       </c>
-      <c r="C161" t="n">
-        <v>-29.14</v>
-      </c>
       <c r="D161" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-17.37</v>
-      </c>
-      <c r="F161" t="n">
-        <v>-3.580000000000001</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="162">
@@ -3830,19 +2893,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.14</v>
+        <v>-4.12</v>
       </c>
       <c r="C162" t="n">
-        <v>-29.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>50.84</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-17.78</v>
-      </c>
-      <c r="F162" t="n">
-        <v>-3.840000000000001</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="163">
@@ -3850,19 +2907,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.14</v>
+        <v>-4.3</v>
       </c>
       <c r="C163" t="n">
-        <v>-29.58</v>
+        <v>-0.11</v>
       </c>
       <c r="D163" t="n">
-        <v>51.75</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-18.21</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-4.100000000000001</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="164">
@@ -3870,19 +2921,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.14</v>
+        <v>-4.51</v>
       </c>
       <c r="C164" t="n">
-        <v>-29.67</v>
+        <v>-0.24</v>
       </c>
       <c r="D164" t="n">
-        <v>52.52</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-18.62</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-4.37</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="165">
@@ -3890,19 +2935,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.14</v>
+        <v>-4.83</v>
       </c>
       <c r="C165" t="n">
-        <v>-30.56</v>
+        <v>-0.02</v>
       </c>
       <c r="D165" t="n">
-        <v>54.03</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-18.97</v>
-      </c>
-      <c r="F165" t="n">
-        <v>-4.64</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="166">
@@ -3910,19 +2949,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.14</v>
+        <v>-5.2</v>
       </c>
       <c r="C166" t="n">
-        <v>-31.33</v>
+        <v>0.24</v>
       </c>
       <c r="D166" t="n">
-        <v>55.53</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-19.49</v>
-      </c>
-      <c r="F166" t="n">
-        <v>-4.850000000000001</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="167">
@@ -3930,19 +2963,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.14</v>
+        <v>-5.62</v>
       </c>
       <c r="C167" t="n">
-        <v>-32.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-5.050000000000001</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="168">
@@ -3950,19 +2977,839 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.14</v>
+        <v>-6.1</v>
       </c>
       <c r="C168" t="n">
-        <v>-33.98</v>
+        <v>0.82</v>
       </c>
       <c r="D168" t="n">
-        <v>59.08</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F168" t="n">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-6.66</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-7.35</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-8.67</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-8.99</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-9.529999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-9.619999999999999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-9.76</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-9.58</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-9.41</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D188" t="n">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-7.72</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-7.43</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-7.33</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-7.08</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-7.08</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-7.14</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-7.29</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-7.47</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D199" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="D200" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-7.46</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="D201" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-7.51</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-6.54</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-5.91</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="D210" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-5.76</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
         <v>-5.24</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-4.98</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="D216" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-4.75</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="D217" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="D219" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-1.12</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/15/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/21/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$96</f>
+              <f>'data'!$B$2:$B$284</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,61 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$96</f>
+              <f>'data'!$C$2:$C$284</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'data'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$D$2:$D$284</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$284</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,10 +661,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Fish</t>
         </is>
@@ -626,16 +690,22 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15</v>
+        <v>-0.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.15</v>
+        <v>0.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.05</v>
+        <v>-0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-1.15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.15</v>
+        <v>-1.3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15</v>
+        <v>0.54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.25</v>
+        <v>-1.38</v>
       </c>
       <c r="C7" t="n">
-        <v>0.25</v>
+        <v>0.53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.43</v>
+        <v>-1.46</v>
       </c>
       <c r="C8" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.57</v>
+        <v>-1.51</v>
       </c>
       <c r="C9" t="n">
-        <v>0.57</v>
+        <v>0.14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.67</v>
+        <v>-1.44</v>
       </c>
       <c r="C10" t="n">
-        <v>0.67</v>
+        <v>-0.11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.79</v>
+        <v>-0.82</v>
       </c>
       <c r="C11" t="n">
-        <v>0.79</v>
+        <v>-0.86</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.79</v>
+        <v>-0.82</v>
       </c>
       <c r="C12" t="n">
-        <v>0.79</v>
+        <v>-0.86</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.93</v>
+        <v>-0.35</v>
       </c>
       <c r="C13" t="n">
-        <v>0.93</v>
+        <v>-1.51</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.52</v>
+        <v>-0.01</v>
       </c>
       <c r="C14" t="n">
-        <v>1.52</v>
+        <v>-2.23</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.01</v>
+        <v>0.46</v>
       </c>
       <c r="C15" t="n">
-        <v>2.01</v>
+        <v>-2.98</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.4</v>
+        <v>0.83</v>
       </c>
       <c r="C16" t="n">
-        <v>2.4</v>
+        <v>-3.6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.74</v>
+        <v>1.21</v>
       </c>
       <c r="C17" t="n">
-        <v>2.74</v>
+        <v>-4.21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.01</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.06</v>
+        <v>1.32</v>
       </c>
       <c r="C18" t="n">
-        <v>3.06</v>
+        <v>-4.85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.33</v>
+        <v>1.44</v>
       </c>
       <c r="C19" t="n">
-        <v>3.33</v>
+        <v>-5.35</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.51</v>
+        <v>2.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3.51</v>
+        <v>-5.83</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.78</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.82</v>
+        <v>2.55</v>
       </c>
       <c r="C21" t="n">
-        <v>3.82</v>
+        <v>-6.21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.04</v>
+        <v>1.9</v>
       </c>
       <c r="C22" t="n">
-        <v>4.04</v>
+        <v>-6.04</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-4.13</v>
+        <v>1.27</v>
       </c>
       <c r="C23" t="n">
-        <v>4.13</v>
+        <v>-5.99</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-3.8</v>
+        <v>0.82</v>
       </c>
       <c r="C24" t="n">
-        <v>3.8</v>
+        <v>-5.96</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.14</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-3.5</v>
+        <v>0.38</v>
       </c>
       <c r="C25" t="n">
-        <v>3.5</v>
+        <v>-5.89</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.51</v>
       </c>
     </row>
     <row r="26">
@@ -885,10 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-3.53</v>
+        <v>-0.06</v>
       </c>
       <c r="C26" t="n">
-        <v>3.53</v>
+        <v>-5.92</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.98</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-3.6</v>
+        <v>-0.52</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>-5.97</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.49</v>
       </c>
     </row>
     <row r="28">
@@ -907,10 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-3.7</v>
+        <v>-0.72</v>
       </c>
       <c r="C28" t="n">
-        <v>3.7</v>
+        <v>-6.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.73</v>
       </c>
     </row>
     <row r="29">
@@ -918,10 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.71</v>
+        <v>-1.42</v>
       </c>
       <c r="C29" t="n">
-        <v>3.71</v>
+        <v>-6.04</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.46</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.74</v>
+        <v>-2.59</v>
       </c>
       <c r="C30" t="n">
-        <v>3.74</v>
+        <v>-6.09</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="31">
@@ -940,10 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.63</v>
+        <v>-3.72</v>
       </c>
       <c r="C31" t="n">
-        <v>3.63</v>
+        <v>-6.16</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -951,10 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-3.73</v>
+        <v>-4.41</v>
       </c>
       <c r="C32" t="n">
-        <v>3.73</v>
+        <v>-6.22</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.63</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-4.1</v>
+        <v>-5.11</v>
       </c>
       <c r="C33" t="n">
-        <v>4.1</v>
+        <v>-6.2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.32</v>
       </c>
     </row>
     <row r="34">
@@ -973,10 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-4.55</v>
+        <v>-5.79</v>
       </c>
       <c r="C34" t="n">
-        <v>4.55</v>
+        <v>-6.14</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.95</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.04</v>
+        <v>-6.37</v>
       </c>
       <c r="C35" t="n">
-        <v>5.04</v>
+        <v>-6.1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -995,10 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.64</v>
+        <v>-4.62</v>
       </c>
       <c r="C36" t="n">
-        <v>5.64</v>
+        <v>-6.21</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.87</v>
       </c>
     </row>
     <row r="37">
@@ -1006,10 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-6.21</v>
+        <v>-2.83</v>
       </c>
       <c r="C37" t="n">
-        <v>6.21</v>
+        <v>-6.31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.19</v>
       </c>
     </row>
     <row r="38">
@@ -1017,10 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-6.71</v>
+        <v>-1.03</v>
       </c>
       <c r="C38" t="n">
-        <v>6.71</v>
+        <v>-6.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7.49</v>
       </c>
     </row>
     <row r="39">
@@ -1028,10 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-7.35</v>
+        <v>1.26</v>
       </c>
       <c r="C39" t="n">
-        <v>7.35</v>
+        <v>-6.48</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.29</v>
       </c>
     </row>
     <row r="40">
@@ -1039,10 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-8.130000000000001</v>
+        <v>3.33</v>
       </c>
       <c r="C40" t="n">
-        <v>8.130000000000001</v>
+        <v>-6.74</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.49</v>
       </c>
     </row>
     <row r="41">
@@ -1050,10 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-8.869999999999999</v>
+        <v>5.38</v>
       </c>
       <c r="C41" t="n">
-        <v>8.869999999999999</v>
+        <v>-6.99</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="42">
@@ -1061,10 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-8.550000000000001</v>
+        <v>7.59</v>
       </c>
       <c r="C42" t="n">
-        <v>8.550000000000001</v>
+        <v>-7.26</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="43">
@@ -1072,10 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-8.17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>8.17</v>
+        <v>-7.59</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.11</v>
       </c>
     </row>
     <row r="44">
@@ -1083,10 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-7.71</v>
+        <v>11.94</v>
       </c>
       <c r="C44" t="n">
-        <v>7.71</v>
+        <v>-7.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4.04</v>
       </c>
     </row>
     <row r="45">
@@ -1094,10 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-7.37</v>
+        <v>13.97</v>
       </c>
       <c r="C45" t="n">
-        <v>7.37</v>
+        <v>-8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-5.87</v>
       </c>
     </row>
     <row r="46">
@@ -1105,10 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-6.73</v>
+        <v>13.78</v>
       </c>
       <c r="C46" t="n">
-        <v>6.73</v>
+        <v>-8.06</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5.62</v>
       </c>
     </row>
     <row r="47">
@@ -1116,10 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-6.09</v>
+        <v>13.57</v>
       </c>
       <c r="C47" t="n">
-        <v>6.09</v>
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-5.36</v>
       </c>
     </row>
     <row r="48">
@@ -1127,10 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-5.49</v>
+        <v>13.34</v>
       </c>
       <c r="C48" t="n">
-        <v>5.49</v>
+        <v>-8.15</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-5.09</v>
       </c>
     </row>
     <row r="49">
@@ -1138,10 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.81</v>
+        <v>13.12</v>
       </c>
       <c r="C49" t="n">
-        <v>4.81</v>
+        <v>-8.26</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="50">
@@ -1149,10 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-4.04</v>
+        <v>13.2</v>
       </c>
       <c r="C50" t="n">
-        <v>4.04</v>
+        <v>-8.17</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-4.93</v>
       </c>
     </row>
     <row r="51">
@@ -1160,10 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.64</v>
+        <v>13.26</v>
       </c>
       <c r="C51" t="n">
-        <v>3.64</v>
+        <v>-8.07</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-5.09</v>
       </c>
     </row>
     <row r="52">
@@ -1171,10 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.18</v>
+        <v>13.3</v>
       </c>
       <c r="C52" t="n">
-        <v>4.18</v>
+        <v>-8.07</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-5.13</v>
       </c>
     </row>
     <row r="53">
@@ -1182,10 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.58</v>
+        <v>13.14</v>
       </c>
       <c r="C53" t="n">
-        <v>4.58</v>
+        <v>-8.09</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.95</v>
       </c>
     </row>
     <row r="54">
@@ -1193,10 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.83</v>
+        <v>13.05</v>
       </c>
       <c r="C54" t="n">
-        <v>4.83</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-4.74</v>
       </c>
     </row>
     <row r="55">
@@ -1204,10 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.91</v>
+        <v>12.97</v>
       </c>
       <c r="C55" t="n">
-        <v>4.91</v>
+        <v>-8.32</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-4.53</v>
       </c>
     </row>
     <row r="56">
@@ -1215,10 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-4.98</v>
+        <v>12.86</v>
       </c>
       <c r="C56" t="n">
-        <v>4.98</v>
+        <v>-8.43</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.3</v>
       </c>
     </row>
     <row r="57">
@@ -1226,10 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-4.99</v>
+        <v>12.73</v>
       </c>
       <c r="C57" t="n">
-        <v>4.99</v>
+        <v>-8.59</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.01</v>
       </c>
     </row>
     <row r="58">
@@ -1237,10 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-4.97</v>
+        <v>12.58</v>
       </c>
       <c r="C58" t="n">
-        <v>4.97</v>
+        <v>-8.74</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3.71</v>
       </c>
     </row>
     <row r="59">
@@ -1248,10 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-4.97</v>
+        <v>12.43</v>
       </c>
       <c r="C59" t="n">
-        <v>4.97</v>
+        <v>-8.76</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-3.54</v>
       </c>
     </row>
     <row r="60">
@@ -1259,10 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-5.04</v>
+        <v>12.2</v>
       </c>
       <c r="C60" t="n">
-        <v>5.04</v>
+        <v>-8.789999999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.28</v>
       </c>
     </row>
     <row r="61">
@@ -1270,10 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-4.91</v>
+        <v>11.97</v>
       </c>
       <c r="C61" t="n">
-        <v>4.91</v>
+        <v>-8.81</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3.03</v>
       </c>
     </row>
     <row r="62">
@@ -1281,10 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-4.77</v>
+        <v>11.74</v>
       </c>
       <c r="C62" t="n">
-        <v>4.77</v>
+        <v>-8.65</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-2.96</v>
       </c>
     </row>
     <row r="63">
@@ -1292,10 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-4.71</v>
+        <v>11.81</v>
       </c>
       <c r="C63" t="n">
-        <v>4.71</v>
+        <v>-8.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3.18</v>
       </c>
     </row>
     <row r="64">
@@ -1303,10 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-4.85</v>
+        <v>10.82</v>
       </c>
       <c r="C64" t="n">
-        <v>4.85</v>
+        <v>-8.48</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-2.22</v>
       </c>
     </row>
     <row r="65">
@@ -1314,10 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.01</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>5.01</v>
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="66">
@@ -1325,10 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.13</v>
+        <v>8.27</v>
       </c>
       <c r="C66" t="n">
-        <v>5.13</v>
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="67">
@@ -1336,10 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.34</v>
+        <v>6.99</v>
       </c>
       <c r="C67" t="n">
-        <v>5.34</v>
+        <v>-8.390000000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="68">
@@ -1347,10 +1609,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.54</v>
+        <v>5.74</v>
       </c>
       <c r="C68" t="n">
-        <v>5.54</v>
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1623,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.73</v>
+        <v>4.43</v>
       </c>
       <c r="C69" t="n">
-        <v>5.73</v>
+        <v>-8.119999999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.78</v>
       </c>
     </row>
     <row r="70">
@@ -1369,10 +1637,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.84</v>
+        <v>3.13</v>
       </c>
       <c r="C70" t="n">
-        <v>5.84</v>
+        <v>-7.97</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.95</v>
       </c>
     </row>
     <row r="71">
@@ -1380,10 +1651,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.83</v>
+        <v>1.86</v>
       </c>
       <c r="C71" t="n">
-        <v>5.83</v>
+        <v>-7.85</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.09</v>
       </c>
     </row>
     <row r="72">
@@ -1391,10 +1665,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.82</v>
+        <v>0.57</v>
       </c>
       <c r="C72" t="n">
-        <v>5.82</v>
+        <v>-7.78</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.31</v>
       </c>
     </row>
     <row r="73">
@@ -1402,10 +1679,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.81</v>
+        <v>-1.06</v>
       </c>
       <c r="C73" t="n">
-        <v>5.81</v>
+        <v>-7.74</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1413,10 +1693,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.74</v>
+        <v>-1.64</v>
       </c>
       <c r="C74" t="n">
-        <v>5.74</v>
+        <v>-7.58</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.32</v>
       </c>
     </row>
     <row r="75">
@@ -1424,10 +1707,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.65</v>
+        <v>-1.86</v>
       </c>
       <c r="C75" t="n">
-        <v>5.65</v>
+        <v>-7.46</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9.42</v>
       </c>
     </row>
     <row r="76">
@@ -1435,10 +1721,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.68</v>
+        <v>-2.05</v>
       </c>
       <c r="C76" t="n">
-        <v>5.68</v>
+        <v>-7.37</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.51</v>
       </c>
     </row>
     <row r="77">
@@ -1446,10 +1735,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.66</v>
+        <v>-2.21</v>
       </c>
       <c r="C77" t="n">
-        <v>5.66</v>
+        <v>-7.27</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9.59</v>
       </c>
     </row>
     <row r="78">
@@ -1457,10 +1749,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.7</v>
+        <v>-2.37</v>
       </c>
       <c r="C78" t="n">
-        <v>5.7</v>
+        <v>-7.24</v>
+      </c>
+      <c r="D78" t="n">
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1468,10 +1763,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.74</v>
+        <v>-2.48</v>
       </c>
       <c r="C79" t="n">
-        <v>5.74</v>
+        <v>-7.31</v>
+      </c>
+      <c r="D79" t="n">
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1479,10 +1777,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.87</v>
+        <v>-2.61</v>
       </c>
       <c r="C80" t="n">
-        <v>5.87</v>
+        <v>-7.34</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10.05</v>
       </c>
     </row>
     <row r="81">
@@ -1490,10 +1791,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-6.02</v>
+        <v>-2.79</v>
       </c>
       <c r="C81" t="n">
-        <v>6.02</v>
+        <v>-7.36</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10.25</v>
       </c>
     </row>
     <row r="82">
@@ -1501,10 +1805,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-6.2</v>
+        <v>-2.87</v>
       </c>
       <c r="C82" t="n">
-        <v>6.2</v>
+        <v>-7.4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10.37</v>
       </c>
     </row>
     <row r="83">
@@ -1512,10 +1819,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.37</v>
+        <v>-3.8</v>
       </c>
       <c r="C83" t="n">
-        <v>6.37</v>
+        <v>-6.31</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10.21</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1833,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-6.75</v>
+        <v>-4.61</v>
       </c>
       <c r="C84" t="n">
-        <v>6.75</v>
+        <v>-5.26</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1534,10 +1847,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-6.91</v>
+        <v>-5.48</v>
       </c>
       <c r="C85" t="n">
-        <v>6.91</v>
+        <v>-4.16</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.74</v>
       </c>
     </row>
     <row r="86">
@@ -1545,10 +1861,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.62</v>
+        <v>-6.31</v>
       </c>
       <c r="C86" t="n">
-        <v>6.62</v>
+        <v>-3.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9.51</v>
       </c>
     </row>
     <row r="87">
@@ -1556,10 +1875,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-6.57</v>
+        <v>-7.13</v>
       </c>
       <c r="C87" t="n">
-        <v>6.57</v>
+        <v>-2.06</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1567,10 +1889,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-6.5</v>
+        <v>-7.98</v>
       </c>
       <c r="C88" t="n">
-        <v>6.5</v>
+        <v>-1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="89">
@@ -1578,10 +1903,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-6.43</v>
+        <v>-8.84</v>
       </c>
       <c r="C89" t="n">
-        <v>6.43</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="90">
@@ -1589,10 +1917,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-6.69</v>
+        <v>-9.68</v>
       </c>
       <c r="C90" t="n">
-        <v>6.69</v>
+        <v>1.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1600,10 +1931,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-6.97</v>
+        <v>-10.52</v>
       </c>
       <c r="C91" t="n">
-        <v>6.97</v>
+        <v>2.15</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8.52</v>
       </c>
     </row>
     <row r="92">
@@ -1611,10 +1945,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-7.39</v>
+        <v>-11.34</v>
       </c>
       <c r="C92" t="n">
-        <v>7.39</v>
+        <v>3.12</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -1622,10 +1959,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-7.81</v>
+        <v>-11.05</v>
       </c>
       <c r="C93" t="n">
-        <v>7.81</v>
+        <v>2.96</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.26</v>
       </c>
     </row>
     <row r="94">
@@ -1633,10 +1973,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-8.050000000000001</v>
+        <v>-10.85</v>
       </c>
       <c r="C94" t="n">
-        <v>8.050000000000001</v>
+        <v>2.79</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.24</v>
       </c>
     </row>
     <row r="95">
@@ -1644,10 +1987,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-8.41</v>
+        <v>-10.65</v>
       </c>
       <c r="C95" t="n">
-        <v>8.41</v>
+        <v>2.62</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1655,10 +2001,2912 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-8.970000000000001</v>
+        <v>-10.66</v>
       </c>
       <c r="C96" t="n">
-        <v>8.970000000000001</v>
+        <v>2.63</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-10.69</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8.220000000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-9.23</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-8.550000000000001</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8.130000000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-7.83</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-6.59</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-5.97</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-5.42</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-4.76</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.79</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-4.49</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-5.17</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-5.54</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-5.92</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-6.32</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-6.82</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-7.41</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-9.69</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-12.05</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-14.41</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-16.58</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-20.69</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-22.73</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="D127" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-24.64</v>
+      </c>
+      <c r="C128" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="D128" t="n">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-26.48</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-28.33</v>
+      </c>
+      <c r="C130" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="D130" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-28.58</v>
+      </c>
+      <c r="C131" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-28.85</v>
+      </c>
+      <c r="C132" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="D132" t="n">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-29.11</v>
+      </c>
+      <c r="C133" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="D133" t="n">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="D134" t="n">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-30.12</v>
+      </c>
+      <c r="C135" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-30.64</v>
+      </c>
+      <c r="C136" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-31.16</v>
+      </c>
+      <c r="C137" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-31.77</v>
+      </c>
+      <c r="C138" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-32.49</v>
+      </c>
+      <c r="C139" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-33.11</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="D140" t="n">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-33.61</v>
+      </c>
+      <c r="C141" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D141" t="n">
+        <v>10.62</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-34.08</v>
+      </c>
+      <c r="C142" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="D142" t="n">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-34.56</v>
+      </c>
+      <c r="C143" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="D143" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-35.05</v>
+      </c>
+      <c r="C144" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-35.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-35.91</v>
+      </c>
+      <c r="C146" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-36.29</v>
+      </c>
+      <c r="C147" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-36.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="D148" t="n">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-36.99</v>
+      </c>
+      <c r="C149" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="D149" t="n">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-37.24</v>
+      </c>
+      <c r="C150" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-37.88</v>
+      </c>
+      <c r="C151" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="D151" t="n">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-38.55</v>
+      </c>
+      <c r="C152" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-39.15</v>
+      </c>
+      <c r="C153" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-39.38</v>
+      </c>
+      <c r="C154" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="D154" t="n">
+        <v>16.22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-39.62</v>
+      </c>
+      <c r="C155" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-39.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-40.22</v>
+      </c>
+      <c r="C157" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D157" t="n">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-40.53</v>
+      </c>
+      <c r="C158" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-40.84</v>
+      </c>
+      <c r="C159" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="D159" t="n">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-40.18</v>
+      </c>
+      <c r="C160" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="D160" t="n">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-38.96</v>
+      </c>
+      <c r="C161" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="D161" t="n">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-37.73</v>
+      </c>
+      <c r="C162" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="D162" t="n">
+        <v>18.56</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-36.59</v>
+      </c>
+      <c r="C163" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="D163" t="n">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-34.49</v>
+      </c>
+      <c r="C164" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="D164" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-32.38</v>
+      </c>
+      <c r="C165" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="D165" t="n">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-30.26</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D166" t="n">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-28.01</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>18.51</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-25.77</v>
+      </c>
+      <c r="C168" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D168" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-23.41</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D169" t="n">
+        <v>18.37</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-22.11</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D170" t="n">
+        <v>18.28</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D171" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-19.51</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D172" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-18.16</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D173" t="n">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-17.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D174" t="n">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-17.65</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D175" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-17.49</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>16.64</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-17.44</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D177" t="n">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-17.29</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-17.31</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-17.31</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-17.43</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-17.54</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-17.17</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D183" t="n">
+        <v>16.06</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-16.79</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-16.37</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-15.89</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-15.56</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-15.65</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D188" t="n">
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-15.57</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="D191" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="D192" t="n">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-15.06</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="D193" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-15.03</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="D194" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-15.02</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D195" t="n">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-15.06</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-14.94</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-14.51</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D198" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-14.19</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D199" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-1.175</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-13.87</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D200" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-1.43</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-13.58</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-13.27</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D202" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-1.835714285714286</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-13.41</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D203" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-2.08375</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-13.59</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D204" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-2.298888888888889</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-13.63</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D205" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-2.471</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-13.64</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D206" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-2.471</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-13.67</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D207" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-13.71</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D208" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-3.409</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-13.77</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="D209" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-3.553</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-13.78</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="D210" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-3.717</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-13.77</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D211" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-3.901</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-13.85</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D212" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-2.374</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-13.88</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D213" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.9329999999999996</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-13.46</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="D214" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-13.18</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="D215" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.763</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-12.71</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-4.78</v>
+      </c>
+      <c r="D216" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.024</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-12.39</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-6.29</v>
+      </c>
+      <c r="D217" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.341999999999999</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-11.78</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="D218" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-11.21</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-9.31</v>
+      </c>
+      <c r="D219" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="E219" t="n">
+        <v>7.348000000000001</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-10.76</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="D220" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="E220" t="n">
+        <v>8.995999999999999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-10.32</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-12.38</v>
+      </c>
+      <c r="D221" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E221" t="n">
+        <v>10.744</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-9.73</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-12.41</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="E222" t="n">
+        <v>10.721</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-9.19</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="E223" t="n">
+        <v>10.807</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-9.01</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11.013</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-8.91</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-12.12</v>
+      </c>
+      <c r="D225" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E225" t="n">
+        <v>11.089</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-8.99</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-11.97</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11.232</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-11.98</v>
+      </c>
+      <c r="D227" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11.415</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-9.17</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-11.96</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11.618</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-9.35</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="D229" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11.371</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="D230" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11.127</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="D231" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>10.793</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="D232" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="E232" t="n">
+        <v>10.449</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="D233" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10.252</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-9.92</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-10.99</v>
+      </c>
+      <c r="D234" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E234" t="n">
+        <v>10.035</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-9.91</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-10.55</v>
+      </c>
+      <c r="D235" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E235" t="n">
+        <v>9.856</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="D236" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="E236" t="n">
+        <v>9.577000000000002</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-9.880000000000001</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="D237" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="E237" t="n">
+        <v>9.178000000000001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-9.66</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="E238" t="n">
+        <v>8.959</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-9.33</v>
+      </c>
+      <c r="D239" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E239" t="n">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-9.15</v>
+      </c>
+      <c r="D240" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="E240" t="n">
+        <v>8.523</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-9.279999999999999</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="D241" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>8.496</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-9.09</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="D242" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>8.481999999999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-8.82</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="D243" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="E243" t="n">
+        <v>8.367999999999999</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-8.84</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-8.33</v>
+      </c>
+      <c r="D244" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E244" t="n">
+        <v>8.054</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="D245" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="E245" t="n">
+        <v>7.892</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-8.69</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-5.82</v>
+      </c>
+      <c r="D246" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E246" t="n">
+        <v>7.680000000000001</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-8.369999999999999</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="D247" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E247" t="n">
+        <v>7.537999999999999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7.146000000000001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-8.119999999999999</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E249" t="n">
+        <v>6.884</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-8.16</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E250" t="n">
+        <v>6.316999999999999</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-8.68</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E251" t="n">
+        <v>6.249999999999999</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E252" t="n">
+        <v>6.289999999999999</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-9.82</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E253" t="n">
+        <v>6.029999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-10.83</v>
+      </c>
+      <c r="C254" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-11.63</v>
+      </c>
+      <c r="C255" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-12.96</v>
+      </c>
+      <c r="C256" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="E256" t="n">
+        <v>6.409999999999999</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="C257" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="E257" t="n">
+        <v>6.775</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-15.53</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="E258" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-17.27</v>
+      </c>
+      <c r="C259" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="E259" t="n">
+        <v>8.344999999999999</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-18.93</v>
+      </c>
+      <c r="C260" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D260" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="E260" t="n">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-20.09</v>
+      </c>
+      <c r="C261" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="D261" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10.295</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-21.16</v>
+      </c>
+      <c r="C262" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="E262" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-21.89</v>
+      </c>
+      <c r="C263" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="D263" t="n">
+        <v>-5.74</v>
+      </c>
+      <c r="E263" t="n">
+        <v>11.815</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-22.22</v>
+      </c>
+      <c r="C264" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="D264" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="E264" t="n">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-22.59</v>
+      </c>
+      <c r="C265" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="E265" t="n">
+        <v>13.485</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-22.78</v>
+      </c>
+      <c r="C266" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-6.17</v>
+      </c>
+      <c r="E266" t="n">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-22.99</v>
+      </c>
+      <c r="C267" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="E267" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="C268" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-6.24</v>
+      </c>
+      <c r="E268" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-21.56</v>
+      </c>
+      <c r="C269" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-20.56</v>
+      </c>
+      <c r="C270" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-6.17</v>
+      </c>
+      <c r="E270" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-19.59</v>
+      </c>
+      <c r="C271" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="E271" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-18.31</v>
+      </c>
+      <c r="C272" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-5.81</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-17.32</v>
+      </c>
+      <c r="C273" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-16.18</v>
+      </c>
+      <c r="C274" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-14.96</v>
+      </c>
+      <c r="C275" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-13.88</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="E276" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-12.77</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-5.31</v>
+      </c>
+      <c r="E277" t="n">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-12.55</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="E278" t="n">
+        <v>11.705</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-12.33</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="E279" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-12.13</v>
+      </c>
+      <c r="C280" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-6.31</v>
+      </c>
+      <c r="E280" t="n">
+        <v>11.855</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-11.92</v>
+      </c>
+      <c r="C281" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D281" t="n">
+        <v>-6.71</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="C282" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.495</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-12.54</v>
+      </c>
+      <c r="C283" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-12.82</v>
+      </c>
+      <c r="C284" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="D284" t="n">
+        <v>-8.619999999999999</v>
+      </c>
+      <c r="E284" t="n">
+        <v>13.465</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/21/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/07/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$284</f>
+              <f>'data'!$B$2:$B$188</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$284</f>
+              <f>'data'!$C$2:$C$188</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$284</f>
+              <f>'data'!$D$2:$D$188</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +275,34 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$284</f>
+              <f>'data'!$E$2:$E$188</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$188</f>
             </numRef>
           </val>
         </ser>
@@ -645,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,24 +688,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -693,18 +725,30 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -713,13 +757,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.53</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="5">
@@ -727,13 +777,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.15</v>
+        <v>-0.15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55</v>
+        <v>-1.74</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="6">
@@ -741,13 +797,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.3</v>
+        <v>0.46</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54</v>
+        <v>-3.46</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76</v>
+        <v>-0.04</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.96</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +817,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.38</v>
+        <v>0.51</v>
       </c>
       <c r="C7" t="n">
-        <v>0.53</v>
+        <v>-4.61</v>
       </c>
       <c r="D7" t="n">
-        <v>0.85</v>
+        <v>0.33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.74</v>
       </c>
     </row>
     <row r="8">
@@ -769,13 +837,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.46</v>
+        <v>0.51</v>
       </c>
       <c r="C8" t="n">
-        <v>0.31</v>
+        <v>-5.23</v>
       </c>
       <c r="D8" t="n">
-        <v>1.14</v>
+        <v>0.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.21</v>
       </c>
     </row>
     <row r="9">
@@ -783,13 +857,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.51</v>
+        <v>0.44</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14</v>
+        <v>-5.69</v>
       </c>
       <c r="D9" t="n">
-        <v>1.38</v>
+        <v>0.78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.52</v>
       </c>
     </row>
     <row r="10">
@@ -797,13 +877,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.44</v>
+        <v>1.08</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.11</v>
+        <v>-6.7</v>
       </c>
       <c r="D10" t="n">
-        <v>1.54</v>
+        <v>0.91</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.76</v>
       </c>
     </row>
     <row r="11">
@@ -811,13 +897,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.82</v>
+        <v>1.59</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.86</v>
+        <v>-7.53</v>
       </c>
       <c r="D11" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.95</v>
       </c>
     </row>
     <row r="12">
@@ -825,13 +917,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.82</v>
+        <v>1.59</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.86</v>
+        <v>-7.53</v>
       </c>
       <c r="D12" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.95</v>
       </c>
     </row>
     <row r="13">
@@ -839,13 +937,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.35</v>
+        <v>2.2</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.51</v>
+        <v>-9.02</v>
       </c>
       <c r="D13" t="n">
-        <v>1.85</v>
+        <v>1.19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.69</v>
       </c>
     </row>
     <row r="14">
@@ -853,13 +957,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01</v>
+        <v>2.82</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.23</v>
+        <v>-10.51</v>
       </c>
       <c r="D14" t="n">
-        <v>2.24</v>
+        <v>1.4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.41</v>
       </c>
     </row>
     <row r="15">
@@ -867,13 +977,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.46</v>
+        <v>3.39</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.98</v>
+        <v>-12.04</v>
       </c>
       <c r="D15" t="n">
-        <v>2.52</v>
+        <v>1.69</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.12</v>
       </c>
     </row>
     <row r="16">
@@ -881,13 +997,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.83</v>
+        <v>3.98</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.6</v>
+        <v>-12.8</v>
       </c>
       <c r="D16" t="n">
-        <v>2.77</v>
+        <v>1.97</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.04</v>
       </c>
     </row>
     <row r="17">
@@ -895,13 +1017,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.21</v>
+        <v>4.18</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.21</v>
+        <v>-13.17</v>
       </c>
       <c r="D17" t="n">
-        <v>3.01</v>
+        <v>2.25</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.96</v>
       </c>
     </row>
     <row r="18">
@@ -909,13 +1037,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.32</v>
+        <v>4.7</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.85</v>
+        <v>-13.62</v>
       </c>
       <c r="D18" t="n">
-        <v>3.53</v>
+        <v>2.29</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.88</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +1057,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.44</v>
+        <v>5.24</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.35</v>
+        <v>-13.92</v>
       </c>
       <c r="D19" t="n">
-        <v>3.9</v>
+        <v>2.33</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.57</v>
       </c>
     </row>
     <row r="20">
@@ -937,13 +1077,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.05</v>
+        <v>6.86</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.83</v>
+        <v>-14.93</v>
       </c>
       <c r="D20" t="n">
-        <v>3.78</v>
+        <v>2.37</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.07</v>
       </c>
     </row>
     <row r="21">
@@ -951,13 +1097,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.55</v>
+        <v>7.84</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.21</v>
+        <v>-15.29</v>
       </c>
       <c r="D21" t="n">
-        <v>3.66</v>
+        <v>2.43</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.57</v>
       </c>
     </row>
     <row r="22">
@@ -965,13 +1117,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.04</v>
+        <v>-15.59</v>
       </c>
       <c r="D22" t="n">
-        <v>4.14</v>
+        <v>2.45</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.07</v>
       </c>
     </row>
     <row r="23">
@@ -979,13 +1137,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.27</v>
+        <v>9.77</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.99</v>
+        <v>-15.89</v>
       </c>
       <c r="D23" t="n">
-        <v>4.72</v>
+        <v>2.52</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.48</v>
       </c>
     </row>
     <row r="24">
@@ -993,13 +1157,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.82</v>
+        <v>10.73</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.96</v>
+        <v>-16.19</v>
       </c>
       <c r="D24" t="n">
-        <v>5.14</v>
+        <v>2.53</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.97</v>
       </c>
     </row>
     <row r="25">
@@ -1007,13 +1177,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.38</v>
+        <v>11.75</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.89</v>
+        <v>-16.51</v>
       </c>
       <c r="D25" t="n">
-        <v>5.51</v>
+        <v>2.47</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.49</v>
       </c>
     </row>
     <row r="26">
@@ -1021,13 +1197,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.06</v>
+        <v>12.91</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.92</v>
+        <v>-16.82</v>
       </c>
       <c r="D26" t="n">
-        <v>5.98</v>
+        <v>2.39</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.01</v>
       </c>
     </row>
     <row r="27">
@@ -1035,13 +1217,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.52</v>
+        <v>14.04</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.97</v>
+        <v>-17.49</v>
       </c>
       <c r="D27" t="n">
-        <v>6.49</v>
+        <v>2.32</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="28">
@@ -1049,13 +1237,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.72</v>
+        <v>15.05</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.01</v>
+        <v>-18.16</v>
       </c>
       <c r="D28" t="n">
-        <v>6.73</v>
+        <v>2.43</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="29">
@@ -1063,13 +1257,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.42</v>
+        <v>16.05</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.04</v>
+        <v>-19.09</v>
       </c>
       <c r="D29" t="n">
-        <v>7.46</v>
+        <v>2.54</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="30">
@@ -1077,13 +1277,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.59</v>
+        <v>16.03</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.09</v>
+        <v>-19.24</v>
       </c>
       <c r="D30" t="n">
-        <v>8.68</v>
+        <v>2.65</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="31">
@@ -1091,13 +1297,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.72</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.16</v>
+        <v>-19.48</v>
       </c>
       <c r="D31" t="n">
-        <v>9.880000000000001</v>
+        <v>2.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="32">
@@ -1105,13 +1317,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-4.41</v>
+        <v>15.99</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.22</v>
+        <v>-19.71</v>
       </c>
       <c r="D32" t="n">
-        <v>10.63</v>
+        <v>2.96</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="33">
@@ -1119,13 +1337,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-5.11</v>
+        <v>16.01</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.2</v>
+        <v>-19.94</v>
       </c>
       <c r="D33" t="n">
-        <v>11.32</v>
+        <v>3.13</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="34">
@@ -1133,13 +1357,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.79</v>
+        <v>15.96</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.14</v>
+        <v>-20.08</v>
       </c>
       <c r="D34" t="n">
-        <v>11.95</v>
+        <v>3.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="35">
@@ -1147,13 +1377,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.37</v>
+        <v>15.85</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.1</v>
+        <v>-19.77</v>
       </c>
       <c r="D35" t="n">
-        <v>12.5</v>
+        <v>3.09</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="36">
@@ -1161,13 +1397,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-4.62</v>
+        <v>15.54</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.21</v>
+        <v>-19.49</v>
       </c>
       <c r="D36" t="n">
-        <v>10.87</v>
+        <v>3.03</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="37">
@@ -1175,13 +1417,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.83</v>
+        <v>15.25</v>
       </c>
       <c r="C37" t="n">
-        <v>-6.31</v>
+        <v>-18.79</v>
       </c>
       <c r="D37" t="n">
-        <v>9.19</v>
+        <v>2.96</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="38">
@@ -1189,13 +1437,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.03</v>
+        <v>14.89</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.4</v>
+        <v>-18</v>
       </c>
       <c r="D38" t="n">
-        <v>7.49</v>
+        <v>2.94</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="39">
@@ -1203,13 +1457,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.26</v>
+        <v>14.6</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.48</v>
+        <v>-17.25</v>
       </c>
       <c r="D39" t="n">
-        <v>5.29</v>
+        <v>2.92</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1477,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.33</v>
+        <v>14.24</v>
       </c>
       <c r="C40" t="n">
-        <v>-6.74</v>
+        <v>-17.55</v>
       </c>
       <c r="D40" t="n">
-        <v>3.49</v>
+        <v>2.82</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="41">
@@ -1231,13 +1497,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.38</v>
+        <v>13.9</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.99</v>
+        <v>-17.71</v>
       </c>
       <c r="D41" t="n">
-        <v>1.7</v>
+        <v>2.58</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="42">
@@ -1245,13 +1517,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.59</v>
+        <v>13.67</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.26</v>
+        <v>-18.01</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.23</v>
+        <v>2.35</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="43">
@@ -1259,13 +1537,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.800000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.59</v>
+        <v>-18.38</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.11</v>
+        <v>2.12</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.47</v>
       </c>
     </row>
     <row r="44">
@@ -1273,13 +1557,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.94</v>
+        <v>13.22</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.8</v>
+        <v>-18.87</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.04</v>
+        <v>1.89</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.67</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1577,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.97</v>
+        <v>13.06</v>
       </c>
       <c r="C45" t="n">
-        <v>-8</v>
+        <v>-19.77</v>
       </c>
       <c r="D45" t="n">
-        <v>-5.87</v>
+        <v>2.02</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.86</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1597,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.78</v>
+        <v>12.96</v>
       </c>
       <c r="C46" t="n">
-        <v>-8.06</v>
+        <v>-20.65</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.62</v>
+        <v>2.01</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8.06</v>
       </c>
     </row>
     <row r="47">
@@ -1315,13 +1617,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.57</v>
+        <v>12.86</v>
       </c>
       <c r="C47" t="n">
-        <v>-8.109999999999999</v>
+        <v>-21.54</v>
       </c>
       <c r="D47" t="n">
-        <v>-5.36</v>
+        <v>2.02</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9.32</v>
       </c>
     </row>
     <row r="48">
@@ -1329,13 +1637,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.34</v>
+        <v>12.81</v>
       </c>
       <c r="C48" t="n">
-        <v>-8.15</v>
+        <v>-22.41</v>
       </c>
       <c r="D48" t="n">
-        <v>-5.09</v>
+        <v>1.81</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-2.78</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10.65</v>
       </c>
     </row>
     <row r="49">
@@ -1343,13 +1657,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.12</v>
+        <v>12.7</v>
       </c>
       <c r="C49" t="n">
-        <v>-8.26</v>
+        <v>-23.04</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.76</v>
+        <v>1.6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11.99</v>
       </c>
     </row>
     <row r="50">
@@ -1357,13 +1677,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.2</v>
+        <v>12.67</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.17</v>
+        <v>-22.67</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.93</v>
+        <v>1.45</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-3.52</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12.17</v>
       </c>
     </row>
     <row r="51">
@@ -1371,13 +1697,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.26</v>
+        <v>12.54</v>
       </c>
       <c r="C51" t="n">
-        <v>-8.07</v>
+        <v>-22.68</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.09</v>
+        <v>1.38</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12.75</v>
       </c>
     </row>
     <row r="52">
@@ -1385,13 +1717,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="C52" t="n">
-        <v>-8.07</v>
+        <v>-22.61</v>
       </c>
       <c r="D52" t="n">
-        <v>-5.13</v>
+        <v>1.4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>13.31</v>
       </c>
     </row>
     <row r="53">
@@ -1399,13 +1737,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.14</v>
+        <v>12.04</v>
       </c>
       <c r="C53" t="n">
-        <v>-8.09</v>
+        <v>-22.37</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.95</v>
+        <v>1.35</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13.68</v>
       </c>
     </row>
     <row r="54">
@@ -1413,13 +1757,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.05</v>
+        <v>11.77</v>
       </c>
       <c r="C54" t="n">
-        <v>-8.199999999999999</v>
+        <v>-21.98</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.74</v>
+        <v>1.19</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14.03</v>
       </c>
     </row>
     <row r="55">
@@ -1427,13 +1777,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.97</v>
+        <v>11.52</v>
       </c>
       <c r="C55" t="n">
-        <v>-8.32</v>
+        <v>-21.54</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.53</v>
+        <v>0.98</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-5.28</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14.38</v>
       </c>
     </row>
     <row r="56">
@@ -1441,13 +1797,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.86</v>
+        <v>11.28</v>
       </c>
       <c r="C56" t="n">
-        <v>-8.43</v>
+        <v>-21.04</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.3</v>
+        <v>0.76</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-5.67</v>
+      </c>
+      <c r="F56" t="n">
+        <v>14.73</v>
       </c>
     </row>
     <row r="57">
@@ -1455,13 +1817,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.73</v>
+        <v>11.08</v>
       </c>
       <c r="C57" t="n">
-        <v>-8.59</v>
+        <v>-20.69</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.01</v>
+        <v>0.52</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15.13</v>
       </c>
     </row>
     <row r="58">
@@ -1469,13 +1837,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.58</v>
+        <v>10.88</v>
       </c>
       <c r="C58" t="n">
-        <v>-8.74</v>
+        <v>-20.26</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.71</v>
+        <v>0.28</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>15.52</v>
       </c>
     </row>
     <row r="59">
@@ -1483,13 +1857,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.43</v>
+        <v>10.61</v>
       </c>
       <c r="C59" t="n">
-        <v>-8.76</v>
+        <v>-19.9</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.54</v>
+        <v>0.05</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-6.59</v>
+      </c>
+      <c r="F59" t="n">
+        <v>15.83</v>
       </c>
     </row>
     <row r="60">
@@ -1497,13 +1877,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.2</v>
+        <v>10.26</v>
       </c>
       <c r="C60" t="n">
-        <v>-8.789999999999999</v>
+        <v>-19.38</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.28</v>
+        <v>-0.19</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-6.77</v>
+      </c>
+      <c r="F60" t="n">
+        <v>16.08</v>
       </c>
     </row>
     <row r="61">
@@ -1511,13 +1897,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.97</v>
+        <v>10.11</v>
       </c>
       <c r="C61" t="n">
-        <v>-8.81</v>
+        <v>-18.58</v>
       </c>
       <c r="D61" t="n">
-        <v>-3.03</v>
+        <v>-0.48</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-6.96</v>
+      </c>
+      <c r="F61" t="n">
+        <v>15.91</v>
       </c>
     </row>
     <row r="62">
@@ -1525,13 +1917,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.74</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>-8.65</v>
+        <v>-17.71</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.96</v>
+        <v>-0.85</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="63">
@@ -1539,13 +1937,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.81</v>
+        <v>9.81</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.5</v>
+        <v>-16.94</v>
       </c>
       <c r="D63" t="n">
-        <v>-3.18</v>
+        <v>-1.15</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-7.24</v>
+      </c>
+      <c r="F63" t="n">
+        <v>15.52</v>
       </c>
     </row>
     <row r="64">
@@ -1553,13 +1957,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.82</v>
+        <v>9.66</v>
       </c>
       <c r="C64" t="n">
-        <v>-8.48</v>
+        <v>-16.29</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.22</v>
+        <v>-1.33</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-7.38</v>
+      </c>
+      <c r="F64" t="n">
+        <v>15.34</v>
       </c>
     </row>
     <row r="65">
@@ -1567,13 +1977,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.539999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="C65" t="n">
-        <v>-8.470000000000001</v>
+        <v>-15.52</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.96</v>
+        <v>-1.53</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-7.54</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="66">
@@ -1581,13 +1997,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.27</v>
+        <v>9.52</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.470000000000001</v>
+        <v>-15.08</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3</v>
+        <v>-1.72</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>14.98</v>
       </c>
     </row>
     <row r="67">
@@ -1595,13 +2017,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.99</v>
+        <v>9.57</v>
       </c>
       <c r="C67" t="n">
-        <v>-8.390000000000001</v>
+        <v>-14.59</v>
       </c>
       <c r="D67" t="n">
-        <v>1.5</v>
+        <v>-1.84</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-7.86</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14.73</v>
       </c>
     </row>
     <row r="68">
@@ -1609,13 +2037,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.74</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>-8.279999999999999</v>
+        <v>-14.2</v>
       </c>
       <c r="D68" t="n">
-        <v>2.64</v>
+        <v>-1.97</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-7.91</v>
+      </c>
+      <c r="F68" t="n">
+        <v>14.48</v>
       </c>
     </row>
     <row r="69">
@@ -1623,13 +2057,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.43</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>-8.119999999999999</v>
+        <v>-13.88</v>
       </c>
       <c r="D69" t="n">
-        <v>3.78</v>
+        <v>-2.15</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-7.94</v>
+      </c>
+      <c r="F69" t="n">
+        <v>14.26</v>
       </c>
     </row>
     <row r="70">
@@ -1637,13 +2077,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.13</v>
+        <v>9.98</v>
       </c>
       <c r="C70" t="n">
+        <v>-13.95</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="E70" t="n">
         <v>-7.97</v>
       </c>
-      <c r="D70" t="n">
-        <v>4.95</v>
+      <c r="F70" t="n">
+        <v>13.62</v>
       </c>
     </row>
     <row r="71">
@@ -1651,13 +2097,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.86</v>
+        <v>10.06</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.85</v>
+        <v>-13.97</v>
       </c>
       <c r="D71" t="n">
-        <v>6.09</v>
+        <v>-1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -1665,13 +2117,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.57</v>
+        <v>10.07</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.78</v>
+        <v>-13.97</v>
       </c>
       <c r="D72" t="n">
-        <v>7.31</v>
+        <v>-0.41</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-8.029999999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12.42</v>
       </c>
     </row>
     <row r="73">
@@ -1679,13 +2137,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.06</v>
+        <v>10.08</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.74</v>
+        <v>-13.94</v>
       </c>
       <c r="D73" t="n">
-        <v>8.890000000000001</v>
+        <v>0.18</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="F73" t="n">
+        <v>11.81</v>
       </c>
     </row>
     <row r="74">
@@ -1693,13 +2157,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.64</v>
+        <v>10.04</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.58</v>
+        <v>-14.17</v>
       </c>
       <c r="D74" t="n">
-        <v>9.32</v>
+        <v>1.15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="F74" t="n">
+        <v>11.2</v>
       </c>
     </row>
     <row r="75">
@@ -1707,13 +2177,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.86</v>
+        <v>10.09</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.46</v>
+        <v>-14.56</v>
       </c>
       <c r="D75" t="n">
-        <v>9.42</v>
+        <v>2.18</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-8.210000000000001</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10.59</v>
       </c>
     </row>
     <row r="76">
@@ -1721,13 +2197,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.05</v>
+        <v>10.12</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.37</v>
+        <v>-14.89</v>
       </c>
       <c r="D76" t="n">
-        <v>9.51</v>
+        <v>3.2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-8.34</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.98</v>
       </c>
     </row>
     <row r="77">
@@ -1735,13 +2217,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.21</v>
+        <v>10.11</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.27</v>
+        <v>-15.37</v>
       </c>
       <c r="D77" t="n">
-        <v>9.59</v>
+        <v>4.18</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1749,13 +2237,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.37</v>
+        <v>10.07</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.24</v>
+        <v>-15.8</v>
       </c>
       <c r="D78" t="n">
-        <v>9.710000000000001</v>
+        <v>5.17</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-8.67</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9.27</v>
       </c>
     </row>
     <row r="79">
@@ -1763,13 +2257,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.48</v>
+        <v>10.01</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.31</v>
+        <v>-16.25</v>
       </c>
       <c r="D79" t="n">
-        <v>9.890000000000001</v>
+        <v>6.2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-8.92</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1777,13 +2277,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.61</v>
+        <v>9.98</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.34</v>
+        <v>-16.43</v>
       </c>
       <c r="D80" t="n">
-        <v>10.05</v>
+        <v>6.59</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-9.18</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1791,13 +2297,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.79</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.36</v>
+        <v>-16.71</v>
       </c>
       <c r="D81" t="n">
-        <v>10.25</v>
+        <v>7.14</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-9.44</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1805,13 +2317,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.87</v>
+        <v>9.83</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.4</v>
+        <v>-17.09</v>
       </c>
       <c r="D82" t="n">
-        <v>10.37</v>
+        <v>7.68</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-9.69</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.27</v>
       </c>
     </row>
     <row r="83">
@@ -1819,13 +2337,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.8</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.31</v>
+        <v>-18.01</v>
       </c>
       <c r="D83" t="n">
-        <v>10.21</v>
+        <v>8.23</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10.09</v>
       </c>
     </row>
     <row r="84">
@@ -1833,13 +2357,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-4.61</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.26</v>
+        <v>-18.65</v>
       </c>
       <c r="D84" t="n">
-        <v>9.970000000000001</v>
+        <v>8.41</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10.91</v>
       </c>
     </row>
     <row r="85">
@@ -1847,13 +2377,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.48</v>
+        <v>9.51</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.16</v>
+        <v>-19.23</v>
       </c>
       <c r="D85" t="n">
-        <v>9.74</v>
+        <v>8.58</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-10.59</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11.73</v>
       </c>
     </row>
     <row r="86">
@@ -1861,13 +2397,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.31</v>
+        <v>9.09</v>
       </c>
       <c r="C86" t="n">
-        <v>-3.1</v>
+        <v>-19.61</v>
       </c>
       <c r="D86" t="n">
-        <v>9.51</v>
+        <v>8.69</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-10.63</v>
+      </c>
+      <c r="F86" t="n">
+        <v>12.47</v>
       </c>
     </row>
     <row r="87">
@@ -1875,13 +2417,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-7.13</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.06</v>
+        <v>-19.96</v>
       </c>
       <c r="D87" t="n">
-        <v>9.300000000000001</v>
+        <v>8.789999999999999</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-10.67</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="88">
@@ -1889,13 +2437,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.98</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
+        <v>-20.37</v>
       </c>
       <c r="D88" t="n">
-        <v>9.1</v>
+        <v>8.84</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-10.69</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13.44</v>
       </c>
     </row>
     <row r="89">
@@ -1903,13 +2457,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-8.84</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07000000000000001</v>
+        <v>-20.55</v>
       </c>
       <c r="D89" t="n">
-        <v>8.9</v>
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-10.69</v>
+      </c>
+      <c r="F89" t="n">
+        <v>13.89</v>
       </c>
     </row>
     <row r="90">
@@ -1917,13 +2477,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-9.68</v>
+        <v>8.15</v>
       </c>
       <c r="C90" t="n">
-        <v>1.1</v>
+        <v>-20.54</v>
       </c>
       <c r="D90" t="n">
-        <v>8.720000000000001</v>
+        <v>8.69</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-10.69</v>
+      </c>
+      <c r="F90" t="n">
+        <v>14.39</v>
       </c>
     </row>
     <row r="91">
@@ -1931,13 +2497,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-10.52</v>
+        <v>7.84</v>
       </c>
       <c r="C91" t="n">
-        <v>2.15</v>
+        <v>-20.38</v>
       </c>
       <c r="D91" t="n">
-        <v>8.52</v>
+        <v>8.34</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-10.69</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14.89</v>
       </c>
     </row>
     <row r="92">
@@ -1945,13 +2517,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-11.34</v>
+        <v>7.54</v>
       </c>
       <c r="C92" t="n">
-        <v>3.12</v>
+        <v>-20.22</v>
       </c>
       <c r="D92" t="n">
-        <v>8.380000000000001</v>
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>15.38</v>
       </c>
     </row>
     <row r="93">
@@ -1959,13 +2537,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-11.05</v>
+        <v>6.85</v>
       </c>
       <c r="C93" t="n">
-        <v>2.96</v>
+        <v>-19.07</v>
       </c>
       <c r="D93" t="n">
-        <v>8.26</v>
+        <v>7.65</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-10.63</v>
+      </c>
+      <c r="F93" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="94">
@@ -1973,13 +2557,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-10.85</v>
+        <v>6.09</v>
       </c>
       <c r="C94" t="n">
-        <v>2.79</v>
+        <v>-17.83</v>
       </c>
       <c r="D94" t="n">
-        <v>8.24</v>
+        <v>7.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-10.58</v>
+      </c>
+      <c r="F94" t="n">
+        <v>15.02</v>
       </c>
     </row>
     <row r="95">
@@ -1987,13 +2577,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-10.65</v>
+        <v>5.37</v>
       </c>
       <c r="C95" t="n">
-        <v>2.62</v>
+        <v>-16.77</v>
       </c>
       <c r="D95" t="n">
-        <v>8.220000000000001</v>
+        <v>7.99</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-11.43</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14.84</v>
       </c>
     </row>
     <row r="96">
@@ -2001,13 +2597,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-10.66</v>
+        <v>5.33</v>
       </c>
       <c r="C96" t="n">
-        <v>2.63</v>
+        <v>-16.37</v>
       </c>
       <c r="D96" t="n">
-        <v>8.220000000000001</v>
+        <v>8.75</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-12.43</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14.72</v>
       </c>
     </row>
     <row r="97">
@@ -2015,13 +2617,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-10.69</v>
+        <v>5.17</v>
       </c>
       <c r="C97" t="n">
-        <v>2.67</v>
+        <v>-14.98</v>
       </c>
       <c r="D97" t="n">
-        <v>8.220000000000001</v>
+        <v>8.630000000000001</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-13.43</v>
+      </c>
+      <c r="F97" t="n">
+        <v>14.61</v>
       </c>
     </row>
     <row r="98">
@@ -2029,13 +2637,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-9.99</v>
+        <v>4.9</v>
       </c>
       <c r="C98" t="n">
-        <v>1.96</v>
+        <v>-13.55</v>
       </c>
       <c r="D98" t="n">
-        <v>8.210000000000001</v>
+        <v>8.56</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-14.42</v>
+      </c>
+      <c r="F98" t="n">
+        <v>14.51</v>
       </c>
     </row>
     <row r="99">
@@ -2043,13 +2657,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-9.23</v>
+        <v>4.85</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24</v>
+        <v>-12.39</v>
       </c>
       <c r="D99" t="n">
-        <v>8.17</v>
+        <v>8.470000000000001</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-15.38</v>
+      </c>
+      <c r="F99" t="n">
+        <v>14.45</v>
       </c>
     </row>
     <row r="100">
@@ -2057,13 +2677,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-8.550000000000001</v>
+        <v>4.85</v>
       </c>
       <c r="C100" t="n">
-        <v>0.59</v>
+        <v>-11.5</v>
       </c>
       <c r="D100" t="n">
-        <v>8.130000000000001</v>
+        <v>8.56</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-16.34</v>
+      </c>
+      <c r="F100" t="n">
+        <v>14.43</v>
       </c>
     </row>
     <row r="101">
@@ -2071,13 +2697,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-7.83</v>
+        <v>4.89</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.08</v>
+        <v>-10.7</v>
       </c>
       <c r="D101" t="n">
-        <v>8.07</v>
+        <v>8.65</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-17.27</v>
+      </c>
+      <c r="F101" t="n">
+        <v>14.43</v>
       </c>
     </row>
     <row r="102">
@@ -2085,13 +2717,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-7.2</v>
+        <v>4.89</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.65</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>8.75</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-18.19</v>
+      </c>
+      <c r="F102" t="n">
+        <v>14.33</v>
       </c>
     </row>
     <row r="103">
@@ -2099,13 +2737,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-6.59</v>
+        <v>5.37</v>
       </c>
       <c r="C103" t="n">
-        <v>-1.13</v>
+        <v>-9.27</v>
       </c>
       <c r="D103" t="n">
-        <v>7.86</v>
+        <v>8.82</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>14.18</v>
       </c>
     </row>
     <row r="104">
@@ -2113,13 +2757,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-5.97</v>
+        <v>5.87</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.6</v>
+        <v>-8.76</v>
       </c>
       <c r="D104" t="n">
-        <v>7.7</v>
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F104" t="n">
+        <v>14.01</v>
       </c>
     </row>
     <row r="105">
@@ -2127,13 +2777,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.42</v>
+        <v>6.37</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.06</v>
+        <v>-8.16</v>
       </c>
       <c r="D105" t="n">
-        <v>7.6</v>
+        <v>7.96</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="106">
@@ -2141,13 +2797,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-4.76</v>
+        <v>6.12</v>
       </c>
       <c r="C106" t="n">
-        <v>-2.63</v>
+        <v>-6.84</v>
       </c>
       <c r="D106" t="n">
-        <v>7.5</v>
+        <v>7.05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13.67</v>
       </c>
     </row>
     <row r="107">
@@ -2155,13 +2817,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-4.08</v>
+        <v>5.89</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.2</v>
+        <v>-6.55</v>
       </c>
       <c r="D107" t="n">
-        <v>7.38</v>
+        <v>7.14</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F107" t="n">
+        <v>13.52</v>
       </c>
     </row>
     <row r="108">
@@ -2169,13 +2837,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-4.11</v>
+        <v>5.64</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.05</v>
+        <v>-6.3</v>
       </c>
       <c r="D108" t="n">
-        <v>7.26</v>
+        <v>7.22</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13.44</v>
       </c>
     </row>
     <row r="109">
@@ -2183,13 +2857,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-4.15</v>
+        <v>5.34</v>
       </c>
       <c r="C109" t="n">
-        <v>-2.92</v>
+        <v>-6.17</v>
       </c>
       <c r="D109" t="n">
-        <v>7.17</v>
+        <v>7.26</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F109" t="n">
+        <v>13.57</v>
       </c>
     </row>
     <row r="110">
@@ -2197,13 +2877,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-4.1</v>
+        <v>4.99</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.86</v>
+        <v>-6.03</v>
       </c>
       <c r="D110" t="n">
-        <v>7.06</v>
+        <v>7.31</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13.73</v>
       </c>
     </row>
     <row r="111">
@@ -2211,13 +2897,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-4.28</v>
+        <v>4.66</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.79</v>
+        <v>-6.07</v>
       </c>
       <c r="D111" t="n">
-        <v>7.17</v>
+        <v>7.54</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13.87</v>
       </c>
     </row>
     <row r="112">
@@ -2225,13 +2917,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-4.39</v>
+        <v>4.32</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.74</v>
+        <v>-6.23</v>
       </c>
       <c r="D112" t="n">
-        <v>7.23</v>
+        <v>7.85</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14.07</v>
       </c>
     </row>
     <row r="113">
@@ -2239,13 +2937,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-4.49</v>
+        <v>3.99</v>
       </c>
       <c r="C113" t="n">
-        <v>-3.22</v>
+        <v>-6.49</v>
       </c>
       <c r="D113" t="n">
-        <v>7.81</v>
+        <v>8.18</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14.32</v>
       </c>
     </row>
     <row r="114">
@@ -2253,13 +2957,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-4.8</v>
+        <v>3.48</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.5</v>
+        <v>-6.54</v>
       </c>
       <c r="D114" t="n">
-        <v>8.4</v>
+        <v>8.460000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F114" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="115">
@@ -2267,13 +2977,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.17</v>
+        <v>2.92</v>
       </c>
       <c r="C115" t="n">
-        <v>-3.66</v>
+        <v>-6.59</v>
       </c>
       <c r="D115" t="n">
-        <v>8.93</v>
+        <v>8.81</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F115" t="n">
+        <v>14.86</v>
       </c>
     </row>
     <row r="116">
@@ -2281,13 +2997,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-5.54</v>
+        <v>2.43</v>
       </c>
       <c r="C116" t="n">
-        <v>-3.8</v>
+        <v>-6.7</v>
       </c>
       <c r="D116" t="n">
-        <v>9.44</v>
+        <v>9.16</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15.1</v>
       </c>
     </row>
     <row r="117">
@@ -2295,13 +3017,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.92</v>
+        <v>1.93</v>
       </c>
       <c r="C117" t="n">
-        <v>-3.94</v>
+        <v>-6.68</v>
       </c>
       <c r="D117" t="n">
-        <v>9.960000000000001</v>
+        <v>9.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15.35</v>
       </c>
     </row>
     <row r="118">
@@ -2309,13 +3037,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-6.32</v>
+        <v>1.57</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.07</v>
+        <v>-6.68</v>
       </c>
       <c r="D118" t="n">
-        <v>10.49</v>
+        <v>9.619999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15.49</v>
       </c>
     </row>
     <row r="119">
@@ -2323,13 +3057,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-6.82</v>
+        <v>1.21</v>
       </c>
       <c r="C119" t="n">
-        <v>-4.08</v>
+        <v>-6.64</v>
       </c>
       <c r="D119" t="n">
-        <v>11</v>
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15.54</v>
       </c>
     </row>
     <row r="120">
@@ -2337,13 +3077,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-7.41</v>
+        <v>0.92</v>
       </c>
       <c r="C120" t="n">
-        <v>-4.01</v>
+        <v>-6.61</v>
       </c>
       <c r="D120" t="n">
-        <v>11.52</v>
+        <v>10.16</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15.53</v>
       </c>
     </row>
     <row r="121">
@@ -2351,13 +3097,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-9.69</v>
+        <v>0.62</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.97</v>
+        <v>-6.31</v>
       </c>
       <c r="D121" t="n">
-        <v>11.76</v>
+        <v>10.25</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15.44</v>
       </c>
     </row>
     <row r="122">
@@ -2365,13 +3117,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-12.05</v>
+        <v>0.39</v>
       </c>
       <c r="C122" t="n">
-        <v>0.08</v>
+        <v>-6.07</v>
       </c>
       <c r="D122" t="n">
-        <v>12.07</v>
+        <v>10.33</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F122" t="n">
+        <v>15.35</v>
       </c>
     </row>
     <row r="123">
@@ -2379,13 +3137,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-14.41</v>
+        <v>0.15</v>
       </c>
       <c r="C123" t="n">
-        <v>2.7</v>
+        <v>-5.78</v>
       </c>
       <c r="D123" t="n">
-        <v>11.8</v>
+        <v>10.39</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15.24</v>
       </c>
     </row>
     <row r="124">
@@ -2393,13 +3157,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-16.58</v>
+        <v>0.13</v>
       </c>
       <c r="C124" t="n">
-        <v>5.15</v>
+        <v>-5.81</v>
       </c>
       <c r="D124" t="n">
-        <v>11.53</v>
+        <v>10.51</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15.17</v>
       </c>
     </row>
     <row r="125">
@@ -2407,13 +3177,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-18.64</v>
+        <v>0.17</v>
       </c>
       <c r="C125" t="n">
-        <v>7.49</v>
+        <v>-5.83</v>
       </c>
       <c r="D125" t="n">
-        <v>11.24</v>
+        <v>10.53</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F125" t="n">
+        <v>15.13</v>
       </c>
     </row>
     <row r="126">
@@ -2421,13 +3197,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-20.69</v>
+        <v>-0.4</v>
       </c>
       <c r="C126" t="n">
-        <v>9.710000000000001</v>
+        <v>-5.87</v>
       </c>
       <c r="D126" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15.08</v>
       </c>
     </row>
     <row r="127">
@@ -2435,13 +3217,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-22.73</v>
+        <v>-1.03</v>
       </c>
       <c r="C127" t="n">
-        <v>11.86</v>
+        <v>-5.78</v>
       </c>
       <c r="D127" t="n">
-        <v>10.96</v>
+        <v>11.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15.01</v>
       </c>
     </row>
     <row r="128">
@@ -2449,13 +3237,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-24.64</v>
+        <v>-1.76</v>
       </c>
       <c r="C128" t="n">
-        <v>13.95</v>
+        <v>-5.64</v>
       </c>
       <c r="D128" t="n">
-        <v>10.79</v>
+        <v>12.43</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F128" t="n">
+        <v>14.97</v>
       </c>
     </row>
     <row r="129">
@@ -2463,13 +3257,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-26.48</v>
+        <v>-2.66</v>
       </c>
       <c r="C129" t="n">
-        <v>15.94</v>
+        <v>-5.2</v>
       </c>
       <c r="D129" t="n">
-        <v>10.64</v>
+        <v>13.06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="130">
@@ -2477,13 +3277,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-28.33</v>
+        <v>-3.62</v>
       </c>
       <c r="C130" t="n">
-        <v>17.93</v>
+        <v>-4.6</v>
       </c>
       <c r="D130" t="n">
-        <v>10.5</v>
+        <v>13.54</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14.69</v>
       </c>
     </row>
     <row r="131">
@@ -2491,13 +3297,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-28.58</v>
+        <v>-4.58</v>
       </c>
       <c r="C131" t="n">
-        <v>18.25</v>
+        <v>-3.61</v>
       </c>
       <c r="D131" t="n">
-        <v>10.44</v>
+        <v>13.55</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14.64</v>
       </c>
     </row>
     <row r="132">
@@ -2505,13 +3317,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-28.85</v>
+        <v>-5.63</v>
       </c>
       <c r="C132" t="n">
-        <v>18.59</v>
+        <v>-2.46</v>
       </c>
       <c r="D132" t="n">
-        <v>10.36</v>
+        <v>13.51</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F132" t="n">
+        <v>14.58</v>
       </c>
     </row>
     <row r="133">
@@ -2519,13 +3337,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-29.11</v>
+        <v>-6.68</v>
       </c>
       <c r="C133" t="n">
-        <v>18.79</v>
+        <v>-1.4</v>
       </c>
       <c r="D133" t="n">
-        <v>10.42</v>
+        <v>13.54</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14.54</v>
       </c>
     </row>
     <row r="134">
@@ -2533,13 +3357,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-29.6</v>
+        <v>-7.81</v>
       </c>
       <c r="C134" t="n">
-        <v>19.21</v>
+        <v>-0.32</v>
       </c>
       <c r="D134" t="n">
-        <v>10.49</v>
+        <v>13.67</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14.46</v>
       </c>
     </row>
     <row r="135">
@@ -2547,13 +3377,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-30.12</v>
+        <v>-8.93</v>
       </c>
       <c r="C135" t="n">
-        <v>19.64</v>
+        <v>0.77</v>
       </c>
       <c r="D135" t="n">
-        <v>10.57</v>
+        <v>13.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14.36</v>
       </c>
     </row>
     <row r="136">
@@ -2561,13 +3397,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-30.64</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>20.19</v>
+        <v>2.36</v>
       </c>
       <c r="D136" t="n">
-        <v>10.56</v>
+        <v>13.28</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F136" t="n">
+        <v>13.82</v>
       </c>
     </row>
     <row r="137">
@@ -2575,13 +3417,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-31.16</v>
+        <v>-9.92</v>
       </c>
       <c r="C137" t="n">
-        <v>20.76</v>
+        <v>3.8</v>
       </c>
       <c r="D137" t="n">
-        <v>10.5</v>
+        <v>12.82</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F137" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="138">
@@ -2589,13 +3437,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-31.77</v>
+        <v>-10.36</v>
       </c>
       <c r="C138" t="n">
-        <v>21.37</v>
+        <v>5.3</v>
       </c>
       <c r="D138" t="n">
-        <v>10.5</v>
+        <v>12.17</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12.89</v>
       </c>
     </row>
     <row r="139">
@@ -2603,13 +3457,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-32.49</v>
+        <v>-10.55</v>
       </c>
       <c r="C139" t="n">
-        <v>22.09</v>
+        <v>6.28</v>
       </c>
       <c r="D139" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F139" t="n">
+        <v>12.78</v>
       </c>
     </row>
     <row r="140">
@@ -2617,13 +3477,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-33.11</v>
+        <v>-10.94</v>
       </c>
       <c r="C140" t="n">
-        <v>22.74</v>
+        <v>7.29</v>
       </c>
       <c r="D140" t="n">
-        <v>10.47</v>
+        <v>10.99</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12.65</v>
       </c>
     </row>
     <row r="141">
@@ -2631,13 +3497,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-33.61</v>
+        <v>-11.34</v>
       </c>
       <c r="C141" t="n">
-        <v>23.09</v>
+        <v>7.75</v>
       </c>
       <c r="D141" t="n">
-        <v>10.62</v>
+        <v>10.94</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12.65</v>
       </c>
     </row>
     <row r="142">
@@ -2645,13 +3517,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-34.08</v>
+        <v>-11.75</v>
       </c>
       <c r="C142" t="n">
-        <v>23.41</v>
+        <v>8.1</v>
       </c>
       <c r="D142" t="n">
-        <v>10.77</v>
+        <v>10.67</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F142" t="n">
+        <v>12.98</v>
       </c>
     </row>
     <row r="143">
@@ -2659,13 +3537,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-34.56</v>
+        <v>-11.9</v>
       </c>
       <c r="C143" t="n">
-        <v>23.76</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>10.9</v>
+        <v>10.31</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-20.02</v>
+      </c>
+      <c r="F143" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="144">
@@ -2673,13 +3557,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-35.05</v>
+        <v>-12</v>
       </c>
       <c r="C144" t="n">
-        <v>23.8</v>
+        <v>8.5</v>
       </c>
       <c r="D144" t="n">
-        <v>11.35</v>
+        <v>9.85</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-20.08</v>
+      </c>
+      <c r="F144" t="n">
+        <v>13.73</v>
       </c>
     </row>
     <row r="145">
@@ -2687,13 +3577,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-35.5</v>
+        <v>-11.73</v>
       </c>
       <c r="C145" t="n">
-        <v>23.8</v>
+        <v>8.5</v>
       </c>
       <c r="D145" t="n">
-        <v>11.8</v>
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-20.14</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14.16</v>
       </c>
     </row>
     <row r="146">
@@ -2701,13 +3597,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-35.91</v>
+        <v>-11.54</v>
       </c>
       <c r="C146" t="n">
-        <v>23.78</v>
+        <v>8.23</v>
       </c>
       <c r="D146" t="n">
-        <v>12.23</v>
+        <v>8.59</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-20.22</v>
+      </c>
+      <c r="F146" t="n">
+        <v>14.94</v>
       </c>
     </row>
     <row r="147">
@@ -2715,13 +3617,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-36.29</v>
+        <v>-11.47</v>
       </c>
       <c r="C147" t="n">
-        <v>23.77</v>
+        <v>7.88</v>
       </c>
       <c r="D147" t="n">
-        <v>12.62</v>
+        <v>7.86</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-20.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16.02</v>
       </c>
     </row>
     <row r="148">
@@ -2729,13 +3637,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-36.7</v>
+        <v>-11.4</v>
       </c>
       <c r="C148" t="n">
-        <v>23.79</v>
+        <v>7.44</v>
       </c>
       <c r="D148" t="n">
-        <v>13.01</v>
+        <v>7.27</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-20.32</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17.01</v>
       </c>
     </row>
     <row r="149">
@@ -2743,13 +3657,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-36.99</v>
+        <v>-11.24</v>
       </c>
       <c r="C149" t="n">
-        <v>23.71</v>
+        <v>7.28</v>
       </c>
       <c r="D149" t="n">
-        <v>13.38</v>
+        <v>6.69</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-20.41</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17.7</v>
       </c>
     </row>
     <row r="150">
@@ -2757,13 +3677,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-37.24</v>
+        <v>-10.79</v>
       </c>
       <c r="C150" t="n">
-        <v>23.64</v>
+        <v>6.92</v>
       </c>
       <c r="D150" t="n">
-        <v>13.7</v>
+        <v>6.01</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="151">
@@ -2771,13 +3697,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-37.88</v>
+        <v>-10.16</v>
       </c>
       <c r="C151" t="n">
-        <v>23.55</v>
+        <v>6.48</v>
       </c>
       <c r="D151" t="n">
-        <v>14.43</v>
+        <v>5.33</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-20.59</v>
+      </c>
+      <c r="F151" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="152">
@@ -2785,13 +3717,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-38.55</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>23.5</v>
+        <v>6.04</v>
       </c>
       <c r="D152" t="n">
-        <v>15.15</v>
+        <v>4.86</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>19.25</v>
       </c>
     </row>
     <row r="153">
@@ -2799,13 +3737,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-39.15</v>
+        <v>-8.92</v>
       </c>
       <c r="C153" t="n">
-        <v>23.37</v>
+        <v>5.91</v>
       </c>
       <c r="D153" t="n">
-        <v>15.88</v>
+        <v>4.39</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-20.81</v>
+      </c>
+      <c r="F153" t="n">
+        <v>19.49</v>
       </c>
     </row>
     <row r="154">
@@ -2813,13 +3757,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-39.38</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>23.26</v>
+        <v>5.56</v>
       </c>
       <c r="D154" t="n">
-        <v>16.22</v>
+        <v>3.92</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-20.89</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20.1</v>
       </c>
     </row>
     <row r="155">
@@ -2827,13 +3777,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-39.62</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="C155" t="n">
-        <v>23.18</v>
+        <v>5.48</v>
       </c>
       <c r="D155" t="n">
-        <v>16.55</v>
+        <v>3.63</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-20.97</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20.71</v>
       </c>
     </row>
     <row r="156">
@@ -2841,13 +3797,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-39.9</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>23.1</v>
+        <v>5.38</v>
       </c>
       <c r="D156" t="n">
-        <v>16.9</v>
+        <v>3.34</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-21.03</v>
+      </c>
+      <c r="F156" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="157">
@@ -2855,13 +3817,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-40.22</v>
+        <v>-9.25</v>
       </c>
       <c r="C157" t="n">
-        <v>23.04</v>
+        <v>5.04</v>
       </c>
       <c r="D157" t="n">
-        <v>17.29</v>
+        <v>3.13</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-21.17</v>
+      </c>
+      <c r="F157" t="n">
+        <v>22.3</v>
       </c>
     </row>
     <row r="158">
@@ -2869,13 +3837,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-40.53</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>22.9</v>
+        <v>4.78</v>
       </c>
       <c r="D158" t="n">
-        <v>17.73</v>
+        <v>2.97</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-21.43</v>
+      </c>
+      <c r="F158" t="n">
+        <v>23.21</v>
       </c>
     </row>
     <row r="159">
@@ -2883,13 +3857,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-40.84</v>
+        <v>-9.85</v>
       </c>
       <c r="C159" t="n">
-        <v>22.76</v>
+        <v>4.52</v>
       </c>
       <c r="D159" t="n">
-        <v>18.18</v>
+        <v>2.74</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-21.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>24.04</v>
       </c>
     </row>
     <row r="160">
@@ -2897,13 +3877,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-40.18</v>
+        <v>-10.39</v>
       </c>
       <c r="C160" t="n">
-        <v>21.59</v>
+        <v>4.38</v>
       </c>
       <c r="D160" t="n">
-        <v>18.69</v>
+        <v>2.61</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-21.44</v>
+      </c>
+      <c r="F160" t="n">
+        <v>24.87</v>
       </c>
     </row>
     <row r="161">
@@ -2911,13 +3897,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-38.96</v>
+        <v>-10.98</v>
       </c>
       <c r="C161" t="n">
-        <v>20.45</v>
+        <v>4.29</v>
       </c>
       <c r="D161" t="n">
-        <v>18.61</v>
+        <v>2.47</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-21.47</v>
+      </c>
+      <c r="F161" t="n">
+        <v>25.69</v>
       </c>
     </row>
     <row r="162">
@@ -2925,13 +3917,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-37.73</v>
+        <v>-11.67</v>
       </c>
       <c r="C162" t="n">
-        <v>19.27</v>
+        <v>2.71</v>
       </c>
       <c r="D162" t="n">
-        <v>18.56</v>
+        <v>3.91</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-21.49</v>
+      </c>
+      <c r="F162" t="n">
+        <v>26.53</v>
       </c>
     </row>
     <row r="163">
@@ -2939,13 +3937,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-36.59</v>
+        <v>-12</v>
       </c>
       <c r="C163" t="n">
-        <v>18.18</v>
+        <v>0.76</v>
       </c>
       <c r="D163" t="n">
-        <v>18.51</v>
+        <v>5.35</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>27.39</v>
       </c>
     </row>
     <row r="164">
@@ -2953,13 +3957,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-34.49</v>
+        <v>-12.17</v>
       </c>
       <c r="C164" t="n">
-        <v>16.09</v>
+        <v>-0.87</v>
       </c>
       <c r="D164" t="n">
-        <v>18.5</v>
+        <v>6.79</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-21.51</v>
+      </c>
+      <c r="F164" t="n">
+        <v>27.77</v>
       </c>
     </row>
     <row r="165">
@@ -2967,13 +3977,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-32.38</v>
+        <v>-12.28</v>
       </c>
       <c r="C165" t="n">
-        <v>13.96</v>
+        <v>-2.46</v>
       </c>
       <c r="D165" t="n">
-        <v>18.52</v>
+        <v>8.23</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-21.53</v>
+      </c>
+      <c r="F165" t="n">
+        <v>28.04</v>
       </c>
     </row>
     <row r="166">
@@ -2981,13 +3997,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-30.26</v>
+        <v>-12.18</v>
       </c>
       <c r="C166" t="n">
-        <v>11.85</v>
+        <v>-4.26</v>
       </c>
       <c r="D166" t="n">
-        <v>18.51</v>
+        <v>9.66</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-21.56</v>
+      </c>
+      <c r="F166" t="n">
+        <v>28.33</v>
       </c>
     </row>
     <row r="167">
@@ -2995,13 +4017,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-28.01</v>
+        <v>-12.43</v>
       </c>
       <c r="C167" t="n">
-        <v>9.6</v>
+        <v>-5.23</v>
       </c>
       <c r="D167" t="n">
-        <v>18.51</v>
+        <v>11.06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-21.52</v>
+      </c>
+      <c r="F167" t="n">
+        <v>28.11</v>
       </c>
     </row>
     <row r="168">
@@ -3009,13 +4037,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-25.77</v>
+        <v>-12.75</v>
       </c>
       <c r="C168" t="n">
-        <v>7.41</v>
+        <v>-6.27</v>
       </c>
       <c r="D168" t="n">
-        <v>18.46</v>
+        <v>12.46</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-21.33</v>
+      </c>
+      <c r="F168" t="n">
+        <v>27.89</v>
       </c>
     </row>
     <row r="169">
@@ -3023,13 +4057,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-23.41</v>
+        <v>-13</v>
       </c>
       <c r="C169" t="n">
-        <v>5.14</v>
+        <v>-7.28</v>
       </c>
       <c r="D169" t="n">
-        <v>18.37</v>
+        <v>13.93</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-21.37</v>
+      </c>
+      <c r="F169" t="n">
+        <v>27.72</v>
       </c>
     </row>
     <row r="170">
@@ -3037,13 +4077,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-22.11</v>
+        <v>-13.21</v>
       </c>
       <c r="C170" t="n">
-        <v>3.94</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>18.28</v>
+        <v>15.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-21.35</v>
+      </c>
+      <c r="F170" t="n">
+        <v>27.55</v>
       </c>
     </row>
     <row r="171">
@@ -3051,13 +4097,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-20.82</v>
+        <v>-13.52</v>
       </c>
       <c r="C171" t="n">
-        <v>2.92</v>
+        <v>-9.4</v>
       </c>
       <c r="D171" t="n">
-        <v>18</v>
+        <v>16.87</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-21.33</v>
+      </c>
+      <c r="F171" t="n">
+        <v>27.38</v>
       </c>
     </row>
     <row r="172">
@@ -3065,13 +4117,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-19.51</v>
+        <v>-13.77</v>
       </c>
       <c r="C172" t="n">
-        <v>1.91</v>
+        <v>-6.7</v>
       </c>
       <c r="D172" t="n">
-        <v>17.7</v>
+        <v>16.53</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-23.21</v>
+      </c>
+      <c r="F172" t="n">
+        <v>27.15</v>
       </c>
     </row>
     <row r="173">
@@ -3079,13 +4137,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-18.16</v>
+        <v>-14.19</v>
       </c>
       <c r="C173" t="n">
-        <v>0.84</v>
+        <v>-3.74</v>
       </c>
       <c r="D173" t="n">
-        <v>17.41</v>
+        <v>16.13</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-25.06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>26.86</v>
       </c>
     </row>
     <row r="174">
@@ -3093,13 +4157,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-17.9</v>
+        <v>-14.61</v>
       </c>
       <c r="C174" t="n">
-        <v>0.84</v>
+        <v>-0.86</v>
       </c>
       <c r="D174" t="n">
-        <v>17.16</v>
+        <v>15.68</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-26.91</v>
+      </c>
+      <c r="F174" t="n">
+        <v>26.69</v>
       </c>
     </row>
     <row r="175">
@@ -3107,13 +4177,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-17.65</v>
+        <v>-14.93</v>
       </c>
       <c r="C175" t="n">
-        <v>0.85</v>
+        <v>1.87</v>
       </c>
       <c r="D175" t="n">
-        <v>16.9</v>
+        <v>15.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-28.75</v>
+      </c>
+      <c r="F175" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="176">
@@ -3121,13 +4197,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-17.49</v>
+        <v>-15.86</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.63</v>
       </c>
       <c r="D176" t="n">
-        <v>16.64</v>
+        <v>14.85</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-30.58</v>
+      </c>
+      <c r="F176" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="177">
@@ -3135,13 +4217,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-17.44</v>
+        <v>-16.35</v>
       </c>
       <c r="C177" t="n">
-        <v>1.22</v>
+        <v>6.89</v>
       </c>
       <c r="D177" t="n">
-        <v>16.33</v>
+        <v>14.77</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-32.41</v>
+      </c>
+      <c r="F177" t="n">
+        <v>27.31</v>
       </c>
     </row>
     <row r="178">
@@ -3149,13 +4237,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-17.29</v>
+        <v>-16.76</v>
       </c>
       <c r="C178" t="n">
-        <v>1.44</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>15.94</v>
+        <v>14.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-34.31</v>
+      </c>
+      <c r="F178" t="n">
+        <v>27.51</v>
       </c>
     </row>
     <row r="179">
@@ -3163,13 +4257,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-17.31</v>
+        <v>-17.18</v>
       </c>
       <c r="C179" t="n">
-        <v>1.56</v>
+        <v>11.37</v>
       </c>
       <c r="D179" t="n">
-        <v>15.84</v>
+        <v>14.39</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-36.21</v>
+      </c>
+      <c r="F179" t="n">
+        <v>27.98</v>
       </c>
     </row>
     <row r="180">
@@ -3177,13 +4277,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-17.31</v>
+        <v>-17.57</v>
       </c>
       <c r="C180" t="n">
-        <v>1.66</v>
+        <v>13.56</v>
       </c>
       <c r="D180" t="n">
-        <v>15.74</v>
+        <v>14.11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-38.1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>28.43</v>
       </c>
     </row>
     <row r="181">
@@ -3191,13 +4297,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-17.43</v>
+        <v>-17.99</v>
       </c>
       <c r="C181" t="n">
-        <v>1.59</v>
+        <v>15.78</v>
       </c>
       <c r="D181" t="n">
-        <v>15.94</v>
+        <v>13.76</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F181" t="n">
+        <v>28.94</v>
       </c>
     </row>
     <row r="182">
@@ -3205,13 +4317,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-17.54</v>
+        <v>-18.41</v>
       </c>
       <c r="C182" t="n">
-        <v>1.49</v>
+        <v>15.78</v>
       </c>
       <c r="D182" t="n">
-        <v>16.15</v>
+        <v>13.69</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F182" t="n">
+        <v>29.49</v>
       </c>
     </row>
     <row r="183">
@@ -3219,13 +4337,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-17.17</v>
+        <v>-18.95</v>
       </c>
       <c r="C183" t="n">
-        <v>1.21</v>
+        <v>15.78</v>
       </c>
       <c r="D183" t="n">
-        <v>16.06</v>
+        <v>13.71</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F183" t="n">
+        <v>30.09</v>
       </c>
     </row>
     <row r="184">
@@ -3233,13 +4357,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-16.79</v>
+        <v>-19.44</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9399999999999999</v>
+        <v>15.78</v>
       </c>
       <c r="D184" t="n">
-        <v>15.95</v>
+        <v>13.77</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F184" t="n">
+        <v>30.6</v>
       </c>
     </row>
     <row r="185">
@@ -3247,13 +4377,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-16.37</v>
+        <v>-20</v>
       </c>
       <c r="C185" t="n">
-        <v>0.64</v>
+        <v>15.78</v>
       </c>
       <c r="D185" t="n">
-        <v>15.83</v>
+        <v>13.35</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F185" t="n">
+        <v>31.57</v>
       </c>
     </row>
     <row r="186">
@@ -3261,13 +4397,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-15.89</v>
+        <v>-20</v>
       </c>
       <c r="C186" t="n">
-        <v>0.25</v>
+        <v>15.78</v>
       </c>
       <c r="D186" t="n">
-        <v>15.74</v>
+        <v>13.06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F186" t="n">
+        <v>31.86</v>
       </c>
     </row>
     <row r="187">
@@ -3275,13 +4417,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-15.56</v>
+        <v>-20</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>15.78</v>
       </c>
       <c r="D187" t="n">
-        <v>15.66</v>
+        <v>12.49</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32.43</v>
       </c>
     </row>
     <row r="188">
@@ -3289,1624 +4437,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-15.65</v>
+        <v>-20</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.21</v>
+        <v>15.78</v>
       </c>
       <c r="D188" t="n">
-        <v>15.96</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-15.57</v>
-      </c>
-      <c r="C189" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="D189" t="n">
-        <v>15.94</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="C190" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="D190" t="n">
-        <v>15.93</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-15.3</v>
-      </c>
-      <c r="C191" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="D191" t="n">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-15.12</v>
-      </c>
-      <c r="C192" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="D192" t="n">
-        <v>15.67</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-15.06</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="D193" t="n">
-        <v>15.48</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>-15.03</v>
-      </c>
-      <c r="C194" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="D194" t="n">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-15.02</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="D195" t="n">
-        <v>15.13</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-15.06</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-14.94</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-14.51</v>
-      </c>
-      <c r="C198" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D198" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="E198" t="n">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-14.19</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D199" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="E199" t="n">
-        <v>-1.175</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-13.87</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="D200" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="E200" t="n">
-        <v>-1.43</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-13.58</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D201" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="E201" t="n">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-13.27</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D202" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="E202" t="n">
-        <v>-1.835714285714286</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-13.41</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D203" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="E203" t="n">
-        <v>-2.08375</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-13.59</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D204" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="E204" t="n">
-        <v>-2.298888888888889</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-13.63</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="D205" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-2.471</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-13.64</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="D206" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-2.471</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-13.67</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="D207" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="E207" t="n">
-        <v>-2.93</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-13.71</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D208" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="E208" t="n">
-        <v>-3.409</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-13.77</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="D209" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-3.553</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-13.78</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="D210" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="E210" t="n">
-        <v>-3.717</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-13.77</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="D211" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-3.901</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-13.85</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D212" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="E212" t="n">
-        <v>-2.374</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-13.88</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D213" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="E213" t="n">
-        <v>-0.9329999999999996</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-13.46</v>
-      </c>
-      <c r="C214" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="D214" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0.445</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-13.18</v>
-      </c>
-      <c r="C215" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="D215" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1.763</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-12.71</v>
-      </c>
-      <c r="C216" t="n">
-        <v>-4.78</v>
-      </c>
-      <c r="D216" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="E216" t="n">
-        <v>3.024</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-12.39</v>
-      </c>
-      <c r="C217" t="n">
-        <v>-6.29</v>
-      </c>
-      <c r="D217" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="E217" t="n">
-        <v>4.341999999999999</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-11.78</v>
-      </c>
-      <c r="C218" t="n">
-        <v>-7.81</v>
-      </c>
-      <c r="D218" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="E218" t="n">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-11.21</v>
-      </c>
-      <c r="C219" t="n">
-        <v>-9.31</v>
-      </c>
-      <c r="D219" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="E219" t="n">
-        <v>7.348000000000001</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-10.76</v>
-      </c>
-      <c r="C220" t="n">
-        <v>-10.79</v>
-      </c>
-      <c r="D220" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="E220" t="n">
-        <v>8.995999999999999</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-10.32</v>
-      </c>
-      <c r="C221" t="n">
-        <v>-12.38</v>
-      </c>
-      <c r="D221" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E221" t="n">
-        <v>10.744</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-9.73</v>
-      </c>
-      <c r="C222" t="n">
-        <v>-12.41</v>
-      </c>
-      <c r="D222" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="E222" t="n">
-        <v>10.721</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-9.19</v>
-      </c>
-      <c r="C223" t="n">
-        <v>-12.3</v>
-      </c>
-      <c r="D223" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="E223" t="n">
-        <v>10.807</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-9.01</v>
-      </c>
-      <c r="C224" t="n">
-        <v>-12.2</v>
-      </c>
-      <c r="D224" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E224" t="n">
-        <v>11.013</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-8.91</v>
-      </c>
-      <c r="C225" t="n">
-        <v>-12.12</v>
-      </c>
-      <c r="D225" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="E225" t="n">
-        <v>11.089</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-8.99</v>
-      </c>
-      <c r="C226" t="n">
-        <v>-11.97</v>
-      </c>
-      <c r="D226" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="E226" t="n">
-        <v>11.232</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="C227" t="n">
-        <v>-11.98</v>
-      </c>
-      <c r="D227" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E227" t="n">
-        <v>11.415</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-9.17</v>
-      </c>
-      <c r="C228" t="n">
-        <v>-11.96</v>
-      </c>
-      <c r="D228" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="E228" t="n">
-        <v>11.618</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-9.35</v>
-      </c>
-      <c r="C229" t="n">
-        <v>-11.94</v>
-      </c>
-      <c r="D229" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E229" t="n">
-        <v>11.371</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-9.449999999999999</v>
-      </c>
-      <c r="C230" t="n">
-        <v>-11.84</v>
-      </c>
-      <c r="D230" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="E230" t="n">
-        <v>11.127</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-9.550000000000001</v>
-      </c>
-      <c r="C231" t="n">
-        <v>-11.64</v>
-      </c>
-      <c r="D231" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>10.793</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-9.74</v>
-      </c>
-      <c r="C232" t="n">
-        <v>-11.35</v>
-      </c>
-      <c r="D232" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="E232" t="n">
-        <v>10.449</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="C233" t="n">
-        <v>-11.18</v>
-      </c>
-      <c r="D233" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E233" t="n">
-        <v>10.252</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-9.92</v>
-      </c>
-      <c r="C234" t="n">
-        <v>-10.99</v>
-      </c>
-      <c r="D234" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="E234" t="n">
-        <v>10.035</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-9.91</v>
-      </c>
-      <c r="C235" t="n">
-        <v>-10.55</v>
-      </c>
-      <c r="D235" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E235" t="n">
-        <v>9.856</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-9.9</v>
-      </c>
-      <c r="C236" t="n">
-        <v>-10.31</v>
-      </c>
-      <c r="D236" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="E236" t="n">
-        <v>9.577000000000002</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-9.880000000000001</v>
-      </c>
-      <c r="C237" t="n">
-        <v>-9.98</v>
-      </c>
-      <c r="D237" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="E237" t="n">
-        <v>9.178000000000001</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-9.84</v>
-      </c>
-      <c r="C238" t="n">
-        <v>-9.66</v>
-      </c>
-      <c r="D238" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="E238" t="n">
-        <v>8.959</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-9.640000000000001</v>
-      </c>
-      <c r="C239" t="n">
-        <v>-9.33</v>
-      </c>
-      <c r="D239" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E239" t="n">
-        <v>8.56</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-9.460000000000001</v>
-      </c>
-      <c r="C240" t="n">
-        <v>-9.15</v>
-      </c>
-      <c r="D240" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="E240" t="n">
-        <v>8.523</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-9.279999999999999</v>
-      </c>
-      <c r="C241" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="D241" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E241" t="n">
-        <v>8.496</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-9.09</v>
-      </c>
-      <c r="C242" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="D242" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E242" t="n">
-        <v>8.481999999999999</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-8.82</v>
-      </c>
-      <c r="C243" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="D243" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="E243" t="n">
-        <v>8.367999999999999</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-8.84</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-8.33</v>
-      </c>
-      <c r="D244" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="E244" t="n">
-        <v>8.054</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-9</v>
-      </c>
-      <c r="C245" t="n">
-        <v>-7.18</v>
-      </c>
-      <c r="D245" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="E245" t="n">
-        <v>7.892</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-8.69</v>
-      </c>
-      <c r="C246" t="n">
-        <v>-5.82</v>
-      </c>
-      <c r="D246" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="E246" t="n">
-        <v>7.680000000000001</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-8.369999999999999</v>
-      </c>
-      <c r="C247" t="n">
-        <v>-4.56</v>
-      </c>
-      <c r="D247" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="E247" t="n">
-        <v>7.537999999999999</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-8.06</v>
-      </c>
-      <c r="C248" t="n">
-        <v>-3.22</v>
-      </c>
-      <c r="D248" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E248" t="n">
-        <v>7.146000000000001</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-8.119999999999999</v>
-      </c>
-      <c r="C249" t="n">
-        <v>-1.88</v>
-      </c>
-      <c r="D249" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="E249" t="n">
-        <v>6.884</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-8.16</v>
-      </c>
-      <c r="C250" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="E250" t="n">
-        <v>6.316999999999999</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-8.68</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D251" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E251" t="n">
-        <v>6.249999999999999</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-9.220000000000001</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E252" t="n">
-        <v>6.289999999999999</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-9.82</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E253" t="n">
-        <v>6.029999999999999</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-10.83</v>
-      </c>
-      <c r="C254" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D254" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="E254" t="n">
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-11.63</v>
-      </c>
-      <c r="C255" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="D255" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="E255" t="n">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-12.96</v>
-      </c>
-      <c r="C256" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="D256" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="E256" t="n">
-        <v>6.409999999999999</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-14.29</v>
-      </c>
-      <c r="C257" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D257" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="E257" t="n">
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-15.53</v>
-      </c>
-      <c r="C258" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="D258" t="n">
-        <v>-2.33</v>
-      </c>
-      <c r="E258" t="n">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-17.27</v>
-      </c>
-      <c r="C259" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D259" t="n">
-        <v>-2.83</v>
-      </c>
-      <c r="E259" t="n">
-        <v>8.344999999999999</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-18.93</v>
-      </c>
-      <c r="C260" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="D260" t="n">
-        <v>-3.34</v>
-      </c>
-      <c r="E260" t="n">
-        <v>9.52</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-20.09</v>
-      </c>
-      <c r="C261" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="D261" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="E261" t="n">
-        <v>10.295</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-21.16</v>
-      </c>
-      <c r="C262" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="D262" t="n">
-        <v>-4.61</v>
-      </c>
-      <c r="E262" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>-21.89</v>
-      </c>
-      <c r="C263" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="D263" t="n">
-        <v>-5.74</v>
-      </c>
-      <c r="E263" t="n">
-        <v>11.815</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>-22.22</v>
-      </c>
-      <c r="C264" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="D264" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="E264" t="n">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-22.59</v>
-      </c>
-      <c r="C265" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="D265" t="n">
-        <v>-6.12</v>
-      </c>
-      <c r="E265" t="n">
-        <v>13.485</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-22.78</v>
-      </c>
-      <c r="C266" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="D266" t="n">
-        <v>-6.17</v>
-      </c>
-      <c r="E266" t="n">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-22.99</v>
-      </c>
-      <c r="C267" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>-6.21</v>
-      </c>
-      <c r="E267" t="n">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-22.6</v>
-      </c>
-      <c r="C268" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="D268" t="n">
-        <v>-6.24</v>
-      </c>
-      <c r="E268" t="n">
-        <v>14.56</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-21.56</v>
-      </c>
-      <c r="C269" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="D269" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="E269" t="n">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-20.56</v>
-      </c>
-      <c r="C270" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="D270" t="n">
-        <v>-6.17</v>
-      </c>
-      <c r="E270" t="n">
-        <v>13.82</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-19.59</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D271" t="n">
-        <v>-6.02</v>
-      </c>
-      <c r="E271" t="n">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-18.31</v>
-      </c>
-      <c r="C272" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="D272" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12.86</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-17.32</v>
-      </c>
-      <c r="C273" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D273" t="n">
-        <v>-5.51</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12.59</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-16.18</v>
-      </c>
-      <c r="C274" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D274" t="n">
-        <v>-5.22</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>-14.96</v>
-      </c>
-      <c r="C275" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="D275" t="n">
-        <v>-5.03</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12.02</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-13.88</v>
-      </c>
-      <c r="C276" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D276" t="n">
-        <v>-5.08</v>
-      </c>
-      <c r="E276" t="n">
-        <v>11.71</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-12.77</v>
-      </c>
-      <c r="C277" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="D277" t="n">
-        <v>-5.31</v>
-      </c>
-      <c r="E277" t="n">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-12.55</v>
-      </c>
-      <c r="C278" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="D278" t="n">
-        <v>-5.6</v>
-      </c>
-      <c r="E278" t="n">
-        <v>11.705</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-12.33</v>
-      </c>
-      <c r="C279" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="D279" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="E279" t="n">
-        <v>11.77</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-12.13</v>
-      </c>
-      <c r="C280" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D280" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="E280" t="n">
-        <v>11.855</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>-11.92</v>
-      </c>
-      <c r="C281" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D281" t="n">
-        <v>-6.71</v>
-      </c>
-      <c r="E281" t="n">
-        <v>12.01</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>-12.37</v>
-      </c>
-      <c r="C282" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D282" t="n">
-        <v>-7.17</v>
-      </c>
-      <c r="E282" t="n">
-        <v>12.495</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>-12.54</v>
-      </c>
-      <c r="C283" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="D283" t="n">
-        <v>-7.9</v>
-      </c>
-      <c r="E283" t="n">
-        <v>12.97</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-12.82</v>
-      </c>
-      <c r="C284" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="D284" t="n">
-        <v>-8.619999999999999</v>
-      </c>
-      <c r="E284" t="n">
-        <v>13.465</v>
+        <v>11.97</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32.95</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/07/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/21/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$188</f>
+              <f>'data'!$B$2:$B$284</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$188</f>
+              <f>'data'!$C$2:$C$284</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$188</f>
+              <f>'data'!$D$2:$D$284</f>
             </numRef>
           </val>
         </ser>
@@ -275,34 +275,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$188</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$188</f>
+              <f>'data'!$E$2:$E$284</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,29 +661,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Scott</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jonathan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -725,30 +693,18 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F3" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -757,19 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.17</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -777,19 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.15</v>
+        <v>-1.15</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.74</v>
+        <v>0.55</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.79</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -797,19 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46</v>
+        <v>-1.3</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.46</v>
+        <v>0.54</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.96</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
@@ -817,19 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.51</v>
+        <v>-1.38</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.61</v>
+        <v>0.53</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.74</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -837,19 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.51</v>
+        <v>-1.46</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.23</v>
+        <v>0.31</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.21</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="9">
@@ -857,19 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.44</v>
+        <v>-1.51</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.69</v>
+        <v>0.14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.52</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="10">
@@ -877,19 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.08</v>
+        <v>-1.44</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.7</v>
+        <v>-0.11</v>
       </c>
       <c r="D10" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.76</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="11">
@@ -897,19 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.59</v>
+        <v>-0.82</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.53</v>
+        <v>-0.86</v>
       </c>
       <c r="D11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.95</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="12">
@@ -917,19 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.59</v>
+        <v>-0.82</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.53</v>
+        <v>-0.86</v>
       </c>
       <c r="D12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.95</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="13">
@@ -937,19 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.2</v>
+        <v>-0.35</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.02</v>
+        <v>-1.51</v>
       </c>
       <c r="D13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.69</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="14">
@@ -957,19 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.82</v>
+        <v>-0.01</v>
       </c>
       <c r="C14" t="n">
-        <v>-10.51</v>
+        <v>-2.23</v>
       </c>
       <c r="D14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.41</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="15">
@@ -977,19 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.39</v>
+        <v>0.46</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.04</v>
+        <v>-2.98</v>
       </c>
       <c r="D15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7.12</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="16">
@@ -997,19 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.98</v>
+        <v>0.83</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.8</v>
+        <v>-3.6</v>
       </c>
       <c r="D16" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7.04</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.18</v>
+        <v>1.21</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.17</v>
+        <v>-4.21</v>
       </c>
       <c r="D17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.96</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="18">
@@ -1037,19 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.7</v>
+        <v>1.32</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.62</v>
+        <v>-4.85</v>
       </c>
       <c r="D18" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6.88</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="19">
@@ -1057,19 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.24</v>
+        <v>1.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.92</v>
+        <v>-5.35</v>
       </c>
       <c r="D19" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6.57</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
@@ -1077,19 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.86</v>
+        <v>2.05</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.93</v>
+        <v>-5.83</v>
       </c>
       <c r="D20" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6.07</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="21">
@@ -1097,19 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.84</v>
+        <v>2.55</v>
       </c>
       <c r="C21" t="n">
-        <v>-15.29</v>
+        <v>-6.21</v>
       </c>
       <c r="D21" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5.57</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="22">
@@ -1117,19 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="C22" t="n">
-        <v>-15.59</v>
+        <v>-6.04</v>
       </c>
       <c r="D22" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5.07</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="23">
@@ -1137,19 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.77</v>
+        <v>1.27</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.89</v>
+        <v>-5.99</v>
       </c>
       <c r="D23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4.48</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="24">
@@ -1157,19 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.73</v>
+        <v>0.82</v>
       </c>
       <c r="C24" t="n">
-        <v>-16.19</v>
+        <v>-5.96</v>
       </c>
       <c r="D24" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.97</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="25">
@@ -1177,19 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.75</v>
+        <v>0.38</v>
       </c>
       <c r="C25" t="n">
-        <v>-16.51</v>
+        <v>-5.89</v>
       </c>
       <c r="D25" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3.49</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="26">
@@ -1197,19 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.91</v>
+        <v>-0.06</v>
       </c>
       <c r="C26" t="n">
-        <v>-16.82</v>
+        <v>-5.92</v>
       </c>
       <c r="D26" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="F26" t="n">
-        <v>3.01</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="27">
@@ -1217,19 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.04</v>
+        <v>-0.52</v>
       </c>
       <c r="C27" t="n">
-        <v>-17.49</v>
+        <v>-5.97</v>
       </c>
       <c r="D27" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-1.78</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.53</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="28">
@@ -1237,19 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.05</v>
+        <v>-0.72</v>
       </c>
       <c r="C28" t="n">
-        <v>-18.16</v>
+        <v>-6.01</v>
       </c>
       <c r="D28" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.97</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="29">
@@ -1257,19 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16.05</v>
+        <v>-1.42</v>
       </c>
       <c r="C29" t="n">
-        <v>-19.09</v>
+        <v>-6.04</v>
       </c>
       <c r="D29" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.68</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="30">
@@ -1277,19 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16.03</v>
+        <v>-2.59</v>
       </c>
       <c r="C30" t="n">
-        <v>-19.24</v>
+        <v>-6.09</v>
       </c>
       <c r="D30" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.63</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="31">
@@ -1297,19 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>-3.72</v>
       </c>
       <c r="C31" t="n">
-        <v>-19.48</v>
+        <v>-6.16</v>
       </c>
       <c r="D31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.58</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1317,19 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.99</v>
+        <v>-4.41</v>
       </c>
       <c r="C32" t="n">
-        <v>-19.71</v>
+        <v>-6.22</v>
       </c>
       <c r="D32" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.51</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="33">
@@ -1337,19 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16.01</v>
+        <v>-5.11</v>
       </c>
       <c r="C33" t="n">
-        <v>-19.94</v>
+        <v>-6.2</v>
       </c>
       <c r="D33" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.88</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.42</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="34">
@@ -1357,19 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.96</v>
+        <v>-5.79</v>
       </c>
       <c r="C34" t="n">
-        <v>-20.08</v>
+        <v>-6.14</v>
       </c>
       <c r="D34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.3</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="35">
@@ -1377,19 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.85</v>
+        <v>-6.37</v>
       </c>
       <c r="C35" t="n">
-        <v>-19.77</v>
+        <v>-6.1</v>
       </c>
       <c r="D35" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.16</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -1397,19 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.54</v>
+        <v>-4.62</v>
       </c>
       <c r="C36" t="n">
-        <v>-19.49</v>
+        <v>-6.21</v>
       </c>
       <c r="D36" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.02</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="37">
@@ -1417,19 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.25</v>
+        <v>-2.83</v>
       </c>
       <c r="C37" t="n">
-        <v>-18.79</v>
+        <v>-6.31</v>
       </c>
       <c r="D37" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.82</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="38">
@@ -1437,19 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.89</v>
+        <v>-1.03</v>
       </c>
       <c r="C38" t="n">
-        <v>-18</v>
+        <v>-6.4</v>
       </c>
       <c r="D38" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.63</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="39">
@@ -1457,19 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.6</v>
+        <v>1.26</v>
       </c>
       <c r="C39" t="n">
-        <v>-17.25</v>
+        <v>-6.48</v>
       </c>
       <c r="D39" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.44</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="40">
@@ -1477,19 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.24</v>
+        <v>3.33</v>
       </c>
       <c r="C40" t="n">
-        <v>-17.55</v>
+        <v>-6.74</v>
       </c>
       <c r="D40" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.38</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="41">
@@ -1497,19 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.9</v>
+        <v>5.38</v>
       </c>
       <c r="C41" t="n">
-        <v>-17.71</v>
+        <v>-6.99</v>
       </c>
       <c r="D41" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="42">
@@ -1517,19 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.67</v>
+        <v>7.59</v>
       </c>
       <c r="C42" t="n">
-        <v>-18.01</v>
+        <v>-7.26</v>
       </c>
       <c r="D42" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.3</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="43">
@@ -1537,19 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>-18.38</v>
+        <v>-7.59</v>
       </c>
       <c r="D43" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4.47</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="44">
@@ -1557,19 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.22</v>
+        <v>11.94</v>
       </c>
       <c r="C44" t="n">
-        <v>-18.87</v>
+        <v>-7.8</v>
       </c>
       <c r="D44" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-1.86</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.67</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="45">
@@ -1577,19 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.06</v>
+        <v>13.97</v>
       </c>
       <c r="C45" t="n">
-        <v>-19.77</v>
+        <v>-8</v>
       </c>
       <c r="D45" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-2.14</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6.86</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="46">
@@ -1597,19 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.96</v>
+        <v>13.78</v>
       </c>
       <c r="C46" t="n">
-        <v>-20.65</v>
+        <v>-8.06</v>
       </c>
       <c r="D46" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-2.35</v>
-      </c>
-      <c r="F46" t="n">
-        <v>8.06</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="47">
@@ -1617,19 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.86</v>
+        <v>13.57</v>
       </c>
       <c r="C47" t="n">
-        <v>-21.54</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="F47" t="n">
-        <v>9.32</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="48">
@@ -1637,19 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.81</v>
+        <v>13.34</v>
       </c>
       <c r="C48" t="n">
-        <v>-22.41</v>
+        <v>-8.15</v>
       </c>
       <c r="D48" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-2.78</v>
-      </c>
-      <c r="F48" t="n">
-        <v>10.65</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="49">
@@ -1657,19 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.7</v>
+        <v>13.12</v>
       </c>
       <c r="C49" t="n">
-        <v>-23.04</v>
+        <v>-8.26</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-3.15</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11.99</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="50">
@@ -1677,19 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.67</v>
+        <v>13.2</v>
       </c>
       <c r="C50" t="n">
-        <v>-22.67</v>
+        <v>-8.17</v>
       </c>
       <c r="D50" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-3.52</v>
-      </c>
-      <c r="F50" t="n">
-        <v>12.17</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="51">
@@ -1697,19 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.54</v>
+        <v>13.26</v>
       </c>
       <c r="C51" t="n">
-        <v>-22.68</v>
+        <v>-8.07</v>
       </c>
       <c r="D51" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-3.89</v>
-      </c>
-      <c r="F51" t="n">
-        <v>12.75</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="52">
@@ -1717,19 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.3</v>
+        <v>13.3</v>
       </c>
       <c r="C52" t="n">
-        <v>-22.61</v>
+        <v>-8.07</v>
       </c>
       <c r="D52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-4.3</v>
-      </c>
-      <c r="F52" t="n">
-        <v>13.31</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="53">
@@ -1737,19 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.04</v>
+        <v>13.14</v>
       </c>
       <c r="C53" t="n">
-        <v>-22.37</v>
+        <v>-8.09</v>
       </c>
       <c r="D53" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-4.62</v>
-      </c>
-      <c r="F53" t="n">
-        <v>13.68</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="54">
@@ -1757,19 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.77</v>
+        <v>13.05</v>
       </c>
       <c r="C54" t="n">
-        <v>-21.98</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-4.95</v>
-      </c>
-      <c r="F54" t="n">
-        <v>14.03</v>
+        <v>-4.74</v>
       </c>
     </row>
     <row r="55">
@@ -1777,19 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.52</v>
+        <v>12.97</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.54</v>
+        <v>-8.32</v>
       </c>
       <c r="D55" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-5.28</v>
-      </c>
-      <c r="F55" t="n">
-        <v>14.38</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="56">
@@ -1797,19 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.28</v>
+        <v>12.86</v>
       </c>
       <c r="C56" t="n">
-        <v>-21.04</v>
+        <v>-8.43</v>
       </c>
       <c r="D56" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-5.67</v>
-      </c>
-      <c r="F56" t="n">
-        <v>14.73</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="57">
@@ -1817,19 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.08</v>
+        <v>12.73</v>
       </c>
       <c r="C57" t="n">
-        <v>-20.69</v>
+        <v>-8.59</v>
       </c>
       <c r="D57" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>15.13</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="58">
@@ -1837,19 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.88</v>
+        <v>12.58</v>
       </c>
       <c r="C58" t="n">
-        <v>-20.26</v>
+        <v>-8.74</v>
       </c>
       <c r="D58" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>15.52</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="59">
@@ -1857,19 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.61</v>
+        <v>12.43</v>
       </c>
       <c r="C59" t="n">
-        <v>-19.9</v>
+        <v>-8.76</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-6.59</v>
-      </c>
-      <c r="F59" t="n">
-        <v>15.83</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="60">
@@ -1877,19 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10.26</v>
+        <v>12.2</v>
       </c>
       <c r="C60" t="n">
-        <v>-19.38</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-6.77</v>
-      </c>
-      <c r="F60" t="n">
-        <v>16.08</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="61">
@@ -1897,19 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.11</v>
+        <v>11.97</v>
       </c>
       <c r="C61" t="n">
-        <v>-18.58</v>
+        <v>-8.81</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-6.96</v>
-      </c>
-      <c r="F61" t="n">
-        <v>15.91</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="62">
@@ -1917,19 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.960000000000001</v>
+        <v>11.74</v>
       </c>
       <c r="C62" t="n">
-        <v>-17.71</v>
+        <v>-8.65</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>15.7</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="63">
@@ -1937,19 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.81</v>
+        <v>11.81</v>
       </c>
       <c r="C63" t="n">
-        <v>-16.94</v>
+        <v>-8.5</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-7.24</v>
-      </c>
-      <c r="F63" t="n">
-        <v>15.52</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="64">
@@ -1957,19 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.66</v>
+        <v>10.82</v>
       </c>
       <c r="C64" t="n">
-        <v>-16.29</v>
+        <v>-8.48</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.33</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-7.38</v>
-      </c>
-      <c r="F64" t="n">
-        <v>15.34</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="65">
@@ -1977,19 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.43</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>-15.52</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.53</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-7.54</v>
-      </c>
-      <c r="F65" t="n">
-        <v>15.16</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="66">
@@ -1997,19 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.52</v>
+        <v>8.27</v>
       </c>
       <c r="C66" t="n">
-        <v>-15.08</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-7.7</v>
-      </c>
-      <c r="F66" t="n">
-        <v>14.98</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="67">
@@ -2017,19 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.57</v>
+        <v>6.99</v>
       </c>
       <c r="C67" t="n">
-        <v>-14.59</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-7.86</v>
-      </c>
-      <c r="F67" t="n">
-        <v>14.73</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68">
@@ -2037,19 +1609,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.640000000000001</v>
+        <v>5.74</v>
       </c>
       <c r="C68" t="n">
-        <v>-14.2</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-7.91</v>
-      </c>
-      <c r="F68" t="n">
-        <v>14.48</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="69">
@@ -2057,19 +1623,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.789999999999999</v>
+        <v>4.43</v>
       </c>
       <c r="C69" t="n">
-        <v>-13.88</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.15</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-7.94</v>
-      </c>
-      <c r="F69" t="n">
-        <v>14.26</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="70">
@@ -2077,19 +1637,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.98</v>
+        <v>3.13</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.95</v>
+        <v>-7.97</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-7.97</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13.62</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="71">
@@ -2097,19 +1651,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.06</v>
+        <v>1.86</v>
       </c>
       <c r="C71" t="n">
-        <v>-13.97</v>
+        <v>-7.85</v>
       </c>
       <c r="D71" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-8</v>
-      </c>
-      <c r="F71" t="n">
-        <v>13</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="72">
@@ -2117,19 +1665,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.07</v>
+        <v>0.57</v>
       </c>
       <c r="C72" t="n">
-        <v>-13.97</v>
+        <v>-7.78</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-8.029999999999999</v>
-      </c>
-      <c r="F72" t="n">
-        <v>12.42</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="73">
@@ -2137,19 +1679,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.08</v>
+        <v>-1.06</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.94</v>
+        <v>-7.74</v>
       </c>
       <c r="D73" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-8.06</v>
-      </c>
-      <c r="F73" t="n">
-        <v>11.81</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -2157,19 +1693,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.04</v>
+        <v>-1.64</v>
       </c>
       <c r="C74" t="n">
-        <v>-14.17</v>
+        <v>-7.58</v>
       </c>
       <c r="D74" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="F74" t="n">
-        <v>11.2</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="75">
@@ -2177,19 +1707,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.09</v>
+        <v>-1.86</v>
       </c>
       <c r="C75" t="n">
-        <v>-14.56</v>
+        <v>-7.46</v>
       </c>
       <c r="D75" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-8.210000000000001</v>
-      </c>
-      <c r="F75" t="n">
-        <v>10.59</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="76">
@@ -2197,19 +1721,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.12</v>
+        <v>-2.05</v>
       </c>
       <c r="C76" t="n">
-        <v>-14.89</v>
+        <v>-7.37</v>
       </c>
       <c r="D76" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-8.34</v>
-      </c>
-      <c r="F76" t="n">
-        <v>9.98</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="77">
@@ -2217,19 +1735,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.11</v>
+        <v>-2.21</v>
       </c>
       <c r="C77" t="n">
-        <v>-15.37</v>
+        <v>-7.27</v>
       </c>
       <c r="D77" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9.630000000000001</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="78">
@@ -2237,19 +1749,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.07</v>
+        <v>-2.37</v>
       </c>
       <c r="C78" t="n">
-        <v>-15.8</v>
+        <v>-7.24</v>
       </c>
       <c r="D78" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-8.67</v>
-      </c>
-      <c r="F78" t="n">
-        <v>9.27</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -2257,19 +1763,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.01</v>
+        <v>-2.48</v>
       </c>
       <c r="C79" t="n">
-        <v>-16.25</v>
+        <v>-7.31</v>
       </c>
       <c r="D79" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-8.92</v>
-      </c>
-      <c r="F79" t="n">
-        <v>8.960000000000001</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -2277,19 +1777,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.98</v>
+        <v>-2.61</v>
       </c>
       <c r="C80" t="n">
-        <v>-16.43</v>
+        <v>-7.34</v>
       </c>
       <c r="D80" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-9.18</v>
-      </c>
-      <c r="F80" t="n">
-        <v>9.039999999999999</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="81">
@@ -2297,19 +1791,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.890000000000001</v>
+        <v>-2.79</v>
       </c>
       <c r="C81" t="n">
-        <v>-16.71</v>
+        <v>-7.36</v>
       </c>
       <c r="D81" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-9.44</v>
-      </c>
-      <c r="F81" t="n">
-        <v>9.119999999999999</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="82">
@@ -2317,19 +1805,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.83</v>
+        <v>-2.87</v>
       </c>
       <c r="C82" t="n">
-        <v>-17.09</v>
+        <v>-7.4</v>
       </c>
       <c r="D82" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-9.69</v>
-      </c>
-      <c r="F82" t="n">
-        <v>9.27</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="83">
@@ -2337,19 +1819,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.710000000000001</v>
+        <v>-3.8</v>
       </c>
       <c r="C83" t="n">
-        <v>-18.01</v>
+        <v>-6.31</v>
       </c>
       <c r="D83" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-10.03</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10.09</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="84">
@@ -2357,19 +1833,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.640000000000001</v>
+        <v>-4.61</v>
       </c>
       <c r="C84" t="n">
-        <v>-18.65</v>
+        <v>-5.26</v>
       </c>
       <c r="D84" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-10.31</v>
-      </c>
-      <c r="F84" t="n">
-        <v>10.91</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -2377,19 +1847,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.51</v>
+        <v>-5.48</v>
       </c>
       <c r="C85" t="n">
-        <v>-19.23</v>
+        <v>-4.16</v>
       </c>
       <c r="D85" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-10.59</v>
-      </c>
-      <c r="F85" t="n">
-        <v>11.73</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="86">
@@ -2397,19 +1861,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.09</v>
+        <v>-6.31</v>
       </c>
       <c r="C86" t="n">
-        <v>-19.61</v>
+        <v>-3.1</v>
       </c>
       <c r="D86" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-10.63</v>
-      </c>
-      <c r="F86" t="n">
-        <v>12.47</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="87">
@@ -2417,19 +1875,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.890000000000001</v>
+        <v>-7.13</v>
       </c>
       <c r="C87" t="n">
-        <v>-19.96</v>
+        <v>-2.06</v>
       </c>
       <c r="D87" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-10.67</v>
-      </c>
-      <c r="F87" t="n">
-        <v>12.95</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -2437,19 +1889,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.779999999999999</v>
+        <v>-7.98</v>
       </c>
       <c r="C88" t="n">
-        <v>-20.37</v>
+        <v>-1</v>
       </c>
       <c r="D88" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-10.69</v>
-      </c>
-      <c r="F88" t="n">
-        <v>13.44</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="89">
@@ -2457,19 +1903,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.460000000000001</v>
+        <v>-8.84</v>
       </c>
       <c r="C89" t="n">
-        <v>-20.55</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-10.69</v>
-      </c>
-      <c r="F89" t="n">
-        <v>13.89</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="90">
@@ -2477,19 +1917,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.15</v>
+        <v>-9.68</v>
       </c>
       <c r="C90" t="n">
-        <v>-20.54</v>
+        <v>1.1</v>
       </c>
       <c r="D90" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-10.69</v>
-      </c>
-      <c r="F90" t="n">
-        <v>14.39</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -2497,19 +1931,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.84</v>
+        <v>-10.52</v>
       </c>
       <c r="C91" t="n">
-        <v>-20.38</v>
+        <v>2.15</v>
       </c>
       <c r="D91" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-10.69</v>
-      </c>
-      <c r="F91" t="n">
-        <v>14.89</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="92">
@@ -2517,19 +1945,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.54</v>
+        <v>-11.34</v>
       </c>
       <c r="C92" t="n">
-        <v>-20.22</v>
+        <v>3.12</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-10.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>15.38</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2537,19 +1959,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.85</v>
+        <v>-11.05</v>
       </c>
       <c r="C93" t="n">
-        <v>-19.07</v>
+        <v>2.96</v>
       </c>
       <c r="D93" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-10.63</v>
-      </c>
-      <c r="F93" t="n">
-        <v>15.2</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="94">
@@ -2557,19 +1973,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.09</v>
+        <v>-10.85</v>
       </c>
       <c r="C94" t="n">
-        <v>-17.83</v>
+        <v>2.79</v>
       </c>
       <c r="D94" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-10.58</v>
-      </c>
-      <c r="F94" t="n">
-        <v>15.02</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="95">
@@ -2577,19 +1987,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.37</v>
+        <v>-10.65</v>
       </c>
       <c r="C95" t="n">
-        <v>-16.77</v>
+        <v>2.62</v>
       </c>
       <c r="D95" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-11.43</v>
-      </c>
-      <c r="F95" t="n">
-        <v>14.84</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2597,19 +2001,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.33</v>
+        <v>-10.66</v>
       </c>
       <c r="C96" t="n">
-        <v>-16.37</v>
+        <v>2.63</v>
       </c>
       <c r="D96" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-12.43</v>
-      </c>
-      <c r="F96" t="n">
-        <v>14.72</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2617,19 +2015,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.17</v>
+        <v>-10.69</v>
       </c>
       <c r="C97" t="n">
-        <v>-14.98</v>
+        <v>2.67</v>
       </c>
       <c r="D97" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-13.43</v>
-      </c>
-      <c r="F97" t="n">
-        <v>14.61</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2637,19 +2029,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.9</v>
+        <v>-9.99</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.55</v>
+        <v>1.96</v>
       </c>
       <c r="D98" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-14.42</v>
-      </c>
-      <c r="F98" t="n">
-        <v>14.51</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2657,19 +2043,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.85</v>
+        <v>-9.23</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.39</v>
+        <v>1.24</v>
       </c>
       <c r="D99" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-15.38</v>
-      </c>
-      <c r="F99" t="n">
-        <v>14.45</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="100">
@@ -2677,19 +2057,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.85</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.5</v>
+        <v>0.59</v>
       </c>
       <c r="D100" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-16.34</v>
-      </c>
-      <c r="F100" t="n">
-        <v>14.43</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2697,19 +2071,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.89</v>
+        <v>-7.83</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.7</v>
+        <v>-0.08</v>
       </c>
       <c r="D101" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-17.27</v>
-      </c>
-      <c r="F101" t="n">
-        <v>14.43</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="102">
@@ -2717,19 +2085,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.89</v>
+        <v>-7.2</v>
       </c>
       <c r="C102" t="n">
-        <v>-9.779999999999999</v>
+        <v>-0.65</v>
       </c>
       <c r="D102" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-18.19</v>
-      </c>
-      <c r="F102" t="n">
-        <v>14.33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -2737,19 +2099,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.37</v>
+        <v>-6.59</v>
       </c>
       <c r="C103" t="n">
-        <v>-9.27</v>
+        <v>-1.13</v>
       </c>
       <c r="D103" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-19.1</v>
-      </c>
-      <c r="F103" t="n">
-        <v>14.18</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="104">
@@ -2757,19 +2113,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.87</v>
+        <v>-5.97</v>
       </c>
       <c r="C104" t="n">
-        <v>-8.76</v>
+        <v>-1.6</v>
       </c>
       <c r="D104" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F104" t="n">
-        <v>14.01</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="105">
@@ -2777,19 +2127,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.37</v>
+        <v>-5.42</v>
       </c>
       <c r="C105" t="n">
-        <v>-8.16</v>
+        <v>-2.06</v>
       </c>
       <c r="D105" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F105" t="n">
-        <v>13.83</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="106">
@@ -2797,19 +2141,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.12</v>
+        <v>-4.76</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.84</v>
+        <v>-2.63</v>
       </c>
       <c r="D106" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F106" t="n">
-        <v>13.67</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="107">
@@ -2817,19 +2155,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.89</v>
+        <v>-4.08</v>
       </c>
       <c r="C107" t="n">
-        <v>-6.55</v>
+        <v>-3.2</v>
       </c>
       <c r="D107" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F107" t="n">
-        <v>13.52</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="108">
@@ -2837,19 +2169,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.64</v>
+        <v>-4.11</v>
       </c>
       <c r="C108" t="n">
-        <v>-6.3</v>
+        <v>-3.05</v>
       </c>
       <c r="D108" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F108" t="n">
-        <v>13.44</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="109">
@@ -2857,19 +2183,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.34</v>
+        <v>-4.15</v>
       </c>
       <c r="C109" t="n">
-        <v>-6.17</v>
+        <v>-2.92</v>
       </c>
       <c r="D109" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F109" t="n">
-        <v>13.57</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="110">
@@ -2877,19 +2197,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.99</v>
+        <v>-4.1</v>
       </c>
       <c r="C110" t="n">
-        <v>-6.03</v>
+        <v>-2.86</v>
       </c>
       <c r="D110" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F110" t="n">
-        <v>13.73</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="111">
@@ -2897,19 +2211,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.66</v>
+        <v>-4.28</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.07</v>
+        <v>-2.79</v>
       </c>
       <c r="D111" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F111" t="n">
-        <v>13.87</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="112">
@@ -2917,19 +2225,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.32</v>
+        <v>-4.39</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.23</v>
+        <v>-2.74</v>
       </c>
       <c r="D112" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F112" t="n">
-        <v>14.07</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="113">
@@ -2937,19 +2239,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.99</v>
+        <v>-4.49</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.49</v>
+        <v>-3.22</v>
       </c>
       <c r="D113" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F113" t="n">
-        <v>14.32</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="114">
@@ -2957,19 +2253,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.48</v>
+        <v>-4.8</v>
       </c>
       <c r="C114" t="n">
-        <v>-6.54</v>
+        <v>-3.5</v>
       </c>
       <c r="D114" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F114" t="n">
-        <v>14.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="115">
@@ -2977,19 +2267,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.92</v>
+        <v>-5.17</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.59</v>
+        <v>-3.66</v>
       </c>
       <c r="D115" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F115" t="n">
-        <v>14.86</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="116">
@@ -2997,19 +2281,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.43</v>
+        <v>-5.54</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.7</v>
+        <v>-3.8</v>
       </c>
       <c r="D116" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F116" t="n">
-        <v>15.1</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="117">
@@ -3017,19 +2295,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.93</v>
+        <v>-5.92</v>
       </c>
       <c r="C117" t="n">
-        <v>-6.68</v>
+        <v>-3.94</v>
       </c>
       <c r="D117" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F117" t="n">
-        <v>15.35</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -3037,19 +2309,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.57</v>
+        <v>-6.32</v>
       </c>
       <c r="C118" t="n">
-        <v>-6.68</v>
+        <v>-4.07</v>
       </c>
       <c r="D118" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F118" t="n">
-        <v>15.49</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="119">
@@ -3057,19 +2323,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.21</v>
+        <v>-6.82</v>
       </c>
       <c r="C119" t="n">
-        <v>-6.64</v>
+        <v>-4.08</v>
       </c>
       <c r="D119" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F119" t="n">
-        <v>15.54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -3077,19 +2337,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.92</v>
+        <v>-7.41</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.61</v>
+        <v>-4.01</v>
       </c>
       <c r="D120" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F120" t="n">
-        <v>15.53</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="121">
@@ -3097,19 +2351,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.62</v>
+        <v>-9.69</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.31</v>
+        <v>-1.97</v>
       </c>
       <c r="D121" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F121" t="n">
-        <v>15.44</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="122">
@@ -3117,19 +2365,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.39</v>
+        <v>-12.05</v>
       </c>
       <c r="C122" t="n">
-        <v>-6.07</v>
+        <v>0.08</v>
       </c>
       <c r="D122" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F122" t="n">
-        <v>15.35</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="123">
@@ -3137,19 +2379,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.15</v>
+        <v>-14.41</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.78</v>
+        <v>2.7</v>
       </c>
       <c r="D123" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F123" t="n">
-        <v>15.24</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="124">
@@ -3157,19 +2393,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.13</v>
+        <v>-16.58</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.81</v>
+        <v>5.15</v>
       </c>
       <c r="D124" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F124" t="n">
-        <v>15.17</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="125">
@@ -3177,19 +2407,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.17</v>
+        <v>-18.64</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.83</v>
+        <v>7.49</v>
       </c>
       <c r="D125" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F125" t="n">
-        <v>15.13</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="126">
@@ -3197,19 +2421,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.4</v>
+        <v>-20.69</v>
       </c>
       <c r="C126" t="n">
-        <v>-5.87</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F126" t="n">
-        <v>15.08</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="127">
@@ -3217,19 +2435,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.03</v>
+        <v>-22.73</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.78</v>
+        <v>11.86</v>
       </c>
       <c r="D127" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F127" t="n">
-        <v>15.01</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="128">
@@ -3237,19 +2449,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.76</v>
+        <v>-24.64</v>
       </c>
       <c r="C128" t="n">
-        <v>-5.64</v>
+        <v>13.95</v>
       </c>
       <c r="D128" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F128" t="n">
-        <v>14.97</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="129">
@@ -3257,19 +2463,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-2.66</v>
+        <v>-26.48</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.2</v>
+        <v>15.94</v>
       </c>
       <c r="D129" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="E129" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F129" t="n">
-        <v>14.8</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +2477,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-3.62</v>
+        <v>-28.33</v>
       </c>
       <c r="C130" t="n">
-        <v>-4.6</v>
+        <v>17.93</v>
       </c>
       <c r="D130" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="E130" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F130" t="n">
-        <v>14.69</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="131">
@@ -3297,19 +2491,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-4.58</v>
+        <v>-28.58</v>
       </c>
       <c r="C131" t="n">
-        <v>-3.61</v>
+        <v>18.25</v>
       </c>
       <c r="D131" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="E131" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F131" t="n">
-        <v>14.64</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="132">
@@ -3317,19 +2505,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-5.63</v>
+        <v>-28.85</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.46</v>
+        <v>18.59</v>
       </c>
       <c r="D132" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="E132" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F132" t="n">
-        <v>14.58</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="133">
@@ -3337,19 +2519,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-6.68</v>
+        <v>-29.11</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.4</v>
+        <v>18.79</v>
       </c>
       <c r="D133" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="E133" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F133" t="n">
-        <v>14.54</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="134">
@@ -3357,19 +2533,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-7.81</v>
+        <v>-29.6</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.32</v>
+        <v>19.21</v>
       </c>
       <c r="D134" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="E134" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F134" t="n">
-        <v>14.46</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="135">
@@ -3377,19 +2547,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-8.93</v>
+        <v>-30.12</v>
       </c>
       <c r="C135" t="n">
-        <v>0.77</v>
+        <v>19.64</v>
       </c>
       <c r="D135" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F135" t="n">
-        <v>14.36</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="136">
@@ -3397,19 +2561,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-9.460000000000001</v>
+        <v>-30.64</v>
       </c>
       <c r="C136" t="n">
-        <v>2.36</v>
+        <v>20.19</v>
       </c>
       <c r="D136" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="E136" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F136" t="n">
-        <v>13.82</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="137">
@@ -3417,19 +2575,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-9.92</v>
+        <v>-31.16</v>
       </c>
       <c r="C137" t="n">
-        <v>3.8</v>
+        <v>20.76</v>
       </c>
       <c r="D137" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="E137" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F137" t="n">
-        <v>13.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="138">
@@ -3437,19 +2589,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-10.36</v>
+        <v>-31.77</v>
       </c>
       <c r="C138" t="n">
-        <v>5.3</v>
+        <v>21.37</v>
       </c>
       <c r="D138" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E138" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F138" t="n">
-        <v>12.89</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="139">
@@ -3457,19 +2603,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-10.55</v>
+        <v>-32.49</v>
       </c>
       <c r="C139" t="n">
-        <v>6.28</v>
+        <v>22.09</v>
       </c>
       <c r="D139" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F139" t="n">
-        <v>12.78</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="140">
@@ -3477,19 +2617,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-10.94</v>
+        <v>-33.11</v>
       </c>
       <c r="C140" t="n">
-        <v>7.29</v>
+        <v>22.74</v>
       </c>
       <c r="D140" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="E140" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F140" t="n">
-        <v>12.65</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="141">
@@ -3497,19 +2631,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-11.34</v>
+        <v>-33.61</v>
       </c>
       <c r="C141" t="n">
-        <v>7.75</v>
+        <v>23.09</v>
       </c>
       <c r="D141" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="E141" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F141" t="n">
-        <v>12.65</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="142">
@@ -3517,19 +2645,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-11.75</v>
+        <v>-34.08</v>
       </c>
       <c r="C142" t="n">
-        <v>8.1</v>
+        <v>23.41</v>
       </c>
       <c r="D142" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="E142" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F142" t="n">
-        <v>12.98</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="143">
@@ -3537,19 +2659,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-11.9</v>
+        <v>-34.56</v>
       </c>
       <c r="C143" t="n">
-        <v>8.289999999999999</v>
+        <v>23.76</v>
       </c>
       <c r="D143" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="E143" t="n">
-        <v>-20.02</v>
-      </c>
-      <c r="F143" t="n">
-        <v>13.32</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="144">
@@ -3557,19 +2673,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-12</v>
+        <v>-35.05</v>
       </c>
       <c r="C144" t="n">
-        <v>8.5</v>
+        <v>23.8</v>
       </c>
       <c r="D144" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="E144" t="n">
-        <v>-20.08</v>
-      </c>
-      <c r="F144" t="n">
-        <v>13.73</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="145">
@@ -3577,19 +2687,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-11.73</v>
+        <v>-35.5</v>
       </c>
       <c r="C145" t="n">
-        <v>8.5</v>
+        <v>23.8</v>
       </c>
       <c r="D145" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="E145" t="n">
-        <v>-20.14</v>
-      </c>
-      <c r="F145" t="n">
-        <v>14.16</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="146">
@@ -3597,19 +2701,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-11.54</v>
+        <v>-35.91</v>
       </c>
       <c r="C146" t="n">
-        <v>8.23</v>
+        <v>23.78</v>
       </c>
       <c r="D146" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-20.22</v>
-      </c>
-      <c r="F146" t="n">
-        <v>14.94</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="147">
@@ -3617,19 +2715,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-11.47</v>
+        <v>-36.29</v>
       </c>
       <c r="C147" t="n">
-        <v>7.88</v>
+        <v>23.77</v>
       </c>
       <c r="D147" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="E147" t="n">
-        <v>-20.3</v>
-      </c>
-      <c r="F147" t="n">
-        <v>16.02</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="148">
@@ -3637,19 +2729,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-11.4</v>
+        <v>-36.7</v>
       </c>
       <c r="C148" t="n">
-        <v>7.44</v>
+        <v>23.79</v>
       </c>
       <c r="D148" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-20.32</v>
-      </c>
-      <c r="F148" t="n">
-        <v>17.01</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="149">
@@ -3657,19 +2743,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-11.24</v>
+        <v>-36.99</v>
       </c>
       <c r="C149" t="n">
-        <v>7.28</v>
+        <v>23.71</v>
       </c>
       <c r="D149" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-20.41</v>
-      </c>
-      <c r="F149" t="n">
-        <v>17.7</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="150">
@@ -3677,19 +2757,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-10.79</v>
+        <v>-37.24</v>
       </c>
       <c r="C150" t="n">
-        <v>6.92</v>
+        <v>23.64</v>
       </c>
       <c r="D150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-20.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>18.4</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="151">
@@ -3697,19 +2771,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-10.16</v>
+        <v>-37.88</v>
       </c>
       <c r="C151" t="n">
-        <v>6.48</v>
+        <v>23.55</v>
       </c>
       <c r="D151" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-20.59</v>
-      </c>
-      <c r="F151" t="n">
-        <v>19</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="152">
@@ -3717,19 +2785,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-9.390000000000001</v>
+        <v>-38.55</v>
       </c>
       <c r="C152" t="n">
-        <v>6.04</v>
+        <v>23.5</v>
       </c>
       <c r="D152" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="E152" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>19.25</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="153">
@@ -3737,19 +2799,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-8.92</v>
+        <v>-39.15</v>
       </c>
       <c r="C153" t="n">
-        <v>5.91</v>
+        <v>23.37</v>
       </c>
       <c r="D153" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-20.81</v>
-      </c>
-      <c r="F153" t="n">
-        <v>19.49</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="154">
@@ -3757,19 +2813,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-8.630000000000001</v>
+        <v>-39.38</v>
       </c>
       <c r="C154" t="n">
-        <v>5.56</v>
+        <v>23.26</v>
       </c>
       <c r="D154" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-20.89</v>
-      </c>
-      <c r="F154" t="n">
-        <v>20.1</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="155">
@@ -3777,19 +2827,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-8.789999999999999</v>
+        <v>-39.62</v>
       </c>
       <c r="C155" t="n">
-        <v>5.48</v>
+        <v>23.18</v>
       </c>
       <c r="D155" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-20.97</v>
-      </c>
-      <c r="F155" t="n">
-        <v>20.71</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="156">
@@ -3797,19 +2841,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-9.029999999999999</v>
+        <v>-39.9</v>
       </c>
       <c r="C156" t="n">
-        <v>5.38</v>
+        <v>23.1</v>
       </c>
       <c r="D156" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-21.03</v>
-      </c>
-      <c r="F156" t="n">
-        <v>21.4</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="157">
@@ -3817,19 +2855,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-9.25</v>
+        <v>-40.22</v>
       </c>
       <c r="C157" t="n">
-        <v>5.04</v>
+        <v>23.04</v>
       </c>
       <c r="D157" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-21.17</v>
-      </c>
-      <c r="F157" t="n">
-        <v>22.3</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="158">
@@ -3837,19 +2869,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-9.470000000000001</v>
+        <v>-40.53</v>
       </c>
       <c r="C158" t="n">
-        <v>4.78</v>
+        <v>22.9</v>
       </c>
       <c r="D158" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-21.43</v>
-      </c>
-      <c r="F158" t="n">
-        <v>23.21</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="159">
@@ -3857,19 +2883,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-9.85</v>
+        <v>-40.84</v>
       </c>
       <c r="C159" t="n">
-        <v>4.52</v>
+        <v>22.76</v>
       </c>
       <c r="D159" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-21.4</v>
-      </c>
-      <c r="F159" t="n">
-        <v>24.04</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="160">
@@ -3877,19 +2897,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-10.39</v>
+        <v>-40.18</v>
       </c>
       <c r="C160" t="n">
-        <v>4.38</v>
+        <v>21.59</v>
       </c>
       <c r="D160" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-21.44</v>
-      </c>
-      <c r="F160" t="n">
-        <v>24.87</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="161">
@@ -3897,19 +2911,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-10.98</v>
+        <v>-38.96</v>
       </c>
       <c r="C161" t="n">
-        <v>4.29</v>
+        <v>20.45</v>
       </c>
       <c r="D161" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-21.47</v>
-      </c>
-      <c r="F161" t="n">
-        <v>25.69</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="162">
@@ -3917,19 +2925,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-11.67</v>
+        <v>-37.73</v>
       </c>
       <c r="C162" t="n">
-        <v>2.71</v>
+        <v>19.27</v>
       </c>
       <c r="D162" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-21.49</v>
-      </c>
-      <c r="F162" t="n">
-        <v>26.53</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="163">
@@ -3937,19 +2939,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-12</v>
+        <v>-36.59</v>
       </c>
       <c r="C163" t="n">
-        <v>0.76</v>
+        <v>18.18</v>
       </c>
       <c r="D163" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-21.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>27.39</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="164">
@@ -3957,19 +2953,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-12.17</v>
+        <v>-34.49</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.87</v>
+        <v>16.09</v>
       </c>
       <c r="D164" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-21.51</v>
-      </c>
-      <c r="F164" t="n">
-        <v>27.77</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="165">
@@ -3977,19 +2967,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-12.28</v>
+        <v>-32.38</v>
       </c>
       <c r="C165" t="n">
-        <v>-2.46</v>
+        <v>13.96</v>
       </c>
       <c r="D165" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-21.53</v>
-      </c>
-      <c r="F165" t="n">
-        <v>28.04</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="166">
@@ -3997,19 +2981,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-12.18</v>
+        <v>-30.26</v>
       </c>
       <c r="C166" t="n">
-        <v>-4.26</v>
+        <v>11.85</v>
       </c>
       <c r="D166" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-21.56</v>
-      </c>
-      <c r="F166" t="n">
-        <v>28.33</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="167">
@@ -4017,19 +2995,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-12.43</v>
+        <v>-28.01</v>
       </c>
       <c r="C167" t="n">
-        <v>-5.23</v>
+        <v>9.6</v>
       </c>
       <c r="D167" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-21.52</v>
-      </c>
-      <c r="F167" t="n">
-        <v>28.11</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="168">
@@ -4037,19 +3009,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-12.75</v>
+        <v>-25.77</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.27</v>
+        <v>7.41</v>
       </c>
       <c r="D168" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-21.33</v>
-      </c>
-      <c r="F168" t="n">
-        <v>27.89</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="169">
@@ -4057,19 +3023,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-13</v>
+        <v>-23.41</v>
       </c>
       <c r="C169" t="n">
-        <v>-7.28</v>
+        <v>5.14</v>
       </c>
       <c r="D169" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-21.37</v>
-      </c>
-      <c r="F169" t="n">
-        <v>27.72</v>
+        <v>18.37</v>
       </c>
     </row>
     <row r="170">
@@ -4077,19 +3037,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-13.21</v>
+        <v>-22.11</v>
       </c>
       <c r="C170" t="n">
-        <v>-8.390000000000001</v>
+        <v>3.94</v>
       </c>
       <c r="D170" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-21.35</v>
-      </c>
-      <c r="F170" t="n">
-        <v>27.55</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="171">
@@ -4097,19 +3051,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-13.52</v>
+        <v>-20.82</v>
       </c>
       <c r="C171" t="n">
-        <v>-9.4</v>
+        <v>2.92</v>
       </c>
       <c r="D171" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-21.33</v>
-      </c>
-      <c r="F171" t="n">
-        <v>27.38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -4117,19 +3065,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-13.77</v>
+        <v>-19.51</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.7</v>
+        <v>1.91</v>
       </c>
       <c r="D172" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-23.21</v>
-      </c>
-      <c r="F172" t="n">
-        <v>27.15</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="173">
@@ -4137,19 +3079,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-14.19</v>
+        <v>-18.16</v>
       </c>
       <c r="C173" t="n">
-        <v>-3.74</v>
+        <v>0.84</v>
       </c>
       <c r="D173" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-25.06</v>
-      </c>
-      <c r="F173" t="n">
-        <v>26.86</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="174">
@@ -4157,19 +3093,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-14.61</v>
+        <v>-17.9</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.86</v>
+        <v>0.84</v>
       </c>
       <c r="D174" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-26.91</v>
-      </c>
-      <c r="F174" t="n">
-        <v>26.69</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="175">
@@ -4177,19 +3107,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-14.93</v>
+        <v>-17.65</v>
       </c>
       <c r="C175" t="n">
-        <v>1.87</v>
+        <v>0.85</v>
       </c>
       <c r="D175" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>-28.75</v>
-      </c>
-      <c r="F175" t="n">
-        <v>26.58</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="176">
@@ -4197,19 +3121,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-15.86</v>
+        <v>-17.49</v>
       </c>
       <c r="C176" t="n">
-        <v>4.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D176" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="E176" t="n">
-        <v>-30.58</v>
-      </c>
-      <c r="F176" t="n">
-        <v>27.1</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="177">
@@ -4217,19 +3135,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-16.35</v>
+        <v>-17.44</v>
       </c>
       <c r="C177" t="n">
-        <v>6.89</v>
+        <v>1.22</v>
       </c>
       <c r="D177" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="E177" t="n">
-        <v>-32.41</v>
-      </c>
-      <c r="F177" t="n">
-        <v>27.31</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="178">
@@ -4237,19 +3149,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-16.76</v>
+        <v>-17.29</v>
       </c>
       <c r="C178" t="n">
-        <v>9.140000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="D178" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>-34.31</v>
-      </c>
-      <c r="F178" t="n">
-        <v>27.51</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="179">
@@ -4257,19 +3163,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-17.18</v>
+        <v>-17.31</v>
       </c>
       <c r="C179" t="n">
-        <v>11.37</v>
+        <v>1.56</v>
       </c>
       <c r="D179" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="E179" t="n">
-        <v>-36.21</v>
-      </c>
-      <c r="F179" t="n">
-        <v>27.98</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="180">
@@ -4277,19 +3177,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-17.57</v>
+        <v>-17.31</v>
       </c>
       <c r="C180" t="n">
-        <v>13.56</v>
+        <v>1.66</v>
       </c>
       <c r="D180" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="E180" t="n">
-        <v>-38.1</v>
-      </c>
-      <c r="F180" t="n">
-        <v>28.43</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="181">
@@ -4297,19 +3191,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-17.99</v>
+        <v>-17.43</v>
       </c>
       <c r="C181" t="n">
-        <v>15.78</v>
+        <v>1.59</v>
       </c>
       <c r="D181" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="E181" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F181" t="n">
-        <v>28.94</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="182">
@@ -4317,19 +3205,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-18.41</v>
+        <v>-17.54</v>
       </c>
       <c r="C182" t="n">
-        <v>15.78</v>
+        <v>1.49</v>
       </c>
       <c r="D182" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="E182" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F182" t="n">
-        <v>29.49</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="183">
@@ -4337,19 +3219,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-18.95</v>
+        <v>-17.17</v>
       </c>
       <c r="C183" t="n">
-        <v>15.78</v>
+        <v>1.21</v>
       </c>
       <c r="D183" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F183" t="n">
-        <v>30.09</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="184">
@@ -4357,19 +3233,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-19.44</v>
+        <v>-16.79</v>
       </c>
       <c r="C184" t="n">
-        <v>15.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D184" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="E184" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F184" t="n">
-        <v>30.6</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="185">
@@ -4377,19 +3247,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-20</v>
+        <v>-16.37</v>
       </c>
       <c r="C185" t="n">
-        <v>15.78</v>
+        <v>0.64</v>
       </c>
       <c r="D185" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F185" t="n">
-        <v>31.57</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="186">
@@ -4397,19 +3261,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-20</v>
+        <v>-15.89</v>
       </c>
       <c r="C186" t="n">
-        <v>15.78</v>
+        <v>0.25</v>
       </c>
       <c r="D186" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F186" t="n">
-        <v>31.86</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="187">
@@ -4417,19 +3275,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-20</v>
+        <v>-15.56</v>
       </c>
       <c r="C187" t="n">
-        <v>15.78</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F187" t="n">
-        <v>32.43</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="188">
@@ -4437,19 +3289,1624 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-20</v>
+        <v>-15.65</v>
       </c>
       <c r="C188" t="n">
-        <v>15.78</v>
+        <v>-0.21</v>
       </c>
       <c r="D188" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F188" t="n">
-        <v>32.95</v>
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-15.57</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-15.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="D191" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="D192" t="n">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-15.06</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="D193" t="n">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-15.03</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="D194" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-15.02</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="D195" t="n">
+        <v>15.13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-15.06</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-14.94</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-14.51</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D198" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-14.19</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D199" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-1.175</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-13.87</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D200" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-1.43</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-13.58</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-13.27</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D202" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-1.835714285714286</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-13.41</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D203" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-2.08375</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-13.59</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D204" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-2.298888888888889</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-13.63</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D205" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-2.471</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-13.64</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="D206" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-2.471</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-13.67</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D207" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-2.93</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-13.71</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D208" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-3.409</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-13.77</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="D209" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-3.553</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-13.78</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="D210" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-3.717</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-13.77</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D211" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-3.901</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-13.85</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D212" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-2.374</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-13.88</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D213" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.9329999999999996</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-13.46</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="D214" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-13.18</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="D215" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.763</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-12.71</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-4.78</v>
+      </c>
+      <c r="D216" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.024</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-12.39</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-6.29</v>
+      </c>
+      <c r="D217" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.341999999999999</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-11.78</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="D218" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-11.21</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-9.31</v>
+      </c>
+      <c r="D219" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="E219" t="n">
+        <v>7.348000000000001</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-10.76</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="D220" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="E220" t="n">
+        <v>8.995999999999999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-10.32</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-12.38</v>
+      </c>
+      <c r="D221" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E221" t="n">
+        <v>10.744</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-9.73</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-12.41</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="E222" t="n">
+        <v>10.721</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-9.19</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="E223" t="n">
+        <v>10.807</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-9.01</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11.013</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-8.91</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-12.12</v>
+      </c>
+      <c r="D225" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E225" t="n">
+        <v>11.089</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-8.99</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-11.97</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11.232</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-11.98</v>
+      </c>
+      <c r="D227" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11.415</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-9.17</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-11.96</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11.618</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-9.35</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="D229" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11.371</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="D230" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11.127</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="D231" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>10.793</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="D232" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="E232" t="n">
+        <v>10.449</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="D233" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10.252</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-9.92</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-10.99</v>
+      </c>
+      <c r="D234" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E234" t="n">
+        <v>10.035</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-9.91</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-10.55</v>
+      </c>
+      <c r="D235" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E235" t="n">
+        <v>9.856</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="D236" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="E236" t="n">
+        <v>9.577000000000002</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-9.880000000000001</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="D237" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="E237" t="n">
+        <v>9.178000000000001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-9.66</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="E238" t="n">
+        <v>8.959</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-9.33</v>
+      </c>
+      <c r="D239" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E239" t="n">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-9.15</v>
+      </c>
+      <c r="D240" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="E240" t="n">
+        <v>8.523</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-9.279999999999999</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="D241" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>8.496</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-9.09</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="D242" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>8.481999999999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-8.82</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="D243" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="E243" t="n">
+        <v>8.367999999999999</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-8.84</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-8.33</v>
+      </c>
+      <c r="D244" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E244" t="n">
+        <v>8.054</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="D245" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="E245" t="n">
+        <v>7.892</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-8.69</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-5.82</v>
+      </c>
+      <c r="D246" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E246" t="n">
+        <v>7.680000000000001</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-8.369999999999999</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="D247" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E247" t="n">
+        <v>7.537999999999999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7.146000000000001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-8.119999999999999</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E249" t="n">
+        <v>6.884</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-8.16</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E250" t="n">
+        <v>6.316999999999999</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-8.68</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E251" t="n">
+        <v>6.249999999999999</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E252" t="n">
+        <v>6.289999999999999</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-9.82</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E253" t="n">
+        <v>6.029999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-10.83</v>
+      </c>
+      <c r="C254" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-11.63</v>
+      </c>
+      <c r="C255" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-12.96</v>
+      </c>
+      <c r="C256" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="E256" t="n">
+        <v>6.409999999999999</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="C257" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="E257" t="n">
+        <v>6.775</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-15.53</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="E258" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-17.27</v>
+      </c>
+      <c r="C259" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="E259" t="n">
+        <v>8.344999999999999</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-18.93</v>
+      </c>
+      <c r="C260" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D260" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="E260" t="n">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-20.09</v>
+      </c>
+      <c r="C261" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="D261" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10.295</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-21.16</v>
+      </c>
+      <c r="C262" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="E262" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-21.89</v>
+      </c>
+      <c r="C263" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="D263" t="n">
+        <v>-5.74</v>
+      </c>
+      <c r="E263" t="n">
+        <v>11.815</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-22.22</v>
+      </c>
+      <c r="C264" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="D264" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="E264" t="n">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-22.59</v>
+      </c>
+      <c r="C265" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="E265" t="n">
+        <v>13.485</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-22.78</v>
+      </c>
+      <c r="C266" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-6.17</v>
+      </c>
+      <c r="E266" t="n">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-22.99</v>
+      </c>
+      <c r="C267" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="E267" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="C268" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-6.24</v>
+      </c>
+      <c r="E268" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-21.56</v>
+      </c>
+      <c r="C269" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-20.56</v>
+      </c>
+      <c r="C270" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-6.17</v>
+      </c>
+      <c r="E270" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-19.59</v>
+      </c>
+      <c r="C271" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="E271" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-18.31</v>
+      </c>
+      <c r="C272" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-5.81</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-17.32</v>
+      </c>
+      <c r="C273" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-16.18</v>
+      </c>
+      <c r="C274" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-14.96</v>
+      </c>
+      <c r="C275" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-13.88</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="E276" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-12.77</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-5.31</v>
+      </c>
+      <c r="E277" t="n">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-12.55</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="E278" t="n">
+        <v>11.705</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-12.33</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="E279" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-12.13</v>
+      </c>
+      <c r="C280" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-6.31</v>
+      </c>
+      <c r="E280" t="n">
+        <v>11.855</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-11.92</v>
+      </c>
+      <c r="C281" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D281" t="n">
+        <v>-6.71</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="C282" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.495</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-12.54</v>
+      </c>
+      <c r="C283" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-12.82</v>
+      </c>
+      <c r="C284" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="D284" t="n">
+        <v>-8.619999999999999</v>
+      </c>
+      <c r="E284" t="n">
+        <v>13.465</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/21/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (05/13/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$284</f>
+              <f>'data'!$B$2:$B$214</f>
             </numRef>
           </val>
         </ser>
@@ -221,61 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$284</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'data'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$D$2:$D$284</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'data'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$E$2:$E$284</f>
+              <f>'data'!$C$2:$C$214</f>
             </numRef>
           </val>
         </ser>
@@ -645,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,22 +607,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
     </row>
@@ -690,22 +626,16 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.1</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="4">
@@ -713,13 +643,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9</v>
+        <v>0.3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="5">
@@ -727,13 +654,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.15</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="6">
@@ -741,13 +665,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.3</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.76</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +676,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.38</v>
+        <v>0.78</v>
       </c>
       <c r="C7" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.85</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="8">
@@ -769,13 +687,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.46</v>
+        <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.14</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9">
@@ -783,13 +698,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.51</v>
+        <v>0.26</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.38</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="10">
@@ -797,13 +709,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.44</v>
+        <v>0.12</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.54</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="11">
@@ -811,13 +720,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.82</v>
+        <v>0.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.68</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12">
@@ -825,13 +731,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.82</v>
+        <v>0.01</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.68</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="13">
@@ -839,13 +742,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.35</v>
+        <v>-0.24</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.85</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14">
@@ -853,13 +753,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01</v>
+        <v>-0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.23</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.24</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -867,13 +764,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.46</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.98</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.52</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -881,13 +775,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.83</v>
+        <v>-1.21</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.77</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="17">
@@ -895,13 +786,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.21</v>
+        <v>-1.77</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.21</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.01</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="18">
@@ -909,13 +797,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.32</v>
+        <v>-2.24</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.85</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.53</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +808,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.44</v>
+        <v>-2.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.35</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
@@ -937,13 +819,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.05</v>
+        <v>-3.02</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.83</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.78</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="21">
@@ -951,13 +830,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.55</v>
+        <v>-3.58</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.21</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.66</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="22">
@@ -965,13 +841,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.9</v>
+        <v>-4.13</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.04</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="23">
@@ -979,13 +852,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.27</v>
+        <v>-4.61</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.99</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.72</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="24">
@@ -993,13 +863,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.82</v>
+        <v>-5.09</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5.14</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="25">
@@ -1007,13 +874,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.38</v>
+        <v>-5.58</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.89</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.51</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="26">
@@ -1021,13 +885,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.06</v>
+        <v>-6.07</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.92</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="27">
@@ -1035,13 +896,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.52</v>
+        <v>-6.38</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.97</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6.49</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="28">
@@ -1049,13 +907,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.72</v>
+        <v>-6.71</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.01</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="29">
@@ -1063,13 +918,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.42</v>
+        <v>-7.03</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.04</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7.46</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="30">
@@ -1077,13 +929,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.59</v>
+        <v>-7.09</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.09</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8.68</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="31">
@@ -1091,13 +940,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.72</v>
+        <v>-7.32</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.16</v>
-      </c>
-      <c r="D31" t="n">
-        <v>9.880000000000001</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="32">
@@ -1105,13 +951,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-4.41</v>
+        <v>-6.67</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.22</v>
-      </c>
-      <c r="D32" t="n">
-        <v>10.63</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="33">
@@ -1119,13 +962,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-5.11</v>
+        <v>-6.98</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>11.32</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="34">
@@ -1133,13 +973,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.79</v>
+        <v>-7.26</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.14</v>
-      </c>
-      <c r="D34" t="n">
-        <v>11.95</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="35">
@@ -1147,13 +984,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.37</v>
+        <v>-7.45</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>12.5</v>
+        <v>8.449999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1161,13 +995,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-4.62</v>
+        <v>-7.65</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.21</v>
-      </c>
-      <c r="D36" t="n">
-        <v>10.87</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="37">
@@ -1175,13 +1006,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.83</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="D37" t="n">
-        <v>9.19</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1189,13 +1017,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.03</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>7.49</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1203,13 +1028,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.26</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.48</v>
-      </c>
-      <c r="D39" t="n">
-        <v>5.29</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1039,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.33</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>-6.74</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.49</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="41">
@@ -1231,13 +1050,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.38</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.99</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.7</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="42">
@@ -1245,13 +1061,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.59</v>
+        <v>-10.57</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.26</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-0.23</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="43">
@@ -1259,13 +1072,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.800000000000001</v>
+        <v>-10.61</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.59</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-2.11</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="44">
@@ -1273,13 +1083,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.94</v>
+        <v>-10.64</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-4.04</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1094,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.97</v>
+        <v>-10.74</v>
       </c>
       <c r="C45" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-5.87</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1105,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.78</v>
+        <v>-10.86</v>
       </c>
       <c r="C46" t="n">
-        <v>-8.06</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-5.62</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="47">
@@ -1315,13 +1116,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.57</v>
+        <v>-10.8</v>
       </c>
       <c r="C47" t="n">
-        <v>-8.109999999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-5.36</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="48">
@@ -1329,13 +1127,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.34</v>
+        <v>-10.72</v>
       </c>
       <c r="C48" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-5.09</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="49">
@@ -1343,13 +1138,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.12</v>
+        <v>-10.74</v>
       </c>
       <c r="C49" t="n">
-        <v>-8.26</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-4.76</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="50">
@@ -1357,13 +1149,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.2</v>
+        <v>-10.93</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.17</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-4.93</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="51">
@@ -1371,13 +1160,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.26</v>
+        <v>-10.7</v>
       </c>
       <c r="C51" t="n">
-        <v>-8.07</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-5.09</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="52">
@@ -1385,13 +1171,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.3</v>
+        <v>-10.37</v>
       </c>
       <c r="C52" t="n">
-        <v>-8.07</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-5.13</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="53">
@@ -1399,13 +1182,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.14</v>
+        <v>-9.98</v>
       </c>
       <c r="C53" t="n">
-        <v>-8.09</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-4.95</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="54">
@@ -1413,13 +1193,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.05</v>
+        <v>-9.710000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>-8.199999999999999</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-4.74</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1427,13 +1204,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.97</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>-8.32</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-4.53</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1441,13 +1215,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.86</v>
+        <v>-8.81</v>
       </c>
       <c r="C56" t="n">
-        <v>-8.43</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-4.3</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="57">
@@ -1455,13 +1226,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.73</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-8.59</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-4.01</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1469,13 +1237,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.58</v>
+        <v>-7.43</v>
       </c>
       <c r="C58" t="n">
-        <v>-8.74</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-3.71</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="59">
@@ -1483,13 +1248,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.43</v>
+        <v>-6.74</v>
       </c>
       <c r="C59" t="n">
-        <v>-8.76</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-3.54</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="60">
@@ -1497,13 +1259,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.2</v>
+        <v>-6</v>
       </c>
       <c r="C60" t="n">
-        <v>-8.789999999999999</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-3.28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -1511,13 +1270,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.97</v>
+        <v>-5.8</v>
       </c>
       <c r="C61" t="n">
-        <v>-8.81</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-3.03</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="62">
@@ -1525,13 +1281,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.74</v>
+        <v>-5.64</v>
       </c>
       <c r="C62" t="n">
-        <v>-8.65</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-2.96</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="63">
@@ -1539,13 +1292,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.81</v>
+        <v>-5.56</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-3.18</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="64">
@@ -1553,13 +1303,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.82</v>
+        <v>-5.41</v>
       </c>
       <c r="C64" t="n">
-        <v>-8.48</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-2.22</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="65">
@@ -1567,13 +1314,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.539999999999999</v>
+        <v>-5.31</v>
       </c>
       <c r="C65" t="n">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.96</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="66">
@@ -1581,13 +1325,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.27</v>
+        <v>-5.44</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.470000000000001</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.3</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="67">
@@ -1595,13 +1336,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.99</v>
+        <v>-5.61</v>
       </c>
       <c r="C67" t="n">
-        <v>-8.390000000000001</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.5</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="68">
@@ -1609,13 +1347,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.74</v>
+        <v>-5.81</v>
       </c>
       <c r="C68" t="n">
-        <v>-8.279999999999999</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2.64</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="69">
@@ -1623,13 +1358,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.43</v>
+        <v>-5.92</v>
       </c>
       <c r="C69" t="n">
-        <v>-8.119999999999999</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3.78</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="70">
@@ -1637,13 +1369,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.13</v>
+        <v>-5.63</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.97</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4.95</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="71">
@@ -1651,13 +1380,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.86</v>
+        <v>-5.27</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.85</v>
-      </c>
-      <c r="D71" t="n">
-        <v>6.09</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="72">
@@ -1665,13 +1391,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.57</v>
+        <v>-4.92</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.78</v>
-      </c>
-      <c r="D72" t="n">
-        <v>7.31</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="73">
@@ -1679,13 +1402,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.06</v>
+        <v>-4.54</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.74</v>
-      </c>
-      <c r="D73" t="n">
-        <v>8.890000000000001</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="74">
@@ -1693,13 +1413,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.64</v>
+        <v>-4.17</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.58</v>
-      </c>
-      <c r="D74" t="n">
-        <v>9.32</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="75">
@@ -1707,13 +1424,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.86</v>
+        <v>-3.8</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.46</v>
-      </c>
-      <c r="D75" t="n">
-        <v>9.42</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="76">
@@ -1721,13 +1435,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.05</v>
+        <v>-3.42</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.37</v>
-      </c>
-      <c r="D76" t="n">
-        <v>9.51</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="77">
@@ -1735,13 +1446,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.21</v>
+        <v>-3.12</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.27</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9.59</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="78">
@@ -1749,13 +1457,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.37</v>
+        <v>-2.82</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.24</v>
-      </c>
-      <c r="D78" t="n">
-        <v>9.710000000000001</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="79">
@@ -1763,13 +1468,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.48</v>
+        <v>-2.58</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.31</v>
-      </c>
-      <c r="D79" t="n">
-        <v>9.890000000000001</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="80">
@@ -1777,13 +1479,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.61</v>
+        <v>-2.62</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.34</v>
-      </c>
-      <c r="D80" t="n">
-        <v>10.05</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="81">
@@ -1791,13 +1490,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.79</v>
+        <v>-2.6</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.36</v>
-      </c>
-      <c r="D81" t="n">
-        <v>10.25</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="82">
@@ -1805,13 +1501,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.87</v>
+        <v>-2.54</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="D82" t="n">
-        <v>10.37</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="83">
@@ -1819,13 +1512,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.8</v>
+        <v>-2.55</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="D83" t="n">
-        <v>10.21</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="84">
@@ -1833,13 +1523,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-4.61</v>
+        <v>-2.56</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.26</v>
-      </c>
-      <c r="D84" t="n">
-        <v>9.970000000000001</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="85">
@@ -1847,13 +1534,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.48</v>
+        <v>-2.57</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.16</v>
-      </c>
-      <c r="D85" t="n">
-        <v>9.74</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="86">
@@ -1861,13 +1545,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.31</v>
+        <v>-2.55</v>
       </c>
       <c r="C86" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>9.51</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="87">
@@ -1875,13 +1556,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-7.13</v>
+        <v>-2.52</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9.300000000000001</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="88">
@@ -1889,13 +1567,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.98</v>
+        <v>-2.5</v>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="89">
@@ -1903,13 +1578,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-8.84</v>
+        <v>-2.51</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D89" t="n">
-        <v>8.9</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="90">
@@ -1917,13 +1589,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-9.68</v>
+        <v>-2.54</v>
       </c>
       <c r="C90" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>8.720000000000001</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="91">
@@ -1931,13 +1600,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-10.52</v>
+        <v>-2.56</v>
       </c>
       <c r="C91" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="D91" t="n">
-        <v>8.52</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="92">
@@ -1945,13 +1611,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-11.34</v>
+        <v>-3.25</v>
       </c>
       <c r="C92" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D92" t="n">
-        <v>8.380000000000001</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="93">
@@ -1959,13 +1622,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-11.05</v>
+        <v>-4</v>
       </c>
       <c r="C93" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="D93" t="n">
-        <v>8.26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -1973,13 +1633,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-10.85</v>
+        <v>-4.73</v>
       </c>
       <c r="C94" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="D94" t="n">
-        <v>8.24</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="95">
@@ -1987,13 +1644,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-10.65</v>
+        <v>-5.72</v>
       </c>
       <c r="C95" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D95" t="n">
-        <v>8.220000000000001</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="96">
@@ -2001,13 +1655,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-10.66</v>
+        <v>-6.75</v>
       </c>
       <c r="C96" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="D96" t="n">
-        <v>8.220000000000001</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="97">
@@ -2015,13 +1666,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-10.69</v>
+        <v>-7.7</v>
       </c>
       <c r="C97" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D97" t="n">
-        <v>8.220000000000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="98">
@@ -2029,13 +1677,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-9.99</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="D98" t="n">
-        <v>8.210000000000001</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2043,13 +1688,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-9.23</v>
+        <v>-8.75</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="D99" t="n">
-        <v>8.17</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="100">
@@ -2057,13 +1699,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-8.550000000000001</v>
+        <v>-9.32</v>
       </c>
       <c r="C100" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D100" t="n">
-        <v>8.130000000000001</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="101">
@@ -2071,13 +1710,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-7.83</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="D101" t="n">
-        <v>8.07</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2085,13 +1721,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-7.2</v>
+        <v>-9.93</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="D102" t="n">
-        <v>8</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="103">
@@ -2099,13 +1732,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-6.59</v>
+        <v>-9.710000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7.86</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2113,13 +1743,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-5.97</v>
+        <v>-9.51</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.7</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="105">
@@ -2127,13 +1754,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.42</v>
+        <v>-9.08</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.6</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="106">
@@ -2141,13 +1765,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-4.76</v>
+        <v>-7.53</v>
       </c>
       <c r="C106" t="n">
-        <v>-2.63</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7.5</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="107">
@@ -2155,13 +1776,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-4.08</v>
+        <v>-6.25</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>7.38</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="108">
@@ -2169,13 +1787,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-4.11</v>
+        <v>-5.37</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.05</v>
-      </c>
-      <c r="D108" t="n">
-        <v>7.26</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="109">
@@ -2183,13 +1798,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-4.15</v>
+        <v>-4.56</v>
       </c>
       <c r="C109" t="n">
-        <v>-2.92</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.17</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="110">
@@ -2197,13 +1809,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-4.1</v>
+        <v>-3.76</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.86</v>
-      </c>
-      <c r="D110" t="n">
-        <v>7.06</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="111">
@@ -2211,13 +1820,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-4.28</v>
+        <v>-2.65</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.79</v>
-      </c>
-      <c r="D111" t="n">
-        <v>7.17</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="112">
@@ -2225,13 +1831,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-4.39</v>
+        <v>-1.65</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.74</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7.23</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="113">
@@ -2239,13 +1842,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-4.49</v>
+        <v>-1.01</v>
       </c>
       <c r="C113" t="n">
-        <v>-3.22</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.81</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="114">
@@ -2253,13 +1853,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-4.8</v>
+        <v>-0.45</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>8.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="115">
@@ -2267,13 +1864,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.17</v>
+        <v>0.14</v>
       </c>
       <c r="C115" t="n">
-        <v>-3.66</v>
-      </c>
-      <c r="D115" t="n">
-        <v>8.93</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="116">
@@ -2281,13 +1875,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-5.54</v>
+        <v>-0.44</v>
       </c>
       <c r="C116" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9.44</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="117">
@@ -2295,13 +1886,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.92</v>
+        <v>-0.76</v>
       </c>
       <c r="C117" t="n">
-        <v>-3.94</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9.960000000000001</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="118">
@@ -2309,13 +1897,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-6.32</v>
+        <v>-1.21</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.07</v>
-      </c>
-      <c r="D118" t="n">
-        <v>10.49</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="119">
@@ -2323,13 +1908,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-6.82</v>
+        <v>-1.58</v>
       </c>
       <c r="C119" t="n">
-        <v>-4.08</v>
-      </c>
-      <c r="D119" t="n">
-        <v>11</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="120">
@@ -2337,13 +1919,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-7.41</v>
+        <v>-2.21</v>
       </c>
       <c r="C120" t="n">
-        <v>-4.01</v>
-      </c>
-      <c r="D120" t="n">
-        <v>11.52</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="121">
@@ -2351,13 +1930,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-9.69</v>
+        <v>-3.18</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="D121" t="n">
-        <v>11.76</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="122">
@@ -2365,13 +1941,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-12.05</v>
+        <v>-4.09</v>
       </c>
       <c r="C122" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.07</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="123">
@@ -2379,13 +1952,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-14.41</v>
+        <v>-4.53</v>
       </c>
       <c r="C123" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>11.8</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="124">
@@ -2393,13 +1963,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-16.58</v>
+        <v>-4.94</v>
       </c>
       <c r="C124" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D124" t="n">
-        <v>11.53</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="125">
@@ -2407,13 +1974,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-18.64</v>
+        <v>-5.66</v>
       </c>
       <c r="C125" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="D125" t="n">
-        <v>11.24</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="126">
@@ -2421,13 +1985,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-20.69</v>
+        <v>-6.41</v>
       </c>
       <c r="C126" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="D126" t="n">
-        <v>11.08</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="127">
@@ -2435,13 +1996,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-22.73</v>
+        <v>-7.16</v>
       </c>
       <c r="C127" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D127" t="n">
-        <v>10.96</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="128">
@@ -2449,13 +2007,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-24.64</v>
+        <v>-7.78</v>
       </c>
       <c r="C128" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="D128" t="n">
-        <v>10.79</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="129">
@@ -2463,13 +2018,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-26.48</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="D129" t="n">
-        <v>10.64</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -2477,13 +2029,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-28.33</v>
+        <v>-8.77</v>
       </c>
       <c r="C130" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="D130" t="n">
-        <v>10.5</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="131">
@@ -2491,13 +2040,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-28.58</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="D131" t="n">
-        <v>10.44</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -2505,13 +2051,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-28.85</v>
+        <v>-9.43</v>
       </c>
       <c r="C132" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="D132" t="n">
-        <v>10.36</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="133">
@@ -2519,13 +2062,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-29.11</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="D133" t="n">
-        <v>10.42</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="134">
@@ -2533,13 +2073,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-29.6</v>
+        <v>-10.39</v>
       </c>
       <c r="C134" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="D134" t="n">
-        <v>10.49</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="135">
@@ -2547,13 +2084,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-30.12</v>
+        <v>-10.53</v>
       </c>
       <c r="C135" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="D135" t="n">
-        <v>10.57</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="136">
@@ -2561,13 +2095,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-30.64</v>
+        <v>-10.59</v>
       </c>
       <c r="C136" t="n">
-        <v>20.19</v>
-      </c>
-      <c r="D136" t="n">
-        <v>10.56</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="137">
@@ -2575,13 +2106,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-31.16</v>
+        <v>-10.48</v>
       </c>
       <c r="C137" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="D137" t="n">
-        <v>10.5</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="138">
@@ -2589,13 +2117,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-31.77</v>
+        <v>-10.38</v>
       </c>
       <c r="C138" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="D138" t="n">
-        <v>10.5</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="139">
@@ -2603,13 +2128,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-32.49</v>
+        <v>-10.18</v>
       </c>
       <c r="C139" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="D139" t="n">
-        <v>10.5</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="140">
@@ -2617,13 +2139,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-33.11</v>
+        <v>-10.02</v>
       </c>
       <c r="C140" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="D140" t="n">
-        <v>10.47</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="141">
@@ -2631,13 +2150,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-33.61</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="D141" t="n">
-        <v>10.62</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="142">
@@ -2645,13 +2161,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-34.08</v>
+        <v>-9.09</v>
       </c>
       <c r="C142" t="n">
-        <v>23.41</v>
-      </c>
-      <c r="D142" t="n">
-        <v>10.77</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="143">
@@ -2659,13 +2172,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-34.56</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="D143" t="n">
-        <v>10.9</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="144">
@@ -2673,13 +2183,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-35.05</v>
+        <v>-7.66</v>
       </c>
       <c r="C144" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>11.35</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="145">
@@ -2687,13 +2194,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-35.5</v>
+        <v>-6.94</v>
       </c>
       <c r="C145" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D145" t="n">
-        <v>11.8</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="146">
@@ -2701,13 +2205,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-35.91</v>
+        <v>-5.73</v>
       </c>
       <c r="C146" t="n">
-        <v>23.78</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12.23</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="147">
@@ -2715,13 +2216,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-36.29</v>
+        <v>-4.68</v>
       </c>
       <c r="C147" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="D147" t="n">
-        <v>12.62</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="148">
@@ -2729,13 +2227,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-36.7</v>
+        <v>-3.84</v>
       </c>
       <c r="C148" t="n">
-        <v>23.79</v>
-      </c>
-      <c r="D148" t="n">
-        <v>13.01</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="149">
@@ -2743,13 +2238,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-36.99</v>
+        <v>-3.07</v>
       </c>
       <c r="C149" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="D149" t="n">
-        <v>13.38</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="150">
@@ -2757,13 +2249,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-37.24</v>
+        <v>-2.34</v>
       </c>
       <c r="C150" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="D150" t="n">
-        <v>13.7</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="151">
@@ -2771,13 +2260,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-37.88</v>
+        <v>-1.46</v>
       </c>
       <c r="C151" t="n">
-        <v>23.55</v>
-      </c>
-      <c r="D151" t="n">
-        <v>14.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="152">
@@ -2785,13 +2271,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-38.55</v>
+        <v>-1.11</v>
       </c>
       <c r="C152" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>15.15</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="153">
@@ -2799,13 +2282,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-39.15</v>
+        <v>-0.72</v>
       </c>
       <c r="C153" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="D153" t="n">
-        <v>15.88</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="154">
@@ -2813,13 +2293,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-39.38</v>
+        <v>-0.36</v>
       </c>
       <c r="C154" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="D154" t="n">
-        <v>16.22</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="155">
@@ -2827,13 +2304,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-39.62</v>
+        <v>-0.02</v>
       </c>
       <c r="C155" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="D155" t="n">
-        <v>16.55</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="156">
@@ -2841,13 +2315,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-39.9</v>
+        <v>-0.17</v>
       </c>
       <c r="C156" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>16.9</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="157">
@@ -2855,13 +2326,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-40.22</v>
+        <v>-0.25</v>
       </c>
       <c r="C157" t="n">
-        <v>23.04</v>
-      </c>
-      <c r="D157" t="n">
-        <v>17.29</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158">
@@ -2869,13 +2337,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-40.53</v>
+        <v>0.32</v>
       </c>
       <c r="C158" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>17.73</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="159">
@@ -2883,13 +2348,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-40.84</v>
+        <v>0.86</v>
       </c>
       <c r="C159" t="n">
-        <v>22.76</v>
-      </c>
-      <c r="D159" t="n">
-        <v>18.18</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="160">
@@ -2897,13 +2359,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-40.18</v>
+        <v>1.3</v>
       </c>
       <c r="C160" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="D160" t="n">
-        <v>18.69</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="161">
@@ -2911,13 +2370,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-38.96</v>
+        <v>1.59</v>
       </c>
       <c r="C161" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="D161" t="n">
-        <v>18.61</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="162">
@@ -2925,13 +2381,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-37.73</v>
+        <v>1.57</v>
       </c>
       <c r="C162" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="D162" t="n">
-        <v>18.56</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="163">
@@ -2939,13 +2392,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-36.59</v>
+        <v>1.05</v>
       </c>
       <c r="C163" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="D163" t="n">
-        <v>18.51</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="164">
@@ -2953,13 +2403,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-34.49</v>
+        <v>0.5</v>
       </c>
       <c r="C164" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="D164" t="n">
-        <v>18.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165">
@@ -2967,13 +2414,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-32.38</v>
+        <v>-0.04</v>
       </c>
       <c r="C165" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="D165" t="n">
-        <v>18.52</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="166">
@@ -2981,13 +2425,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-30.26</v>
+        <v>-0.55</v>
       </c>
       <c r="C166" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D166" t="n">
-        <v>18.51</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="167">
@@ -2995,13 +2436,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-28.01</v>
+        <v>-1.23</v>
       </c>
       <c r="C167" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>18.51</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="168">
@@ -3009,13 +2447,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-25.77</v>
+        <v>-2.17</v>
       </c>
       <c r="C168" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D168" t="n">
-        <v>18.46</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="169">
@@ -3023,13 +2458,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-23.41</v>
+        <v>-3.1</v>
       </c>
       <c r="C169" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D169" t="n">
-        <v>18.37</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="170">
@@ -3037,13 +2469,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-22.11</v>
+        <v>-3.88</v>
       </c>
       <c r="C170" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D170" t="n">
-        <v>18.28</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="171">
@@ -3051,13 +2480,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-20.82</v>
+        <v>-4.92</v>
       </c>
       <c r="C171" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="D171" t="n">
-        <v>18</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="172">
@@ -3065,13 +2491,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-19.51</v>
+        <v>-5.6</v>
       </c>
       <c r="C172" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D172" t="n">
-        <v>17.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="173">
@@ -3079,13 +2502,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-18.16</v>
+        <v>-5.84</v>
       </c>
       <c r="C173" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D173" t="n">
-        <v>17.41</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="174">
@@ -3093,13 +2513,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-17.9</v>
+        <v>-6</v>
       </c>
       <c r="C174" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D174" t="n">
-        <v>17.16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175">
@@ -3107,13 +2524,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-17.65</v>
+        <v>-6.14</v>
       </c>
       <c r="C175" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="D175" t="n">
-        <v>16.9</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="176">
@@ -3121,13 +2535,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-17.49</v>
+        <v>-6.38</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="D176" t="n">
-        <v>16.64</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="177">
@@ -3135,13 +2546,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-17.44</v>
+        <v>-6.5</v>
       </c>
       <c r="C177" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D177" t="n">
-        <v>16.33</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="178">
@@ -3149,13 +2557,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-17.29</v>
+        <v>-6.79</v>
       </c>
       <c r="C178" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="D178" t="n">
-        <v>15.94</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="179">
@@ -3163,13 +2568,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-17.31</v>
+        <v>-7.03</v>
       </c>
       <c r="C179" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D179" t="n">
-        <v>15.84</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="180">
@@ -3177,13 +2579,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-17.31</v>
+        <v>-7.33</v>
       </c>
       <c r="C180" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="D180" t="n">
-        <v>15.74</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="181">
@@ -3191,13 +2590,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-17.43</v>
+        <v>-7.37</v>
       </c>
       <c r="C181" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D181" t="n">
-        <v>15.94</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="182">
@@ -3205,13 +2601,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-17.54</v>
+        <v>-7.41</v>
       </c>
       <c r="C182" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="D182" t="n">
-        <v>16.15</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="183">
@@ -3219,13 +2612,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-17.17</v>
+        <v>-7.49</v>
       </c>
       <c r="C183" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D183" t="n">
-        <v>16.06</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="184">
@@ -3233,13 +2623,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-16.79</v>
+        <v>-7.66</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="D184" t="n">
-        <v>15.95</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="185">
@@ -3247,13 +2634,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-16.37</v>
+        <v>-7.88</v>
       </c>
       <c r="C185" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D185" t="n">
-        <v>15.83</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="186">
@@ -3261,13 +2645,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-15.89</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="C186" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D186" t="n">
-        <v>15.74</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="187">
@@ -3275,13 +2656,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-15.56</v>
+        <v>-8.23</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>15.66</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="188">
@@ -3289,13 +2667,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-15.65</v>
+        <v>-8.43</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="D188" t="n">
-        <v>15.96</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="189">
@@ -3303,13 +2678,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-15.57</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="D189" t="n">
-        <v>15.94</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="190">
@@ -3317,13 +2689,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-15.5</v>
+        <v>-8.779999999999999</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="D190" t="n">
-        <v>15.93</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="191">
@@ -3331,13 +2700,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-15.3</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="D191" t="n">
-        <v>15.8</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -3345,13 +2711,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-15.12</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="D192" t="n">
-        <v>15.67</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="193">
@@ -3359,13 +2722,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-15.06</v>
+        <v>-9.17</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="D193" t="n">
-        <v>15.48</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="194">
@@ -3373,13 +2733,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-15.03</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="D194" t="n">
-        <v>15.3</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +2744,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-15.02</v>
+        <v>-10.21</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="D195" t="n">
-        <v>15.13</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="196">
@@ -3401,16 +2755,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-15.06</v>
+        <v>-10.97</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="197">
@@ -3418,16 +2766,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-14.94</v>
+        <v>-11.75</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.2</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="198">
@@ -3435,16 +2777,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-14.51</v>
+        <v>-12.49</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="D198" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="E198" t="n">
-        <v>-0.75</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="199">
@@ -3452,16 +2788,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-14.19</v>
+        <v>-13.19</v>
       </c>
       <c r="C199" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D199" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="E199" t="n">
-        <v>-1.175</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="200">
@@ -3469,16 +2799,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-13.87</v>
+        <v>-13.94</v>
       </c>
       <c r="C200" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="D200" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="E200" t="n">
-        <v>-1.43</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="201">
@@ -3486,16 +2810,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-13.58</v>
+        <v>-14.65</v>
       </c>
       <c r="C201" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D201" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="E201" t="n">
-        <v>-1.6</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="202">
@@ -3503,16 +2821,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-13.27</v>
+        <v>-15.4</v>
       </c>
       <c r="C202" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D202" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="E202" t="n">
-        <v>-1.835714285714286</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="203">
@@ -3520,16 +2832,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-13.41</v>
+        <v>-16.22</v>
       </c>
       <c r="C203" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D203" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="E203" t="n">
-        <v>-2.08375</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="204">
@@ -3537,16 +2843,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-13.59</v>
+        <v>-16.51</v>
       </c>
       <c r="C204" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D204" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="E204" t="n">
-        <v>-2.298888888888889</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="205">
@@ -3554,16 +2854,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-13.63</v>
+        <v>-16.8</v>
       </c>
       <c r="C205" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="D205" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-2.471</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="206">
@@ -3571,16 +2865,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-13.64</v>
+        <v>-16.94</v>
       </c>
       <c r="C206" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="D206" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-2.471</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="207">
@@ -3588,16 +2876,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-13.67</v>
+        <v>-17.06</v>
       </c>
       <c r="C207" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="D207" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="E207" t="n">
-        <v>-2.93</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="208">
@@ -3605,16 +2887,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-13.71</v>
+        <v>-17.2</v>
       </c>
       <c r="C208" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D208" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="E208" t="n">
-        <v>-3.409</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="209">
@@ -3622,16 +2898,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-13.77</v>
+        <v>-17.39</v>
       </c>
       <c r="C209" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="D209" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-3.553</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="210">
@@ -3639,16 +2909,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-13.78</v>
+        <v>-17.58</v>
       </c>
       <c r="C210" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="D210" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="E210" t="n">
-        <v>-3.717</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="211">
@@ -3656,16 +2920,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-13.77</v>
+        <v>-17.59</v>
       </c>
       <c r="C211" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="D211" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-3.901</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="212">
@@ -3673,16 +2931,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-13.85</v>
+        <v>-17.57</v>
       </c>
       <c r="C212" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D212" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="E212" t="n">
-        <v>-2.374</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="213">
@@ -3690,16 +2942,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-13.88</v>
+        <v>-17.57</v>
       </c>
       <c r="C213" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D213" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="E213" t="n">
-        <v>-0.9329999999999996</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="214">
@@ -3707,1206 +2953,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-13.46</v>
+        <v>-17.54</v>
       </c>
       <c r="C214" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="D214" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0.445</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-13.18</v>
-      </c>
-      <c r="C215" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="D215" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1.763</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-12.71</v>
-      </c>
-      <c r="C216" t="n">
-        <v>-4.78</v>
-      </c>
-      <c r="D216" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="E216" t="n">
-        <v>3.024</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-12.39</v>
-      </c>
-      <c r="C217" t="n">
-        <v>-6.29</v>
-      </c>
-      <c r="D217" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="E217" t="n">
-        <v>4.341999999999999</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-11.78</v>
-      </c>
-      <c r="C218" t="n">
-        <v>-7.81</v>
-      </c>
-      <c r="D218" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="E218" t="n">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-11.21</v>
-      </c>
-      <c r="C219" t="n">
-        <v>-9.31</v>
-      </c>
-      <c r="D219" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="E219" t="n">
-        <v>7.348000000000001</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-10.76</v>
-      </c>
-      <c r="C220" t="n">
-        <v>-10.79</v>
-      </c>
-      <c r="D220" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="E220" t="n">
-        <v>8.995999999999999</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-10.32</v>
-      </c>
-      <c r="C221" t="n">
-        <v>-12.38</v>
-      </c>
-      <c r="D221" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E221" t="n">
-        <v>10.744</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-9.73</v>
-      </c>
-      <c r="C222" t="n">
-        <v>-12.41</v>
-      </c>
-      <c r="D222" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="E222" t="n">
-        <v>10.721</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-9.19</v>
-      </c>
-      <c r="C223" t="n">
-        <v>-12.3</v>
-      </c>
-      <c r="D223" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="E223" t="n">
-        <v>10.807</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-9.01</v>
-      </c>
-      <c r="C224" t="n">
-        <v>-12.2</v>
-      </c>
-      <c r="D224" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="E224" t="n">
-        <v>11.013</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-8.91</v>
-      </c>
-      <c r="C225" t="n">
-        <v>-12.12</v>
-      </c>
-      <c r="D225" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="E225" t="n">
-        <v>11.089</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-8.99</v>
-      </c>
-      <c r="C226" t="n">
-        <v>-11.97</v>
-      </c>
-      <c r="D226" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="E226" t="n">
-        <v>11.232</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="C227" t="n">
-        <v>-11.98</v>
-      </c>
-      <c r="D227" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E227" t="n">
-        <v>11.415</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-9.17</v>
-      </c>
-      <c r="C228" t="n">
-        <v>-11.96</v>
-      </c>
-      <c r="D228" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="E228" t="n">
-        <v>11.618</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-9.35</v>
-      </c>
-      <c r="C229" t="n">
-        <v>-11.94</v>
-      </c>
-      <c r="D229" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E229" t="n">
-        <v>11.371</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-9.449999999999999</v>
-      </c>
-      <c r="C230" t="n">
-        <v>-11.84</v>
-      </c>
-      <c r="D230" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="E230" t="n">
-        <v>11.127</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-9.550000000000001</v>
-      </c>
-      <c r="C231" t="n">
-        <v>-11.64</v>
-      </c>
-      <c r="D231" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>10.793</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-9.74</v>
-      </c>
-      <c r="C232" t="n">
-        <v>-11.35</v>
-      </c>
-      <c r="D232" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="E232" t="n">
-        <v>10.449</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="C233" t="n">
-        <v>-11.18</v>
-      </c>
-      <c r="D233" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E233" t="n">
-        <v>10.252</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-9.92</v>
-      </c>
-      <c r="C234" t="n">
-        <v>-10.99</v>
-      </c>
-      <c r="D234" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="E234" t="n">
-        <v>10.035</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-9.91</v>
-      </c>
-      <c r="C235" t="n">
-        <v>-10.55</v>
-      </c>
-      <c r="D235" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E235" t="n">
-        <v>9.856</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-9.9</v>
-      </c>
-      <c r="C236" t="n">
-        <v>-10.31</v>
-      </c>
-      <c r="D236" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="E236" t="n">
-        <v>9.577000000000002</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-9.880000000000001</v>
-      </c>
-      <c r="C237" t="n">
-        <v>-9.98</v>
-      </c>
-      <c r="D237" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="E237" t="n">
-        <v>9.178000000000001</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-9.84</v>
-      </c>
-      <c r="C238" t="n">
-        <v>-9.66</v>
-      </c>
-      <c r="D238" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="E238" t="n">
-        <v>8.959</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-9.640000000000001</v>
-      </c>
-      <c r="C239" t="n">
-        <v>-9.33</v>
-      </c>
-      <c r="D239" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E239" t="n">
-        <v>8.56</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-9.460000000000001</v>
-      </c>
-      <c r="C240" t="n">
-        <v>-9.15</v>
-      </c>
-      <c r="D240" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="E240" t="n">
-        <v>8.523</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-9.279999999999999</v>
-      </c>
-      <c r="C241" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="D241" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E241" t="n">
-        <v>8.496</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-9.09</v>
-      </c>
-      <c r="C242" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="D242" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E242" t="n">
-        <v>8.481999999999999</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-8.82</v>
-      </c>
-      <c r="C243" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="D243" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="E243" t="n">
-        <v>8.367999999999999</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-8.84</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-8.33</v>
-      </c>
-      <c r="D244" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="E244" t="n">
-        <v>8.054</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-9</v>
-      </c>
-      <c r="C245" t="n">
-        <v>-7.18</v>
-      </c>
-      <c r="D245" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="E245" t="n">
-        <v>7.892</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-8.69</v>
-      </c>
-      <c r="C246" t="n">
-        <v>-5.82</v>
-      </c>
-      <c r="D246" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="E246" t="n">
-        <v>7.680000000000001</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-8.369999999999999</v>
-      </c>
-      <c r="C247" t="n">
-        <v>-4.56</v>
-      </c>
-      <c r="D247" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="E247" t="n">
-        <v>7.537999999999999</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-8.06</v>
-      </c>
-      <c r="C248" t="n">
-        <v>-3.22</v>
-      </c>
-      <c r="D248" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E248" t="n">
-        <v>7.146000000000001</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-8.119999999999999</v>
-      </c>
-      <c r="C249" t="n">
-        <v>-1.88</v>
-      </c>
-      <c r="D249" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="E249" t="n">
-        <v>6.884</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-8.16</v>
-      </c>
-      <c r="C250" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="E250" t="n">
-        <v>6.316999999999999</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-8.68</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D251" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E251" t="n">
-        <v>6.249999999999999</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-9.220000000000001</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E252" t="n">
-        <v>6.289999999999999</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-9.82</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E253" t="n">
-        <v>6.029999999999999</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-10.83</v>
-      </c>
-      <c r="C254" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D254" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="E254" t="n">
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-11.63</v>
-      </c>
-      <c r="C255" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="D255" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="E255" t="n">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-12.96</v>
-      </c>
-      <c r="C256" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="D256" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="E256" t="n">
-        <v>6.409999999999999</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-14.29</v>
-      </c>
-      <c r="C257" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D257" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="E257" t="n">
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-15.53</v>
-      </c>
-      <c r="C258" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="D258" t="n">
-        <v>-2.33</v>
-      </c>
-      <c r="E258" t="n">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-17.27</v>
-      </c>
-      <c r="C259" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D259" t="n">
-        <v>-2.83</v>
-      </c>
-      <c r="E259" t="n">
-        <v>8.344999999999999</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-18.93</v>
-      </c>
-      <c r="C260" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="D260" t="n">
-        <v>-3.34</v>
-      </c>
-      <c r="E260" t="n">
-        <v>9.52</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-20.09</v>
-      </c>
-      <c r="C261" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="D261" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="E261" t="n">
-        <v>10.295</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-21.16</v>
-      </c>
-      <c r="C262" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="D262" t="n">
-        <v>-4.61</v>
-      </c>
-      <c r="E262" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>-21.89</v>
-      </c>
-      <c r="C263" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="D263" t="n">
-        <v>-5.74</v>
-      </c>
-      <c r="E263" t="n">
-        <v>11.815</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>-22.22</v>
-      </c>
-      <c r="C264" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="D264" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="E264" t="n">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-22.59</v>
-      </c>
-      <c r="C265" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="D265" t="n">
-        <v>-6.12</v>
-      </c>
-      <c r="E265" t="n">
-        <v>13.485</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-22.78</v>
-      </c>
-      <c r="C266" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="D266" t="n">
-        <v>-6.17</v>
-      </c>
-      <c r="E266" t="n">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-22.99</v>
-      </c>
-      <c r="C267" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>-6.21</v>
-      </c>
-      <c r="E267" t="n">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-22.6</v>
-      </c>
-      <c r="C268" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="D268" t="n">
-        <v>-6.24</v>
-      </c>
-      <c r="E268" t="n">
-        <v>14.56</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-21.56</v>
-      </c>
-      <c r="C269" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="D269" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="E269" t="n">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-20.56</v>
-      </c>
-      <c r="C270" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="D270" t="n">
-        <v>-6.17</v>
-      </c>
-      <c r="E270" t="n">
-        <v>13.82</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-19.59</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D271" t="n">
-        <v>-6.02</v>
-      </c>
-      <c r="E271" t="n">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-18.31</v>
-      </c>
-      <c r="C272" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="D272" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12.86</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-17.32</v>
-      </c>
-      <c r="C273" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D273" t="n">
-        <v>-5.51</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12.59</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-16.18</v>
-      </c>
-      <c r="C274" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D274" t="n">
-        <v>-5.22</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>-14.96</v>
-      </c>
-      <c r="C275" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="D275" t="n">
-        <v>-5.03</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12.02</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-13.88</v>
-      </c>
-      <c r="C276" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D276" t="n">
-        <v>-5.08</v>
-      </c>
-      <c r="E276" t="n">
-        <v>11.71</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-12.77</v>
-      </c>
-      <c r="C277" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="D277" t="n">
-        <v>-5.31</v>
-      </c>
-      <c r="E277" t="n">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-12.55</v>
-      </c>
-      <c r="C278" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="D278" t="n">
-        <v>-5.6</v>
-      </c>
-      <c r="E278" t="n">
-        <v>11.705</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-12.33</v>
-      </c>
-      <c r="C279" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="D279" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="E279" t="n">
-        <v>11.77</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-12.13</v>
-      </c>
-      <c r="C280" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D280" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="E280" t="n">
-        <v>11.855</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>-11.92</v>
-      </c>
-      <c r="C281" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D281" t="n">
-        <v>-6.71</v>
-      </c>
-      <c r="E281" t="n">
-        <v>12.01</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>-12.37</v>
-      </c>
-      <c r="C282" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D282" t="n">
-        <v>-7.17</v>
-      </c>
-      <c r="E282" t="n">
-        <v>12.495</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>-12.54</v>
-      </c>
-      <c r="C283" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="D283" t="n">
-        <v>-7.9</v>
-      </c>
-      <c r="E283" t="n">
-        <v>12.97</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-12.82</v>
-      </c>
-      <c r="C284" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="D284" t="n">
-        <v>-8.619999999999999</v>
-      </c>
-      <c r="E284" t="n">
-        <v>13.465</v>
+        <v>17.54</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (05/13/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/21/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$214</f>
+              <f>'data'!$B$2:$B$284</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,61 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$214</f>
+              <f>'data'!$C$2:$C$284</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'data'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$D$2:$D$284</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$284</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,12 +661,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fish</t>
         </is>
       </c>
     </row>
@@ -626,16 +690,22 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15</v>
+        <v>-0.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.15</v>
+        <v>0.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +713,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3</v>
+        <v>-0.9</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3</v>
+        <v>0.53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +727,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.6</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +741,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>-1.3</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8</v>
+        <v>0.54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +755,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.78</v>
+        <v>-1.38</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.78</v>
+        <v>0.53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +769,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
+        <v>-1.46</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5</v>
+        <v>0.31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +783,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.26</v>
+        <v>-1.51</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.26</v>
+        <v>0.14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +797,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12</v>
+        <v>-1.44</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +811,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01</v>
+        <v>-0.82</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01</v>
+        <v>-0.86</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +825,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01</v>
+        <v>-0.82</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01</v>
+        <v>-0.86</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +839,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.24</v>
+        <v>-0.35</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24</v>
+        <v>-1.51</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +853,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5</v>
+        <v>-0.01</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5</v>
+        <v>-2.23</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +867,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8100000000000001</v>
+        <v>-2.98</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +881,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.21</v>
+        <v>0.83</v>
       </c>
       <c r="C16" t="n">
-        <v>1.21</v>
+        <v>-3.6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +895,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.77</v>
+        <v>1.21</v>
       </c>
       <c r="C17" t="n">
-        <v>1.77</v>
+        <v>-4.21</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.01</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +909,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.24</v>
+        <v>1.32</v>
       </c>
       <c r="C18" t="n">
-        <v>2.24</v>
+        <v>-4.85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +923,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.5</v>
+        <v>1.44</v>
       </c>
       <c r="C19" t="n">
-        <v>2.5</v>
+        <v>-5.35</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +937,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.02</v>
+        <v>2.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3.02</v>
+        <v>-5.83</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.78</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +951,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.58</v>
+        <v>2.55</v>
       </c>
       <c r="C21" t="n">
-        <v>3.58</v>
+        <v>-6.21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +965,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-4.13</v>
+        <v>1.9</v>
       </c>
       <c r="C22" t="n">
-        <v>4.13</v>
+        <v>-6.04</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +979,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-4.61</v>
+        <v>1.27</v>
       </c>
       <c r="C23" t="n">
-        <v>4.61</v>
+        <v>-5.99</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.72</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +993,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.09</v>
+        <v>0.82</v>
       </c>
       <c r="C24" t="n">
-        <v>5.09</v>
+        <v>-5.96</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.14</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +1007,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.58</v>
+        <v>0.38</v>
       </c>
       <c r="C25" t="n">
-        <v>5.58</v>
+        <v>-5.89</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.51</v>
       </c>
     </row>
     <row r="26">
@@ -885,10 +1021,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.07</v>
+        <v>-0.06</v>
       </c>
       <c r="C26" t="n">
-        <v>6.07</v>
+        <v>-5.92</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.98</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +1035,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-6.38</v>
+        <v>-0.52</v>
       </c>
       <c r="C27" t="n">
-        <v>6.38</v>
+        <v>-5.97</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.49</v>
       </c>
     </row>
     <row r="28">
@@ -907,10 +1049,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-6.71</v>
+        <v>-0.72</v>
       </c>
       <c r="C28" t="n">
-        <v>6.71</v>
+        <v>-6.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.73</v>
       </c>
     </row>
     <row r="29">
@@ -918,10 +1063,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.03</v>
+        <v>-1.42</v>
       </c>
       <c r="C29" t="n">
-        <v>7.03</v>
+        <v>-6.04</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.46</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +1077,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-7.09</v>
+        <v>-2.59</v>
       </c>
       <c r="C30" t="n">
-        <v>7.09</v>
+        <v>-6.09</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="31">
@@ -940,10 +1091,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.32</v>
+        <v>-3.72</v>
       </c>
       <c r="C31" t="n">
-        <v>7.32</v>
+        <v>-6.16</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -951,10 +1105,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-6.67</v>
+        <v>-4.41</v>
       </c>
       <c r="C32" t="n">
-        <v>7.67</v>
+        <v>-6.22</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.63</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +1119,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-6.98</v>
+        <v>-5.11</v>
       </c>
       <c r="C33" t="n">
-        <v>7.98</v>
+        <v>-6.2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.32</v>
       </c>
     </row>
     <row r="34">
@@ -973,10 +1133,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-7.26</v>
+        <v>-5.79</v>
       </c>
       <c r="C34" t="n">
-        <v>8.26</v>
+        <v>-6.14</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.95</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +1147,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-7.45</v>
+        <v>-6.37</v>
       </c>
       <c r="C35" t="n">
-        <v>8.449999999999999</v>
+        <v>-6.1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -995,10 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-7.65</v>
+        <v>-4.62</v>
       </c>
       <c r="C36" t="n">
-        <v>8.65</v>
+        <v>-6.21</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.87</v>
       </c>
     </row>
     <row r="37">
@@ -1006,10 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-8.140000000000001</v>
+        <v>-2.83</v>
       </c>
       <c r="C37" t="n">
-        <v>9.140000000000001</v>
+        <v>-6.31</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.19</v>
       </c>
     </row>
     <row r="38">
@@ -1017,10 +1189,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-8.630000000000001</v>
+        <v>-1.03</v>
       </c>
       <c r="C38" t="n">
-        <v>9.630000000000001</v>
+        <v>-6.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7.49</v>
       </c>
     </row>
     <row r="39">
@@ -1028,10 +1203,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-9.050000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="C39" t="n">
-        <v>10.05</v>
+        <v>-6.48</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.29</v>
       </c>
     </row>
     <row r="40">
@@ -1039,10 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-9.369999999999999</v>
+        <v>3.33</v>
       </c>
       <c r="C40" t="n">
-        <v>10.37</v>
+        <v>-6.74</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.49</v>
       </c>
     </row>
     <row r="41">
@@ -1050,10 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-9.470000000000001</v>
+        <v>5.38</v>
       </c>
       <c r="C41" t="n">
-        <v>10.47</v>
+        <v>-6.99</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="42">
@@ -1061,10 +1245,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-10.57</v>
+        <v>7.59</v>
       </c>
       <c r="C42" t="n">
-        <v>10.57</v>
+        <v>-7.26</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="43">
@@ -1072,10 +1259,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-10.61</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>10.61</v>
+        <v>-7.59</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.11</v>
       </c>
     </row>
     <row r="44">
@@ -1083,10 +1273,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-10.64</v>
+        <v>11.94</v>
       </c>
       <c r="C44" t="n">
-        <v>10.64</v>
+        <v>-7.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4.04</v>
       </c>
     </row>
     <row r="45">
@@ -1094,10 +1287,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-10.74</v>
+        <v>13.97</v>
       </c>
       <c r="C45" t="n">
-        <v>10.74</v>
+        <v>-8</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-5.87</v>
       </c>
     </row>
     <row r="46">
@@ -1105,10 +1301,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-10.86</v>
+        <v>13.78</v>
       </c>
       <c r="C46" t="n">
-        <v>10.86</v>
+        <v>-8.06</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5.62</v>
       </c>
     </row>
     <row r="47">
@@ -1116,10 +1315,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-10.8</v>
+        <v>13.57</v>
       </c>
       <c r="C47" t="n">
-        <v>10.8</v>
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-5.36</v>
       </c>
     </row>
     <row r="48">
@@ -1127,10 +1329,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-10.72</v>
+        <v>13.34</v>
       </c>
       <c r="C48" t="n">
-        <v>10.72</v>
+        <v>-8.15</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-5.09</v>
       </c>
     </row>
     <row r="49">
@@ -1138,10 +1343,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-10.74</v>
+        <v>13.12</v>
       </c>
       <c r="C49" t="n">
-        <v>10.74</v>
+        <v>-8.26</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="50">
@@ -1149,10 +1357,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-10.93</v>
+        <v>13.2</v>
       </c>
       <c r="C50" t="n">
-        <v>10.93</v>
+        <v>-8.17</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-4.93</v>
       </c>
     </row>
     <row r="51">
@@ -1160,10 +1371,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-10.7</v>
+        <v>13.26</v>
       </c>
       <c r="C51" t="n">
-        <v>10.7</v>
+        <v>-8.07</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-5.09</v>
       </c>
     </row>
     <row r="52">
@@ -1171,10 +1385,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-10.37</v>
+        <v>13.3</v>
       </c>
       <c r="C52" t="n">
-        <v>10.37</v>
+        <v>-8.07</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-5.13</v>
       </c>
     </row>
     <row r="53">
@@ -1182,10 +1399,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-9.98</v>
+        <v>13.14</v>
       </c>
       <c r="C53" t="n">
-        <v>9.98</v>
+        <v>-8.09</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.95</v>
       </c>
     </row>
     <row r="54">
@@ -1193,10 +1413,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-9.710000000000001</v>
+        <v>13.05</v>
       </c>
       <c r="C54" t="n">
-        <v>9.710000000000001</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-4.74</v>
       </c>
     </row>
     <row r="55">
@@ -1204,10 +1427,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-9.390000000000001</v>
+        <v>12.97</v>
       </c>
       <c r="C55" t="n">
-        <v>9.390000000000001</v>
+        <v>-8.32</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-4.53</v>
       </c>
     </row>
     <row r="56">
@@ -1215,10 +1441,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-8.81</v>
+        <v>12.86</v>
       </c>
       <c r="C56" t="n">
-        <v>8.81</v>
+        <v>-8.43</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.3</v>
       </c>
     </row>
     <row r="57">
@@ -1226,10 +1455,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-8.119999999999999</v>
+        <v>12.73</v>
       </c>
       <c r="C57" t="n">
-        <v>8.119999999999999</v>
+        <v>-8.59</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.01</v>
       </c>
     </row>
     <row r="58">
@@ -1237,10 +1469,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-7.43</v>
+        <v>12.58</v>
       </c>
       <c r="C58" t="n">
-        <v>7.43</v>
+        <v>-8.74</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3.71</v>
       </c>
     </row>
     <row r="59">
@@ -1248,10 +1483,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-6.74</v>
+        <v>12.43</v>
       </c>
       <c r="C59" t="n">
-        <v>6.74</v>
+        <v>-8.76</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-3.54</v>
       </c>
     </row>
     <row r="60">
@@ -1259,10 +1497,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-6</v>
+        <v>12.2</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>-8.789999999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-3.28</v>
       </c>
     </row>
     <row r="61">
@@ -1270,10 +1511,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.8</v>
+        <v>11.97</v>
       </c>
       <c r="C61" t="n">
-        <v>5.8</v>
+        <v>-8.81</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-3.03</v>
       </c>
     </row>
     <row r="62">
@@ -1281,10 +1525,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.64</v>
+        <v>11.74</v>
       </c>
       <c r="C62" t="n">
-        <v>5.64</v>
+        <v>-8.65</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-2.96</v>
       </c>
     </row>
     <row r="63">
@@ -1292,10 +1539,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-5.56</v>
+        <v>11.81</v>
       </c>
       <c r="C63" t="n">
-        <v>5.56</v>
+        <v>-8.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3.18</v>
       </c>
     </row>
     <row r="64">
@@ -1303,10 +1553,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-5.41</v>
+        <v>10.82</v>
       </c>
       <c r="C64" t="n">
-        <v>5.41</v>
+        <v>-8.48</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-2.22</v>
       </c>
     </row>
     <row r="65">
@@ -1314,10 +1567,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.31</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>5.31</v>
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="66">
@@ -1325,10 +1581,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.44</v>
+        <v>8.27</v>
       </c>
       <c r="C66" t="n">
-        <v>5.44</v>
+        <v>-8.470000000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="67">
@@ -1336,10 +1595,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.61</v>
+        <v>6.99</v>
       </c>
       <c r="C67" t="n">
-        <v>5.61</v>
+        <v>-8.390000000000001</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="68">
@@ -1347,10 +1609,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.81</v>
+        <v>5.74</v>
       </c>
       <c r="C68" t="n">
-        <v>5.81</v>
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1623,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.92</v>
+        <v>4.43</v>
       </c>
       <c r="C69" t="n">
-        <v>5.92</v>
+        <v>-8.119999999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3.78</v>
       </c>
     </row>
     <row r="70">
@@ -1369,10 +1637,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.63</v>
+        <v>3.13</v>
       </c>
       <c r="C70" t="n">
-        <v>5.63</v>
+        <v>-7.97</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.95</v>
       </c>
     </row>
     <row r="71">
@@ -1380,10 +1651,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.27</v>
+        <v>1.86</v>
       </c>
       <c r="C71" t="n">
-        <v>5.27</v>
+        <v>-7.85</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.09</v>
       </c>
     </row>
     <row r="72">
@@ -1391,10 +1665,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-4.92</v>
+        <v>0.57</v>
       </c>
       <c r="C72" t="n">
-        <v>4.92</v>
+        <v>-7.78</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.31</v>
       </c>
     </row>
     <row r="73">
@@ -1402,10 +1679,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-4.54</v>
+        <v>-1.06</v>
       </c>
       <c r="C73" t="n">
-        <v>4.54</v>
+        <v>-7.74</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1413,10 +1693,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-4.17</v>
+        <v>-1.64</v>
       </c>
       <c r="C74" t="n">
-        <v>4.17</v>
+        <v>-7.58</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.32</v>
       </c>
     </row>
     <row r="75">
@@ -1424,10 +1707,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-3.8</v>
+        <v>-1.86</v>
       </c>
       <c r="C75" t="n">
-        <v>3.8</v>
+        <v>-7.46</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9.42</v>
       </c>
     </row>
     <row r="76">
@@ -1435,10 +1721,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-3.42</v>
+        <v>-2.05</v>
       </c>
       <c r="C76" t="n">
-        <v>3.42</v>
+        <v>-7.37</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.51</v>
       </c>
     </row>
     <row r="77">
@@ -1446,10 +1735,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-3.12</v>
+        <v>-2.21</v>
       </c>
       <c r="C77" t="n">
-        <v>3.12</v>
+        <v>-7.27</v>
+      </c>
+      <c r="D77" t="n">
+        <v>9.59</v>
       </c>
     </row>
     <row r="78">
@@ -1457,10 +1749,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.82</v>
+        <v>-2.37</v>
       </c>
       <c r="C78" t="n">
-        <v>2.82</v>
+        <v>-7.24</v>
+      </c>
+      <c r="D78" t="n">
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1468,10 +1763,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.58</v>
+        <v>-2.48</v>
       </c>
       <c r="C79" t="n">
-        <v>2.58</v>
+        <v>-7.31</v>
+      </c>
+      <c r="D79" t="n">
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1479,10 +1777,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.62</v>
+        <v>-2.61</v>
       </c>
       <c r="C80" t="n">
-        <v>2.62</v>
+        <v>-7.34</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10.05</v>
       </c>
     </row>
     <row r="81">
@@ -1490,10 +1791,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.6</v>
+        <v>-2.79</v>
       </c>
       <c r="C81" t="n">
-        <v>2.6</v>
+        <v>-7.36</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10.25</v>
       </c>
     </row>
     <row r="82">
@@ -1501,10 +1805,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.54</v>
+        <v>-2.87</v>
       </c>
       <c r="C82" t="n">
-        <v>2.54</v>
+        <v>-7.4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10.37</v>
       </c>
     </row>
     <row r="83">
@@ -1512,10 +1819,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.55</v>
+        <v>-3.8</v>
       </c>
       <c r="C83" t="n">
-        <v>2.55</v>
+        <v>-6.31</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10.21</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1833,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.56</v>
+        <v>-4.61</v>
       </c>
       <c r="C84" t="n">
-        <v>2.56</v>
+        <v>-5.26</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1534,10 +1847,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.57</v>
+        <v>-5.48</v>
       </c>
       <c r="C85" t="n">
-        <v>2.57</v>
+        <v>-4.16</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.74</v>
       </c>
     </row>
     <row r="86">
@@ -1545,10 +1861,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.55</v>
+        <v>-6.31</v>
       </c>
       <c r="C86" t="n">
-        <v>2.55</v>
+        <v>-3.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9.51</v>
       </c>
     </row>
     <row r="87">
@@ -1556,10 +1875,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.52</v>
+        <v>-7.13</v>
       </c>
       <c r="C87" t="n">
-        <v>2.52</v>
+        <v>-2.06</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1567,10 +1889,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-2.5</v>
+        <v>-7.98</v>
       </c>
       <c r="C88" t="n">
-        <v>2.5</v>
+        <v>-1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="89">
@@ -1578,10 +1903,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-2.51</v>
+        <v>-8.84</v>
       </c>
       <c r="C89" t="n">
-        <v>2.51</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.9</v>
       </c>
     </row>
     <row r="90">
@@ -1589,10 +1917,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-2.54</v>
+        <v>-9.68</v>
       </c>
       <c r="C90" t="n">
-        <v>2.54</v>
+        <v>1.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1600,10 +1931,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.56</v>
+        <v>-10.52</v>
       </c>
       <c r="C91" t="n">
-        <v>2.56</v>
+        <v>2.15</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8.52</v>
       </c>
     </row>
     <row r="92">
@@ -1611,10 +1945,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-3.25</v>
+        <v>-11.34</v>
       </c>
       <c r="C92" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -1622,10 +1959,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-4</v>
+        <v>-11.05</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2.96</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.26</v>
       </c>
     </row>
     <row r="94">
@@ -1633,10 +1973,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-4.73</v>
+        <v>-10.85</v>
       </c>
       <c r="C94" t="n">
-        <v>4.73</v>
+        <v>2.79</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.24</v>
       </c>
     </row>
     <row r="95">
@@ -1644,10 +1987,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-5.72</v>
+        <v>-10.65</v>
       </c>
       <c r="C95" t="n">
-        <v>5.72</v>
+        <v>2.62</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1655,10 +2001,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-6.75</v>
+        <v>-10.66</v>
       </c>
       <c r="C96" t="n">
-        <v>6.75</v>
+        <v>2.63</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -1666,10 +2015,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-7.7</v>
+        <v>-10.69</v>
       </c>
       <c r="C97" t="n">
-        <v>7.7</v>
+        <v>2.67</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -1677,10 +2029,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-8.220000000000001</v>
+        <v>-9.99</v>
       </c>
       <c r="C98" t="n">
-        <v>8.220000000000001</v>
+        <v>1.96</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="99">
@@ -1688,10 +2043,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-8.75</v>
+        <v>-9.23</v>
       </c>
       <c r="C99" t="n">
-        <v>8.75</v>
+        <v>1.24</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8.17</v>
       </c>
     </row>
     <row r="100">
@@ -1699,10 +2057,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-9.32</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>9.32</v>
+        <v>0.59</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -1710,10 +2071,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-9.960000000000001</v>
+        <v>-7.83</v>
       </c>
       <c r="C101" t="n">
-        <v>9.960000000000001</v>
+        <v>-0.08</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8.07</v>
       </c>
     </row>
     <row r="102">
@@ -1721,10 +2085,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-9.93</v>
+        <v>-7.2</v>
       </c>
       <c r="C102" t="n">
-        <v>9.93</v>
+        <v>-0.65</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -1732,10 +2099,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-9.710000000000001</v>
+        <v>-6.59</v>
       </c>
       <c r="C103" t="n">
-        <v>9.710000000000001</v>
+        <v>-1.13</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.86</v>
       </c>
     </row>
     <row r="104">
@@ -1743,10 +2113,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-9.51</v>
+        <v>-5.97</v>
       </c>
       <c r="C104" t="n">
-        <v>9.51</v>
+        <v>-1.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.7</v>
       </c>
     </row>
     <row r="105">
@@ -1754,10 +2127,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-9.08</v>
+        <v>-5.42</v>
       </c>
       <c r="C105" t="n">
-        <v>9.08</v>
+        <v>-2.06</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="106">
@@ -1765,10 +2141,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-7.53</v>
+        <v>-4.76</v>
       </c>
       <c r="C106" t="n">
-        <v>7.53</v>
+        <v>-2.63</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="107">
@@ -1776,10 +2155,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-6.25</v>
+        <v>-4.08</v>
       </c>
       <c r="C107" t="n">
-        <v>6.25</v>
+        <v>-3.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.38</v>
       </c>
     </row>
     <row r="108">
@@ -1787,10 +2169,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-5.37</v>
+        <v>-4.11</v>
       </c>
       <c r="C108" t="n">
-        <v>5.37</v>
+        <v>-3.05</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.26</v>
       </c>
     </row>
     <row r="109">
@@ -1798,10 +2183,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-4.56</v>
+        <v>-4.15</v>
       </c>
       <c r="C109" t="n">
-        <v>4.56</v>
+        <v>-2.92</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.17</v>
       </c>
     </row>
     <row r="110">
@@ -1809,10 +2197,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-3.76</v>
+        <v>-4.1</v>
       </c>
       <c r="C110" t="n">
-        <v>3.76</v>
+        <v>-2.86</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.06</v>
       </c>
     </row>
     <row r="111">
@@ -1820,10 +2211,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-2.65</v>
+        <v>-4.28</v>
       </c>
       <c r="C111" t="n">
-        <v>2.65</v>
+        <v>-2.79</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.17</v>
       </c>
     </row>
     <row r="112">
@@ -1831,10 +2225,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.65</v>
+        <v>-4.39</v>
       </c>
       <c r="C112" t="n">
-        <v>1.65</v>
+        <v>-2.74</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.23</v>
       </c>
     </row>
     <row r="113">
@@ -1842,10 +2239,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.01</v>
+        <v>-4.49</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01</v>
+        <v>-3.22</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.81</v>
       </c>
     </row>
     <row r="114">
@@ -1853,10 +2253,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.45</v>
+        <v>-4.8</v>
       </c>
       <c r="C114" t="n">
-        <v>0.45</v>
+        <v>-3.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="115">
@@ -1864,10 +2267,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.14</v>
+        <v>-5.17</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.14</v>
+        <v>-3.66</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.93</v>
       </c>
     </row>
     <row r="116">
@@ -1875,10 +2281,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.44</v>
+        <v>-5.54</v>
       </c>
       <c r="C116" t="n">
-        <v>0.44</v>
+        <v>-3.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9.44</v>
       </c>
     </row>
     <row r="117">
@@ -1886,10 +2295,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.76</v>
+        <v>-5.92</v>
       </c>
       <c r="C117" t="n">
-        <v>0.76</v>
+        <v>-3.94</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -1897,10 +2309,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.21</v>
+        <v>-6.32</v>
       </c>
       <c r="C118" t="n">
-        <v>1.21</v>
+        <v>-4.07</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10.49</v>
       </c>
     </row>
     <row r="119">
@@ -1908,10 +2323,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.58</v>
+        <v>-6.82</v>
       </c>
       <c r="C119" t="n">
-        <v>1.58</v>
+        <v>-4.08</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -1919,10 +2337,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-2.21</v>
+        <v>-7.41</v>
       </c>
       <c r="C120" t="n">
-        <v>2.21</v>
+        <v>-4.01</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="121">
@@ -1930,10 +2351,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-3.18</v>
+        <v>-9.69</v>
       </c>
       <c r="C121" t="n">
-        <v>3.18</v>
+        <v>-1.97</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.76</v>
       </c>
     </row>
     <row r="122">
@@ -1941,10 +2365,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-4.09</v>
+        <v>-12.05</v>
       </c>
       <c r="C122" t="n">
-        <v>4.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.07</v>
       </c>
     </row>
     <row r="123">
@@ -1952,10 +2379,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-4.53</v>
+        <v>-14.41</v>
       </c>
       <c r="C123" t="n">
-        <v>4.53</v>
+        <v>2.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="124">
@@ -1963,10 +2393,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-4.94</v>
+        <v>-16.58</v>
       </c>
       <c r="C124" t="n">
-        <v>4.94</v>
+        <v>5.15</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.53</v>
       </c>
     </row>
     <row r="125">
@@ -1974,10 +2407,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-5.66</v>
+        <v>-18.64</v>
       </c>
       <c r="C125" t="n">
-        <v>5.66</v>
+        <v>7.49</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.24</v>
       </c>
     </row>
     <row r="126">
@@ -1985,10 +2421,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-6.41</v>
+        <v>-20.69</v>
       </c>
       <c r="C126" t="n">
-        <v>6.41</v>
+        <v>9.710000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.08</v>
       </c>
     </row>
     <row r="127">
@@ -1996,10 +2435,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-7.16</v>
+        <v>-22.73</v>
       </c>
       <c r="C127" t="n">
-        <v>7.16</v>
+        <v>11.86</v>
+      </c>
+      <c r="D127" t="n">
+        <v>10.96</v>
       </c>
     </row>
     <row r="128">
@@ -2007,10 +2449,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-7.78</v>
+        <v>-24.64</v>
       </c>
       <c r="C128" t="n">
-        <v>7.78</v>
+        <v>13.95</v>
+      </c>
+      <c r="D128" t="n">
+        <v>10.79</v>
       </c>
     </row>
     <row r="129">
@@ -2018,10 +2463,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-8.390000000000001</v>
+        <v>-26.48</v>
       </c>
       <c r="C129" t="n">
-        <v>8.390000000000001</v>
+        <v>15.94</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10.64</v>
       </c>
     </row>
     <row r="130">
@@ -2029,10 +2477,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-8.77</v>
+        <v>-28.33</v>
       </c>
       <c r="C130" t="n">
-        <v>8.77</v>
+        <v>17.93</v>
+      </c>
+      <c r="D130" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="131">
@@ -2040,10 +2491,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-9.119999999999999</v>
+        <v>-28.58</v>
       </c>
       <c r="C131" t="n">
-        <v>9.119999999999999</v>
+        <v>18.25</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10.44</v>
       </c>
     </row>
     <row r="132">
@@ -2051,10 +2505,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-9.43</v>
+        <v>-28.85</v>
       </c>
       <c r="C132" t="n">
-        <v>9.43</v>
+        <v>18.59</v>
+      </c>
+      <c r="D132" t="n">
+        <v>10.36</v>
       </c>
     </row>
     <row r="133">
@@ -2062,10 +2519,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-9.949999999999999</v>
+        <v>-29.11</v>
       </c>
       <c r="C133" t="n">
-        <v>9.949999999999999</v>
+        <v>18.79</v>
+      </c>
+      <c r="D133" t="n">
+        <v>10.42</v>
       </c>
     </row>
     <row r="134">
@@ -2073,10 +2533,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-10.39</v>
+        <v>-29.6</v>
       </c>
       <c r="C134" t="n">
-        <v>10.39</v>
+        <v>19.21</v>
+      </c>
+      <c r="D134" t="n">
+        <v>10.49</v>
       </c>
     </row>
     <row r="135">
@@ -2084,10 +2547,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-10.53</v>
+        <v>-30.12</v>
       </c>
       <c r="C135" t="n">
-        <v>10.53</v>
+        <v>19.64</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10.57</v>
       </c>
     </row>
     <row r="136">
@@ -2095,10 +2561,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-10.59</v>
+        <v>-30.64</v>
       </c>
       <c r="C136" t="n">
-        <v>10.59</v>
+        <v>20.19</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10.56</v>
       </c>
     </row>
     <row r="137">
@@ -2106,10 +2575,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-10.48</v>
+        <v>-31.16</v>
       </c>
       <c r="C137" t="n">
-        <v>10.48</v>
+        <v>20.76</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="138">
@@ -2117,10 +2589,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-10.38</v>
+        <v>-31.77</v>
       </c>
       <c r="C138" t="n">
-        <v>10.38</v>
+        <v>21.37</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="139">
@@ -2128,10 +2603,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-10.18</v>
+        <v>-32.49</v>
       </c>
       <c r="C139" t="n">
-        <v>10.18</v>
+        <v>22.09</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="140">
@@ -2139,10 +2617,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-10.02</v>
+        <v>-33.11</v>
       </c>
       <c r="C140" t="n">
-        <v>10.02</v>
+        <v>22.74</v>
+      </c>
+      <c r="D140" t="n">
+        <v>10.47</v>
       </c>
     </row>
     <row r="141">
@@ -2150,10 +2631,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-9.800000000000001</v>
+        <v>-33.61</v>
       </c>
       <c r="C141" t="n">
-        <v>9.800000000000001</v>
+        <v>23.09</v>
+      </c>
+      <c r="D141" t="n">
+        <v>10.62</v>
       </c>
     </row>
     <row r="142">
@@ -2161,10 +2645,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-9.09</v>
+        <v>-34.08</v>
       </c>
       <c r="C142" t="n">
-        <v>9.09</v>
+        <v>23.41</v>
+      </c>
+      <c r="D142" t="n">
+        <v>10.77</v>
       </c>
     </row>
     <row r="143">
@@ -2172,10 +2659,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-8.380000000000001</v>
+        <v>-34.56</v>
       </c>
       <c r="C143" t="n">
-        <v>8.380000000000001</v>
+        <v>23.76</v>
+      </c>
+      <c r="D143" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="144">
@@ -2183,10 +2673,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-7.66</v>
+        <v>-35.05</v>
       </c>
       <c r="C144" t="n">
-        <v>7.66</v>
+        <v>23.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.35</v>
       </c>
     </row>
     <row r="145">
@@ -2194,10 +2687,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-6.94</v>
+        <v>-35.5</v>
       </c>
       <c r="C145" t="n">
-        <v>6.94</v>
+        <v>23.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="146">
@@ -2205,10 +2701,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.73</v>
+        <v>-35.91</v>
       </c>
       <c r="C146" t="n">
-        <v>5.73</v>
+        <v>23.78</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="147">
@@ -2216,10 +2715,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-4.68</v>
+        <v>-36.29</v>
       </c>
       <c r="C147" t="n">
-        <v>4.68</v>
+        <v>23.77</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.62</v>
       </c>
     </row>
     <row r="148">
@@ -2227,10 +2729,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-3.84</v>
+        <v>-36.7</v>
       </c>
       <c r="C148" t="n">
-        <v>3.84</v>
+        <v>23.79</v>
+      </c>
+      <c r="D148" t="n">
+        <v>13.01</v>
       </c>
     </row>
     <row r="149">
@@ -2238,10 +2743,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-3.07</v>
+        <v>-36.99</v>
       </c>
       <c r="C149" t="n">
-        <v>3.07</v>
+        <v>23.71</v>
+      </c>
+      <c r="D149" t="n">
+        <v>13.38</v>
       </c>
     </row>
     <row r="150">
@@ -2249,10 +2757,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.34</v>
+        <v>-37.24</v>
       </c>
       <c r="C150" t="n">
-        <v>2.34</v>
+        <v>23.64</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13.7</v>
       </c>
     </row>
     <row r="151">
@@ -2260,10 +2771,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.46</v>
+        <v>-37.88</v>
       </c>
       <c r="C151" t="n">
-        <v>1.46</v>
+        <v>23.55</v>
+      </c>
+      <c r="D151" t="n">
+        <v>14.43</v>
       </c>
     </row>
     <row r="152">
@@ -2271,10 +2785,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.11</v>
+        <v>-38.55</v>
       </c>
       <c r="C152" t="n">
-        <v>1.11</v>
+        <v>23.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15.15</v>
       </c>
     </row>
     <row r="153">
@@ -2282,10 +2799,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.72</v>
+        <v>-39.15</v>
       </c>
       <c r="C153" t="n">
-        <v>0.72</v>
+        <v>23.37</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.88</v>
       </c>
     </row>
     <row r="154">
@@ -2293,10 +2813,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.36</v>
+        <v>-39.38</v>
       </c>
       <c r="C154" t="n">
-        <v>0.36</v>
+        <v>23.26</v>
+      </c>
+      <c r="D154" t="n">
+        <v>16.22</v>
       </c>
     </row>
     <row r="155">
@@ -2304,10 +2827,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.02</v>
+        <v>-39.62</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02</v>
+        <v>23.18</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16.55</v>
       </c>
     </row>
     <row r="156">
@@ -2315,10 +2841,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.17</v>
+        <v>-39.9</v>
       </c>
       <c r="C156" t="n">
-        <v>0.17</v>
+        <v>23.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>16.9</v>
       </c>
     </row>
     <row r="157">
@@ -2326,10 +2855,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.25</v>
+        <v>-40.22</v>
       </c>
       <c r="C157" t="n">
-        <v>0.25</v>
+        <v>23.04</v>
+      </c>
+      <c r="D157" t="n">
+        <v>17.29</v>
       </c>
     </row>
     <row r="158">
@@ -2337,10 +2869,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.32</v>
+        <v>-40.53</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.32</v>
+        <v>22.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="159">
@@ -2348,10 +2883,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.86</v>
+        <v>-40.84</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.86</v>
+        <v>22.76</v>
+      </c>
+      <c r="D159" t="n">
+        <v>18.18</v>
       </c>
     </row>
     <row r="160">
@@ -2359,10 +2897,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.3</v>
+        <v>-40.18</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.3</v>
+        <v>21.59</v>
+      </c>
+      <c r="D160" t="n">
+        <v>18.69</v>
       </c>
     </row>
     <row r="161">
@@ -2370,10 +2911,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.59</v>
+        <v>-38.96</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.59</v>
+        <v>20.45</v>
+      </c>
+      <c r="D161" t="n">
+        <v>18.61</v>
       </c>
     </row>
     <row r="162">
@@ -2381,10 +2925,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.57</v>
+        <v>-37.73</v>
       </c>
       <c r="C162" t="n">
-        <v>-1.57</v>
+        <v>19.27</v>
+      </c>
+      <c r="D162" t="n">
+        <v>18.56</v>
       </c>
     </row>
     <row r="163">
@@ -2392,10 +2939,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.05</v>
+        <v>-36.59</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.05</v>
+        <v>18.18</v>
+      </c>
+      <c r="D163" t="n">
+        <v>18.51</v>
       </c>
     </row>
     <row r="164">
@@ -2403,10 +2953,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5</v>
+        <v>-34.49</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.5</v>
+        <v>16.09</v>
+      </c>
+      <c r="D164" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="165">
@@ -2414,10 +2967,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.04</v>
+        <v>-32.38</v>
       </c>
       <c r="C165" t="n">
-        <v>0.04</v>
+        <v>13.96</v>
+      </c>
+      <c r="D165" t="n">
+        <v>18.52</v>
       </c>
     </row>
     <row r="166">
@@ -2425,10 +2981,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.55</v>
+        <v>-30.26</v>
       </c>
       <c r="C166" t="n">
-        <v>0.55</v>
+        <v>11.85</v>
+      </c>
+      <c r="D166" t="n">
+        <v>18.51</v>
       </c>
     </row>
     <row r="167">
@@ -2436,10 +2995,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.23</v>
+        <v>-28.01</v>
       </c>
       <c r="C167" t="n">
-        <v>1.23</v>
+        <v>9.6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>18.51</v>
       </c>
     </row>
     <row r="168">
@@ -2447,10 +3009,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-2.17</v>
+        <v>-25.77</v>
       </c>
       <c r="C168" t="n">
-        <v>2.17</v>
+        <v>7.41</v>
+      </c>
+      <c r="D168" t="n">
+        <v>18.46</v>
       </c>
     </row>
     <row r="169">
@@ -2458,10 +3023,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-3.1</v>
+        <v>-23.41</v>
       </c>
       <c r="C169" t="n">
-        <v>3.1</v>
+        <v>5.14</v>
+      </c>
+      <c r="D169" t="n">
+        <v>18.37</v>
       </c>
     </row>
     <row r="170">
@@ -2469,10 +3037,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-3.88</v>
+        <v>-22.11</v>
       </c>
       <c r="C170" t="n">
-        <v>3.88</v>
+        <v>3.94</v>
+      </c>
+      <c r="D170" t="n">
+        <v>18.28</v>
       </c>
     </row>
     <row r="171">
@@ -2480,10 +3051,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-4.92</v>
+        <v>-20.82</v>
       </c>
       <c r="C171" t="n">
-        <v>4.92</v>
+        <v>2.92</v>
+      </c>
+      <c r="D171" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -2491,10 +3065,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.6</v>
+        <v>-19.51</v>
       </c>
       <c r="C172" t="n">
-        <v>5.6</v>
+        <v>1.91</v>
+      </c>
+      <c r="D172" t="n">
+        <v>17.7</v>
       </c>
     </row>
     <row r="173">
@@ -2502,10 +3079,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.84</v>
+        <v>-18.16</v>
       </c>
       <c r="C173" t="n">
-        <v>5.84</v>
+        <v>0.84</v>
+      </c>
+      <c r="D173" t="n">
+        <v>17.41</v>
       </c>
     </row>
     <row r="174">
@@ -2513,10 +3093,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-6</v>
+        <v>-17.9</v>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>0.84</v>
+      </c>
+      <c r="D174" t="n">
+        <v>17.16</v>
       </c>
     </row>
     <row r="175">
@@ -2524,10 +3107,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-6.14</v>
+        <v>-17.65</v>
       </c>
       <c r="C175" t="n">
-        <v>6.14</v>
+        <v>0.85</v>
+      </c>
+      <c r="D175" t="n">
+        <v>16.9</v>
       </c>
     </row>
     <row r="176">
@@ -2535,10 +3121,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-6.38</v>
+        <v>-17.49</v>
       </c>
       <c r="C176" t="n">
-        <v>6.38</v>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>16.64</v>
       </c>
     </row>
     <row r="177">
@@ -2546,10 +3135,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-6.5</v>
+        <v>-17.44</v>
       </c>
       <c r="C177" t="n">
-        <v>6.5</v>
+        <v>1.22</v>
+      </c>
+      <c r="D177" t="n">
+        <v>16.33</v>
       </c>
     </row>
     <row r="178">
@@ -2557,10 +3149,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-6.79</v>
+        <v>-17.29</v>
       </c>
       <c r="C178" t="n">
-        <v>6.79</v>
+        <v>1.44</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15.94</v>
       </c>
     </row>
     <row r="179">
@@ -2568,10 +3163,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-7.03</v>
+        <v>-17.31</v>
       </c>
       <c r="C179" t="n">
-        <v>7.03</v>
+        <v>1.56</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15.84</v>
       </c>
     </row>
     <row r="180">
@@ -2579,10 +3177,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-7.33</v>
+        <v>-17.31</v>
       </c>
       <c r="C180" t="n">
-        <v>7.33</v>
+        <v>1.66</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15.74</v>
       </c>
     </row>
     <row r="181">
@@ -2590,10 +3191,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-7.37</v>
+        <v>-17.43</v>
       </c>
       <c r="C181" t="n">
-        <v>7.37</v>
+        <v>1.59</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15.94</v>
       </c>
     </row>
     <row r="182">
@@ -2601,10 +3205,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-7.41</v>
+        <v>-17.54</v>
       </c>
       <c r="C182" t="n">
-        <v>7.41</v>
+        <v>1.49</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16.15</v>
       </c>
     </row>
     <row r="183">
@@ -2612,10 +3219,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-7.49</v>
+        <v>-17.17</v>
       </c>
       <c r="C183" t="n">
-        <v>7.49</v>
+        <v>1.21</v>
+      </c>
+      <c r="D183" t="n">
+        <v>16.06</v>
       </c>
     </row>
     <row r="184">
@@ -2623,10 +3233,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-7.66</v>
+        <v>-16.79</v>
       </c>
       <c r="C184" t="n">
-        <v>7.66</v>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>15.95</v>
       </c>
     </row>
     <row r="185">
@@ -2634,10 +3247,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-7.88</v>
+        <v>-16.37</v>
       </c>
       <c r="C185" t="n">
-        <v>7.88</v>
+        <v>0.64</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15.83</v>
       </c>
     </row>
     <row r="186">
@@ -2645,10 +3261,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-8.050000000000001</v>
+        <v>-15.89</v>
       </c>
       <c r="C186" t="n">
-        <v>8.050000000000001</v>
+        <v>0.25</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15.74</v>
       </c>
     </row>
     <row r="187">
@@ -2656,10 +3275,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-8.23</v>
+        <v>-15.56</v>
       </c>
       <c r="C187" t="n">
-        <v>8.23</v>
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>15.66</v>
       </c>
     </row>
     <row r="188">
@@ -2667,10 +3289,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-8.43</v>
+        <v>-15.65</v>
       </c>
       <c r="C188" t="n">
-        <v>8.43</v>
+        <v>-0.21</v>
+      </c>
+      <c r="D188" t="n">
+        <v>15.96</v>
       </c>
     </row>
     <row r="189">
@@ -2678,10 +3303,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-8.640000000000001</v>
+        <v>-15.57</v>
       </c>
       <c r="C189" t="n">
-        <v>8.640000000000001</v>
+        <v>-0.27</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.94</v>
       </c>
     </row>
     <row r="190">
@@ -2689,10 +3317,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-8.779999999999999</v>
+        <v>-15.5</v>
       </c>
       <c r="C190" t="n">
-        <v>8.779999999999999</v>
+        <v>-0.32</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15.93</v>
       </c>
     </row>
     <row r="191">
@@ -2700,10 +3331,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-8.949999999999999</v>
+        <v>-15.3</v>
       </c>
       <c r="C191" t="n">
-        <v>8.949999999999999</v>
+        <v>-0.39</v>
+      </c>
+      <c r="D191" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="192">
@@ -2711,10 +3345,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-9.119999999999999</v>
+        <v>-15.12</v>
       </c>
       <c r="C192" t="n">
-        <v>9.119999999999999</v>
+        <v>-0.46</v>
+      </c>
+      <c r="D192" t="n">
+        <v>15.67</v>
       </c>
     </row>
     <row r="193">
@@ -2722,10 +3359,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-9.17</v>
+        <v>-15.06</v>
       </c>
       <c r="C193" t="n">
-        <v>9.17</v>
+        <v>-0.32</v>
+      </c>
+      <c r="D193" t="n">
+        <v>15.48</v>
       </c>
     </row>
     <row r="194">
@@ -2733,10 +3373,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-9.699999999999999</v>
+        <v>-15.03</v>
       </c>
       <c r="C194" t="n">
-        <v>9.699999999999999</v>
+        <v>-0.17</v>
+      </c>
+      <c r="D194" t="n">
+        <v>15.3</v>
       </c>
     </row>
     <row r="195">
@@ -2744,10 +3387,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-10.21</v>
+        <v>-15.02</v>
       </c>
       <c r="C195" t="n">
-        <v>10.21</v>
+        <v>-0.01</v>
+      </c>
+      <c r="D195" t="n">
+        <v>15.13</v>
       </c>
     </row>
     <row r="196">
@@ -2755,10 +3401,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-10.97</v>
+        <v>-15.06</v>
       </c>
       <c r="C196" t="n">
-        <v>10.97</v>
+        <v>0.1</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -2766,10 +3418,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-11.75</v>
+        <v>-14.94</v>
       </c>
       <c r="C197" t="n">
-        <v>11.75</v>
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="198">
@@ -2777,10 +3435,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-12.49</v>
+        <v>-14.51</v>
       </c>
       <c r="C198" t="n">
-        <v>12.49</v>
+        <v>-0.11</v>
+      </c>
+      <c r="D198" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="199">
@@ -2788,10 +3452,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-13.19</v>
+        <v>-14.19</v>
       </c>
       <c r="C199" t="n">
-        <v>13.19</v>
+        <v>0.11</v>
+      </c>
+      <c r="D199" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-1.175</v>
       </c>
     </row>
     <row r="200">
@@ -2799,10 +3469,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-13.94</v>
+        <v>-13.87</v>
       </c>
       <c r="C200" t="n">
-        <v>13.94</v>
+        <v>0.29</v>
+      </c>
+      <c r="D200" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-1.43</v>
       </c>
     </row>
     <row r="201">
@@ -2810,10 +3486,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-14.65</v>
+        <v>-13.58</v>
       </c>
       <c r="C201" t="n">
-        <v>14.65</v>
+        <v>0.48</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-1.6</v>
       </c>
     </row>
     <row r="202">
@@ -2821,10 +3503,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-15.4</v>
+        <v>-13.27</v>
       </c>
       <c r="C202" t="n">
-        <v>15.4</v>
+        <v>0.67</v>
+      </c>
+      <c r="D202" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-1.835714285714286</v>
       </c>
     </row>
     <row r="203">
@@ -2832,10 +3520,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-16.22</v>
+        <v>-13.41</v>
       </c>
       <c r="C203" t="n">
-        <v>16.22</v>
+        <v>0.86</v>
+      </c>
+      <c r="D203" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-2.08375</v>
       </c>
     </row>
     <row r="204">
@@ -2843,10 +3537,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-16.51</v>
+        <v>-13.59</v>
       </c>
       <c r="C204" t="n">
-        <v>16.51</v>
+        <v>1.21</v>
+      </c>
+      <c r="D204" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-2.298888888888889</v>
       </c>
     </row>
     <row r="205">
@@ -2854,10 +3554,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-16.8</v>
+        <v>-13.63</v>
       </c>
       <c r="C205" t="n">
-        <v>16.8</v>
+        <v>1.55</v>
+      </c>
+      <c r="D205" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-2.471</v>
       </c>
     </row>
     <row r="206">
@@ -2865,10 +3571,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-16.94</v>
+        <v>-13.64</v>
       </c>
       <c r="C206" t="n">
-        <v>16.94</v>
+        <v>1.98</v>
+      </c>
+      <c r="D206" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-2.471</v>
       </c>
     </row>
     <row r="207">
@@ -2876,10 +3588,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-17.06</v>
+        <v>-13.67</v>
       </c>
       <c r="C207" t="n">
-        <v>17.06</v>
+        <v>2.38</v>
+      </c>
+      <c r="D207" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-2.93</v>
       </c>
     </row>
     <row r="208">
@@ -2887,10 +3605,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-17.2</v>
+        <v>-13.71</v>
       </c>
       <c r="C208" t="n">
-        <v>17.2</v>
+        <v>2.8</v>
+      </c>
+      <c r="D208" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-3.409</v>
       </c>
     </row>
     <row r="209">
@@ -2898,10 +3622,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-17.39</v>
+        <v>-13.77</v>
       </c>
       <c r="C209" t="n">
-        <v>17.39</v>
+        <v>2.88</v>
+      </c>
+      <c r="D209" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-3.553</v>
       </c>
     </row>
     <row r="210">
@@ -2909,10 +3639,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-17.58</v>
+        <v>-13.78</v>
       </c>
       <c r="C210" t="n">
-        <v>17.58</v>
+        <v>2.96</v>
+      </c>
+      <c r="D210" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-3.717</v>
       </c>
     </row>
     <row r="211">
@@ -2920,10 +3656,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-17.59</v>
+        <v>-13.77</v>
       </c>
       <c r="C211" t="n">
-        <v>17.59</v>
+        <v>3.08</v>
+      </c>
+      <c r="D211" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-3.901</v>
       </c>
     </row>
     <row r="212">
@@ -2931,10 +3673,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-17.57</v>
+        <v>-13.85</v>
       </c>
       <c r="C212" t="n">
-        <v>17.57</v>
+        <v>1.65</v>
+      </c>
+      <c r="D212" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-2.374</v>
       </c>
     </row>
     <row r="213">
@@ -2942,10 +3690,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-17.57</v>
+        <v>-13.88</v>
       </c>
       <c r="C213" t="n">
-        <v>17.57</v>
+        <v>0.19</v>
+      </c>
+      <c r="D213" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.9329999999999996</v>
       </c>
     </row>
     <row r="214">
@@ -2953,10 +3707,1206 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-17.54</v>
+        <v>-13.46</v>
       </c>
       <c r="C214" t="n">
-        <v>17.54</v>
+        <v>-1.45</v>
+      </c>
+      <c r="D214" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-13.18</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="D215" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.763</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-12.71</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-4.78</v>
+      </c>
+      <c r="D216" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.024</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-12.39</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-6.29</v>
+      </c>
+      <c r="D217" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.341999999999999</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-11.78</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-7.81</v>
+      </c>
+      <c r="D218" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-11.21</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-9.31</v>
+      </c>
+      <c r="D219" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="E219" t="n">
+        <v>7.348000000000001</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-10.76</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-10.79</v>
+      </c>
+      <c r="D220" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="E220" t="n">
+        <v>8.995999999999999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-10.32</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-12.38</v>
+      </c>
+      <c r="D221" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E221" t="n">
+        <v>10.744</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-9.73</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-12.41</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="E222" t="n">
+        <v>10.721</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-9.19</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="D223" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="E223" t="n">
+        <v>10.807</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-9.01</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11.013</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-8.91</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-12.12</v>
+      </c>
+      <c r="D225" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E225" t="n">
+        <v>11.089</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-8.99</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-11.97</v>
+      </c>
+      <c r="D226" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11.232</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-11.98</v>
+      </c>
+      <c r="D227" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11.415</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-9.17</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-11.96</v>
+      </c>
+      <c r="D228" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E228" t="n">
+        <v>11.618</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-9.35</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-11.94</v>
+      </c>
+      <c r="D229" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11.371</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="D230" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="E230" t="n">
+        <v>11.127</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="D231" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>10.793</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-9.74</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="D232" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="E232" t="n">
+        <v>10.449</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-11.18</v>
+      </c>
+      <c r="D233" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10.252</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-9.92</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-10.99</v>
+      </c>
+      <c r="D234" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E234" t="n">
+        <v>10.035</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-9.91</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-10.55</v>
+      </c>
+      <c r="D235" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E235" t="n">
+        <v>9.856</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-10.31</v>
+      </c>
+      <c r="D236" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="E236" t="n">
+        <v>9.577000000000002</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-9.880000000000001</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-9.98</v>
+      </c>
+      <c r="D237" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="E237" t="n">
+        <v>9.178000000000001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-9.66</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="E238" t="n">
+        <v>8.959</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-9.33</v>
+      </c>
+      <c r="D239" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E239" t="n">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-9.15</v>
+      </c>
+      <c r="D240" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="E240" t="n">
+        <v>8.523</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-9.279999999999999</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="D241" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E241" t="n">
+        <v>8.496</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-9.09</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="D242" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>8.481999999999999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-8.82</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="D243" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="E243" t="n">
+        <v>8.367999999999999</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-8.84</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-8.33</v>
+      </c>
+      <c r="D244" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="E244" t="n">
+        <v>8.054</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="D245" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="E245" t="n">
+        <v>7.892</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-8.69</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-5.82</v>
+      </c>
+      <c r="D246" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E246" t="n">
+        <v>7.680000000000001</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-8.369999999999999</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="D247" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E247" t="n">
+        <v>7.537999999999999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7.146000000000001</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-8.119999999999999</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E249" t="n">
+        <v>6.884</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-8.16</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E250" t="n">
+        <v>6.316999999999999</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-8.68</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E251" t="n">
+        <v>6.249999999999999</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-9.220000000000001</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E252" t="n">
+        <v>6.289999999999999</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-9.82</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E253" t="n">
+        <v>6.029999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-10.83</v>
+      </c>
+      <c r="C254" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-11.63</v>
+      </c>
+      <c r="C255" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-12.96</v>
+      </c>
+      <c r="C256" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="E256" t="n">
+        <v>6.409999999999999</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-14.29</v>
+      </c>
+      <c r="C257" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="E257" t="n">
+        <v>6.775</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-15.53</v>
+      </c>
+      <c r="C258" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="E258" t="n">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-17.27</v>
+      </c>
+      <c r="C259" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="E259" t="n">
+        <v>8.344999999999999</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-18.93</v>
+      </c>
+      <c r="C260" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D260" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="E260" t="n">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-20.09</v>
+      </c>
+      <c r="C261" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="D261" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10.295</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-21.16</v>
+      </c>
+      <c r="C262" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="E262" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-21.89</v>
+      </c>
+      <c r="C263" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="D263" t="n">
+        <v>-5.74</v>
+      </c>
+      <c r="E263" t="n">
+        <v>11.815</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-22.22</v>
+      </c>
+      <c r="C264" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="D264" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="E264" t="n">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-22.59</v>
+      </c>
+      <c r="C265" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-6.12</v>
+      </c>
+      <c r="E265" t="n">
+        <v>13.485</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-22.78</v>
+      </c>
+      <c r="C266" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-6.17</v>
+      </c>
+      <c r="E266" t="n">
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-22.99</v>
+      </c>
+      <c r="C267" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-6.21</v>
+      </c>
+      <c r="E267" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="C268" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="D268" t="n">
+        <v>-6.24</v>
+      </c>
+      <c r="E268" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-21.56</v>
+      </c>
+      <c r="C269" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D269" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-20.56</v>
+      </c>
+      <c r="C270" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="D270" t="n">
+        <v>-6.17</v>
+      </c>
+      <c r="E270" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-19.59</v>
+      </c>
+      <c r="C271" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="E271" t="n">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-18.31</v>
+      </c>
+      <c r="C272" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-5.81</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-17.32</v>
+      </c>
+      <c r="C273" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="E273" t="n">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-16.18</v>
+      </c>
+      <c r="C274" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-14.96</v>
+      </c>
+      <c r="C275" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-5.03</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-13.88</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="E276" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-12.77</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D277" t="n">
+        <v>-5.31</v>
+      </c>
+      <c r="E277" t="n">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-12.55</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="D278" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="E278" t="n">
+        <v>11.705</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-12.33</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-5.96</v>
+      </c>
+      <c r="E279" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-12.13</v>
+      </c>
+      <c r="C280" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-6.31</v>
+      </c>
+      <c r="E280" t="n">
+        <v>11.855</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-11.92</v>
+      </c>
+      <c r="C281" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D281" t="n">
+        <v>-6.71</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="C282" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D282" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.495</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-12.54</v>
+      </c>
+      <c r="C283" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-12.82</v>
+      </c>
+      <c r="C284" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="D284" t="n">
+        <v>-8.619999999999999</v>
+      </c>
+      <c r="E284" t="n">
+        <v>13.465</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -162,7 +149,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/21/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/24/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$284</f>
+              <f>'data'!$B$2:$B$227</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +208,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$284</f>
+              <f>'data'!$C$2:$C$227</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +235,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$284</f>
+              <f>'data'!$D$2:$D$227</f>
             </numRef>
           </val>
         </ser>
@@ -275,7 +262,34 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$284</f>
+              <f>'data'!$E$2:$E$227</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$227</f>
             </numRef>
           </val>
         </ser>
@@ -645,9 +659,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -676,6 +690,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Cheyenne</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Fish</t>
         </is>
       </c>
@@ -699,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
@@ -713,13 +732,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9</v>
+        <v>-1.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.53</v>
+        <v>1.43</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
@@ -727,13 +746,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.15</v>
+        <v>1.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.55</v>
+        <v>1.46</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="6">
@@ -741,13 +760,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.3</v>
+        <v>3.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54</v>
+        <v>1.49</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="7">
@@ -755,13 +774,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.38</v>
+        <v>5.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.53</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.85</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="8">
@@ -769,13 +788,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.46</v>
+        <v>6.23</v>
       </c>
       <c r="C8" t="n">
-        <v>0.31</v>
+        <v>1.5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.14</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="9">
@@ -783,13 +802,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.51</v>
+        <v>6.96</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14</v>
+        <v>1.52</v>
       </c>
       <c r="D9" t="n">
-        <v>1.38</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -797,13 +816,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.44</v>
+        <v>7.6</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.11</v>
+        <v>1.52</v>
       </c>
       <c r="D10" t="n">
-        <v>1.54</v>
+        <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -811,13 +830,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.82</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.86</v>
+        <v>1.52</v>
       </c>
       <c r="D11" t="n">
-        <v>1.68</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -825,13 +844,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.82</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.86</v>
+        <v>1.52</v>
       </c>
       <c r="D12" t="n">
-        <v>1.68</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -839,13 +858,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.35</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.51</v>
+        <v>1.65</v>
       </c>
       <c r="D13" t="n">
-        <v>1.85</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="14">
@@ -853,13 +872,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01</v>
+        <v>11.31</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.23</v>
+        <v>1.56</v>
       </c>
       <c r="D14" t="n">
-        <v>2.24</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="15">
@@ -867,13 +886,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.46</v>
+        <v>13.25</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.98</v>
+        <v>1.47</v>
       </c>
       <c r="D15" t="n">
-        <v>2.52</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="16">
@@ -881,13 +900,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.83</v>
+        <v>13.8</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.6</v>
+        <v>1.45</v>
       </c>
       <c r="D16" t="n">
-        <v>2.77</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="17">
@@ -895,13 +914,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.21</v>
+        <v>13.79</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.21</v>
+        <v>2.06</v>
       </c>
       <c r="D17" t="n">
-        <v>3.01</v>
+        <v>-15.85</v>
       </c>
     </row>
     <row r="18">
@@ -909,13 +928,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.32</v>
+        <v>13.45</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.85</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>3.53</v>
+        <v>-16.45</v>
       </c>
     </row>
     <row r="19">
@@ -923,13 +942,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.44</v>
+        <v>13.09</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.35</v>
+        <v>3.99</v>
       </c>
       <c r="D19" t="n">
-        <v>3.9</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="20">
@@ -937,13 +956,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.05</v>
+        <v>12.82</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.83</v>
+        <v>4.9</v>
       </c>
       <c r="D20" t="n">
-        <v>3.78</v>
+        <v>-17.72</v>
       </c>
     </row>
     <row r="21">
@@ -951,13 +970,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.55</v>
+        <v>12.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.21</v>
+        <v>5.81</v>
       </c>
       <c r="D21" t="n">
-        <v>3.66</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="22">
@@ -965,13 +984,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.9</v>
+        <v>12.27</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.04</v>
+        <v>6.67</v>
       </c>
       <c r="D22" t="n">
-        <v>4.14</v>
+        <v>-18.94</v>
       </c>
     </row>
     <row r="23">
@@ -979,13 +998,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.27</v>
+        <v>12.16</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.99</v>
+        <v>7.47</v>
       </c>
       <c r="D23" t="n">
-        <v>4.72</v>
+        <v>-19.62</v>
       </c>
     </row>
     <row r="24">
@@ -993,13 +1012,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.82</v>
+        <v>11.61</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.96</v>
+        <v>8.27</v>
       </c>
       <c r="D24" t="n">
-        <v>5.14</v>
+        <v>-19.88</v>
       </c>
     </row>
     <row r="25">
@@ -1007,13 +1026,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.38</v>
+        <v>11.03</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.89</v>
+        <v>9.09</v>
       </c>
       <c r="D25" t="n">
-        <v>5.51</v>
+        <v>-20.12</v>
       </c>
     </row>
     <row r="26">
@@ -1021,13 +1040,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.06</v>
+        <v>10.27</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.92</v>
+        <v>11.51</v>
       </c>
       <c r="D26" t="n">
-        <v>5.98</v>
+        <v>-21.78</v>
       </c>
     </row>
     <row r="27">
@@ -1035,13 +1054,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.52</v>
+        <v>10.07</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.97</v>
+        <v>13.3</v>
       </c>
       <c r="D27" t="n">
-        <v>6.49</v>
+        <v>-23.37</v>
       </c>
     </row>
     <row r="28">
@@ -1049,13 +1068,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.72</v>
+        <v>10.24</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.01</v>
+        <v>14.75</v>
       </c>
       <c r="D28" t="n">
-        <v>6.73</v>
+        <v>-24.99</v>
       </c>
     </row>
     <row r="29">
@@ -1063,13 +1082,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.42</v>
+        <v>10.42</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.04</v>
+        <v>16.16</v>
       </c>
       <c r="D29" t="n">
-        <v>7.46</v>
+        <v>-26.58</v>
       </c>
     </row>
     <row r="30">
@@ -1077,13 +1096,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.59</v>
+        <v>10.5</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.09</v>
+        <v>17.65</v>
       </c>
       <c r="D30" t="n">
-        <v>8.68</v>
+        <v>-28.18</v>
       </c>
     </row>
     <row r="31">
@@ -1091,13 +1110,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.72</v>
+        <v>10.59</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.16</v>
+        <v>19.14</v>
       </c>
       <c r="D31" t="n">
-        <v>9.880000000000001</v>
+        <v>-29.79</v>
       </c>
     </row>
     <row r="32">
@@ -1105,13 +1124,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-4.41</v>
+        <v>10.5</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.22</v>
+        <v>20.69</v>
       </c>
       <c r="D32" t="n">
-        <v>10.63</v>
+        <v>-31.28</v>
       </c>
     </row>
     <row r="33">
@@ -1119,13 +1138,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-5.11</v>
+        <v>10.25</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.2</v>
+        <v>22.35</v>
       </c>
       <c r="D33" t="n">
-        <v>11.32</v>
+        <v>-32.69</v>
       </c>
     </row>
     <row r="34">
@@ -1133,13 +1152,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.79</v>
+        <v>10.04</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.14</v>
+        <v>23.98</v>
       </c>
       <c r="D34" t="n">
-        <v>11.95</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="35">
@@ -1147,13 +1166,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.37</v>
+        <v>9.92</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.1</v>
+        <v>25.6</v>
       </c>
       <c r="D35" t="n">
-        <v>12.5</v>
+        <v>-35.61</v>
       </c>
     </row>
     <row r="36">
@@ -1161,13 +1180,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-4.62</v>
+        <v>9.94</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.21</v>
+        <v>25.72</v>
       </c>
       <c r="D36" t="n">
-        <v>10.87</v>
+        <v>-35.75</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1175,13 +1197,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.83</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>-6.31</v>
+        <v>25.83</v>
       </c>
       <c r="D37" t="n">
-        <v>9.19</v>
+        <v>-35.87</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1189,13 +1214,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.03</v>
+        <v>9.84</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.4</v>
+        <v>26.07</v>
       </c>
       <c r="D38" t="n">
-        <v>7.49</v>
+        <v>-36.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.06666666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1203,13 +1231,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.26</v>
+        <v>9.76</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.48</v>
+        <v>26.3</v>
       </c>
       <c r="D39" t="n">
-        <v>5.29</v>
+        <v>-36.12</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.125</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1248,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.33</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>-6.74</v>
+        <v>26.5</v>
       </c>
       <c r="D40" t="n">
-        <v>3.49</v>
+        <v>-36.23</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="41">
@@ -1231,13 +1265,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.38</v>
+        <v>9.84</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.99</v>
+        <v>26.7</v>
       </c>
       <c r="D41" t="n">
-        <v>1.7</v>
+        <v>-36.48</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.2833333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1245,13 +1282,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.59</v>
+        <v>10.08</v>
       </c>
       <c r="C42" t="n">
-        <v>-7.26</v>
+        <v>26.89</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.23</v>
+        <v>-36.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="43">
@@ -1259,13 +1299,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.800000000000001</v>
+        <v>10.47</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.59</v>
+        <v>27.05</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.11</v>
+        <v>-37.25</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.4999999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1273,13 +1316,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.94</v>
+        <v>10.81</v>
       </c>
       <c r="C44" t="n">
-        <v>-7.8</v>
+        <v>27.26</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.04</v>
+        <v>-37.67</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.5777777777777778</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1333,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.97</v>
+        <v>11.07</v>
       </c>
       <c r="C45" t="n">
-        <v>-8</v>
+        <v>27.52</v>
       </c>
       <c r="D45" t="n">
-        <v>-5.87</v>
+        <v>-38.07</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.6399999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1350,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.78</v>
+        <v>11.45</v>
       </c>
       <c r="C46" t="n">
-        <v>-8.06</v>
+        <v>27.61</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.62</v>
+        <v>-38.42</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.6399999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1315,13 +1367,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.57</v>
+        <v>11.86</v>
       </c>
       <c r="C47" t="n">
-        <v>-8.109999999999999</v>
+        <v>27.71</v>
       </c>
       <c r="D47" t="n">
-        <v>-5.36</v>
+        <v>-38.78</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="48">
@@ -1329,13 +1384,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.34</v>
+        <v>12.39</v>
       </c>
       <c r="C48" t="n">
-        <v>-8.15</v>
+        <v>27.63</v>
       </c>
       <c r="D48" t="n">
-        <v>-5.09</v>
+        <v>-39.09</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.93</v>
       </c>
     </row>
     <row r="49">
@@ -1343,13 +1401,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.12</v>
+        <v>12.9</v>
       </c>
       <c r="C49" t="n">
-        <v>-8.26</v>
+        <v>27.54</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.76</v>
+        <v>-39.43</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="50">
@@ -1357,13 +1418,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.2</v>
+        <v>13.39</v>
       </c>
       <c r="C50" t="n">
-        <v>-8.17</v>
+        <v>27.48</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.93</v>
+        <v>-39.79</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="51">
@@ -1371,13 +1435,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.26</v>
+        <v>13.7</v>
       </c>
       <c r="C51" t="n">
-        <v>-8.07</v>
+        <v>27.45</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.09</v>
+        <v>-39.98</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="52">
@@ -1385,13 +1452,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.3</v>
+        <v>13.94</v>
       </c>
       <c r="C52" t="n">
-        <v>-8.07</v>
+        <v>27.45</v>
       </c>
       <c r="D52" t="n">
-        <v>-5.13</v>
+        <v>-40.18</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1399,13 +1472,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.14</v>
+        <v>14.1</v>
       </c>
       <c r="C53" t="n">
-        <v>-8.09</v>
+        <v>27.39</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.95</v>
+        <v>-40.26</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="54">
@@ -1413,13 +1492,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.05</v>
+        <v>14.25</v>
       </c>
       <c r="C54" t="n">
-        <v>-8.199999999999999</v>
+        <v>27.33</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.74</v>
+        <v>-40.32</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="55">
@@ -1427,13 +1512,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.97</v>
+        <v>14.45</v>
       </c>
       <c r="C55" t="n">
-        <v>-8.32</v>
+        <v>27.2</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.53</v>
+        <v>-40.34</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="56">
@@ -1441,13 +1532,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.86</v>
+        <v>14.64</v>
       </c>
       <c r="C56" t="n">
-        <v>-8.43</v>
+        <v>27.13</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.3</v>
+        <v>-40.35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="57">
@@ -1455,13 +1552,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.73</v>
+        <v>14.81</v>
       </c>
       <c r="C57" t="n">
-        <v>-8.59</v>
+        <v>27.07</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.01</v>
+        <v>-40.36</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="58">
@@ -1469,13 +1572,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.58</v>
+        <v>14.91</v>
       </c>
       <c r="C58" t="n">
-        <v>-8.74</v>
+        <v>27.06</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.71</v>
+        <v>-40.39</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.3428571428571429</v>
       </c>
     </row>
     <row r="59">
@@ -1483,13 +1592,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.43</v>
+        <v>14.81</v>
       </c>
       <c r="C59" t="n">
-        <v>-8.76</v>
+        <v>28.24</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.54</v>
+        <v>-41.34</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.6600000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1497,13 +1612,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.2</v>
+        <v>14.64</v>
       </c>
       <c r="C60" t="n">
-        <v>-8.789999999999999</v>
+        <v>29.7</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.28</v>
+        <v>-42.28</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.9955555555555556</v>
       </c>
     </row>
     <row r="61">
@@ -1511,13 +1632,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.97</v>
+        <v>14.59</v>
       </c>
       <c r="C61" t="n">
-        <v>-8.81</v>
+        <v>31.13</v>
       </c>
       <c r="D61" t="n">
-        <v>-3.03</v>
+        <v>-43.21</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.264</v>
       </c>
     </row>
     <row r="62">
@@ -1525,13 +1652,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.74</v>
+        <v>14.71</v>
       </c>
       <c r="C62" t="n">
-        <v>-8.65</v>
+        <v>32.37</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.96</v>
+        <v>-44.13</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.264</v>
       </c>
     </row>
     <row r="63">
@@ -1539,13 +1672,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.81</v>
+        <v>14.83</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.5</v>
+        <v>33.64</v>
       </c>
       <c r="D63" t="n">
-        <v>-3.18</v>
+        <v>-45.11</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-1.802</v>
       </c>
     </row>
     <row r="64">
@@ -1553,13 +1692,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.82</v>
+        <v>14.18</v>
       </c>
       <c r="C64" t="n">
-        <v>-8.48</v>
+        <v>35.74</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.22</v>
+        <v>-46.11</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-2.377</v>
       </c>
     </row>
     <row r="65">
@@ -1567,13 +1712,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.539999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="C65" t="n">
-        <v>-8.470000000000001</v>
+        <v>37.85</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.96</v>
+        <v>-47.09</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.922</v>
       </c>
     </row>
     <row r="66">
@@ -1581,13 +1732,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.27</v>
+        <v>12.76</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.470000000000001</v>
+        <v>40.05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3</v>
+        <v>-48.06</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.547</v>
       </c>
     </row>
     <row r="67">
@@ -1595,13 +1752,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.99</v>
+        <v>12.02</v>
       </c>
       <c r="C67" t="n">
-        <v>-8.390000000000001</v>
+        <v>42.12</v>
       </c>
       <c r="D67" t="n">
-        <v>1.5</v>
+        <v>-49.04</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-4.052</v>
       </c>
     </row>
     <row r="68">
@@ -1609,13 +1772,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.74</v>
+        <v>11.1</v>
       </c>
       <c r="C68" t="n">
-        <v>-8.279999999999999</v>
+        <v>44.21</v>
       </c>
       <c r="D68" t="n">
-        <v>2.64</v>
+        <v>-50</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-4.377000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1623,13 +1792,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.43</v>
+        <v>10.54</v>
       </c>
       <c r="C69" t="n">
-        <v>-8.119999999999999</v>
+        <v>45.11</v>
       </c>
       <c r="D69" t="n">
-        <v>3.78</v>
+        <v>-50</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.8899999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-4.762000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1637,13 +1812,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.13</v>
+        <v>9.98</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.97</v>
+        <v>45.71</v>
       </c>
       <c r="D70" t="n">
-        <v>4.95</v>
+        <v>-50</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-4.829000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1651,13 +1832,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.86</v>
+        <v>9.32</v>
       </c>
       <c r="C71" t="n">
-        <v>-7.85</v>
+        <v>46.25</v>
       </c>
       <c r="D71" t="n">
-        <v>6.09</v>
+        <v>-50</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.8099999999999998</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-4.756000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1665,13 +1852,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.57</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.78</v>
+        <v>46.96</v>
       </c>
       <c r="D72" t="n">
-        <v>7.31</v>
+        <v>-50</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.7899999999999998</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-4.723000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1679,13 +1872,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.06</v>
+        <v>7.71</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.74</v>
+        <v>47.69</v>
       </c>
       <c r="D73" t="n">
-        <v>8.890000000000001</v>
+        <v>-50</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-4.180000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1693,13 +1892,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.64</v>
+        <v>7.71</v>
       </c>
       <c r="C74" t="n">
-        <v>-7.58</v>
+        <v>47.53</v>
       </c>
       <c r="D74" t="n">
-        <v>9.32</v>
+        <v>-50</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-1.660000000000001</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.58</v>
       </c>
     </row>
     <row r="75">
@@ -1707,13 +1912,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.86</v>
+        <v>7.73</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.46</v>
+        <v>47.36</v>
       </c>
       <c r="D75" t="n">
-        <v>9.42</v>
+        <v>-50</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-3.009999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1721,13 +1932,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.05</v>
+        <v>7.5</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.37</v>
+        <v>47.09</v>
       </c>
       <c r="D76" t="n">
-        <v>9.51</v>
+        <v>-50</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-2.11</v>
       </c>
     </row>
     <row r="77">
@@ -1735,13 +1952,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-2.21</v>
+        <v>7.26</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.27</v>
+        <v>46.94</v>
       </c>
       <c r="D77" t="n">
-        <v>9.59</v>
+        <v>-50</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="78">
@@ -1749,13 +1972,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.37</v>
+        <v>7.2</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.24</v>
+        <v>46.77</v>
       </c>
       <c r="D78" t="n">
-        <v>9.710000000000001</v>
+        <v>-50</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="79">
@@ -1763,13 +1992,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-2.48</v>
+        <v>6.64</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.31</v>
+        <v>47.04</v>
       </c>
       <c r="D79" t="n">
-        <v>9.890000000000001</v>
+        <v>-50</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3.699999999999999</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.02000000000000011</v>
       </c>
     </row>
     <row r="80">
@@ -1777,13 +2012,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.61</v>
+        <v>6.16</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.34</v>
+        <v>47.33</v>
       </c>
       <c r="D80" t="n">
-        <v>10.05</v>
+        <v>-50</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-4.089999999999999</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1791,13 +2032,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.79</v>
+        <v>4.75</v>
       </c>
       <c r="C81" t="n">
-        <v>-7.36</v>
+        <v>48.7</v>
       </c>
       <c r="D81" t="n">
-        <v>10.25</v>
+        <v>-50</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-4.499999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="82">
@@ -1805,13 +2052,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.87</v>
+        <v>3.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.4</v>
+        <v>50.1</v>
       </c>
       <c r="D82" t="n">
-        <v>10.37</v>
+        <v>-50</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="83">
@@ -1819,13 +2072,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.8</v>
+        <v>1.78</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.31</v>
+        <v>51.5</v>
       </c>
       <c r="D83" t="n">
-        <v>10.21</v>
+        <v>-50</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="84">
@@ -1833,13 +2092,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-4.61</v>
+        <v>0.25</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.26</v>
+        <v>52.95</v>
       </c>
       <c r="D84" t="n">
-        <v>9.970000000000001</v>
+        <v>-50</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-5.11</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="85">
@@ -1847,13 +2112,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.48</v>
+        <v>-1.29</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.16</v>
+        <v>54.41</v>
       </c>
       <c r="D85" t="n">
-        <v>9.74</v>
+        <v>-50</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-5.24</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="86">
@@ -1861,13 +2132,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-6.31</v>
+        <v>-2.58</v>
       </c>
       <c r="C86" t="n">
-        <v>-3.1</v>
+        <v>55.79</v>
       </c>
       <c r="D86" t="n">
-        <v>9.51</v>
+        <v>-50</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="87">
@@ -1875,13 +2152,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-7.13</v>
+        <v>-5.16</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.06</v>
+        <v>58.55</v>
       </c>
       <c r="D87" t="n">
-        <v>9.300000000000001</v>
+        <v>-50</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="88">
@@ -1889,13 +2172,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.98</v>
+        <v>-7.73</v>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
+        <v>61.27</v>
       </c>
       <c r="D88" t="n">
-        <v>9.1</v>
+        <v>-50</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-5.726999999999999</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.194</v>
       </c>
     </row>
     <row r="89">
@@ -1903,13 +2192,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-8.84</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07000000000000001</v>
+        <v>63.67</v>
       </c>
       <c r="D89" t="n">
-        <v>8.9</v>
+        <v>-50.12</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-5.864</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.278</v>
       </c>
     </row>
     <row r="90">
@@ -1917,13 +2212,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-9.68</v>
+        <v>-12.23</v>
       </c>
       <c r="C90" t="n">
-        <v>1.1</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>8.720000000000001</v>
+        <v>-50.25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-6.081</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.382000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1931,13 +2232,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-10.52</v>
+        <v>-13.55</v>
       </c>
       <c r="C91" t="n">
-        <v>2.15</v>
+        <v>67.66</v>
       </c>
       <c r="D91" t="n">
-        <v>8.52</v>
+        <v>-50.41</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-6.278</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.576</v>
       </c>
     </row>
     <row r="92">
@@ -1945,13 +2252,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-11.34</v>
+        <v>-14.81</v>
       </c>
       <c r="C92" t="n">
-        <v>3.12</v>
+        <v>69.12</v>
       </c>
       <c r="D92" t="n">
-        <v>8.380000000000001</v>
+        <v>-50.57</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-6.464999999999999</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="93">
@@ -1959,13 +2272,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-11.05</v>
+        <v>-16.62</v>
       </c>
       <c r="C93" t="n">
-        <v>2.96</v>
+        <v>70.58</v>
       </c>
       <c r="D93" t="n">
-        <v>8.26</v>
+        <v>-50.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-6.672</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.813999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1973,13 +2292,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-10.85</v>
+        <v>-18.44</v>
       </c>
       <c r="C94" t="n">
-        <v>2.79</v>
+        <v>71.97</v>
       </c>
       <c r="D94" t="n">
-        <v>8.24</v>
+        <v>-49.64</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-6.889</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.988</v>
       </c>
     </row>
     <row r="95">
@@ -1987,13 +2312,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-10.65</v>
+        <v>-20.24</v>
       </c>
       <c r="C95" t="n">
-        <v>2.62</v>
+        <v>73.36</v>
       </c>
       <c r="D95" t="n">
-        <v>8.220000000000001</v>
+        <v>-49.19</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-7.086</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.161999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -2001,13 +2332,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-10.66</v>
+        <v>-22.05</v>
       </c>
       <c r="C96" t="n">
-        <v>2.63</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>8.220000000000001</v>
+        <v>-48.76</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-7.263</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.216</v>
       </c>
     </row>
     <row r="97">
@@ -2015,13 +2352,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-10.69</v>
+        <v>-22.3</v>
       </c>
       <c r="C97" t="n">
-        <v>2.67</v>
+        <v>74.97</v>
       </c>
       <c r="D97" t="n">
-        <v>8.220000000000001</v>
+        <v>-48.57</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.34</v>
       </c>
     </row>
     <row r="98">
@@ -2029,13 +2372,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-9.99</v>
+        <v>-22.37</v>
       </c>
       <c r="C98" t="n">
-        <v>1.96</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>8.210000000000001</v>
+        <v>-48.39</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.185</v>
       </c>
     </row>
     <row r="99">
@@ -2043,13 +2392,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-9.23</v>
+        <v>-22.43</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24</v>
+        <v>75.28</v>
       </c>
       <c r="D99" t="n">
-        <v>8.17</v>
+        <v>-48.15</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-7.73</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row r="100">
@@ -2057,13 +2412,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-8.550000000000001</v>
+        <v>-24.39</v>
       </c>
       <c r="C100" t="n">
-        <v>0.59</v>
+        <v>75.31</v>
       </c>
       <c r="D100" t="n">
-        <v>8.130000000000001</v>
+        <v>-45.91</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-7.799999999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.795</v>
       </c>
     </row>
     <row r="101">
@@ -2071,13 +2432,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-7.83</v>
+        <v>-26.35</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.08</v>
+        <v>75.34</v>
       </c>
       <c r="D101" t="n">
-        <v>8.07</v>
+        <v>-43.64</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-7.869999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="102">
@@ -2085,13 +2452,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-7.2</v>
+        <v>-28.37</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.65</v>
+        <v>75.36</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>-41.38</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-7.959999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.345</v>
       </c>
     </row>
     <row r="103">
@@ -2099,13 +2472,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-6.59</v>
+        <v>-29.78</v>
       </c>
       <c r="C103" t="n">
-        <v>-1.13</v>
+        <v>75.36</v>
       </c>
       <c r="D103" t="n">
-        <v>7.86</v>
+        <v>-39.71</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="104">
@@ -2113,13 +2492,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-5.97</v>
+        <v>-31.2</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.6</v>
+        <v>75.81</v>
       </c>
       <c r="D104" t="n">
-        <v>7.7</v>
+        <v>-38.06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.565</v>
       </c>
     </row>
     <row r="105">
@@ -2127,13 +2512,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.42</v>
+        <v>-32.65</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.06</v>
+        <v>76.33</v>
       </c>
       <c r="D105" t="n">
-        <v>7.6</v>
+        <v>-36.41</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9029999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -2141,13 +2532,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-4.76</v>
+        <v>-34.12</v>
       </c>
       <c r="C106" t="n">
-        <v>-2.63</v>
+        <v>77.06</v>
       </c>
       <c r="D106" t="n">
-        <v>7.5</v>
+        <v>-34.74</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.07600000000000011</v>
       </c>
     </row>
     <row r="107">
@@ -2155,13 +2552,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-4.08</v>
+        <v>-35.84</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.2</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>7.38</v>
+        <v>-32.83</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-8.379999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.7409999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2169,13 +2572,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-4.11</v>
+        <v>-36.74</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.05</v>
+        <v>77.53</v>
       </c>
       <c r="D108" t="n">
-        <v>7.26</v>
+        <v>-30.91</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-8.48</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-1.393</v>
       </c>
     </row>
     <row r="109">
@@ -2183,13 +2592,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-4.15</v>
+        <v>-37.65</v>
       </c>
       <c r="C109" t="n">
-        <v>-2.92</v>
+        <v>77.17</v>
       </c>
       <c r="D109" t="n">
-        <v>7.17</v>
+        <v>-28.95</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-8.56</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-2.015</v>
       </c>
     </row>
     <row r="110">
@@ -2197,13 +2612,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-4.1</v>
+        <v>-36.24</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.86</v>
+        <v>76.83</v>
       </c>
       <c r="D110" t="n">
-        <v>7.06</v>
+        <v>-29.03</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-2.857</v>
       </c>
     </row>
     <row r="111">
@@ -2211,13 +2632,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-4.28</v>
+        <v>-34.81</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.79</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>7.17</v>
+        <v>-29.13</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-8.860000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-3.689</v>
       </c>
     </row>
     <row r="112">
@@ -2225,13 +2652,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-4.39</v>
+        <v>-33.45</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.74</v>
+        <v>76.31</v>
       </c>
       <c r="D112" t="n">
-        <v>7.23</v>
+        <v>-29.28</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-4.561</v>
       </c>
     </row>
     <row r="113">
@@ -2239,13 +2672,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-4.49</v>
+        <v>-32.08</v>
       </c>
       <c r="C113" t="n">
-        <v>-3.22</v>
+        <v>76.06</v>
       </c>
       <c r="D113" t="n">
-        <v>7.81</v>
+        <v>-29.46</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-5.273000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -2253,13 +2692,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-4.8</v>
+        <v>-30.98</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.5</v>
+        <v>75.37</v>
       </c>
       <c r="D114" t="n">
-        <v>8.4</v>
+        <v>-29.64</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-9.030000000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-5.715000000000002</v>
       </c>
     </row>
     <row r="115">
@@ -2267,13 +2712,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.17</v>
+        <v>-29.82</v>
       </c>
       <c r="C115" t="n">
-        <v>-3.66</v>
+        <v>74.61</v>
       </c>
       <c r="D115" t="n">
-        <v>8.93</v>
+        <v>-29.82</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-8.81</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-6.160000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -2281,13 +2732,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-5.54</v>
+        <v>-28.46</v>
       </c>
       <c r="C116" t="n">
-        <v>-3.8</v>
+        <v>73.62</v>
       </c>
       <c r="D116" t="n">
-        <v>9.44</v>
+        <v>-30.08</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-6.5</v>
       </c>
     </row>
     <row r="117">
@@ -2295,13 +2752,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.92</v>
+        <v>-30.5</v>
       </c>
       <c r="C117" t="n">
-        <v>-3.94</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>9.960000000000001</v>
+        <v>-30.41</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-8.329999999999998</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-6.910000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2309,13 +2772,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-6.32</v>
+        <v>-33.52</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.07</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>10.49</v>
+        <v>-30.74</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-7.400000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -2323,13 +2792,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-6.82</v>
+        <v>-36.55</v>
       </c>
       <c r="C119" t="n">
-        <v>-4.08</v>
+        <v>83.38</v>
       </c>
       <c r="D119" t="n">
-        <v>11</v>
+        <v>-31.04</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-7.869999999999999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-7.92</v>
       </c>
     </row>
     <row r="120">
@@ -2337,13 +2812,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-7.41</v>
+        <v>-40</v>
       </c>
       <c r="C120" t="n">
-        <v>-4.01</v>
+        <v>87</v>
       </c>
       <c r="D120" t="n">
-        <v>11.52</v>
+        <v>-31.18</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-7.659999999999998</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-8.16</v>
       </c>
     </row>
     <row r="121">
@@ -2351,13 +2832,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-9.69</v>
+        <v>-43.48</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.97</v>
+        <v>90.61</v>
       </c>
       <c r="D121" t="n">
-        <v>11.76</v>
+        <v>-31.32</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-7.489999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-8.33</v>
       </c>
     </row>
     <row r="122">
@@ -2365,13 +2852,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-12.05</v>
+        <v>-46.88</v>
       </c>
       <c r="C122" t="n">
-        <v>0.08</v>
+        <v>93.87</v>
       </c>
       <c r="D122" t="n">
-        <v>12.07</v>
+        <v>-31.39</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-6.599999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="123">
@@ -2379,13 +2872,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-14.41</v>
+        <v>-50.29</v>
       </c>
       <c r="C123" t="n">
-        <v>2.7</v>
+        <v>97.2</v>
       </c>
       <c r="D123" t="n">
-        <v>11.8</v>
+        <v>-31.48</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-5.028999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-10.401</v>
       </c>
     </row>
     <row r="124">
@@ -2393,13 +2892,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-16.58</v>
+        <v>-53.43</v>
       </c>
       <c r="C124" t="n">
-        <v>5.15</v>
+        <v>100.61</v>
       </c>
       <c r="D124" t="n">
-        <v>11.53</v>
+        <v>-31.56</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-3.908</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-11.72</v>
       </c>
     </row>
     <row r="125">
@@ -2407,13 +2912,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-18.64</v>
+        <v>-56.63</v>
       </c>
       <c r="C125" t="n">
-        <v>7.49</v>
+        <v>104.09</v>
       </c>
       <c r="D125" t="n">
-        <v>11.24</v>
+        <v>-31.63</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-12.973</v>
       </c>
     </row>
     <row r="126">
@@ -2421,13 +2932,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-20.69</v>
+        <v>-60</v>
       </c>
       <c r="C126" t="n">
-        <v>9.710000000000001</v>
+        <v>107.57</v>
       </c>
       <c r="D126" t="n">
-        <v>11.08</v>
+        <v>-31.62</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-1.802</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-14.146</v>
       </c>
     </row>
     <row r="127">
@@ -2435,13 +2952,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-22.73</v>
+        <v>-60</v>
       </c>
       <c r="C127" t="n">
-        <v>11.86</v>
+        <v>107.26</v>
       </c>
       <c r="D127" t="n">
-        <v>10.96</v>
+        <v>-31.28</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.7339999999999998</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-15.249</v>
       </c>
     </row>
     <row r="128">
@@ -2449,13 +2972,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-24.64</v>
+        <v>-60</v>
       </c>
       <c r="C128" t="n">
-        <v>13.95</v>
+        <v>106.86</v>
       </c>
       <c r="D128" t="n">
-        <v>10.79</v>
+        <v>-30.96</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.3830000000000003</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-16.281</v>
       </c>
     </row>
     <row r="129">
@@ -2463,13 +2992,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-26.48</v>
+        <v>-60</v>
       </c>
       <c r="C129" t="n">
-        <v>15.94</v>
+        <v>106.55</v>
       </c>
       <c r="D129" t="n">
-        <v>10.64</v>
+        <v>-30.65</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-17.313</v>
       </c>
     </row>
     <row r="130">
@@ -2477,13 +3012,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-28.33</v>
+        <v>-60</v>
       </c>
       <c r="C130" t="n">
-        <v>17.93</v>
+        <v>106.26</v>
       </c>
       <c r="D130" t="n">
-        <v>10.5</v>
+        <v>-30.44</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-18.325</v>
       </c>
     </row>
     <row r="131">
@@ -2491,13 +3032,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-28.58</v>
+        <v>-60</v>
       </c>
       <c r="C131" t="n">
-        <v>18.25</v>
+        <v>105.9</v>
       </c>
       <c r="D131" t="n">
-        <v>10.44</v>
+        <v>-30.17</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.663999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-19.397</v>
       </c>
     </row>
     <row r="132">
@@ -2505,13 +3052,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-28.85</v>
+        <v>-60</v>
       </c>
       <c r="C132" t="n">
-        <v>18.59</v>
+        <v>105.75</v>
       </c>
       <c r="D132" t="n">
-        <v>10.36</v>
+        <v>-29.88</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-19.969</v>
       </c>
     </row>
     <row r="133">
@@ -2519,13 +3072,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-29.11</v>
+        <v>-60</v>
       </c>
       <c r="C133" t="n">
-        <v>18.79</v>
+        <v>105.58</v>
       </c>
       <c r="D133" t="n">
-        <v>10.42</v>
+        <v>-29.54</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-19.97</v>
       </c>
     </row>
     <row r="134">
@@ -2533,13 +3092,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-29.6</v>
+        <v>-60</v>
       </c>
       <c r="C134" t="n">
-        <v>19.21</v>
+        <v>105.31</v>
       </c>
       <c r="D134" t="n">
-        <v>10.49</v>
+        <v>-29.19</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.733000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-19.833</v>
       </c>
     </row>
     <row r="135">
@@ -2547,13 +3112,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-30.12</v>
+        <v>-60</v>
       </c>
       <c r="C135" t="n">
-        <v>19.64</v>
+        <v>104.88</v>
       </c>
       <c r="D135" t="n">
-        <v>10.57</v>
+        <v>-28.84</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.742</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-19.742</v>
       </c>
     </row>
     <row r="136">
@@ -2561,13 +3132,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-30.64</v>
+        <v>-60</v>
       </c>
       <c r="C136" t="n">
-        <v>20.19</v>
+        <v>104.72</v>
       </c>
       <c r="D136" t="n">
-        <v>10.56</v>
+        <v>-28.49</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.704</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-19.879</v>
       </c>
     </row>
     <row r="137">
@@ -2575,13 +3152,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-31.16</v>
+        <v>-60</v>
       </c>
       <c r="C137" t="n">
-        <v>20.76</v>
+        <v>104.81</v>
       </c>
       <c r="D137" t="n">
-        <v>10.5</v>
+        <v>-28.42</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-19.916</v>
       </c>
     </row>
     <row r="138">
@@ -2589,13 +3172,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-31.77</v>
+        <v>-60</v>
       </c>
       <c r="C138" t="n">
-        <v>21.37</v>
+        <v>104.88</v>
       </c>
       <c r="D138" t="n">
-        <v>10.5</v>
+        <v>-28.32</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-19.944</v>
       </c>
     </row>
     <row r="139">
@@ -2603,13 +3192,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-32.49</v>
+        <v>-60</v>
       </c>
       <c r="C139" t="n">
-        <v>22.09</v>
+        <v>104.87</v>
       </c>
       <c r="D139" t="n">
-        <v>10.5</v>
+        <v>-28.24</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-19.952</v>
       </c>
     </row>
     <row r="140">
@@ -2617,13 +3212,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-33.11</v>
+        <v>-60</v>
       </c>
       <c r="C140" t="n">
-        <v>22.74</v>
+        <v>104.84</v>
       </c>
       <c r="D140" t="n">
-        <v>10.47</v>
+        <v>-28.18</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-19.97</v>
       </c>
     </row>
     <row r="141">
@@ -2631,13 +3232,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-33.61</v>
+        <v>-60</v>
       </c>
       <c r="C141" t="n">
-        <v>23.09</v>
+        <v>104.86</v>
       </c>
       <c r="D141" t="n">
-        <v>10.62</v>
+        <v>-28.18</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-19.958</v>
       </c>
     </row>
     <row r="142">
@@ -2645,13 +3252,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-34.08</v>
+        <v>-60</v>
       </c>
       <c r="C142" t="n">
-        <v>23.41</v>
+        <v>104.87</v>
       </c>
       <c r="D142" t="n">
-        <v>10.77</v>
+        <v>-28.22</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.241000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-19.826</v>
       </c>
     </row>
     <row r="143">
@@ -2659,13 +3272,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-34.56</v>
+        <v>-60</v>
       </c>
       <c r="C143" t="n">
-        <v>23.76</v>
+        <v>104.92</v>
       </c>
       <c r="D143" t="n">
-        <v>10.9</v>
+        <v>-28.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-19.714</v>
       </c>
     </row>
     <row r="144">
@@ -2673,13 +3292,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-35.05</v>
+        <v>-60</v>
       </c>
       <c r="C144" t="n">
-        <v>23.8</v>
+        <v>105.11</v>
       </c>
       <c r="D144" t="n">
-        <v>11.35</v>
+        <v>-28.38</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-19.752</v>
       </c>
     </row>
     <row r="145">
@@ -2687,13 +3312,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-35.5</v>
+        <v>-60</v>
       </c>
       <c r="C145" t="n">
-        <v>23.8</v>
+        <v>105.33</v>
       </c>
       <c r="D145" t="n">
-        <v>11.8</v>
+        <v>-28.39</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.830000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-19.75</v>
       </c>
     </row>
     <row r="146">
@@ -2701,13 +3332,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-35.91</v>
+        <v>-60</v>
       </c>
       <c r="C146" t="n">
-        <v>23.78</v>
+        <v>105.65</v>
       </c>
       <c r="D146" t="n">
-        <v>12.23</v>
+        <v>-28.42</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-19.86</v>
       </c>
     </row>
     <row r="147">
@@ -2715,13 +3352,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-36.29</v>
+        <v>-60</v>
       </c>
       <c r="C147" t="n">
-        <v>23.77</v>
+        <v>105.99</v>
       </c>
       <c r="D147" t="n">
-        <v>12.62</v>
+        <v>-28.39</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-20.09</v>
       </c>
     </row>
     <row r="148">
@@ -2729,13 +3372,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-36.7</v>
+        <v>-60</v>
       </c>
       <c r="C148" t="n">
-        <v>23.79</v>
+        <v>106.34</v>
       </c>
       <c r="D148" t="n">
-        <v>13.01</v>
+        <v>-28.33</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.330000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-20.34</v>
       </c>
     </row>
     <row r="149">
@@ -2743,13 +3392,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-36.99</v>
+        <v>-60</v>
       </c>
       <c r="C149" t="n">
-        <v>23.71</v>
+        <v>106.67</v>
       </c>
       <c r="D149" t="n">
-        <v>13.38</v>
+        <v>-28.01</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-20.79</v>
       </c>
     </row>
     <row r="150">
@@ -2757,13 +3412,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-37.24</v>
+        <v>-60</v>
       </c>
       <c r="C150" t="n">
-        <v>23.64</v>
+        <v>106.99</v>
       </c>
       <c r="D150" t="n">
-        <v>13.7</v>
+        <v>-27.64</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-21.25</v>
       </c>
     </row>
     <row r="151">
@@ -2771,13 +3432,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-37.88</v>
+        <v>-60</v>
       </c>
       <c r="C151" t="n">
-        <v>23.55</v>
+        <v>107.33</v>
       </c>
       <c r="D151" t="n">
-        <v>14.43</v>
+        <v>-27.29</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-21.055</v>
       </c>
     </row>
     <row r="152">
@@ -2785,13 +3452,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-38.55</v>
+        <v>-60</v>
       </c>
       <c r="C152" t="n">
-        <v>23.5</v>
+        <v>107.68</v>
       </c>
       <c r="D152" t="n">
-        <v>15.15</v>
+        <v>-27.18</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-20.7</v>
       </c>
     </row>
     <row r="153">
@@ -2799,13 +3472,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-39.15</v>
+        <v>-60</v>
       </c>
       <c r="C153" t="n">
-        <v>23.37</v>
+        <v>108.03</v>
       </c>
       <c r="D153" t="n">
-        <v>15.88</v>
+        <v>-27.08</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-0.6249999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-20.325</v>
       </c>
     </row>
     <row r="154">
@@ -2813,13 +3492,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-39.38</v>
+        <v>-60</v>
       </c>
       <c r="C154" t="n">
-        <v>23.26</v>
+        <v>107.41</v>
       </c>
       <c r="D154" t="n">
-        <v>16.22</v>
+        <v>-27</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-18.96</v>
       </c>
     </row>
     <row r="155">
@@ -2827,13 +3512,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-39.62</v>
+        <v>-60</v>
       </c>
       <c r="C155" t="n">
-        <v>23.18</v>
+        <v>106.85</v>
       </c>
       <c r="D155" t="n">
-        <v>16.55</v>
+        <v>-27</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-2.285</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-17.565</v>
       </c>
     </row>
     <row r="156">
@@ -2841,13 +3532,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-39.9</v>
+        <v>-60</v>
       </c>
       <c r="C156" t="n">
-        <v>23.1</v>
+        <v>105.91</v>
       </c>
       <c r="D156" t="n">
-        <v>16.9</v>
+        <v>-26.98</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-3.089999999999999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-15.84</v>
       </c>
     </row>
     <row r="157">
@@ -2855,13 +3552,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-40.22</v>
+        <v>-60</v>
       </c>
       <c r="C157" t="n">
-        <v>23.04</v>
+        <v>104.98</v>
       </c>
       <c r="D157" t="n">
-        <v>17.29</v>
+        <v>-27</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-3.884999999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-14.095</v>
       </c>
     </row>
     <row r="158">
@@ -2869,13 +3572,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-40.53</v>
+        <v>-60</v>
       </c>
       <c r="C158" t="n">
-        <v>22.9</v>
+        <v>103.99</v>
       </c>
       <c r="D158" t="n">
-        <v>17.73</v>
+        <v>-27.12</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-4.659999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-12.21</v>
       </c>
     </row>
     <row r="159">
@@ -2883,13 +3592,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-40.84</v>
+        <v>-60</v>
       </c>
       <c r="C159" t="n">
-        <v>22.76</v>
+        <v>103.85</v>
       </c>
       <c r="D159" t="n">
-        <v>18.18</v>
+        <v>-28.12</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-5.487</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-10.237</v>
       </c>
     </row>
     <row r="160">
@@ -2897,13 +3612,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-40.18</v>
+        <v>-60</v>
       </c>
       <c r="C160" t="n">
-        <v>21.59</v>
+        <v>103.59</v>
       </c>
       <c r="D160" t="n">
-        <v>18.69</v>
+        <v>-29.16</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-6.334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-8.1</v>
       </c>
     </row>
     <row r="161">
@@ -2911,13 +3632,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-38.96</v>
+        <v>-60</v>
       </c>
       <c r="C161" t="n">
-        <v>20.45</v>
+        <v>103.42</v>
       </c>
       <c r="D161" t="n">
-        <v>18.61</v>
+        <v>-30.24</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-6.525999999999999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-6.648000000000001</v>
       </c>
     </row>
     <row r="162">
@@ -2925,13 +3652,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-37.73</v>
+        <v>-60</v>
       </c>
       <c r="C162" t="n">
-        <v>19.27</v>
+        <v>103.46</v>
       </c>
       <c r="D162" t="n">
-        <v>18.56</v>
+        <v>-31.17</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-6.717999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-5.576</v>
       </c>
     </row>
     <row r="163">
@@ -2939,13 +3672,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-36.59</v>
+        <v>-60</v>
       </c>
       <c r="C163" t="n">
-        <v>18.18</v>
+        <v>103.47</v>
       </c>
       <c r="D163" t="n">
-        <v>18.51</v>
+        <v>-32.15</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.584</v>
       </c>
     </row>
     <row r="164">
@@ -2953,13 +3692,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-34.49</v>
+        <v>-60</v>
       </c>
       <c r="C164" t="n">
-        <v>16.09</v>
+        <v>104.43</v>
       </c>
       <c r="D164" t="n">
-        <v>18.5</v>
+        <v>-33.13</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-7.002</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-4.292000000000001</v>
       </c>
     </row>
     <row r="165">
@@ -2967,13 +3712,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-32.38</v>
+        <v>-60</v>
       </c>
       <c r="C165" t="n">
-        <v>13.96</v>
+        <v>105.36</v>
       </c>
       <c r="D165" t="n">
-        <v>18.52</v>
+        <v>-34.11</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-7.203999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-4.050000000000001</v>
       </c>
     </row>
     <row r="166">
@@ -2981,13 +3732,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-30.26</v>
+        <v>-60</v>
       </c>
       <c r="C166" t="n">
-        <v>11.85</v>
+        <v>106.31</v>
       </c>
       <c r="D166" t="n">
-        <v>18.51</v>
+        <v>-35.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-7.406000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-3.798</v>
       </c>
     </row>
     <row r="167">
@@ -2995,13 +3752,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-28.01</v>
+        <v>-60</v>
       </c>
       <c r="C167" t="n">
-        <v>9.6</v>
+        <v>107.24</v>
       </c>
       <c r="D167" t="n">
-        <v>18.51</v>
+        <v>-36.08</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-7.597999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-3.566</v>
       </c>
     </row>
     <row r="168">
@@ -3009,13 +3772,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-25.77</v>
+        <v>-60</v>
       </c>
       <c r="C168" t="n">
-        <v>7.41</v>
+        <v>108.23</v>
       </c>
       <c r="D168" t="n">
-        <v>18.46</v>
+        <v>-37.05</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-7.970000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-3.214</v>
       </c>
     </row>
     <row r="169">
@@ -3023,13 +3792,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-23.41</v>
+        <v>-60</v>
       </c>
       <c r="C169" t="n">
-        <v>5.14</v>
+        <v>108.38</v>
       </c>
       <c r="D169" t="n">
-        <v>18.37</v>
+        <v>-37.6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-7.870000000000002</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-2.91</v>
       </c>
     </row>
     <row r="170">
@@ -3037,13 +3812,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-22.11</v>
+        <v>-60</v>
       </c>
       <c r="C170" t="n">
-        <v>3.94</v>
+        <v>108.81</v>
       </c>
       <c r="D170" t="n">
-        <v>18.28</v>
+        <v>-38.23</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-7.750000000000002</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-2.83</v>
       </c>
     </row>
     <row r="171">
@@ -3051,13 +3832,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-20.82</v>
+        <v>-60</v>
       </c>
       <c r="C171" t="n">
-        <v>2.92</v>
+        <v>109.09</v>
       </c>
       <c r="D171" t="n">
-        <v>18</v>
+        <v>-38.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="172">
@@ -3065,13 +3852,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-19.51</v>
+        <v>-60</v>
       </c>
       <c r="C172" t="n">
-        <v>1.91</v>
+        <v>109.15</v>
       </c>
       <c r="D172" t="n">
-        <v>17.7</v>
+        <v>-39.27</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1.73</v>
       </c>
     </row>
     <row r="173">
@@ -3079,13 +3872,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-18.16</v>
+        <v>-60</v>
       </c>
       <c r="C173" t="n">
-        <v>0.84</v>
+        <v>109.19</v>
       </c>
       <c r="D173" t="n">
-        <v>17.41</v>
+        <v>-39.66</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-8.75</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="174">
@@ -3093,13 +3892,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-17.9</v>
+        <v>-60</v>
       </c>
       <c r="C174" t="n">
-        <v>0.84</v>
+        <v>109.22</v>
       </c>
       <c r="D174" t="n">
-        <v>17.16</v>
+        <v>-39.09</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-9.875999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.2500000000000001</v>
       </c>
     </row>
     <row r="175">
@@ -3107,13 +3912,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-17.65</v>
+        <v>-60</v>
       </c>
       <c r="C175" t="n">
-        <v>0.85</v>
+        <v>109.27</v>
       </c>
       <c r="D175" t="n">
-        <v>16.9</v>
+        <v>-38.54</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-11.042</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.3100000000000001</v>
       </c>
     </row>
     <row r="176">
@@ -3121,13 +3932,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-17.49</v>
+        <v>-60</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9399999999999999</v>
+        <v>108.33</v>
       </c>
       <c r="D176" t="n">
-        <v>16.64</v>
+        <v>-37.96</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-12.218</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="177">
@@ -3135,13 +3952,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-17.44</v>
+        <v>-60</v>
       </c>
       <c r="C177" t="n">
-        <v>1.22</v>
+        <v>106.89</v>
       </c>
       <c r="D177" t="n">
-        <v>16.33</v>
+        <v>-36.71</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-13.394</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="178">
@@ -3149,13 +3972,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-17.29</v>
+        <v>-60</v>
       </c>
       <c r="C178" t="n">
-        <v>1.44</v>
+        <v>105.27</v>
       </c>
       <c r="D178" t="n">
-        <v>15.94</v>
+        <v>-35.4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-14.39</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4.521</v>
       </c>
     </row>
     <row r="179">
@@ -3163,13 +3992,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-17.31</v>
+        <v>-60</v>
       </c>
       <c r="C179" t="n">
-        <v>1.56</v>
+        <v>103.59</v>
       </c>
       <c r="D179" t="n">
-        <v>15.84</v>
+        <v>-33.95</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-15.766</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6.132000000000001</v>
       </c>
     </row>
     <row r="180">
@@ -3177,13 +4012,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-17.31</v>
+        <v>-60</v>
       </c>
       <c r="C180" t="n">
-        <v>1.66</v>
+        <v>101.67</v>
       </c>
       <c r="D180" t="n">
-        <v>15.74</v>
+        <v>-32.45</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-17.142</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7.923</v>
       </c>
     </row>
     <row r="181">
@@ -3191,13 +4032,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-17.43</v>
+        <v>-60</v>
       </c>
       <c r="C181" t="n">
-        <v>1.59</v>
+        <v>99.52</v>
       </c>
       <c r="D181" t="n">
-        <v>15.94</v>
+        <v>-30.61</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-18.448</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9.544</v>
       </c>
     </row>
     <row r="182">
@@ -3205,13 +4052,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-17.54</v>
+        <v>-60</v>
       </c>
       <c r="C182" t="n">
-        <v>1.49</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D182" t="n">
-        <v>16.15</v>
+        <v>-28.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-19.214</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10.665</v>
       </c>
     </row>
     <row r="183">
@@ -3219,13 +4072,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-17.17</v>
+        <v>-60</v>
       </c>
       <c r="C183" t="n">
-        <v>1.21</v>
+        <v>95</v>
       </c>
       <c r="D183" t="n">
-        <v>16.06</v>
+        <v>-27.07</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12.066</v>
       </c>
     </row>
     <row r="184">
@@ -3233,13 +4092,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-16.79</v>
+        <v>-60</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9399999999999999</v>
+        <v>92.69</v>
       </c>
       <c r="D184" t="n">
-        <v>15.95</v>
+        <v>-26.28</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13.587</v>
       </c>
     </row>
     <row r="185">
@@ -3247,13 +4112,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-16.37</v>
+        <v>-60</v>
       </c>
       <c r="C185" t="n">
-        <v>0.64</v>
+        <v>90.37</v>
       </c>
       <c r="D185" t="n">
-        <v>15.83</v>
+        <v>-25.57</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15.198</v>
       </c>
     </row>
     <row r="186">
@@ -3261,13 +4132,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-15.89</v>
+        <v>-60</v>
       </c>
       <c r="C186" t="n">
-        <v>0.25</v>
+        <v>88.94</v>
       </c>
       <c r="D186" t="n">
-        <v>15.74</v>
+        <v>-24.87</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F186" t="n">
+        <v>15.929</v>
       </c>
     </row>
     <row r="187">
@@ -3275,13 +4152,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-15.56</v>
+        <v>-60</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>88.08</v>
       </c>
       <c r="D187" t="n">
-        <v>15.66</v>
+        <v>-24.88</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F187" t="n">
+        <v>16.803</v>
       </c>
     </row>
     <row r="188">
@@ -3289,13 +4172,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-15.65</v>
+        <v>-60</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.21</v>
+        <v>87.38</v>
       </c>
       <c r="D188" t="n">
-        <v>15.96</v>
+        <v>-24.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F188" t="n">
+        <v>17.526</v>
       </c>
     </row>
     <row r="189">
@@ -3303,13 +4192,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-15.57</v>
+        <v>-60</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.27</v>
+        <v>86.75</v>
       </c>
       <c r="D189" t="n">
-        <v>15.94</v>
+        <v>-24.84</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F189" t="n">
+        <v>18.089</v>
       </c>
     </row>
     <row r="190">
@@ -3317,13 +4212,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-15.5</v>
+        <v>-60</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.32</v>
+        <v>86.2</v>
       </c>
       <c r="D190" t="n">
-        <v>15.93</v>
+        <v>-24.77</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F190" t="n">
+        <v>18.572</v>
       </c>
     </row>
     <row r="191">
@@ -3331,13 +4232,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-15.3</v>
+        <v>-60</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.39</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="D191" t="n">
-        <v>15.8</v>
+        <v>-25.02</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19.065</v>
       </c>
     </row>
     <row r="192">
@@ -3345,13 +4252,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-15.12</v>
+        <v>-60</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.46</v>
+        <v>85.72</v>
       </c>
       <c r="D192" t="n">
-        <v>15.67</v>
+        <v>-25.27</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F192" t="n">
+        <v>19.548</v>
       </c>
     </row>
     <row r="193">
@@ -3359,13 +4272,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-15.06</v>
+        <v>-60</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.32</v>
+        <v>85.72</v>
       </c>
       <c r="D193" t="n">
-        <v>15.48</v>
+        <v>-25.45</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F193" t="n">
+        <v>19.751</v>
       </c>
     </row>
     <row r="194">
@@ -3373,13 +4292,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-15.03</v>
+        <v>-60</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.17</v>
+        <v>86.14</v>
       </c>
       <c r="D194" t="n">
-        <v>15.3</v>
+        <v>-26.07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F194" t="n">
+        <v>19.954</v>
       </c>
     </row>
     <row r="195">
@@ -3387,13 +4312,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-15.02</v>
+        <v>-60</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.01</v>
+        <v>86.31</v>
       </c>
       <c r="D195" t="n">
-        <v>15.13</v>
+        <v>-26.62</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20.327</v>
       </c>
     </row>
     <row r="196">
@@ -3401,16 +4332,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-15.06</v>
+        <v>-60</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1</v>
+        <v>86.55</v>
       </c>
       <c r="D196" t="n">
-        <v>15.06</v>
+        <v>-27.12</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>-20</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20.59</v>
       </c>
     </row>
     <row r="197">
@@ -3418,16 +4352,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-14.94</v>
+        <v>-60</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="D197" t="n">
-        <v>15.05</v>
+        <v>-27.63</v>
       </c>
       <c r="E197" t="n">
-        <v>0.2</v>
+        <v>-20</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20.91</v>
       </c>
     </row>
     <row r="198">
@@ -3435,16 +4372,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-14.51</v>
+        <v>-60</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.11</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="D198" t="n">
-        <v>14.68</v>
+        <v>-28.18</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.75</v>
+        <v>-20</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20.685</v>
       </c>
     </row>
     <row r="199">
@@ -3452,16 +4392,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-14.19</v>
+        <v>-60</v>
       </c>
       <c r="C199" t="n">
-        <v>0.11</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>14.41</v>
+        <v>-28.85</v>
       </c>
       <c r="E199" t="n">
-        <v>-1.175</v>
+        <v>-20</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20.44</v>
       </c>
     </row>
     <row r="200">
@@ -3469,16 +4412,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-13.87</v>
+        <v>-60</v>
       </c>
       <c r="C200" t="n">
-        <v>0.29</v>
+        <v>89.38</v>
       </c>
       <c r="D200" t="n">
-        <v>14.14</v>
+        <v>-29.53</v>
       </c>
       <c r="E200" t="n">
-        <v>-1.43</v>
+        <v>-20</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20.175</v>
       </c>
     </row>
     <row r="201">
@@ -3486,16 +4432,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-13.58</v>
+        <v>-60</v>
       </c>
       <c r="C201" t="n">
-        <v>0.48</v>
+        <v>90.31</v>
       </c>
       <c r="D201" t="n">
-        <v>13.91</v>
+        <v>-30.22</v>
       </c>
       <c r="E201" t="n">
-        <v>-1.6</v>
+        <v>-20</v>
+      </c>
+      <c r="F201" t="n">
+        <v>19.93</v>
       </c>
     </row>
     <row r="202">
@@ -3503,16 +4452,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-13.27</v>
+        <v>-60</v>
       </c>
       <c r="C202" t="n">
-        <v>0.67</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>13.66</v>
+        <v>-30.93</v>
       </c>
       <c r="E202" t="n">
-        <v>-1.835714285714286</v>
+        <v>-20</v>
+      </c>
+      <c r="F202" t="n">
+        <v>19.735</v>
       </c>
     </row>
     <row r="203">
@@ -3520,16 +4472,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-13.41</v>
+        <v>-60</v>
       </c>
       <c r="C203" t="n">
-        <v>0.86</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="D203" t="n">
-        <v>13.93</v>
+        <v>-31.59</v>
       </c>
       <c r="E203" t="n">
-        <v>-2.08375</v>
+        <v>-20</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19.52</v>
       </c>
     </row>
     <row r="204">
@@ -3537,16 +4492,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-13.59</v>
+        <v>-60</v>
       </c>
       <c r="C204" t="n">
-        <v>1.21</v>
+        <v>92.48</v>
       </c>
       <c r="D204" t="n">
-        <v>14.15</v>
+        <v>-31.88</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.298888888888889</v>
+        <v>-20</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19.394</v>
       </c>
     </row>
     <row r="205">
@@ -3554,16 +4512,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-13.63</v>
+        <v>-60</v>
       </c>
       <c r="C205" t="n">
-        <v>1.55</v>
+        <v>93.17</v>
       </c>
       <c r="D205" t="n">
-        <v>14.26</v>
+        <v>-32.15</v>
       </c>
       <c r="E205" t="n">
-        <v>-2.471</v>
+        <v>-20</v>
+      </c>
+      <c r="F205" t="n">
+        <v>18.988</v>
       </c>
     </row>
     <row r="206">
@@ -3571,16 +4532,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-13.64</v>
+        <v>-60</v>
       </c>
       <c r="C206" t="n">
-        <v>1.98</v>
+        <v>93.81</v>
       </c>
       <c r="D206" t="n">
-        <v>14.23</v>
+        <v>-32.4</v>
       </c>
       <c r="E206" t="n">
-        <v>-2.471</v>
+        <v>-20</v>
+      </c>
+      <c r="F206" t="n">
+        <v>18.592</v>
       </c>
     </row>
     <row r="207">
@@ -3588,16 +4552,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-13.67</v>
+        <v>-60</v>
       </c>
       <c r="C207" t="n">
-        <v>2.38</v>
+        <v>94.43000000000001</v>
       </c>
       <c r="D207" t="n">
-        <v>14.32</v>
+        <v>-32.63</v>
       </c>
       <c r="E207" t="n">
-        <v>-2.93</v>
+        <v>-20</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18.196</v>
       </c>
     </row>
     <row r="208">
@@ -3605,16 +4572,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-13.71</v>
+        <v>-60</v>
       </c>
       <c r="C208" t="n">
-        <v>2.8</v>
+        <v>94.19</v>
       </c>
       <c r="D208" t="n">
-        <v>14.42</v>
+        <v>-32.8</v>
       </c>
       <c r="E208" t="n">
-        <v>-3.409</v>
+        <v>-20</v>
+      </c>
+      <c r="F208" t="n">
+        <v>18.605</v>
       </c>
     </row>
     <row r="209">
@@ -3622,16 +4592,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-13.77</v>
+        <v>-60</v>
       </c>
       <c r="C209" t="n">
-        <v>2.88</v>
+        <v>93.83</v>
       </c>
       <c r="D209" t="n">
-        <v>14.54</v>
+        <v>-32.86</v>
       </c>
       <c r="E209" t="n">
-        <v>-3.553</v>
+        <v>-20</v>
+      </c>
+      <c r="F209" t="n">
+        <v>19.034</v>
       </c>
     </row>
     <row r="210">
@@ -3639,16 +4612,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-13.78</v>
+        <v>-60</v>
       </c>
       <c r="C210" t="n">
-        <v>2.96</v>
+        <v>93.8</v>
       </c>
       <c r="D210" t="n">
-        <v>14.64</v>
+        <v>-33.19</v>
       </c>
       <c r="E210" t="n">
-        <v>-3.717</v>
+        <v>-20</v>
+      </c>
+      <c r="F210" t="n">
+        <v>19.393</v>
       </c>
     </row>
     <row r="211">
@@ -3656,16 +4632,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-13.77</v>
+        <v>-60</v>
       </c>
       <c r="C211" t="n">
-        <v>3.08</v>
+        <v>93.75</v>
       </c>
       <c r="D211" t="n">
-        <v>14.68</v>
+        <v>-33.41</v>
       </c>
       <c r="E211" t="n">
-        <v>-3.901</v>
+        <v>-20</v>
+      </c>
+      <c r="F211" t="n">
+        <v>19.662</v>
       </c>
     </row>
     <row r="212">
@@ -3673,16 +4652,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-13.85</v>
+        <v>-60</v>
       </c>
       <c r="C212" t="n">
-        <v>1.65</v>
+        <v>93.62</v>
       </c>
       <c r="D212" t="n">
-        <v>14.68</v>
+        <v>-33.47</v>
       </c>
       <c r="E212" t="n">
-        <v>-2.374</v>
+        <v>-20</v>
+      </c>
+      <c r="F212" t="n">
+        <v>19.851</v>
       </c>
     </row>
     <row r="213">
@@ -3690,16 +4672,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-13.88</v>
+        <v>-60</v>
       </c>
       <c r="C213" t="n">
-        <v>0.19</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="D213" t="n">
-        <v>14.72</v>
+        <v>-32.47</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.9329999999999996</v>
+        <v>-20</v>
+      </c>
+      <c r="F213" t="n">
+        <v>20.04</v>
       </c>
     </row>
     <row r="214">
@@ -3707,16 +4692,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-13.46</v>
+        <v>-60</v>
       </c>
       <c r="C214" t="n">
-        <v>-1.45</v>
+        <v>91.25</v>
       </c>
       <c r="D214" t="n">
-        <v>14.56</v>
+        <v>-31.4</v>
       </c>
       <c r="E214" t="n">
-        <v>0.445</v>
+        <v>-20</v>
+      </c>
+      <c r="F214" t="n">
+        <v>20.15</v>
       </c>
     </row>
     <row r="215">
@@ -3724,16 +4712,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-13.18</v>
+        <v>-60</v>
       </c>
       <c r="C215" t="n">
-        <v>-3.07</v>
+        <v>90.52</v>
       </c>
       <c r="D215" t="n">
-        <v>14.58</v>
+        <v>-30.35</v>
       </c>
       <c r="E215" t="n">
-        <v>1.763</v>
+        <v>-20</v>
+      </c>
+      <c r="F215" t="n">
+        <v>19.83000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -3741,16 +4732,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-12.71</v>
+        <v>-60</v>
       </c>
       <c r="C216" t="n">
-        <v>-4.78</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="D216" t="n">
-        <v>14.57</v>
+        <v>-29.38</v>
       </c>
       <c r="E216" t="n">
-        <v>3.024</v>
+        <v>-20</v>
+      </c>
+      <c r="F216" t="n">
+        <v>19.53</v>
       </c>
     </row>
     <row r="217">
@@ -3758,16 +4752,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-12.39</v>
+        <v>-60</v>
       </c>
       <c r="C217" t="n">
-        <v>-6.29</v>
+        <v>88.98</v>
       </c>
       <c r="D217" t="n">
-        <v>14.44</v>
+        <v>-28.01</v>
       </c>
       <c r="E217" t="n">
-        <v>4.341999999999999</v>
+        <v>-20</v>
+      </c>
+      <c r="F217" t="n">
+        <v>19.03</v>
       </c>
     </row>
     <row r="218">
@@ -3775,16 +4772,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-11.78</v>
+        <v>-60</v>
       </c>
       <c r="C218" t="n">
-        <v>-7.81</v>
+        <v>88.33</v>
       </c>
       <c r="D218" t="n">
-        <v>14.06</v>
+        <v>-26.72</v>
       </c>
       <c r="E218" t="n">
-        <v>5.62</v>
+        <v>-20</v>
+      </c>
+      <c r="F218" t="n">
+        <v>18.39</v>
       </c>
     </row>
     <row r="219">
@@ -3792,16 +4792,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-11.21</v>
+        <v>-60</v>
       </c>
       <c r="C219" t="n">
-        <v>-9.31</v>
+        <v>87.66</v>
       </c>
       <c r="D219" t="n">
-        <v>13.27</v>
+        <v>-25.42</v>
       </c>
       <c r="E219" t="n">
-        <v>7.348000000000001</v>
+        <v>-20</v>
+      </c>
+      <c r="F219" t="n">
+        <v>17.76</v>
       </c>
     </row>
     <row r="220">
@@ -3809,16 +4812,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-10.76</v>
+        <v>-60</v>
       </c>
       <c r="C220" t="n">
-        <v>-10.79</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="D220" t="n">
-        <v>12.66</v>
+        <v>-23.84</v>
       </c>
       <c r="E220" t="n">
-        <v>8.995999999999999</v>
+        <v>-20</v>
+      </c>
+      <c r="F220" t="n">
+        <v>17.02</v>
       </c>
     </row>
     <row r="221">
@@ -3826,16 +4832,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-10.32</v>
+        <v>-60</v>
       </c>
       <c r="C221" t="n">
-        <v>-12.38</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="D221" t="n">
-        <v>12.05</v>
+        <v>-22.4</v>
       </c>
       <c r="E221" t="n">
-        <v>10.744</v>
+        <v>-20</v>
+      </c>
+      <c r="F221" t="n">
+        <v>16.41</v>
       </c>
     </row>
     <row r="222">
@@ -3843,16 +4852,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-9.73</v>
+        <v>-60</v>
       </c>
       <c r="C222" t="n">
-        <v>-12.41</v>
+        <v>85.28</v>
       </c>
       <c r="D222" t="n">
-        <v>11.52</v>
+        <v>-21.09</v>
       </c>
       <c r="E222" t="n">
-        <v>10.721</v>
+        <v>-20</v>
+      </c>
+      <c r="F222" t="n">
+        <v>15.81</v>
       </c>
     </row>
     <row r="223">
@@ -3860,16 +4872,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-9.19</v>
+        <v>-60</v>
       </c>
       <c r="C223" t="n">
-        <v>-12.3</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="D223" t="n">
-        <v>10.78</v>
+        <v>-20.79</v>
       </c>
       <c r="E223" t="n">
-        <v>10.807</v>
+        <v>-20</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15.22</v>
       </c>
     </row>
     <row r="224">
@@ -3877,16 +4892,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-9.01</v>
+        <v>-60</v>
       </c>
       <c r="C224" t="n">
-        <v>-12.2</v>
+        <v>85.87</v>
       </c>
       <c r="D224" t="n">
-        <v>10.3</v>
+        <v>-20.51</v>
       </c>
       <c r="E224" t="n">
-        <v>11.013</v>
+        <v>-20</v>
+      </c>
+      <c r="F224" t="n">
+        <v>14.64</v>
       </c>
     </row>
     <row r="225">
@@ -3894,16 +4912,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-8.91</v>
+        <v>-60</v>
       </c>
       <c r="C225" t="n">
-        <v>-12.12</v>
+        <v>86.2</v>
       </c>
       <c r="D225" t="n">
-        <v>10.04</v>
+        <v>-21.19</v>
       </c>
       <c r="E225" t="n">
-        <v>11.089</v>
+        <v>-20</v>
+      </c>
+      <c r="F225" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="226">
@@ -3911,16 +4932,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-8.99</v>
+        <v>-60</v>
       </c>
       <c r="C226" t="n">
-        <v>-11.97</v>
+        <v>86.53</v>
       </c>
       <c r="D226" t="n">
-        <v>9.83</v>
+        <v>-21.85</v>
       </c>
       <c r="E226" t="n">
-        <v>11.232</v>
+        <v>-20</v>
+      </c>
+      <c r="F226" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="227">
@@ -3928,989 +4952,23 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-8.93</v>
+        <v>-60</v>
       </c>
       <c r="C227" t="n">
-        <v>-11.98</v>
+        <v>87.05</v>
       </c>
       <c r="D227" t="n">
-        <v>9.6</v>
+        <v>-22.9</v>
       </c>
       <c r="E227" t="n">
-        <v>11.415</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-9.17</v>
-      </c>
-      <c r="C228" t="n">
-        <v>-11.96</v>
-      </c>
-      <c r="D228" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="E228" t="n">
-        <v>11.618</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-9.35</v>
-      </c>
-      <c r="C229" t="n">
-        <v>-11.94</v>
-      </c>
-      <c r="D229" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="E229" t="n">
-        <v>11.371</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-9.449999999999999</v>
-      </c>
-      <c r="C230" t="n">
-        <v>-11.84</v>
-      </c>
-      <c r="D230" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="E230" t="n">
-        <v>11.127</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-9.550000000000001</v>
-      </c>
-      <c r="C231" t="n">
-        <v>-11.64</v>
-      </c>
-      <c r="D231" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>10.793</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-9.74</v>
-      </c>
-      <c r="C232" t="n">
-        <v>-11.35</v>
-      </c>
-      <c r="D232" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="E232" t="n">
-        <v>10.449</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="C233" t="n">
-        <v>-11.18</v>
-      </c>
-      <c r="D233" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E233" t="n">
-        <v>10.252</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-9.92</v>
-      </c>
-      <c r="C234" t="n">
-        <v>-10.99</v>
-      </c>
-      <c r="D234" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="E234" t="n">
-        <v>10.035</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>-9.91</v>
-      </c>
-      <c r="C235" t="n">
-        <v>-10.55</v>
-      </c>
-      <c r="D235" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E235" t="n">
-        <v>9.856</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-9.9</v>
-      </c>
-      <c r="C236" t="n">
-        <v>-10.31</v>
-      </c>
-      <c r="D236" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="E236" t="n">
-        <v>9.577000000000002</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-9.880000000000001</v>
-      </c>
-      <c r="C237" t="n">
-        <v>-9.98</v>
-      </c>
-      <c r="D237" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="E237" t="n">
-        <v>9.178000000000001</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>-9.84</v>
-      </c>
-      <c r="C238" t="n">
-        <v>-9.66</v>
-      </c>
-      <c r="D238" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="E238" t="n">
-        <v>8.959</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-9.640000000000001</v>
-      </c>
-      <c r="C239" t="n">
-        <v>-9.33</v>
-      </c>
-      <c r="D239" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="E239" t="n">
-        <v>8.56</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-9.460000000000001</v>
-      </c>
-      <c r="C240" t="n">
-        <v>-9.15</v>
-      </c>
-      <c r="D240" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="E240" t="n">
-        <v>8.523</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-9.279999999999999</v>
-      </c>
-      <c r="C241" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="D241" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E241" t="n">
-        <v>8.496</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-9.09</v>
-      </c>
-      <c r="C242" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="D242" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E242" t="n">
-        <v>8.481999999999999</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-8.82</v>
-      </c>
-      <c r="C243" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="D243" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="E243" t="n">
-        <v>8.367999999999999</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-8.84</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-8.33</v>
-      </c>
-      <c r="D244" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="E244" t="n">
-        <v>8.054</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-9</v>
-      </c>
-      <c r="C245" t="n">
-        <v>-7.18</v>
-      </c>
-      <c r="D245" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="E245" t="n">
-        <v>7.892</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-8.69</v>
-      </c>
-      <c r="C246" t="n">
-        <v>-5.82</v>
-      </c>
-      <c r="D246" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="E246" t="n">
-        <v>7.680000000000001</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-8.369999999999999</v>
-      </c>
-      <c r="C247" t="n">
-        <v>-4.56</v>
-      </c>
-      <c r="D247" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="E247" t="n">
-        <v>7.537999999999999</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-8.06</v>
-      </c>
-      <c r="C248" t="n">
-        <v>-3.22</v>
-      </c>
-      <c r="D248" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E248" t="n">
-        <v>7.146000000000001</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-8.119999999999999</v>
-      </c>
-      <c r="C249" t="n">
-        <v>-1.88</v>
-      </c>
-      <c r="D249" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="E249" t="n">
-        <v>6.884</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-8.16</v>
-      </c>
-      <c r="C250" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="E250" t="n">
-        <v>6.316999999999999</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-8.68</v>
-      </c>
-      <c r="C251" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D251" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="E251" t="n">
-        <v>6.249999999999999</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-9.220000000000001</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="E252" t="n">
-        <v>6.289999999999999</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>-9.82</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E253" t="n">
-        <v>6.029999999999999</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>-10.83</v>
-      </c>
-      <c r="C254" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D254" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="E254" t="n">
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>-11.63</v>
-      </c>
-      <c r="C255" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="D255" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="E255" t="n">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>-12.96</v>
-      </c>
-      <c r="C256" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="D256" t="n">
-        <v>-1.84</v>
-      </c>
-      <c r="E256" t="n">
-        <v>6.409999999999999</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>-14.29</v>
-      </c>
-      <c r="C257" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D257" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="E257" t="n">
-        <v>6.775</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>-15.53</v>
-      </c>
-      <c r="C258" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="D258" t="n">
-        <v>-2.33</v>
-      </c>
-      <c r="E258" t="n">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>-17.27</v>
-      </c>
-      <c r="C259" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D259" t="n">
-        <v>-2.83</v>
-      </c>
-      <c r="E259" t="n">
-        <v>8.344999999999999</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>-18.93</v>
-      </c>
-      <c r="C260" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="D260" t="n">
-        <v>-3.34</v>
-      </c>
-      <c r="E260" t="n">
-        <v>9.52</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>-20.09</v>
-      </c>
-      <c r="C261" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="D261" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="E261" t="n">
-        <v>10.295</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-21.16</v>
-      </c>
-      <c r="C262" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="D262" t="n">
-        <v>-4.61</v>
-      </c>
-      <c r="E262" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>-21.89</v>
-      </c>
-      <c r="C263" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="D263" t="n">
-        <v>-5.74</v>
-      </c>
-      <c r="E263" t="n">
-        <v>11.815</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>-22.22</v>
-      </c>
-      <c r="C264" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="D264" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="E264" t="n">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>-22.59</v>
-      </c>
-      <c r="C265" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="D265" t="n">
-        <v>-6.12</v>
-      </c>
-      <c r="E265" t="n">
-        <v>13.485</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>-22.78</v>
-      </c>
-      <c r="C266" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="D266" t="n">
-        <v>-6.17</v>
-      </c>
-      <c r="E266" t="n">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>-22.99</v>
-      </c>
-      <c r="C267" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>-6.21</v>
-      </c>
-      <c r="E267" t="n">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>-22.6</v>
-      </c>
-      <c r="C268" t="n">
-        <v>14.39</v>
-      </c>
-      <c r="D268" t="n">
-        <v>-6.24</v>
-      </c>
-      <c r="E268" t="n">
-        <v>14.56</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>-21.56</v>
-      </c>
-      <c r="C269" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="D269" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="E269" t="n">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>-20.56</v>
-      </c>
-      <c r="C270" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="D270" t="n">
-        <v>-6.17</v>
-      </c>
-      <c r="E270" t="n">
-        <v>13.82</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>-19.59</v>
-      </c>
-      <c r="C271" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D271" t="n">
-        <v>-6.02</v>
-      </c>
-      <c r="E271" t="n">
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>-18.31</v>
-      </c>
-      <c r="C272" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="D272" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="E272" t="n">
-        <v>12.86</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>-17.32</v>
-      </c>
-      <c r="C273" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D273" t="n">
-        <v>-5.51</v>
-      </c>
-      <c r="E273" t="n">
-        <v>12.59</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>-16.18</v>
-      </c>
-      <c r="C274" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D274" t="n">
-        <v>-5.22</v>
-      </c>
-      <c r="E274" t="n">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>-14.96</v>
-      </c>
-      <c r="C275" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="D275" t="n">
-        <v>-5.03</v>
-      </c>
-      <c r="E275" t="n">
-        <v>12.02</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>-13.88</v>
-      </c>
-      <c r="C276" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D276" t="n">
-        <v>-5.08</v>
-      </c>
-      <c r="E276" t="n">
-        <v>11.71</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>-12.77</v>
-      </c>
-      <c r="C277" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="D277" t="n">
-        <v>-5.31</v>
-      </c>
-      <c r="E277" t="n">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>-12.55</v>
-      </c>
-      <c r="C278" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="D278" t="n">
-        <v>-5.6</v>
-      </c>
-      <c r="E278" t="n">
-        <v>11.705</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>-12.33</v>
-      </c>
-      <c r="C279" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="D279" t="n">
-        <v>-5.96</v>
-      </c>
-      <c r="E279" t="n">
-        <v>11.77</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>-12.13</v>
-      </c>
-      <c r="C280" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D280" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="E280" t="n">
-        <v>11.855</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>-11.92</v>
-      </c>
-      <c r="C281" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="D281" t="n">
-        <v>-6.71</v>
-      </c>
-      <c r="E281" t="n">
-        <v>12.01</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>-12.37</v>
-      </c>
-      <c r="C282" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D282" t="n">
-        <v>-7.17</v>
-      </c>
-      <c r="E282" t="n">
-        <v>12.495</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>-12.54</v>
-      </c>
-      <c r="C283" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="D283" t="n">
-        <v>-7.9</v>
-      </c>
-      <c r="E283" t="n">
-        <v>12.97</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>-12.82</v>
-      </c>
-      <c r="C284" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="D284" t="n">
-        <v>-8.619999999999999</v>
-      </c>
-      <c r="E284" t="n">
-        <v>13.465</v>
+        <v>-20</v>
+      </c>
+      <c r="F227" t="n">
+        <v>15.85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -149,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/24/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (05/31/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -236,60 +249,6 @@
           <val>
             <numRef>
               <f>'data'!$D$2:$D$227</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'data'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$E$2:$E$227</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$227</f>
             </numRef>
           </val>
         </ser>
@@ -659,9 +618,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -675,25 +634,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cheyenne</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Fish</t>
         </is>
@@ -718,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>0.39</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1</v>
+        <v>-0.28</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
@@ -732,13 +681,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.33</v>
+        <v>0.21</v>
       </c>
       <c r="C4" t="n">
-        <v>1.43</v>
+        <v>-0.45</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -746,13 +695,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.95</v>
+        <v>0.18</v>
       </c>
       <c r="C5" t="n">
-        <v>1.46</v>
+        <v>-0.58</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -760,13 +709,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.9</v>
+        <v>0.16</v>
       </c>
       <c r="C6" t="n">
-        <v>1.49</v>
+        <v>-0.68</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.4</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -774,13 +723,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.25</v>
+        <v>0.19</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5</v>
+        <v>-0.78</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.75</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="8">
@@ -788,13 +737,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.23</v>
+        <v>0.12</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>-0.66</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.74</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="9">
@@ -802,13 +751,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.96</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>1.52</v>
+        <v>-0.65</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.470000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="10">
@@ -816,13 +765,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.6</v>
+        <v>-0.01</v>
       </c>
       <c r="C10" t="n">
-        <v>1.52</v>
+        <v>-0.64</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.119999999999999</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
@@ -830,13 +779,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.119999999999999</v>
+        <v>-0.1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.52</v>
+        <v>-0.59</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.640000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -844,13 +793,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.119999999999999</v>
+        <v>-0.1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.52</v>
+        <v>-0.59</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.640000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -858,13 +807,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.390000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="C13" t="n">
-        <v>1.65</v>
+        <v>-0.59</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.04</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14">
@@ -872,13 +821,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.31</v>
+        <v>-0.33</v>
       </c>
       <c r="C14" t="n">
-        <v>1.56</v>
+        <v>-0.53</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="15">
@@ -886,13 +835,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.25</v>
+        <v>-0.4</v>
       </c>
       <c r="C15" t="n">
-        <v>1.47</v>
+        <v>-0.17</v>
       </c>
       <c r="D15" t="n">
-        <v>-14.72</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16">
@@ -900,13 +849,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.8</v>
+        <v>-0.43</v>
       </c>
       <c r="C16" t="n">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="D16" t="n">
-        <v>-15.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="17">
@@ -914,13 +863,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.79</v>
+        <v>-0.44</v>
       </c>
       <c r="C17" t="n">
-        <v>2.06</v>
+        <v>0.58</v>
       </c>
       <c r="D17" t="n">
-        <v>-15.85</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="18">
@@ -928,13 +877,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.45</v>
+        <v>-0.63</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1.13</v>
       </c>
       <c r="D18" t="n">
-        <v>-16.45</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19">
@@ -942,13 +891,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.09</v>
+        <v>-0.75</v>
       </c>
       <c r="C19" t="n">
-        <v>3.99</v>
+        <v>1.5</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.08</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="20">
@@ -956,13 +905,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.82</v>
+        <v>-0.86</v>
       </c>
       <c r="C20" t="n">
-        <v>4.9</v>
+        <v>1.93</v>
       </c>
       <c r="D20" t="n">
-        <v>-17.72</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="21">
@@ -970,13 +919,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.49</v>
+        <v>-0.89</v>
       </c>
       <c r="C21" t="n">
-        <v>5.81</v>
+        <v>2.31</v>
       </c>
       <c r="D21" t="n">
-        <v>-18.3</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="22">
@@ -984,13 +933,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.27</v>
+        <v>-0.82</v>
       </c>
       <c r="C22" t="n">
-        <v>6.67</v>
+        <v>2.64</v>
       </c>
       <c r="D22" t="n">
-        <v>-18.94</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="23">
@@ -998,13 +947,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.16</v>
+        <v>-0.78</v>
       </c>
       <c r="C23" t="n">
-        <v>7.47</v>
+        <v>2.99</v>
       </c>
       <c r="D23" t="n">
-        <v>-19.62</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="24">
@@ -1012,13 +961,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.61</v>
+        <v>-0.72</v>
       </c>
       <c r="C24" t="n">
-        <v>8.27</v>
+        <v>3.32</v>
       </c>
       <c r="D24" t="n">
-        <v>-19.88</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="25">
@@ -1026,13 +975,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.03</v>
+        <v>-0.63</v>
       </c>
       <c r="C25" t="n">
-        <v>9.09</v>
+        <v>3.39</v>
       </c>
       <c r="D25" t="n">
-        <v>-20.12</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="26">
@@ -1040,13 +989,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10.27</v>
+        <v>-0.57</v>
       </c>
       <c r="C26" t="n">
-        <v>11.51</v>
+        <v>3.45</v>
       </c>
       <c r="D26" t="n">
-        <v>-21.78</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1003,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.07</v>
+        <v>-0.55</v>
       </c>
       <c r="C27" t="n">
-        <v>13.3</v>
+        <v>3.54</v>
       </c>
       <c r="D27" t="n">
-        <v>-23.37</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="28">
@@ -1068,13 +1017,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.24</v>
+        <v>-0.37</v>
       </c>
       <c r="C28" t="n">
-        <v>14.75</v>
+        <v>3.47</v>
       </c>
       <c r="D28" t="n">
-        <v>-24.99</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="29">
@@ -1082,13 +1031,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.42</v>
+        <v>-0.25</v>
       </c>
       <c r="C29" t="n">
-        <v>16.16</v>
+        <v>3.45</v>
       </c>
       <c r="D29" t="n">
-        <v>-26.58</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="30">
@@ -1096,13 +1045,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.5</v>
+        <v>-0.23</v>
       </c>
       <c r="C30" t="n">
-        <v>17.65</v>
+        <v>3.22</v>
       </c>
       <c r="D30" t="n">
-        <v>-28.18</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="31">
@@ -1110,13 +1059,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.59</v>
+        <v>-0.23</v>
       </c>
       <c r="C31" t="n">
-        <v>19.14</v>
+        <v>3.03</v>
       </c>
       <c r="D31" t="n">
-        <v>-29.79</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="32">
@@ -1124,13 +1073,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.5</v>
+        <v>-0.25</v>
       </c>
       <c r="C32" t="n">
-        <v>20.69</v>
+        <v>2.84</v>
       </c>
       <c r="D32" t="n">
-        <v>-31.28</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="33">
@@ -1138,13 +1087,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.25</v>
+        <v>-0.26</v>
       </c>
       <c r="C33" t="n">
-        <v>22.35</v>
+        <v>2.72</v>
       </c>
       <c r="D33" t="n">
-        <v>-32.69</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="34">
@@ -1152,13 +1101,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.04</v>
+        <v>-0.32</v>
       </c>
       <c r="C34" t="n">
-        <v>23.98</v>
+        <v>2.61</v>
       </c>
       <c r="D34" t="n">
-        <v>-34.11</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="35">
@@ -1166,13 +1115,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.92</v>
+        <v>-0.41</v>
       </c>
       <c r="C35" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="D35" t="n">
-        <v>-35.61</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="36">
@@ -1180,16 +1129,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.94</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>25.72</v>
+        <v>2.56</v>
       </c>
       <c r="D36" t="n">
-        <v>-35.75</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37">
@@ -1197,16 +1143,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.949999999999999</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>25.83</v>
+        <v>2.54</v>
       </c>
       <c r="D37" t="n">
-        <v>-35.87</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="38">
@@ -1214,16 +1157,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.84</v>
+        <v>-1.43</v>
       </c>
       <c r="C38" t="n">
-        <v>26.07</v>
+        <v>2.54</v>
       </c>
       <c r="D38" t="n">
-        <v>-36.01</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-0.06666666666666667</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="39">
@@ -1231,16 +1171,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.76</v>
+        <v>-2.06</v>
       </c>
       <c r="C39" t="n">
-        <v>26.3</v>
+        <v>2.52</v>
       </c>
       <c r="D39" t="n">
-        <v>-36.12</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.125</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="40">
@@ -1248,16 +1185,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.720000000000001</v>
+        <v>-2.61</v>
       </c>
       <c r="C40" t="n">
-        <v>26.5</v>
+        <v>2.7</v>
       </c>
       <c r="D40" t="n">
-        <v>-36.23</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-0.16</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="41">
@@ -1265,16 +1199,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.84</v>
+        <v>-3.21</v>
       </c>
       <c r="C41" t="n">
-        <v>26.7</v>
+        <v>2.89</v>
       </c>
       <c r="D41" t="n">
-        <v>-36.48</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-0.2833333333333333</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="42">
@@ -1282,16 +1213,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.08</v>
+        <v>-3.88</v>
       </c>
       <c r="C42" t="n">
-        <v>26.89</v>
+        <v>3.06</v>
       </c>
       <c r="D42" t="n">
-        <v>-36.8</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-0.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="43">
@@ -1299,16 +1227,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.47</v>
+        <v>-4.53</v>
       </c>
       <c r="C43" t="n">
-        <v>27.05</v>
+        <v>3.15</v>
       </c>
       <c r="D43" t="n">
-        <v>-37.25</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-0.4999999999999999</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="44">
@@ -1316,16 +1241,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.81</v>
+        <v>-5.25</v>
       </c>
       <c r="C44" t="n">
-        <v>27.26</v>
+        <v>3.23</v>
       </c>
       <c r="D44" t="n">
-        <v>-37.67</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-0.5777777777777778</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="45">
@@ -1333,16 +1255,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.07</v>
+        <v>-5.9</v>
       </c>
       <c r="C45" t="n">
-        <v>27.52</v>
+        <v>3.21</v>
       </c>
       <c r="D45" t="n">
-        <v>-38.07</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-0.6399999999999999</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="46">
@@ -1350,16 +1269,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.45</v>
+        <v>-6.71</v>
       </c>
       <c r="C46" t="n">
-        <v>27.61</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="n">
-        <v>-38.42</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-0.6399999999999999</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="47">
@@ -1367,16 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.86</v>
+        <v>-7.53</v>
       </c>
       <c r="C47" t="n">
-        <v>27.71</v>
+        <v>2.98</v>
       </c>
       <c r="D47" t="n">
-        <v>-38.78</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-0.78</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="48">
@@ -1384,16 +1297,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.39</v>
+        <v>-7.77</v>
       </c>
       <c r="C48" t="n">
-        <v>27.63</v>
+        <v>2.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-39.09</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-0.93</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="49">
@@ -1401,16 +1311,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.9</v>
+        <v>-8.109999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>27.54</v>
+        <v>2.88</v>
       </c>
       <c r="D49" t="n">
-        <v>-39.43</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-1.01</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="50">
@@ -1418,16 +1325,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.39</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>27.48</v>
+        <v>2.94</v>
       </c>
       <c r="D50" t="n">
-        <v>-39.79</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-1.08</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="51">
@@ -1435,16 +1339,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.7</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>27.45</v>
+        <v>3.02</v>
       </c>
       <c r="D51" t="n">
-        <v>-39.98</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-1.17</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="52">
@@ -1452,19 +1353,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.94</v>
+        <v>-9.1</v>
       </c>
       <c r="C52" t="n">
-        <v>27.45</v>
+        <v>3.11</v>
       </c>
       <c r="D52" t="n">
-        <v>-40.18</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="53">
@@ -1472,19 +1367,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.1</v>
+        <v>-9.82</v>
       </c>
       <c r="C53" t="n">
-        <v>27.39</v>
+        <v>3.62</v>
       </c>
       <c r="D53" t="n">
-        <v>-40.26</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="54">
@@ -1492,19 +1381,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.25</v>
+        <v>-10.57</v>
       </c>
       <c r="C54" t="n">
-        <v>27.33</v>
+        <v>4.31</v>
       </c>
       <c r="D54" t="n">
-        <v>-40.32</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-0.2</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="55">
@@ -1512,19 +1395,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.45</v>
+        <v>-11.33</v>
       </c>
       <c r="C55" t="n">
-        <v>27.2</v>
+        <v>5.04</v>
       </c>
       <c r="D55" t="n">
-        <v>-40.34</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-0.25</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="56">
@@ -1532,19 +1409,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.64</v>
+        <v>-11.95</v>
       </c>
       <c r="C56" t="n">
-        <v>27.13</v>
+        <v>5.86</v>
       </c>
       <c r="D56" t="n">
-        <v>-40.35</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-0.28</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="57">
@@ -1552,19 +1423,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.81</v>
+        <v>-12.45</v>
       </c>
       <c r="C57" t="n">
-        <v>27.07</v>
+        <v>6.67</v>
       </c>
       <c r="D57" t="n">
-        <v>-40.36</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-0.3</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="58">
@@ -1572,19 +1437,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.91</v>
+        <v>-12.94</v>
       </c>
       <c r="C58" t="n">
-        <v>27.06</v>
+        <v>7.36</v>
       </c>
       <c r="D58" t="n">
-        <v>-40.39</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-0.3428571428571429</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="59">
@@ -1592,19 +1451,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.81</v>
+        <v>-13.55</v>
       </c>
       <c r="C59" t="n">
-        <v>28.24</v>
+        <v>7.94</v>
       </c>
       <c r="D59" t="n">
-        <v>-41.34</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-1.47</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-0.6600000000000001</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="60">
@@ -1612,19 +1465,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.64</v>
+        <v>-14.16</v>
       </c>
       <c r="C60" t="n">
-        <v>29.7</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>-42.28</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-0.9955555555555556</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="61">
@@ -1632,19 +1479,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.59</v>
+        <v>-14.75</v>
       </c>
       <c r="C61" t="n">
-        <v>31.13</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>-43.21</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-1.264</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="62">
@@ -1652,19 +1493,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.71</v>
+        <v>-15.42</v>
       </c>
       <c r="C62" t="n">
-        <v>32.37</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>-44.13</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-1.264</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="63">
@@ -1672,19 +1507,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.83</v>
+        <v>-15.67</v>
       </c>
       <c r="C63" t="n">
-        <v>33.64</v>
+        <v>9.48</v>
       </c>
       <c r="D63" t="n">
-        <v>-45.11</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-1.802</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="64">
@@ -1692,19 +1521,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.18</v>
+        <v>-15.83</v>
       </c>
       <c r="C64" t="n">
-        <v>35.74</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>-46.11</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-2.377</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="65">
@@ -1712,19 +1535,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.5</v>
+        <v>-16.06</v>
       </c>
       <c r="C65" t="n">
-        <v>37.85</v>
+        <v>9.49</v>
       </c>
       <c r="D65" t="n">
-        <v>-47.09</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-2.922</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="66">
@@ -1732,19 +1549,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.76</v>
+        <v>-16.29</v>
       </c>
       <c r="C66" t="n">
-        <v>40.05</v>
+        <v>9.73</v>
       </c>
       <c r="D66" t="n">
-        <v>-48.06</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-3.547</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="67">
@@ -1752,19 +1563,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.02</v>
+        <v>-16.62</v>
       </c>
       <c r="C67" t="n">
-        <v>42.12</v>
+        <v>9.99</v>
       </c>
       <c r="D67" t="n">
-        <v>-49.04</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-4.052</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="68">
@@ -1772,19 +1577,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.1</v>
+        <v>-16.97</v>
       </c>
       <c r="C68" t="n">
-        <v>44.21</v>
+        <v>10.39</v>
       </c>
       <c r="D68" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-4.377000000000001</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="69">
@@ -1792,19 +1591,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.54</v>
+        <v>-17.15</v>
       </c>
       <c r="C69" t="n">
-        <v>45.11</v>
+        <v>10.81</v>
       </c>
       <c r="D69" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.8899999999999999</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-4.762000000000001</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="70">
@@ -1812,19 +1605,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.98</v>
+        <v>-17.33</v>
       </c>
       <c r="C70" t="n">
-        <v>45.71</v>
+        <v>11.28</v>
       </c>
       <c r="D70" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-4.829000000000001</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="71">
@@ -1832,19 +1619,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.32</v>
+        <v>-17.46</v>
       </c>
       <c r="C71" t="n">
-        <v>46.25</v>
+        <v>11.75</v>
       </c>
       <c r="D71" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.8099999999999998</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-4.756000000000001</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="72">
@@ -1852,19 +1633,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.550000000000001</v>
+        <v>-17.46</v>
       </c>
       <c r="C72" t="n">
-        <v>46.96</v>
+        <v>12.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.7899999999999998</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-4.723000000000001</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="73">
@@ -1872,19 +1647,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.71</v>
+        <v>-17.46</v>
       </c>
       <c r="C73" t="n">
-        <v>47.69</v>
+        <v>12.65</v>
       </c>
       <c r="D73" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-4.180000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="74">
@@ -1892,19 +1661,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.71</v>
+        <v>-17.12</v>
       </c>
       <c r="C74" t="n">
-        <v>47.53</v>
+        <v>12.93</v>
       </c>
       <c r="D74" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-1.660000000000001</v>
-      </c>
-      <c r="F74" t="n">
-        <v>-3.58</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="75">
@@ -1912,19 +1675,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.73</v>
+        <v>-16.73</v>
       </c>
       <c r="C75" t="n">
-        <v>47.36</v>
+        <v>12.89</v>
       </c>
       <c r="D75" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-3.009999999999999</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="76">
@@ -1932,19 +1689,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.5</v>
+        <v>-16.32</v>
       </c>
       <c r="C76" t="n">
-        <v>47.09</v>
+        <v>12.65</v>
       </c>
       <c r="D76" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-2.48</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-2.11</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="77">
@@ -1952,19 +1703,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.26</v>
+        <v>-16.06</v>
       </c>
       <c r="C77" t="n">
-        <v>46.94</v>
+        <v>12.43</v>
       </c>
       <c r="D77" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-1.3</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="78">
@@ -1972,19 +1717,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.2</v>
+        <v>-15.8</v>
       </c>
       <c r="C78" t="n">
-        <v>46.77</v>
+        <v>12.45</v>
       </c>
       <c r="D78" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.67</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="79">
@@ -1992,19 +1731,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.64</v>
+        <v>-15.34</v>
       </c>
       <c r="C79" t="n">
-        <v>47.04</v>
+        <v>12.43</v>
       </c>
       <c r="D79" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.02000000000000011</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="80">
@@ -2012,19 +1745,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.16</v>
+        <v>-14.89</v>
       </c>
       <c r="C80" t="n">
-        <v>47.33</v>
+        <v>12.39</v>
       </c>
       <c r="D80" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-4.089999999999999</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.6000000000000001</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="81">
@@ -2032,19 +1759,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.75</v>
+        <v>-14.49</v>
       </c>
       <c r="C81" t="n">
-        <v>48.7</v>
+        <v>12.39</v>
       </c>
       <c r="D81" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-4.499999999999999</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1.05</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="82">
@@ -2052,19 +1773,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.26</v>
+        <v>-14.23</v>
       </c>
       <c r="C82" t="n">
-        <v>50.1</v>
+        <v>12.54</v>
       </c>
       <c r="D82" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-4.88</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="83">
@@ -2072,19 +1787,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78</v>
+        <v>-13.99</v>
       </c>
       <c r="C83" t="n">
-        <v>51.5</v>
+        <v>12.65</v>
       </c>
       <c r="D83" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="84">
@@ -2092,19 +1801,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.25</v>
+        <v>-14.16</v>
       </c>
       <c r="C84" t="n">
-        <v>52.95</v>
+        <v>13.02</v>
       </c>
       <c r="D84" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-5.11</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="85">
@@ -2112,19 +1815,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.29</v>
+        <v>-14.32</v>
       </c>
       <c r="C85" t="n">
-        <v>54.41</v>
+        <v>13.69</v>
       </c>
       <c r="D85" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2.12</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="86">
@@ -2132,19 +1829,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.58</v>
+        <v>-14.49</v>
       </c>
       <c r="C86" t="n">
-        <v>55.79</v>
+        <v>14.36</v>
       </c>
       <c r="D86" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-5.39</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="87">
@@ -2152,19 +1843,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.16</v>
+        <v>-14.53</v>
       </c>
       <c r="C87" t="n">
-        <v>58.55</v>
+        <v>15.06</v>
       </c>
       <c r="D87" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2.13</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="88">
@@ -2172,19 +1857,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.73</v>
+        <v>-14.55</v>
       </c>
       <c r="C88" t="n">
-        <v>61.27</v>
+        <v>15.47</v>
       </c>
       <c r="D88" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-5.726999999999999</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2.194</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="89">
@@ -2192,19 +1871,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-9.970000000000001</v>
+        <v>-14.76</v>
       </c>
       <c r="C89" t="n">
-        <v>63.67</v>
+        <v>15.88</v>
       </c>
       <c r="D89" t="n">
-        <v>-50.12</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-5.864</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2.278</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="90">
@@ -2212,19 +1885,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-12.23</v>
+        <v>-14.92</v>
       </c>
       <c r="C90" t="n">
-        <v>66.18000000000001</v>
+        <v>16.28</v>
       </c>
       <c r="D90" t="n">
-        <v>-50.25</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-6.081</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2.382000000000001</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="91">
@@ -2232,19 +1899,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-13.55</v>
+        <v>-15.08</v>
       </c>
       <c r="C91" t="n">
-        <v>67.66</v>
+        <v>16.63</v>
       </c>
       <c r="D91" t="n">
-        <v>-50.41</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-6.278</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2.576</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="92">
@@ -2252,19 +1913,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-14.81</v>
+        <v>-15.2</v>
       </c>
       <c r="C92" t="n">
-        <v>69.12</v>
+        <v>16.91</v>
       </c>
       <c r="D92" t="n">
-        <v>-50.57</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-6.464999999999999</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2.73</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="93">
@@ -2272,19 +1927,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-16.62</v>
+        <v>-15.28</v>
       </c>
       <c r="C93" t="n">
-        <v>70.58</v>
+        <v>17.21</v>
       </c>
       <c r="D93" t="n">
-        <v>-50.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-6.672</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2.813999999999999</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="94">
@@ -2292,19 +1941,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-18.44</v>
+        <v>-15.28</v>
       </c>
       <c r="C94" t="n">
-        <v>71.97</v>
+        <v>17.45</v>
       </c>
       <c r="D94" t="n">
-        <v>-49.64</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-6.889</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2.988</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="95">
@@ -2312,19 +1955,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-20.24</v>
+        <v>-15.04</v>
       </c>
       <c r="C95" t="n">
-        <v>73.36</v>
+        <v>17.49</v>
       </c>
       <c r="D95" t="n">
-        <v>-49.19</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-7.086</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3.161999999999999</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="96">
@@ -2332,19 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-22.05</v>
+        <v>-14.79</v>
       </c>
       <c r="C96" t="n">
-        <v>74.84999999999999</v>
+        <v>17.46</v>
       </c>
       <c r="D96" t="n">
-        <v>-48.76</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-7.263</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3.216</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="97">
@@ -2352,19 +1983,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-22.3</v>
+        <v>-14.53</v>
       </c>
       <c r="C97" t="n">
-        <v>74.97</v>
+        <v>17.5</v>
       </c>
       <c r="D97" t="n">
-        <v>-48.57</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-7.44</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3.34</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="98">
@@ -2372,19 +1997,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-22.37</v>
+        <v>-14.23</v>
       </c>
       <c r="C98" t="n">
-        <v>75.15000000000001</v>
+        <v>17.54</v>
       </c>
       <c r="D98" t="n">
-        <v>-48.39</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-7.58</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3.185</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="99">
@@ -2392,19 +2011,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-22.43</v>
+        <v>-13.95</v>
       </c>
       <c r="C99" t="n">
-        <v>75.28</v>
+        <v>17.56</v>
       </c>
       <c r="D99" t="n">
-        <v>-48.15</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-7.73</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3.03</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="100">
@@ -2412,19 +2025,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-24.39</v>
+        <v>-13.69</v>
       </c>
       <c r="C100" t="n">
-        <v>75.31</v>
+        <v>17.6</v>
       </c>
       <c r="D100" t="n">
-        <v>-45.91</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-7.799999999999999</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2.795</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="101">
@@ -2432,19 +2039,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-26.35</v>
+        <v>-13.57</v>
       </c>
       <c r="C101" t="n">
-        <v>75.34</v>
+        <v>17.65</v>
       </c>
       <c r="D101" t="n">
-        <v>-43.64</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-7.869999999999999</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2.52</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="102">
@@ -2452,19 +2053,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-28.37</v>
+        <v>-13.44</v>
       </c>
       <c r="C102" t="n">
-        <v>75.36</v>
+        <v>17.66</v>
       </c>
       <c r="D102" t="n">
-        <v>-41.38</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-7.959999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2.345</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="103">
@@ -2472,19 +2067,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-29.78</v>
+        <v>-13.37</v>
       </c>
       <c r="C103" t="n">
-        <v>75.36</v>
+        <v>17.69</v>
       </c>
       <c r="D103" t="n">
-        <v>-39.71</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-8.039999999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2.17</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="104">
@@ -2492,19 +2081,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-31.2</v>
+        <v>-13.25</v>
       </c>
       <c r="C104" t="n">
-        <v>75.81</v>
+        <v>17.68</v>
       </c>
       <c r="D104" t="n">
-        <v>-38.06</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-8.109999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.565</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="105">
@@ -2512,19 +2095,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-32.65</v>
+        <v>-13.49</v>
       </c>
       <c r="C105" t="n">
-        <v>76.33</v>
+        <v>17.66</v>
       </c>
       <c r="D105" t="n">
-        <v>-36.41</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-8.18</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.9029999999999999</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="106">
@@ -2532,19 +2109,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-34.12</v>
+        <v>-13.72</v>
       </c>
       <c r="C106" t="n">
-        <v>77.06</v>
+        <v>17.68</v>
       </c>
       <c r="D106" t="n">
-        <v>-34.74</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-8.27</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.07600000000000011</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="107">
@@ -2552,19 +2123,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-35.84</v>
+        <v>-13.87</v>
       </c>
       <c r="C107" t="n">
-        <v>77.79000000000001</v>
+        <v>17.54</v>
       </c>
       <c r="D107" t="n">
-        <v>-32.83</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-8.379999999999999</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.7409999999999999</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="108">
@@ -2572,19 +2137,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-36.74</v>
+        <v>-14.07</v>
       </c>
       <c r="C108" t="n">
-        <v>77.53</v>
+        <v>17.51</v>
       </c>
       <c r="D108" t="n">
-        <v>-30.91</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-8.48</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-1.393</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="109">
@@ -2592,19 +2151,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-37.65</v>
+        <v>-14.27</v>
       </c>
       <c r="C109" t="n">
-        <v>77.17</v>
+        <v>17.5</v>
       </c>
       <c r="D109" t="n">
-        <v>-28.95</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-8.56</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-2.015</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="110">
@@ -2612,19 +2165,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-36.24</v>
+        <v>-14.48</v>
       </c>
       <c r="C110" t="n">
-        <v>76.83</v>
+        <v>17.48</v>
       </c>
       <c r="D110" t="n">
-        <v>-29.03</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-2.857</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="111">
@@ -2632,19 +2179,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-34.81</v>
+        <v>-14.52</v>
       </c>
       <c r="C111" t="n">
-        <v>76.48999999999999</v>
+        <v>17.45</v>
       </c>
       <c r="D111" t="n">
-        <v>-29.13</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-8.860000000000001</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-3.689</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="112">
@@ -2652,19 +2193,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-33.45</v>
+        <v>-14.54</v>
       </c>
       <c r="C112" t="n">
-        <v>76.31</v>
+        <v>17.4</v>
       </c>
       <c r="D112" t="n">
-        <v>-29.28</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-4.561</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="113">
@@ -2672,19 +2207,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-32.08</v>
+        <v>-14.55</v>
       </c>
       <c r="C113" t="n">
-        <v>76.06</v>
+        <v>17.31</v>
       </c>
       <c r="D113" t="n">
-        <v>-29.46</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-9.25</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-5.273000000000001</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="114">
@@ -2692,19 +2221,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-30.98</v>
+        <v>-14.67</v>
       </c>
       <c r="C114" t="n">
-        <v>75.37</v>
+        <v>17.21</v>
       </c>
       <c r="D114" t="n">
-        <v>-29.64</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-9.030000000000001</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-5.715000000000002</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="115">
@@ -2712,19 +2235,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-29.82</v>
+        <v>-14.72</v>
       </c>
       <c r="C115" t="n">
-        <v>74.61</v>
+        <v>17.11</v>
       </c>
       <c r="D115" t="n">
-        <v>-29.82</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-8.81</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-6.160000000000001</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="116">
@@ -2732,19 +2249,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-28.46</v>
+        <v>-14.8</v>
       </c>
       <c r="C116" t="n">
-        <v>73.62</v>
+        <v>17.01</v>
       </c>
       <c r="D116" t="n">
-        <v>-30.08</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-8.57</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-6.5</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="117">
@@ -2752,19 +2263,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-30.5</v>
+        <v>-14.86</v>
       </c>
       <c r="C117" t="n">
-        <v>76.15000000000001</v>
+        <v>16.96</v>
       </c>
       <c r="D117" t="n">
-        <v>-30.41</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-8.329999999999998</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-6.910000000000001</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="118">
@@ -2772,19 +2277,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-33.52</v>
+        <v>-14.89</v>
       </c>
       <c r="C118" t="n">
-        <v>79.76000000000001</v>
+        <v>16.83</v>
       </c>
       <c r="D118" t="n">
-        <v>-30.74</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-7.400000000000001</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="119">
@@ -2792,19 +2291,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-36.55</v>
+        <v>-14.97</v>
       </c>
       <c r="C119" t="n">
-        <v>83.38</v>
+        <v>16.67</v>
       </c>
       <c r="D119" t="n">
-        <v>-31.04</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-7.869999999999999</v>
-      </c>
-      <c r="F119" t="n">
-        <v>-7.92</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="120">
@@ -2812,19 +2305,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-40</v>
+        <v>-15.01</v>
       </c>
       <c r="C120" t="n">
-        <v>87</v>
+        <v>16.49</v>
       </c>
       <c r="D120" t="n">
-        <v>-31.18</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-7.659999999999998</v>
-      </c>
-      <c r="F120" t="n">
-        <v>-8.16</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="121">
@@ -2832,19 +2319,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-43.48</v>
+        <v>-15.08</v>
       </c>
       <c r="C121" t="n">
-        <v>90.61</v>
+        <v>16.31</v>
       </c>
       <c r="D121" t="n">
-        <v>-31.32</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-7.489999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>-8.33</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="122">
@@ -2852,19 +2333,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-46.88</v>
+        <v>-15.06</v>
       </c>
       <c r="C122" t="n">
-        <v>93.87</v>
+        <v>16.14</v>
       </c>
       <c r="D122" t="n">
-        <v>-31.39</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-6.599999999999999</v>
-      </c>
-      <c r="F122" t="n">
-        <v>-9</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="123">
@@ -2872,19 +2347,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-50.29</v>
+        <v>-14.74</v>
       </c>
       <c r="C123" t="n">
-        <v>97.2</v>
+        <v>15.8</v>
       </c>
       <c r="D123" t="n">
-        <v>-31.48</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-5.028999999999999</v>
-      </c>
-      <c r="F123" t="n">
-        <v>-10.401</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="124">
@@ -2892,19 +2361,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-53.43</v>
+        <v>-14.36</v>
       </c>
       <c r="C124" t="n">
-        <v>100.61</v>
+        <v>15.46</v>
       </c>
       <c r="D124" t="n">
-        <v>-31.56</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-3.908</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-11.72</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="125">
@@ -2912,19 +2375,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-56.63</v>
+        <v>-13.94</v>
       </c>
       <c r="C125" t="n">
-        <v>104.09</v>
+        <v>15.17</v>
       </c>
       <c r="D125" t="n">
-        <v>-31.63</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="F125" t="n">
-        <v>-12.973</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="126">
@@ -2932,19 +2389,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-60</v>
+        <v>-13.51</v>
       </c>
       <c r="C126" t="n">
-        <v>107.57</v>
+        <v>14.88</v>
       </c>
       <c r="D126" t="n">
-        <v>-31.62</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-1.802</v>
-      </c>
-      <c r="F126" t="n">
-        <v>-14.146</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="127">
@@ -2952,19 +2403,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-60</v>
+        <v>-13.18</v>
       </c>
       <c r="C127" t="n">
-        <v>107.26</v>
+        <v>14.59</v>
       </c>
       <c r="D127" t="n">
-        <v>-31.28</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-0.7339999999999998</v>
-      </c>
-      <c r="F127" t="n">
-        <v>-15.249</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="128">
@@ -2972,19 +2417,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-60</v>
+        <v>-12.81</v>
       </c>
       <c r="C128" t="n">
-        <v>106.86</v>
+        <v>14.27</v>
       </c>
       <c r="D128" t="n">
-        <v>-30.96</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.3830000000000003</v>
-      </c>
-      <c r="F128" t="n">
-        <v>-16.281</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="129">
@@ -2992,19 +2431,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-60</v>
+        <v>-12.45</v>
       </c>
       <c r="C129" t="n">
-        <v>106.55</v>
+        <v>14.01</v>
       </c>
       <c r="D129" t="n">
-        <v>-30.65</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="F129" t="n">
-        <v>-17.313</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="130">
@@ -3012,19 +2445,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-60</v>
+        <v>-12.04</v>
       </c>
       <c r="C130" t="n">
-        <v>106.26</v>
+        <v>13.76</v>
       </c>
       <c r="D130" t="n">
-        <v>-30.44</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.507</v>
-      </c>
-      <c r="F130" t="n">
-        <v>-18.325</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="131">
@@ -3032,19 +2459,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-60</v>
+        <v>-11.9</v>
       </c>
       <c r="C131" t="n">
-        <v>105.9</v>
+        <v>13.53</v>
       </c>
       <c r="D131" t="n">
-        <v>-30.17</v>
-      </c>
-      <c r="E131" t="n">
-        <v>3.663999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-19.397</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="132">
@@ -3052,19 +2473,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-60</v>
+        <v>-11.91</v>
       </c>
       <c r="C132" t="n">
-        <v>105.75</v>
+        <v>13.38</v>
       </c>
       <c r="D132" t="n">
-        <v>-29.88</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-19.969</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="133">
@@ -3072,19 +2487,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-60</v>
+        <v>-12.19</v>
       </c>
       <c r="C133" t="n">
-        <v>105.58</v>
+        <v>13.43</v>
       </c>
       <c r="D133" t="n">
-        <v>-29.54</v>
-      </c>
-      <c r="E133" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-19.97</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="134">
@@ -3092,19 +2501,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-60</v>
+        <v>-12.41</v>
       </c>
       <c r="C134" t="n">
-        <v>105.31</v>
+        <v>13.48</v>
       </c>
       <c r="D134" t="n">
-        <v>-29.19</v>
-      </c>
-      <c r="E134" t="n">
-        <v>3.733000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>-19.833</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="135">
@@ -3112,19 +2515,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-60</v>
+        <v>-12.62</v>
       </c>
       <c r="C135" t="n">
-        <v>104.88</v>
+        <v>13.13</v>
       </c>
       <c r="D135" t="n">
-        <v>-28.84</v>
-      </c>
-      <c r="E135" t="n">
-        <v>3.742</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-19.742</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="136">
@@ -3132,19 +2529,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-60</v>
+        <v>-12.82</v>
       </c>
       <c r="C136" t="n">
-        <v>104.72</v>
+        <v>12.78</v>
       </c>
       <c r="D136" t="n">
-        <v>-28.49</v>
-      </c>
-      <c r="E136" t="n">
-        <v>3.704</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-19.879</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="137">
@@ -3152,19 +2543,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-60</v>
+        <v>-13.04</v>
       </c>
       <c r="C137" t="n">
-        <v>104.81</v>
+        <v>12.45</v>
       </c>
       <c r="D137" t="n">
-        <v>-28.42</v>
-      </c>
-      <c r="E137" t="n">
-        <v>3.586</v>
-      </c>
-      <c r="F137" t="n">
-        <v>-19.916</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="138">
@@ -3172,19 +2557,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-60</v>
+        <v>-13.45</v>
       </c>
       <c r="C138" t="n">
-        <v>104.88</v>
+        <v>12.11</v>
       </c>
       <c r="D138" t="n">
-        <v>-28.32</v>
-      </c>
-      <c r="E138" t="n">
-        <v>3.439</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-19.944</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="139">
@@ -3192,19 +2571,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-60</v>
+        <v>-13.81</v>
       </c>
       <c r="C139" t="n">
-        <v>104.87</v>
+        <v>11.78</v>
       </c>
       <c r="D139" t="n">
-        <v>-28.24</v>
-      </c>
-      <c r="E139" t="n">
-        <v>3.382</v>
-      </c>
-      <c r="F139" t="n">
-        <v>-19.952</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="140">
@@ -3212,19 +2585,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-60</v>
+        <v>-14.28</v>
       </c>
       <c r="C140" t="n">
-        <v>104.84</v>
+        <v>11.45</v>
       </c>
       <c r="D140" t="n">
-        <v>-28.18</v>
-      </c>
-      <c r="E140" t="n">
-        <v>3.365</v>
-      </c>
-      <c r="F140" t="n">
-        <v>-19.97</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="141">
@@ -3232,19 +2599,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-60</v>
+        <v>-14.48</v>
       </c>
       <c r="C141" t="n">
-        <v>104.86</v>
+        <v>11.11</v>
       </c>
       <c r="D141" t="n">
-        <v>-28.18</v>
-      </c>
-      <c r="E141" t="n">
-        <v>3.338</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-19.958</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="142">
@@ -3252,19 +2613,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-60</v>
+        <v>-14.64</v>
       </c>
       <c r="C142" t="n">
-        <v>104.87</v>
+        <v>10.66</v>
       </c>
       <c r="D142" t="n">
-        <v>-28.22</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3.241000000000001</v>
-      </c>
-      <c r="F142" t="n">
-        <v>-19.826</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="143">
@@ -3272,19 +2627,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-60</v>
+        <v>-14.75</v>
       </c>
       <c r="C143" t="n">
-        <v>104.92</v>
+        <v>10.23</v>
       </c>
       <c r="D143" t="n">
-        <v>-28.3</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="F143" t="n">
-        <v>-19.714</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="144">
@@ -3292,19 +2641,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-60</v>
+        <v>-15</v>
       </c>
       <c r="C144" t="n">
-        <v>105.11</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>-28.38</v>
-      </c>
-      <c r="E144" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="F144" t="n">
-        <v>-19.752</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="145">
@@ -3312,19 +2655,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-60</v>
+        <v>-15.23</v>
       </c>
       <c r="C145" t="n">
-        <v>105.33</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>-28.39</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2.830000000000001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>-19.75</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="146">
@@ -3332,19 +2669,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-60</v>
+        <v>-15.53</v>
       </c>
       <c r="C146" t="n">
-        <v>105.65</v>
+        <v>10.05</v>
       </c>
       <c r="D146" t="n">
-        <v>-28.42</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F146" t="n">
-        <v>-19.86</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="147">
@@ -3352,19 +2683,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-60</v>
+        <v>-15.79</v>
       </c>
       <c r="C147" t="n">
-        <v>105.99</v>
+        <v>10.19</v>
       </c>
       <c r="D147" t="n">
-        <v>-28.39</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-20.09</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="148">
@@ -3372,19 +2697,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-60</v>
+        <v>-15.84</v>
       </c>
       <c r="C148" t="n">
-        <v>106.34</v>
+        <v>10.34</v>
       </c>
       <c r="D148" t="n">
-        <v>-28.33</v>
-      </c>
-      <c r="E148" t="n">
-        <v>2.330000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>-20.34</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="149">
@@ -3392,19 +2711,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-60</v>
+        <v>-15.88</v>
       </c>
       <c r="C149" t="n">
-        <v>106.67</v>
+        <v>10.47</v>
       </c>
       <c r="D149" t="n">
-        <v>-28.01</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F149" t="n">
-        <v>-20.79</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="150">
@@ -3412,19 +2725,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-60</v>
+        <v>-15.89</v>
       </c>
       <c r="C150" t="n">
-        <v>106.99</v>
+        <v>10.62</v>
       </c>
       <c r="D150" t="n">
-        <v>-27.64</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>-21.25</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="151">
@@ -3432,19 +2739,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-60</v>
+        <v>-14.77</v>
       </c>
       <c r="C151" t="n">
-        <v>107.33</v>
+        <v>9.67</v>
       </c>
       <c r="D151" t="n">
-        <v>-27.29</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.015</v>
-      </c>
-      <c r="F151" t="n">
-        <v>-21.055</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="152">
@@ -3452,19 +2753,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-60</v>
+        <v>-13.65</v>
       </c>
       <c r="C152" t="n">
-        <v>107.68</v>
+        <v>8.75</v>
       </c>
       <c r="D152" t="n">
-        <v>-27.18</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="F152" t="n">
-        <v>-20.7</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="153">
@@ -3472,19 +2767,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-60</v>
+        <v>-12.59</v>
       </c>
       <c r="C153" t="n">
-        <v>108.03</v>
+        <v>7.88</v>
       </c>
       <c r="D153" t="n">
-        <v>-27.08</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-0.6249999999999999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>-20.325</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="154">
@@ -3492,19 +2781,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-60</v>
+        <v>-11.45</v>
       </c>
       <c r="C154" t="n">
-        <v>107.41</v>
+        <v>6.91</v>
       </c>
       <c r="D154" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="F154" t="n">
-        <v>-18.96</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="155">
@@ -3512,19 +2795,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-60</v>
+        <v>-10.37</v>
       </c>
       <c r="C155" t="n">
-        <v>106.85</v>
+        <v>5.95</v>
       </c>
       <c r="D155" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-2.285</v>
-      </c>
-      <c r="F155" t="n">
-        <v>-17.565</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="156">
@@ -3532,19 +2809,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-60</v>
+        <v>-9.18</v>
       </c>
       <c r="C156" t="n">
-        <v>105.91</v>
+        <v>4.82</v>
       </c>
       <c r="D156" t="n">
-        <v>-26.98</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-3.089999999999999</v>
-      </c>
-      <c r="F156" t="n">
-        <v>-15.84</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="157">
@@ -3552,19 +2823,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-60</v>
+        <v>-7.96</v>
       </c>
       <c r="C157" t="n">
-        <v>104.98</v>
+        <v>3.67</v>
       </c>
       <c r="D157" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-3.884999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>-14.095</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="158">
@@ -3572,19 +2837,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-60</v>
+        <v>-6.8</v>
       </c>
       <c r="C158" t="n">
-        <v>103.99</v>
+        <v>2.51</v>
       </c>
       <c r="D158" t="n">
-        <v>-27.12</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-4.659999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>-12.21</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="159">
@@ -3592,19 +2851,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-60</v>
+        <v>-5.69</v>
       </c>
       <c r="C159" t="n">
-        <v>103.85</v>
+        <v>1.4</v>
       </c>
       <c r="D159" t="n">
-        <v>-28.12</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-5.487</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-10.237</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="160">
@@ -3612,19 +2865,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-60</v>
+        <v>-4.42</v>
       </c>
       <c r="C160" t="n">
-        <v>103.59</v>
+        <v>0.2</v>
       </c>
       <c r="D160" t="n">
-        <v>-29.16</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-6.334</v>
-      </c>
-      <c r="F160" t="n">
-        <v>-8.1</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="161">
@@ -3632,19 +2879,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-60</v>
+        <v>-4.28</v>
       </c>
       <c r="C161" t="n">
-        <v>103.42</v>
+        <v>0.14</v>
       </c>
       <c r="D161" t="n">
-        <v>-30.24</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-6.525999999999999</v>
-      </c>
-      <c r="F161" t="n">
-        <v>-6.648000000000001</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="162">
@@ -3652,19 +2893,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-60</v>
+        <v>-4.12</v>
       </c>
       <c r="C162" t="n">
-        <v>103.46</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>-31.17</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-6.717999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>-5.576</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="163">
@@ -3672,19 +2907,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-60</v>
+        <v>-4.3</v>
       </c>
       <c r="C163" t="n">
-        <v>103.47</v>
+        <v>-0.11</v>
       </c>
       <c r="D163" t="n">
-        <v>-32.15</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-6.74</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-4.584</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="164">
@@ -3692,19 +2921,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-60</v>
+        <v>-4.51</v>
       </c>
       <c r="C164" t="n">
-        <v>104.43</v>
+        <v>-0.24</v>
       </c>
       <c r="D164" t="n">
-        <v>-33.13</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-7.002</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-4.292000000000001</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="165">
@@ -3712,19 +2935,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-60</v>
+        <v>-4.83</v>
       </c>
       <c r="C165" t="n">
-        <v>105.36</v>
+        <v>-0.02</v>
       </c>
       <c r="D165" t="n">
-        <v>-34.11</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-7.203999999999999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>-4.050000000000001</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="166">
@@ -3732,19 +2949,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-60</v>
+        <v>-5.2</v>
       </c>
       <c r="C166" t="n">
-        <v>106.31</v>
+        <v>0.24</v>
       </c>
       <c r="D166" t="n">
-        <v>-35.1</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-7.406000000000001</v>
-      </c>
-      <c r="F166" t="n">
-        <v>-3.798</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="167">
@@ -3752,19 +2963,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-60</v>
+        <v>-5.62</v>
       </c>
       <c r="C167" t="n">
-        <v>107.24</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>-36.08</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-7.597999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-3.566</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="168">
@@ -3772,19 +2977,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-60</v>
+        <v>-6.1</v>
       </c>
       <c r="C168" t="n">
-        <v>108.23</v>
+        <v>0.82</v>
       </c>
       <c r="D168" t="n">
-        <v>-37.05</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-7.970000000000001</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-3.214</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="169">
@@ -3792,19 +2991,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-60</v>
+        <v>-6.66</v>
       </c>
       <c r="C169" t="n">
-        <v>108.38</v>
+        <v>1.14</v>
       </c>
       <c r="D169" t="n">
-        <v>-37.6</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-7.870000000000002</v>
-      </c>
-      <c r="F169" t="n">
-        <v>-2.91</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="170">
@@ -3812,19 +3005,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-60</v>
+        <v>-7.35</v>
       </c>
       <c r="C170" t="n">
-        <v>108.81</v>
+        <v>1.51</v>
       </c>
       <c r="D170" t="n">
-        <v>-38.23</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-7.750000000000002</v>
-      </c>
-      <c r="F170" t="n">
-        <v>-2.83</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="171">
@@ -3832,19 +3019,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-60</v>
+        <v>-8</v>
       </c>
       <c r="C171" t="n">
-        <v>109.09</v>
+        <v>1.86</v>
       </c>
       <c r="D171" t="n">
-        <v>-38.8</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-7.69</v>
-      </c>
-      <c r="F171" t="n">
-        <v>-2.6</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="172">
@@ -3852,19 +3033,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-60</v>
+        <v>-8.67</v>
       </c>
       <c r="C172" t="n">
-        <v>109.15</v>
+        <v>2.2</v>
       </c>
       <c r="D172" t="n">
-        <v>-39.27</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="F172" t="n">
-        <v>-1.73</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="173">
@@ -3872,19 +3047,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-60</v>
+        <v>-8.99</v>
       </c>
       <c r="C173" t="n">
-        <v>109.19</v>
+        <v>2.66</v>
       </c>
       <c r="D173" t="n">
-        <v>-39.66</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-8.75</v>
-      </c>
-      <c r="F173" t="n">
-        <v>-0.78</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="174">
@@ -3892,19 +3061,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-60</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>109.22</v>
+        <v>3.05</v>
       </c>
       <c r="D174" t="n">
-        <v>-39.09</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-9.875999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>-0.2500000000000001</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="175">
@@ -3912,19 +3075,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-60</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="C175" t="n">
-        <v>109.27</v>
+        <v>3.11</v>
       </c>
       <c r="D175" t="n">
-        <v>-38.54</v>
-      </c>
-      <c r="E175" t="n">
-        <v>-11.042</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.3100000000000001</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="176">
@@ -3932,19 +3089,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-60</v>
+        <v>-9.619999999999999</v>
       </c>
       <c r="C176" t="n">
-        <v>108.33</v>
+        <v>3.08</v>
       </c>
       <c r="D176" t="n">
-        <v>-37.96</v>
-      </c>
-      <c r="E176" t="n">
-        <v>-12.218</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.85</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="177">
@@ -3952,19 +3103,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-60</v>
+        <v>-9.74</v>
       </c>
       <c r="C177" t="n">
-        <v>106.89</v>
+        <v>3.05</v>
       </c>
       <c r="D177" t="n">
-        <v>-36.71</v>
-      </c>
-      <c r="E177" t="n">
-        <v>-13.394</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3.21</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="178">
@@ -3972,19 +3117,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-60</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C178" t="n">
-        <v>105.27</v>
+        <v>3.06</v>
       </c>
       <c r="D178" t="n">
-        <v>-35.4</v>
-      </c>
-      <c r="E178" t="n">
-        <v>-14.39</v>
-      </c>
-      <c r="F178" t="n">
-        <v>4.521</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="179">
@@ -3992,19 +3131,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-60</v>
+        <v>-9.76</v>
       </c>
       <c r="C179" t="n">
-        <v>103.59</v>
+        <v>3.03</v>
       </c>
       <c r="D179" t="n">
-        <v>-33.95</v>
-      </c>
-      <c r="E179" t="n">
-        <v>-15.766</v>
-      </c>
-      <c r="F179" t="n">
-        <v>6.132000000000001</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="180">
@@ -4012,19 +3145,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-60</v>
+        <v>-9.74</v>
       </c>
       <c r="C180" t="n">
-        <v>101.67</v>
+        <v>2.89</v>
       </c>
       <c r="D180" t="n">
-        <v>-32.45</v>
-      </c>
-      <c r="E180" t="n">
-        <v>-17.142</v>
-      </c>
-      <c r="F180" t="n">
-        <v>7.923</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="181">
@@ -4032,19 +3159,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-60</v>
+        <v>-9.58</v>
       </c>
       <c r="C181" t="n">
-        <v>99.52</v>
+        <v>2.73</v>
       </c>
       <c r="D181" t="n">
-        <v>-30.61</v>
-      </c>
-      <c r="E181" t="n">
-        <v>-18.448</v>
-      </c>
-      <c r="F181" t="n">
-        <v>9.544</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="182">
@@ -4052,19 +3173,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-60</v>
+        <v>-9.41</v>
       </c>
       <c r="C182" t="n">
-        <v>97.34999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="D182" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="E182" t="n">
-        <v>-19.214</v>
-      </c>
-      <c r="F182" t="n">
-        <v>10.665</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="183">
@@ -4072,19 +3187,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-60</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="C183" t="n">
-        <v>95</v>
+        <v>2.37</v>
       </c>
       <c r="D183" t="n">
-        <v>-27.07</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F183" t="n">
-        <v>12.066</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="184">
@@ -4092,19 +3201,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-60</v>
+        <v>-9.02</v>
       </c>
       <c r="C184" t="n">
-        <v>92.69</v>
+        <v>2.21</v>
       </c>
       <c r="D184" t="n">
-        <v>-26.28</v>
-      </c>
-      <c r="E184" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F184" t="n">
-        <v>13.587</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="185">
@@ -4112,19 +3215,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-60</v>
+        <v>-8.76</v>
       </c>
       <c r="C185" t="n">
-        <v>90.37</v>
+        <v>2.09</v>
       </c>
       <c r="D185" t="n">
-        <v>-25.57</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F185" t="n">
-        <v>15.198</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="186">
@@ -4132,19 +3229,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-60</v>
+        <v>-8.59</v>
       </c>
       <c r="C186" t="n">
-        <v>88.94</v>
+        <v>2.02</v>
       </c>
       <c r="D186" t="n">
-        <v>-24.87</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F186" t="n">
-        <v>15.929</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="187">
@@ -4152,19 +3243,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-60</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="C187" t="n">
-        <v>88.08</v>
+        <v>1.94</v>
       </c>
       <c r="D187" t="n">
-        <v>-24.88</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F187" t="n">
-        <v>16.803</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="188">
@@ -4172,19 +3257,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-60</v>
+        <v>-8</v>
       </c>
       <c r="C188" t="n">
-        <v>87.38</v>
+        <v>1.86</v>
       </c>
       <c r="D188" t="n">
-        <v>-24.9</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F188" t="n">
-        <v>17.526</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="189">
@@ -4192,19 +3271,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-60</v>
+        <v>-7.72</v>
       </c>
       <c r="C189" t="n">
-        <v>86.75</v>
+        <v>1.77</v>
       </c>
       <c r="D189" t="n">
-        <v>-24.84</v>
-      </c>
-      <c r="E189" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F189" t="n">
-        <v>18.089</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="190">
@@ -4212,19 +3285,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-60</v>
+        <v>-7.43</v>
       </c>
       <c r="C190" t="n">
-        <v>86.2</v>
+        <v>1.83</v>
       </c>
       <c r="D190" t="n">
-        <v>-24.77</v>
-      </c>
-      <c r="E190" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F190" t="n">
-        <v>18.572</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="191">
@@ -4232,19 +3299,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-60</v>
+        <v>-7.33</v>
       </c>
       <c r="C191" t="n">
-        <v>85.95999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="D191" t="n">
-        <v>-25.02</v>
-      </c>
-      <c r="E191" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F191" t="n">
-        <v>19.065</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="192">
@@ -4252,19 +3313,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-60</v>
+        <v>-7.25</v>
       </c>
       <c r="C192" t="n">
-        <v>85.72</v>
+        <v>1.56</v>
       </c>
       <c r="D192" t="n">
-        <v>-25.27</v>
-      </c>
-      <c r="E192" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F192" t="n">
-        <v>19.548</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="193">
@@ -4272,19 +3327,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-60</v>
+        <v>-7.17</v>
       </c>
       <c r="C193" t="n">
-        <v>85.72</v>
+        <v>1.43</v>
       </c>
       <c r="D193" t="n">
-        <v>-25.45</v>
-      </c>
-      <c r="E193" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F193" t="n">
-        <v>19.751</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="194">
@@ -4292,19 +3341,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-60</v>
+        <v>-7.08</v>
       </c>
       <c r="C194" t="n">
-        <v>86.14</v>
+        <v>1.29</v>
       </c>
       <c r="D194" t="n">
-        <v>-26.07</v>
-      </c>
-      <c r="E194" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F194" t="n">
-        <v>19.954</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="195">
@@ -4312,19 +3355,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-60</v>
+        <v>-7.08</v>
       </c>
       <c r="C195" t="n">
-        <v>86.31</v>
+        <v>1.05</v>
       </c>
       <c r="D195" t="n">
-        <v>-26.62</v>
-      </c>
-      <c r="E195" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F195" t="n">
-        <v>20.327</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="196">
@@ -4332,19 +3369,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-60</v>
+        <v>-7.14</v>
       </c>
       <c r="C196" t="n">
-        <v>86.55</v>
+        <v>0.85</v>
       </c>
       <c r="D196" t="n">
-        <v>-27.12</v>
-      </c>
-      <c r="E196" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F196" t="n">
-        <v>20.59</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="197">
@@ -4352,19 +3383,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-60</v>
+        <v>-7.29</v>
       </c>
       <c r="C197" t="n">
-        <v>86.73999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="D197" t="n">
-        <v>-27.63</v>
-      </c>
-      <c r="E197" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F197" t="n">
-        <v>20.91</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="198">
@@ -4372,19 +3397,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-60</v>
+        <v>-7.4</v>
       </c>
       <c r="C198" t="n">
-        <v>87.51000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="D198" t="n">
-        <v>-28.18</v>
-      </c>
-      <c r="E198" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F198" t="n">
-        <v>20.685</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="199">
@@ -4392,19 +3411,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-60</v>
+        <v>-7.47</v>
       </c>
       <c r="C199" t="n">
-        <v>88.43000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D199" t="n">
-        <v>-28.85</v>
-      </c>
-      <c r="E199" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F199" t="n">
-        <v>20.44</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="200">
@@ -4412,19 +3425,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-60</v>
+        <v>-7.54</v>
       </c>
       <c r="C200" t="n">
-        <v>89.38</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D200" t="n">
-        <v>-29.53</v>
-      </c>
-      <c r="E200" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F200" t="n">
-        <v>20.175</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="201">
@@ -4432,19 +3439,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-60</v>
+        <v>-7.46</v>
       </c>
       <c r="C201" t="n">
-        <v>90.31</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>-30.22</v>
-      </c>
-      <c r="E201" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F201" t="n">
-        <v>19.93</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="202">
@@ -4452,19 +3453,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-60</v>
+        <v>-7.37</v>
       </c>
       <c r="C202" t="n">
-        <v>91.20999999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="D202" t="n">
-        <v>-30.93</v>
-      </c>
-      <c r="E202" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F202" t="n">
-        <v>19.735</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="203">
@@ -4472,19 +3467,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-60</v>
+        <v>-7.3</v>
       </c>
       <c r="C203" t="n">
-        <v>92.06999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="D203" t="n">
-        <v>-31.59</v>
-      </c>
-      <c r="E203" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F203" t="n">
-        <v>19.52</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="204">
@@ -4492,19 +3481,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-60</v>
+        <v>-7.44</v>
       </c>
       <c r="C204" t="n">
-        <v>92.48</v>
+        <v>0.11</v>
       </c>
       <c r="D204" t="n">
-        <v>-31.88</v>
-      </c>
-      <c r="E204" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F204" t="n">
-        <v>19.394</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="205">
@@ -4512,19 +3495,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-60</v>
+        <v>-7.5</v>
       </c>
       <c r="C205" t="n">
-        <v>93.17</v>
+        <v>0.28</v>
       </c>
       <c r="D205" t="n">
-        <v>-32.15</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F205" t="n">
-        <v>18.988</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="206">
@@ -4532,19 +3509,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-60</v>
+        <v>-7.51</v>
       </c>
       <c r="C206" t="n">
-        <v>93.81</v>
+        <v>0.39</v>
       </c>
       <c r="D206" t="n">
-        <v>-32.4</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F206" t="n">
-        <v>18.592</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="207">
@@ -4552,19 +3523,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-60</v>
+        <v>-6.99</v>
       </c>
       <c r="C207" t="n">
-        <v>94.43000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="D207" t="n">
-        <v>-32.63</v>
-      </c>
-      <c r="E207" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F207" t="n">
-        <v>18.196</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="208">
@@ -4572,19 +3537,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-60</v>
+        <v>-6.54</v>
       </c>
       <c r="C208" t="n">
-        <v>94.19</v>
+        <v>-0.11</v>
       </c>
       <c r="D208" t="n">
-        <v>-32.8</v>
-      </c>
-      <c r="E208" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F208" t="n">
-        <v>18.605</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="209">
@@ -4592,19 +3551,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-60</v>
+        <v>-6.21</v>
       </c>
       <c r="C209" t="n">
-        <v>93.83</v>
+        <v>-0.33</v>
       </c>
       <c r="D209" t="n">
-        <v>-32.86</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F209" t="n">
-        <v>19.034</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="210">
@@ -4612,19 +3565,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-60</v>
+        <v>-5.91</v>
       </c>
       <c r="C210" t="n">
-        <v>93.8</v>
+        <v>-0.63</v>
       </c>
       <c r="D210" t="n">
-        <v>-33.19</v>
-      </c>
-      <c r="E210" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F210" t="n">
-        <v>19.393</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="211">
@@ -4632,19 +3579,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-60</v>
+        <v>-5.76</v>
       </c>
       <c r="C211" t="n">
-        <v>93.75</v>
+        <v>-0.87</v>
       </c>
       <c r="D211" t="n">
-        <v>-33.41</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F211" t="n">
-        <v>19.662</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="212">
@@ -4652,19 +3593,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-60</v>
+        <v>-5.6</v>
       </c>
       <c r="C212" t="n">
-        <v>93.62</v>
+        <v>-1.22</v>
       </c>
       <c r="D212" t="n">
-        <v>-33.47</v>
-      </c>
-      <c r="E212" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F212" t="n">
-        <v>19.851</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="213">
@@ -4672,19 +3607,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-60</v>
+        <v>-5.5</v>
       </c>
       <c r="C213" t="n">
-        <v>92.43000000000001</v>
+        <v>-1.42</v>
       </c>
       <c r="D213" t="n">
-        <v>-32.47</v>
-      </c>
-      <c r="E213" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F213" t="n">
-        <v>20.04</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="214">
@@ -4692,19 +3621,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-60</v>
+        <v>-5.24</v>
       </c>
       <c r="C214" t="n">
-        <v>91.25</v>
+        <v>-1.58</v>
       </c>
       <c r="D214" t="n">
-        <v>-31.4</v>
-      </c>
-      <c r="E214" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F214" t="n">
-        <v>20.15</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="215">
@@ -4712,19 +3635,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-60</v>
+        <v>-4.98</v>
       </c>
       <c r="C215" t="n">
-        <v>90.52</v>
+        <v>-1.78</v>
       </c>
       <c r="D215" t="n">
-        <v>-30.35</v>
-      </c>
-      <c r="E215" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F215" t="n">
-        <v>19.83000000000001</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="216">
@@ -4732,19 +3649,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-60</v>
+        <v>-4.66</v>
       </c>
       <c r="C216" t="n">
-        <v>89.84999999999999</v>
+        <v>-1.97</v>
       </c>
       <c r="D216" t="n">
-        <v>-29.38</v>
-      </c>
-      <c r="E216" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F216" t="n">
-        <v>19.53</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="217">
@@ -4752,19 +3663,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-60</v>
+        <v>-4.75</v>
       </c>
       <c r="C217" t="n">
-        <v>88.98</v>
+        <v>-1.83</v>
       </c>
       <c r="D217" t="n">
-        <v>-28.01</v>
-      </c>
-      <c r="E217" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F217" t="n">
-        <v>19.03</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="218">
@@ -4772,19 +3677,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-60</v>
+        <v>-4.21</v>
       </c>
       <c r="C218" t="n">
-        <v>88.33</v>
+        <v>-1.7</v>
       </c>
       <c r="D218" t="n">
-        <v>-26.72</v>
-      </c>
-      <c r="E218" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F218" t="n">
-        <v>18.39</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="219">
@@ -4792,19 +3691,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-60</v>
+        <v>-3.44</v>
       </c>
       <c r="C219" t="n">
-        <v>87.66</v>
+        <v>-1.57</v>
       </c>
       <c r="D219" t="n">
-        <v>-25.42</v>
-      </c>
-      <c r="E219" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F219" t="n">
-        <v>17.76</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="220">
@@ -4812,19 +3705,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-60</v>
+        <v>-2.5</v>
       </c>
       <c r="C220" t="n">
-        <v>86.81999999999999</v>
+        <v>-1.44</v>
       </c>
       <c r="D220" t="n">
-        <v>-23.84</v>
-      </c>
-      <c r="E220" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F220" t="n">
-        <v>17.02</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="221">
@@ -4832,19 +3719,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-60</v>
+        <v>-1.54</v>
       </c>
       <c r="C221" t="n">
-        <v>85.98999999999999</v>
+        <v>-1.35</v>
       </c>
       <c r="D221" t="n">
-        <v>-22.4</v>
-      </c>
-      <c r="E221" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F221" t="n">
-        <v>16.41</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="222">
@@ -4852,19 +3733,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-60</v>
+        <v>-0.65</v>
       </c>
       <c r="C222" t="n">
-        <v>85.28</v>
+        <v>-1.13</v>
       </c>
       <c r="D222" t="n">
-        <v>-21.09</v>
-      </c>
-      <c r="E222" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F222" t="n">
-        <v>15.81</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="223">
@@ -4872,19 +3747,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-60</v>
+        <v>0.29</v>
       </c>
       <c r="C223" t="n">
-        <v>85.56999999999999</v>
+        <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>-20.79</v>
-      </c>
-      <c r="E223" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F223" t="n">
-        <v>15.22</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="224">
@@ -4892,19 +3761,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-60</v>
+        <v>1.29</v>
       </c>
       <c r="C224" t="n">
-        <v>85.87</v>
+        <v>-0.91</v>
       </c>
       <c r="D224" t="n">
-        <v>-20.51</v>
-      </c>
-      <c r="E224" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F224" t="n">
-        <v>14.64</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="225">
@@ -4912,19 +3775,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-60</v>
+        <v>2.21</v>
       </c>
       <c r="C225" t="n">
-        <v>86.2</v>
+        <v>-1.08</v>
       </c>
       <c r="D225" t="n">
-        <v>-21.19</v>
-      </c>
-      <c r="E225" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F225" t="n">
-        <v>14.99</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="226">
@@ -4932,19 +3789,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-60</v>
+        <v>3.01</v>
       </c>
       <c r="C226" t="n">
-        <v>86.53</v>
+        <v>-2.1</v>
       </c>
       <c r="D226" t="n">
-        <v>-21.85</v>
-      </c>
-      <c r="E226" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F226" t="n">
-        <v>15.32</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="227">
@@ -4952,23 +3803,17 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-60</v>
+        <v>3.57</v>
       </c>
       <c r="C227" t="n">
-        <v>87.05</v>
+        <v>-3.07</v>
       </c>
       <c r="D227" t="n">
-        <v>-22.9</v>
-      </c>
-      <c r="E227" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F227" t="n">
-        <v>15.85</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (05/31/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/24/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -249,6 +249,60 @@
           <val>
             <numRef>
               <f>'data'!$D$2:$D$227</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$227</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$227</f>
             </numRef>
           </val>
         </ser>
@@ -618,7 +672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,15 +688,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Fish</t>
         </is>
@@ -667,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.39</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.28</v>
+        <v>1.1</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
@@ -681,13 +745,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.21</v>
+        <v>-1.33</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.45</v>
+        <v>1.43</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
@@ -695,13 +759,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18</v>
+        <v>1.95</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.58</v>
+        <v>1.46</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="6">
@@ -709,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.16</v>
+        <v>3.9</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.68</v>
+        <v>1.49</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="7">
@@ -723,13 +787,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.19</v>
+        <v>5.25</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.78</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.58</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="8">
@@ -737,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12</v>
+        <v>6.23</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.66</v>
+        <v>1.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.54</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="9">
@@ -751,13 +815,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07000000000000001</v>
+        <v>6.96</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.65</v>
+        <v>1.52</v>
       </c>
       <c r="D9" t="n">
-        <v>0.57</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -765,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.01</v>
+        <v>7.6</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.64</v>
+        <v>1.52</v>
       </c>
       <c r="D10" t="n">
-        <v>0.65</v>
+        <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -779,13 +843,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.59</v>
+        <v>1.52</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6899999999999999</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -793,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.59</v>
+        <v>1.52</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6899999999999999</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -807,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.18</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.59</v>
+        <v>1.65</v>
       </c>
       <c r="D13" t="n">
-        <v>0.78</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="14">
@@ -821,13 +885,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.33</v>
+        <v>11.31</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.53</v>
+        <v>1.56</v>
       </c>
       <c r="D14" t="n">
-        <v>0.86</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="15">
@@ -835,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4</v>
+        <v>13.25</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.17</v>
+        <v>1.47</v>
       </c>
       <c r="D15" t="n">
-        <v>0.57</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="16">
@@ -849,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.43</v>
+        <v>13.8</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2</v>
+        <v>1.45</v>
       </c>
       <c r="D16" t="n">
-        <v>0.23</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="17">
@@ -863,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.44</v>
+        <v>13.79</v>
       </c>
       <c r="C17" t="n">
-        <v>0.58</v>
+        <v>2.06</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.14</v>
+        <v>-15.85</v>
       </c>
     </row>
     <row r="18">
@@ -877,13 +941,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.63</v>
+        <v>13.45</v>
       </c>
       <c r="C18" t="n">
-        <v>1.13</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5</v>
+        <v>-16.45</v>
       </c>
     </row>
     <row r="19">
@@ -891,13 +955,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.75</v>
+        <v>13.09</v>
       </c>
       <c r="C19" t="n">
-        <v>1.5</v>
+        <v>3.99</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.75</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="20">
@@ -905,13 +969,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.86</v>
+        <v>12.82</v>
       </c>
       <c r="C20" t="n">
-        <v>1.93</v>
+        <v>4.9</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.06</v>
+        <v>-17.72</v>
       </c>
     </row>
     <row r="21">
@@ -919,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.89</v>
+        <v>12.49</v>
       </c>
       <c r="C21" t="n">
-        <v>2.31</v>
+        <v>5.81</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.42</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="22">
@@ -933,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.82</v>
+        <v>12.27</v>
       </c>
       <c r="C22" t="n">
-        <v>2.64</v>
+        <v>6.67</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.82</v>
+        <v>-18.94</v>
       </c>
     </row>
     <row r="23">
@@ -947,13 +1011,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.78</v>
+        <v>12.16</v>
       </c>
       <c r="C23" t="n">
-        <v>2.99</v>
+        <v>7.47</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.21</v>
+        <v>-19.62</v>
       </c>
     </row>
     <row r="24">
@@ -961,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.72</v>
+        <v>11.61</v>
       </c>
       <c r="C24" t="n">
-        <v>3.32</v>
+        <v>8.27</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.6</v>
+        <v>-19.88</v>
       </c>
     </row>
     <row r="25">
@@ -975,13 +1039,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.63</v>
+        <v>11.03</v>
       </c>
       <c r="C25" t="n">
-        <v>3.39</v>
+        <v>9.09</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.76</v>
+        <v>-20.12</v>
       </c>
     </row>
     <row r="26">
@@ -989,13 +1053,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.57</v>
+        <v>10.27</v>
       </c>
       <c r="C26" t="n">
-        <v>3.45</v>
+        <v>11.51</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.87</v>
+        <v>-21.78</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1067,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.55</v>
+        <v>10.07</v>
       </c>
       <c r="C27" t="n">
-        <v>3.54</v>
+        <v>13.3</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.99</v>
+        <v>-23.37</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1081,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.37</v>
+        <v>10.24</v>
       </c>
       <c r="C28" t="n">
-        <v>3.47</v>
+        <v>14.75</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.1</v>
+        <v>-24.99</v>
       </c>
     </row>
     <row r="29">
@@ -1031,13 +1095,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.25</v>
+        <v>10.42</v>
       </c>
       <c r="C29" t="n">
-        <v>3.45</v>
+        <v>16.16</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.2</v>
+        <v>-26.58</v>
       </c>
     </row>
     <row r="30">
@@ -1045,13 +1109,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.23</v>
+        <v>10.5</v>
       </c>
       <c r="C30" t="n">
-        <v>3.22</v>
+        <v>17.65</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.99</v>
+        <v>-28.18</v>
       </c>
     </row>
     <row r="31">
@@ -1059,13 +1123,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.23</v>
+        <v>10.59</v>
       </c>
       <c r="C31" t="n">
-        <v>3.03</v>
+        <v>19.14</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.8</v>
+        <v>-29.79</v>
       </c>
     </row>
     <row r="32">
@@ -1073,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.25</v>
+        <v>10.5</v>
       </c>
       <c r="C32" t="n">
-        <v>2.84</v>
+        <v>20.69</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.6</v>
+        <v>-31.28</v>
       </c>
     </row>
     <row r="33">
@@ -1087,13 +1151,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.26</v>
+        <v>10.25</v>
       </c>
       <c r="C33" t="n">
-        <v>2.72</v>
+        <v>22.35</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.46</v>
+        <v>-32.69</v>
       </c>
     </row>
     <row r="34">
@@ -1101,13 +1165,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.32</v>
+        <v>10.04</v>
       </c>
       <c r="C34" t="n">
-        <v>2.61</v>
+        <v>23.98</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.3</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="35">
@@ -1115,13 +1179,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.41</v>
+        <v>9.92</v>
       </c>
       <c r="C35" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.15</v>
+        <v>-35.61</v>
       </c>
     </row>
     <row r="36">
@@ -1129,13 +1193,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.5600000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="C36" t="n">
-        <v>2.56</v>
+        <v>25.72</v>
       </c>
       <c r="D36" t="n">
-        <v>-2</v>
+        <v>-35.75</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1143,13 +1210,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.6899999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>2.54</v>
+        <v>25.83</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.85</v>
+        <v>-35.87</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1157,13 +1227,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.43</v>
+        <v>9.84</v>
       </c>
       <c r="C38" t="n">
-        <v>2.54</v>
+        <v>26.07</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.12</v>
+        <v>-36.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.06666666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1171,13 +1244,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-2.06</v>
+        <v>9.76</v>
       </c>
       <c r="C39" t="n">
-        <v>2.52</v>
+        <v>26.3</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.46</v>
+        <v>-36.12</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.125</v>
       </c>
     </row>
     <row r="40">
@@ -1185,13 +1261,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-2.61</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>2.7</v>
+        <v>26.5</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.09</v>
+        <v>-36.23</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="41">
@@ -1199,13 +1278,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-3.21</v>
+        <v>9.84</v>
       </c>
       <c r="C41" t="n">
-        <v>2.89</v>
+        <v>26.7</v>
       </c>
       <c r="D41" t="n">
-        <v>0.32</v>
+        <v>-36.48</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.2833333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1213,13 +1295,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-3.88</v>
+        <v>10.08</v>
       </c>
       <c r="C42" t="n">
-        <v>3.06</v>
+        <v>26.89</v>
       </c>
       <c r="D42" t="n">
-        <v>0.82</v>
+        <v>-36.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="43">
@@ -1227,13 +1312,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-4.53</v>
+        <v>10.47</v>
       </c>
       <c r="C43" t="n">
-        <v>3.15</v>
+        <v>27.05</v>
       </c>
       <c r="D43" t="n">
-        <v>1.38</v>
+        <v>-37.25</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.4999999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1241,13 +1329,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.25</v>
+        <v>10.81</v>
       </c>
       <c r="C44" t="n">
-        <v>3.23</v>
+        <v>27.26</v>
       </c>
       <c r="D44" t="n">
-        <v>2.02</v>
+        <v>-37.67</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.5777777777777778</v>
       </c>
     </row>
     <row r="45">
@@ -1255,13 +1346,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-5.9</v>
+        <v>11.07</v>
       </c>
       <c r="C45" t="n">
-        <v>3.21</v>
+        <v>27.52</v>
       </c>
       <c r="D45" t="n">
-        <v>2.69</v>
+        <v>-38.07</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.6399999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1269,13 +1363,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-6.71</v>
+        <v>11.45</v>
       </c>
       <c r="C46" t="n">
-        <v>3.1</v>
+        <v>27.61</v>
       </c>
       <c r="D46" t="n">
-        <v>3.6</v>
+        <v>-38.42</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.6399999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1283,13 +1380,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-7.53</v>
+        <v>11.86</v>
       </c>
       <c r="C47" t="n">
-        <v>2.98</v>
+        <v>27.71</v>
       </c>
       <c r="D47" t="n">
-        <v>4.56</v>
+        <v>-38.78</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="48">
@@ -1297,13 +1397,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-7.77</v>
+        <v>12.39</v>
       </c>
       <c r="C48" t="n">
-        <v>2.86</v>
+        <v>27.63</v>
       </c>
       <c r="D48" t="n">
-        <v>4.91</v>
+        <v>-39.09</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.93</v>
       </c>
     </row>
     <row r="49">
@@ -1311,13 +1414,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-8.109999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="C49" t="n">
-        <v>2.88</v>
+        <v>27.54</v>
       </c>
       <c r="D49" t="n">
-        <v>5.23</v>
+        <v>-39.43</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="50">
@@ -1325,13 +1431,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-8.460000000000001</v>
+        <v>13.39</v>
       </c>
       <c r="C50" t="n">
-        <v>2.94</v>
+        <v>27.48</v>
       </c>
       <c r="D50" t="n">
-        <v>5.52</v>
+        <v>-39.79</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="51">
@@ -1339,13 +1448,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-8.800000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="C51" t="n">
-        <v>3.02</v>
+        <v>27.45</v>
       </c>
       <c r="D51" t="n">
-        <v>5.78</v>
+        <v>-39.98</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="52">
@@ -1353,13 +1465,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-9.1</v>
+        <v>13.94</v>
       </c>
       <c r="C52" t="n">
-        <v>3.11</v>
+        <v>27.45</v>
       </c>
       <c r="D52" t="n">
-        <v>5.99</v>
+        <v>-40.18</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1367,13 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-9.82</v>
+        <v>14.1</v>
       </c>
       <c r="C53" t="n">
-        <v>3.62</v>
+        <v>27.39</v>
       </c>
       <c r="D53" t="n">
-        <v>6.2</v>
+        <v>-40.26</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="54">
@@ -1381,13 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-10.57</v>
+        <v>14.25</v>
       </c>
       <c r="C54" t="n">
-        <v>4.31</v>
+        <v>27.33</v>
       </c>
       <c r="D54" t="n">
-        <v>6.25</v>
+        <v>-40.32</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="55">
@@ -1395,13 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-11.33</v>
+        <v>14.45</v>
       </c>
       <c r="C55" t="n">
-        <v>5.04</v>
+        <v>27.2</v>
       </c>
       <c r="D55" t="n">
-        <v>6.29</v>
+        <v>-40.34</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="56">
@@ -1409,13 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-11.95</v>
+        <v>14.64</v>
       </c>
       <c r="C56" t="n">
-        <v>5.86</v>
+        <v>27.13</v>
       </c>
       <c r="D56" t="n">
-        <v>6.09</v>
+        <v>-40.35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="57">
@@ -1423,13 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-12.45</v>
+        <v>14.81</v>
       </c>
       <c r="C57" t="n">
-        <v>6.67</v>
+        <v>27.07</v>
       </c>
       <c r="D57" t="n">
-        <v>5.79</v>
+        <v>-40.36</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="58">
@@ -1437,13 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-12.94</v>
+        <v>14.91</v>
       </c>
       <c r="C58" t="n">
-        <v>7.36</v>
+        <v>27.06</v>
       </c>
       <c r="D58" t="n">
-        <v>5.58</v>
+        <v>-40.39</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.3428571428571429</v>
       </c>
     </row>
     <row r="59">
@@ -1451,13 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-13.55</v>
+        <v>14.81</v>
       </c>
       <c r="C59" t="n">
-        <v>7.94</v>
+        <v>28.24</v>
       </c>
       <c r="D59" t="n">
-        <v>5.62</v>
+        <v>-41.34</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.6600000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1465,13 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-14.16</v>
+        <v>14.64</v>
       </c>
       <c r="C60" t="n">
-        <v>8.460000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="D60" t="n">
-        <v>5.7</v>
+        <v>-42.28</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.9955555555555556</v>
       </c>
     </row>
     <row r="61">
@@ -1479,13 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-14.75</v>
+        <v>14.59</v>
       </c>
       <c r="C61" t="n">
-        <v>8.949999999999999</v>
+        <v>31.13</v>
       </c>
       <c r="D61" t="n">
-        <v>5.79</v>
+        <v>-43.21</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.264</v>
       </c>
     </row>
     <row r="62">
@@ -1493,13 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-15.42</v>
+        <v>14.71</v>
       </c>
       <c r="C62" t="n">
-        <v>9.449999999999999</v>
+        <v>32.37</v>
       </c>
       <c r="D62" t="n">
-        <v>5.97</v>
+        <v>-44.13</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.264</v>
       </c>
     </row>
     <row r="63">
@@ -1507,13 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-15.67</v>
+        <v>14.83</v>
       </c>
       <c r="C63" t="n">
-        <v>9.48</v>
+        <v>33.64</v>
       </c>
       <c r="D63" t="n">
-        <v>6.19</v>
+        <v>-45.11</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-1.802</v>
       </c>
     </row>
     <row r="64">
@@ -1521,13 +1705,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-15.83</v>
+        <v>14.18</v>
       </c>
       <c r="C64" t="n">
-        <v>9.380000000000001</v>
+        <v>35.74</v>
       </c>
       <c r="D64" t="n">
-        <v>6.45</v>
+        <v>-46.11</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-2.377</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-16.06</v>
+        <v>13.5</v>
       </c>
       <c r="C65" t="n">
-        <v>9.49</v>
+        <v>37.85</v>
       </c>
       <c r="D65" t="n">
-        <v>6.57</v>
+        <v>-47.09</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.922</v>
       </c>
     </row>
     <row r="66">
@@ -1549,13 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-16.29</v>
+        <v>12.76</v>
       </c>
       <c r="C66" t="n">
-        <v>9.73</v>
+        <v>40.05</v>
       </c>
       <c r="D66" t="n">
-        <v>6.56</v>
+        <v>-48.06</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.547</v>
       </c>
     </row>
     <row r="67">
@@ -1563,13 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-16.62</v>
+        <v>12.02</v>
       </c>
       <c r="C67" t="n">
-        <v>9.99</v>
+        <v>42.12</v>
       </c>
       <c r="D67" t="n">
-        <v>6.63</v>
+        <v>-49.04</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-4.052</v>
       </c>
     </row>
     <row r="68">
@@ -1577,13 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-16.97</v>
+        <v>11.1</v>
       </c>
       <c r="C68" t="n">
-        <v>10.39</v>
+        <v>44.21</v>
       </c>
       <c r="D68" t="n">
-        <v>6.58</v>
+        <v>-50</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-4.377000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1591,13 +1805,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-17.15</v>
+        <v>10.54</v>
       </c>
       <c r="C69" t="n">
-        <v>10.81</v>
+        <v>45.11</v>
       </c>
       <c r="D69" t="n">
-        <v>6.34</v>
+        <v>-50</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.8899999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-4.762000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1605,13 +1825,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-17.33</v>
+        <v>9.98</v>
       </c>
       <c r="C70" t="n">
-        <v>11.28</v>
+        <v>45.71</v>
       </c>
       <c r="D70" t="n">
-        <v>6.05</v>
+        <v>-50</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-4.829000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1619,13 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-17.46</v>
+        <v>9.32</v>
       </c>
       <c r="C71" t="n">
-        <v>11.75</v>
+        <v>46.25</v>
       </c>
       <c r="D71" t="n">
-        <v>5.72</v>
+        <v>-50</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.8099999999999998</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-4.756000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1633,13 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-17.46</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>12.2</v>
+        <v>46.96</v>
       </c>
       <c r="D72" t="n">
-        <v>5.27</v>
+        <v>-50</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.7899999999999998</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-4.723000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1647,13 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-17.46</v>
+        <v>7.71</v>
       </c>
       <c r="C73" t="n">
-        <v>12.65</v>
+        <v>47.69</v>
       </c>
       <c r="D73" t="n">
-        <v>4.8</v>
+        <v>-50</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-4.180000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1661,13 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-17.12</v>
+        <v>7.71</v>
       </c>
       <c r="C74" t="n">
-        <v>12.93</v>
+        <v>47.53</v>
       </c>
       <c r="D74" t="n">
-        <v>4.19</v>
+        <v>-50</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-1.660000000000001</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.58</v>
       </c>
     </row>
     <row r="75">
@@ -1675,13 +1925,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-16.73</v>
+        <v>7.73</v>
       </c>
       <c r="C75" t="n">
-        <v>12.89</v>
+        <v>47.36</v>
       </c>
       <c r="D75" t="n">
-        <v>3.85</v>
+        <v>-50</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-3.009999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1689,13 +1945,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-16.32</v>
+        <v>7.5</v>
       </c>
       <c r="C76" t="n">
-        <v>12.65</v>
+        <v>47.09</v>
       </c>
       <c r="D76" t="n">
-        <v>3.67</v>
+        <v>-50</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-2.11</v>
       </c>
     </row>
     <row r="77">
@@ -1703,13 +1965,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-16.06</v>
+        <v>7.26</v>
       </c>
       <c r="C77" t="n">
-        <v>12.43</v>
+        <v>46.94</v>
       </c>
       <c r="D77" t="n">
-        <v>3.63</v>
+        <v>-50</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="78">
@@ -1717,13 +1985,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-15.8</v>
+        <v>7.2</v>
       </c>
       <c r="C78" t="n">
-        <v>12.45</v>
+        <v>46.77</v>
       </c>
       <c r="D78" t="n">
-        <v>3.35</v>
+        <v>-50</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="79">
@@ -1731,13 +2005,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-15.34</v>
+        <v>6.64</v>
       </c>
       <c r="C79" t="n">
-        <v>12.43</v>
+        <v>47.04</v>
       </c>
       <c r="D79" t="n">
-        <v>2.91</v>
+        <v>-50</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3.699999999999999</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.02000000000000011</v>
       </c>
     </row>
     <row r="80">
@@ -1745,13 +2025,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-14.89</v>
+        <v>6.16</v>
       </c>
       <c r="C80" t="n">
-        <v>12.39</v>
+        <v>47.33</v>
       </c>
       <c r="D80" t="n">
-        <v>2.5</v>
+        <v>-50</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-4.089999999999999</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1759,13 +2045,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-14.49</v>
+        <v>4.75</v>
       </c>
       <c r="C81" t="n">
-        <v>12.39</v>
+        <v>48.7</v>
       </c>
       <c r="D81" t="n">
-        <v>2.09</v>
+        <v>-50</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-4.499999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="82">
@@ -1773,13 +2065,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-14.23</v>
+        <v>3.26</v>
       </c>
       <c r="C82" t="n">
-        <v>12.54</v>
+        <v>50.1</v>
       </c>
       <c r="D82" t="n">
-        <v>1.69</v>
+        <v>-50</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="83">
@@ -1787,13 +2085,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-13.99</v>
+        <v>1.78</v>
       </c>
       <c r="C83" t="n">
-        <v>12.65</v>
+        <v>51.5</v>
       </c>
       <c r="D83" t="n">
-        <v>1.35</v>
+        <v>-50</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="84">
@@ -1801,13 +2105,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-14.16</v>
+        <v>0.25</v>
       </c>
       <c r="C84" t="n">
-        <v>13.02</v>
+        <v>52.95</v>
       </c>
       <c r="D84" t="n">
-        <v>1.14</v>
+        <v>-50</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-5.11</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="85">
@@ -1815,13 +2125,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-14.32</v>
+        <v>-1.29</v>
       </c>
       <c r="C85" t="n">
-        <v>13.69</v>
+        <v>54.41</v>
       </c>
       <c r="D85" t="n">
-        <v>0.63</v>
+        <v>-50</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-5.24</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="86">
@@ -1829,13 +2145,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-14.49</v>
+        <v>-2.58</v>
       </c>
       <c r="C86" t="n">
-        <v>14.36</v>
+        <v>55.79</v>
       </c>
       <c r="D86" t="n">
-        <v>0.14</v>
+        <v>-50</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="87">
@@ -1843,13 +2165,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-14.53</v>
+        <v>-5.16</v>
       </c>
       <c r="C87" t="n">
-        <v>15.06</v>
+        <v>58.55</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.53</v>
+        <v>-50</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="88">
@@ -1857,13 +2185,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-14.55</v>
+        <v>-7.73</v>
       </c>
       <c r="C88" t="n">
-        <v>15.47</v>
+        <v>61.27</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.92</v>
+        <v>-50</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-5.726999999999999</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.194</v>
       </c>
     </row>
     <row r="89">
@@ -1871,13 +2205,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-14.76</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>15.88</v>
+        <v>63.67</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.13</v>
+        <v>-50.12</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-5.864</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.278</v>
       </c>
     </row>
     <row r="90">
@@ -1885,13 +2225,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-14.92</v>
+        <v>-12.23</v>
       </c>
       <c r="C90" t="n">
-        <v>16.28</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.35</v>
+        <v>-50.25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-6.081</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.382000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1899,13 +2245,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-15.08</v>
+        <v>-13.55</v>
       </c>
       <c r="C91" t="n">
-        <v>16.63</v>
+        <v>67.66</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.55</v>
+        <v>-50.41</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-6.278</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.576</v>
       </c>
     </row>
     <row r="92">
@@ -1913,13 +2265,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-15.2</v>
+        <v>-14.81</v>
       </c>
       <c r="C92" t="n">
-        <v>16.91</v>
+        <v>69.12</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.71</v>
+        <v>-50.57</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-6.464999999999999</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="93">
@@ -1927,13 +2285,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-15.28</v>
+        <v>-16.62</v>
       </c>
       <c r="C93" t="n">
-        <v>17.21</v>
+        <v>70.58</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.93</v>
+        <v>-50.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-6.672</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.813999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1941,13 +2305,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-15.28</v>
+        <v>-18.44</v>
       </c>
       <c r="C94" t="n">
-        <v>17.45</v>
+        <v>71.97</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.17</v>
+        <v>-49.64</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-6.889</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.988</v>
       </c>
     </row>
     <row r="95">
@@ -1955,13 +2325,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-15.04</v>
+        <v>-20.24</v>
       </c>
       <c r="C95" t="n">
-        <v>17.49</v>
+        <v>73.36</v>
       </c>
       <c r="D95" t="n">
-        <v>-2.45</v>
+        <v>-49.19</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-7.086</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.161999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -1969,13 +2345,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-14.79</v>
+        <v>-22.05</v>
       </c>
       <c r="C96" t="n">
-        <v>17.46</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>-2.67</v>
+        <v>-48.76</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-7.263</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.216</v>
       </c>
     </row>
     <row r="97">
@@ -1983,13 +2365,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-14.53</v>
+        <v>-22.3</v>
       </c>
       <c r="C97" t="n">
-        <v>17.5</v>
+        <v>74.97</v>
       </c>
       <c r="D97" t="n">
-        <v>-2.97</v>
+        <v>-48.57</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.34</v>
       </c>
     </row>
     <row r="98">
@@ -1997,13 +2385,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-14.23</v>
+        <v>-22.37</v>
       </c>
       <c r="C98" t="n">
-        <v>17.54</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>-3.31</v>
+        <v>-48.39</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.185</v>
       </c>
     </row>
     <row r="99">
@@ -2011,13 +2405,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-13.95</v>
+        <v>-22.43</v>
       </c>
       <c r="C99" t="n">
-        <v>17.56</v>
+        <v>75.28</v>
       </c>
       <c r="D99" t="n">
-        <v>-3.61</v>
+        <v>-48.15</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-7.73</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row r="100">
@@ -2025,13 +2425,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-13.69</v>
+        <v>-24.39</v>
       </c>
       <c r="C100" t="n">
-        <v>17.6</v>
+        <v>75.31</v>
       </c>
       <c r="D100" t="n">
-        <v>-3.9</v>
+        <v>-45.91</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-7.799999999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.795</v>
       </c>
     </row>
     <row r="101">
@@ -2039,13 +2445,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-13.57</v>
+        <v>-26.35</v>
       </c>
       <c r="C101" t="n">
-        <v>17.65</v>
+        <v>75.34</v>
       </c>
       <c r="D101" t="n">
-        <v>-4.06</v>
+        <v>-43.64</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-7.869999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="102">
@@ -2053,13 +2465,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-13.44</v>
+        <v>-28.37</v>
       </c>
       <c r="C102" t="n">
-        <v>17.66</v>
+        <v>75.36</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.19</v>
+        <v>-41.38</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-7.959999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.345</v>
       </c>
     </row>
     <row r="103">
@@ -2067,13 +2485,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-13.37</v>
+        <v>-29.78</v>
       </c>
       <c r="C103" t="n">
-        <v>17.69</v>
+        <v>75.36</v>
       </c>
       <c r="D103" t="n">
-        <v>-4.28</v>
+        <v>-39.71</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="104">
@@ -2081,13 +2505,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-13.25</v>
+        <v>-31.2</v>
       </c>
       <c r="C104" t="n">
-        <v>17.68</v>
+        <v>75.81</v>
       </c>
       <c r="D104" t="n">
-        <v>-4.38</v>
+        <v>-38.06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.565</v>
       </c>
     </row>
     <row r="105">
@@ -2095,13 +2525,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-13.49</v>
+        <v>-32.65</v>
       </c>
       <c r="C105" t="n">
-        <v>17.66</v>
+        <v>76.33</v>
       </c>
       <c r="D105" t="n">
-        <v>-4.12</v>
+        <v>-36.41</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9029999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -2109,13 +2545,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-13.72</v>
+        <v>-34.12</v>
       </c>
       <c r="C106" t="n">
-        <v>17.68</v>
+        <v>77.06</v>
       </c>
       <c r="D106" t="n">
-        <v>-3.91</v>
+        <v>-34.74</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.07600000000000011</v>
       </c>
     </row>
     <row r="107">
@@ -2123,13 +2565,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-13.87</v>
+        <v>-35.84</v>
       </c>
       <c r="C107" t="n">
-        <v>17.54</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>-3.62</v>
+        <v>-32.83</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-8.379999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.7409999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2137,13 +2585,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-14.07</v>
+        <v>-36.74</v>
       </c>
       <c r="C108" t="n">
-        <v>17.51</v>
+        <v>77.53</v>
       </c>
       <c r="D108" t="n">
-        <v>-3.39</v>
+        <v>-30.91</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-8.48</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-1.393</v>
       </c>
     </row>
     <row r="109">
@@ -2151,13 +2605,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-14.27</v>
+        <v>-37.65</v>
       </c>
       <c r="C109" t="n">
-        <v>17.5</v>
+        <v>77.17</v>
       </c>
       <c r="D109" t="n">
-        <v>-3.18</v>
+        <v>-28.95</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-8.56</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-2.015</v>
       </c>
     </row>
     <row r="110">
@@ -2165,13 +2625,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-14.48</v>
+        <v>-36.24</v>
       </c>
       <c r="C110" t="n">
-        <v>17.48</v>
+        <v>76.83</v>
       </c>
       <c r="D110" t="n">
-        <v>-2.96</v>
+        <v>-29.03</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-2.857</v>
       </c>
     </row>
     <row r="111">
@@ -2179,13 +2645,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-14.52</v>
+        <v>-34.81</v>
       </c>
       <c r="C111" t="n">
-        <v>17.45</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.9</v>
+        <v>-29.13</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-8.860000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-3.689</v>
       </c>
     </row>
     <row r="112">
@@ -2193,13 +2665,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-14.54</v>
+        <v>-33.45</v>
       </c>
       <c r="C112" t="n">
-        <v>17.4</v>
+        <v>76.31</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.84</v>
+        <v>-29.28</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-4.561</v>
       </c>
     </row>
     <row r="113">
@@ -2207,13 +2685,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-14.55</v>
+        <v>-32.08</v>
       </c>
       <c r="C113" t="n">
-        <v>17.31</v>
+        <v>76.06</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.76</v>
+        <v>-29.46</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-5.273000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -2221,13 +2705,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-14.67</v>
+        <v>-30.98</v>
       </c>
       <c r="C114" t="n">
-        <v>17.21</v>
+        <v>75.37</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.54</v>
+        <v>-29.64</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-9.030000000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-5.715000000000002</v>
       </c>
     </row>
     <row r="115">
@@ -2235,13 +2725,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-14.72</v>
+        <v>-29.82</v>
       </c>
       <c r="C115" t="n">
-        <v>17.11</v>
+        <v>74.61</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.38</v>
+        <v>-29.82</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-8.81</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-6.160000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -2249,13 +2745,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-14.8</v>
+        <v>-28.46</v>
       </c>
       <c r="C116" t="n">
-        <v>17.01</v>
+        <v>73.62</v>
       </c>
       <c r="D116" t="n">
-        <v>-2.21</v>
+        <v>-30.08</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-6.5</v>
       </c>
     </row>
     <row r="117">
@@ -2263,13 +2765,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-14.86</v>
+        <v>-30.5</v>
       </c>
       <c r="C117" t="n">
-        <v>16.96</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.1</v>
+        <v>-30.41</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-8.329999999999998</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-6.910000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2277,13 +2785,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-14.89</v>
+        <v>-33.52</v>
       </c>
       <c r="C118" t="n">
-        <v>16.83</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.94</v>
+        <v>-30.74</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-7.400000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -2291,13 +2805,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-14.97</v>
+        <v>-36.55</v>
       </c>
       <c r="C119" t="n">
-        <v>16.67</v>
+        <v>83.38</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.7</v>
+        <v>-31.04</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-7.869999999999999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-7.92</v>
       </c>
     </row>
     <row r="120">
@@ -2305,13 +2825,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-15.01</v>
+        <v>-40</v>
       </c>
       <c r="C120" t="n">
-        <v>16.49</v>
+        <v>87</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.48</v>
+        <v>-31.18</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-7.659999999999998</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-8.16</v>
       </c>
     </row>
     <row r="121">
@@ -2319,13 +2845,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-15.08</v>
+        <v>-43.48</v>
       </c>
       <c r="C121" t="n">
-        <v>16.31</v>
+        <v>90.61</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.23</v>
+        <v>-31.32</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-7.489999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-8.33</v>
       </c>
     </row>
     <row r="122">
@@ -2333,13 +2865,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-15.06</v>
+        <v>-46.88</v>
       </c>
       <c r="C122" t="n">
-        <v>16.14</v>
+        <v>93.87</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.08</v>
+        <v>-31.39</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-6.599999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="123">
@@ -2347,13 +2885,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-14.74</v>
+        <v>-50.29</v>
       </c>
       <c r="C123" t="n">
-        <v>15.8</v>
+        <v>97.2</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.06</v>
+        <v>-31.48</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-5.028999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-10.401</v>
       </c>
     </row>
     <row r="124">
@@ -2361,13 +2905,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-14.36</v>
+        <v>-53.43</v>
       </c>
       <c r="C124" t="n">
-        <v>15.46</v>
+        <v>100.61</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.1</v>
+        <v>-31.56</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-3.908</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-11.72</v>
       </c>
     </row>
     <row r="125">
@@ -2375,13 +2925,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-13.94</v>
+        <v>-56.63</v>
       </c>
       <c r="C125" t="n">
-        <v>15.17</v>
+        <v>104.09</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.23</v>
+        <v>-31.63</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-12.973</v>
       </c>
     </row>
     <row r="126">
@@ -2389,13 +2945,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-13.51</v>
+        <v>-60</v>
       </c>
       <c r="C126" t="n">
-        <v>14.88</v>
+        <v>107.57</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.37</v>
+        <v>-31.62</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-1.802</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-14.146</v>
       </c>
     </row>
     <row r="127">
@@ -2403,13 +2965,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-13.18</v>
+        <v>-60</v>
       </c>
       <c r="C127" t="n">
-        <v>14.59</v>
+        <v>107.26</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.42</v>
+        <v>-31.28</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.7339999999999998</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-15.249</v>
       </c>
     </row>
     <row r="128">
@@ -2417,13 +2985,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-12.81</v>
+        <v>-60</v>
       </c>
       <c r="C128" t="n">
-        <v>14.27</v>
+        <v>106.86</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.46</v>
+        <v>-30.96</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.3830000000000003</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-16.281</v>
       </c>
     </row>
     <row r="129">
@@ -2431,13 +3005,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-12.45</v>
+        <v>-60</v>
       </c>
       <c r="C129" t="n">
-        <v>14.01</v>
+        <v>106.55</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.56</v>
+        <v>-30.65</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-17.313</v>
       </c>
     </row>
     <row r="130">
@@ -2445,13 +3025,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-12.04</v>
+        <v>-60</v>
       </c>
       <c r="C130" t="n">
-        <v>13.76</v>
+        <v>106.26</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.73</v>
+        <v>-30.44</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-18.325</v>
       </c>
     </row>
     <row r="131">
@@ -2459,13 +3045,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-11.9</v>
+        <v>-60</v>
       </c>
       <c r="C131" t="n">
-        <v>13.53</v>
+        <v>105.9</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.63</v>
+        <v>-30.17</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.663999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-19.397</v>
       </c>
     </row>
     <row r="132">
@@ -2473,13 +3065,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-11.91</v>
+        <v>-60</v>
       </c>
       <c r="C132" t="n">
-        <v>13.38</v>
+        <v>105.75</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.47</v>
+        <v>-29.88</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-19.969</v>
       </c>
     </row>
     <row r="133">
@@ -2487,13 +3085,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-12.19</v>
+        <v>-60</v>
       </c>
       <c r="C133" t="n">
-        <v>13.43</v>
+        <v>105.58</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.24</v>
+        <v>-29.54</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-19.97</v>
       </c>
     </row>
     <row r="134">
@@ -2501,13 +3105,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-12.41</v>
+        <v>-60</v>
       </c>
       <c r="C134" t="n">
-        <v>13.48</v>
+        <v>105.31</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.07</v>
+        <v>-29.19</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.733000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-19.833</v>
       </c>
     </row>
     <row r="135">
@@ -2515,13 +3125,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-12.62</v>
+        <v>-60</v>
       </c>
       <c r="C135" t="n">
-        <v>13.13</v>
+        <v>104.88</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.51</v>
+        <v>-28.84</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.742</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-19.742</v>
       </c>
     </row>
     <row r="136">
@@ -2529,13 +3145,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-12.82</v>
+        <v>-60</v>
       </c>
       <c r="C136" t="n">
-        <v>12.78</v>
+        <v>104.72</v>
       </c>
       <c r="D136" t="n">
-        <v>0.04</v>
+        <v>-28.49</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.704</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-19.879</v>
       </c>
     </row>
     <row r="137">
@@ -2543,13 +3165,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-13.04</v>
+        <v>-60</v>
       </c>
       <c r="C137" t="n">
-        <v>12.45</v>
+        <v>104.81</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6</v>
+        <v>-28.42</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-19.916</v>
       </c>
     </row>
     <row r="138">
@@ -2557,13 +3185,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-13.45</v>
+        <v>-60</v>
       </c>
       <c r="C138" t="n">
-        <v>12.11</v>
+        <v>104.88</v>
       </c>
       <c r="D138" t="n">
-        <v>1.34</v>
+        <v>-28.32</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-19.944</v>
       </c>
     </row>
     <row r="139">
@@ -2571,13 +3205,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-13.81</v>
+        <v>-60</v>
       </c>
       <c r="C139" t="n">
-        <v>11.78</v>
+        <v>104.87</v>
       </c>
       <c r="D139" t="n">
-        <v>2.04</v>
+        <v>-28.24</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-19.952</v>
       </c>
     </row>
     <row r="140">
@@ -2585,13 +3225,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-14.28</v>
+        <v>-60</v>
       </c>
       <c r="C140" t="n">
-        <v>11.45</v>
+        <v>104.84</v>
       </c>
       <c r="D140" t="n">
-        <v>2.83</v>
+        <v>-28.18</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-19.97</v>
       </c>
     </row>
     <row r="141">
@@ -2599,13 +3245,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-14.48</v>
+        <v>-60</v>
       </c>
       <c r="C141" t="n">
-        <v>11.11</v>
+        <v>104.86</v>
       </c>
       <c r="D141" t="n">
-        <v>3.38</v>
+        <v>-28.18</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-19.958</v>
       </c>
     </row>
     <row r="142">
@@ -2613,13 +3265,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-14.64</v>
+        <v>-60</v>
       </c>
       <c r="C142" t="n">
-        <v>10.66</v>
+        <v>104.87</v>
       </c>
       <c r="D142" t="n">
-        <v>3.98</v>
+        <v>-28.22</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.241000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-19.826</v>
       </c>
     </row>
     <row r="143">
@@ -2627,13 +3285,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-14.75</v>
+        <v>-60</v>
       </c>
       <c r="C143" t="n">
-        <v>10.23</v>
+        <v>104.92</v>
       </c>
       <c r="D143" t="n">
-        <v>4.53</v>
+        <v>-28.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-19.714</v>
       </c>
     </row>
     <row r="144">
@@ -2641,13 +3305,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-15</v>
+        <v>-60</v>
       </c>
       <c r="C144" t="n">
-        <v>9.880000000000001</v>
+        <v>105.11</v>
       </c>
       <c r="D144" t="n">
-        <v>5.12</v>
+        <v>-28.38</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-19.752</v>
       </c>
     </row>
     <row r="145">
@@ -2655,13 +3325,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-15.23</v>
+        <v>-60</v>
       </c>
       <c r="C145" t="n">
-        <v>9.890000000000001</v>
+        <v>105.33</v>
       </c>
       <c r="D145" t="n">
-        <v>5.34</v>
+        <v>-28.39</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.830000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-19.75</v>
       </c>
     </row>
     <row r="146">
@@ -2669,13 +3345,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-15.53</v>
+        <v>-60</v>
       </c>
       <c r="C146" t="n">
-        <v>10.05</v>
+        <v>105.65</v>
       </c>
       <c r="D146" t="n">
-        <v>5.48</v>
+        <v>-28.42</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-19.86</v>
       </c>
     </row>
     <row r="147">
@@ -2683,13 +3365,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-15.79</v>
+        <v>-60</v>
       </c>
       <c r="C147" t="n">
-        <v>10.19</v>
+        <v>105.99</v>
       </c>
       <c r="D147" t="n">
-        <v>5.6</v>
+        <v>-28.39</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-20.09</v>
       </c>
     </row>
     <row r="148">
@@ -2697,13 +3385,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-15.84</v>
+        <v>-60</v>
       </c>
       <c r="C148" t="n">
-        <v>10.34</v>
+        <v>106.34</v>
       </c>
       <c r="D148" t="n">
-        <v>5.5</v>
+        <v>-28.33</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.330000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-20.34</v>
       </c>
     </row>
     <row r="149">
@@ -2711,13 +3405,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-15.88</v>
+        <v>-60</v>
       </c>
       <c r="C149" t="n">
-        <v>10.47</v>
+        <v>106.67</v>
       </c>
       <c r="D149" t="n">
-        <v>5.43</v>
+        <v>-28.01</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-20.79</v>
       </c>
     </row>
     <row r="150">
@@ -2725,13 +3425,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-15.89</v>
+        <v>-60</v>
       </c>
       <c r="C150" t="n">
-        <v>10.62</v>
+        <v>106.99</v>
       </c>
       <c r="D150" t="n">
-        <v>5.31</v>
+        <v>-27.64</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-21.25</v>
       </c>
     </row>
     <row r="151">
@@ -2739,13 +3445,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-14.77</v>
+        <v>-60</v>
       </c>
       <c r="C151" t="n">
-        <v>9.67</v>
+        <v>107.33</v>
       </c>
       <c r="D151" t="n">
-        <v>5.14</v>
+        <v>-27.29</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-21.055</v>
       </c>
     </row>
     <row r="152">
@@ -2753,13 +3465,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-13.65</v>
+        <v>-60</v>
       </c>
       <c r="C152" t="n">
-        <v>8.75</v>
+        <v>107.68</v>
       </c>
       <c r="D152" t="n">
-        <v>4.93</v>
+        <v>-27.18</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-20.7</v>
       </c>
     </row>
     <row r="153">
@@ -2767,13 +3485,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-12.59</v>
+        <v>-60</v>
       </c>
       <c r="C153" t="n">
-        <v>7.88</v>
+        <v>108.03</v>
       </c>
       <c r="D153" t="n">
-        <v>4.76</v>
+        <v>-27.08</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-0.6249999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-20.325</v>
       </c>
     </row>
     <row r="154">
@@ -2781,13 +3505,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-11.45</v>
+        <v>-60</v>
       </c>
       <c r="C154" t="n">
-        <v>6.91</v>
+        <v>107.41</v>
       </c>
       <c r="D154" t="n">
-        <v>4.58</v>
+        <v>-27</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-18.96</v>
       </c>
     </row>
     <row r="155">
@@ -2795,13 +3525,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-10.37</v>
+        <v>-60</v>
       </c>
       <c r="C155" t="n">
-        <v>5.95</v>
+        <v>106.85</v>
       </c>
       <c r="D155" t="n">
-        <v>4.46</v>
+        <v>-27</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-2.285</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-17.565</v>
       </c>
     </row>
     <row r="156">
@@ -2809,13 +3545,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-9.18</v>
+        <v>-60</v>
       </c>
       <c r="C156" t="n">
-        <v>4.82</v>
+        <v>105.91</v>
       </c>
       <c r="D156" t="n">
-        <v>4.4</v>
+        <v>-26.98</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-3.089999999999999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-15.84</v>
       </c>
     </row>
     <row r="157">
@@ -2823,13 +3565,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-7.96</v>
+        <v>-60</v>
       </c>
       <c r="C157" t="n">
-        <v>3.67</v>
+        <v>104.98</v>
       </c>
       <c r="D157" t="n">
-        <v>4.33</v>
+        <v>-27</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-3.884999999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-14.095</v>
       </c>
     </row>
     <row r="158">
@@ -2837,13 +3585,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-6.8</v>
+        <v>-60</v>
       </c>
       <c r="C158" t="n">
-        <v>2.51</v>
+        <v>103.99</v>
       </c>
       <c r="D158" t="n">
-        <v>4.33</v>
+        <v>-27.12</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-4.659999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-12.21</v>
       </c>
     </row>
     <row r="159">
@@ -2851,13 +3605,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-5.69</v>
+        <v>-60</v>
       </c>
       <c r="C159" t="n">
-        <v>1.4</v>
+        <v>103.85</v>
       </c>
       <c r="D159" t="n">
-        <v>4.31</v>
+        <v>-28.12</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-5.487</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-10.237</v>
       </c>
     </row>
     <row r="160">
@@ -2865,13 +3625,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-4.42</v>
+        <v>-60</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2</v>
+        <v>103.59</v>
       </c>
       <c r="D160" t="n">
-        <v>4.22</v>
+        <v>-29.16</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-6.334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-8.1</v>
       </c>
     </row>
     <row r="161">
@@ -2879,13 +3645,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-4.28</v>
+        <v>-60</v>
       </c>
       <c r="C161" t="n">
-        <v>0.14</v>
+        <v>103.42</v>
       </c>
       <c r="D161" t="n">
-        <v>4.14</v>
+        <v>-30.24</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-6.525999999999999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-6.648000000000001</v>
       </c>
     </row>
     <row r="162">
@@ -2893,13 +3665,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-4.12</v>
+        <v>-60</v>
       </c>
       <c r="C162" t="n">
-        <v>0.07000000000000001</v>
+        <v>103.46</v>
       </c>
       <c r="D162" t="n">
-        <v>4.06</v>
+        <v>-31.17</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-6.717999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-5.576</v>
       </c>
     </row>
     <row r="163">
@@ -2907,13 +3685,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-4.3</v>
+        <v>-60</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.11</v>
+        <v>103.47</v>
       </c>
       <c r="D163" t="n">
-        <v>4.41</v>
+        <v>-32.15</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.584</v>
       </c>
     </row>
     <row r="164">
@@ -2921,13 +3705,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-4.51</v>
+        <v>-60</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.24</v>
+        <v>104.43</v>
       </c>
       <c r="D164" t="n">
-        <v>4.75</v>
+        <v>-33.13</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-7.002</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-4.292000000000001</v>
       </c>
     </row>
     <row r="165">
@@ -2935,13 +3725,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-4.83</v>
+        <v>-60</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.02</v>
+        <v>105.36</v>
       </c>
       <c r="D165" t="n">
-        <v>4.85</v>
+        <v>-34.11</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-7.203999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-4.050000000000001</v>
       </c>
     </row>
     <row r="166">
@@ -2949,13 +3745,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-5.2</v>
+        <v>-60</v>
       </c>
       <c r="C166" t="n">
-        <v>0.24</v>
+        <v>106.31</v>
       </c>
       <c r="D166" t="n">
-        <v>4.96</v>
+        <v>-35.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-7.406000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-3.798</v>
       </c>
     </row>
     <row r="167">
@@ -2963,13 +3765,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-5.62</v>
+        <v>-60</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5600000000000001</v>
+        <v>107.24</v>
       </c>
       <c r="D167" t="n">
-        <v>5.06</v>
+        <v>-36.08</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-7.597999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-3.566</v>
       </c>
     </row>
     <row r="168">
@@ -2977,13 +3785,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-6.1</v>
+        <v>-60</v>
       </c>
       <c r="C168" t="n">
-        <v>0.82</v>
+        <v>108.23</v>
       </c>
       <c r="D168" t="n">
-        <v>5.28</v>
+        <v>-37.05</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-7.970000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-3.214</v>
       </c>
     </row>
     <row r="169">
@@ -2991,13 +3805,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-6.66</v>
+        <v>-60</v>
       </c>
       <c r="C169" t="n">
-        <v>1.14</v>
+        <v>108.38</v>
       </c>
       <c r="D169" t="n">
-        <v>5.53</v>
+        <v>-37.6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-7.870000000000002</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-2.91</v>
       </c>
     </row>
     <row r="170">
@@ -3005,13 +3825,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-7.35</v>
+        <v>-60</v>
       </c>
       <c r="C170" t="n">
-        <v>1.51</v>
+        <v>108.81</v>
       </c>
       <c r="D170" t="n">
-        <v>5.85</v>
+        <v>-38.23</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-7.750000000000002</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-2.83</v>
       </c>
     </row>
     <row r="171">
@@ -3019,13 +3845,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-8</v>
+        <v>-60</v>
       </c>
       <c r="C171" t="n">
-        <v>1.86</v>
+        <v>109.09</v>
       </c>
       <c r="D171" t="n">
-        <v>6.14</v>
+        <v>-38.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="172">
@@ -3033,13 +3865,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-8.67</v>
+        <v>-60</v>
       </c>
       <c r="C172" t="n">
-        <v>2.2</v>
+        <v>109.15</v>
       </c>
       <c r="D172" t="n">
-        <v>6.47</v>
+        <v>-39.27</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1.73</v>
       </c>
     </row>
     <row r="173">
@@ -3047,13 +3885,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-8.99</v>
+        <v>-60</v>
       </c>
       <c r="C173" t="n">
-        <v>2.66</v>
+        <v>109.19</v>
       </c>
       <c r="D173" t="n">
-        <v>6.33</v>
+        <v>-39.66</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-8.75</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="174">
@@ -3061,13 +3905,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-9.300000000000001</v>
+        <v>-60</v>
       </c>
       <c r="C174" t="n">
-        <v>3.05</v>
+        <v>109.22</v>
       </c>
       <c r="D174" t="n">
-        <v>6.25</v>
+        <v>-39.09</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-9.875999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.2500000000000001</v>
       </c>
     </row>
     <row r="175">
@@ -3075,13 +3925,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-9.529999999999999</v>
+        <v>-60</v>
       </c>
       <c r="C175" t="n">
-        <v>3.11</v>
+        <v>109.27</v>
       </c>
       <c r="D175" t="n">
-        <v>6.41</v>
+        <v>-38.54</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-11.042</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.3100000000000001</v>
       </c>
     </row>
     <row r="176">
@@ -3089,13 +3945,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-9.619999999999999</v>
+        <v>-60</v>
       </c>
       <c r="C176" t="n">
-        <v>3.08</v>
+        <v>108.33</v>
       </c>
       <c r="D176" t="n">
-        <v>6.54</v>
+        <v>-37.96</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-12.218</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="177">
@@ -3103,13 +3965,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-9.74</v>
+        <v>-60</v>
       </c>
       <c r="C177" t="n">
-        <v>3.05</v>
+        <v>106.89</v>
       </c>
       <c r="D177" t="n">
-        <v>6.69</v>
+        <v>-36.71</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-13.394</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="178">
@@ -3117,13 +3985,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-9.800000000000001</v>
+        <v>-60</v>
       </c>
       <c r="C178" t="n">
-        <v>3.06</v>
+        <v>105.27</v>
       </c>
       <c r="D178" t="n">
-        <v>6.74</v>
+        <v>-35.4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-14.39</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4.521</v>
       </c>
     </row>
     <row r="179">
@@ -3131,13 +4005,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-9.76</v>
+        <v>-60</v>
       </c>
       <c r="C179" t="n">
-        <v>3.03</v>
+        <v>103.59</v>
       </c>
       <c r="D179" t="n">
-        <v>6.73</v>
+        <v>-33.95</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-15.766</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6.132000000000001</v>
       </c>
     </row>
     <row r="180">
@@ -3145,13 +4025,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-9.74</v>
+        <v>-60</v>
       </c>
       <c r="C180" t="n">
-        <v>2.89</v>
+        <v>101.67</v>
       </c>
       <c r="D180" t="n">
-        <v>6.85</v>
+        <v>-32.45</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-17.142</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7.923</v>
       </c>
     </row>
     <row r="181">
@@ -3159,13 +4045,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-9.58</v>
+        <v>-60</v>
       </c>
       <c r="C181" t="n">
-        <v>2.73</v>
+        <v>99.52</v>
       </c>
       <c r="D181" t="n">
-        <v>6.85</v>
+        <v>-30.61</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-18.448</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9.544</v>
       </c>
     </row>
     <row r="182">
@@ -3173,13 +4065,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-9.41</v>
+        <v>-60</v>
       </c>
       <c r="C182" t="n">
-        <v>2.58</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D182" t="n">
-        <v>6.83</v>
+        <v>-28.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-19.214</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10.665</v>
       </c>
     </row>
     <row r="183">
@@ -3187,13 +4085,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-9.220000000000001</v>
+        <v>-60</v>
       </c>
       <c r="C183" t="n">
-        <v>2.37</v>
+        <v>95</v>
       </c>
       <c r="D183" t="n">
-        <v>6.85</v>
+        <v>-27.07</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12.066</v>
       </c>
     </row>
     <row r="184">
@@ -3201,13 +4105,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-9.02</v>
+        <v>-60</v>
       </c>
       <c r="C184" t="n">
-        <v>2.21</v>
+        <v>92.69</v>
       </c>
       <c r="D184" t="n">
-        <v>6.82</v>
+        <v>-26.28</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13.587</v>
       </c>
     </row>
     <row r="185">
@@ -3215,13 +4125,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-8.76</v>
+        <v>-60</v>
       </c>
       <c r="C185" t="n">
-        <v>2.09</v>
+        <v>90.37</v>
       </c>
       <c r="D185" t="n">
-        <v>6.67</v>
+        <v>-25.57</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15.198</v>
       </c>
     </row>
     <row r="186">
@@ -3229,13 +4145,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-8.59</v>
+        <v>-60</v>
       </c>
       <c r="C186" t="n">
-        <v>2.02</v>
+        <v>88.94</v>
       </c>
       <c r="D186" t="n">
-        <v>6.57</v>
+        <v>-24.87</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F186" t="n">
+        <v>15.929</v>
       </c>
     </row>
     <row r="187">
@@ -3243,13 +4165,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-8.300000000000001</v>
+        <v>-60</v>
       </c>
       <c r="C187" t="n">
-        <v>1.94</v>
+        <v>88.08</v>
       </c>
       <c r="D187" t="n">
-        <v>6.36</v>
+        <v>-24.88</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F187" t="n">
+        <v>16.803</v>
       </c>
     </row>
     <row r="188">
@@ -3257,13 +4185,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-8</v>
+        <v>-60</v>
       </c>
       <c r="C188" t="n">
-        <v>1.86</v>
+        <v>87.38</v>
       </c>
       <c r="D188" t="n">
-        <v>6.14</v>
+        <v>-24.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F188" t="n">
+        <v>17.526</v>
       </c>
     </row>
     <row r="189">
@@ -3271,13 +4205,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-7.72</v>
+        <v>-60</v>
       </c>
       <c r="C189" t="n">
-        <v>1.77</v>
+        <v>86.75</v>
       </c>
       <c r="D189" t="n">
-        <v>5.95</v>
+        <v>-24.84</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F189" t="n">
+        <v>18.089</v>
       </c>
     </row>
     <row r="190">
@@ -3285,13 +4225,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-7.43</v>
+        <v>-60</v>
       </c>
       <c r="C190" t="n">
-        <v>1.83</v>
+        <v>86.2</v>
       </c>
       <c r="D190" t="n">
-        <v>5.6</v>
+        <v>-24.77</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F190" t="n">
+        <v>18.572</v>
       </c>
     </row>
     <row r="191">
@@ -3299,13 +4245,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-7.33</v>
+        <v>-60</v>
       </c>
       <c r="C191" t="n">
-        <v>1.67</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="D191" t="n">
-        <v>5.66</v>
+        <v>-25.02</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19.065</v>
       </c>
     </row>
     <row r="192">
@@ -3313,13 +4265,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-7.25</v>
+        <v>-60</v>
       </c>
       <c r="C192" t="n">
-        <v>1.56</v>
+        <v>85.72</v>
       </c>
       <c r="D192" t="n">
-        <v>5.69</v>
+        <v>-25.27</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F192" t="n">
+        <v>19.548</v>
       </c>
     </row>
     <row r="193">
@@ -3327,13 +4285,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-7.17</v>
+        <v>-60</v>
       </c>
       <c r="C193" t="n">
-        <v>1.43</v>
+        <v>85.72</v>
       </c>
       <c r="D193" t="n">
-        <v>5.74</v>
+        <v>-25.45</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F193" t="n">
+        <v>19.751</v>
       </c>
     </row>
     <row r="194">
@@ -3341,13 +4305,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-7.08</v>
+        <v>-60</v>
       </c>
       <c r="C194" t="n">
-        <v>1.29</v>
+        <v>86.14</v>
       </c>
       <c r="D194" t="n">
-        <v>5.79</v>
+        <v>-26.07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F194" t="n">
+        <v>19.954</v>
       </c>
     </row>
     <row r="195">
@@ -3355,13 +4325,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-7.08</v>
+        <v>-60</v>
       </c>
       <c r="C195" t="n">
-        <v>1.05</v>
+        <v>86.31</v>
       </c>
       <c r="D195" t="n">
-        <v>5.86</v>
+        <v>-26.62</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20.327</v>
       </c>
     </row>
     <row r="196">
@@ -3369,13 +4345,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-7.14</v>
+        <v>-60</v>
       </c>
       <c r="C196" t="n">
-        <v>0.85</v>
+        <v>86.55</v>
       </c>
       <c r="D196" t="n">
-        <v>5.95</v>
+        <v>-27.12</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20.59</v>
       </c>
     </row>
     <row r="197">
@@ -3383,13 +4365,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-7.29</v>
+        <v>-60</v>
       </c>
       <c r="C197" t="n">
-        <v>0.67</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="D197" t="n">
-        <v>6.12</v>
+        <v>-27.63</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20.91</v>
       </c>
     </row>
     <row r="198">
@@ -3397,13 +4385,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-7.4</v>
+        <v>-60</v>
       </c>
       <c r="C198" t="n">
-        <v>0.44</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="D198" t="n">
-        <v>6.28</v>
+        <v>-28.18</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20.685</v>
       </c>
     </row>
     <row r="199">
@@ -3411,13 +4405,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-7.47</v>
+        <v>-60</v>
       </c>
       <c r="C199" t="n">
-        <v>0.16</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>6.63</v>
+        <v>-28.85</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20.44</v>
       </c>
     </row>
     <row r="200">
@@ -3425,13 +4425,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-7.54</v>
+        <v>-60</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.07000000000000001</v>
+        <v>89.38</v>
       </c>
       <c r="D200" t="n">
-        <v>6.93</v>
+        <v>-29.53</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20.175</v>
       </c>
     </row>
     <row r="201">
@@ -3439,13 +4445,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-7.46</v>
+        <v>-60</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.07000000000000001</v>
+        <v>90.31</v>
       </c>
       <c r="D201" t="n">
-        <v>6.85</v>
+        <v>-30.22</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F201" t="n">
+        <v>19.93</v>
       </c>
     </row>
     <row r="202">
@@ -3453,13 +4465,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-7.37</v>
+        <v>-60</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.01</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>6.7</v>
+        <v>-30.93</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F202" t="n">
+        <v>19.735</v>
       </c>
     </row>
     <row r="203">
@@ -3467,13 +4485,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-7.3</v>
+        <v>-60</v>
       </c>
       <c r="C203" t="n">
-        <v>0.06</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="D203" t="n">
-        <v>6.56</v>
+        <v>-31.59</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19.52</v>
       </c>
     </row>
     <row r="204">
@@ -3481,13 +4505,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-7.44</v>
+        <v>-60</v>
       </c>
       <c r="C204" t="n">
-        <v>0.11</v>
+        <v>92.48</v>
       </c>
       <c r="D204" t="n">
-        <v>6.64</v>
+        <v>-31.88</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19.394</v>
       </c>
     </row>
     <row r="205">
@@ -3495,13 +4525,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-7.5</v>
+        <v>-60</v>
       </c>
       <c r="C205" t="n">
-        <v>0.28</v>
+        <v>93.17</v>
       </c>
       <c r="D205" t="n">
-        <v>6.71</v>
+        <v>-32.15</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F205" t="n">
+        <v>18.988</v>
       </c>
     </row>
     <row r="206">
@@ -3509,13 +4545,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-7.51</v>
+        <v>-60</v>
       </c>
       <c r="C206" t="n">
-        <v>0.39</v>
+        <v>93.81</v>
       </c>
       <c r="D206" t="n">
-        <v>6.78</v>
+        <v>-32.4</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F206" t="n">
+        <v>18.592</v>
       </c>
     </row>
     <row r="207">
@@ -3523,13 +4565,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-6.99</v>
+        <v>-60</v>
       </c>
       <c r="C207" t="n">
-        <v>0.11</v>
+        <v>94.43000000000001</v>
       </c>
       <c r="D207" t="n">
-        <v>6.71</v>
+        <v>-32.63</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18.196</v>
       </c>
     </row>
     <row r="208">
@@ -3537,13 +4585,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-6.54</v>
+        <v>-60</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.11</v>
+        <v>94.19</v>
       </c>
       <c r="D208" t="n">
-        <v>6.65</v>
+        <v>-32.8</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F208" t="n">
+        <v>18.605</v>
       </c>
     </row>
     <row r="209">
@@ -3551,13 +4605,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-6.21</v>
+        <v>-60</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.33</v>
+        <v>93.83</v>
       </c>
       <c r="D209" t="n">
-        <v>6.54</v>
+        <v>-32.86</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F209" t="n">
+        <v>19.034</v>
       </c>
     </row>
     <row r="210">
@@ -3565,13 +4625,19 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-5.91</v>
+        <v>-60</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.63</v>
+        <v>93.8</v>
       </c>
       <c r="D210" t="n">
-        <v>6.54</v>
+        <v>-33.19</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F210" t="n">
+        <v>19.393</v>
       </c>
     </row>
     <row r="211">
@@ -3579,13 +4645,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-5.76</v>
+        <v>-60</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.87</v>
+        <v>93.75</v>
       </c>
       <c r="D211" t="n">
-        <v>6.63</v>
+        <v>-33.41</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F211" t="n">
+        <v>19.662</v>
       </c>
     </row>
     <row r="212">
@@ -3593,13 +4665,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-5.6</v>
+        <v>-60</v>
       </c>
       <c r="C212" t="n">
-        <v>-1.22</v>
+        <v>93.62</v>
       </c>
       <c r="D212" t="n">
-        <v>6.81</v>
+        <v>-33.47</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F212" t="n">
+        <v>19.851</v>
       </c>
     </row>
     <row r="213">
@@ -3607,13 +4685,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-5.5</v>
+        <v>-60</v>
       </c>
       <c r="C213" t="n">
-        <v>-1.42</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="D213" t="n">
-        <v>6.92</v>
+        <v>-32.47</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F213" t="n">
+        <v>20.04</v>
       </c>
     </row>
     <row r="214">
@@ -3621,13 +4705,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-5.24</v>
+        <v>-60</v>
       </c>
       <c r="C214" t="n">
-        <v>-1.58</v>
+        <v>91.25</v>
       </c>
       <c r="D214" t="n">
-        <v>6.83</v>
+        <v>-31.4</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F214" t="n">
+        <v>20.15</v>
       </c>
     </row>
     <row r="215">
@@ -3635,13 +4725,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-4.98</v>
+        <v>-60</v>
       </c>
       <c r="C215" t="n">
-        <v>-1.78</v>
+        <v>90.52</v>
       </c>
       <c r="D215" t="n">
-        <v>6.76</v>
+        <v>-30.35</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F215" t="n">
+        <v>19.83000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -3649,13 +4745,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-4.66</v>
+        <v>-60</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.97</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="D216" t="n">
-        <v>6.63</v>
+        <v>-29.38</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F216" t="n">
+        <v>19.53</v>
       </c>
     </row>
     <row r="217">
@@ -3663,13 +4765,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-4.75</v>
+        <v>-60</v>
       </c>
       <c r="C217" t="n">
-        <v>-1.83</v>
+        <v>88.98</v>
       </c>
       <c r="D217" t="n">
-        <v>6.58</v>
+        <v>-28.01</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F217" t="n">
+        <v>19.03</v>
       </c>
     </row>
     <row r="218">
@@ -3677,13 +4785,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-4.21</v>
+        <v>-60</v>
       </c>
       <c r="C218" t="n">
-        <v>-1.7</v>
+        <v>88.33</v>
       </c>
       <c r="D218" t="n">
-        <v>5.91</v>
+        <v>-26.72</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F218" t="n">
+        <v>18.39</v>
       </c>
     </row>
     <row r="219">
@@ -3691,13 +4805,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-3.44</v>
+        <v>-60</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.57</v>
+        <v>87.66</v>
       </c>
       <c r="D219" t="n">
-        <v>5.01</v>
+        <v>-25.42</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F219" t="n">
+        <v>17.76</v>
       </c>
     </row>
     <row r="220">
@@ -3705,13 +4825,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.5</v>
+        <v>-60</v>
       </c>
       <c r="C220" t="n">
-        <v>-1.44</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="D220" t="n">
-        <v>3.94</v>
+        <v>-23.84</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F220" t="n">
+        <v>17.02</v>
       </c>
     </row>
     <row r="221">
@@ -3719,13 +4845,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.54</v>
+        <v>-60</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.35</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="D221" t="n">
-        <v>2.9</v>
+        <v>-22.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F221" t="n">
+        <v>16.41</v>
       </c>
     </row>
     <row r="222">
@@ -3733,13 +4865,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.65</v>
+        <v>-60</v>
       </c>
       <c r="C222" t="n">
-        <v>-1.13</v>
+        <v>85.28</v>
       </c>
       <c r="D222" t="n">
-        <v>1.78</v>
+        <v>-21.09</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F222" t="n">
+        <v>15.81</v>
       </c>
     </row>
     <row r="223">
@@ -3747,13 +4885,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.29</v>
+        <v>-60</v>
       </c>
       <c r="C223" t="n">
-        <v>-1</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="D223" t="n">
-        <v>0.71</v>
+        <v>-20.79</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15.22</v>
       </c>
     </row>
     <row r="224">
@@ -3761,13 +4905,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.29</v>
+        <v>-60</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.91</v>
+        <v>85.87</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.38</v>
+        <v>-20.51</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F224" t="n">
+        <v>14.64</v>
       </c>
     </row>
     <row r="225">
@@ -3775,13 +4925,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2.21</v>
+        <v>-60</v>
       </c>
       <c r="C225" t="n">
-        <v>-1.08</v>
+        <v>86.2</v>
       </c>
       <c r="D225" t="n">
-        <v>-1.12</v>
+        <v>-21.19</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F225" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="226">
@@ -3789,13 +4945,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3.01</v>
+        <v>-60</v>
       </c>
       <c r="C226" t="n">
-        <v>-2.1</v>
+        <v>86.53</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.91</v>
+        <v>-21.85</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F226" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="227">
@@ -3803,13 +4965,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3.57</v>
+        <v>-60</v>
       </c>
       <c r="C227" t="n">
-        <v>-3.07</v>
+        <v>87.05</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.5</v>
+        <v>-22.9</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F227" t="n">
+        <v>15.85</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -162,7 +149,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/24/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/28/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$227</f>
+              <f>'data'!$B$2:$B$233</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +208,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$227</f>
+              <f>'data'!$C$2:$C$233</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +235,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$227</f>
+              <f>'data'!$D$2:$D$233</f>
             </numRef>
           </val>
         </ser>
@@ -275,34 +262,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$E$2:$E$227</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$227</f>
+              <f>'data'!$E$2:$E$233</f>
             </numRef>
           </val>
         </ser>
@@ -672,9 +632,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -688,29 +648,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Cedric</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cheyenne</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Fish</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -722,21 +677,15 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D3" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -745,13 +694,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.33</v>
+        <v>0.17</v>
       </c>
       <c r="C4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.1</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="5">
@@ -759,13 +705,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.95</v>
+        <v>0.58</v>
       </c>
       <c r="C5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-3.41</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="6">
@@ -773,13 +716,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.9</v>
+        <v>0.84</v>
       </c>
       <c r="C6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-5.4</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="7">
@@ -787,13 +727,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.25</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-6.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -801,13 +738,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.23</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-7.74</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -815,13 +749,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.96</v>
+        <v>1.05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-8.470000000000001</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="10">
@@ -829,13 +760,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.6</v>
+        <v>1.09</v>
       </c>
       <c r="C10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-9.119999999999999</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="11">
@@ -843,13 +771,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.119999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="C11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-9.640000000000001</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="12">
@@ -857,13 +782,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.119999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="C12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-9.640000000000001</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="13">
@@ -871,13 +793,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.390000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="C13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-11.04</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="14">
@@ -885,13 +804,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.31</v>
+        <v>1.18</v>
       </c>
       <c r="C14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-12.87</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="15">
@@ -899,13 +815,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.25</v>
+        <v>1.24</v>
       </c>
       <c r="C15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-14.72</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="16">
@@ -913,13 +826,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.8</v>
+        <v>1.45</v>
       </c>
       <c r="C16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-15.25</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="17">
@@ -927,13 +837,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.79</v>
+        <v>1.8</v>
       </c>
       <c r="C17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-15.85</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="18">
@@ -941,13 +848,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.45</v>
+        <v>2.18</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-16.45</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="19">
@@ -955,13 +859,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.09</v>
+        <v>2.69</v>
       </c>
       <c r="C19" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-17.08</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="20">
@@ -969,13 +870,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.82</v>
+        <v>3.07</v>
       </c>
       <c r="C20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-17.72</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="21">
@@ -983,13 +881,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.49</v>
+        <v>3.85</v>
       </c>
       <c r="C21" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-18.3</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="22">
@@ -997,13 +892,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.27</v>
+        <v>4.71</v>
       </c>
       <c r="C22" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-18.94</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="23">
@@ -1011,13 +903,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.16</v>
+        <v>5.55</v>
       </c>
       <c r="C23" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-19.62</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="24">
@@ -1025,13 +914,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.61</v>
+        <v>6.36</v>
       </c>
       <c r="C24" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-19.88</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="25">
@@ -1039,13 +925,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.03</v>
+        <v>7.17</v>
       </c>
       <c r="C25" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-20.12</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="26">
@@ -1053,13 +936,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10.27</v>
+        <v>7.67</v>
       </c>
       <c r="C26" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-21.78</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="27">
@@ -1067,13 +947,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.07</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-23.37</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1081,13 +958,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.24</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-24.99</v>
+        <v>-8.359999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1095,13 +969,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.42</v>
+        <v>8.69</v>
       </c>
       <c r="C29" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-26.58</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="30">
@@ -1109,13 +980,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.5</v>
+        <v>9.02</v>
       </c>
       <c r="C30" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-28.18</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="31">
@@ -1123,13 +991,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.59</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>19.14</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-29.79</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="32">
@@ -1137,13 +1002,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.5</v>
+        <v>8.98</v>
       </c>
       <c r="C32" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-31.28</v>
+        <v>-8.98</v>
       </c>
     </row>
     <row r="33">
@@ -1151,13 +1013,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.25</v>
+        <v>9.06</v>
       </c>
       <c r="C33" t="n">
-        <v>22.35</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-32.69</v>
+        <v>-9.06</v>
       </c>
     </row>
     <row r="34">
@@ -1165,13 +1024,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.04</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-34.11</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1179,13 +1035,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.92</v>
+        <v>9.27</v>
       </c>
       <c r="C35" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-35.61</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="36">
@@ -1193,16 +1046,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.94</v>
+        <v>9.43</v>
       </c>
       <c r="C36" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-35.75</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="37">
@@ -1210,16 +1057,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.949999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="C37" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-35.87</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
+        <v>-9.56</v>
       </c>
     </row>
     <row r="38">
@@ -1227,16 +1068,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.84</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>26.07</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-36.01</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-0.06666666666666667</v>
+        <v>-9.720000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1244,16 +1079,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.76</v>
+        <v>9.81</v>
       </c>
       <c r="C39" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-36.12</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.125</v>
+        <v>-9.81</v>
       </c>
     </row>
     <row r="40">
@@ -1261,16 +1090,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.720000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="C40" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-36.23</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-0.16</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="41">
@@ -1278,16 +1101,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.84</v>
+        <v>9.99</v>
       </c>
       <c r="C41" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-36.48</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-0.2833333333333333</v>
+        <v>-9.99</v>
       </c>
     </row>
     <row r="42">
@@ -1295,16 +1112,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.08</v>
+        <v>10.05</v>
       </c>
       <c r="C42" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-36.8</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-0.4</v>
+        <v>-10.05</v>
       </c>
     </row>
     <row r="43">
@@ -1312,16 +1123,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.47</v>
+        <v>10.03</v>
       </c>
       <c r="C43" t="n">
-        <v>27.05</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-37.25</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-10.03</v>
       </c>
     </row>
     <row r="44">
@@ -1329,16 +1134,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.81</v>
+        <v>10.08</v>
       </c>
       <c r="C44" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-37.67</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-0.5777777777777778</v>
+        <v>-10.08</v>
       </c>
     </row>
     <row r="45">
@@ -1346,16 +1145,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.07</v>
+        <v>10.13</v>
       </c>
       <c r="C45" t="n">
-        <v>27.52</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-38.07</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-0.6399999999999999</v>
+        <v>-10.13</v>
       </c>
     </row>
     <row r="46">
@@ -1363,16 +1156,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.45</v>
+        <v>10.18</v>
       </c>
       <c r="C46" t="n">
-        <v>27.61</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-38.42</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-0.6399999999999999</v>
+        <v>-10.18</v>
       </c>
     </row>
     <row r="47">
@@ -1380,16 +1167,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.86</v>
+        <v>10.26</v>
       </c>
       <c r="C47" t="n">
-        <v>27.71</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-38.78</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-0.78</v>
+        <v>-10.26</v>
       </c>
     </row>
     <row r="48">
@@ -1397,16 +1178,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.39</v>
+        <v>10.34</v>
       </c>
       <c r="C48" t="n">
-        <v>27.63</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-39.09</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-0.93</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="49">
@@ -1414,16 +1189,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.9</v>
+        <v>10.5</v>
       </c>
       <c r="C49" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-39.43</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-1.01</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="50">
@@ -1431,16 +1200,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.39</v>
+        <v>10.69</v>
       </c>
       <c r="C50" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-39.79</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-1.08</v>
+        <v>-10.69</v>
       </c>
     </row>
     <row r="51">
@@ -1448,16 +1211,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.7</v>
+        <v>10.57</v>
       </c>
       <c r="C51" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-39.98</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-1.17</v>
+        <v>-10.57</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1222,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.94</v>
+        <v>10.45</v>
       </c>
       <c r="C52" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-40.18</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
+        <v>-10.45</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1233,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.1</v>
+        <v>10.36</v>
       </c>
       <c r="C53" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-40.26</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.1</v>
+        <v>-10.36</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1244,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.25</v>
+        <v>10.09</v>
       </c>
       <c r="C54" t="n">
-        <v>27.33</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-40.32</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-0.2</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1255,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.45</v>
+        <v>9.74</v>
       </c>
       <c r="C55" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-40.34</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-0.25</v>
+        <v>-9.74</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1266,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.64</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-40.35</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-0.28</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1277,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.81</v>
+        <v>9.15</v>
       </c>
       <c r="C57" t="n">
-        <v>27.07</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-40.36</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-0.3</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1288,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.91</v>
+        <v>8.91</v>
       </c>
       <c r="C58" t="n">
-        <v>27.06</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-40.39</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-0.3428571428571429</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1299,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.81</v>
+        <v>8.66</v>
       </c>
       <c r="C59" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-41.34</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-1.47</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-0.6600000000000001</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1310,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.64</v>
+        <v>8.33</v>
       </c>
       <c r="C60" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-42.28</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-0.9955555555555556</v>
+        <v>-8.33</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1321,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.59</v>
+        <v>8.31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.13</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-43.21</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-1.264</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1332,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.71</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>32.37</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-44.13</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-1.264</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1343,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.83</v>
+        <v>8.41</v>
       </c>
       <c r="C63" t="n">
-        <v>33.64</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-45.11</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-1.802</v>
+        <v>-8.41</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1354,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.18</v>
+        <v>8.59</v>
       </c>
       <c r="C64" t="n">
-        <v>35.74</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-46.11</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-2.377</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1365,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.5</v>
+        <v>8.67</v>
       </c>
       <c r="C65" t="n">
-        <v>37.85</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-47.09</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-2.922</v>
+        <v>-8.67</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1376,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.76</v>
+        <v>8.75</v>
       </c>
       <c r="C66" t="n">
-        <v>40.05</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-48.06</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-3.547</v>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1387,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.02</v>
+        <v>8.69</v>
       </c>
       <c r="C67" t="n">
-        <v>42.12</v>
+        <v>-8.69</v>
       </c>
       <c r="D67" t="n">
-        <v>-49.04</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-4.052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1401,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.1</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>44.21</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-4.377000000000001</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1415,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.54</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>45.11</v>
+        <v>-8.34</v>
       </c>
       <c r="D69" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.8899999999999999</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-4.762000000000001</v>
+        <v>-0.3333333333333333</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1429,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.98</v>
+        <v>8.31</v>
       </c>
       <c r="C70" t="n">
-        <v>45.71</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-4.829000000000001</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1443,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.32</v>
+        <v>8.26</v>
       </c>
       <c r="C71" t="n">
-        <v>46.25</v>
+        <v>-8.08</v>
       </c>
       <c r="D71" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.8099999999999998</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-4.756000000000001</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1457,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.550000000000001</v>
+        <v>7.47</v>
       </c>
       <c r="C72" t="n">
-        <v>46.96</v>
+        <v>-7.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.7899999999999998</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-4.723000000000001</v>
+        <v>-0.5666666666666668</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1471,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.71</v>
+        <v>6.58</v>
       </c>
       <c r="C73" t="n">
-        <v>47.69</v>
+        <v>-6.22</v>
       </c>
       <c r="D73" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-4.180000000000001</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1485,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.71</v>
+        <v>5.61</v>
       </c>
       <c r="C74" t="n">
-        <v>47.53</v>
+        <v>-5.16</v>
       </c>
       <c r="D74" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-1.660000000000001</v>
-      </c>
-      <c r="F74" t="n">
-        <v>-3.58</v>
+        <v>-0.625</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1499,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.73</v>
+        <v>4.77</v>
       </c>
       <c r="C75" t="n">
-        <v>47.36</v>
+        <v>-4.23</v>
       </c>
       <c r="D75" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-3.009999999999999</v>
+        <v>-0.6555555555555554</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1513,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.5</v>
+        <v>3.98</v>
       </c>
       <c r="C76" t="n">
-        <v>47.09</v>
+        <v>-3.35</v>
       </c>
       <c r="D76" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-2.48</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-2.11</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1527,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.26</v>
+        <v>2.71</v>
       </c>
       <c r="C77" t="n">
-        <v>46.94</v>
+        <v>-1.97</v>
       </c>
       <c r="D77" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-1.3</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1541,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.2</v>
+        <v>1.52</v>
       </c>
       <c r="C78" t="n">
-        <v>46.77</v>
+        <v>-0.65</v>
       </c>
       <c r="D78" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.67</v>
+        <v>-0.8399999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -2005,19 +1555,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.64</v>
+        <v>0.42</v>
       </c>
       <c r="C79" t="n">
-        <v>47.04</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.02000000000000011</v>
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="80">
@@ -2025,19 +1569,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.16</v>
+        <v>-0.73</v>
       </c>
       <c r="C80" t="n">
-        <v>47.33</v>
+        <v>1.59</v>
       </c>
       <c r="D80" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-4.089999999999999</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.6000000000000001</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="81">
@@ -2045,19 +1583,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.75</v>
+        <v>-1.83</v>
       </c>
       <c r="C81" t="n">
-        <v>48.7</v>
+        <v>2.58</v>
       </c>
       <c r="D81" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-4.499999999999999</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1.05</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="82">
@@ -2065,19 +1597,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.26</v>
+        <v>-2.02</v>
       </c>
       <c r="C82" t="n">
-        <v>50.1</v>
+        <v>2.77</v>
       </c>
       <c r="D82" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-4.88</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1.52</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="83">
@@ -2085,19 +1611,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78</v>
+        <v>-2.12</v>
       </c>
       <c r="C83" t="n">
-        <v>51.5</v>
+        <v>2.96</v>
       </c>
       <c r="D83" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1.72</v>
+        <v>-0.8100000000000002</v>
       </c>
     </row>
     <row r="84">
@@ -2105,19 +1625,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.25</v>
+        <v>-2.08</v>
       </c>
       <c r="C84" t="n">
-        <v>52.95</v>
+        <v>2.99</v>
       </c>
       <c r="D84" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-5.11</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1.91</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +1639,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.29</v>
+        <v>-2.06</v>
       </c>
       <c r="C85" t="n">
-        <v>54.41</v>
+        <v>2.97</v>
       </c>
       <c r="D85" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2.12</v>
+        <v>-0.9099999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -2145,19 +1653,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.58</v>
+        <v>-1.97</v>
       </c>
       <c r="C86" t="n">
-        <v>55.79</v>
+        <v>2.95</v>
       </c>
       <c r="D86" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-5.39</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2.18</v>
+        <v>-0.9799999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2165,19 +1667,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.16</v>
+        <v>-1.43</v>
       </c>
       <c r="C87" t="n">
-        <v>58.55</v>
+        <v>2.46</v>
       </c>
       <c r="D87" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2.13</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="88">
@@ -2185,19 +1681,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.73</v>
+        <v>-0.91</v>
       </c>
       <c r="C88" t="n">
-        <v>61.27</v>
+        <v>1.93</v>
       </c>
       <c r="D88" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-5.726999999999999</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2.194</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="89">
@@ -2205,19 +1695,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-9.970000000000001</v>
+        <v>-0.45</v>
       </c>
       <c r="C89" t="n">
-        <v>63.67</v>
+        <v>1.45</v>
       </c>
       <c r="D89" t="n">
-        <v>-50.12</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-5.864</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2.278</v>
+        <v>-0.9999999999999998</v>
       </c>
     </row>
     <row r="90">
@@ -2225,19 +1709,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-12.23</v>
+        <v>-0.01</v>
       </c>
       <c r="C90" t="n">
-        <v>66.18000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="D90" t="n">
-        <v>-50.25</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-6.081</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2.382000000000001</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="91">
@@ -2245,19 +1723,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-13.55</v>
+        <v>0.34</v>
       </c>
       <c r="C91" t="n">
-        <v>67.66</v>
+        <v>0.89</v>
       </c>
       <c r="D91" t="n">
-        <v>-50.41</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-6.278</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2.576</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="92">
@@ -2265,19 +1737,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-14.81</v>
+        <v>0.53</v>
       </c>
       <c r="C92" t="n">
-        <v>69.12</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-50.57</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-6.464999999999999</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2.73</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="93">
@@ -2285,19 +1751,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-16.62</v>
+        <v>0.64</v>
       </c>
       <c r="C93" t="n">
-        <v>70.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>-50.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-6.672</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2.813999999999999</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +1765,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-18.44</v>
+        <v>0.49</v>
       </c>
       <c r="C94" t="n">
-        <v>71.97</v>
+        <v>0.41</v>
       </c>
       <c r="D94" t="n">
-        <v>-49.64</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-6.889</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2.988</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +1779,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-20.24</v>
+        <v>0.35</v>
       </c>
       <c r="C95" t="n">
-        <v>73.36</v>
+        <v>0.32</v>
       </c>
       <c r="D95" t="n">
-        <v>-49.19</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-7.086</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3.161999999999999</v>
+        <v>-0.6699999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -2345,19 +1793,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-22.05</v>
+        <v>0.13</v>
       </c>
       <c r="C96" t="n">
-        <v>74.84999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D96" t="n">
-        <v>-48.76</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-7.263</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3.216</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="97">
@@ -2365,19 +1807,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-22.3</v>
+        <v>-0.25</v>
       </c>
       <c r="C97" t="n">
-        <v>74.97</v>
+        <v>0.15</v>
       </c>
       <c r="D97" t="n">
-        <v>-48.57</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-7.44</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3.34</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="98">
@@ -2385,19 +1821,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-22.37</v>
+        <v>-0.59</v>
       </c>
       <c r="C98" t="n">
-        <v>75.15000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="D98" t="n">
-        <v>-48.39</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-7.58</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3.185</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2405,19 +1835,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-22.43</v>
+        <v>-0.41</v>
       </c>
       <c r="C99" t="n">
-        <v>75.28</v>
+        <v>-0.08</v>
       </c>
       <c r="D99" t="n">
-        <v>-48.15</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-7.73</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3.03</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="100">
@@ -2425,19 +1849,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-24.39</v>
+        <v>-0.39</v>
       </c>
       <c r="C100" t="n">
-        <v>75.31</v>
+        <v>0.01</v>
       </c>
       <c r="D100" t="n">
-        <v>-45.91</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-7.799999999999999</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2.795</v>
+        <v>0.3799999999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2445,19 +1863,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-26.35</v>
+        <v>-0.42</v>
       </c>
       <c r="C101" t="n">
-        <v>75.34</v>
+        <v>0.17</v>
       </c>
       <c r="D101" t="n">
-        <v>-43.64</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-7.869999999999999</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2.52</v>
+        <v>0.2500000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2465,19 +1877,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-28.37</v>
+        <v>-0.46</v>
       </c>
       <c r="C102" t="n">
-        <v>75.36</v>
+        <v>0.28</v>
       </c>
       <c r="D102" t="n">
-        <v>-41.38</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-7.959999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2.345</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="103">
@@ -2485,19 +1891,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-29.78</v>
+        <v>-0.58</v>
       </c>
       <c r="C103" t="n">
-        <v>75.36</v>
+        <v>0.38</v>
       </c>
       <c r="D103" t="n">
-        <v>-39.71</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-8.039999999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="104">
@@ -2505,19 +1905,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-31.2</v>
+        <v>-0.44</v>
       </c>
       <c r="C104" t="n">
-        <v>75.81</v>
+        <v>0.49</v>
       </c>
       <c r="D104" t="n">
-        <v>-38.06</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-8.109999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.565</v>
+        <v>-0.04999999999999989</v>
       </c>
     </row>
     <row r="105">
@@ -2525,19 +1919,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-32.65</v>
+        <v>-0.32</v>
       </c>
       <c r="C105" t="n">
-        <v>76.33</v>
+        <v>0.64</v>
       </c>
       <c r="D105" t="n">
-        <v>-36.41</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-8.18</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.9029999999999999</v>
+        <v>-0.3100000000000002</v>
       </c>
     </row>
     <row r="106">
@@ -2545,19 +1933,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-34.12</v>
+        <v>-0.23</v>
       </c>
       <c r="C106" t="n">
-        <v>77.06</v>
+        <v>0.76</v>
       </c>
       <c r="D106" t="n">
-        <v>-34.74</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-8.27</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.07600000000000011</v>
+        <v>-0.5100000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -2565,19 +1947,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-35.84</v>
+        <v>0.05</v>
       </c>
       <c r="C107" t="n">
-        <v>77.79000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="D107" t="n">
-        <v>-32.83</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-8.379999999999999</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.7409999999999999</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="108">
@@ -2585,19 +1961,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-36.74</v>
+        <v>0.24</v>
       </c>
       <c r="C108" t="n">
-        <v>77.53</v>
+        <v>1.25</v>
       </c>
       <c r="D108" t="n">
-        <v>-30.91</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-8.48</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-1.393</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="109">
@@ -2605,19 +1975,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-37.65</v>
+        <v>-0.2</v>
       </c>
       <c r="C109" t="n">
-        <v>77.17</v>
+        <v>1.64</v>
       </c>
       <c r="D109" t="n">
-        <v>-28.95</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-8.56</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-2.015</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="110">
@@ -2625,19 +1989,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-36.24</v>
+        <v>-0.45</v>
       </c>
       <c r="C110" t="n">
-        <v>76.83</v>
+        <v>1.84</v>
       </c>
       <c r="D110" t="n">
-        <v>-29.03</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-2.857</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="111">
@@ -2645,19 +2003,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-34.81</v>
+        <v>-0.61</v>
       </c>
       <c r="C111" t="n">
-        <v>76.48999999999999</v>
+        <v>1.96</v>
       </c>
       <c r="D111" t="n">
-        <v>-29.13</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-8.860000000000001</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-3.689</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="112">
@@ -2665,19 +2017,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-33.45</v>
+        <v>-0.76</v>
       </c>
       <c r="C112" t="n">
-        <v>76.31</v>
+        <v>2.11</v>
       </c>
       <c r="D112" t="n">
-        <v>-29.28</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-4.561</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="113">
@@ -2685,19 +2031,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-32.08</v>
+        <v>-0.9</v>
       </c>
       <c r="C113" t="n">
-        <v>76.06</v>
+        <v>2.3</v>
       </c>
       <c r="D113" t="n">
-        <v>-29.46</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-9.25</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-5.273000000000001</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="114">
@@ -2705,19 +2045,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-30.98</v>
+        <v>-0.89</v>
       </c>
       <c r="C114" t="n">
-        <v>75.37</v>
+        <v>2.36</v>
       </c>
       <c r="D114" t="n">
-        <v>-29.64</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-9.030000000000001</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-5.715000000000002</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="115">
@@ -2725,19 +2059,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-29.82</v>
+        <v>-0.91</v>
       </c>
       <c r="C115" t="n">
-        <v>74.61</v>
+        <v>2.44</v>
       </c>
       <c r="D115" t="n">
-        <v>-29.82</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-8.81</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-6.160000000000001</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="116">
@@ -2745,19 +2073,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-28.46</v>
+        <v>-1.02</v>
       </c>
       <c r="C116" t="n">
-        <v>73.62</v>
+        <v>2.27</v>
       </c>
       <c r="D116" t="n">
-        <v>-30.08</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-8.57</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-6.5</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="117">
@@ -2765,19 +2087,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-30.5</v>
+        <v>-1.16</v>
       </c>
       <c r="C117" t="n">
-        <v>76.15000000000001</v>
+        <v>2.12</v>
       </c>
       <c r="D117" t="n">
-        <v>-30.41</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-8.329999999999998</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-6.910000000000001</v>
+        <v>-0.9399999999999998</v>
       </c>
     </row>
     <row r="118">
@@ -2785,19 +2101,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-33.52</v>
+        <v>-1.24</v>
       </c>
       <c r="C118" t="n">
-        <v>79.76000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="D118" t="n">
-        <v>-30.74</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-7.400000000000001</v>
+        <v>-0.6900000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -2805,19 +2115,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-36.55</v>
+        <v>-1.1</v>
       </c>
       <c r="C119" t="n">
-        <v>83.38</v>
+        <v>1.59</v>
       </c>
       <c r="D119" t="n">
-        <v>-31.04</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-7.869999999999999</v>
-      </c>
-      <c r="F119" t="n">
-        <v>-7.92</v>
+        <v>-0.497</v>
       </c>
     </row>
     <row r="120">
@@ -2825,19 +2129,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-40</v>
+        <v>-1.01</v>
       </c>
       <c r="C120" t="n">
-        <v>87</v>
+        <v>1.31</v>
       </c>
       <c r="D120" t="n">
-        <v>-31.18</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-7.659999999999998</v>
-      </c>
-      <c r="F120" t="n">
-        <v>-8.16</v>
+        <v>-0.304</v>
       </c>
     </row>
     <row r="121">
@@ -2845,19 +2143,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-43.48</v>
+        <v>-0.96</v>
       </c>
       <c r="C121" t="n">
-        <v>90.61</v>
+        <v>1.04</v>
       </c>
       <c r="D121" t="n">
-        <v>-31.32</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-7.489999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>-8.33</v>
+        <v>-0.08099999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2865,19 +2157,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-46.88</v>
+        <v>-0.97</v>
       </c>
       <c r="C122" t="n">
-        <v>93.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>-31.39</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-6.599999999999999</v>
-      </c>
-      <c r="F122" t="n">
-        <v>-9</v>
+        <v>0.2819999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2885,19 +2171,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-50.29</v>
+        <v>-1</v>
       </c>
       <c r="C123" t="n">
-        <v>97.2</v>
+        <v>0.3</v>
       </c>
       <c r="D123" t="n">
-        <v>-31.48</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-5.028999999999999</v>
-      </c>
-      <c r="F123" t="n">
-        <v>-10.401</v>
+        <v>0.7049999999999998</v>
       </c>
     </row>
     <row r="124">
@@ -2905,19 +2185,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-53.43</v>
+        <v>-0.67</v>
       </c>
       <c r="C124" t="n">
-        <v>100.61</v>
+        <v>-0.21</v>
       </c>
       <c r="D124" t="n">
-        <v>-31.56</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-3.908</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-11.72</v>
+        <v>0.8779999999999998</v>
       </c>
     </row>
     <row r="125">
@@ -2925,19 +2199,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-56.63</v>
+        <v>-0.2</v>
       </c>
       <c r="C125" t="n">
-        <v>104.09</v>
+        <v>-0.84</v>
       </c>
       <c r="D125" t="n">
-        <v>-31.63</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="F125" t="n">
-        <v>-12.973</v>
+        <v>1.031</v>
       </c>
     </row>
     <row r="126">
@@ -2945,19 +2213,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-60</v>
+        <v>0.28</v>
       </c>
       <c r="C126" t="n">
-        <v>107.57</v>
+        <v>-1.1</v>
       </c>
       <c r="D126" t="n">
-        <v>-31.62</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-1.802</v>
-      </c>
-      <c r="F126" t="n">
-        <v>-14.146</v>
+        <v>0.8239999999999998</v>
       </c>
     </row>
     <row r="127">
@@ -2965,19 +2227,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-60</v>
+        <v>0.76</v>
       </c>
       <c r="C127" t="n">
-        <v>107.26</v>
+        <v>-1.41</v>
       </c>
       <c r="D127" t="n">
-        <v>-31.28</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-0.7339999999999998</v>
-      </c>
-      <c r="F127" t="n">
-        <v>-15.249</v>
+        <v>0.6569999999999999</v>
       </c>
     </row>
     <row r="128">
@@ -2985,19 +2241,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-60</v>
+        <v>1.18</v>
       </c>
       <c r="C128" t="n">
-        <v>106.86</v>
+        <v>-1.77</v>
       </c>
       <c r="D128" t="n">
-        <v>-30.96</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.3830000000000003</v>
-      </c>
-      <c r="F128" t="n">
-        <v>-16.281</v>
+        <v>0.5900000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -3005,19 +2255,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-60</v>
+        <v>1.49</v>
       </c>
       <c r="C129" t="n">
-        <v>106.55</v>
+        <v>-2.06</v>
       </c>
       <c r="D129" t="n">
-        <v>-30.65</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="F129" t="n">
-        <v>-17.313</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="130">
@@ -3025,19 +2269,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-60</v>
+        <v>1.84</v>
       </c>
       <c r="C130" t="n">
-        <v>106.26</v>
+        <v>-2.4</v>
       </c>
       <c r="D130" t="n">
-        <v>-30.44</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.507</v>
-      </c>
-      <c r="F130" t="n">
-        <v>-18.325</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="131">
@@ -3045,19 +2283,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-60</v>
+        <v>2.27</v>
       </c>
       <c r="C131" t="n">
-        <v>105.9</v>
+        <v>-2.76</v>
       </c>
       <c r="D131" t="n">
-        <v>-30.17</v>
-      </c>
-      <c r="E131" t="n">
-        <v>3.663999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-19.397</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="132">
@@ -3065,19 +2297,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-60</v>
+        <v>2.82</v>
       </c>
       <c r="C132" t="n">
-        <v>105.75</v>
+        <v>-3.05</v>
       </c>
       <c r="D132" t="n">
-        <v>-29.88</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-19.969</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="133">
@@ -3085,19 +2311,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-60</v>
+        <v>3.41</v>
       </c>
       <c r="C133" t="n">
-        <v>105.58</v>
+        <v>-3.33</v>
       </c>
       <c r="D133" t="n">
-        <v>-29.54</v>
-      </c>
-      <c r="E133" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-19.97</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="134">
@@ -3105,19 +2325,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-60</v>
+        <v>3.49</v>
       </c>
       <c r="C134" t="n">
-        <v>105.31</v>
+        <v>-3.34</v>
       </c>
       <c r="D134" t="n">
-        <v>-29.19</v>
-      </c>
-      <c r="E134" t="n">
-        <v>3.733000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>-19.833</v>
+        <v>-0.148</v>
       </c>
     </row>
     <row r="135">
@@ -3125,19 +2339,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-60</v>
+        <v>3.31</v>
       </c>
       <c r="C135" t="n">
-        <v>104.88</v>
+        <v>-3.29</v>
       </c>
       <c r="D135" t="n">
-        <v>-28.84</v>
-      </c>
-      <c r="E135" t="n">
-        <v>3.742</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-19.742</v>
+        <v>-0.01500000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -3145,19 +2353,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-60</v>
+        <v>3.18</v>
       </c>
       <c r="C136" t="n">
-        <v>104.72</v>
+        <v>-3.25</v>
       </c>
       <c r="D136" t="n">
-        <v>-28.49</v>
-      </c>
-      <c r="E136" t="n">
-        <v>3.704</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-19.879</v>
+        <v>0.06799999999999998</v>
       </c>
     </row>
     <row r="137">
@@ -3165,19 +2367,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-60</v>
+        <v>3.07</v>
       </c>
       <c r="C137" t="n">
-        <v>104.81</v>
+        <v>-3.21</v>
       </c>
       <c r="D137" t="n">
-        <v>-28.42</v>
-      </c>
-      <c r="E137" t="n">
-        <v>3.586</v>
-      </c>
-      <c r="F137" t="n">
-        <v>-19.916</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="138">
@@ -3185,19 +2381,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-60</v>
+        <v>3.04</v>
       </c>
       <c r="C138" t="n">
-        <v>104.88</v>
+        <v>-3.16</v>
       </c>
       <c r="D138" t="n">
-        <v>-28.32</v>
-      </c>
-      <c r="E138" t="n">
-        <v>3.439</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-19.944</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="139">
@@ -3205,19 +2395,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-60</v>
+        <v>2.87</v>
       </c>
       <c r="C139" t="n">
-        <v>104.87</v>
+        <v>-2.99</v>
       </c>
       <c r="D139" t="n">
-        <v>-28.24</v>
-      </c>
-      <c r="E139" t="n">
-        <v>3.382</v>
-      </c>
-      <c r="F139" t="n">
-        <v>-19.952</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="140">
@@ -3225,19 +2409,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-60</v>
+        <v>2.72</v>
       </c>
       <c r="C140" t="n">
-        <v>104.84</v>
+        <v>-2.84</v>
       </c>
       <c r="D140" t="n">
-        <v>-28.18</v>
-      </c>
-      <c r="E140" t="n">
-        <v>3.365</v>
-      </c>
-      <c r="F140" t="n">
-        <v>-19.97</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="141">
@@ -3245,19 +2423,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-60</v>
+        <v>2.51</v>
       </c>
       <c r="C141" t="n">
-        <v>104.86</v>
+        <v>-2.68</v>
       </c>
       <c r="D141" t="n">
-        <v>-28.18</v>
-      </c>
-      <c r="E141" t="n">
-        <v>3.338</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-19.958</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="142">
@@ -3265,19 +2437,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-60</v>
+        <v>2.28</v>
       </c>
       <c r="C142" t="n">
-        <v>104.87</v>
+        <v>-2.56</v>
       </c>
       <c r="D142" t="n">
-        <v>-28.22</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3.241000000000001</v>
-      </c>
-      <c r="F142" t="n">
-        <v>-19.826</v>
+        <v>0.2799999999999999</v>
       </c>
     </row>
     <row r="143">
@@ -3285,19 +2451,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-60</v>
+        <v>2.03</v>
       </c>
       <c r="C143" t="n">
-        <v>104.92</v>
+        <v>-2.54</v>
       </c>
       <c r="D143" t="n">
-        <v>-28.3</v>
+        <v>0.5100000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="F143" t="n">
-        <v>-19.714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3305,19 +2468,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-60</v>
+        <v>1.76</v>
       </c>
       <c r="C144" t="n">
-        <v>105.11</v>
+        <v>-2.54</v>
       </c>
       <c r="D144" t="n">
-        <v>-28.38</v>
+        <v>0.78</v>
       </c>
       <c r="E144" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="F144" t="n">
-        <v>-19.752</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="145">
@@ -3325,19 +2485,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-60</v>
+        <v>1.66</v>
       </c>
       <c r="C145" t="n">
-        <v>105.33</v>
+        <v>-2.45</v>
       </c>
       <c r="D145" t="n">
-        <v>-28.39</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>2.830000000000001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>-19.75</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="146">
@@ -3345,19 +2502,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-60</v>
+        <v>1.57</v>
       </c>
       <c r="C146" t="n">
-        <v>105.65</v>
+        <v>-2.41</v>
       </c>
       <c r="D146" t="n">
-        <v>-28.42</v>
+        <v>0.9</v>
       </c>
       <c r="E146" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F146" t="n">
-        <v>-19.86</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="147">
@@ -3365,19 +2519,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-60</v>
+        <v>1.41</v>
       </c>
       <c r="C147" t="n">
-        <v>105.99</v>
+        <v>-2.42</v>
       </c>
       <c r="D147" t="n">
-        <v>-28.39</v>
+        <v>1.11</v>
       </c>
       <c r="E147" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-20.09</v>
+        <v>-0.6599999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -3385,19 +2536,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-60</v>
+        <v>1.44</v>
       </c>
       <c r="C148" t="n">
-        <v>106.34</v>
+        <v>-2.43</v>
       </c>
       <c r="D148" t="n">
-        <v>-28.33</v>
+        <v>1.32</v>
       </c>
       <c r="E148" t="n">
-        <v>2.330000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>-20.34</v>
+        <v>-0.8333333333333335</v>
       </c>
     </row>
     <row r="149">
@@ -3405,19 +2553,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-60</v>
+        <v>1.53</v>
       </c>
       <c r="C149" t="n">
-        <v>106.67</v>
+        <v>-2.56</v>
       </c>
       <c r="D149" t="n">
-        <v>-28.01</v>
+        <v>1.53</v>
       </c>
       <c r="E149" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F149" t="n">
-        <v>-20.79</v>
+        <v>-1.085714285714286</v>
       </c>
     </row>
     <row r="150">
@@ -3425,19 +2570,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-60</v>
+        <v>1.24</v>
       </c>
       <c r="C150" t="n">
-        <v>106.99</v>
+        <v>-1.67</v>
       </c>
       <c r="D150" t="n">
-        <v>-27.64</v>
+        <v>1.19</v>
       </c>
       <c r="E150" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>-21.25</v>
+        <v>-1.2375</v>
       </c>
     </row>
     <row r="151">
@@ -3445,19 +2587,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-60</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>107.33</v>
+        <v>-0.79</v>
       </c>
       <c r="D151" t="n">
-        <v>-27.29</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>1.015</v>
-      </c>
-      <c r="F151" t="n">
-        <v>-21.055</v>
+        <v>-1.355555555555555</v>
       </c>
     </row>
     <row r="152">
@@ -3465,19 +2604,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-60</v>
+        <v>0.54</v>
       </c>
       <c r="C152" t="n">
-        <v>107.68</v>
+        <v>0.06</v>
       </c>
       <c r="D152" t="n">
-        <v>-27.18</v>
+        <v>0.62</v>
       </c>
       <c r="E152" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="F152" t="n">
-        <v>-20.7</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="153">
@@ -3485,19 +2621,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-60</v>
+        <v>0.12</v>
       </c>
       <c r="C153" t="n">
-        <v>108.03</v>
+        <v>1.04</v>
       </c>
       <c r="D153" t="n">
-        <v>-27.08</v>
+        <v>0.2800000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.6249999999999999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>-20.325</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="154">
@@ -3505,19 +2638,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-60</v>
+        <v>-0.28</v>
       </c>
       <c r="C154" t="n">
-        <v>107.41</v>
+        <v>1.99</v>
       </c>
       <c r="D154" t="n">
-        <v>-27</v>
+        <v>-0.03999999999999981</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="F154" t="n">
-        <v>-18.96</v>
+        <v>-1.679999999999999</v>
       </c>
     </row>
     <row r="155">
@@ -3525,19 +2655,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-60</v>
+        <v>-0.66</v>
       </c>
       <c r="C155" t="n">
-        <v>106.85</v>
+        <v>2.84</v>
       </c>
       <c r="D155" t="n">
-        <v>-27</v>
+        <v>-0.32</v>
       </c>
       <c r="E155" t="n">
-        <v>-2.285</v>
-      </c>
-      <c r="F155" t="n">
-        <v>-17.565</v>
+        <v>-1.859999999999999</v>
       </c>
     </row>
     <row r="156">
@@ -3545,19 +2672,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-60</v>
+        <v>-1.15</v>
       </c>
       <c r="C156" t="n">
-        <v>105.91</v>
+        <v>3.64</v>
       </c>
       <c r="D156" t="n">
-        <v>-26.98</v>
+        <v>-0.4799999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>-3.089999999999999</v>
-      </c>
-      <c r="F156" t="n">
-        <v>-15.84</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="157">
@@ -3565,19 +2689,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-60</v>
+        <v>-1.57</v>
       </c>
       <c r="C157" t="n">
-        <v>104.98</v>
+        <v>4.52</v>
       </c>
       <c r="D157" t="n">
-        <v>-27</v>
+        <v>-0.75</v>
       </c>
       <c r="E157" t="n">
-        <v>-3.884999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>-14.095</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="158">
@@ -3585,19 +2706,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-60</v>
+        <v>-2.28</v>
       </c>
       <c r="C158" t="n">
-        <v>103.99</v>
+        <v>5.5</v>
       </c>
       <c r="D158" t="n">
-        <v>-27.12</v>
+        <v>-1.01</v>
       </c>
       <c r="E158" t="n">
-        <v>-4.659999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>-12.21</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="159">
@@ -3605,19 +2723,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-60</v>
+        <v>-2.94</v>
       </c>
       <c r="C159" t="n">
-        <v>103.85</v>
+        <v>6.46</v>
       </c>
       <c r="D159" t="n">
-        <v>-28.12</v>
+        <v>-1.2</v>
       </c>
       <c r="E159" t="n">
-        <v>-5.487</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-10.237</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="160">
@@ -3625,19 +2740,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-60</v>
+        <v>-3.21</v>
       </c>
       <c r="C160" t="n">
-        <v>103.59</v>
+        <v>6.41</v>
       </c>
       <c r="D160" t="n">
-        <v>-29.16</v>
+        <v>-0.8600000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>-6.334</v>
-      </c>
-      <c r="F160" t="n">
-        <v>-8.1</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="161">
@@ -3645,19 +2757,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-60</v>
+        <v>-3.48</v>
       </c>
       <c r="C161" t="n">
-        <v>103.42</v>
+        <v>6.38</v>
       </c>
       <c r="D161" t="n">
-        <v>-30.24</v>
+        <v>-0.5700000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>-6.525999999999999</v>
-      </c>
-      <c r="F161" t="n">
-        <v>-6.648000000000001</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="162">
@@ -3665,19 +2774,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-60</v>
+        <v>-3.69</v>
       </c>
       <c r="C162" t="n">
-        <v>103.46</v>
+        <v>6.39</v>
       </c>
       <c r="D162" t="n">
-        <v>-31.17</v>
+        <v>-1.075</v>
       </c>
       <c r="E162" t="n">
-        <v>-6.717999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>-5.576</v>
+        <v>-1.625</v>
       </c>
     </row>
     <row r="163">
@@ -3685,19 +2791,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-60</v>
+        <v>-3.86</v>
       </c>
       <c r="C163" t="n">
-        <v>103.47</v>
+        <v>6.39</v>
       </c>
       <c r="D163" t="n">
-        <v>-32.15</v>
+        <v>-1.6</v>
       </c>
       <c r="E163" t="n">
-        <v>-6.74</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-4.584</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="164">
@@ -3705,19 +2808,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-60</v>
+        <v>-3.93</v>
       </c>
       <c r="C164" t="n">
-        <v>104.43</v>
+        <v>6.33</v>
       </c>
       <c r="D164" t="n">
-        <v>-33.13</v>
+        <v>-2.185</v>
       </c>
       <c r="E164" t="n">
-        <v>-7.002</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-4.292000000000001</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="165">
@@ -3725,19 +2825,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-60</v>
+        <v>-3.81</v>
       </c>
       <c r="C165" t="n">
-        <v>105.36</v>
+        <v>6.12</v>
       </c>
       <c r="D165" t="n">
-        <v>-34.11</v>
+        <v>-2.75</v>
       </c>
       <c r="E165" t="n">
-        <v>-7.203999999999999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>-4.050000000000001</v>
+        <v>0.4399999999999998</v>
       </c>
     </row>
     <row r="166">
@@ -3745,19 +2842,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-60</v>
+        <v>-3.43</v>
       </c>
       <c r="C166" t="n">
-        <v>106.31</v>
+        <v>5.91</v>
       </c>
       <c r="D166" t="n">
-        <v>-35.1</v>
+        <v>-3.507</v>
       </c>
       <c r="E166" t="n">
-        <v>-7.406000000000001</v>
-      </c>
-      <c r="F166" t="n">
-        <v>-3.798</v>
+        <v>1.023</v>
       </c>
     </row>
     <row r="167">
@@ -3765,19 +2859,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-60</v>
+        <v>-3.29</v>
       </c>
       <c r="C167" t="n">
-        <v>107.24</v>
+        <v>5.98</v>
       </c>
       <c r="D167" t="n">
-        <v>-36.08</v>
+        <v>-4.314</v>
       </c>
       <c r="E167" t="n">
-        <v>-7.597999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-3.566</v>
+        <v>1.626</v>
       </c>
     </row>
     <row r="168">
@@ -3785,19 +2876,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-60</v>
+        <v>-2.9</v>
       </c>
       <c r="C168" t="n">
-        <v>108.23</v>
+        <v>5.86</v>
       </c>
       <c r="D168" t="n">
-        <v>-37.05</v>
+        <v>-5.201</v>
       </c>
       <c r="E168" t="n">
-        <v>-7.970000000000001</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-3.214</v>
+        <v>2.239</v>
       </c>
     </row>
     <row r="169">
@@ -3805,19 +2893,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-60</v>
+        <v>-2.52</v>
       </c>
       <c r="C169" t="n">
-        <v>108.38</v>
+        <v>5.83</v>
       </c>
       <c r="D169" t="n">
-        <v>-37.6</v>
+        <v>-6.157999999999999</v>
       </c>
       <c r="E169" t="n">
-        <v>-7.870000000000002</v>
-      </c>
-      <c r="F169" t="n">
-        <v>-2.91</v>
+        <v>2.851999999999999</v>
       </c>
     </row>
     <row r="170">
@@ -3825,19 +2910,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-60</v>
+        <v>-2.16</v>
       </c>
       <c r="C170" t="n">
-        <v>108.81</v>
+        <v>5.78</v>
       </c>
       <c r="D170" t="n">
-        <v>-38.23</v>
+        <v>-7.125</v>
       </c>
       <c r="E170" t="n">
-        <v>-7.750000000000002</v>
-      </c>
-      <c r="F170" t="n">
-        <v>-2.83</v>
+        <v>3.505</v>
       </c>
     </row>
     <row r="171">
@@ -3845,19 +2927,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-60</v>
+        <v>-1.78</v>
       </c>
       <c r="C171" t="n">
-        <v>109.09</v>
+        <v>5.83</v>
       </c>
       <c r="D171" t="n">
-        <v>-38.8</v>
+        <v>-8.042</v>
       </c>
       <c r="E171" t="n">
-        <v>-7.69</v>
-      </c>
-      <c r="F171" t="n">
-        <v>-2.6</v>
+        <v>3.998</v>
       </c>
     </row>
     <row r="172">
@@ -3865,19 +2944,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-60</v>
+        <v>-1.24</v>
       </c>
       <c r="C172" t="n">
-        <v>109.15</v>
+        <v>5.81</v>
       </c>
       <c r="D172" t="n">
-        <v>-39.27</v>
+        <v>-8.373999999999999</v>
       </c>
       <c r="E172" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="F172" t="n">
-        <v>-1.73</v>
+        <v>3.806</v>
       </c>
     </row>
     <row r="173">
@@ -3885,19 +2961,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-60</v>
+        <v>-0.75</v>
       </c>
       <c r="C173" t="n">
-        <v>109.19</v>
+        <v>5.81</v>
       </c>
       <c r="D173" t="n">
-        <v>-39.66</v>
+        <v>-8.685999999999998</v>
       </c>
       <c r="E173" t="n">
-        <v>-8.75</v>
-      </c>
-      <c r="F173" t="n">
-        <v>-0.78</v>
+        <v>3.624</v>
       </c>
     </row>
     <row r="174">
@@ -3905,19 +2978,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-60</v>
+        <v>-0.35</v>
       </c>
       <c r="C174" t="n">
-        <v>109.22</v>
+        <v>5.87</v>
       </c>
       <c r="D174" t="n">
-        <v>-39.09</v>
+        <v>-9.038</v>
       </c>
       <c r="E174" t="n">
-        <v>-9.875999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>-0.2500000000000001</v>
+        <v>3.521999999999999</v>
       </c>
     </row>
     <row r="175">
@@ -3925,19 +2995,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-60</v>
+        <v>-0.2</v>
       </c>
       <c r="C175" t="n">
-        <v>109.27</v>
+        <v>6.04</v>
       </c>
       <c r="D175" t="n">
-        <v>-38.54</v>
+        <v>-9.276</v>
       </c>
       <c r="E175" t="n">
-        <v>-11.042</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.3100000000000001</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="176">
@@ -3945,19 +3012,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-60</v>
+        <v>-0.23</v>
       </c>
       <c r="C176" t="n">
-        <v>108.33</v>
+        <v>6.21</v>
       </c>
       <c r="D176" t="n">
-        <v>-37.96</v>
+        <v>-9.401999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>-12.218</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.85</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="177">
@@ -3965,19 +3029,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-60</v>
+        <v>-0.02</v>
       </c>
       <c r="C177" t="n">
-        <v>106.89</v>
+        <v>6.1</v>
       </c>
       <c r="D177" t="n">
-        <v>-36.71</v>
+        <v>-9.507999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>-13.394</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="178">
@@ -3985,19 +3046,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-60</v>
+        <v>0.03</v>
       </c>
       <c r="C178" t="n">
-        <v>105.27</v>
+        <v>6.01</v>
       </c>
       <c r="D178" t="n">
-        <v>-35.4</v>
+        <v>-9.729000000000001</v>
       </c>
       <c r="E178" t="n">
-        <v>-14.39</v>
-      </c>
-      <c r="F178" t="n">
-        <v>4.521</v>
+        <v>3.685</v>
       </c>
     </row>
     <row r="179">
@@ -4005,19 +3063,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-60</v>
+        <v>0.1</v>
       </c>
       <c r="C179" t="n">
-        <v>103.59</v>
+        <v>5.85</v>
       </c>
       <c r="D179" t="n">
-        <v>-33.95</v>
+        <v>-9.940000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>-15.766</v>
-      </c>
-      <c r="F179" t="n">
-        <v>6.132000000000001</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -4025,19 +3080,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-60</v>
+        <v>0.1</v>
       </c>
       <c r="C180" t="n">
-        <v>101.67</v>
+        <v>5.7</v>
       </c>
       <c r="D180" t="n">
-        <v>-32.45</v>
+        <v>-10.141</v>
       </c>
       <c r="E180" t="n">
-        <v>-17.142</v>
-      </c>
-      <c r="F180" t="n">
-        <v>7.923</v>
+        <v>4.345</v>
       </c>
     </row>
     <row r="181">
@@ -4045,19 +3097,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-60</v>
+        <v>0.09</v>
       </c>
       <c r="C181" t="n">
-        <v>99.52</v>
+        <v>5.43</v>
       </c>
       <c r="D181" t="n">
-        <v>-30.61</v>
+        <v>-10.22</v>
       </c>
       <c r="E181" t="n">
-        <v>-18.448</v>
-      </c>
-      <c r="F181" t="n">
-        <v>9.544</v>
+        <v>4.697999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -4065,19 +3114,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-60</v>
+        <v>-0.03</v>
       </c>
       <c r="C182" t="n">
-        <v>97.34999999999999</v>
+        <v>5.22</v>
       </c>
       <c r="D182" t="n">
-        <v>-28.8</v>
+        <v>-10.239</v>
       </c>
       <c r="E182" t="n">
-        <v>-19.214</v>
-      </c>
-      <c r="F182" t="n">
-        <v>10.665</v>
+        <v>5.040999999999999</v>
       </c>
     </row>
     <row r="183">
@@ -4085,19 +3131,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-60</v>
+        <v>-0.19</v>
       </c>
       <c r="C183" t="n">
-        <v>95</v>
+        <v>4.79</v>
       </c>
       <c r="D183" t="n">
-        <v>-27.07</v>
+        <v>-9.972999999999999</v>
       </c>
       <c r="E183" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F183" t="n">
-        <v>12.066</v>
+        <v>5.374</v>
       </c>
     </row>
     <row r="184">
@@ -4105,19 +3148,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-60</v>
+        <v>-0.43</v>
       </c>
       <c r="C184" t="n">
-        <v>92.69</v>
+        <v>4.47</v>
       </c>
       <c r="D184" t="n">
-        <v>-26.28</v>
+        <v>-9.667000000000002</v>
       </c>
       <c r="E184" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F184" t="n">
-        <v>13.587</v>
+        <v>5.627</v>
       </c>
     </row>
     <row r="185">
@@ -4125,19 +3165,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-60</v>
+        <v>-0.63</v>
       </c>
       <c r="C185" t="n">
-        <v>90.37</v>
+        <v>4.22</v>
       </c>
       <c r="D185" t="n">
-        <v>-25.57</v>
+        <v>-9.385000000000002</v>
       </c>
       <c r="E185" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F185" t="n">
-        <v>15.198</v>
+        <v>5.799999999999999</v>
       </c>
     </row>
     <row r="186">
@@ -4145,19 +3182,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-60</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C186" t="n">
-        <v>88.94</v>
+        <v>4.13</v>
       </c>
       <c r="D186" t="n">
-        <v>-24.87</v>
+        <v>-9.143000000000001</v>
       </c>
       <c r="E186" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F186" t="n">
-        <v>15.929</v>
+        <v>5.823</v>
       </c>
     </row>
     <row r="187">
@@ -4165,19 +3199,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-60</v>
+        <v>-0.97</v>
       </c>
       <c r="C187" t="n">
-        <v>88.08</v>
+        <v>4.03</v>
       </c>
       <c r="D187" t="n">
-        <v>-24.88</v>
+        <v>-8.871</v>
       </c>
       <c r="E187" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F187" t="n">
-        <v>16.803</v>
+        <v>5.816</v>
       </c>
     </row>
     <row r="188">
@@ -4185,19 +3216,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-60</v>
+        <v>-1.13</v>
       </c>
       <c r="C188" t="n">
-        <v>87.38</v>
+        <v>3.99</v>
       </c>
       <c r="D188" t="n">
-        <v>-24.9</v>
+        <v>-8.414</v>
       </c>
       <c r="E188" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F188" t="n">
-        <v>17.526</v>
+        <v>5.554</v>
       </c>
     </row>
     <row r="189">
@@ -4205,19 +3233,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-60</v>
+        <v>-0.91</v>
       </c>
       <c r="C189" t="n">
-        <v>86.75</v>
+        <v>3.7</v>
       </c>
       <c r="D189" t="n">
-        <v>-24.84</v>
+        <v>-8.067</v>
       </c>
       <c r="E189" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F189" t="n">
-        <v>18.089</v>
+        <v>5.271999999999999</v>
       </c>
     </row>
     <row r="190">
@@ -4225,19 +3250,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-60</v>
+        <v>-0.6</v>
       </c>
       <c r="C190" t="n">
-        <v>86.2</v>
+        <v>3.4</v>
       </c>
       <c r="D190" t="n">
-        <v>-24.77</v>
+        <v>-7.709999999999999</v>
       </c>
       <c r="E190" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F190" t="n">
-        <v>18.572</v>
+        <v>4.909999999999999</v>
       </c>
     </row>
     <row r="191">
@@ -4245,19 +3267,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-60</v>
+        <v>-0.27</v>
       </c>
       <c r="C191" t="n">
-        <v>85.95999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="D191" t="n">
-        <v>-25.02</v>
+        <v>-7.425</v>
       </c>
       <c r="E191" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F191" t="n">
-        <v>19.065</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="192">
@@ -4265,19 +3284,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-60</v>
+        <v>-0.22</v>
       </c>
       <c r="C192" t="n">
-        <v>85.72</v>
+        <v>3.32</v>
       </c>
       <c r="D192" t="n">
-        <v>-25.27</v>
+        <v>-7.180000000000001</v>
       </c>
       <c r="E192" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F192" t="n">
-        <v>19.548</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="193">
@@ -4285,19 +3301,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-60</v>
+        <v>-0.19</v>
       </c>
       <c r="C193" t="n">
-        <v>85.72</v>
+        <v>3.87</v>
       </c>
       <c r="D193" t="n">
-        <v>-25.45</v>
+        <v>-7.220000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F193" t="n">
-        <v>19.751</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="194">
@@ -4305,19 +3318,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-60</v>
+        <v>-0.14</v>
       </c>
       <c r="C194" t="n">
-        <v>86.14</v>
+        <v>4.3</v>
       </c>
       <c r="D194" t="n">
-        <v>-26.07</v>
+        <v>-7.239999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F194" t="n">
-        <v>19.954</v>
+        <v>3.085</v>
       </c>
     </row>
     <row r="195">
@@ -4325,19 +3335,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-60</v>
+        <v>-0.15</v>
       </c>
       <c r="C195" t="n">
-        <v>86.31</v>
+        <v>4.67</v>
       </c>
       <c r="D195" t="n">
-        <v>-26.62</v>
+        <v>-7.235999999999999</v>
       </c>
       <c r="E195" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F195" t="n">
-        <v>20.327</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="196">
@@ -4345,19 +3352,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-60</v>
+        <v>-0.57</v>
       </c>
       <c r="C196" t="n">
-        <v>86.55</v>
+        <v>4.9</v>
       </c>
       <c r="D196" t="n">
-        <v>-27.12</v>
+        <v>-7.242</v>
       </c>
       <c r="E196" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F196" t="n">
-        <v>20.59</v>
+        <v>2.915</v>
       </c>
     </row>
     <row r="197">
@@ -4365,19 +3369,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-60</v>
+        <v>-1.05</v>
       </c>
       <c r="C197" t="n">
-        <v>86.73999999999999</v>
+        <v>5.13</v>
       </c>
       <c r="D197" t="n">
-        <v>-27.63</v>
+        <v>-7.278</v>
       </c>
       <c r="E197" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F197" t="n">
-        <v>20.91</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="198">
@@ -4385,19 +3386,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-60</v>
+        <v>-1.54</v>
       </c>
       <c r="C198" t="n">
-        <v>87.51000000000001</v>
+        <v>5.34</v>
       </c>
       <c r="D198" t="n">
-        <v>-28.18</v>
+        <v>-7.364</v>
       </c>
       <c r="E198" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F198" t="n">
-        <v>20.685</v>
+        <v>3.565</v>
       </c>
     </row>
     <row r="199">
@@ -4405,19 +3403,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-60</v>
+        <v>-2.42</v>
       </c>
       <c r="C199" t="n">
-        <v>88.43000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="D199" t="n">
-        <v>-28.85</v>
+        <v>-7.339999999999999</v>
       </c>
       <c r="E199" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F199" t="n">
-        <v>20.44</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="200">
@@ -4425,19 +3420,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-60</v>
+        <v>-3.31</v>
       </c>
       <c r="C200" t="n">
-        <v>89.38</v>
+        <v>6.29</v>
       </c>
       <c r="D200" t="n">
-        <v>-29.53</v>
+        <v>-7.326000000000001</v>
       </c>
       <c r="E200" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F200" t="n">
-        <v>20.175</v>
+        <v>4.345000000000001</v>
       </c>
     </row>
     <row r="201">
@@ -4445,19 +3437,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-60</v>
+        <v>-4.18</v>
       </c>
       <c r="C201" t="n">
-        <v>90.31</v>
+        <v>6.76</v>
       </c>
       <c r="D201" t="n">
-        <v>-30.22</v>
+        <v>-7.342000000000001</v>
       </c>
       <c r="E201" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F201" t="n">
-        <v>19.93</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="202">
@@ -4465,19 +3454,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-60</v>
+        <v>-4.83</v>
       </c>
       <c r="C202" t="n">
-        <v>91.20999999999999</v>
+        <v>6.69</v>
       </c>
       <c r="D202" t="n">
-        <v>-30.93</v>
+        <v>-7.258</v>
       </c>
       <c r="E202" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F202" t="n">
-        <v>19.735</v>
+        <v>5.395</v>
       </c>
     </row>
     <row r="203">
@@ -4485,19 +3471,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-60</v>
+        <v>-5.39</v>
       </c>
       <c r="C203" t="n">
-        <v>92.06999999999999</v>
+        <v>6.53</v>
       </c>
       <c r="D203" t="n">
-        <v>-31.59</v>
+        <v>-7.184</v>
       </c>
       <c r="E203" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F203" t="n">
-        <v>19.52</v>
+        <v>6.049999999999999</v>
       </c>
     </row>
     <row r="204">
@@ -4505,19 +3488,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-60</v>
+        <v>-5.49</v>
       </c>
       <c r="C204" t="n">
-        <v>92.48</v>
+        <v>6.3</v>
       </c>
       <c r="D204" t="n">
-        <v>-31.88</v>
+        <v>-7.43</v>
       </c>
       <c r="E204" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F204" t="n">
-        <v>19.394</v>
+        <v>6.619999999999999</v>
       </c>
     </row>
     <row r="205">
@@ -4525,19 +3505,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-60</v>
+        <v>-5.59</v>
       </c>
       <c r="C205" t="n">
-        <v>93.17</v>
+        <v>6.24</v>
       </c>
       <c r="D205" t="n">
-        <v>-32.15</v>
+        <v>-7.847</v>
       </c>
       <c r="E205" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F205" t="n">
-        <v>18.988</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="206">
@@ -4545,19 +3522,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-60</v>
+        <v>-5.28</v>
       </c>
       <c r="C206" t="n">
-        <v>93.81</v>
+        <v>6.19</v>
       </c>
       <c r="D206" t="n">
-        <v>-32.4</v>
+        <v>-8.254</v>
       </c>
       <c r="E206" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F206" t="n">
-        <v>18.592</v>
+        <v>7.329999999999998</v>
       </c>
     </row>
     <row r="207">
@@ -4565,19 +3539,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-60</v>
+        <v>-4.9</v>
       </c>
       <c r="C207" t="n">
-        <v>94.43000000000001</v>
+        <v>6.11</v>
       </c>
       <c r="D207" t="n">
-        <v>-32.63</v>
+        <v>-8.661</v>
       </c>
       <c r="E207" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F207" t="n">
-        <v>18.196</v>
+        <v>7.409999999999998</v>
       </c>
     </row>
     <row r="208">
@@ -4585,19 +3556,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-60</v>
+        <v>-4.54</v>
       </c>
       <c r="C208" t="n">
-        <v>94.19</v>
+        <v>6.08</v>
       </c>
       <c r="D208" t="n">
-        <v>-32.8</v>
+        <v>-9.007999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F208" t="n">
-        <v>18.605</v>
+        <v>7.409999999999998</v>
       </c>
     </row>
     <row r="209">
@@ -4605,19 +3573,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-60</v>
+        <v>-4.15</v>
       </c>
       <c r="C209" t="n">
-        <v>93.83</v>
+        <v>6.03</v>
       </c>
       <c r="D209" t="n">
-        <v>-32.86</v>
+        <v>-9.365</v>
       </c>
       <c r="E209" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F209" t="n">
-        <v>19.034</v>
+        <v>7.409999999999998</v>
       </c>
     </row>
     <row r="210">
@@ -4625,19 +3590,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-60</v>
+        <v>-3.77</v>
       </c>
       <c r="C210" t="n">
-        <v>93.8</v>
+        <v>5.97</v>
       </c>
       <c r="D210" t="n">
-        <v>-33.19</v>
+        <v>-9.712</v>
       </c>
       <c r="E210" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F210" t="n">
-        <v>19.393</v>
+        <v>7.409999999999998</v>
       </c>
     </row>
     <row r="211">
@@ -4645,19 +3607,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-60</v>
+        <v>-3.39</v>
       </c>
       <c r="C211" t="n">
-        <v>93.75</v>
+        <v>5.92</v>
       </c>
       <c r="D211" t="n">
-        <v>-33.41</v>
+        <v>-10.059</v>
       </c>
       <c r="E211" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F211" t="n">
-        <v>19.662</v>
+        <v>7.409999999999998</v>
       </c>
     </row>
     <row r="212">
@@ -4665,19 +3624,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-60</v>
+        <v>-2.99</v>
       </c>
       <c r="C212" t="n">
-        <v>93.62</v>
+        <v>5.88</v>
       </c>
       <c r="D212" t="n">
-        <v>-33.47</v>
+        <v>-10.446</v>
       </c>
       <c r="E212" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F212" t="n">
-        <v>19.851</v>
+        <v>7.409999999999998</v>
       </c>
     </row>
     <row r="213">
@@ -4685,19 +3641,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-60</v>
+        <v>-2.59</v>
       </c>
       <c r="C213" t="n">
-        <v>92.43000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="D213" t="n">
-        <v>-32.47</v>
+        <v>-10.823</v>
       </c>
       <c r="E213" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F213" t="n">
-        <v>20.04</v>
+        <v>7.429999999999998</v>
       </c>
     </row>
     <row r="214">
@@ -4705,19 +3658,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-60</v>
+        <v>-2.64</v>
       </c>
       <c r="C214" t="n">
-        <v>91.25</v>
+        <v>5.89</v>
       </c>
       <c r="D214" t="n">
-        <v>-31.4</v>
+        <v>-10.88</v>
       </c>
       <c r="E214" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F214" t="n">
-        <v>20.15</v>
+        <v>7.449999999999998</v>
       </c>
     </row>
     <row r="215">
@@ -4725,19 +3675,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-60</v>
+        <v>-2.64</v>
       </c>
       <c r="C215" t="n">
-        <v>90.52</v>
+        <v>5.84</v>
       </c>
       <c r="D215" t="n">
-        <v>-30.35</v>
+        <v>-10.88</v>
       </c>
       <c r="E215" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F215" t="n">
-        <v>19.83000000000001</v>
+        <v>7.479999999999999</v>
       </c>
     </row>
     <row r="216">
@@ -4745,19 +3692,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-60</v>
+        <v>-2.75</v>
       </c>
       <c r="C216" t="n">
-        <v>89.84999999999999</v>
+        <v>5.93</v>
       </c>
       <c r="D216" t="n">
-        <v>-29.38</v>
+        <v>-10.88</v>
       </c>
       <c r="E216" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F216" t="n">
-        <v>19.53</v>
+        <v>7.499999999999998</v>
       </c>
     </row>
     <row r="217">
@@ -4765,19 +3709,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-60</v>
+        <v>-3.25</v>
       </c>
       <c r="C217" t="n">
-        <v>88.98</v>
+        <v>6.03</v>
       </c>
       <c r="D217" t="n">
-        <v>-28.01</v>
+        <v>-10.88</v>
       </c>
       <c r="E217" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F217" t="n">
-        <v>19.03</v>
+        <v>7.898999999999999</v>
       </c>
     </row>
     <row r="218">
@@ -4785,19 +3726,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-60</v>
+        <v>-3.74</v>
       </c>
       <c r="C218" t="n">
-        <v>88.33</v>
+        <v>6.11</v>
       </c>
       <c r="D218" t="n">
-        <v>-26.72</v>
+        <v>-10.88</v>
       </c>
       <c r="E218" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F218" t="n">
-        <v>18.39</v>
+        <v>8.307999999999998</v>
       </c>
     </row>
     <row r="219">
@@ -4805,19 +3743,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-60</v>
+        <v>-4.25</v>
       </c>
       <c r="C219" t="n">
-        <v>87.66</v>
+        <v>6.22</v>
       </c>
       <c r="D219" t="n">
-        <v>-25.42</v>
+        <v>-10.88</v>
       </c>
       <c r="E219" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F219" t="n">
-        <v>17.76</v>
+        <v>8.706999999999999</v>
       </c>
     </row>
     <row r="220">
@@ -4825,19 +3760,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-60</v>
+        <v>-4.11</v>
       </c>
       <c r="C220" t="n">
-        <v>86.81999999999999</v>
+        <v>6.18</v>
       </c>
       <c r="D220" t="n">
-        <v>-23.84</v>
+        <v>-10.88</v>
       </c>
       <c r="E220" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F220" t="n">
-        <v>17.02</v>
+        <v>8.603</v>
       </c>
     </row>
     <row r="221">
@@ -4845,19 +3777,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-60</v>
+        <v>-4</v>
       </c>
       <c r="C221" t="n">
-        <v>85.98999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="D221" t="n">
-        <v>-22.4</v>
+        <v>-10.88</v>
       </c>
       <c r="E221" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F221" t="n">
-        <v>16.41</v>
+        <v>8.279</v>
       </c>
     </row>
     <row r="222">
@@ -4865,19 +3794,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-60</v>
+        <v>-3.91</v>
       </c>
       <c r="C222" t="n">
-        <v>85.28</v>
+        <v>6.64</v>
       </c>
       <c r="D222" t="n">
-        <v>-21.09</v>
+        <v>-10.88</v>
       </c>
       <c r="E222" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F222" t="n">
-        <v>15.81</v>
+        <v>7.944999999999999</v>
       </c>
     </row>
     <row r="223">
@@ -4885,19 +3811,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-60</v>
+        <v>-3.84</v>
       </c>
       <c r="C223" t="n">
-        <v>85.56999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="D223" t="n">
-        <v>-20.79</v>
+        <v>-10.88</v>
       </c>
       <c r="E223" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F223" t="n">
-        <v>15.22</v>
+        <v>7.590999999999999</v>
       </c>
     </row>
     <row r="224">
@@ -4905,19 +3828,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-60</v>
+        <v>-3.71</v>
       </c>
       <c r="C224" t="n">
-        <v>85.87</v>
+        <v>7.17</v>
       </c>
       <c r="D224" t="n">
-        <v>-20.51</v>
+        <v>-10.88</v>
       </c>
       <c r="E224" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F224" t="n">
-        <v>14.64</v>
+        <v>7.217000000000001</v>
       </c>
     </row>
     <row r="225">
@@ -4925,19 +3845,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-60</v>
+        <v>-3.54</v>
       </c>
       <c r="C225" t="n">
-        <v>86.2</v>
+        <v>7.4</v>
       </c>
       <c r="D225" t="n">
-        <v>-21.19</v>
+        <v>-10.88</v>
       </c>
       <c r="E225" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F225" t="n">
-        <v>14.99</v>
+        <v>6.823</v>
       </c>
     </row>
     <row r="226">
@@ -4945,19 +3862,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-60</v>
+        <v>-3.26</v>
       </c>
       <c r="C226" t="n">
-        <v>86.53</v>
+        <v>7.42</v>
       </c>
       <c r="D226" t="n">
-        <v>-21.85</v>
+        <v>-10.88</v>
       </c>
       <c r="E226" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F226" t="n">
-        <v>15.32</v>
+        <v>6.519000000000001</v>
       </c>
     </row>
     <row r="227">
@@ -4965,23 +3879,122 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-60</v>
+        <v>-2.63</v>
       </c>
       <c r="C227" t="n">
-        <v>87.05</v>
+        <v>7.46</v>
       </c>
       <c r="D227" t="n">
-        <v>-22.9</v>
+        <v>-10.88</v>
       </c>
       <c r="E227" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F227" t="n">
-        <v>15.85</v>
+        <v>5.845999999999999</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="C228" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5.153</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="C229" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.470000000000001</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.100000000000001</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="C231" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="C232" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="E232" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="C233" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-10.88</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -634,7 +647,7 @@
   </sheetPr>
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3994,7 +4007,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -647,7 +634,7 @@
   </sheetPr>
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4007,7 +3994,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -149,7 +149,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/28/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (07/05/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -181,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$233</f>
+              <f>'data'!$B$2:$B$176</f>
             </numRef>
           </val>
         </ser>
@@ -208,7 +208,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$233</f>
+              <f>'data'!$C$2:$C$176</f>
             </numRef>
           </val>
         </ser>
@@ -235,34 +235,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$233</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'data'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$E$2:$E$233</f>
+              <f>'data'!$D$2:$D$176</f>
             </numRef>
           </val>
         </ser>
@@ -632,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,20 +621,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Raymond</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Cedric</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Scott</t>
         </is>
@@ -677,16 +645,22 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1</v>
+        <v>-0.35</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1</v>
+        <v>-0.05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -694,10 +668,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.17</v>
+        <v>-0.7</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.17</v>
+        <v>0.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -705,10 +682,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.58</v>
+        <v>-1.02</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.58</v>
+        <v>0.17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -716,10 +696,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.84</v>
+        <v>-1.26</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.84</v>
+        <v>0.14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -727,10 +710,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1.52</v>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>0.12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="8">
@@ -738,10 +724,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9399999999999999</v>
+        <v>-1.67</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="9">
@@ -749,10 +738,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.05</v>
+        <v>-1.94</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.05</v>
+        <v>0.19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="10">
@@ -760,10 +752,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.09</v>
+        <v>-2.21</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.09</v>
+        <v>0.34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="11">
@@ -771,10 +766,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.06</v>
+        <v>-2.37</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.06</v>
+        <v>0.41</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="12">
@@ -782,10 +780,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.06</v>
+        <v>-2.37</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.06</v>
+        <v>0.41</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="13">
@@ -793,10 +794,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.12</v>
+        <v>-2.77</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.12</v>
+        <v>0.53</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="14">
@@ -804,10 +808,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.18</v>
+        <v>-3.16</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.18</v>
+        <v>0.72</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.44</v>
       </c>
     </row>
     <row r="15">
@@ -815,10 +822,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.24</v>
+        <v>-3.42</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.24</v>
+        <v>0.77</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="16">
@@ -826,10 +836,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.45</v>
+        <v>-3.63</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.45</v>
+        <v>0.89</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row r="17">
@@ -837,10 +850,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.8</v>
+        <v>-3.81</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.8</v>
+        <v>1.01</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
@@ -848,10 +864,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.18</v>
+        <v>-3.99</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.18</v>
+        <v>1.19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -859,10 +878,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.69</v>
+        <v>-4.16</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.69</v>
+        <v>1.39</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.77</v>
       </c>
     </row>
     <row r="20">
@@ -870,10 +892,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.07</v>
+        <v>-4.03</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.07</v>
+        <v>1.29</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row r="21">
@@ -881,10 +906,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.85</v>
+        <v>-3.81</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.85</v>
+        <v>1.12</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row r="22">
@@ -892,10 +920,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.71</v>
+        <v>-3.67</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.71</v>
+        <v>1.04</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.63</v>
       </c>
     </row>
     <row r="23">
@@ -903,10 +934,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.55</v>
+        <v>-3.45</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.55</v>
+        <v>0.88</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="24">
@@ -914,10 +948,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.36</v>
+        <v>-2.98</v>
       </c>
       <c r="C24" t="n">
-        <v>-6.36</v>
+        <v>0.49</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.51</v>
       </c>
     </row>
     <row r="25">
@@ -925,10 +962,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.17</v>
+        <v>-2.59</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="26">
@@ -936,10 +976,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.67</v>
+        <v>-2.2</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.67</v>
+        <v>-0.13</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="27">
@@ -947,10 +990,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.029999999999999</v>
+        <v>-1.81</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.029999999999999</v>
+        <v>-0.44</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="28">
@@ -958,10 +1004,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.359999999999999</v>
+        <v>-1.37</v>
       </c>
       <c r="C28" t="n">
-        <v>-8.359999999999999</v>
+        <v>-0.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="29">
@@ -969,10 +1018,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.69</v>
+        <v>-1.02</v>
       </c>
       <c r="C29" t="n">
-        <v>-8.69</v>
+        <v>-1.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="30">
@@ -980,10 +1032,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.02</v>
+        <v>-0.86</v>
       </c>
       <c r="C30" t="n">
-        <v>-9.02</v>
+        <v>-1.21</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.21</v>
       </c>
     </row>
     <row r="31">
@@ -991,10 +1046,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>-0.75</v>
       </c>
       <c r="C31" t="n">
-        <v>-9</v>
+        <v>-1.29</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="32">
@@ -1002,10 +1060,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.98</v>
+        <v>-0.68</v>
       </c>
       <c r="C32" t="n">
-        <v>-8.98</v>
+        <v>-1.34</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="33">
@@ -1013,10 +1074,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.06</v>
+        <v>-0.66</v>
       </c>
       <c r="C33" t="n">
-        <v>-9.06</v>
+        <v>-1.34</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="34">
@@ -1024,10 +1088,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.140000000000001</v>
+        <v>-0.84</v>
       </c>
       <c r="C34" t="n">
-        <v>-9.140000000000001</v>
+        <v>-1.16</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="35">
@@ -1035,10 +1102,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.27</v>
+        <v>-0.99</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.27</v>
+        <v>-1.01</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="36">
@@ -1046,10 +1116,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.43</v>
+        <v>-1.11</v>
       </c>
       <c r="C36" t="n">
-        <v>-9.43</v>
+        <v>-0.89</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="37">
@@ -1057,10 +1130,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.56</v>
+        <v>-1.26</v>
       </c>
       <c r="C37" t="n">
-        <v>-9.56</v>
+        <v>-0.74</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="38">
@@ -1068,10 +1144,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.720000000000001</v>
+        <v>-1.46</v>
       </c>
       <c r="C38" t="n">
-        <v>-9.720000000000001</v>
+        <v>-0.54</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1158,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.81</v>
+        <v>-1.62</v>
       </c>
       <c r="C39" t="n">
-        <v>-9.81</v>
+        <v>-0.38</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="40">
@@ -1090,10 +1172,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.9</v>
+        <v>-1.89</v>
       </c>
       <c r="C40" t="n">
-        <v>-9.9</v>
+        <v>-0.11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="41">
@@ -1101,10 +1186,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.99</v>
+        <v>-2.16</v>
       </c>
       <c r="C41" t="n">
-        <v>-9.99</v>
+        <v>0.14</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="42">
@@ -1112,10 +1200,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.05</v>
+        <v>-2.31</v>
       </c>
       <c r="C42" t="n">
-        <v>-10.05</v>
+        <v>0.27</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="43">
@@ -1123,10 +1214,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.03</v>
+        <v>-2.47</v>
       </c>
       <c r="C43" t="n">
-        <v>-10.03</v>
+        <v>0.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="44">
@@ -1134,10 +1228,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.08</v>
+        <v>-2.55</v>
       </c>
       <c r="C44" t="n">
-        <v>-10.08</v>
+        <v>0.46</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="45">
@@ -1145,10 +1242,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.13</v>
+        <v>-2.49</v>
       </c>
       <c r="C45" t="n">
-        <v>-10.13</v>
+        <v>0.46</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="46">
@@ -1156,10 +1256,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10.18</v>
+        <v>-2.51</v>
       </c>
       <c r="C46" t="n">
-        <v>-10.18</v>
+        <v>0.46</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="47">
@@ -1167,10 +1270,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10.26</v>
+        <v>-2.26</v>
       </c>
       <c r="C47" t="n">
-        <v>-10.26</v>
+        <v>0.2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="48">
@@ -1178,10 +1284,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10.34</v>
+        <v>-2.01</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.34</v>
+        <v>-0.14</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="49">
@@ -1189,10 +1298,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10.5</v>
+        <v>-1.77</v>
       </c>
       <c r="C49" t="n">
-        <v>-10.5</v>
+        <v>-0.51</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="50">
@@ -1200,10 +1312,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10.69</v>
+        <v>-1.47</v>
       </c>
       <c r="C50" t="n">
-        <v>-10.69</v>
+        <v>-0.99</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="51">
@@ -1211,10 +1326,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10.57</v>
+        <v>-1.16</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.57</v>
+        <v>-0.99</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="52">
@@ -1222,10 +1340,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10.45</v>
+        <v>-0.91</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.45</v>
+        <v>-1.08</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="53">
@@ -1233,10 +1354,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10.36</v>
+        <v>-0.68</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.36</v>
+        <v>-1.15</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="54">
@@ -1244,10 +1368,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10.09</v>
+        <v>-0.5</v>
       </c>
       <c r="C54" t="n">
-        <v>-10.09</v>
+        <v>-1.19</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="55">
@@ -1255,10 +1382,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.74</v>
+        <v>-0.5</v>
       </c>
       <c r="C55" t="n">
-        <v>-9.74</v>
+        <v>-1.16</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="56">
@@ -1266,10 +1396,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.390000000000001</v>
+        <v>-0.57</v>
       </c>
       <c r="C56" t="n">
-        <v>-9.390000000000001</v>
+        <v>-1.12</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="57">
@@ -1277,10 +1410,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.15</v>
+        <v>-0.36</v>
       </c>
       <c r="C57" t="n">
-        <v>-9.15</v>
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="58">
@@ -1288,10 +1424,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8.91</v>
+        <v>0.02</v>
       </c>
       <c r="C58" t="n">
-        <v>-8.91</v>
+        <v>-0.25</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="59">
@@ -1299,10 +1438,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.66</v>
+        <v>0.79</v>
       </c>
       <c r="C59" t="n">
-        <v>-8.66</v>
+        <v>-0.17</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="60">
@@ -1310,10 +1452,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.33</v>
+        <v>1.65</v>
       </c>
       <c r="C60" t="n">
-        <v>-8.33</v>
+        <v>-0.11</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-1.69</v>
       </c>
     </row>
     <row r="61">
@@ -1321,10 +1466,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.31</v>
+        <v>2.62</v>
       </c>
       <c r="C61" t="n">
-        <v>-8.31</v>
+        <v>-0.63</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-2.15</v>
       </c>
     </row>
     <row r="62">
@@ -1332,10 +1480,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.289999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="C62" t="n">
-        <v>-8.289999999999999</v>
+        <v>-0.99</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-2.77</v>
       </c>
     </row>
     <row r="63">
@@ -1343,10 +1494,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.41</v>
+        <v>4.54</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.41</v>
+        <v>-1.55</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-3.15</v>
       </c>
     </row>
     <row r="64">
@@ -1354,10 +1508,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.59</v>
+        <v>5.41</v>
       </c>
       <c r="C64" t="n">
-        <v>-8.59</v>
+        <v>-2.09</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-3.47</v>
       </c>
     </row>
     <row r="65">
@@ -1365,10 +1522,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.67</v>
+        <v>6.22</v>
       </c>
       <c r="C65" t="n">
-        <v>-8.67</v>
+        <v>-2.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-3.57</v>
       </c>
     </row>
     <row r="66">
@@ -1376,10 +1536,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.75</v>
+        <v>7.06</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.75</v>
+        <v>-3.4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-3.66</v>
       </c>
     </row>
     <row r="67">
@@ -1387,13 +1550,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.69</v>
+        <v>7.36</v>
       </c>
       <c r="C67" t="n">
-        <v>-8.69</v>
+        <v>-4.13</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="68">
@@ -1401,13 +1564,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.550000000000001</v>
+        <v>7.64</v>
       </c>
       <c r="C68" t="n">
-        <v>-8.550000000000001</v>
+        <v>-4.91</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.2</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="69">
@@ -1415,13 +1578,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.380000000000001</v>
+        <v>7.52</v>
       </c>
       <c r="C69" t="n">
-        <v>-8.34</v>
+        <v>-5.3</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="70">
@@ -1429,13 +1592,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.31</v>
+        <v>7.39</v>
       </c>
       <c r="C70" t="n">
-        <v>-8.210000000000001</v>
+        <v>-5.76</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.45</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="71">
@@ -1443,13 +1606,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.26</v>
+        <v>7.28</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.08</v>
+        <v>-6.14</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.52</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="72">
@@ -1457,13 +1620,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.47</v>
+        <v>7.14</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.2</v>
+        <v>-6.5</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.5666666666666668</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="73">
@@ -1471,13 +1634,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.58</v>
+        <v>6.91</v>
       </c>
       <c r="C73" t="n">
-        <v>-6.22</v>
+        <v>-6.67</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.6</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="74">
@@ -1485,13 +1648,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.61</v>
+        <v>6.59</v>
       </c>
       <c r="C74" t="n">
-        <v>-5.16</v>
+        <v>-6.83</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.625</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="75">
@@ -1499,13 +1662,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.77</v>
+        <v>6.33</v>
       </c>
       <c r="C75" t="n">
-        <v>-4.23</v>
+        <v>-6.81</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.6555555555555554</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="76">
@@ -1513,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.98</v>
+        <v>6.19</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.35</v>
+        <v>-6.84</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.71</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="77">
@@ -1527,13 +1690,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.71</v>
+        <v>6.07</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.97</v>
+        <v>-6.89</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.71</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="78">
@@ -1541,13 +1704,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.52</v>
+        <v>5.86</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.65</v>
+        <v>-6.87</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.8399999999999999</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="79">
@@ -1555,13 +1718,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.42</v>
+        <v>5.67</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5600000000000001</v>
+        <v>-6.87</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.9299999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="80">
@@ -1569,13 +1732,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.73</v>
+        <v>5.62</v>
       </c>
       <c r="C80" t="n">
-        <v>1.59</v>
+        <v>-6.79</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.82</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="81">
@@ -1583,13 +1746,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.83</v>
+        <v>5.55</v>
       </c>
       <c r="C81" t="n">
-        <v>2.58</v>
+        <v>-6.81</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.7</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="82">
@@ -1597,13 +1760,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2.02</v>
+        <v>5.59</v>
       </c>
       <c r="C82" t="n">
-        <v>2.77</v>
+        <v>-6.86</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.72</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="83">
@@ -1611,13 +1774,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-2.12</v>
+        <v>5.75</v>
       </c>
       <c r="C83" t="n">
-        <v>2.96</v>
+        <v>-6.87</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.8100000000000002</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="84">
@@ -1625,13 +1788,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.08</v>
+        <v>6.22</v>
       </c>
       <c r="C84" t="n">
-        <v>2.99</v>
+        <v>-6.9</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.9</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="85">
@@ -1639,13 +1802,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.06</v>
+        <v>6.71</v>
       </c>
       <c r="C85" t="n">
-        <v>2.97</v>
+        <v>-6.95</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.9099999999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="86">
@@ -1653,13 +1816,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.97</v>
+        <v>7.28</v>
       </c>
       <c r="C86" t="n">
-        <v>2.95</v>
+        <v>-7.06</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.9799999999999999</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="87">
@@ -1667,13 +1830,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.43</v>
+        <v>7.92</v>
       </c>
       <c r="C87" t="n">
-        <v>2.46</v>
+        <v>-7.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.03</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="88">
@@ -1681,13 +1844,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.91</v>
+        <v>8.5</v>
       </c>
       <c r="C88" t="n">
-        <v>1.93</v>
+        <v>-7.34</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.02</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="89">
@@ -1695,13 +1858,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.45</v>
+        <v>9.27</v>
       </c>
       <c r="C89" t="n">
-        <v>1.45</v>
+        <v>-7.48</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.9999999999999998</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="90">
@@ -1709,13 +1872,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.01</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>1.13</v>
+        <v>-7.68</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.12</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="91">
@@ -1723,13 +1886,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.34</v>
+        <v>10.38</v>
       </c>
       <c r="C91" t="n">
-        <v>0.89</v>
+        <v>-7.84</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.23</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="92">
@@ -1737,13 +1900,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.53</v>
+        <v>10.88</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6899999999999999</v>
+        <v>-7.99</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.22</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="93">
@@ -1751,13 +1914,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.64</v>
+        <v>11.4</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5600000000000001</v>
+        <v>-8.16</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.2</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="94">
@@ -1765,13 +1928,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.49</v>
+        <v>11.82</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41</v>
+        <v>-8.32</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.9</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="95">
@@ -1779,13 +1942,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35</v>
+        <v>12.3</v>
       </c>
       <c r="C95" t="n">
-        <v>0.32</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.6699999999999999</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="96">
@@ -1793,13 +1956,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13</v>
+        <v>12.76</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3</v>
+        <v>-8.68</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.43</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="97">
@@ -1807,13 +1970,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.25</v>
+        <v>13.12</v>
       </c>
       <c r="C97" t="n">
-        <v>0.15</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09999999999999998</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="98">
@@ -1821,13 +1984,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.59</v>
+        <v>13.55</v>
       </c>
       <c r="C98" t="n">
-        <v>0.03</v>
+        <v>-8.75</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5599999999999999</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="99">
@@ -1835,13 +1998,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.41</v>
+        <v>13.78</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.08</v>
+        <v>-8.76</v>
       </c>
       <c r="D99" t="n">
-        <v>0.49</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="100">
@@ -1849,13 +2012,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.39</v>
+        <v>14.05</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3799999999999999</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="101">
@@ -1863,13 +2026,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.42</v>
+        <v>14.33</v>
       </c>
       <c r="C101" t="n">
-        <v>0.17</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2500000000000001</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="102">
@@ -1877,13 +2040,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.46</v>
+        <v>14.47</v>
       </c>
       <c r="C102" t="n">
-        <v>0.28</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.18</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="103">
@@ -1891,13 +2054,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.58</v>
+        <v>14.65</v>
       </c>
       <c r="C103" t="n">
-        <v>0.38</v>
+        <v>-8.32</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="104">
@@ -1905,13 +2068,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.44</v>
+        <v>14.68</v>
       </c>
       <c r="C104" t="n">
-        <v>0.49</v>
+        <v>-8.17</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.04999999999999989</v>
+        <v>-6.51</v>
       </c>
     </row>
     <row r="105">
@@ -1919,13 +2082,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.32</v>
+        <v>15.29</v>
       </c>
       <c r="C105" t="n">
-        <v>0.64</v>
+        <v>-8.66</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.3100000000000002</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="106">
@@ -1933,13 +2096,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.23</v>
+        <v>15.84</v>
       </c>
       <c r="C106" t="n">
-        <v>0.76</v>
+        <v>-9.07</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5100000000000001</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="107">
@@ -1947,13 +2110,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.05</v>
+        <v>16.31</v>
       </c>
       <c r="C107" t="n">
-        <v>0.97</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.99</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="108">
@@ -1961,13 +2124,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.24</v>
+        <v>17</v>
       </c>
       <c r="C108" t="n">
-        <v>1.25</v>
+        <v>-10.21</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.45</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="109">
@@ -1975,13 +2138,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2</v>
+        <v>17.63</v>
       </c>
       <c r="C109" t="n">
-        <v>1.64</v>
+        <v>-10.71</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.39</v>
+        <v>-6.92</v>
       </c>
     </row>
     <row r="110">
@@ -1989,13 +2152,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.45</v>
+        <v>17.99</v>
       </c>
       <c r="C110" t="n">
-        <v>1.84</v>
+        <v>-11.2</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.34</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="111">
@@ -2003,13 +2166,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.61</v>
+        <v>18.33</v>
       </c>
       <c r="C111" t="n">
-        <v>1.96</v>
+        <v>-11.52</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.3</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="112">
@@ -2017,13 +2180,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.76</v>
+        <v>19.19</v>
       </c>
       <c r="C112" t="n">
-        <v>2.11</v>
+        <v>-12.35</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.3</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="113">
@@ -2031,13 +2194,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9</v>
+        <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>2.3</v>
+        <v>-13.13</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.35</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="114">
@@ -2045,13 +2208,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.89</v>
+        <v>20.95</v>
       </c>
       <c r="C114" t="n">
-        <v>2.36</v>
+        <v>-13.97</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.42</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="115">
@@ -2059,13 +2222,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.91</v>
+        <v>21.26</v>
       </c>
       <c r="C115" t="n">
-        <v>2.44</v>
+        <v>-14.19</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.49</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="116">
@@ -2073,13 +2236,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.02</v>
+        <v>21.75</v>
       </c>
       <c r="C116" t="n">
-        <v>2.27</v>
+        <v>-14.44</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.21</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="117">
@@ -2087,13 +2250,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.16</v>
+        <v>22.02</v>
       </c>
       <c r="C117" t="n">
-        <v>2.12</v>
+        <v>-14.38</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.9399999999999998</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="118">
@@ -2101,13 +2264,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.24</v>
+        <v>22.07</v>
       </c>
       <c r="C118" t="n">
-        <v>1.95</v>
+        <v>-14.31</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.6900000000000001</v>
+        <v>-7.76</v>
       </c>
     </row>
     <row r="119">
@@ -2115,13 +2278,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.1</v>
+        <v>22.13</v>
       </c>
       <c r="C119" t="n">
-        <v>1.59</v>
+        <v>-14.27</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.497</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="120">
@@ -2129,13 +2292,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.01</v>
+        <v>22.42</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31</v>
+        <v>-14.21</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.304</v>
+        <v>-8.210000000000001</v>
       </c>
     </row>
     <row r="121">
@@ -2143,13 +2306,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.96</v>
+        <v>22.7</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04</v>
+        <v>-14.57</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.08099999999999999</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -2157,13 +2320,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.97</v>
+        <v>22.59</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6899999999999999</v>
+        <v>-14.55</v>
       </c>
       <c r="D122" t="n">
-        <v>0.2819999999999999</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2171,13 +2334,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-1</v>
+        <v>22.49</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3</v>
+        <v>-14.53</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7049999999999998</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="124">
@@ -2185,13 +2348,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.67</v>
+        <v>22.34</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.21</v>
+        <v>-14.47</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8779999999999998</v>
+        <v>-7.83</v>
       </c>
     </row>
     <row r="125">
@@ -2199,13 +2362,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.2</v>
+        <v>22.17</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.84</v>
+        <v>-14.41</v>
       </c>
       <c r="D125" t="n">
-        <v>1.031</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="126">
@@ -2213,13 +2376,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.28</v>
+        <v>22.05</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.1</v>
+        <v>-14.57</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8239999999999998</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="127">
@@ -2227,13 +2390,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.76</v>
+        <v>22.71</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.41</v>
+        <v>-15.45</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6569999999999999</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="128">
@@ -2241,13 +2404,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.18</v>
+        <v>23.32</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.77</v>
+        <v>-16.34</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5900000000000001</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="129">
@@ -2255,13 +2418,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.49</v>
+        <v>24.01</v>
       </c>
       <c r="C129" t="n">
-        <v>-2.06</v>
+        <v>-17.31</v>
       </c>
       <c r="D129" t="n">
-        <v>0.57</v>
+        <v>-6.66</v>
       </c>
     </row>
     <row r="130">
@@ -2269,13 +2432,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.84</v>
+        <v>24.69</v>
       </c>
       <c r="C130" t="n">
-        <v>-2.4</v>
+        <v>-18.3</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5600000000000001</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="131">
@@ -2283,13 +2446,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.27</v>
+        <v>25.2</v>
       </c>
       <c r="C131" t="n">
-        <v>-2.76</v>
+        <v>-19.13</v>
       </c>
       <c r="D131" t="n">
-        <v>0.493</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="132">
@@ -2297,13 +2460,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.82</v>
+        <v>26.1</v>
       </c>
       <c r="C132" t="n">
-        <v>-3.05</v>
+        <v>-19.9</v>
       </c>
       <c r="D132" t="n">
-        <v>0.226</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="133">
@@ -2311,13 +2474,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.41</v>
+        <v>26.8</v>
       </c>
       <c r="C133" t="n">
-        <v>-3.33</v>
+        <v>-21.38</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.081</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="134">
@@ -2325,13 +2488,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.49</v>
+        <v>27.34</v>
       </c>
       <c r="C134" t="n">
-        <v>-3.34</v>
+        <v>-22.67</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.148</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="135">
@@ -2339,13 +2502,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.31</v>
+        <v>27.84</v>
       </c>
       <c r="C135" t="n">
-        <v>-3.29</v>
+        <v>-23.99</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.01500000000000001</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="136">
@@ -2353,13 +2516,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.18</v>
+        <v>27.49</v>
       </c>
       <c r="C136" t="n">
-        <v>-3.25</v>
+        <v>-25.11</v>
       </c>
       <c r="D136" t="n">
-        <v>0.06799999999999998</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="137">
@@ -2367,13 +2530,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.07</v>
+        <v>26.56</v>
       </c>
       <c r="C137" t="n">
-        <v>-3.21</v>
+        <v>-25.71</v>
       </c>
       <c r="D137" t="n">
-        <v>0.141</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="138">
@@ -2381,13 +2544,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.04</v>
+        <v>25.93</v>
       </c>
       <c r="C138" t="n">
-        <v>-3.16</v>
+        <v>-26.51</v>
       </c>
       <c r="D138" t="n">
-        <v>0.124</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="139">
@@ -2395,13 +2558,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.87</v>
+        <v>25.28</v>
       </c>
       <c r="C139" t="n">
-        <v>-2.99</v>
+        <v>-27.37</v>
       </c>
       <c r="D139" t="n">
-        <v>0.117</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="140">
@@ -2409,13 +2572,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.72</v>
+        <v>24.64</v>
       </c>
       <c r="C140" t="n">
-        <v>-2.84</v>
+        <v>-28.22</v>
       </c>
       <c r="D140" t="n">
-        <v>0.12</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="141">
@@ -2423,13 +2586,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.51</v>
+        <v>24.05</v>
       </c>
       <c r="C141" t="n">
-        <v>-2.68</v>
+        <v>-28.99</v>
       </c>
       <c r="D141" t="n">
-        <v>0.17</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="142">
@@ -2437,13 +2600,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.28</v>
+        <v>22.93</v>
       </c>
       <c r="C142" t="n">
-        <v>-2.56</v>
+        <v>-29.71</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2799999999999999</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="143">
@@ -2451,16 +2614,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2.03</v>
+        <v>22.02</v>
       </c>
       <c r="C143" t="n">
-        <v>-2.54</v>
+        <v>-29.66</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5100000000000001</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="144">
@@ -2468,16 +2628,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.76</v>
+        <v>21.39</v>
       </c>
       <c r="C144" t="n">
-        <v>-2.54</v>
+        <v>-29.81</v>
       </c>
       <c r="D144" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E144" t="n">
-        <v>-0.1</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="145">
@@ -2485,16 +2642,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.66</v>
+        <v>20.92</v>
       </c>
       <c r="C145" t="n">
-        <v>-2.45</v>
+        <v>-29.92</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8099999999999999</v>
-      </c>
-      <c r="E145" t="n">
-        <v>-0.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
@@ -2502,16 +2656,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.57</v>
+        <v>21.07</v>
       </c>
       <c r="C146" t="n">
-        <v>-2.41</v>
+        <v>-30.02</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E146" t="n">
-        <v>-0.25</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="147">
@@ -2519,16 +2670,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.41</v>
+        <v>21.49</v>
       </c>
       <c r="C147" t="n">
-        <v>-2.42</v>
+        <v>-30.22</v>
       </c>
       <c r="D147" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="E147" t="n">
-        <v>-0.6599999999999999</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="148">
@@ -2536,16 +2684,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.44</v>
+        <v>21.62</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.43</v>
+        <v>-30.4</v>
       </c>
       <c r="D148" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="E148" t="n">
-        <v>-0.8333333333333335</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -2553,16 +2698,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.53</v>
+        <v>21.76</v>
       </c>
       <c r="C149" t="n">
-        <v>-2.56</v>
+        <v>-30.49</v>
       </c>
       <c r="D149" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E149" t="n">
-        <v>-1.085714285714286</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="150">
@@ -2570,16 +2712,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.24</v>
+        <v>21.88</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.67</v>
+        <v>-30.57</v>
       </c>
       <c r="D150" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="E150" t="n">
-        <v>-1.2375</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="151">
@@ -2587,16 +2726,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9399999999999999</v>
+        <v>22.17</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.79</v>
+        <v>-30.68</v>
       </c>
       <c r="D151" t="n">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="E151" t="n">
-        <v>-1.355555555555555</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="152">
@@ -2604,16 +2740,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.54</v>
+        <v>22.75</v>
       </c>
       <c r="C152" t="n">
-        <v>0.06</v>
+        <v>-30.85</v>
       </c>
       <c r="D152" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E152" t="n">
-        <v>-1.44</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -2621,16 +2754,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.12</v>
+        <v>23.21</v>
       </c>
       <c r="C153" t="n">
-        <v>1.04</v>
+        <v>-31.09</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2800000000000001</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-1.44</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="154">
@@ -2638,16 +2768,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.28</v>
+        <v>23.49</v>
       </c>
       <c r="C154" t="n">
-        <v>1.99</v>
+        <v>-30.17</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.03999999999999981</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-1.679999999999999</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="155">
@@ -2655,16 +2782,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.66</v>
+        <v>23.6</v>
       </c>
       <c r="C155" t="n">
-        <v>2.84</v>
+        <v>-29.24</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-1.859999999999999</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="156">
@@ -2672,16 +2796,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-1.15</v>
+        <v>23.65</v>
       </c>
       <c r="C156" t="n">
-        <v>3.64</v>
+        <v>-28.3</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.4799999999999999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-2.02</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="157">
@@ -2689,16 +2810,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.57</v>
+        <v>23.53</v>
       </c>
       <c r="C157" t="n">
-        <v>4.52</v>
+        <v>-27.38</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-2.2</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="158">
@@ -2706,16 +2824,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-2.28</v>
+        <v>24.38</v>
       </c>
       <c r="C158" t="n">
-        <v>5.5</v>
+        <v>-27.16</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-2.2</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="159">
@@ -2723,16 +2838,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-2.94</v>
+        <v>25.25</v>
       </c>
       <c r="C159" t="n">
-        <v>6.46</v>
+        <v>-26.96</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-2.32</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="160">
@@ -2740,16 +2852,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-3.21</v>
+        <v>26.01</v>
       </c>
       <c r="C160" t="n">
-        <v>6.41</v>
+        <v>-26.58</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.8600000000000001</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-2.35</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="161">
@@ -2757,16 +2866,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-3.48</v>
+        <v>26.58</v>
       </c>
       <c r="C161" t="n">
-        <v>6.38</v>
+        <v>-26</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.5700000000000001</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-2.33</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="162">
@@ -2774,16 +2880,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-3.69</v>
+        <v>26.74</v>
       </c>
       <c r="C162" t="n">
-        <v>6.39</v>
+        <v>-25.4</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.075</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-1.625</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="163">
@@ -2791,16 +2894,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-3.86</v>
+        <v>27.12</v>
       </c>
       <c r="C163" t="n">
-        <v>6.39</v>
+        <v>-24.91</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-0.93</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="164">
@@ -2808,16 +2908,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-3.93</v>
+        <v>27.48</v>
       </c>
       <c r="C164" t="n">
-        <v>6.33</v>
+        <v>-25.47</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.185</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-0.215</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="165">
@@ -2825,16 +2922,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-3.81</v>
+        <v>27.89</v>
       </c>
       <c r="C165" t="n">
-        <v>6.12</v>
+        <v>-26.02</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.4399999999999998</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="166">
@@ -2842,16 +2936,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-3.43</v>
+        <v>28.48</v>
       </c>
       <c r="C166" t="n">
-        <v>5.91</v>
+        <v>-26.63</v>
       </c>
       <c r="D166" t="n">
-        <v>-3.507</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.023</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="167">
@@ -2859,16 +2950,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-3.29</v>
+        <v>29.05</v>
       </c>
       <c r="C167" t="n">
-        <v>5.98</v>
+        <v>-27.23</v>
       </c>
       <c r="D167" t="n">
-        <v>-4.314</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.626</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="168">
@@ -2876,16 +2964,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-2.9</v>
+        <v>28.96</v>
       </c>
       <c r="C168" t="n">
-        <v>5.86</v>
+        <v>-27.12</v>
       </c>
       <c r="D168" t="n">
-        <v>-5.201</v>
-      </c>
-      <c r="E168" t="n">
-        <v>2.239</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="169">
@@ -2893,16 +2978,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-2.52</v>
+        <v>28.86</v>
       </c>
       <c r="C169" t="n">
-        <v>5.83</v>
+        <v>-27.02</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.157999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>2.851999999999999</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="170">
@@ -2910,16 +2992,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-2.16</v>
+        <v>28.89</v>
       </c>
       <c r="C170" t="n">
-        <v>5.78</v>
+        <v>-27.11</v>
       </c>
       <c r="D170" t="n">
-        <v>-7.125</v>
-      </c>
-      <c r="E170" t="n">
-        <v>3.505</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="171">
@@ -2927,16 +3006,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.78</v>
+        <v>29.34</v>
       </c>
       <c r="C171" t="n">
-        <v>5.83</v>
+        <v>-27.44</v>
       </c>
       <c r="D171" t="n">
-        <v>-8.042</v>
-      </c>
-      <c r="E171" t="n">
-        <v>3.998</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="172">
@@ -2944,16 +3020,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.24</v>
+        <v>29.95</v>
       </c>
       <c r="C172" t="n">
-        <v>5.81</v>
+        <v>-27.79</v>
       </c>
       <c r="D172" t="n">
-        <v>-8.373999999999999</v>
-      </c>
-      <c r="E172" t="n">
-        <v>3.806</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="173">
@@ -2961,16 +3034,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.75</v>
+        <v>30.46</v>
       </c>
       <c r="C173" t="n">
-        <v>5.81</v>
+        <v>-28.05</v>
       </c>
       <c r="D173" t="n">
-        <v>-8.685999999999998</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3.624</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="174">
@@ -2978,16 +3048,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.35</v>
+        <v>31.04</v>
       </c>
       <c r="C174" t="n">
-        <v>5.87</v>
+        <v>-28.39</v>
       </c>
       <c r="D174" t="n">
-        <v>-9.038</v>
-      </c>
-      <c r="E174" t="n">
-        <v>3.521999999999999</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="175">
@@ -2995,16 +3062,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.2</v>
+        <v>31.65</v>
       </c>
       <c r="C175" t="n">
-        <v>6.04</v>
+        <v>-28.73</v>
       </c>
       <c r="D175" t="n">
-        <v>-9.276</v>
-      </c>
-      <c r="E175" t="n">
-        <v>3.44</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="176">
@@ -3012,985 +3076,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.23</v>
+        <v>32.14</v>
       </c>
       <c r="C176" t="n">
-        <v>6.21</v>
+        <v>-28.7</v>
       </c>
       <c r="D176" t="n">
-        <v>-9.401999999999999</v>
-      </c>
-      <c r="E176" t="n">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="C177" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D177" t="n">
-        <v>-9.507999999999999</v>
-      </c>
-      <c r="E177" t="n">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C178" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D178" t="n">
-        <v>-9.729000000000001</v>
-      </c>
-      <c r="E178" t="n">
-        <v>3.685</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="D179" t="n">
-        <v>-9.940000000000001</v>
-      </c>
-      <c r="E179" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>-10.141</v>
-      </c>
-      <c r="E180" t="n">
-        <v>4.345</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="D181" t="n">
-        <v>-10.22</v>
-      </c>
-      <c r="E181" t="n">
-        <v>4.697999999999999</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="D182" t="n">
-        <v>-10.239</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5.040999999999999</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="D183" t="n">
-        <v>-9.972999999999999</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5.374</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D184" t="n">
-        <v>-9.667000000000002</v>
-      </c>
-      <c r="E184" t="n">
-        <v>5.627</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="D185" t="n">
-        <v>-9.385000000000002</v>
-      </c>
-      <c r="E185" t="n">
-        <v>5.799999999999999</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D186" t="n">
-        <v>-9.143000000000001</v>
-      </c>
-      <c r="E186" t="n">
-        <v>5.823</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.97</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D187" t="n">
-        <v>-8.871</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5.816</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-1.13</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="D188" t="n">
-        <v>-8.414</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5.554</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D189" t="n">
-        <v>-8.067</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5.271999999999999</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D190" t="n">
-        <v>-7.709999999999999</v>
-      </c>
-      <c r="E190" t="n">
-        <v>4.909999999999999</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D191" t="n">
-        <v>-7.425</v>
-      </c>
-      <c r="E191" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="D192" t="n">
-        <v>-7.180000000000001</v>
-      </c>
-      <c r="E192" t="n">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="D193" t="n">
-        <v>-7.220000000000001</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D194" t="n">
-        <v>-7.239999999999999</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3.085</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="D195" t="n">
-        <v>-7.235999999999999</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D196" t="n">
-        <v>-7.242</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2.915</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="C197" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="D197" t="n">
-        <v>-7.278</v>
-      </c>
-      <c r="E197" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="C198" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="D198" t="n">
-        <v>-7.364</v>
-      </c>
-      <c r="E198" t="n">
-        <v>3.565</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-2.42</v>
-      </c>
-      <c r="C199" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D199" t="n">
-        <v>-7.339999999999999</v>
-      </c>
-      <c r="E199" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="C200" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D200" t="n">
-        <v>-7.326000000000001</v>
-      </c>
-      <c r="E200" t="n">
-        <v>4.345000000000001</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-4.18</v>
-      </c>
-      <c r="C201" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="D201" t="n">
-        <v>-7.342000000000001</v>
-      </c>
-      <c r="E201" t="n">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-4.83</v>
-      </c>
-      <c r="C202" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="D202" t="n">
-        <v>-7.258</v>
-      </c>
-      <c r="E202" t="n">
-        <v>5.395</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-5.39</v>
-      </c>
-      <c r="C203" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="D203" t="n">
-        <v>-7.184</v>
-      </c>
-      <c r="E203" t="n">
-        <v>6.049999999999999</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-5.49</v>
-      </c>
-      <c r="C204" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D204" t="n">
-        <v>-7.43</v>
-      </c>
-      <c r="E204" t="n">
-        <v>6.619999999999999</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-5.59</v>
-      </c>
-      <c r="C205" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="D205" t="n">
-        <v>-7.847</v>
-      </c>
-      <c r="E205" t="n">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-5.28</v>
-      </c>
-      <c r="C206" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="D206" t="n">
-        <v>-8.254</v>
-      </c>
-      <c r="E206" t="n">
-        <v>7.329999999999998</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="C207" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D207" t="n">
-        <v>-8.661</v>
-      </c>
-      <c r="E207" t="n">
-        <v>7.409999999999998</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-4.54</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D208" t="n">
-        <v>-9.007999999999999</v>
-      </c>
-      <c r="E208" t="n">
-        <v>7.409999999999998</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-4.15</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D209" t="n">
-        <v>-9.365</v>
-      </c>
-      <c r="E209" t="n">
-        <v>7.409999999999998</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-3.77</v>
-      </c>
-      <c r="C210" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D210" t="n">
-        <v>-9.712</v>
-      </c>
-      <c r="E210" t="n">
-        <v>7.409999999999998</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-3.39</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="D211" t="n">
-        <v>-10.059</v>
-      </c>
-      <c r="E211" t="n">
-        <v>7.409999999999998</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-2.99</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D212" t="n">
-        <v>-10.446</v>
-      </c>
-      <c r="E212" t="n">
-        <v>7.409999999999998</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-2.59</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="D213" t="n">
-        <v>-10.823</v>
-      </c>
-      <c r="E213" t="n">
-        <v>7.429999999999998</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-2.64</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D214" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E214" t="n">
-        <v>7.449999999999998</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-2.64</v>
-      </c>
-      <c r="C215" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D215" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E215" t="n">
-        <v>7.479999999999999</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="C216" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D216" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E216" t="n">
-        <v>7.499999999999998</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-3.25</v>
-      </c>
-      <c r="C217" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D217" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E217" t="n">
-        <v>7.898999999999999</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-3.74</v>
-      </c>
-      <c r="C218" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D218" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E218" t="n">
-        <v>8.307999999999998</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-4.25</v>
-      </c>
-      <c r="C219" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D219" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E219" t="n">
-        <v>8.706999999999999</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-4.11</v>
-      </c>
-      <c r="C220" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="D220" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E220" t="n">
-        <v>8.603</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-4</v>
-      </c>
-      <c r="C221" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D221" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E221" t="n">
-        <v>8.279</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-3.91</v>
-      </c>
-      <c r="C222" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D222" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E222" t="n">
-        <v>7.944999999999999</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-3.84</v>
-      </c>
-      <c r="C223" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="D223" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E223" t="n">
-        <v>7.590999999999999</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-3.71</v>
-      </c>
-      <c r="C224" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D224" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E224" t="n">
-        <v>7.217000000000001</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-3.54</v>
-      </c>
-      <c r="C225" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D225" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E225" t="n">
-        <v>6.823</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-3.26</v>
-      </c>
-      <c r="C226" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D226" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E226" t="n">
-        <v>6.519000000000001</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-2.63</v>
-      </c>
-      <c r="C227" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="D227" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E227" t="n">
-        <v>5.845999999999999</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="C228" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D228" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E228" t="n">
-        <v>5.153</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-1.29</v>
-      </c>
-      <c r="C229" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D229" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E229" t="n">
-        <v>4.470000000000001</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="C230" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="D230" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E230" t="n">
-        <v>4.100000000000001</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="C231" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D231" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E231" t="n">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="C232" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D232" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E232" t="n">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="C233" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D233" t="n">
-        <v>-10.88</v>
-      </c>
-      <c r="E233" t="n">
-        <v>3.59</v>
+        <v>-3.56</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -149,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (07/05/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (06/24/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -181,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$176</f>
+              <f>'data'!$B$2:$B$227</f>
             </numRef>
           </val>
         </ser>
@@ -208,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$176</f>
+              <f>'data'!$C$2:$C$227</f>
             </numRef>
           </val>
         </ser>
@@ -235,7 +248,61 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$176</f>
+              <f>'data'!$D$2:$D$227</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$227</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'data'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$F$2:$F$227</f>
             </numRef>
           </val>
         </ser>
@@ -605,9 +672,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -621,7 +688,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -631,7 +698,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Cedric</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Cheyenne</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fish</t>
         </is>
       </c>
     </row>
@@ -654,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.35</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05</v>
+        <v>1.1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4">
@@ -668,13 +745,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7</v>
+        <v>-1.33</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>1.43</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
@@ -682,13 +759,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.02</v>
+        <v>1.95</v>
       </c>
       <c r="C5" t="n">
-        <v>0.17</v>
+        <v>1.46</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="6">
@@ -696,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.26</v>
+        <v>3.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.14</v>
+        <v>1.49</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="7">
@@ -710,13 +787,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.52</v>
+        <v>5.25</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.4</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="8">
@@ -724,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.67</v>
+        <v>6.23</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.6</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="9">
@@ -738,13 +815,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.94</v>
+        <v>6.96</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19</v>
+        <v>1.52</v>
       </c>
       <c r="D9" t="n">
-        <v>1.75</v>
+        <v>-8.470000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -752,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.21</v>
+        <v>7.6</v>
       </c>
       <c r="C10" t="n">
-        <v>0.34</v>
+        <v>1.52</v>
       </c>
       <c r="D10" t="n">
-        <v>1.87</v>
+        <v>-9.119999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -766,13 +843,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.37</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41</v>
+        <v>1.52</v>
       </c>
       <c r="D11" t="n">
-        <v>1.96</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -780,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.37</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.41</v>
+        <v>1.52</v>
       </c>
       <c r="D12" t="n">
-        <v>1.96</v>
+        <v>-9.640000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -794,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.77</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.53</v>
+        <v>1.65</v>
       </c>
       <c r="D13" t="n">
-        <v>2.24</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="14">
@@ -808,13 +885,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.16</v>
+        <v>11.31</v>
       </c>
       <c r="C14" t="n">
-        <v>0.72</v>
+        <v>1.56</v>
       </c>
       <c r="D14" t="n">
-        <v>2.44</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="15">
@@ -822,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.42</v>
+        <v>13.25</v>
       </c>
       <c r="C15" t="n">
-        <v>0.77</v>
+        <v>1.47</v>
       </c>
       <c r="D15" t="n">
-        <v>2.65</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="16">
@@ -836,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.63</v>
+        <v>13.8</v>
       </c>
       <c r="C16" t="n">
-        <v>0.89</v>
+        <v>1.45</v>
       </c>
       <c r="D16" t="n">
-        <v>2.74</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="17">
@@ -850,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.81</v>
+        <v>13.79</v>
       </c>
       <c r="C17" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="D17" t="n">
-        <v>2.8</v>
+        <v>-15.85</v>
       </c>
     </row>
     <row r="18">
@@ -864,13 +941,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.99</v>
+        <v>13.45</v>
       </c>
       <c r="C18" t="n">
-        <v>1.19</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>2.8</v>
+        <v>-16.45</v>
       </c>
     </row>
     <row r="19">
@@ -878,13 +955,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.16</v>
+        <v>13.09</v>
       </c>
       <c r="C19" t="n">
-        <v>1.39</v>
+        <v>3.99</v>
       </c>
       <c r="D19" t="n">
-        <v>2.77</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="20">
@@ -892,13 +969,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.03</v>
+        <v>12.82</v>
       </c>
       <c r="C20" t="n">
-        <v>1.29</v>
+        <v>4.9</v>
       </c>
       <c r="D20" t="n">
-        <v>2.74</v>
+        <v>-17.72</v>
       </c>
     </row>
     <row r="21">
@@ -906,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.81</v>
+        <v>12.49</v>
       </c>
       <c r="C21" t="n">
-        <v>1.12</v>
+        <v>5.81</v>
       </c>
       <c r="D21" t="n">
-        <v>2.69</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="22">
@@ -920,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.67</v>
+        <v>12.27</v>
       </c>
       <c r="C22" t="n">
-        <v>1.04</v>
+        <v>6.67</v>
       </c>
       <c r="D22" t="n">
-        <v>2.63</v>
+        <v>-18.94</v>
       </c>
     </row>
     <row r="23">
@@ -934,13 +1011,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-3.45</v>
+        <v>12.16</v>
       </c>
       <c r="C23" t="n">
-        <v>0.88</v>
+        <v>7.47</v>
       </c>
       <c r="D23" t="n">
-        <v>2.57</v>
+        <v>-19.62</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.98</v>
+        <v>11.61</v>
       </c>
       <c r="C24" t="n">
-        <v>0.49</v>
+        <v>8.27</v>
       </c>
       <c r="D24" t="n">
-        <v>2.51</v>
+        <v>-19.88</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +1039,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.59</v>
+        <v>11.03</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18</v>
+        <v>9.09</v>
       </c>
       <c r="D25" t="n">
-        <v>2.45</v>
+        <v>-20.12</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +1053,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.2</v>
+        <v>10.27</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.13</v>
+        <v>11.51</v>
       </c>
       <c r="D26" t="n">
-        <v>2.39</v>
+        <v>-21.78</v>
       </c>
     </row>
     <row r="27">
@@ -990,13 +1067,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.81</v>
+        <v>10.07</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.44</v>
+        <v>13.3</v>
       </c>
       <c r="D27" t="n">
-        <v>2.33</v>
+        <v>-23.37</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1081,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.37</v>
+        <v>10.24</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8</v>
+        <v>14.75</v>
       </c>
       <c r="D28" t="n">
-        <v>2.27</v>
+        <v>-24.99</v>
       </c>
     </row>
     <row r="29">
@@ -1018,13 +1095,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.02</v>
+        <v>10.42</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.1</v>
+        <v>16.16</v>
       </c>
       <c r="D29" t="n">
-        <v>2.24</v>
+        <v>-26.58</v>
       </c>
     </row>
     <row r="30">
@@ -1032,13 +1109,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.86</v>
+        <v>10.5</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.21</v>
+        <v>17.65</v>
       </c>
       <c r="D30" t="n">
-        <v>2.21</v>
+        <v>-28.18</v>
       </c>
     </row>
     <row r="31">
@@ -1046,13 +1123,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.75</v>
+        <v>10.59</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.29</v>
+        <v>19.14</v>
       </c>
       <c r="D31" t="n">
-        <v>2.2</v>
+        <v>-29.79</v>
       </c>
     </row>
     <row r="32">
@@ -1060,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.68</v>
+        <v>10.5</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.34</v>
+        <v>20.69</v>
       </c>
       <c r="D32" t="n">
-        <v>2.2</v>
+        <v>-31.28</v>
       </c>
     </row>
     <row r="33">
@@ -1074,13 +1151,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.66</v>
+        <v>10.25</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.34</v>
+        <v>22.35</v>
       </c>
       <c r="D33" t="n">
-        <v>2.2</v>
+        <v>-32.69</v>
       </c>
     </row>
     <row r="34">
@@ -1088,13 +1165,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.84</v>
+        <v>10.04</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.16</v>
+        <v>23.98</v>
       </c>
       <c r="D34" t="n">
-        <v>2.2</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="35">
@@ -1102,13 +1179,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.99</v>
+        <v>9.92</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.01</v>
+        <v>25.6</v>
       </c>
       <c r="D35" t="n">
-        <v>2.2</v>
+        <v>-35.61</v>
       </c>
     </row>
     <row r="36">
@@ -1116,13 +1193,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.11</v>
+        <v>9.94</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.89</v>
+        <v>25.72</v>
       </c>
       <c r="D36" t="n">
-        <v>2.2</v>
+        <v>-35.75</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1210,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.26</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.74</v>
+        <v>25.83</v>
       </c>
       <c r="D37" t="n">
-        <v>2.2</v>
+        <v>-35.87</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1144,13 +1227,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.46</v>
+        <v>9.84</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.54</v>
+        <v>26.07</v>
       </c>
       <c r="D38" t="n">
-        <v>2.2</v>
+        <v>-36.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.06666666666666667</v>
       </c>
     </row>
     <row r="39">
@@ -1158,13 +1244,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.62</v>
+        <v>9.76</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.38</v>
+        <v>26.3</v>
       </c>
       <c r="D39" t="n">
-        <v>2.2</v>
+        <v>-36.12</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.125</v>
       </c>
     </row>
     <row r="40">
@@ -1172,13 +1261,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.89</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.11</v>
+        <v>26.5</v>
       </c>
       <c r="D40" t="n">
-        <v>2.18</v>
+        <v>-36.23</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="41">
@@ -1186,13 +1278,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.16</v>
+        <v>9.84</v>
       </c>
       <c r="C41" t="n">
-        <v>0.14</v>
+        <v>26.7</v>
       </c>
       <c r="D41" t="n">
-        <v>2.18</v>
+        <v>-36.48</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.2833333333333333</v>
       </c>
     </row>
     <row r="42">
@@ -1200,13 +1295,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.31</v>
+        <v>10.08</v>
       </c>
       <c r="C42" t="n">
-        <v>0.27</v>
+        <v>26.89</v>
       </c>
       <c r="D42" t="n">
-        <v>2.18</v>
+        <v>-36.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="43">
@@ -1214,13 +1312,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.47</v>
+        <v>10.47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4</v>
+        <v>27.05</v>
       </c>
       <c r="D43" t="n">
-        <v>2.19</v>
+        <v>-37.25</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.4999999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1228,13 +1329,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.55</v>
+        <v>10.81</v>
       </c>
       <c r="C44" t="n">
-        <v>0.46</v>
+        <v>27.26</v>
       </c>
       <c r="D44" t="n">
-        <v>2.19</v>
+        <v>-37.67</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.5777777777777778</v>
       </c>
     </row>
     <row r="45">
@@ -1242,13 +1346,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.49</v>
+        <v>11.07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.46</v>
+        <v>27.52</v>
       </c>
       <c r="D45" t="n">
-        <v>2.11</v>
+        <v>-38.07</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.6399999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1256,13 +1363,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.51</v>
+        <v>11.45</v>
       </c>
       <c r="C46" t="n">
-        <v>0.46</v>
+        <v>27.61</v>
       </c>
       <c r="D46" t="n">
-        <v>2.11</v>
+        <v>-38.42</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.6399999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1270,13 +1380,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.26</v>
+        <v>11.86</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2</v>
+        <v>27.71</v>
       </c>
       <c r="D47" t="n">
-        <v>2.1</v>
+        <v>-38.78</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="48">
@@ -1284,13 +1397,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.01</v>
+        <v>12.39</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.14</v>
+        <v>27.63</v>
       </c>
       <c r="D48" t="n">
-        <v>2.17</v>
+        <v>-39.09</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.93</v>
       </c>
     </row>
     <row r="49">
@@ -1298,13 +1414,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.77</v>
+        <v>12.9</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.51</v>
+        <v>27.54</v>
       </c>
       <c r="D49" t="n">
-        <v>2.27</v>
+        <v>-39.43</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="50">
@@ -1312,13 +1431,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.47</v>
+        <v>13.39</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.99</v>
+        <v>27.48</v>
       </c>
       <c r="D50" t="n">
-        <v>2.46</v>
+        <v>-39.79</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="51">
@@ -1326,13 +1448,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.16</v>
+        <v>13.7</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.99</v>
+        <v>27.45</v>
       </c>
       <c r="D51" t="n">
-        <v>2.15</v>
+        <v>-39.98</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="52">
@@ -1340,13 +1465,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.91</v>
+        <v>13.94</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.08</v>
+        <v>27.45</v>
       </c>
       <c r="D52" t="n">
-        <v>1.99</v>
+        <v>-40.18</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1354,13 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.68</v>
+        <v>14.1</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.15</v>
+        <v>27.39</v>
       </c>
       <c r="D53" t="n">
-        <v>1.84</v>
+        <v>-40.26</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="54">
@@ -1368,13 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.5</v>
+        <v>14.25</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.19</v>
+        <v>27.33</v>
       </c>
       <c r="D54" t="n">
-        <v>1.7</v>
+        <v>-40.32</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="55">
@@ -1382,13 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5</v>
+        <v>14.45</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.16</v>
+        <v>27.2</v>
       </c>
       <c r="D55" t="n">
-        <v>1.66</v>
+        <v>-40.34</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="56">
@@ -1396,13 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.57</v>
+        <v>14.64</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.12</v>
+        <v>27.13</v>
       </c>
       <c r="D56" t="n">
-        <v>1.54</v>
+        <v>-40.35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="57">
@@ -1410,13 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.36</v>
+        <v>14.81</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.6899999999999999</v>
+        <v>27.07</v>
       </c>
       <c r="D57" t="n">
-        <v>0.89</v>
+        <v>-40.36</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="58">
@@ -1424,13 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02</v>
+        <v>14.91</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.25</v>
+        <v>27.06</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08</v>
+        <v>-40.39</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.3428571428571429</v>
       </c>
     </row>
     <row r="59">
@@ -1438,13 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.79</v>
+        <v>14.81</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.17</v>
+        <v>28.24</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.77</v>
+        <v>-41.34</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.6600000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -1452,13 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.65</v>
+        <v>14.64</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.11</v>
+        <v>29.7</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.69</v>
+        <v>-42.28</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.9955555555555556</v>
       </c>
     </row>
     <row r="61">
@@ -1466,13 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.62</v>
+        <v>14.59</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.63</v>
+        <v>31.13</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.15</v>
+        <v>-43.21</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-1.264</v>
       </c>
     </row>
     <row r="62">
@@ -1480,13 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.6</v>
+        <v>14.71</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.99</v>
+        <v>32.37</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.77</v>
+        <v>-44.13</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.264</v>
       </c>
     </row>
     <row r="63">
@@ -1494,13 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.54</v>
+        <v>14.83</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.55</v>
+        <v>33.64</v>
       </c>
       <c r="D63" t="n">
-        <v>-3.15</v>
+        <v>-45.11</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-1.802</v>
       </c>
     </row>
     <row r="64">
@@ -1508,13 +1705,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.41</v>
+        <v>14.18</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.09</v>
+        <v>35.74</v>
       </c>
       <c r="D64" t="n">
-        <v>-3.47</v>
+        <v>-46.11</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-2.377</v>
       </c>
     </row>
     <row r="65">
@@ -1522,13 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.22</v>
+        <v>13.5</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.8</v>
+        <v>37.85</v>
       </c>
       <c r="D65" t="n">
-        <v>-3.57</v>
+        <v>-47.09</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.922</v>
       </c>
     </row>
     <row r="66">
@@ -1536,13 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.06</v>
+        <v>12.76</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.4</v>
+        <v>40.05</v>
       </c>
       <c r="D66" t="n">
-        <v>-3.66</v>
+        <v>-48.06</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.547</v>
       </c>
     </row>
     <row r="67">
@@ -1550,13 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.36</v>
+        <v>12.02</v>
       </c>
       <c r="C67" t="n">
-        <v>-4.13</v>
+        <v>42.12</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.23</v>
+        <v>-49.04</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-4.052</v>
       </c>
     </row>
     <row r="68">
@@ -1564,13 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.64</v>
+        <v>11.1</v>
       </c>
       <c r="C68" t="n">
-        <v>-4.91</v>
+        <v>44.21</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.73</v>
+        <v>-50</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-4.377000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -1578,13 +1805,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.52</v>
+        <v>10.54</v>
       </c>
       <c r="C69" t="n">
-        <v>-5.3</v>
+        <v>45.11</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.22</v>
+        <v>-50</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.8899999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-4.762000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1592,13 +1825,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.39</v>
+        <v>9.98</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.76</v>
+        <v>45.71</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.63</v>
+        <v>-50</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-4.829000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1606,13 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.28</v>
+        <v>9.32</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.14</v>
+        <v>46.25</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.14</v>
+        <v>-50</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.8099999999999998</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-4.756000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1620,13 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.14</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>-6.5</v>
+        <v>46.96</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.64</v>
+        <v>-50</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.7899999999999998</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-4.723000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1634,13 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.91</v>
+        <v>7.71</v>
       </c>
       <c r="C73" t="n">
-        <v>-6.67</v>
+        <v>47.69</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.24</v>
+        <v>-50</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-4.180000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1648,13 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.59</v>
+        <v>7.71</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.83</v>
+        <v>47.53</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24</v>
+        <v>-50</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-1.660000000000001</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.58</v>
       </c>
     </row>
     <row r="75">
@@ -1662,13 +1925,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.33</v>
+        <v>7.73</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.81</v>
+        <v>47.36</v>
       </c>
       <c r="D75" t="n">
-        <v>0.47</v>
+        <v>-50</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-3.009999999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1676,13 +1945,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.19</v>
+        <v>7.5</v>
       </c>
       <c r="C76" t="n">
-        <v>-6.84</v>
+        <v>47.09</v>
       </c>
       <c r="D76" t="n">
-        <v>0.65</v>
+        <v>-50</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-2.11</v>
       </c>
     </row>
     <row r="77">
@@ -1690,13 +1965,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.07</v>
+        <v>7.26</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.89</v>
+        <v>46.94</v>
       </c>
       <c r="D77" t="n">
-        <v>0.82</v>
+        <v>-50</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="78">
@@ -1704,13 +1985,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.86</v>
+        <v>7.2</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.87</v>
+        <v>46.77</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01</v>
+        <v>-50</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="79">
@@ -1718,13 +2005,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.67</v>
+        <v>6.64</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.87</v>
+        <v>47.04</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2</v>
+        <v>-50</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3.699999999999999</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.02000000000000011</v>
       </c>
     </row>
     <row r="80">
@@ -1732,13 +2025,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.62</v>
+        <v>6.16</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.79</v>
+        <v>47.33</v>
       </c>
       <c r="D80" t="n">
-        <v>1.17</v>
+        <v>-50</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-4.089999999999999</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1746,13 +2045,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.55</v>
+        <v>4.75</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.81</v>
+        <v>48.7</v>
       </c>
       <c r="D81" t="n">
-        <v>1.25</v>
+        <v>-50</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-4.499999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="82">
@@ -1760,13 +2065,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.59</v>
+        <v>3.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-6.86</v>
+        <v>50.1</v>
       </c>
       <c r="D82" t="n">
-        <v>1.27</v>
+        <v>-50</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="83">
@@ -1774,13 +2085,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.75</v>
+        <v>1.78</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.87</v>
+        <v>51.5</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12</v>
+        <v>-50</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="84">
@@ -1788,13 +2105,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.22</v>
+        <v>0.25</v>
       </c>
       <c r="C84" t="n">
-        <v>-6.9</v>
+        <v>52.95</v>
       </c>
       <c r="D84" t="n">
-        <v>0.68</v>
+        <v>-50</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-5.11</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="85">
@@ -1802,13 +2125,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.71</v>
+        <v>-1.29</v>
       </c>
       <c r="C85" t="n">
-        <v>-6.95</v>
+        <v>54.41</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24</v>
+        <v>-50</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-5.24</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="86">
@@ -1816,13 +2145,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.28</v>
+        <v>-2.58</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.06</v>
+        <v>55.79</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.21</v>
+        <v>-50</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-5.39</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="87">
@@ -1830,13 +2165,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.92</v>
+        <v>-5.16</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.19</v>
+        <v>58.55</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.73</v>
+        <v>-50</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="88">
@@ -1844,13 +2185,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.5</v>
+        <v>-7.73</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.34</v>
+        <v>61.27</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.17</v>
+        <v>-50</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-5.726999999999999</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.194</v>
       </c>
     </row>
     <row r="89">
@@ -1858,13 +2205,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.27</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.48</v>
+        <v>63.67</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.79</v>
+        <v>-50.12</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-5.864</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.278</v>
       </c>
     </row>
     <row r="90">
@@ -1872,13 +2225,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.869999999999999</v>
+        <v>-12.23</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.68</v>
+        <v>66.18000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>-2.2</v>
+        <v>-50.25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-6.081</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.382000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1886,13 +2245,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.38</v>
+        <v>-13.55</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.84</v>
+        <v>67.66</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.54</v>
+        <v>-50.41</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-6.278</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.576</v>
       </c>
     </row>
     <row r="92">
@@ -1900,13 +2265,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10.88</v>
+        <v>-14.81</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.99</v>
+        <v>69.12</v>
       </c>
       <c r="D92" t="n">
-        <v>-2.9</v>
+        <v>-50.57</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-6.464999999999999</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="93">
@@ -1914,13 +2285,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.4</v>
+        <v>-16.62</v>
       </c>
       <c r="C93" t="n">
-        <v>-8.16</v>
+        <v>70.58</v>
       </c>
       <c r="D93" t="n">
-        <v>-3.24</v>
+        <v>-50.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-6.672</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.813999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -1928,13 +2305,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.82</v>
+        <v>-18.44</v>
       </c>
       <c r="C94" t="n">
-        <v>-8.32</v>
+        <v>71.97</v>
       </c>
       <c r="D94" t="n">
-        <v>-3.5</v>
+        <v>-49.64</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-6.889</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.988</v>
       </c>
     </row>
     <row r="95">
@@ -1942,13 +2325,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.3</v>
+        <v>-20.24</v>
       </c>
       <c r="C95" t="n">
-        <v>-8.470000000000001</v>
+        <v>73.36</v>
       </c>
       <c r="D95" t="n">
-        <v>-3.83</v>
+        <v>-49.19</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-7.086</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.161999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -1956,13 +2345,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.76</v>
+        <v>-22.05</v>
       </c>
       <c r="C96" t="n">
-        <v>-8.68</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.08</v>
+        <v>-48.76</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-7.263</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.216</v>
       </c>
     </row>
     <row r="97">
@@ -1970,13 +2365,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.12</v>
+        <v>-22.3</v>
       </c>
       <c r="C97" t="n">
-        <v>-8.720000000000001</v>
+        <v>74.97</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.4</v>
+        <v>-48.57</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.34</v>
       </c>
     </row>
     <row r="98">
@@ -1984,13 +2385,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.55</v>
+        <v>-22.37</v>
       </c>
       <c r="C98" t="n">
-        <v>-8.75</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>-4.8</v>
+        <v>-48.39</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-7.58</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.185</v>
       </c>
     </row>
     <row r="99">
@@ -1998,13 +2405,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.78</v>
+        <v>-22.43</v>
       </c>
       <c r="C99" t="n">
-        <v>-8.76</v>
+        <v>75.28</v>
       </c>
       <c r="D99" t="n">
-        <v>-5.02</v>
+        <v>-48.15</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-7.73</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.03</v>
       </c>
     </row>
     <row r="100">
@@ -2012,13 +2425,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.05</v>
+        <v>-24.39</v>
       </c>
       <c r="C100" t="n">
-        <v>-8.720000000000001</v>
+        <v>75.31</v>
       </c>
       <c r="D100" t="n">
-        <v>-5.33</v>
+        <v>-45.91</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-7.799999999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.795</v>
       </c>
     </row>
     <row r="101">
@@ -2026,13 +2445,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.33</v>
+        <v>-26.35</v>
       </c>
       <c r="C101" t="n">
-        <v>-8.619999999999999</v>
+        <v>75.34</v>
       </c>
       <c r="D101" t="n">
-        <v>-5.71</v>
+        <v>-43.64</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-7.869999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="102">
@@ -2040,13 +2465,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.47</v>
+        <v>-28.37</v>
       </c>
       <c r="C102" t="n">
-        <v>-8.460000000000001</v>
+        <v>75.36</v>
       </c>
       <c r="D102" t="n">
-        <v>-6.01</v>
+        <v>-41.38</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-7.959999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.345</v>
       </c>
     </row>
     <row r="103">
@@ -2054,13 +2485,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.65</v>
+        <v>-29.78</v>
       </c>
       <c r="C103" t="n">
-        <v>-8.32</v>
+        <v>75.36</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.33</v>
+        <v>-39.71</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="104">
@@ -2068,13 +2505,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>14.68</v>
+        <v>-31.2</v>
       </c>
       <c r="C104" t="n">
-        <v>-8.17</v>
+        <v>75.81</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.51</v>
+        <v>-38.06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.565</v>
       </c>
     </row>
     <row r="105">
@@ -2082,13 +2525,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.29</v>
+        <v>-32.65</v>
       </c>
       <c r="C105" t="n">
-        <v>-8.66</v>
+        <v>76.33</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.63</v>
+        <v>-36.41</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9029999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -2096,13 +2545,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.84</v>
+        <v>-34.12</v>
       </c>
       <c r="C106" t="n">
-        <v>-9.07</v>
+        <v>77.06</v>
       </c>
       <c r="D106" t="n">
-        <v>-6.77</v>
+        <v>-34.74</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.07600000000000011</v>
       </c>
     </row>
     <row r="107">
@@ -2110,13 +2565,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16.31</v>
+        <v>-35.84</v>
       </c>
       <c r="C107" t="n">
-        <v>-9.630000000000001</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.68</v>
+        <v>-32.83</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-8.379999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.7409999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2124,13 +2585,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>17</v>
+        <v>-36.74</v>
       </c>
       <c r="C108" t="n">
-        <v>-10.21</v>
+        <v>77.53</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.79</v>
+        <v>-30.91</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-8.48</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-1.393</v>
       </c>
     </row>
     <row r="109">
@@ -2138,13 +2605,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>17.63</v>
+        <v>-37.65</v>
       </c>
       <c r="C109" t="n">
-        <v>-10.71</v>
+        <v>77.17</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.92</v>
+        <v>-28.95</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-8.56</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-2.015</v>
       </c>
     </row>
     <row r="110">
@@ -2152,13 +2625,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>17.99</v>
+        <v>-36.24</v>
       </c>
       <c r="C110" t="n">
-        <v>-11.2</v>
+        <v>76.83</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.79</v>
+        <v>-29.03</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-2.857</v>
       </c>
     </row>
     <row r="111">
@@ -2166,13 +2645,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>18.33</v>
+        <v>-34.81</v>
       </c>
       <c r="C111" t="n">
-        <v>-11.52</v>
+        <v>76.48999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.81</v>
+        <v>-29.13</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-8.860000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-3.689</v>
       </c>
     </row>
     <row r="112">
@@ -2180,13 +2665,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>19.19</v>
+        <v>-33.45</v>
       </c>
       <c r="C112" t="n">
-        <v>-12.35</v>
+        <v>76.31</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.84</v>
+        <v>-29.28</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-4.561</v>
       </c>
     </row>
     <row r="113">
@@ -2194,13 +2685,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20</v>
+        <v>-32.08</v>
       </c>
       <c r="C113" t="n">
-        <v>-13.13</v>
+        <v>76.06</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.87</v>
+        <v>-29.46</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-5.273000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -2208,13 +2705,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20.95</v>
+        <v>-30.98</v>
       </c>
       <c r="C114" t="n">
-        <v>-13.97</v>
+        <v>75.37</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.98</v>
+        <v>-29.64</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-9.030000000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-5.715000000000002</v>
       </c>
     </row>
     <row r="115">
@@ -2222,13 +2725,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.26</v>
+        <v>-29.82</v>
       </c>
       <c r="C115" t="n">
-        <v>-14.19</v>
+        <v>74.61</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.06</v>
+        <v>-29.82</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-8.81</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-6.160000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -2236,13 +2745,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.75</v>
+        <v>-28.46</v>
       </c>
       <c r="C116" t="n">
-        <v>-14.44</v>
+        <v>73.62</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.31</v>
+        <v>-30.08</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-6.5</v>
       </c>
     </row>
     <row r="117">
@@ -2250,13 +2765,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>22.02</v>
+        <v>-30.5</v>
       </c>
       <c r="C117" t="n">
-        <v>-14.38</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>-7.64</v>
+        <v>-30.41</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-8.329999999999998</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-6.910000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2264,13 +2785,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>22.07</v>
+        <v>-33.52</v>
       </c>
       <c r="C118" t="n">
-        <v>-14.31</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.76</v>
+        <v>-30.74</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-7.400000000000001</v>
       </c>
     </row>
     <row r="119">
@@ -2278,13 +2805,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>22.13</v>
+        <v>-36.55</v>
       </c>
       <c r="C119" t="n">
-        <v>-14.27</v>
+        <v>83.38</v>
       </c>
       <c r="D119" t="n">
-        <v>-7.86</v>
+        <v>-31.04</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-7.869999999999999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-7.92</v>
       </c>
     </row>
     <row r="120">
@@ -2292,13 +2825,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>22.42</v>
+        <v>-40</v>
       </c>
       <c r="C120" t="n">
-        <v>-14.21</v>
+        <v>87</v>
       </c>
       <c r="D120" t="n">
-        <v>-8.210000000000001</v>
+        <v>-31.18</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-7.659999999999998</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-8.16</v>
       </c>
     </row>
     <row r="121">
@@ -2306,13 +2845,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>22.7</v>
+        <v>-43.48</v>
       </c>
       <c r="C121" t="n">
-        <v>-14.57</v>
+        <v>90.61</v>
       </c>
       <c r="D121" t="n">
-        <v>-8.130000000000001</v>
+        <v>-31.32</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-7.489999999999999</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-8.33</v>
       </c>
     </row>
     <row r="122">
@@ -2320,13 +2865,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>22.59</v>
+        <v>-46.88</v>
       </c>
       <c r="C122" t="n">
-        <v>-14.55</v>
+        <v>93.87</v>
       </c>
       <c r="D122" t="n">
-        <v>-8.039999999999999</v>
+        <v>-31.39</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-6.599999999999999</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="123">
@@ -2334,13 +2885,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>22.49</v>
+        <v>-50.29</v>
       </c>
       <c r="C123" t="n">
-        <v>-14.53</v>
+        <v>97.2</v>
       </c>
       <c r="D123" t="n">
-        <v>-7.94</v>
+        <v>-31.48</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-5.028999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-10.401</v>
       </c>
     </row>
     <row r="124">
@@ -2348,13 +2905,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>22.34</v>
+        <v>-53.43</v>
       </c>
       <c r="C124" t="n">
-        <v>-14.47</v>
+        <v>100.61</v>
       </c>
       <c r="D124" t="n">
-        <v>-7.83</v>
+        <v>-31.56</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-3.908</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-11.72</v>
       </c>
     </row>
     <row r="125">
@@ -2362,13 +2925,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>22.17</v>
+        <v>-56.63</v>
       </c>
       <c r="C125" t="n">
-        <v>-14.41</v>
+        <v>104.09</v>
       </c>
       <c r="D125" t="n">
-        <v>-7.72</v>
+        <v>-31.63</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-12.973</v>
       </c>
     </row>
     <row r="126">
@@ -2376,13 +2945,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>22.05</v>
+        <v>-60</v>
       </c>
       <c r="C126" t="n">
-        <v>-14.57</v>
+        <v>107.57</v>
       </c>
       <c r="D126" t="n">
-        <v>-7.44</v>
+        <v>-31.62</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-1.802</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-14.146</v>
       </c>
     </row>
     <row r="127">
@@ -2390,13 +2965,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>22.71</v>
+        <v>-60</v>
       </c>
       <c r="C127" t="n">
-        <v>-15.45</v>
+        <v>107.26</v>
       </c>
       <c r="D127" t="n">
-        <v>-7.22</v>
+        <v>-31.28</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.7339999999999998</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-15.249</v>
       </c>
     </row>
     <row r="128">
@@ -2404,13 +2985,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>23.32</v>
+        <v>-60</v>
       </c>
       <c r="C128" t="n">
-        <v>-16.34</v>
+        <v>106.86</v>
       </c>
       <c r="D128" t="n">
-        <v>-6.94</v>
+        <v>-30.96</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.3830000000000003</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-16.281</v>
       </c>
     </row>
     <row r="129">
@@ -2418,13 +3005,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>24.01</v>
+        <v>-60</v>
       </c>
       <c r="C129" t="n">
-        <v>-17.31</v>
+        <v>106.55</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.66</v>
+        <v>-30.65</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-17.313</v>
       </c>
     </row>
     <row r="130">
@@ -2432,13 +3025,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>24.69</v>
+        <v>-60</v>
       </c>
       <c r="C130" t="n">
-        <v>-18.3</v>
+        <v>106.26</v>
       </c>
       <c r="D130" t="n">
-        <v>-6.35</v>
+        <v>-30.44</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-18.325</v>
       </c>
     </row>
     <row r="131">
@@ -2446,13 +3045,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>25.2</v>
+        <v>-60</v>
       </c>
       <c r="C131" t="n">
-        <v>-19.13</v>
+        <v>105.9</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.03</v>
+        <v>-30.17</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.663999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-19.397</v>
       </c>
     </row>
     <row r="132">
@@ -2460,13 +3065,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>26.1</v>
+        <v>-60</v>
       </c>
       <c r="C132" t="n">
-        <v>-19.9</v>
+        <v>105.75</v>
       </c>
       <c r="D132" t="n">
-        <v>-6.16</v>
+        <v>-29.88</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-19.969</v>
       </c>
     </row>
     <row r="133">
@@ -2474,13 +3085,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26.8</v>
+        <v>-60</v>
       </c>
       <c r="C133" t="n">
-        <v>-21.38</v>
+        <v>105.58</v>
       </c>
       <c r="D133" t="n">
-        <v>-5.4</v>
+        <v>-29.54</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-19.97</v>
       </c>
     </row>
     <row r="134">
@@ -2488,13 +3105,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.34</v>
+        <v>-60</v>
       </c>
       <c r="C134" t="n">
-        <v>-22.67</v>
+        <v>105.31</v>
       </c>
       <c r="D134" t="n">
-        <v>-4.67</v>
+        <v>-29.19</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.733000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-19.833</v>
       </c>
     </row>
     <row r="135">
@@ -2502,13 +3125,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.84</v>
+        <v>-60</v>
       </c>
       <c r="C135" t="n">
-        <v>-23.99</v>
+        <v>104.88</v>
       </c>
       <c r="D135" t="n">
-        <v>-3.85</v>
+        <v>-28.84</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.742</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-19.742</v>
       </c>
     </row>
     <row r="136">
@@ -2516,13 +3145,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.49</v>
+        <v>-60</v>
       </c>
       <c r="C136" t="n">
-        <v>-25.11</v>
+        <v>104.72</v>
       </c>
       <c r="D136" t="n">
-        <v>-2.37</v>
+        <v>-28.49</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.704</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-19.879</v>
       </c>
     </row>
     <row r="137">
@@ -2530,13 +3165,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>26.56</v>
+        <v>-60</v>
       </c>
       <c r="C137" t="n">
-        <v>-25.71</v>
+        <v>104.81</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.86</v>
+        <v>-28.42</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-19.916</v>
       </c>
     </row>
     <row r="138">
@@ -2544,13 +3185,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>25.93</v>
+        <v>-60</v>
       </c>
       <c r="C138" t="n">
-        <v>-26.51</v>
+        <v>104.88</v>
       </c>
       <c r="D138" t="n">
-        <v>0.58</v>
+        <v>-28.32</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.439</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-19.944</v>
       </c>
     </row>
     <row r="139">
@@ -2558,13 +3205,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>25.28</v>
+        <v>-60</v>
       </c>
       <c r="C139" t="n">
-        <v>-27.37</v>
+        <v>104.87</v>
       </c>
       <c r="D139" t="n">
-        <v>2.09</v>
+        <v>-28.24</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-19.952</v>
       </c>
     </row>
     <row r="140">
@@ -2572,13 +3225,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>24.64</v>
+        <v>-60</v>
       </c>
       <c r="C140" t="n">
-        <v>-28.22</v>
+        <v>104.84</v>
       </c>
       <c r="D140" t="n">
-        <v>3.58</v>
+        <v>-28.18</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-19.97</v>
       </c>
     </row>
     <row r="141">
@@ -2586,13 +3245,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>24.05</v>
+        <v>-60</v>
       </c>
       <c r="C141" t="n">
-        <v>-28.99</v>
+        <v>104.86</v>
       </c>
       <c r="D141" t="n">
-        <v>4.95</v>
+        <v>-28.18</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-19.958</v>
       </c>
     </row>
     <row r="142">
@@ -2600,13 +3265,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>22.93</v>
+        <v>-60</v>
       </c>
       <c r="C142" t="n">
-        <v>-29.71</v>
+        <v>104.87</v>
       </c>
       <c r="D142" t="n">
-        <v>6.77</v>
+        <v>-28.22</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.241000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-19.826</v>
       </c>
     </row>
     <row r="143">
@@ -2614,13 +3285,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>22.02</v>
+        <v>-60</v>
       </c>
       <c r="C143" t="n">
-        <v>-29.66</v>
+        <v>104.92</v>
       </c>
       <c r="D143" t="n">
-        <v>7.65</v>
+        <v>-28.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-19.714</v>
       </c>
     </row>
     <row r="144">
@@ -2628,13 +3305,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>21.39</v>
+        <v>-60</v>
       </c>
       <c r="C144" t="n">
-        <v>-29.81</v>
+        <v>105.11</v>
       </c>
       <c r="D144" t="n">
-        <v>8.42</v>
+        <v>-28.38</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-19.752</v>
       </c>
     </row>
     <row r="145">
@@ -2642,13 +3325,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>20.92</v>
+        <v>-60</v>
       </c>
       <c r="C145" t="n">
-        <v>-29.92</v>
+        <v>105.33</v>
       </c>
       <c r="D145" t="n">
-        <v>9</v>
+        <v>-28.39</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.830000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-19.75</v>
       </c>
     </row>
     <row r="146">
@@ -2656,13 +3345,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>21.07</v>
+        <v>-60</v>
       </c>
       <c r="C146" t="n">
-        <v>-30.02</v>
+        <v>105.65</v>
       </c>
       <c r="D146" t="n">
-        <v>8.949999999999999</v>
+        <v>-28.42</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-19.86</v>
       </c>
     </row>
     <row r="147">
@@ -2670,13 +3365,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>21.49</v>
+        <v>-60</v>
       </c>
       <c r="C147" t="n">
-        <v>-30.22</v>
+        <v>105.99</v>
       </c>
       <c r="D147" t="n">
-        <v>8.73</v>
+        <v>-28.39</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-20.09</v>
       </c>
     </row>
     <row r="148">
@@ -2684,13 +3385,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>21.62</v>
+        <v>-60</v>
       </c>
       <c r="C148" t="n">
-        <v>-30.4</v>
+        <v>106.34</v>
       </c>
       <c r="D148" t="n">
-        <v>8.779999999999999</v>
+        <v>-28.33</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.330000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-20.34</v>
       </c>
     </row>
     <row r="149">
@@ -2698,13 +3405,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>21.76</v>
+        <v>-60</v>
       </c>
       <c r="C149" t="n">
-        <v>-30.49</v>
+        <v>106.67</v>
       </c>
       <c r="D149" t="n">
-        <v>8.73</v>
+        <v>-28.01</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-20.79</v>
       </c>
     </row>
     <row r="150">
@@ -2712,13 +3425,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>21.88</v>
+        <v>-60</v>
       </c>
       <c r="C150" t="n">
-        <v>-30.57</v>
+        <v>106.99</v>
       </c>
       <c r="D150" t="n">
-        <v>8.699999999999999</v>
+        <v>-27.64</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-21.25</v>
       </c>
     </row>
     <row r="151">
@@ -2726,13 +3445,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>22.17</v>
+        <v>-60</v>
       </c>
       <c r="C151" t="n">
-        <v>-30.68</v>
+        <v>107.33</v>
       </c>
       <c r="D151" t="n">
-        <v>8.51</v>
+        <v>-27.29</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-21.055</v>
       </c>
     </row>
     <row r="152">
@@ -2740,13 +3465,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>22.75</v>
+        <v>-60</v>
       </c>
       <c r="C152" t="n">
-        <v>-30.85</v>
+        <v>107.68</v>
       </c>
       <c r="D152" t="n">
-        <v>8.109999999999999</v>
+        <v>-27.18</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-20.7</v>
       </c>
     </row>
     <row r="153">
@@ -2754,13 +3485,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>23.21</v>
+        <v>-60</v>
       </c>
       <c r="C153" t="n">
-        <v>-31.09</v>
+        <v>108.03</v>
       </c>
       <c r="D153" t="n">
-        <v>7.88</v>
+        <v>-27.08</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-0.6249999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-20.325</v>
       </c>
     </row>
     <row r="154">
@@ -2768,13 +3505,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>23.49</v>
+        <v>-60</v>
       </c>
       <c r="C154" t="n">
-        <v>-30.17</v>
+        <v>107.41</v>
       </c>
       <c r="D154" t="n">
-        <v>6.68</v>
+        <v>-27</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-18.96</v>
       </c>
     </row>
     <row r="155">
@@ -2782,13 +3525,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>23.6</v>
+        <v>-60</v>
       </c>
       <c r="C155" t="n">
-        <v>-29.24</v>
+        <v>106.85</v>
       </c>
       <c r="D155" t="n">
-        <v>5.64</v>
+        <v>-27</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-2.285</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-17.565</v>
       </c>
     </row>
     <row r="156">
@@ -2796,13 +3545,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>23.65</v>
+        <v>-60</v>
       </c>
       <c r="C156" t="n">
-        <v>-28.3</v>
+        <v>105.91</v>
       </c>
       <c r="D156" t="n">
-        <v>4.65</v>
+        <v>-26.98</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-3.089999999999999</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-15.84</v>
       </c>
     </row>
     <row r="157">
@@ -2810,13 +3565,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>23.53</v>
+        <v>-60</v>
       </c>
       <c r="C157" t="n">
-        <v>-27.38</v>
+        <v>104.98</v>
       </c>
       <c r="D157" t="n">
-        <v>3.85</v>
+        <v>-27</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-3.884999999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-14.095</v>
       </c>
     </row>
     <row r="158">
@@ -2824,13 +3585,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>24.38</v>
+        <v>-60</v>
       </c>
       <c r="C158" t="n">
-        <v>-27.16</v>
+        <v>103.99</v>
       </c>
       <c r="D158" t="n">
-        <v>2.78</v>
+        <v>-27.12</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-4.659999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-12.21</v>
       </c>
     </row>
     <row r="159">
@@ -2838,13 +3605,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>25.25</v>
+        <v>-60</v>
       </c>
       <c r="C159" t="n">
-        <v>-26.96</v>
+        <v>103.85</v>
       </c>
       <c r="D159" t="n">
-        <v>1.71</v>
+        <v>-28.12</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-5.487</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-10.237</v>
       </c>
     </row>
     <row r="160">
@@ -2852,13 +3625,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>26.01</v>
+        <v>-60</v>
       </c>
       <c r="C160" t="n">
-        <v>-26.58</v>
+        <v>103.59</v>
       </c>
       <c r="D160" t="n">
-        <v>0.57</v>
+        <v>-29.16</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-6.334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-8.1</v>
       </c>
     </row>
     <row r="161">
@@ -2866,13 +3645,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>26.58</v>
+        <v>-60</v>
       </c>
       <c r="C161" t="n">
-        <v>-26</v>
+        <v>103.42</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.58</v>
+        <v>-30.24</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-6.525999999999999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-6.648000000000001</v>
       </c>
     </row>
     <row r="162">
@@ -2880,13 +3665,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>26.74</v>
+        <v>-60</v>
       </c>
       <c r="C162" t="n">
-        <v>-25.4</v>
+        <v>103.46</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.34</v>
+        <v>-31.17</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-6.717999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-5.576</v>
       </c>
     </row>
     <row r="163">
@@ -2894,13 +3685,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>27.12</v>
+        <v>-60</v>
       </c>
       <c r="C163" t="n">
-        <v>-24.91</v>
+        <v>103.47</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.21</v>
+        <v>-32.15</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-6.74</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-4.584</v>
       </c>
     </row>
     <row r="164">
@@ -2908,13 +3705,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>27.48</v>
+        <v>-60</v>
       </c>
       <c r="C164" t="n">
-        <v>-25.47</v>
+        <v>104.43</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.01</v>
+        <v>-33.13</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-7.002</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-4.292000000000001</v>
       </c>
     </row>
     <row r="165">
@@ -2922,13 +3725,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>27.89</v>
+        <v>-60</v>
       </c>
       <c r="C165" t="n">
-        <v>-26.02</v>
+        <v>105.36</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.87</v>
+        <v>-34.11</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-7.203999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-4.050000000000001</v>
       </c>
     </row>
     <row r="166">
@@ -2936,13 +3745,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>28.48</v>
+        <v>-60</v>
       </c>
       <c r="C166" t="n">
-        <v>-26.63</v>
+        <v>106.31</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.85</v>
+        <v>-35.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-7.406000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-3.798</v>
       </c>
     </row>
     <row r="167">
@@ -2950,13 +3765,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>29.05</v>
+        <v>-60</v>
       </c>
       <c r="C167" t="n">
-        <v>-27.23</v>
+        <v>107.24</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.82</v>
+        <v>-36.08</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-7.597999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-3.566</v>
       </c>
     </row>
     <row r="168">
@@ -2964,13 +3785,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>28.96</v>
+        <v>-60</v>
       </c>
       <c r="C168" t="n">
-        <v>-27.12</v>
+        <v>108.23</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.84</v>
+        <v>-37.05</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-7.970000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-3.214</v>
       </c>
     </row>
     <row r="169">
@@ -2978,13 +3805,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>28.86</v>
+        <v>-60</v>
       </c>
       <c r="C169" t="n">
-        <v>-27.02</v>
+        <v>108.38</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.84</v>
+        <v>-37.6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-7.870000000000002</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-2.91</v>
       </c>
     </row>
     <row r="170">
@@ -2992,13 +3825,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>28.89</v>
+        <v>-60</v>
       </c>
       <c r="C170" t="n">
-        <v>-27.11</v>
+        <v>108.81</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.79</v>
+        <v>-38.23</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-7.750000000000002</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-2.83</v>
       </c>
     </row>
     <row r="171">
@@ -3006,13 +3845,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>29.34</v>
+        <v>-60</v>
       </c>
       <c r="C171" t="n">
-        <v>-27.44</v>
+        <v>109.09</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.9</v>
+        <v>-38.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="172">
@@ -3020,13 +3865,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>29.95</v>
+        <v>-60</v>
       </c>
       <c r="C172" t="n">
-        <v>-27.79</v>
+        <v>109.15</v>
       </c>
       <c r="D172" t="n">
-        <v>-2.16</v>
+        <v>-39.27</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-8.15</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1.73</v>
       </c>
     </row>
     <row r="173">
@@ -3034,13 +3885,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>30.46</v>
+        <v>-60</v>
       </c>
       <c r="C173" t="n">
-        <v>-28.05</v>
+        <v>109.19</v>
       </c>
       <c r="D173" t="n">
-        <v>-2.44</v>
+        <v>-39.66</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-8.75</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="174">
@@ -3048,13 +3905,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>31.04</v>
+        <v>-60</v>
       </c>
       <c r="C174" t="n">
-        <v>-28.39</v>
+        <v>109.22</v>
       </c>
       <c r="D174" t="n">
-        <v>-2.71</v>
+        <v>-39.09</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-9.875999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.2500000000000001</v>
       </c>
     </row>
     <row r="175">
@@ -3062,13 +3925,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>31.65</v>
+        <v>-60</v>
       </c>
       <c r="C175" t="n">
-        <v>-28.73</v>
+        <v>109.27</v>
       </c>
       <c r="D175" t="n">
-        <v>-3.01</v>
+        <v>-38.54</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-11.042</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.3100000000000001</v>
       </c>
     </row>
     <row r="176">
@@ -3076,17 +3945,1043 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>32.14</v>
+        <v>-60</v>
       </c>
       <c r="C176" t="n">
-        <v>-28.7</v>
+        <v>108.33</v>
       </c>
       <c r="D176" t="n">
-        <v>-3.56</v>
+        <v>-37.96</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-12.218</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C177" t="n">
+        <v>106.89</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-36.71</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-13.394</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C178" t="n">
+        <v>105.27</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-35.4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-14.39</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4.521</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C179" t="n">
+        <v>103.59</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-33.95</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-15.766</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6.132000000000001</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C180" t="n">
+        <v>101.67</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-32.45</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-17.142</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7.923</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C181" t="n">
+        <v>99.52</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-30.61</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-18.448</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9.544</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C182" t="n">
+        <v>97.34999999999999</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-28.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-19.214</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10.665</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C183" t="n">
+        <v>95</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-27.07</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12.066</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C184" t="n">
+        <v>92.69</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-26.28</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13.587</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C185" t="n">
+        <v>90.37</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-25.57</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15.198</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C186" t="n">
+        <v>88.94</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-24.87</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F186" t="n">
+        <v>15.929</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C187" t="n">
+        <v>88.08</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-24.88</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F187" t="n">
+        <v>16.803</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C188" t="n">
+        <v>87.38</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F188" t="n">
+        <v>17.526</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C189" t="n">
+        <v>86.75</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-24.84</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F189" t="n">
+        <v>18.089</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C190" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-24.77</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F190" t="n">
+        <v>18.572</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C191" t="n">
+        <v>85.95999999999999</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-25.02</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19.065</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C192" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-25.27</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F192" t="n">
+        <v>19.548</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C193" t="n">
+        <v>85.72</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-25.45</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F193" t="n">
+        <v>19.751</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C194" t="n">
+        <v>86.14</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-26.07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F194" t="n">
+        <v>19.954</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C195" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-26.62</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20.327</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C196" t="n">
+        <v>86.55</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-27.12</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C197" t="n">
+        <v>86.73999999999999</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-27.63</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C198" t="n">
+        <v>87.51000000000001</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-28.18</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20.685</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C199" t="n">
+        <v>88.43000000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-28.85</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20.44</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C200" t="n">
+        <v>89.38</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-29.53</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20.175</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C201" t="n">
+        <v>90.31</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-30.22</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F201" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C202" t="n">
+        <v>91.20999999999999</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-30.93</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F202" t="n">
+        <v>19.735</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C203" t="n">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-31.59</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C204" t="n">
+        <v>92.48</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-31.88</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19.394</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C205" t="n">
+        <v>93.17</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-32.15</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F205" t="n">
+        <v>18.988</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C206" t="n">
+        <v>93.81</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F206" t="n">
+        <v>18.592</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C207" t="n">
+        <v>94.43000000000001</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-32.63</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18.196</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C208" t="n">
+        <v>94.19</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-32.8</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F208" t="n">
+        <v>18.605</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C209" t="n">
+        <v>93.83</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-32.86</v>
+      </c>
+      <c r="E209" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F209" t="n">
+        <v>19.034</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C210" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-33.19</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F210" t="n">
+        <v>19.393</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C211" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-33.41</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F211" t="n">
+        <v>19.662</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C212" t="n">
+        <v>93.62</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-33.47</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F212" t="n">
+        <v>19.851</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C213" t="n">
+        <v>92.43000000000001</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-32.47</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F213" t="n">
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C214" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-31.4</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F214" t="n">
+        <v>20.15</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C215" t="n">
+        <v>90.52</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-30.35</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F215" t="n">
+        <v>19.83000000000001</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C216" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-29.38</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F216" t="n">
+        <v>19.53</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C217" t="n">
+        <v>88.98</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-28.01</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F217" t="n">
+        <v>19.03</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C218" t="n">
+        <v>88.33</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-26.72</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F218" t="n">
+        <v>18.39</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C219" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-25.42</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F219" t="n">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C220" t="n">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-23.84</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F220" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C221" t="n">
+        <v>85.98999999999999</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-22.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F221" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C222" t="n">
+        <v>85.28</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-21.09</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F222" t="n">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C223" t="n">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-20.79</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C224" t="n">
+        <v>85.87</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-20.51</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F224" t="n">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C225" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-21.19</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F225" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C226" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-21.85</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F226" t="n">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-60</v>
+      </c>
+      <c r="C227" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F227" t="n">
+        <v>15.85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (06/24/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (07/05/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$227</f>
+              <f>'data'!$B$2:$B$176</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$227</f>
+              <f>'data'!$C$2:$C$176</f>
             </numRef>
           </val>
         </ser>
@@ -248,61 +248,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$227</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'data'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$E$2:$E$227</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'data'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'data'!$F$2:$F$227</f>
+              <f>'data'!$D$2:$D$176</f>
             </numRef>
           </val>
         </ser>
@@ -672,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +634,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Scott</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -698,17 +644,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Cedric</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Cheyenne</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fish</t>
+          <t>Scott</t>
         </is>
       </c>
     </row>
@@ -731,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>-0.35</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1</v>
+        <v>-0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -745,13 +681,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.33</v>
+        <v>-0.7</v>
       </c>
       <c r="C4" t="n">
-        <v>1.43</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -759,13 +695,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.95</v>
+        <v>-1.02</v>
       </c>
       <c r="C5" t="n">
-        <v>1.46</v>
+        <v>0.17</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.41</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6">
@@ -773,13 +709,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.9</v>
+        <v>-1.26</v>
       </c>
       <c r="C6" t="n">
-        <v>1.49</v>
+        <v>0.14</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.4</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -787,13 +723,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.25</v>
+        <v>-1.52</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5</v>
+        <v>0.12</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.75</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8">
@@ -801,13 +737,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.23</v>
+        <v>-1.67</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.74</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9">
@@ -815,13 +751,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.96</v>
+        <v>-1.94</v>
       </c>
       <c r="C9" t="n">
-        <v>1.52</v>
+        <v>0.19</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.470000000000001</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10">
@@ -829,13 +765,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.6</v>
+        <v>-2.21</v>
       </c>
       <c r="C10" t="n">
-        <v>1.52</v>
+        <v>0.34</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.119999999999999</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="11">
@@ -843,13 +779,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.119999999999999</v>
+        <v>-2.37</v>
       </c>
       <c r="C11" t="n">
-        <v>1.52</v>
+        <v>0.41</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.640000000000001</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="12">
@@ -857,13 +793,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.119999999999999</v>
+        <v>-2.37</v>
       </c>
       <c r="C12" t="n">
-        <v>1.52</v>
+        <v>0.41</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.640000000000001</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="13">
@@ -871,13 +807,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.390000000000001</v>
+        <v>-2.77</v>
       </c>
       <c r="C13" t="n">
-        <v>1.65</v>
+        <v>0.53</v>
       </c>
       <c r="D13" t="n">
-        <v>-11.04</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="14">
@@ -885,13 +821,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.31</v>
+        <v>-3.16</v>
       </c>
       <c r="C14" t="n">
-        <v>1.56</v>
+        <v>0.72</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.87</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="15">
@@ -899,13 +835,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.25</v>
+        <v>-3.42</v>
       </c>
       <c r="C15" t="n">
-        <v>1.47</v>
+        <v>0.77</v>
       </c>
       <c r="D15" t="n">
-        <v>-14.72</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="16">
@@ -913,13 +849,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.8</v>
+        <v>-3.63</v>
       </c>
       <c r="C16" t="n">
-        <v>1.45</v>
+        <v>0.89</v>
       </c>
       <c r="D16" t="n">
-        <v>-15.25</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="17">
@@ -927,13 +863,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.79</v>
+        <v>-3.81</v>
       </c>
       <c r="C17" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="D17" t="n">
-        <v>-15.85</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
@@ -941,13 +877,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.45</v>
+        <v>-3.99</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-16.45</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -955,13 +891,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.09</v>
+        <v>-4.16</v>
       </c>
       <c r="C19" t="n">
-        <v>3.99</v>
+        <v>1.39</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.08</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="20">
@@ -969,13 +905,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.82</v>
+        <v>-4.03</v>
       </c>
       <c r="C20" t="n">
-        <v>4.9</v>
+        <v>1.29</v>
       </c>
       <c r="D20" t="n">
-        <v>-17.72</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="21">
@@ -983,13 +919,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.49</v>
+        <v>-3.81</v>
       </c>
       <c r="C21" t="n">
-        <v>5.81</v>
+        <v>1.12</v>
       </c>
       <c r="D21" t="n">
-        <v>-18.3</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="22">
@@ -997,13 +933,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.27</v>
+        <v>-3.67</v>
       </c>
       <c r="C22" t="n">
-        <v>6.67</v>
+        <v>1.04</v>
       </c>
       <c r="D22" t="n">
-        <v>-18.94</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="23">
@@ -1011,13 +947,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.16</v>
+        <v>-3.45</v>
       </c>
       <c r="C23" t="n">
-        <v>7.47</v>
+        <v>0.88</v>
       </c>
       <c r="D23" t="n">
-        <v>-19.62</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="24">
@@ -1025,13 +961,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.61</v>
+        <v>-2.98</v>
       </c>
       <c r="C24" t="n">
-        <v>8.27</v>
+        <v>0.49</v>
       </c>
       <c r="D24" t="n">
-        <v>-19.88</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="25">
@@ -1039,13 +975,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.03</v>
+        <v>-2.59</v>
       </c>
       <c r="C25" t="n">
-        <v>9.09</v>
+        <v>0.18</v>
       </c>
       <c r="D25" t="n">
-        <v>-20.12</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="26">
@@ -1053,13 +989,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10.27</v>
+        <v>-2.2</v>
       </c>
       <c r="C26" t="n">
-        <v>11.51</v>
+        <v>-0.13</v>
       </c>
       <c r="D26" t="n">
-        <v>-21.78</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="27">
@@ -1067,13 +1003,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.07</v>
+        <v>-1.81</v>
       </c>
       <c r="C27" t="n">
-        <v>13.3</v>
+        <v>-0.44</v>
       </c>
       <c r="D27" t="n">
-        <v>-23.37</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="28">
@@ -1081,13 +1017,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.24</v>
+        <v>-1.37</v>
       </c>
       <c r="C28" t="n">
-        <v>14.75</v>
+        <v>-0.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-24.99</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="29">
@@ -1095,13 +1031,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.42</v>
+        <v>-1.02</v>
       </c>
       <c r="C29" t="n">
-        <v>16.16</v>
+        <v>-1.1</v>
       </c>
       <c r="D29" t="n">
-        <v>-26.58</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="30">
@@ -1109,13 +1045,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.5</v>
+        <v>-0.86</v>
       </c>
       <c r="C30" t="n">
-        <v>17.65</v>
+        <v>-1.21</v>
       </c>
       <c r="D30" t="n">
-        <v>-28.18</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="31">
@@ -1123,13 +1059,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.59</v>
+        <v>-0.75</v>
       </c>
       <c r="C31" t="n">
-        <v>19.14</v>
+        <v>-1.29</v>
       </c>
       <c r="D31" t="n">
-        <v>-29.79</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="32">
@@ -1137,13 +1073,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.5</v>
+        <v>-0.68</v>
       </c>
       <c r="C32" t="n">
-        <v>20.69</v>
+        <v>-1.34</v>
       </c>
       <c r="D32" t="n">
-        <v>-31.28</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="33">
@@ -1151,13 +1087,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.25</v>
+        <v>-0.66</v>
       </c>
       <c r="C33" t="n">
-        <v>22.35</v>
+        <v>-1.34</v>
       </c>
       <c r="D33" t="n">
-        <v>-32.69</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="34">
@@ -1165,13 +1101,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.04</v>
+        <v>-0.84</v>
       </c>
       <c r="C34" t="n">
-        <v>23.98</v>
+        <v>-1.16</v>
       </c>
       <c r="D34" t="n">
-        <v>-34.11</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="35">
@@ -1179,13 +1115,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.92</v>
+        <v>-0.99</v>
       </c>
       <c r="C35" t="n">
-        <v>25.6</v>
+        <v>-1.01</v>
       </c>
       <c r="D35" t="n">
-        <v>-35.61</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="36">
@@ -1193,16 +1129,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.94</v>
+        <v>-1.11</v>
       </c>
       <c r="C36" t="n">
-        <v>25.72</v>
+        <v>-0.89</v>
       </c>
       <c r="D36" t="n">
-        <v>-35.75</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="37">
@@ -1210,16 +1143,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.949999999999999</v>
+        <v>-1.26</v>
       </c>
       <c r="C37" t="n">
-        <v>25.83</v>
+        <v>-0.74</v>
       </c>
       <c r="D37" t="n">
-        <v>-35.87</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="38">
@@ -1227,16 +1157,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.84</v>
+        <v>-1.46</v>
       </c>
       <c r="C38" t="n">
-        <v>26.07</v>
+        <v>-0.54</v>
       </c>
       <c r="D38" t="n">
-        <v>-36.01</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-0.06666666666666667</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="39">
@@ -1244,16 +1171,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.76</v>
+        <v>-1.62</v>
       </c>
       <c r="C39" t="n">
-        <v>26.3</v>
+        <v>-0.38</v>
       </c>
       <c r="D39" t="n">
-        <v>-36.12</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.125</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="40">
@@ -1261,16 +1185,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.720000000000001</v>
+        <v>-1.89</v>
       </c>
       <c r="C40" t="n">
-        <v>26.5</v>
+        <v>-0.11</v>
       </c>
       <c r="D40" t="n">
-        <v>-36.23</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-0.16</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="41">
@@ -1278,16 +1199,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.84</v>
+        <v>-2.16</v>
       </c>
       <c r="C41" t="n">
-        <v>26.7</v>
+        <v>0.14</v>
       </c>
       <c r="D41" t="n">
-        <v>-36.48</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-0.2833333333333333</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="42">
@@ -1295,16 +1213,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.08</v>
+        <v>-2.31</v>
       </c>
       <c r="C42" t="n">
-        <v>26.89</v>
+        <v>0.27</v>
       </c>
       <c r="D42" t="n">
-        <v>-36.8</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-0.4</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="43">
@@ -1312,16 +1227,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.47</v>
+        <v>-2.47</v>
       </c>
       <c r="C43" t="n">
-        <v>27.05</v>
+        <v>0.4</v>
       </c>
       <c r="D43" t="n">
-        <v>-37.25</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-0.4999999999999999</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="44">
@@ -1329,16 +1241,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.81</v>
+        <v>-2.55</v>
       </c>
       <c r="C44" t="n">
-        <v>27.26</v>
+        <v>0.46</v>
       </c>
       <c r="D44" t="n">
-        <v>-37.67</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-0.5777777777777778</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="45">
@@ -1346,16 +1255,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.07</v>
+        <v>-2.49</v>
       </c>
       <c r="C45" t="n">
-        <v>27.52</v>
+        <v>0.46</v>
       </c>
       <c r="D45" t="n">
-        <v>-38.07</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-0.6399999999999999</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="46">
@@ -1363,16 +1269,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.45</v>
+        <v>-2.51</v>
       </c>
       <c r="C46" t="n">
-        <v>27.61</v>
+        <v>0.46</v>
       </c>
       <c r="D46" t="n">
-        <v>-38.42</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-0.6399999999999999</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="47">
@@ -1380,16 +1283,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.86</v>
+        <v>-2.26</v>
       </c>
       <c r="C47" t="n">
-        <v>27.71</v>
+        <v>0.2</v>
       </c>
       <c r="D47" t="n">
-        <v>-38.78</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-0.78</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="48">
@@ -1397,16 +1297,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.39</v>
+        <v>-2.01</v>
       </c>
       <c r="C48" t="n">
-        <v>27.63</v>
+        <v>-0.14</v>
       </c>
       <c r="D48" t="n">
-        <v>-39.09</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-0.93</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="49">
@@ -1414,16 +1311,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.9</v>
+        <v>-1.77</v>
       </c>
       <c r="C49" t="n">
-        <v>27.54</v>
+        <v>-0.51</v>
       </c>
       <c r="D49" t="n">
-        <v>-39.43</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-1.01</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="50">
@@ -1431,16 +1325,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.39</v>
+        <v>-1.47</v>
       </c>
       <c r="C50" t="n">
-        <v>27.48</v>
+        <v>-0.99</v>
       </c>
       <c r="D50" t="n">
-        <v>-39.79</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-1.08</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="51">
@@ -1448,16 +1339,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.7</v>
+        <v>-1.16</v>
       </c>
       <c r="C51" t="n">
-        <v>27.45</v>
+        <v>-0.99</v>
       </c>
       <c r="D51" t="n">
-        <v>-39.98</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-1.17</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1353,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.94</v>
+        <v>-0.91</v>
       </c>
       <c r="C52" t="n">
-        <v>27.45</v>
+        <v>-1.08</v>
       </c>
       <c r="D52" t="n">
-        <v>-40.18</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-1.21</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1367,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.1</v>
+        <v>-0.68</v>
       </c>
       <c r="C53" t="n">
-        <v>27.39</v>
+        <v>-1.15</v>
       </c>
       <c r="D53" t="n">
-        <v>-40.26</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-1.23</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.1</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1381,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.25</v>
+        <v>-0.5</v>
       </c>
       <c r="C54" t="n">
-        <v>27.33</v>
+        <v>-1.19</v>
       </c>
       <c r="D54" t="n">
-        <v>-40.32</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-0.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1395,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.45</v>
+        <v>-0.5</v>
       </c>
       <c r="C55" t="n">
-        <v>27.2</v>
+        <v>-1.16</v>
       </c>
       <c r="D55" t="n">
-        <v>-40.34</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="F55" t="n">
-        <v>-0.25</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1409,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.64</v>
+        <v>-0.57</v>
       </c>
       <c r="C56" t="n">
-        <v>27.13</v>
+        <v>-1.12</v>
       </c>
       <c r="D56" t="n">
-        <v>-40.35</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-0.28</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1423,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.81</v>
+        <v>-0.36</v>
       </c>
       <c r="C57" t="n">
-        <v>27.07</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-40.36</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="F57" t="n">
-        <v>-0.3</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1437,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.91</v>
+        <v>0.02</v>
       </c>
       <c r="C58" t="n">
-        <v>27.06</v>
+        <v>-0.25</v>
       </c>
       <c r="D58" t="n">
-        <v>-40.39</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-0.3428571428571429</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1451,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.81</v>
+        <v>0.79</v>
       </c>
       <c r="C59" t="n">
-        <v>28.24</v>
+        <v>-0.17</v>
       </c>
       <c r="D59" t="n">
-        <v>-41.34</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-1.47</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-0.6600000000000001</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1465,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.64</v>
+        <v>1.65</v>
       </c>
       <c r="C60" t="n">
-        <v>29.7</v>
+        <v>-0.11</v>
       </c>
       <c r="D60" t="n">
-        <v>-42.28</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="F60" t="n">
-        <v>-0.9955555555555556</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1479,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.59</v>
+        <v>2.62</v>
       </c>
       <c r="C61" t="n">
-        <v>31.13</v>
+        <v>-0.63</v>
       </c>
       <c r="D61" t="n">
-        <v>-43.21</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="F61" t="n">
-        <v>-1.264</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1493,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.71</v>
+        <v>3.6</v>
       </c>
       <c r="C62" t="n">
-        <v>32.37</v>
+        <v>-0.99</v>
       </c>
       <c r="D62" t="n">
-        <v>-44.13</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-1.68</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-1.264</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1507,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.83</v>
+        <v>4.54</v>
       </c>
       <c r="C63" t="n">
-        <v>33.64</v>
+        <v>-1.55</v>
       </c>
       <c r="D63" t="n">
-        <v>-45.11</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="F63" t="n">
-        <v>-1.802</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1521,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.18</v>
+        <v>5.41</v>
       </c>
       <c r="C64" t="n">
-        <v>35.74</v>
+        <v>-2.09</v>
       </c>
       <c r="D64" t="n">
-        <v>-46.11</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-2.377</v>
+        <v>-3.47</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1535,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.5</v>
+        <v>6.22</v>
       </c>
       <c r="C65" t="n">
-        <v>37.85</v>
+        <v>-2.8</v>
       </c>
       <c r="D65" t="n">
-        <v>-47.09</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-2.922</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1549,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.76</v>
+        <v>7.06</v>
       </c>
       <c r="C66" t="n">
-        <v>40.05</v>
+        <v>-3.4</v>
       </c>
       <c r="D66" t="n">
-        <v>-48.06</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-3.547</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1563,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.02</v>
+        <v>7.36</v>
       </c>
       <c r="C67" t="n">
-        <v>42.12</v>
+        <v>-4.13</v>
       </c>
       <c r="D67" t="n">
-        <v>-49.04</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-4.052</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1577,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.1</v>
+        <v>7.64</v>
       </c>
       <c r="C68" t="n">
-        <v>44.21</v>
+        <v>-4.91</v>
       </c>
       <c r="D68" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="F68" t="n">
-        <v>-4.377000000000001</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1591,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.54</v>
+        <v>7.52</v>
       </c>
       <c r="C69" t="n">
-        <v>45.11</v>
+        <v>-5.3</v>
       </c>
       <c r="D69" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.8899999999999999</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-4.762000000000001</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1605,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.98</v>
+        <v>7.39</v>
       </c>
       <c r="C70" t="n">
-        <v>45.71</v>
+        <v>-5.76</v>
       </c>
       <c r="D70" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-4.829000000000001</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1619,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.32</v>
+        <v>7.28</v>
       </c>
       <c r="C71" t="n">
-        <v>46.25</v>
+        <v>-6.14</v>
       </c>
       <c r="D71" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.8099999999999998</v>
-      </c>
-      <c r="F71" t="n">
-        <v>-4.756000000000001</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1633,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.550000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="C72" t="n">
-        <v>46.96</v>
+        <v>-6.5</v>
       </c>
       <c r="D72" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.7899999999999998</v>
-      </c>
-      <c r="F72" t="n">
-        <v>-4.723000000000001</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1647,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.71</v>
+        <v>6.91</v>
       </c>
       <c r="C73" t="n">
-        <v>47.69</v>
+        <v>-6.67</v>
       </c>
       <c r="D73" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-4.180000000000001</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1661,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.71</v>
+        <v>6.59</v>
       </c>
       <c r="C74" t="n">
-        <v>47.53</v>
+        <v>-6.83</v>
       </c>
       <c r="D74" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-1.660000000000001</v>
-      </c>
-      <c r="F74" t="n">
-        <v>-3.58</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1675,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.73</v>
+        <v>6.33</v>
       </c>
       <c r="C75" t="n">
-        <v>47.36</v>
+        <v>-6.81</v>
       </c>
       <c r="D75" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="F75" t="n">
-        <v>-3.009999999999999</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1689,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.5</v>
+        <v>6.19</v>
       </c>
       <c r="C76" t="n">
-        <v>47.09</v>
+        <v>-6.84</v>
       </c>
       <c r="D76" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-2.48</v>
-      </c>
-      <c r="F76" t="n">
-        <v>-2.11</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1703,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.26</v>
+        <v>6.07</v>
       </c>
       <c r="C77" t="n">
-        <v>46.94</v>
+        <v>-6.89</v>
       </c>
       <c r="D77" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="F77" t="n">
-        <v>-1.3</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1717,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.2</v>
+        <v>5.86</v>
       </c>
       <c r="C78" t="n">
-        <v>46.77</v>
+        <v>-6.87</v>
       </c>
       <c r="D78" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-0.67</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="79">
@@ -2005,19 +1731,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.64</v>
+        <v>5.67</v>
       </c>
       <c r="C79" t="n">
-        <v>47.04</v>
+        <v>-6.87</v>
       </c>
       <c r="D79" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.02000000000000011</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="80">
@@ -2025,19 +1745,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.16</v>
+        <v>5.62</v>
       </c>
       <c r="C80" t="n">
-        <v>47.33</v>
+        <v>-6.79</v>
       </c>
       <c r="D80" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-4.089999999999999</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.6000000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="81">
@@ -2045,19 +1759,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.75</v>
+        <v>5.55</v>
       </c>
       <c r="C81" t="n">
-        <v>48.7</v>
+        <v>-6.81</v>
       </c>
       <c r="D81" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-4.499999999999999</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="82">
@@ -2065,19 +1773,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.26</v>
+        <v>5.59</v>
       </c>
       <c r="C82" t="n">
-        <v>50.1</v>
+        <v>-6.86</v>
       </c>
       <c r="D82" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-4.88</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="83">
@@ -2085,19 +1787,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78</v>
+        <v>5.75</v>
       </c>
       <c r="C83" t="n">
-        <v>51.5</v>
+        <v>-6.87</v>
       </c>
       <c r="D83" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1.72</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="84">
@@ -2105,19 +1801,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.25</v>
+        <v>6.22</v>
       </c>
       <c r="C84" t="n">
-        <v>52.95</v>
+        <v>-6.9</v>
       </c>
       <c r="D84" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-5.11</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1.91</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +1815,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.29</v>
+        <v>6.71</v>
       </c>
       <c r="C85" t="n">
-        <v>54.41</v>
+        <v>-6.95</v>
       </c>
       <c r="D85" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2.12</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="86">
@@ -2145,19 +1829,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.58</v>
+        <v>7.28</v>
       </c>
       <c r="C86" t="n">
-        <v>55.79</v>
+        <v>-7.06</v>
       </c>
       <c r="D86" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-5.39</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2.18</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="87">
@@ -2165,19 +1843,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.16</v>
+        <v>7.92</v>
       </c>
       <c r="C87" t="n">
-        <v>58.55</v>
+        <v>-7.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2.13</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="88">
@@ -2185,19 +1857,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.73</v>
+        <v>8.5</v>
       </c>
       <c r="C88" t="n">
-        <v>61.27</v>
+        <v>-7.34</v>
       </c>
       <c r="D88" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-5.726999999999999</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2.194</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="89">
@@ -2205,19 +1871,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-9.970000000000001</v>
+        <v>9.27</v>
       </c>
       <c r="C89" t="n">
-        <v>63.67</v>
+        <v>-7.48</v>
       </c>
       <c r="D89" t="n">
-        <v>-50.12</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-5.864</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2.278</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="90">
@@ -2225,19 +1885,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-12.23</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>66.18000000000001</v>
+        <v>-7.68</v>
       </c>
       <c r="D90" t="n">
-        <v>-50.25</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-6.081</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2.382000000000001</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="91">
@@ -2245,19 +1899,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-13.55</v>
+        <v>10.38</v>
       </c>
       <c r="C91" t="n">
-        <v>67.66</v>
+        <v>-7.84</v>
       </c>
       <c r="D91" t="n">
-        <v>-50.41</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-6.278</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2.576</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="92">
@@ -2265,19 +1913,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-14.81</v>
+        <v>10.88</v>
       </c>
       <c r="C92" t="n">
-        <v>69.12</v>
+        <v>-7.99</v>
       </c>
       <c r="D92" t="n">
-        <v>-50.57</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-6.464999999999999</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2.73</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="93">
@@ -2285,19 +1927,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-16.62</v>
+        <v>11.4</v>
       </c>
       <c r="C93" t="n">
-        <v>70.58</v>
+        <v>-8.16</v>
       </c>
       <c r="D93" t="n">
-        <v>-50.1</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-6.672</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2.813999999999999</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +1941,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-18.44</v>
+        <v>11.82</v>
       </c>
       <c r="C94" t="n">
-        <v>71.97</v>
+        <v>-8.32</v>
       </c>
       <c r="D94" t="n">
-        <v>-49.64</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-6.889</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2.988</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +1955,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-20.24</v>
+        <v>12.3</v>
       </c>
       <c r="C95" t="n">
-        <v>73.36</v>
+        <v>-8.470000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>-49.19</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-7.086</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3.161999999999999</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="96">
@@ -2345,19 +1969,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-22.05</v>
+        <v>12.76</v>
       </c>
       <c r="C96" t="n">
-        <v>74.84999999999999</v>
+        <v>-8.68</v>
       </c>
       <c r="D96" t="n">
-        <v>-48.76</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-7.263</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3.216</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="97">
@@ -2365,19 +1983,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-22.3</v>
+        <v>13.12</v>
       </c>
       <c r="C97" t="n">
-        <v>74.97</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>-48.57</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-7.44</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3.34</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="98">
@@ -2385,19 +1997,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-22.37</v>
+        <v>13.55</v>
       </c>
       <c r="C98" t="n">
-        <v>75.15000000000001</v>
+        <v>-8.75</v>
       </c>
       <c r="D98" t="n">
-        <v>-48.39</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-7.58</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3.185</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="99">
@@ -2405,19 +2011,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-22.43</v>
+        <v>13.78</v>
       </c>
       <c r="C99" t="n">
-        <v>75.28</v>
+        <v>-8.76</v>
       </c>
       <c r="D99" t="n">
-        <v>-48.15</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-7.73</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3.03</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="100">
@@ -2425,19 +2025,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-24.39</v>
+        <v>14.05</v>
       </c>
       <c r="C100" t="n">
-        <v>75.31</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>-45.91</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-7.799999999999999</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2.795</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="101">
@@ -2445,19 +2039,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-26.35</v>
+        <v>14.33</v>
       </c>
       <c r="C101" t="n">
-        <v>75.34</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>-43.64</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-7.869999999999999</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2.52</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="102">
@@ -2465,19 +2053,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-28.37</v>
+        <v>14.47</v>
       </c>
       <c r="C102" t="n">
-        <v>75.36</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>-41.38</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-7.959999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2.345</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="103">
@@ -2485,19 +2067,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-29.78</v>
+        <v>14.65</v>
       </c>
       <c r="C103" t="n">
-        <v>75.36</v>
+        <v>-8.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-39.71</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-8.039999999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2.17</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="104">
@@ -2505,19 +2081,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-31.2</v>
+        <v>14.68</v>
       </c>
       <c r="C104" t="n">
-        <v>75.81</v>
+        <v>-8.17</v>
       </c>
       <c r="D104" t="n">
-        <v>-38.06</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-8.109999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1.565</v>
+        <v>-6.51</v>
       </c>
     </row>
     <row r="105">
@@ -2525,19 +2095,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-32.65</v>
+        <v>15.29</v>
       </c>
       <c r="C105" t="n">
-        <v>76.33</v>
+        <v>-8.66</v>
       </c>
       <c r="D105" t="n">
-        <v>-36.41</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-8.18</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.9029999999999999</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="106">
@@ -2545,19 +2109,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-34.12</v>
+        <v>15.84</v>
       </c>
       <c r="C106" t="n">
-        <v>77.06</v>
+        <v>-9.07</v>
       </c>
       <c r="D106" t="n">
-        <v>-34.74</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-8.27</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.07600000000000011</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="107">
@@ -2565,19 +2123,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-35.84</v>
+        <v>16.31</v>
       </c>
       <c r="C107" t="n">
-        <v>77.79000000000001</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>-32.83</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-8.379999999999999</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.7409999999999999</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="108">
@@ -2585,19 +2137,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-36.74</v>
+        <v>17</v>
       </c>
       <c r="C108" t="n">
-        <v>77.53</v>
+        <v>-10.21</v>
       </c>
       <c r="D108" t="n">
-        <v>-30.91</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-8.48</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-1.393</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="109">
@@ -2605,19 +2151,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-37.65</v>
+        <v>17.63</v>
       </c>
       <c r="C109" t="n">
-        <v>77.17</v>
+        <v>-10.71</v>
       </c>
       <c r="D109" t="n">
-        <v>-28.95</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-8.56</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-2.015</v>
+        <v>-6.92</v>
       </c>
     </row>
     <row r="110">
@@ -2625,19 +2165,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-36.24</v>
+        <v>17.99</v>
       </c>
       <c r="C110" t="n">
-        <v>76.83</v>
+        <v>-11.2</v>
       </c>
       <c r="D110" t="n">
-        <v>-29.03</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-8.699999999999999</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-2.857</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="111">
@@ -2645,19 +2179,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-34.81</v>
+        <v>18.33</v>
       </c>
       <c r="C111" t="n">
-        <v>76.48999999999999</v>
+        <v>-11.52</v>
       </c>
       <c r="D111" t="n">
-        <v>-29.13</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-8.860000000000001</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-3.689</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="112">
@@ -2665,19 +2193,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-33.45</v>
+        <v>19.19</v>
       </c>
       <c r="C112" t="n">
-        <v>76.31</v>
+        <v>-12.35</v>
       </c>
       <c r="D112" t="n">
-        <v>-29.28</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-4.561</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="113">
@@ -2685,19 +2207,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-32.08</v>
+        <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>76.06</v>
+        <v>-13.13</v>
       </c>
       <c r="D113" t="n">
-        <v>-29.46</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-9.25</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-5.273000000000001</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="114">
@@ -2705,19 +2221,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-30.98</v>
+        <v>20.95</v>
       </c>
       <c r="C114" t="n">
-        <v>75.37</v>
+        <v>-13.97</v>
       </c>
       <c r="D114" t="n">
-        <v>-29.64</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-9.030000000000001</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-5.715000000000002</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="115">
@@ -2725,19 +2235,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-29.82</v>
+        <v>21.26</v>
       </c>
       <c r="C115" t="n">
-        <v>74.61</v>
+        <v>-14.19</v>
       </c>
       <c r="D115" t="n">
-        <v>-29.82</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-8.81</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-6.160000000000001</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="116">
@@ -2745,19 +2249,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-28.46</v>
+        <v>21.75</v>
       </c>
       <c r="C116" t="n">
-        <v>73.62</v>
+        <v>-14.44</v>
       </c>
       <c r="D116" t="n">
-        <v>-30.08</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-8.57</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-6.5</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="117">
@@ -2765,19 +2263,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-30.5</v>
+        <v>22.02</v>
       </c>
       <c r="C117" t="n">
-        <v>76.15000000000001</v>
+        <v>-14.38</v>
       </c>
       <c r="D117" t="n">
-        <v>-30.41</v>
-      </c>
-      <c r="E117" t="n">
-        <v>-8.329999999999998</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-6.910000000000001</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="118">
@@ -2785,19 +2277,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-33.52</v>
+        <v>22.07</v>
       </c>
       <c r="C118" t="n">
-        <v>79.76000000000001</v>
+        <v>-14.31</v>
       </c>
       <c r="D118" t="n">
-        <v>-30.74</v>
-      </c>
-      <c r="E118" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-7.400000000000001</v>
+        <v>-7.76</v>
       </c>
     </row>
     <row r="119">
@@ -2805,19 +2291,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-36.55</v>
+        <v>22.13</v>
       </c>
       <c r="C119" t="n">
-        <v>83.38</v>
+        <v>-14.27</v>
       </c>
       <c r="D119" t="n">
-        <v>-31.04</v>
-      </c>
-      <c r="E119" t="n">
-        <v>-7.869999999999999</v>
-      </c>
-      <c r="F119" t="n">
-        <v>-7.92</v>
+        <v>-7.86</v>
       </c>
     </row>
     <row r="120">
@@ -2825,19 +2305,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-40</v>
+        <v>22.42</v>
       </c>
       <c r="C120" t="n">
-        <v>87</v>
+        <v>-14.21</v>
       </c>
       <c r="D120" t="n">
-        <v>-31.18</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-7.659999999999998</v>
-      </c>
-      <c r="F120" t="n">
-        <v>-8.16</v>
+        <v>-8.210000000000001</v>
       </c>
     </row>
     <row r="121">
@@ -2845,19 +2319,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-43.48</v>
+        <v>22.7</v>
       </c>
       <c r="C121" t="n">
-        <v>90.61</v>
+        <v>-14.57</v>
       </c>
       <c r="D121" t="n">
-        <v>-31.32</v>
-      </c>
-      <c r="E121" t="n">
-        <v>-7.489999999999999</v>
-      </c>
-      <c r="F121" t="n">
-        <v>-8.33</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="122">
@@ -2865,19 +2333,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-46.88</v>
+        <v>22.59</v>
       </c>
       <c r="C122" t="n">
-        <v>93.87</v>
+        <v>-14.55</v>
       </c>
       <c r="D122" t="n">
-        <v>-31.39</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-6.599999999999999</v>
-      </c>
-      <c r="F122" t="n">
-        <v>-9</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2885,19 +2347,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-50.29</v>
+        <v>22.49</v>
       </c>
       <c r="C123" t="n">
-        <v>97.2</v>
+        <v>-14.53</v>
       </c>
       <c r="D123" t="n">
-        <v>-31.48</v>
-      </c>
-      <c r="E123" t="n">
-        <v>-5.028999999999999</v>
-      </c>
-      <c r="F123" t="n">
-        <v>-10.401</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="124">
@@ -2905,19 +2361,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-53.43</v>
+        <v>22.34</v>
       </c>
       <c r="C124" t="n">
-        <v>100.61</v>
+        <v>-14.47</v>
       </c>
       <c r="D124" t="n">
-        <v>-31.56</v>
-      </c>
-      <c r="E124" t="n">
-        <v>-3.908</v>
-      </c>
-      <c r="F124" t="n">
-        <v>-11.72</v>
+        <v>-7.83</v>
       </c>
     </row>
     <row r="125">
@@ -2925,19 +2375,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-56.63</v>
+        <v>22.17</v>
       </c>
       <c r="C125" t="n">
-        <v>104.09</v>
+        <v>-14.41</v>
       </c>
       <c r="D125" t="n">
-        <v>-31.63</v>
-      </c>
-      <c r="E125" t="n">
-        <v>-2.85</v>
-      </c>
-      <c r="F125" t="n">
-        <v>-12.973</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="126">
@@ -2945,19 +2389,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-60</v>
+        <v>22.05</v>
       </c>
       <c r="C126" t="n">
-        <v>107.57</v>
+        <v>-14.57</v>
       </c>
       <c r="D126" t="n">
-        <v>-31.62</v>
-      </c>
-      <c r="E126" t="n">
-        <v>-1.802</v>
-      </c>
-      <c r="F126" t="n">
-        <v>-14.146</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="127">
@@ -2965,19 +2403,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-60</v>
+        <v>22.71</v>
       </c>
       <c r="C127" t="n">
-        <v>107.26</v>
+        <v>-15.45</v>
       </c>
       <c r="D127" t="n">
-        <v>-31.28</v>
-      </c>
-      <c r="E127" t="n">
-        <v>-0.7339999999999998</v>
-      </c>
-      <c r="F127" t="n">
-        <v>-15.249</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="128">
@@ -2985,19 +2417,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-60</v>
+        <v>23.32</v>
       </c>
       <c r="C128" t="n">
-        <v>106.86</v>
+        <v>-16.34</v>
       </c>
       <c r="D128" t="n">
-        <v>-30.96</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.3830000000000003</v>
-      </c>
-      <c r="F128" t="n">
-        <v>-16.281</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="129">
@@ -3005,19 +2431,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-60</v>
+        <v>24.01</v>
       </c>
       <c r="C129" t="n">
-        <v>106.55</v>
+        <v>-17.31</v>
       </c>
       <c r="D129" t="n">
-        <v>-30.65</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="F129" t="n">
-        <v>-17.313</v>
+        <v>-6.66</v>
       </c>
     </row>
     <row r="130">
@@ -3025,19 +2445,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-60</v>
+        <v>24.69</v>
       </c>
       <c r="C130" t="n">
-        <v>106.26</v>
+        <v>-18.3</v>
       </c>
       <c r="D130" t="n">
-        <v>-30.44</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.507</v>
-      </c>
-      <c r="F130" t="n">
-        <v>-18.325</v>
+        <v>-6.35</v>
       </c>
     </row>
     <row r="131">
@@ -3045,19 +2459,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-60</v>
+        <v>25.2</v>
       </c>
       <c r="C131" t="n">
-        <v>105.9</v>
+        <v>-19.13</v>
       </c>
       <c r="D131" t="n">
-        <v>-30.17</v>
-      </c>
-      <c r="E131" t="n">
-        <v>3.663999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-19.397</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="132">
@@ -3065,19 +2473,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-60</v>
+        <v>26.1</v>
       </c>
       <c r="C132" t="n">
-        <v>105.75</v>
+        <v>-19.9</v>
       </c>
       <c r="D132" t="n">
-        <v>-29.88</v>
-      </c>
-      <c r="E132" t="n">
-        <v>4.101</v>
-      </c>
-      <c r="F132" t="n">
-        <v>-19.969</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="133">
@@ -3085,19 +2487,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-60</v>
+        <v>26.8</v>
       </c>
       <c r="C133" t="n">
-        <v>105.58</v>
+        <v>-21.38</v>
       </c>
       <c r="D133" t="n">
-        <v>-29.54</v>
-      </c>
-      <c r="E133" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="F133" t="n">
-        <v>-19.97</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="134">
@@ -3105,19 +2501,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-60</v>
+        <v>27.34</v>
       </c>
       <c r="C134" t="n">
-        <v>105.31</v>
+        <v>-22.67</v>
       </c>
       <c r="D134" t="n">
-        <v>-29.19</v>
-      </c>
-      <c r="E134" t="n">
-        <v>3.733000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>-19.833</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="135">
@@ -3125,19 +2515,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-60</v>
+        <v>27.84</v>
       </c>
       <c r="C135" t="n">
-        <v>104.88</v>
+        <v>-23.99</v>
       </c>
       <c r="D135" t="n">
-        <v>-28.84</v>
-      </c>
-      <c r="E135" t="n">
-        <v>3.742</v>
-      </c>
-      <c r="F135" t="n">
-        <v>-19.742</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="136">
@@ -3145,19 +2529,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-60</v>
+        <v>27.49</v>
       </c>
       <c r="C136" t="n">
-        <v>104.72</v>
+        <v>-25.11</v>
       </c>
       <c r="D136" t="n">
-        <v>-28.49</v>
-      </c>
-      <c r="E136" t="n">
-        <v>3.704</v>
-      </c>
-      <c r="F136" t="n">
-        <v>-19.879</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="137">
@@ -3165,19 +2543,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-60</v>
+        <v>26.56</v>
       </c>
       <c r="C137" t="n">
-        <v>104.81</v>
+        <v>-25.71</v>
       </c>
       <c r="D137" t="n">
-        <v>-28.42</v>
-      </c>
-      <c r="E137" t="n">
-        <v>3.586</v>
-      </c>
-      <c r="F137" t="n">
-        <v>-19.916</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="138">
@@ -3185,19 +2557,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-60</v>
+        <v>25.93</v>
       </c>
       <c r="C138" t="n">
-        <v>104.88</v>
+        <v>-26.51</v>
       </c>
       <c r="D138" t="n">
-        <v>-28.32</v>
-      </c>
-      <c r="E138" t="n">
-        <v>3.439</v>
-      </c>
-      <c r="F138" t="n">
-        <v>-19.944</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="139">
@@ -3205,19 +2571,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-60</v>
+        <v>25.28</v>
       </c>
       <c r="C139" t="n">
-        <v>104.87</v>
+        <v>-27.37</v>
       </c>
       <c r="D139" t="n">
-        <v>-28.24</v>
-      </c>
-      <c r="E139" t="n">
-        <v>3.382</v>
-      </c>
-      <c r="F139" t="n">
-        <v>-19.952</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="140">
@@ -3225,19 +2585,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-60</v>
+        <v>24.64</v>
       </c>
       <c r="C140" t="n">
-        <v>104.84</v>
+        <v>-28.22</v>
       </c>
       <c r="D140" t="n">
-        <v>-28.18</v>
-      </c>
-      <c r="E140" t="n">
-        <v>3.365</v>
-      </c>
-      <c r="F140" t="n">
-        <v>-19.97</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="141">
@@ -3245,19 +2599,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-60</v>
+        <v>24.05</v>
       </c>
       <c r="C141" t="n">
-        <v>104.86</v>
+        <v>-28.99</v>
       </c>
       <c r="D141" t="n">
-        <v>-28.18</v>
-      </c>
-      <c r="E141" t="n">
-        <v>3.338</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-19.958</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="142">
@@ -3265,19 +2613,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-60</v>
+        <v>22.93</v>
       </c>
       <c r="C142" t="n">
-        <v>104.87</v>
+        <v>-29.71</v>
       </c>
       <c r="D142" t="n">
-        <v>-28.22</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3.241000000000001</v>
-      </c>
-      <c r="F142" t="n">
-        <v>-19.826</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="143">
@@ -3285,19 +2627,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-60</v>
+        <v>22.02</v>
       </c>
       <c r="C143" t="n">
-        <v>104.92</v>
+        <v>-29.66</v>
       </c>
       <c r="D143" t="n">
-        <v>-28.3</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3.154</v>
-      </c>
-      <c r="F143" t="n">
-        <v>-19.714</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="144">
@@ -3305,19 +2641,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-60</v>
+        <v>21.39</v>
       </c>
       <c r="C144" t="n">
-        <v>105.11</v>
+        <v>-29.81</v>
       </c>
       <c r="D144" t="n">
-        <v>-28.38</v>
-      </c>
-      <c r="E144" t="n">
-        <v>3.067</v>
-      </c>
-      <c r="F144" t="n">
-        <v>-19.752</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="145">
@@ -3325,19 +2655,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-60</v>
+        <v>20.92</v>
       </c>
       <c r="C145" t="n">
-        <v>105.33</v>
+        <v>-29.92</v>
       </c>
       <c r="D145" t="n">
-        <v>-28.39</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2.830000000000001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>-19.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
@@ -3345,19 +2669,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-60</v>
+        <v>21.07</v>
       </c>
       <c r="C146" t="n">
-        <v>105.65</v>
+        <v>-30.02</v>
       </c>
       <c r="D146" t="n">
-        <v>-28.42</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F146" t="n">
-        <v>-19.86</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="147">
@@ -3365,19 +2683,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-60</v>
+        <v>21.49</v>
       </c>
       <c r="C147" t="n">
-        <v>105.99</v>
+        <v>-30.22</v>
       </c>
       <c r="D147" t="n">
-        <v>-28.39</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="F147" t="n">
-        <v>-20.09</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="148">
@@ -3385,19 +2697,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-60</v>
+        <v>21.62</v>
       </c>
       <c r="C148" t="n">
-        <v>106.34</v>
+        <v>-30.4</v>
       </c>
       <c r="D148" t="n">
-        <v>-28.33</v>
-      </c>
-      <c r="E148" t="n">
-        <v>2.330000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>-20.34</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="149">
@@ -3405,19 +2711,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-60</v>
+        <v>21.76</v>
       </c>
       <c r="C149" t="n">
-        <v>106.67</v>
+        <v>-30.49</v>
       </c>
       <c r="D149" t="n">
-        <v>-28.01</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F149" t="n">
-        <v>-20.79</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="150">
@@ -3425,19 +2725,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-60</v>
+        <v>21.88</v>
       </c>
       <c r="C150" t="n">
-        <v>106.99</v>
+        <v>-30.57</v>
       </c>
       <c r="D150" t="n">
-        <v>-27.64</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>-21.25</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="151">
@@ -3445,19 +2739,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-60</v>
+        <v>22.17</v>
       </c>
       <c r="C151" t="n">
-        <v>107.33</v>
+        <v>-30.68</v>
       </c>
       <c r="D151" t="n">
-        <v>-27.29</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.015</v>
-      </c>
-      <c r="F151" t="n">
-        <v>-21.055</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="152">
@@ -3465,19 +2753,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-60</v>
+        <v>22.75</v>
       </c>
       <c r="C152" t="n">
-        <v>107.68</v>
+        <v>-30.85</v>
       </c>
       <c r="D152" t="n">
-        <v>-27.18</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.1999999999999997</v>
-      </c>
-      <c r="F152" t="n">
-        <v>-20.7</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -3485,19 +2767,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-60</v>
+        <v>23.21</v>
       </c>
       <c r="C153" t="n">
-        <v>108.03</v>
+        <v>-31.09</v>
       </c>
       <c r="D153" t="n">
-        <v>-27.08</v>
-      </c>
-      <c r="E153" t="n">
-        <v>-0.6249999999999999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>-20.325</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="154">
@@ -3505,19 +2781,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-60</v>
+        <v>23.49</v>
       </c>
       <c r="C154" t="n">
-        <v>107.41</v>
+        <v>-30.17</v>
       </c>
       <c r="D154" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E154" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="F154" t="n">
-        <v>-18.96</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="155">
@@ -3525,19 +2795,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-60</v>
+        <v>23.6</v>
       </c>
       <c r="C155" t="n">
-        <v>106.85</v>
+        <v>-29.24</v>
       </c>
       <c r="D155" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E155" t="n">
-        <v>-2.285</v>
-      </c>
-      <c r="F155" t="n">
-        <v>-17.565</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="156">
@@ -3545,19 +2809,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-60</v>
+        <v>23.65</v>
       </c>
       <c r="C156" t="n">
-        <v>105.91</v>
+        <v>-28.3</v>
       </c>
       <c r="D156" t="n">
-        <v>-26.98</v>
-      </c>
-      <c r="E156" t="n">
-        <v>-3.089999999999999</v>
-      </c>
-      <c r="F156" t="n">
-        <v>-15.84</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="157">
@@ -3565,19 +2823,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-60</v>
+        <v>23.53</v>
       </c>
       <c r="C157" t="n">
-        <v>104.98</v>
+        <v>-27.38</v>
       </c>
       <c r="D157" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E157" t="n">
-        <v>-3.884999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>-14.095</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="158">
@@ -3585,19 +2837,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-60</v>
+        <v>24.38</v>
       </c>
       <c r="C158" t="n">
-        <v>103.99</v>
+        <v>-27.16</v>
       </c>
       <c r="D158" t="n">
-        <v>-27.12</v>
-      </c>
-      <c r="E158" t="n">
-        <v>-4.659999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>-12.21</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="159">
@@ -3605,19 +2851,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-60</v>
+        <v>25.25</v>
       </c>
       <c r="C159" t="n">
-        <v>103.85</v>
+        <v>-26.96</v>
       </c>
       <c r="D159" t="n">
-        <v>-28.12</v>
-      </c>
-      <c r="E159" t="n">
-        <v>-5.487</v>
-      </c>
-      <c r="F159" t="n">
-        <v>-10.237</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="160">
@@ -3625,19 +2865,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-60</v>
+        <v>26.01</v>
       </c>
       <c r="C160" t="n">
-        <v>103.59</v>
+        <v>-26.58</v>
       </c>
       <c r="D160" t="n">
-        <v>-29.16</v>
-      </c>
-      <c r="E160" t="n">
-        <v>-6.334</v>
-      </c>
-      <c r="F160" t="n">
-        <v>-8.1</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="161">
@@ -3645,19 +2879,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-60</v>
+        <v>26.58</v>
       </c>
       <c r="C161" t="n">
-        <v>103.42</v>
+        <v>-26</v>
       </c>
       <c r="D161" t="n">
-        <v>-30.24</v>
-      </c>
-      <c r="E161" t="n">
-        <v>-6.525999999999999</v>
-      </c>
-      <c r="F161" t="n">
-        <v>-6.648000000000001</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="162">
@@ -3665,19 +2893,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-60</v>
+        <v>26.74</v>
       </c>
       <c r="C162" t="n">
-        <v>103.46</v>
+        <v>-25.4</v>
       </c>
       <c r="D162" t="n">
-        <v>-31.17</v>
-      </c>
-      <c r="E162" t="n">
-        <v>-6.717999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>-5.576</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="163">
@@ -3685,19 +2907,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-60</v>
+        <v>27.12</v>
       </c>
       <c r="C163" t="n">
-        <v>103.47</v>
+        <v>-24.91</v>
       </c>
       <c r="D163" t="n">
-        <v>-32.15</v>
-      </c>
-      <c r="E163" t="n">
-        <v>-6.74</v>
-      </c>
-      <c r="F163" t="n">
-        <v>-4.584</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="164">
@@ -3705,19 +2921,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-60</v>
+        <v>27.48</v>
       </c>
       <c r="C164" t="n">
-        <v>104.43</v>
+        <v>-25.47</v>
       </c>
       <c r="D164" t="n">
-        <v>-33.13</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-7.002</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-4.292000000000001</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="165">
@@ -3725,19 +2935,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-60</v>
+        <v>27.89</v>
       </c>
       <c r="C165" t="n">
-        <v>105.36</v>
+        <v>-26.02</v>
       </c>
       <c r="D165" t="n">
-        <v>-34.11</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-7.203999999999999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>-4.050000000000001</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="166">
@@ -3745,19 +2949,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-60</v>
+        <v>28.48</v>
       </c>
       <c r="C166" t="n">
-        <v>106.31</v>
+        <v>-26.63</v>
       </c>
       <c r="D166" t="n">
-        <v>-35.1</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-7.406000000000001</v>
-      </c>
-      <c r="F166" t="n">
-        <v>-3.798</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="167">
@@ -3765,19 +2963,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-60</v>
+        <v>29.05</v>
       </c>
       <c r="C167" t="n">
-        <v>107.24</v>
+        <v>-27.23</v>
       </c>
       <c r="D167" t="n">
-        <v>-36.08</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-7.597999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-3.566</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="168">
@@ -3785,19 +2977,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-60</v>
+        <v>28.96</v>
       </c>
       <c r="C168" t="n">
-        <v>108.23</v>
+        <v>-27.12</v>
       </c>
       <c r="D168" t="n">
-        <v>-37.05</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-7.970000000000001</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-3.214</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="169">
@@ -3805,19 +2991,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-60</v>
+        <v>28.86</v>
       </c>
       <c r="C169" t="n">
-        <v>108.38</v>
+        <v>-27.02</v>
       </c>
       <c r="D169" t="n">
-        <v>-37.6</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-7.870000000000002</v>
-      </c>
-      <c r="F169" t="n">
-        <v>-2.91</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="170">
@@ -3825,19 +3005,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-60</v>
+        <v>28.89</v>
       </c>
       <c r="C170" t="n">
-        <v>108.81</v>
+        <v>-27.11</v>
       </c>
       <c r="D170" t="n">
-        <v>-38.23</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-7.750000000000002</v>
-      </c>
-      <c r="F170" t="n">
-        <v>-2.83</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="171">
@@ -3845,19 +3019,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-60</v>
+        <v>29.34</v>
       </c>
       <c r="C171" t="n">
-        <v>109.09</v>
+        <v>-27.44</v>
       </c>
       <c r="D171" t="n">
-        <v>-38.8</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-7.69</v>
-      </c>
-      <c r="F171" t="n">
-        <v>-2.6</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="172">
@@ -3865,19 +3033,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-60</v>
+        <v>29.95</v>
       </c>
       <c r="C172" t="n">
-        <v>109.15</v>
+        <v>-27.79</v>
       </c>
       <c r="D172" t="n">
-        <v>-39.27</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="F172" t="n">
-        <v>-1.73</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="173">
@@ -3885,19 +3047,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-60</v>
+        <v>30.46</v>
       </c>
       <c r="C173" t="n">
-        <v>109.19</v>
+        <v>-28.05</v>
       </c>
       <c r="D173" t="n">
-        <v>-39.66</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-8.75</v>
-      </c>
-      <c r="F173" t="n">
-        <v>-0.78</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="174">
@@ -3905,19 +3061,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-60</v>
+        <v>31.04</v>
       </c>
       <c r="C174" t="n">
-        <v>109.22</v>
+        <v>-28.39</v>
       </c>
       <c r="D174" t="n">
-        <v>-39.09</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-9.875999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>-0.2500000000000001</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="175">
@@ -3925,19 +3075,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-60</v>
+        <v>31.65</v>
       </c>
       <c r="C175" t="n">
-        <v>109.27</v>
+        <v>-28.73</v>
       </c>
       <c r="D175" t="n">
-        <v>-38.54</v>
-      </c>
-      <c r="E175" t="n">
-        <v>-11.042</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.3100000000000001</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="176">
@@ -3945,1039 +3089,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-60</v>
+        <v>32.14</v>
       </c>
       <c r="C176" t="n">
-        <v>108.33</v>
+        <v>-28.7</v>
       </c>
       <c r="D176" t="n">
-        <v>-37.96</v>
-      </c>
-      <c r="E176" t="n">
-        <v>-12.218</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C177" t="n">
-        <v>106.89</v>
-      </c>
-      <c r="D177" t="n">
-        <v>-36.71</v>
-      </c>
-      <c r="E177" t="n">
-        <v>-13.394</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C178" t="n">
-        <v>105.27</v>
-      </c>
-      <c r="D178" t="n">
-        <v>-35.4</v>
-      </c>
-      <c r="E178" t="n">
-        <v>-14.39</v>
-      </c>
-      <c r="F178" t="n">
-        <v>4.521</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C179" t="n">
-        <v>103.59</v>
-      </c>
-      <c r="D179" t="n">
-        <v>-33.95</v>
-      </c>
-      <c r="E179" t="n">
-        <v>-15.766</v>
-      </c>
-      <c r="F179" t="n">
-        <v>6.132000000000001</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C180" t="n">
-        <v>101.67</v>
-      </c>
-      <c r="D180" t="n">
-        <v>-32.45</v>
-      </c>
-      <c r="E180" t="n">
-        <v>-17.142</v>
-      </c>
-      <c r="F180" t="n">
-        <v>7.923</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C181" t="n">
-        <v>99.52</v>
-      </c>
-      <c r="D181" t="n">
-        <v>-30.61</v>
-      </c>
-      <c r="E181" t="n">
-        <v>-18.448</v>
-      </c>
-      <c r="F181" t="n">
-        <v>9.544</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C182" t="n">
-        <v>97.34999999999999</v>
-      </c>
-      <c r="D182" t="n">
-        <v>-28.8</v>
-      </c>
-      <c r="E182" t="n">
-        <v>-19.214</v>
-      </c>
-      <c r="F182" t="n">
-        <v>10.665</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C183" t="n">
-        <v>95</v>
-      </c>
-      <c r="D183" t="n">
-        <v>-27.07</v>
-      </c>
-      <c r="E183" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F183" t="n">
-        <v>12.066</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C184" t="n">
-        <v>92.69</v>
-      </c>
-      <c r="D184" t="n">
-        <v>-26.28</v>
-      </c>
-      <c r="E184" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F184" t="n">
-        <v>13.587</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C185" t="n">
-        <v>90.37</v>
-      </c>
-      <c r="D185" t="n">
-        <v>-25.57</v>
-      </c>
-      <c r="E185" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F185" t="n">
-        <v>15.198</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C186" t="n">
-        <v>88.94</v>
-      </c>
-      <c r="D186" t="n">
-        <v>-24.87</v>
-      </c>
-      <c r="E186" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F186" t="n">
-        <v>15.929</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C187" t="n">
-        <v>88.08</v>
-      </c>
-      <c r="D187" t="n">
-        <v>-24.88</v>
-      </c>
-      <c r="E187" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F187" t="n">
-        <v>16.803</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C188" t="n">
-        <v>87.38</v>
-      </c>
-      <c r="D188" t="n">
-        <v>-24.9</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F188" t="n">
-        <v>17.526</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C189" t="n">
-        <v>86.75</v>
-      </c>
-      <c r="D189" t="n">
-        <v>-24.84</v>
-      </c>
-      <c r="E189" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F189" t="n">
-        <v>18.089</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C190" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="D190" t="n">
-        <v>-24.77</v>
-      </c>
-      <c r="E190" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F190" t="n">
-        <v>18.572</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C191" t="n">
-        <v>85.95999999999999</v>
-      </c>
-      <c r="D191" t="n">
-        <v>-25.02</v>
-      </c>
-      <c r="E191" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F191" t="n">
-        <v>19.065</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C192" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D192" t="n">
-        <v>-25.27</v>
-      </c>
-      <c r="E192" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F192" t="n">
-        <v>19.548</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C193" t="n">
-        <v>85.72</v>
-      </c>
-      <c r="D193" t="n">
-        <v>-25.45</v>
-      </c>
-      <c r="E193" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F193" t="n">
-        <v>19.751</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C194" t="n">
-        <v>86.14</v>
-      </c>
-      <c r="D194" t="n">
-        <v>-26.07</v>
-      </c>
-      <c r="E194" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F194" t="n">
-        <v>19.954</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C195" t="n">
-        <v>86.31</v>
-      </c>
-      <c r="D195" t="n">
-        <v>-26.62</v>
-      </c>
-      <c r="E195" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F195" t="n">
-        <v>20.327</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C196" t="n">
-        <v>86.55</v>
-      </c>
-      <c r="D196" t="n">
-        <v>-27.12</v>
-      </c>
-      <c r="E196" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F196" t="n">
-        <v>20.59</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C197" t="n">
-        <v>86.73999999999999</v>
-      </c>
-      <c r="D197" t="n">
-        <v>-27.63</v>
-      </c>
-      <c r="E197" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F197" t="n">
-        <v>20.91</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C198" t="n">
-        <v>87.51000000000001</v>
-      </c>
-      <c r="D198" t="n">
-        <v>-28.18</v>
-      </c>
-      <c r="E198" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F198" t="n">
-        <v>20.685</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C199" t="n">
-        <v>88.43000000000001</v>
-      </c>
-      <c r="D199" t="n">
-        <v>-28.85</v>
-      </c>
-      <c r="E199" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F199" t="n">
-        <v>20.44</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C200" t="n">
-        <v>89.38</v>
-      </c>
-      <c r="D200" t="n">
-        <v>-29.53</v>
-      </c>
-      <c r="E200" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F200" t="n">
-        <v>20.175</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C201" t="n">
-        <v>90.31</v>
-      </c>
-      <c r="D201" t="n">
-        <v>-30.22</v>
-      </c>
-      <c r="E201" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F201" t="n">
-        <v>19.93</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C202" t="n">
-        <v>91.20999999999999</v>
-      </c>
-      <c r="D202" t="n">
-        <v>-30.93</v>
-      </c>
-      <c r="E202" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F202" t="n">
-        <v>19.735</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C203" t="n">
-        <v>92.06999999999999</v>
-      </c>
-      <c r="D203" t="n">
-        <v>-31.59</v>
-      </c>
-      <c r="E203" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F203" t="n">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C204" t="n">
-        <v>92.48</v>
-      </c>
-      <c r="D204" t="n">
-        <v>-31.88</v>
-      </c>
-      <c r="E204" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F204" t="n">
-        <v>19.394</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C205" t="n">
-        <v>93.17</v>
-      </c>
-      <c r="D205" t="n">
-        <v>-32.15</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F205" t="n">
-        <v>18.988</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C206" t="n">
-        <v>93.81</v>
-      </c>
-      <c r="D206" t="n">
-        <v>-32.4</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F206" t="n">
-        <v>18.592</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C207" t="n">
-        <v>94.43000000000001</v>
-      </c>
-      <c r="D207" t="n">
-        <v>-32.63</v>
-      </c>
-      <c r="E207" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F207" t="n">
-        <v>18.196</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C208" t="n">
-        <v>94.19</v>
-      </c>
-      <c r="D208" t="n">
-        <v>-32.8</v>
-      </c>
-      <c r="E208" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F208" t="n">
-        <v>18.605</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C209" t="n">
-        <v>93.83</v>
-      </c>
-      <c r="D209" t="n">
-        <v>-32.86</v>
-      </c>
-      <c r="E209" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F209" t="n">
-        <v>19.034</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C210" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="D210" t="n">
-        <v>-33.19</v>
-      </c>
-      <c r="E210" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F210" t="n">
-        <v>19.393</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C211" t="n">
-        <v>93.75</v>
-      </c>
-      <c r="D211" t="n">
-        <v>-33.41</v>
-      </c>
-      <c r="E211" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F211" t="n">
-        <v>19.662</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C212" t="n">
-        <v>93.62</v>
-      </c>
-      <c r="D212" t="n">
-        <v>-33.47</v>
-      </c>
-      <c r="E212" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F212" t="n">
-        <v>19.851</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C213" t="n">
-        <v>92.43000000000001</v>
-      </c>
-      <c r="D213" t="n">
-        <v>-32.47</v>
-      </c>
-      <c r="E213" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F213" t="n">
-        <v>20.04</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C214" t="n">
-        <v>91.25</v>
-      </c>
-      <c r="D214" t="n">
-        <v>-31.4</v>
-      </c>
-      <c r="E214" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F214" t="n">
-        <v>20.15</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C215" t="n">
-        <v>90.52</v>
-      </c>
-      <c r="D215" t="n">
-        <v>-30.35</v>
-      </c>
-      <c r="E215" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F215" t="n">
-        <v>19.83000000000001</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C216" t="n">
-        <v>89.84999999999999</v>
-      </c>
-      <c r="D216" t="n">
-        <v>-29.38</v>
-      </c>
-      <c r="E216" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F216" t="n">
-        <v>19.53</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C217" t="n">
-        <v>88.98</v>
-      </c>
-      <c r="D217" t="n">
-        <v>-28.01</v>
-      </c>
-      <c r="E217" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F217" t="n">
-        <v>19.03</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C218" t="n">
-        <v>88.33</v>
-      </c>
-      <c r="D218" t="n">
-        <v>-26.72</v>
-      </c>
-      <c r="E218" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F218" t="n">
-        <v>18.39</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C219" t="n">
-        <v>87.66</v>
-      </c>
-      <c r="D219" t="n">
-        <v>-25.42</v>
-      </c>
-      <c r="E219" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F219" t="n">
-        <v>17.76</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C220" t="n">
-        <v>86.81999999999999</v>
-      </c>
-      <c r="D220" t="n">
-        <v>-23.84</v>
-      </c>
-      <c r="E220" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F220" t="n">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C221" t="n">
-        <v>85.98999999999999</v>
-      </c>
-      <c r="D221" t="n">
-        <v>-22.4</v>
-      </c>
-      <c r="E221" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F221" t="n">
-        <v>16.41</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C222" t="n">
-        <v>85.28</v>
-      </c>
-      <c r="D222" t="n">
-        <v>-21.09</v>
-      </c>
-      <c r="E222" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F222" t="n">
-        <v>15.81</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C223" t="n">
-        <v>85.56999999999999</v>
-      </c>
-      <c r="D223" t="n">
-        <v>-20.79</v>
-      </c>
-      <c r="E223" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F223" t="n">
-        <v>15.22</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C224" t="n">
-        <v>85.87</v>
-      </c>
-      <c r="D224" t="n">
-        <v>-20.51</v>
-      </c>
-      <c r="E224" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F224" t="n">
-        <v>14.64</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C225" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="D225" t="n">
-        <v>-21.19</v>
-      </c>
-      <c r="E225" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F225" t="n">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C226" t="n">
-        <v>86.53</v>
-      </c>
-      <c r="D226" t="n">
-        <v>-21.85</v>
-      </c>
-      <c r="E226" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F226" t="n">
-        <v>15.32</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-60</v>
-      </c>
-      <c r="C227" t="n">
-        <v>87.05</v>
-      </c>
-      <c r="D227" t="n">
-        <v>-22.9</v>
-      </c>
-      <c r="E227" t="n">
-        <v>-20</v>
-      </c>
-      <c r="F227" t="n">
-        <v>15.85</v>
+        <v>-3.56</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/net_over_time_avg.xlsx
+++ b/Outputs/net_over_time_avg.xlsx
@@ -162,7 +162,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net vs time this session (07/05/21): 10-hand moving averages</a:t>
+              <a:t>Net vs time this session (05/20/21): 10-hand moving averages</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -194,7 +194,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$B$2:$B$176</f>
+              <f>'data'!$B$2:$B$224</f>
             </numRef>
           </val>
         </ser>
@@ -221,7 +221,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$C$2:$C$176</f>
+              <f>'data'!$C$2:$C$224</f>
             </numRef>
           </val>
         </ser>
@@ -248,7 +248,34 @@
           </marker>
           <val>
             <numRef>
-              <f>'data'!$D$2:$D$176</f>
+              <f>'data'!$D$2:$D$224</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'data'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'data'!$E$2:$E$224</f>
             </numRef>
           </val>
         </ser>
@@ -618,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,7 +666,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Raymond</t>
+          <t>Cedric</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -647,6 +674,11 @@
           <t>Scott</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Xavier</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -658,22 +690,16 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.35</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4">
@@ -681,13 +707,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7</v>
+        <v>0.47</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="5">
@@ -695,13 +718,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.02</v>
+        <v>0.68</v>
       </c>
       <c r="C5" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.85</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="6">
@@ -709,13 +729,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.26</v>
+        <v>0.76</v>
       </c>
       <c r="C6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.12</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="7">
@@ -723,13 +740,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.52</v>
+        <v>0.72</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.4</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="8">
@@ -737,13 +751,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.67</v>
+        <v>0.74</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.6</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="9">
@@ -751,13 +762,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.94</v>
+        <v>0.74</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.75</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="10">
@@ -765,13 +773,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.21</v>
+        <v>0.67</v>
       </c>
       <c r="C10" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.87</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="11">
@@ -779,13 +784,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.37</v>
+        <v>0.97</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.96</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="12">
@@ -793,13 +795,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.37</v>
+        <v>0.97</v>
       </c>
       <c r="C12" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.96</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="13">
@@ -807,13 +806,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.77</v>
+        <v>1.36</v>
       </c>
       <c r="C13" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.24</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="14">
@@ -821,13 +817,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.16</v>
+        <v>1.85</v>
       </c>
       <c r="C14" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.44</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="15">
@@ -835,13 +828,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.42</v>
+        <v>2.18</v>
       </c>
       <c r="C15" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.65</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="16">
@@ -849,13 +839,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.63</v>
+        <v>2.35</v>
       </c>
       <c r="C16" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.74</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="17">
@@ -863,13 +850,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.81</v>
+        <v>2.64</v>
       </c>
       <c r="C17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.8</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="18">
@@ -877,13 +861,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.99</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.8</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19">
@@ -891,13 +872,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.16</v>
+        <v>3.44</v>
       </c>
       <c r="C19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.77</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="20">
@@ -905,13 +883,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.03</v>
+        <v>3.91</v>
       </c>
       <c r="C20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.74</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="21">
@@ -919,13 +894,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-3.81</v>
+        <v>4.46</v>
       </c>
       <c r="C21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.69</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="22">
@@ -933,13 +905,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.67</v>
+        <v>4.41</v>
       </c>
       <c r="C22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.63</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="23">
@@ -947,13 +916,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-3.45</v>
+        <v>4.36</v>
       </c>
       <c r="C23" t="n">
-        <v>0.88</v>
+        <v>-4.36</v>
       </c>
       <c r="D23" t="n">
-        <v>2.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -961,13 +930,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.98</v>
+        <v>3.85</v>
       </c>
       <c r="C24" t="n">
-        <v>0.49</v>
+        <v>-4.23</v>
       </c>
       <c r="D24" t="n">
-        <v>2.51</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="25">
@@ -975,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.59</v>
+        <v>3.25</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18</v>
+        <v>-4</v>
       </c>
       <c r="D25" t="n">
-        <v>2.45</v>
+        <v>-0.06666666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -989,13 +958,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.2</v>
+        <v>2.82</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.13</v>
+        <v>-3.94</v>
       </c>
       <c r="D26" t="n">
-        <v>2.39</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +972,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.81</v>
+        <v>2.27</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.44</v>
+        <v>-3.78</v>
       </c>
       <c r="D27" t="n">
-        <v>2.33</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +986,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.37</v>
+        <v>1.53</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8</v>
+        <v>-3.41</v>
       </c>
       <c r="D28" t="n">
-        <v>2.27</v>
+        <v>-0.1166666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -1031,13 +1000,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.02</v>
+        <v>0.73</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.1</v>
+        <v>-2.94</v>
       </c>
       <c r="D29" t="n">
-        <v>2.24</v>
+        <v>0.05714285714285716</v>
       </c>
     </row>
     <row r="30">
@@ -1045,13 +1014,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.86</v>
+        <v>-0.23</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.21</v>
+        <v>-2.47</v>
       </c>
       <c r="D30" t="n">
-        <v>2.21</v>
+        <v>0.1625</v>
       </c>
     </row>
     <row r="31">
@@ -1059,13 +1028,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.75</v>
+        <v>-1.23</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.29</v>
+        <v>-1.94</v>
       </c>
       <c r="D31" t="n">
-        <v>2.2</v>
+        <v>0.2444444444444445</v>
       </c>
     </row>
     <row r="32">
@@ -1073,13 +1042,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.68</v>
+        <v>-1.98</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.34</v>
+        <v>-1.66</v>
       </c>
       <c r="D32" t="n">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33">
@@ -1087,13 +1056,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.66</v>
+        <v>-3.36</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.34</v>
+        <v>-1.39</v>
       </c>
       <c r="D33" t="n">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34">
@@ -1101,13 +1070,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.84</v>
+        <v>-4.38</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.16</v>
+        <v>-1.09</v>
       </c>
       <c r="D34" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="35">
@@ -1115,13 +1084,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.99</v>
+        <v>-5.11</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.01</v>
+        <v>-0.96</v>
       </c>
       <c r="D35" t="n">
-        <v>2.2</v>
+        <v>2.274999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1129,13 +1098,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.11</v>
+        <v>-5.88</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.89</v>
+        <v>-0.82</v>
       </c>
       <c r="D36" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="37">
@@ -1143,13 +1112,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.26</v>
+        <v>-6.63</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.74</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>2.2</v>
+        <v>3.524999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1157,13 +1126,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.46</v>
+        <v>-7.2</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.54</v>
+        <v>-0.77</v>
       </c>
       <c r="D38" t="n">
-        <v>2.2</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="39">
@@ -1171,13 +1140,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.62</v>
+        <v>-7.83</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.38</v>
+        <v>-0.9</v>
       </c>
       <c r="D39" t="n">
-        <v>2.2</v>
+        <v>4.924999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1185,13 +1154,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.89</v>
+        <v>-8.31</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.11</v>
+        <v>-1.03</v>
       </c>
       <c r="D40" t="n">
-        <v>2.18</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="41">
@@ -1199,13 +1168,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.16</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.14</v>
+        <v>-1.11</v>
       </c>
       <c r="D41" t="n">
-        <v>2.18</v>
+        <v>6.175</v>
       </c>
     </row>
     <row r="42">
@@ -1213,13 +1182,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.31</v>
+        <v>-9.44</v>
       </c>
       <c r="C42" t="n">
-        <v>0.27</v>
+        <v>-1.18</v>
       </c>
       <c r="D42" t="n">
-        <v>2.18</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="43">
@@ -1227,13 +1196,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.47</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4</v>
+        <v>-1.25</v>
       </c>
       <c r="D43" t="n">
-        <v>2.19</v>
+        <v>6.745</v>
       </c>
     </row>
     <row r="44">
@@ -1241,13 +1210,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.55</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.46</v>
+        <v>-1.36</v>
       </c>
       <c r="D44" t="n">
-        <v>2.19</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="45">
@@ -1255,13 +1224,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.49</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.46</v>
+        <v>-1.46</v>
       </c>
       <c r="D45" t="n">
-        <v>2.11</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="46">
@@ -1269,13 +1238,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.51</v>
+        <v>-10.14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.46</v>
+        <v>-1.82</v>
       </c>
       <c r="D46" t="n">
-        <v>2.11</v>
+        <v>8.159999999999998</v>
       </c>
     </row>
     <row r="47">
@@ -1283,13 +1252,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.26</v>
+        <v>-10.49</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2</v>
+        <v>-2.17</v>
       </c>
       <c r="D47" t="n">
-        <v>2.1</v>
+        <v>8.859999999999998</v>
       </c>
     </row>
     <row r="48">
@@ -1297,13 +1266,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.01</v>
+        <v>-10.86</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.14</v>
+        <v>-2.51</v>
       </c>
       <c r="D48" t="n">
-        <v>2.17</v>
+        <v>9.569999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -1311,13 +1280,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.77</v>
+        <v>-11.22</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.51</v>
+        <v>-2.97</v>
       </c>
       <c r="D49" t="n">
-        <v>2.27</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="50">
@@ -1325,13 +1294,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.47</v>
+        <v>-11.56</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.99</v>
+        <v>-3.43</v>
       </c>
       <c r="D50" t="n">
-        <v>2.46</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="51">
@@ -1339,13 +1308,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.16</v>
+        <v>-11.89</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.99</v>
+        <v>-4.46</v>
       </c>
       <c r="D51" t="n">
-        <v>2.15</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="52">
@@ -1353,13 +1322,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.91</v>
+        <v>-12.21</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.08</v>
+        <v>-5.51</v>
       </c>
       <c r="D52" t="n">
-        <v>1.99</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="53">
@@ -1367,13 +1336,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.68</v>
+        <v>-12.5</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.15</v>
+        <v>-6.55</v>
       </c>
       <c r="D53" t="n">
-        <v>1.84</v>
+        <v>15.245</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1381,13 +1353,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.5</v>
+        <v>-12.78</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.19</v>
+        <v>-7.53</v>
       </c>
       <c r="D54" t="n">
-        <v>1.7</v>
+        <v>16.51</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1395,13 +1370,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5</v>
+        <v>-12.43</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.16</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>1.66</v>
+        <v>16.835</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="56">
@@ -1409,13 +1387,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.57</v>
+        <v>-12.35</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.12</v>
+        <v>-8.65</v>
       </c>
       <c r="D56" t="n">
-        <v>1.54</v>
+        <v>17.18</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
@@ -1423,13 +1404,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.36</v>
+        <v>-12.31</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.89</v>
+        <v>17.525</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="58">
@@ -1437,13 +1421,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02</v>
+        <v>-12.31</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.25</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08</v>
+        <v>18.39</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6333333333333334</v>
       </c>
     </row>
     <row r="59">
@@ -1451,13 +1438,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.79</v>
+        <v>-12.38</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.17</v>
+        <v>-10.2</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.77</v>
+        <v>18.405</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9428571428571428</v>
       </c>
     </row>
     <row r="60">
@@ -1465,13 +1455,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.65</v>
+        <v>-12.53</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.11</v>
+        <v>-10.6</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.69</v>
+        <v>18.67</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4712499999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1479,13 +1472,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.62</v>
+        <v>-12.67</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.63</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.15</v>
+        <v>18.105</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.482222222222222</v>
       </c>
     </row>
     <row r="62">
@@ -1493,13 +1489,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.6</v>
+        <v>-12.88</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.99</v>
+        <v>-7.19</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.77</v>
+        <v>17.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.531</v>
       </c>
     </row>
     <row r="63">
@@ -1507,13 +1506,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.54</v>
+        <v>-12.96</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.55</v>
+        <v>-5.52</v>
       </c>
       <c r="D63" t="n">
-        <v>-3.15</v>
+        <v>17.21</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2.531</v>
       </c>
     </row>
     <row r="64">
@@ -1521,13 +1523,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.41</v>
+        <v>-13.12</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.09</v>
+        <v>-3.87</v>
       </c>
       <c r="D64" t="n">
-        <v>-3.47</v>
+        <v>16.94</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-3.748</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +1540,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.22</v>
+        <v>-13.24</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.8</v>
+        <v>-2.52</v>
       </c>
       <c r="D65" t="n">
-        <v>-3.57</v>
+        <v>16.75</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-4.784999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -1549,13 +1557,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.06</v>
+        <v>-13.42</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.4</v>
+        <v>-1.16</v>
       </c>
       <c r="D66" t="n">
-        <v>-3.66</v>
+        <v>16.62</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-5.842</v>
       </c>
     </row>
     <row r="67">
@@ -1563,13 +1574,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.36</v>
+        <v>-13.58</v>
       </c>
       <c r="C67" t="n">
-        <v>-4.13</v>
+        <v>0.33</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.23</v>
+        <v>16.58</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-7.129</v>
       </c>
     </row>
     <row r="68">
@@ -1577,13 +1591,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.64</v>
+        <v>-13.22</v>
       </c>
       <c r="C68" t="n">
-        <v>-4.91</v>
+        <v>1.81</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.73</v>
+        <v>16.01</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-8.391</v>
       </c>
     </row>
     <row r="69">
@@ -1591,13 +1608,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.52</v>
+        <v>-12.35</v>
       </c>
       <c r="C69" t="n">
-        <v>-5.3</v>
+        <v>3.3</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.22</v>
+        <v>16.11</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-10.861</v>
       </c>
     </row>
     <row r="70">
@@ -1605,13 +1625,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.39</v>
+        <v>-11.44</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.76</v>
+        <v>4.81</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.63</v>
+        <v>15.97</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-13.141</v>
       </c>
     </row>
     <row r="71">
@@ -1619,13 +1642,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.28</v>
+        <v>-9.76</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.14</v>
+        <v>4.59</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.14</v>
+        <v>16.09</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-14.724</v>
       </c>
     </row>
     <row r="72">
@@ -1633,13 +1659,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.14</v>
+        <v>-8.01</v>
       </c>
       <c r="C72" t="n">
-        <v>-6.5</v>
+        <v>4.49</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.64</v>
+        <v>16.13</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-16.407</v>
       </c>
     </row>
     <row r="73">
@@ -1647,13 +1676,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.91</v>
+        <v>-6.62</v>
       </c>
       <c r="C73" t="n">
-        <v>-6.67</v>
+        <v>4.85</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.24</v>
+        <v>16.18</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-18.21</v>
       </c>
     </row>
     <row r="74">
@@ -1661,13 +1693,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.59</v>
+        <v>-4.91</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.83</v>
+        <v>5.17</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24</v>
+        <v>15.93</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-19.993</v>
       </c>
     </row>
     <row r="75">
@@ -1675,13 +1710,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.33</v>
+        <v>-3.17</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.81</v>
+        <v>5.33</v>
       </c>
       <c r="D75" t="n">
-        <v>0.47</v>
+        <v>16</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-21.956</v>
       </c>
     </row>
     <row r="76">
@@ -1689,13 +1727,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.19</v>
+        <v>-1.38</v>
       </c>
       <c r="C76" t="n">
-        <v>-6.84</v>
+        <v>5.48</v>
       </c>
       <c r="D76" t="n">
-        <v>0.65</v>
+        <v>16.354</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-24.253</v>
       </c>
     </row>
     <row r="77">
@@ -1703,13 +1744,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.07</v>
+        <v>0.26</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.89</v>
+        <v>5.65</v>
       </c>
       <c r="D77" t="n">
-        <v>0.82</v>
+        <v>16.618</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-26.33</v>
       </c>
     </row>
     <row r="78">
@@ -1717,13 +1761,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.86</v>
+        <v>1.59</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.87</v>
+        <v>5.83</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01</v>
+        <v>16.812</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-28.032</v>
       </c>
     </row>
     <row r="79">
@@ -1731,13 +1778,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.67</v>
+        <v>2.41</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.87</v>
+        <v>6.01</v>
       </c>
       <c r="D79" t="n">
-        <v>1.2</v>
+        <v>17.626</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-29.846</v>
       </c>
     </row>
     <row r="80">
@@ -1745,13 +1795,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.62</v>
+        <v>3.32</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.79</v>
+        <v>6.19</v>
       </c>
       <c r="D80" t="n">
-        <v>1.17</v>
+        <v>18.43</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-31.74</v>
       </c>
     </row>
     <row r="81">
@@ -1759,13 +1812,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.55</v>
+        <v>3.52</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.81</v>
+        <v>6.44</v>
       </c>
       <c r="D81" t="n">
-        <v>1.25</v>
+        <v>18.819</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-32.57899999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1773,13 +1829,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.59</v>
+        <v>4.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-6.86</v>
+        <v>6.65</v>
       </c>
       <c r="D82" t="n">
-        <v>1.27</v>
+        <v>18.948</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-33.658</v>
       </c>
     </row>
     <row r="83">
@@ -1787,13 +1846,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.75</v>
+        <v>5.26</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.87</v>
+        <v>6.42</v>
       </c>
       <c r="D83" t="n">
-        <v>1.12</v>
+        <v>19.077</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-34.557</v>
       </c>
     </row>
     <row r="84">
@@ -1801,13 +1863,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.22</v>
+        <v>5.95</v>
       </c>
       <c r="C84" t="n">
-        <v>-6.9</v>
+        <v>6.25</v>
       </c>
       <c r="D84" t="n">
-        <v>0.68</v>
+        <v>19.261</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-35.261</v>
       </c>
     </row>
     <row r="85">
@@ -1815,13 +1880,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.71</v>
+        <v>6.57</v>
       </c>
       <c r="C85" t="n">
-        <v>-6.95</v>
+        <v>6.24</v>
       </c>
       <c r="D85" t="n">
-        <v>0.24</v>
+        <v>19.275</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-35.88500000000001</v>
       </c>
     </row>
     <row r="86">
@@ -1829,13 +1897,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.28</v>
+        <v>7.21</v>
       </c>
       <c r="C86" t="n">
-        <v>-7.06</v>
+        <v>6.24</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.21</v>
+        <v>18.945</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-36.195</v>
       </c>
     </row>
     <row r="87">
@@ -1843,13 +1914,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.92</v>
+        <v>8.18</v>
       </c>
       <c r="C87" t="n">
-        <v>-7.19</v>
+        <v>6.24</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.73</v>
+        <v>18.545</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-36.765</v>
       </c>
     </row>
     <row r="88">
@@ -1857,13 +1931,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.5</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.34</v>
+        <v>6.17</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.17</v>
+        <v>18.195</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-37.285</v>
       </c>
     </row>
     <row r="89">
@@ -1871,13 +1948,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.27</v>
+        <v>10.11</v>
       </c>
       <c r="C89" t="n">
-        <v>-7.48</v>
+        <v>6.01</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.79</v>
+        <v>17.225</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-37.145</v>
       </c>
     </row>
     <row r="90">
@@ -1885,13 +1965,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.869999999999999</v>
+        <v>11</v>
       </c>
       <c r="C90" t="n">
-        <v>-7.68</v>
+        <v>5.9</v>
       </c>
       <c r="D90" t="n">
-        <v>-2.2</v>
+        <v>16.255</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-36.94500000000001</v>
       </c>
     </row>
     <row r="91">
@@ -1899,13 +1982,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.38</v>
+        <v>11.71</v>
       </c>
       <c r="C91" t="n">
-        <v>-7.84</v>
+        <v>5.78</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.54</v>
+        <v>14.97</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-36.255</v>
       </c>
     </row>
     <row r="92">
@@ -1913,13 +1999,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10.88</v>
+        <v>11.83</v>
       </c>
       <c r="C92" t="n">
-        <v>-7.99</v>
+        <v>5.65</v>
       </c>
       <c r="D92" t="n">
-        <v>-2.9</v>
+        <v>13.935</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-35.205</v>
       </c>
     </row>
     <row r="93">
@@ -1927,13 +2016,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.4</v>
+        <v>11.75</v>
       </c>
       <c r="C93" t="n">
-        <v>-8.16</v>
+        <v>5.55</v>
       </c>
       <c r="D93" t="n">
-        <v>-3.24</v>
+        <v>12.9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-33.995</v>
       </c>
     </row>
     <row r="94">
@@ -1941,13 +2033,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.82</v>
+        <v>11.66</v>
       </c>
       <c r="C94" t="n">
-        <v>-8.32</v>
+        <v>5.92</v>
       </c>
       <c r="D94" t="n">
-        <v>-3.5</v>
+        <v>12.05</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-33.42</v>
       </c>
     </row>
     <row r="95">
@@ -1955,13 +2050,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.3</v>
+        <v>11.54</v>
       </c>
       <c r="C95" t="n">
-        <v>-8.470000000000001</v>
+        <v>5.25</v>
       </c>
       <c r="D95" t="n">
-        <v>-3.83</v>
+        <v>11.12</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-31.71</v>
       </c>
     </row>
     <row r="96">
@@ -1969,13 +2067,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.76</v>
+        <v>11.25</v>
       </c>
       <c r="C96" t="n">
-        <v>-8.68</v>
+        <v>2.31</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.08</v>
+        <v>12.778</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-30.14</v>
       </c>
     </row>
     <row r="97">
@@ -1983,13 +2084,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.12</v>
+        <v>10.79</v>
       </c>
       <c r="C97" t="n">
-        <v>-8.720000000000001</v>
+        <v>-0.61</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.4</v>
+        <v>14.506</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-28.48</v>
       </c>
     </row>
     <row r="98">
@@ -1997,13 +2101,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.55</v>
+        <v>10.2</v>
       </c>
       <c r="C98" t="n">
-        <v>-8.75</v>
+        <v>-3.28</v>
       </c>
       <c r="D98" t="n">
-        <v>-4.8</v>
+        <v>16.168</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-26.886</v>
       </c>
     </row>
     <row r="99">
@@ -2011,13 +2118,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.78</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>-8.76</v>
+        <v>-5.68</v>
       </c>
       <c r="D99" t="n">
-        <v>-5.02</v>
+        <v>17.83</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-25.562</v>
       </c>
     </row>
     <row r="100">
@@ -2025,13 +2135,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.05</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>-8.720000000000001</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>-5.33</v>
+        <v>19.492</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-24.258</v>
       </c>
     </row>
     <row r="101">
@@ -2039,13 +2152,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.33</v>
+        <v>8.81</v>
       </c>
       <c r="C101" t="n">
-        <v>-8.619999999999999</v>
+        <v>-10.54</v>
       </c>
       <c r="D101" t="n">
-        <v>-5.71</v>
+        <v>21.894</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-23.899</v>
       </c>
     </row>
     <row r="102">
@@ -2053,13 +2169,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.47</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-8.460000000000001</v>
+        <v>-12.96</v>
       </c>
       <c r="D102" t="n">
-        <v>-6.01</v>
+        <v>24.306</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-23.45</v>
       </c>
     </row>
     <row r="103">
@@ -2067,13 +2186,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.65</v>
+        <v>7.97</v>
       </c>
       <c r="C103" t="n">
-        <v>-8.32</v>
+        <v>-15.42</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.33</v>
+        <v>26.718</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-22.971</v>
       </c>
     </row>
     <row r="104">
@@ -2081,13 +2203,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>14.68</v>
+        <v>7.68</v>
       </c>
       <c r="C104" t="n">
-        <v>-8.17</v>
+        <v>-18.36</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.51</v>
+        <v>29.13</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-22.13200000000001</v>
       </c>
     </row>
     <row r="105">
@@ -2095,13 +2220,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.29</v>
+        <v>7.05</v>
       </c>
       <c r="C105" t="n">
-        <v>-8.66</v>
+        <v>-19.8</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.63</v>
+        <v>31.63200000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-22.54800000000001</v>
       </c>
     </row>
     <row r="106">
@@ -2109,13 +2237,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.84</v>
+        <v>6.58</v>
       </c>
       <c r="C106" t="n">
-        <v>-9.07</v>
+        <v>-18.98</v>
       </c>
       <c r="D106" t="n">
-        <v>-6.77</v>
+        <v>31.546</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-22.794</v>
       </c>
     </row>
     <row r="107">
@@ -2123,13 +2254,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16.31</v>
+        <v>6.1</v>
       </c>
       <c r="C107" t="n">
-        <v>-9.630000000000001</v>
+        <v>-18.18</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.68</v>
+        <v>31.46</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-23</v>
       </c>
     </row>
     <row r="108">
@@ -2137,13 +2271,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>17</v>
+        <v>6.02</v>
       </c>
       <c r="C108" t="n">
-        <v>-10.21</v>
+        <v>-17.57</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.79</v>
+        <v>31.46</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-23.51</v>
       </c>
     </row>
     <row r="109">
@@ -2151,13 +2288,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>17.63</v>
+        <v>5.92</v>
       </c>
       <c r="C109" t="n">
-        <v>-10.71</v>
+        <v>-17.17</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.92</v>
+        <v>31.46</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-23.81</v>
       </c>
     </row>
     <row r="110">
@@ -2165,13 +2305,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>17.99</v>
+        <v>5.57</v>
       </c>
       <c r="C110" t="n">
-        <v>-11.2</v>
+        <v>-16.16</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.79</v>
+        <v>31.46</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-24.47</v>
       </c>
     </row>
     <row r="111">
@@ -2179,13 +2322,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>18.33</v>
+        <v>5.57</v>
       </c>
       <c r="C111" t="n">
-        <v>-11.52</v>
+        <v>-15.21</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.81</v>
+        <v>31.46</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-25.42</v>
       </c>
     </row>
     <row r="112">
@@ -2193,13 +2339,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>19.19</v>
+        <v>5.6</v>
       </c>
       <c r="C112" t="n">
-        <v>-12.35</v>
+        <v>-14.26</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.84</v>
+        <v>31.46</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-26.405</v>
       </c>
     </row>
     <row r="113">
@@ -2207,13 +2356,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>20</v>
+        <v>5.55</v>
       </c>
       <c r="C113" t="n">
-        <v>-13.13</v>
+        <v>-13.37</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.87</v>
+        <v>31.46</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-27.24</v>
       </c>
     </row>
     <row r="114">
@@ -2221,13 +2373,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>20.95</v>
+        <v>6.21</v>
       </c>
       <c r="C114" t="n">
-        <v>-13.97</v>
+        <v>-12.48</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.98</v>
+        <v>31.46</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-28.785</v>
       </c>
     </row>
     <row r="115">
@@ -2235,13 +2390,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.26</v>
+        <v>7.21</v>
       </c>
       <c r="C115" t="n">
-        <v>-14.19</v>
+        <v>-10.82</v>
       </c>
       <c r="D115" t="n">
-        <v>-7.06</v>
+        <v>31.46</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-31.45499999999999</v>
       </c>
     </row>
     <row r="116">
@@ -2249,13 +2407,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.75</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>-14.44</v>
+        <v>-9.32</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.31</v>
+        <v>31.46</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-34.13499999999999</v>
       </c>
     </row>
     <row r="117">
@@ -2263,13 +2424,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>22.02</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>-14.38</v>
+        <v>-7.77</v>
       </c>
       <c r="D117" t="n">
-        <v>-7.64</v>
+        <v>31.46</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-36.83499999999999</v>
       </c>
     </row>
     <row r="118">
@@ -2277,13 +2441,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>22.07</v>
+        <v>10.21</v>
       </c>
       <c r="C118" t="n">
-        <v>-14.31</v>
+        <v>-6.13</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.76</v>
+        <v>31.46</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-39.145</v>
       </c>
     </row>
     <row r="119">
@@ -2291,13 +2458,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>22.13</v>
+        <v>10.93</v>
       </c>
       <c r="C119" t="n">
-        <v>-14.27</v>
+        <v>-4.5</v>
       </c>
       <c r="D119" t="n">
-        <v>-7.86</v>
+        <v>31.46</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-41.495</v>
       </c>
     </row>
     <row r="120">
@@ -2305,13 +2475,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>22.42</v>
+        <v>11.48</v>
       </c>
       <c r="C120" t="n">
-        <v>-14.21</v>
+        <v>-3.1</v>
       </c>
       <c r="D120" t="n">
-        <v>-8.210000000000001</v>
+        <v>31.46</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-43.44500000000001</v>
       </c>
     </row>
     <row r="121">
@@ -2319,13 +2492,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>22.7</v>
+        <v>11.61</v>
       </c>
       <c r="C121" t="n">
-        <v>-14.57</v>
+        <v>-1.58</v>
       </c>
       <c r="D121" t="n">
-        <v>-8.130000000000001</v>
+        <v>31.46</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-45.085</v>
       </c>
     </row>
     <row r="122">
@@ -2333,13 +2509,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>22.59</v>
+        <v>11.89</v>
       </c>
       <c r="C122" t="n">
-        <v>-14.55</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>-8.039999999999999</v>
+        <v>31.46</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-46.88</v>
       </c>
     </row>
     <row r="123">
@@ -2347,13 +2526,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>22.49</v>
+        <v>12.13</v>
       </c>
       <c r="C123" t="n">
-        <v>-14.53</v>
+        <v>1.65</v>
       </c>
       <c r="D123" t="n">
-        <v>-7.94</v>
+        <v>31.46</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-48.835</v>
       </c>
     </row>
     <row r="124">
@@ -2361,13 +2543,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>22.34</v>
+        <v>11.57</v>
       </c>
       <c r="C124" t="n">
-        <v>-14.47</v>
+        <v>3.37</v>
       </c>
       <c r="D124" t="n">
-        <v>-7.83</v>
+        <v>31.46</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="125">
@@ -2375,13 +2560,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>22.17</v>
+        <v>11.39</v>
       </c>
       <c r="C125" t="n">
-        <v>-14.41</v>
+        <v>3.55</v>
       </c>
       <c r="D125" t="n">
-        <v>-7.72</v>
+        <v>31.46</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="126">
@@ -2389,13 +2577,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>22.05</v>
+        <v>11.01</v>
       </c>
       <c r="C126" t="n">
-        <v>-14.57</v>
+        <v>3.93</v>
       </c>
       <c r="D126" t="n">
-        <v>-7.44</v>
+        <v>31.46</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="127">
@@ -2403,13 +2594,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>22.71</v>
+        <v>10.68</v>
       </c>
       <c r="C127" t="n">
-        <v>-15.45</v>
+        <v>4.26</v>
       </c>
       <c r="D127" t="n">
-        <v>-7.22</v>
+        <v>31.46</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="128">
@@ -2417,13 +2611,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>23.32</v>
+        <v>10.42</v>
       </c>
       <c r="C128" t="n">
-        <v>-16.34</v>
+        <v>4.52</v>
       </c>
       <c r="D128" t="n">
-        <v>-6.94</v>
+        <v>31.46</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="129">
@@ -2431,13 +2628,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>24.01</v>
+        <v>10.23</v>
       </c>
       <c r="C129" t="n">
-        <v>-17.31</v>
+        <v>4.71</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.66</v>
+        <v>31.46</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="130">
@@ -2445,13 +2645,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>24.69</v>
+        <v>10.34</v>
       </c>
       <c r="C130" t="n">
-        <v>-18.3</v>
+        <v>4.6</v>
       </c>
       <c r="D130" t="n">
-        <v>-6.35</v>
+        <v>31.46</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="131">
@@ -2459,13 +2662,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>25.2</v>
+        <v>10.54</v>
       </c>
       <c r="C131" t="n">
-        <v>-19.13</v>
+        <v>4.4</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.03</v>
+        <v>31.46</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="132">
@@ -2473,13 +2679,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>26.1</v>
+        <v>10.75</v>
       </c>
       <c r="C132" t="n">
-        <v>-19.9</v>
+        <v>4.19</v>
       </c>
       <c r="D132" t="n">
-        <v>-6.16</v>
+        <v>31.44</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="133">
@@ -2487,13 +2696,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>26.8</v>
+        <v>10.55</v>
       </c>
       <c r="C133" t="n">
-        <v>-21.38</v>
+        <v>4.42</v>
       </c>
       <c r="D133" t="n">
-        <v>-5.4</v>
+        <v>31.39</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="134">
@@ -2501,13 +2713,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.34</v>
+        <v>10.33</v>
       </c>
       <c r="C134" t="n">
-        <v>-22.67</v>
+        <v>4.59</v>
       </c>
       <c r="D134" t="n">
-        <v>-4.67</v>
+        <v>31.42</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="135">
@@ -2515,13 +2730,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.84</v>
+        <v>9.74</v>
       </c>
       <c r="C135" t="n">
-        <v>-23.99</v>
+        <v>5.07</v>
       </c>
       <c r="D135" t="n">
-        <v>-3.85</v>
+        <v>31.51</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="136">
@@ -2529,13 +2747,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.49</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>-25.11</v>
+        <v>5.25</v>
       </c>
       <c r="D136" t="n">
-        <v>-2.37</v>
+        <v>31.52</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="137">
@@ -2543,13 +2764,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>26.56</v>
+        <v>9.33</v>
       </c>
       <c r="C137" t="n">
-        <v>-25.71</v>
+        <v>5.4</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.86</v>
+        <v>31.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="138">
@@ -2557,13 +2781,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>25.93</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>-26.51</v>
+        <v>5.56</v>
       </c>
       <c r="D138" t="n">
-        <v>0.58</v>
+        <v>31.69</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="139">
@@ -2571,13 +2798,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>25.28</v>
+        <v>8.83</v>
       </c>
       <c r="C139" t="n">
-        <v>-27.37</v>
+        <v>5.79</v>
       </c>
       <c r="D139" t="n">
-        <v>2.09</v>
+        <v>31.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="140">
@@ -2585,13 +2815,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>24.64</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>-28.22</v>
+        <v>5.9</v>
       </c>
       <c r="D140" t="n">
-        <v>3.58</v>
+        <v>31.96999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="141">
@@ -2599,13 +2832,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>24.05</v>
+        <v>8.27</v>
       </c>
       <c r="C141" t="n">
-        <v>-28.99</v>
+        <v>5.97</v>
       </c>
       <c r="D141" t="n">
-        <v>4.95</v>
+        <v>32.14</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="142">
@@ -2613,13 +2849,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>22.93</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>-29.71</v>
+        <v>5.99</v>
       </c>
       <c r="D142" t="n">
-        <v>6.77</v>
+        <v>32.25</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="143">
@@ -2627,13 +2866,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>22.02</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>-29.66</v>
+        <v>5.43</v>
       </c>
       <c r="D143" t="n">
-        <v>7.65</v>
+        <v>32.41</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="144">
@@ -2641,13 +2883,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>21.39</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>-29.81</v>
+        <v>4.92</v>
       </c>
       <c r="D144" t="n">
-        <v>8.42</v>
+        <v>32.43</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="145">
@@ -2655,13 +2900,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>20.92</v>
+        <v>9.56</v>
       </c>
       <c r="C145" t="n">
-        <v>-29.92</v>
+        <v>4.15</v>
       </c>
       <c r="D145" t="n">
-        <v>9</v>
+        <v>32.67</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="146">
@@ -2669,13 +2917,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>21.07</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>-30.02</v>
+        <v>3.64</v>
       </c>
       <c r="D146" t="n">
-        <v>8.949999999999999</v>
+        <v>33.03</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="147">
@@ -2683,13 +2934,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>21.49</v>
+        <v>9.9</v>
       </c>
       <c r="C147" t="n">
-        <v>-30.22</v>
+        <v>3.1</v>
       </c>
       <c r="D147" t="n">
-        <v>8.73</v>
+        <v>33.32</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="148">
@@ -2697,13 +2951,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>21.62</v>
+        <v>10.07</v>
       </c>
       <c r="C148" t="n">
-        <v>-30.4</v>
+        <v>2.49</v>
       </c>
       <c r="D148" t="n">
-        <v>8.779999999999999</v>
+        <v>33.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="149">
@@ -2711,13 +2968,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>21.76</v>
+        <v>9.82</v>
       </c>
       <c r="C149" t="n">
-        <v>-30.49</v>
+        <v>1.88</v>
       </c>
       <c r="D149" t="n">
-        <v>8.73</v>
+        <v>34.49499999999999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="150">
@@ -2725,13 +2985,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>21.88</v>
+        <v>9.58</v>
       </c>
       <c r="C150" t="n">
-        <v>-30.57</v>
+        <v>1.45</v>
       </c>
       <c r="D150" t="n">
-        <v>8.699999999999999</v>
+        <v>35.16999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="151">
@@ -2739,13 +3002,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>22.17</v>
+        <v>9.43</v>
       </c>
       <c r="C151" t="n">
-        <v>-30.68</v>
+        <v>0.95</v>
       </c>
       <c r="D151" t="n">
-        <v>8.51</v>
+        <v>35.825</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="152">
@@ -2753,13 +3019,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>22.75</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>-30.85</v>
+        <v>0.65</v>
       </c>
       <c r="D152" t="n">
-        <v>8.109999999999999</v>
+        <v>36.49999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="153">
@@ -2767,13 +3036,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>23.21</v>
+        <v>8.68</v>
       </c>
       <c r="C153" t="n">
-        <v>-31.09</v>
+        <v>0.36</v>
       </c>
       <c r="D153" t="n">
-        <v>7.88</v>
+        <v>37.15499999999999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="154">
@@ -2781,13 +3053,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>23.49</v>
+        <v>8.27</v>
       </c>
       <c r="C154" t="n">
-        <v>-30.17</v>
+        <v>0.08</v>
       </c>
       <c r="D154" t="n">
-        <v>6.68</v>
+        <v>37.84999999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="155">
@@ -2795,13 +3070,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>23.6</v>
+        <v>7.88</v>
       </c>
       <c r="C155" t="n">
-        <v>-29.24</v>
+        <v>0.16</v>
       </c>
       <c r="D155" t="n">
-        <v>5.64</v>
+        <v>38.165</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="156">
@@ -2809,13 +3087,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>23.65</v>
+        <v>7.52</v>
       </c>
       <c r="C156" t="n">
-        <v>-28.3</v>
+        <v>0.24</v>
       </c>
       <c r="D156" t="n">
-        <v>4.65</v>
+        <v>38.44</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="157">
@@ -2823,13 +3104,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>23.53</v>
+        <v>6.96</v>
       </c>
       <c r="C157" t="n">
-        <v>-27.38</v>
+        <v>0.36</v>
       </c>
       <c r="D157" t="n">
-        <v>3.85</v>
+        <v>38.87499999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="158">
@@ -2837,13 +3121,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>24.38</v>
+        <v>6.41</v>
       </c>
       <c r="C158" t="n">
-        <v>-27.16</v>
+        <v>0.54</v>
       </c>
       <c r="D158" t="n">
-        <v>2.78</v>
+        <v>39.25</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="159">
@@ -2851,13 +3138,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>25.25</v>
+        <v>6.28</v>
       </c>
       <c r="C159" t="n">
-        <v>-26.96</v>
+        <v>0.73</v>
       </c>
       <c r="D159" t="n">
-        <v>1.71</v>
+        <v>39.19</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="160">
@@ -2865,13 +3155,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>26.01</v>
+        <v>6.17</v>
       </c>
       <c r="C160" t="n">
-        <v>-26.58</v>
+        <v>-0.14</v>
       </c>
       <c r="D160" t="n">
-        <v>0.57</v>
+        <v>40.17</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="161">
@@ -2879,13 +3172,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>26.58</v>
+        <v>5.95</v>
       </c>
       <c r="C161" t="n">
-        <v>-26</v>
+        <v>-0.47</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.58</v>
+        <v>40.71999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="162">
@@ -2893,13 +3189,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>26.74</v>
+        <v>5.73</v>
       </c>
       <c r="C162" t="n">
-        <v>-25.4</v>
+        <v>-0.33</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.34</v>
+        <v>40.79799999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="163">
@@ -2907,13 +3206,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>27.12</v>
+        <v>5.56</v>
       </c>
       <c r="C163" t="n">
-        <v>-24.91</v>
+        <v>-0.18</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.21</v>
+        <v>40.816</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="164">
@@ -2921,13 +3223,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>27.48</v>
+        <v>5.95</v>
       </c>
       <c r="C164" t="n">
-        <v>-25.47</v>
+        <v>-0.04</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.01</v>
+        <v>40.294</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="165">
@@ -2935,13 +3240,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>27.89</v>
+        <v>6.36</v>
       </c>
       <c r="C165" t="n">
-        <v>-26.02</v>
+        <v>-0.03</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.87</v>
+        <v>39.87199999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="166">
@@ -2949,13 +3257,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>28.48</v>
+        <v>6.73</v>
       </c>
       <c r="C166" t="n">
-        <v>-26.63</v>
+        <v>-0.14</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.85</v>
+        <v>39.60999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="167">
@@ -2963,13 +3274,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>29.05</v>
+        <v>6.78</v>
       </c>
       <c r="C167" t="n">
-        <v>-27.23</v>
+        <v>-0.33</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.82</v>
+        <v>39.74799999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="168">
@@ -2977,13 +3291,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>28.96</v>
+        <v>6.86</v>
       </c>
       <c r="C168" t="n">
-        <v>-27.12</v>
+        <v>-0.51</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.84</v>
+        <v>39.84599999999999</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="169">
@@ -2991,13 +3308,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>28.86</v>
+        <v>6.83</v>
       </c>
       <c r="C169" t="n">
-        <v>-27.02</v>
+        <v>-0.67</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.84</v>
+        <v>40.044</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="170">
@@ -3005,13 +3325,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>28.89</v>
+        <v>6.38</v>
       </c>
       <c r="C170" t="n">
-        <v>-27.11</v>
+        <v>0.57</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.79</v>
+        <v>39.242</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="171">
@@ -3019,13 +3342,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>29.34</v>
+        <v>5.75</v>
       </c>
       <c r="C171" t="n">
-        <v>-27.44</v>
+        <v>1.36</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.9</v>
+        <v>39.09</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="172">
@@ -3033,13 +3359,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>29.95</v>
+        <v>5.23</v>
       </c>
       <c r="C172" t="n">
-        <v>-27.79</v>
+        <v>1.56</v>
       </c>
       <c r="D172" t="n">
-        <v>-2.16</v>
+        <v>39.41</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="173">
@@ -3047,13 +3376,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>30.46</v>
+        <v>4.63</v>
       </c>
       <c r="C173" t="n">
-        <v>-28.05</v>
+        <v>1.86</v>
       </c>
       <c r="D173" t="n">
-        <v>-2.44</v>
+        <v>39.70999999999999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="174">
@@ -3061,13 +3393,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>31.04</v>
+        <v>3.44</v>
       </c>
       <c r="C174" t="n">
-        <v>-28.39</v>
+        <v>2.2</v>
       </c>
       <c r="D174" t="n">
-        <v>-2.71</v>
+        <v>40.57</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="175">
@@ -3075,13 +3410,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>31.65</v>
+        <v>2.28</v>
       </c>
       <c r="C175" t="n">
-        <v>-28.73</v>
+        <v>2.55</v>
       </c>
       <c r="D175" t="n">
-        <v>-3.01</v>
+        <v>41.37</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-50</v>
       </c>
     </row>
     <row r="176">
@@ -3089,13 +3427,832 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>32.14</v>
+        <v>1.12</v>
       </c>
       <c r="C176" t="n">
-        <v>-28.7</v>
+        <v>3.03</v>
       </c>
       <c r="D176" t="n">
-        <v>-3.56</v>
+        <v>42.05</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="D177" t="n">
+        <v>42.499</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D178" t="n">
+        <v>42.95799999999999</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="D179" t="n">
+        <v>43.297</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D180" t="n">
+        <v>43.656</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="D181" t="n">
+        <v>43.84500000000001</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="D182" t="n">
+        <v>44.03400000000001</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="D183" t="n">
+        <v>44.303</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="D184" t="n">
+        <v>44.23800000000001</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D185" t="n">
+        <v>44.213</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="D186" t="n">
+        <v>44.26799999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="D187" t="n">
+        <v>44.53399999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="D188" t="n">
+        <v>44.77</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-3.38</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D189" t="n">
+        <v>45.10600000000001</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D190" t="n">
+        <v>45.377</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="D191" t="n">
+        <v>45.598</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="D192" t="n">
+        <v>45.879</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>46.44</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D194" t="n">
+        <v>47.315</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D195" t="n">
+        <v>48.20999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="D196" t="n">
+        <v>48.808</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="D197" t="n">
+        <v>49.316</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="D198" t="n">
+        <v>49.78400000000001</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-4.69</v>
+      </c>
+      <c r="D199" t="n">
+        <v>50.712</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-5.95</v>
+      </c>
+      <c r="D200" t="n">
+        <v>51.725</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-6.94</v>
+      </c>
+      <c r="D201" t="n">
+        <v>52.818</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="D202" t="n">
+        <v>53.461</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>54.104</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-9.619999999999999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>54.617</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-9.84</v>
+      </c>
+      <c r="D205" t="n">
+        <v>55.11999999999999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>20